--- a/ha-asset/01_design/03_batch/設計書_3.1.ヘルスチェックバッチ.xlsx
+++ b/ha-asset/01_design/03_batch/設計書_3.1.ヘルスチェックバッチ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\03_batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55F39AC9-AA4C-46FF-971B-16BE515E94B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2920453B-B25E-4682-9F18-0B3E47EF0E35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="135" yWindow="2640" windowWidth="21600" windowHeight="12855" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,14 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0.更新履歴'!$A$1:$AA$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1.機能一覧'!$A$1:$AW$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2.1.ヘルスチェックバッチ'!$A$1:$BK$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'3.1.ファイルIF'!$A$1:$BF$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'3.1.ファイルIF'!$A$1:$BF$17</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>0.更新履歴</t>
   </si>
@@ -78,9 +78,6 @@
     <t>文字コード</t>
   </si>
   <si>
-    <t>Shift-JIS</t>
-  </si>
-  <si>
     <t>起動方法/タイミング</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>ヘルスチェックAPI実行</t>
   </si>
   <si>
-    <t>設計書を呼び出し</t>
-  </si>
-  <si>
     <t>ヘルスチェックAPI.result == "0"：正常 の場合</t>
   </si>
   <si>
@@ -127,9 +121,6 @@
   </si>
   <si>
     <t>エラーメール送信</t>
-  </si>
-  <si>
-    <t>2.1.3.1.エラーメール 参照</t>
   </si>
   <si>
     <t>2.1.2.DB処理</t>
@@ -163,9 +154,6 @@
   </si>
   <si>
     <t>メール本文</t>
-  </si>
-  <si>
-    <t>3.1.1.ヘルスチェックエラーメール本文 参照</t>
   </si>
   <si>
     <t>入力</t>
@@ -270,7 +258,32 @@
     <t>3.1.1.2 ファイル内容</t>
   </si>
   <si>
-    <t>メールテンプレート一覧 NoXX 参照</t>
+    <t>[3.1.ファイルIF]シート
+　3.1.1.ヘルスチェックエラーメール本文 参照</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>2.1.3.1.エラーメール 参照</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>MS932</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>API設計書を呼び出し</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>92_テンプレート一覧.xlsx</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>#2 シート参照</t>
+    <rPh sb="6" eb="8">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
   </si>
 </sst>
 </file>
@@ -612,7 +625,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -667,7 +680,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -725,9 +737,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -752,6 +761,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -972,7 +1023,9 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7:Z7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1041,681 +1094,681 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="3"/>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="74" t="s">
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="74" t="s">
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="73"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="71"/>
       <c r="AA3" s="3"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="3"/>
-      <c r="B4" s="75">
+      <c r="B4" s="73">
         <v>44150</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="76" t="s">
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="71" t="s">
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="73"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="71"/>
       <c r="AA4" s="3"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="3"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="71"/>
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="72"/>
-      <c r="N5" s="72"/>
-      <c r="O5" s="72"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="72"/>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="72"/>
-      <c r="U5" s="72"/>
-      <c r="V5" s="72"/>
-      <c r="W5" s="72"/>
-      <c r="X5" s="72"/>
-      <c r="Y5" s="72"/>
-      <c r="Z5" s="73"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="O5" s="70"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="70"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="70"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
+      <c r="X5" s="70"/>
+      <c r="Y5" s="70"/>
+      <c r="Z5" s="71"/>
       <c r="AA5" s="3"/>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="3"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="73"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="71"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="73"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="71"/>
       <c r="AA6" s="3"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="3"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="72"/>
-      <c r="D7" s="72"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="73"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="71"/>
       <c r="AA7" s="3"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="3"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="73"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="70"/>
+      <c r="Q8" s="70"/>
+      <c r="R8" s="70"/>
+      <c r="S8" s="70"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="70"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="70"/>
+      <c r="Z8" s="71"/>
       <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="3"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="71"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="72"/>
-      <c r="W9" s="72"/>
-      <c r="X9" s="72"/>
-      <c r="Y9" s="72"/>
-      <c r="Z9" s="73"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="71"/>
       <c r="AA9" s="3"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="3"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="71"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="72"/>
-      <c r="X10" s="72"/>
-      <c r="Y10" s="72"/>
-      <c r="Z10" s="73"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="70"/>
+      <c r="R10" s="70"/>
+      <c r="S10" s="70"/>
+      <c r="T10" s="70"/>
+      <c r="U10" s="70"/>
+      <c r="V10" s="70"/>
+      <c r="W10" s="70"/>
+      <c r="X10" s="70"/>
+      <c r="Y10" s="70"/>
+      <c r="Z10" s="71"/>
       <c r="AA10" s="3"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="3"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="73"/>
-      <c r="J11" s="71"/>
-      <c r="K11" s="72"/>
-      <c r="L11" s="72"/>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="72"/>
-      <c r="P11" s="72"/>
-      <c r="Q11" s="72"/>
-      <c r="R11" s="72"/>
-      <c r="S11" s="72"/>
-      <c r="T11" s="72"/>
-      <c r="U11" s="72"/>
-      <c r="V11" s="72"/>
-      <c r="W11" s="72"/>
-      <c r="X11" s="72"/>
-      <c r="Y11" s="72"/>
-      <c r="Z11" s="73"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="70"/>
+      <c r="L11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
+      <c r="O11" s="70"/>
+      <c r="P11" s="70"/>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="70"/>
+      <c r="S11" s="70"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="70"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="70"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="70"/>
+      <c r="Z11" s="71"/>
       <c r="AA11" s="3"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="3"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="72"/>
-      <c r="W12" s="72"/>
-      <c r="X12" s="72"/>
-      <c r="Y12" s="72"/>
-      <c r="Z12" s="73"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="70"/>
+      <c r="P12" s="70"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="70"/>
+      <c r="S12" s="70"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="70"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="70"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="70"/>
+      <c r="Z12" s="71"/>
       <c r="AA12" s="3"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="3"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="73"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="72"/>
-      <c r="L13" s="72"/>
-      <c r="M13" s="72"/>
-      <c r="N13" s="72"/>
-      <c r="O13" s="72"/>
-      <c r="P13" s="72"/>
-      <c r="Q13" s="72"/>
-      <c r="R13" s="72"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="72"/>
-      <c r="V13" s="72"/>
-      <c r="W13" s="72"/>
-      <c r="X13" s="72"/>
-      <c r="Y13" s="72"/>
-      <c r="Z13" s="73"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="69"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="70"/>
+      <c r="P13" s="70"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="71"/>
       <c r="AA13" s="3"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="3"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="71"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="72"/>
-      <c r="N14" s="72"/>
-      <c r="O14" s="72"/>
-      <c r="P14" s="72"/>
-      <c r="Q14" s="72"/>
-      <c r="R14" s="72"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="72"/>
-      <c r="W14" s="72"/>
-      <c r="X14" s="72"/>
-      <c r="Y14" s="72"/>
-      <c r="Z14" s="73"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="69"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="70"/>
+      <c r="P14" s="70"/>
+      <c r="Q14" s="70"/>
+      <c r="R14" s="70"/>
+      <c r="S14" s="70"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="70"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="70"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="70"/>
+      <c r="Z14" s="71"/>
       <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="3"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="72"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="71"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="72"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="72"/>
-      <c r="O15" s="72"/>
-      <c r="P15" s="72"/>
-      <c r="Q15" s="72"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="72"/>
-      <c r="Z15" s="73"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="69"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="70"/>
+      <c r="P15" s="70"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="71"/>
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="3"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="71"/>
-      <c r="K16" s="72"/>
-      <c r="L16" s="72"/>
-      <c r="M16" s="72"/>
-      <c r="N16" s="72"/>
-      <c r="O16" s="72"/>
-      <c r="P16" s="72"/>
-      <c r="Q16" s="72"/>
-      <c r="R16" s="72"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
-      <c r="X16" s="72"/>
-      <c r="Y16" s="72"/>
-      <c r="Z16" s="73"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="69"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="70"/>
+      <c r="P16" s="70"/>
+      <c r="Q16" s="70"/>
+      <c r="R16" s="70"/>
+      <c r="S16" s="70"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="70"/>
+      <c r="X16" s="70"/>
+      <c r="Y16" s="70"/>
+      <c r="Z16" s="71"/>
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="3"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="72"/>
-      <c r="W17" s="72"/>
-      <c r="X17" s="72"/>
-      <c r="Y17" s="72"/>
-      <c r="Z17" s="73"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="71"/>
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="3"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="72"/>
-      <c r="Y18" s="72"/>
-      <c r="Z18" s="73"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="70"/>
+      <c r="Y18" s="70"/>
+      <c r="Z18" s="71"/>
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="3"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="72"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="72"/>
-      <c r="V19" s="72"/>
-      <c r="W19" s="72"/>
-      <c r="X19" s="72"/>
-      <c r="Y19" s="72"/>
-      <c r="Z19" s="73"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="70"/>
+      <c r="Y19" s="70"/>
+      <c r="Z19" s="71"/>
       <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="3"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="72"/>
-      <c r="D20" s="72"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="71"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72"/>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="72"/>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="72"/>
-      <c r="Z20" s="73"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="70"/>
+      <c r="P20" s="70"/>
+      <c r="Q20" s="70"/>
+      <c r="R20" s="70"/>
+      <c r="S20" s="70"/>
+      <c r="T20" s="70"/>
+      <c r="U20" s="70"/>
+      <c r="V20" s="70"/>
+      <c r="W20" s="70"/>
+      <c r="X20" s="70"/>
+      <c r="Y20" s="70"/>
+      <c r="Z20" s="71"/>
       <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="3"/>
-      <c r="B21" s="71"/>
-      <c r="C21" s="72"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="73"/>
-      <c r="F21" s="71"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="73"/>
-      <c r="J21" s="71"/>
-      <c r="K21" s="72"/>
-      <c r="L21" s="72"/>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="72"/>
-      <c r="Q21" s="72"/>
-      <c r="R21" s="72"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="72"/>
-      <c r="U21" s="72"/>
-      <c r="V21" s="72"/>
-      <c r="W21" s="72"/>
-      <c r="X21" s="72"/>
-      <c r="Y21" s="72"/>
-      <c r="Z21" s="73"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="70"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="71"/>
+      <c r="J21" s="69"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="70"/>
+      <c r="P21" s="70"/>
+      <c r="Q21" s="70"/>
+      <c r="R21" s="70"/>
+      <c r="S21" s="70"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="70"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="70"/>
+      <c r="X21" s="70"/>
+      <c r="Y21" s="70"/>
+      <c r="Z21" s="71"/>
       <c r="AA21" s="3"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="3"/>
-      <c r="B22" s="71"/>
-      <c r="C22" s="72"/>
-      <c r="D22" s="72"/>
-      <c r="E22" s="73"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="73"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="72"/>
-      <c r="W22" s="72"/>
-      <c r="X22" s="72"/>
-      <c r="Y22" s="72"/>
-      <c r="Z22" s="73"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="69"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="70"/>
+      <c r="P22" s="70"/>
+      <c r="Q22" s="70"/>
+      <c r="R22" s="70"/>
+      <c r="S22" s="70"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="70"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="70"/>
+      <c r="X22" s="70"/>
+      <c r="Y22" s="70"/>
+      <c r="Z22" s="71"/>
       <c r="AA22" s="3"/>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="3"/>
-      <c r="B23" s="71"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="72"/>
-      <c r="L23" s="72"/>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="72"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="72"/>
-      <c r="W23" s="72"/>
-      <c r="X23" s="72"/>
-      <c r="Y23" s="72"/>
-      <c r="Z23" s="73"/>
+      <c r="B23" s="69"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="71"/>
+      <c r="J23" s="69"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70"/>
+      <c r="Q23" s="70"/>
+      <c r="R23" s="70"/>
+      <c r="S23" s="70"/>
+      <c r="T23" s="70"/>
+      <c r="U23" s="70"/>
+      <c r="V23" s="70"/>
+      <c r="W23" s="70"/>
+      <c r="X23" s="70"/>
+      <c r="Y23" s="70"/>
+      <c r="Z23" s="71"/>
       <c r="AA23" s="3"/>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="3"/>
-      <c r="B24" s="71"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="73"/>
-      <c r="J24" s="71"/>
-      <c r="K24" s="72"/>
-      <c r="L24" s="72"/>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="Q24" s="72"/>
-      <c r="R24" s="72"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="72"/>
-      <c r="W24" s="72"/>
-      <c r="X24" s="72"/>
-      <c r="Y24" s="72"/>
-      <c r="Z24" s="73"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="71"/>
+      <c r="J24" s="69"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="70"/>
+      <c r="P24" s="70"/>
+      <c r="Q24" s="70"/>
+      <c r="R24" s="70"/>
+      <c r="S24" s="70"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="70"/>
+      <c r="V24" s="70"/>
+      <c r="W24" s="70"/>
+      <c r="X24" s="70"/>
+      <c r="Y24" s="70"/>
+      <c r="Z24" s="71"/>
       <c r="AA24" s="3"/>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="3"/>
-      <c r="B25" s="71"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="71"/>
-      <c r="K25" s="72"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
-      <c r="P25" s="72"/>
-      <c r="Q25" s="72"/>
-      <c r="R25" s="72"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="72"/>
-      <c r="W25" s="72"/>
-      <c r="X25" s="72"/>
-      <c r="Y25" s="72"/>
-      <c r="Z25" s="73"/>
+      <c r="B25" s="69"/>
+      <c r="C25" s="70"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="71"/>
+      <c r="J25" s="69"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="70"/>
+      <c r="P25" s="70"/>
+      <c r="Q25" s="70"/>
+      <c r="R25" s="70"/>
+      <c r="S25" s="70"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="70"/>
+      <c r="V25" s="70"/>
+      <c r="W25" s="70"/>
+      <c r="X25" s="70"/>
+      <c r="Y25" s="70"/>
+      <c r="Z25" s="71"/>
       <c r="AA25" s="3"/>
     </row>
     <row r="26" spans="1:27">
@@ -1778,12 +1831,60 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:Z11"/>
     <mergeCell ref="B9:E9"/>
@@ -1793,60 +1894,12 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="9"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3469,8 +3522,8 @@
   </sheetPr>
   <dimension ref="A1:BK33"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AS32" sqref="AS32:AT32"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -3478,7 +3531,7 @@
     <col min="1" max="63" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63">
+    <row r="1" spans="1:63" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3545,7 +3598,7 @@
       <c r="BJ1" s="2"/>
       <c r="BK1" s="2"/>
     </row>
-    <row r="2" spans="1:63">
+    <row r="2" spans="1:63" ht="16.5">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -3610,7 +3663,7 @@
       <c r="BJ2" s="5"/>
       <c r="BK2" s="5"/>
     </row>
-    <row r="3" spans="1:63">
+    <row r="3" spans="1:63" ht="16.5">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -3675,7 +3728,7 @@
       <c r="BJ3" s="5"/>
       <c r="BK3" s="5"/>
     </row>
-    <row r="4" spans="1:63" ht="15.75" customHeight="1">
+    <row r="4" spans="1:63" ht="16.5">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -3742,7 +3795,7 @@
       <c r="BJ4" s="9"/>
       <c r="BK4" s="9"/>
     </row>
-    <row r="5" spans="1:63">
+    <row r="5" spans="1:63" ht="16.5">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3807,7 +3860,7 @@
       <c r="BJ5" s="5"/>
       <c r="BK5" s="5"/>
     </row>
-    <row r="6" spans="1:63" ht="15.75" customHeight="1">
+    <row r="6" spans="1:63" ht="16.5">
       <c r="A6" s="5"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
@@ -3874,56 +3927,56 @@
       <c r="BJ6" s="5"/>
       <c r="BK6" s="5"/>
     </row>
-    <row r="7" spans="1:63" ht="15.75" customHeight="1">
+    <row r="7" spans="1:63" ht="16.5">
       <c r="A7" s="5"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="78" t="s">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="72"/>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="72"/>
-      <c r="AK7" s="72"/>
-      <c r="AL7" s="72"/>
-      <c r="AM7" s="72"/>
-      <c r="AN7" s="72"/>
-      <c r="AO7" s="72"/>
-      <c r="AP7" s="72"/>
-      <c r="AQ7" s="72"/>
-      <c r="AR7" s="72"/>
-      <c r="AS7" s="73"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="70"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="70"/>
+      <c r="AD7" s="70"/>
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="70"/>
+      <c r="AG7" s="70"/>
+      <c r="AH7" s="70"/>
+      <c r="AI7" s="70"/>
+      <c r="AJ7" s="70"/>
+      <c r="AK7" s="70"/>
+      <c r="AL7" s="70"/>
+      <c r="AM7" s="70"/>
+      <c r="AN7" s="70"/>
+      <c r="AO7" s="70"/>
+      <c r="AP7" s="70"/>
+      <c r="AQ7" s="70"/>
+      <c r="AR7" s="70"/>
+      <c r="AS7" s="71"/>
       <c r="AT7" s="15"/>
       <c r="AU7" s="4"/>
       <c r="AV7" s="4"/>
@@ -3943,56 +3996,56 @@
       <c r="BJ7" s="5"/>
       <c r="BK7" s="5"/>
     </row>
-    <row r="8" spans="1:63" ht="15.75" customHeight="1">
+    <row r="8" spans="1:63" ht="16.5">
       <c r="A8" s="5"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="80" t="s">
-        <v>15</v>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="78" t="s">
+        <v>77</v>
       </c>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="81"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="81"/>
-      <c r="U8" s="81"/>
-      <c r="V8" s="81"/>
-      <c r="W8" s="81"/>
-      <c r="X8" s="81"/>
-      <c r="Y8" s="81"/>
-      <c r="Z8" s="81"/>
-      <c r="AA8" s="81"/>
-      <c r="AB8" s="81"/>
-      <c r="AC8" s="81"/>
-      <c r="AD8" s="81"/>
-      <c r="AE8" s="81"/>
-      <c r="AF8" s="81"/>
-      <c r="AG8" s="81"/>
-      <c r="AH8" s="81"/>
-      <c r="AI8" s="81"/>
-      <c r="AJ8" s="81"/>
-      <c r="AK8" s="81"/>
-      <c r="AL8" s="81"/>
-      <c r="AM8" s="81"/>
-      <c r="AN8" s="81"/>
-      <c r="AO8" s="81"/>
-      <c r="AP8" s="81"/>
-      <c r="AQ8" s="81"/>
-      <c r="AR8" s="81"/>
-      <c r="AS8" s="82"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="79"/>
+      <c r="P8" s="79"/>
+      <c r="Q8" s="79"/>
+      <c r="R8" s="79"/>
+      <c r="S8" s="79"/>
+      <c r="T8" s="79"/>
+      <c r="U8" s="79"/>
+      <c r="V8" s="79"/>
+      <c r="W8" s="79"/>
+      <c r="X8" s="79"/>
+      <c r="Y8" s="79"/>
+      <c r="Z8" s="79"/>
+      <c r="AA8" s="79"/>
+      <c r="AB8" s="79"/>
+      <c r="AC8" s="79"/>
+      <c r="AD8" s="79"/>
+      <c r="AE8" s="79"/>
+      <c r="AF8" s="79"/>
+      <c r="AG8" s="79"/>
+      <c r="AH8" s="79"/>
+      <c r="AI8" s="79"/>
+      <c r="AJ8" s="79"/>
+      <c r="AK8" s="79"/>
+      <c r="AL8" s="79"/>
+      <c r="AM8" s="79"/>
+      <c r="AN8" s="79"/>
+      <c r="AO8" s="79"/>
+      <c r="AP8" s="79"/>
+      <c r="AQ8" s="79"/>
+      <c r="AR8" s="79"/>
+      <c r="AS8" s="80"/>
       <c r="AT8" s="15"/>
       <c r="AU8" s="4"/>
       <c r="AV8" s="4"/>
@@ -4012,54 +4065,54 @@
       <c r="BJ8" s="5"/>
       <c r="BK8" s="5"/>
     </row>
-    <row r="9" spans="1:63" ht="15.75" customHeight="1">
+    <row r="9" spans="1:63" ht="16.5">
       <c r="A9" s="5"/>
       <c r="B9" s="17"/>
-      <c r="C9" s="77" t="s">
-        <v>16</v>
+      <c r="C9" s="75" t="s">
+        <v>15</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="72"/>
-      <c r="W9" s="72"/>
-      <c r="X9" s="72"/>
-      <c r="Y9" s="72"/>
-      <c r="Z9" s="72"/>
-      <c r="AA9" s="72"/>
-      <c r="AB9" s="72"/>
-      <c r="AC9" s="72"/>
-      <c r="AD9" s="72"/>
-      <c r="AE9" s="72"/>
-      <c r="AF9" s="72"/>
-      <c r="AG9" s="72"/>
-      <c r="AH9" s="72"/>
-      <c r="AI9" s="72"/>
-      <c r="AJ9" s="72"/>
-      <c r="AK9" s="72"/>
-      <c r="AL9" s="72"/>
-      <c r="AM9" s="72"/>
-      <c r="AN9" s="72"/>
-      <c r="AO9" s="72"/>
-      <c r="AP9" s="72"/>
-      <c r="AQ9" s="72"/>
-      <c r="AR9" s="72"/>
-      <c r="AS9" s="73"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="70"/>
+      <c r="Q9" s="70"/>
+      <c r="R9" s="70"/>
+      <c r="S9" s="70"/>
+      <c r="T9" s="70"/>
+      <c r="U9" s="70"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="70"/>
+      <c r="AD9" s="70"/>
+      <c r="AE9" s="70"/>
+      <c r="AF9" s="70"/>
+      <c r="AG9" s="70"/>
+      <c r="AH9" s="70"/>
+      <c r="AI9" s="70"/>
+      <c r="AJ9" s="70"/>
+      <c r="AK9" s="70"/>
+      <c r="AL9" s="70"/>
+      <c r="AM9" s="70"/>
+      <c r="AN9" s="70"/>
+      <c r="AO9" s="70"/>
+      <c r="AP9" s="70"/>
+      <c r="AQ9" s="70"/>
+      <c r="AR9" s="70"/>
+      <c r="AS9" s="71"/>
       <c r="AT9" s="15"/>
       <c r="AU9" s="4"/>
       <c r="AV9" s="4"/>
@@ -4079,7 +4132,7 @@
       <c r="BJ9" s="5"/>
       <c r="BK9" s="5"/>
     </row>
-    <row r="10" spans="1:63">
+    <row r="10" spans="1:63" ht="16.5">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -4146,7 +4199,7 @@
     </row>
     <row r="11" spans="1:63" ht="15.75" customHeight="1">
       <c r="A11" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="8"/>
@@ -4211,7 +4264,7 @@
       <c r="BJ11" s="9"/>
       <c r="BK11" s="9"/>
     </row>
-    <row r="12" spans="1:63">
+    <row r="12" spans="1:63" ht="16.5">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -4276,13 +4329,13 @@
       <c r="BJ12" s="5"/>
       <c r="BK12" s="5"/>
     </row>
-    <row r="13" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
+    <row r="13" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="22"/>
@@ -4292,7 +4345,7 @@
       <c r="I13" s="22"/>
       <c r="J13" s="23"/>
       <c r="K13" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L13" s="21"/>
       <c r="M13" s="22"/>
@@ -4314,7 +4367,7 @@
       <c r="AC13" s="22"/>
       <c r="AD13" s="23"/>
       <c r="AE13" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF13" s="21"/>
       <c r="AG13" s="22"/>
@@ -4324,7 +4377,7 @@
       <c r="AK13" s="22"/>
       <c r="AL13" s="23"/>
       <c r="AM13" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN13" s="21"/>
       <c r="AO13" s="22"/>
@@ -4351,13 +4404,13 @@
       <c r="BJ13" s="26"/>
       <c r="BK13" s="26"/>
     </row>
-    <row r="14" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
+    <row r="14" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A14" s="18"/>
       <c r="B14" s="27">
         <v>1</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
@@ -4366,29 +4419,29 @@
       <c r="H14" s="29"/>
       <c r="I14" s="30"/>
       <c r="J14" s="31"/>
-      <c r="K14" s="32" t="s">
-        <v>24</v>
+      <c r="K14" s="90" t="s">
+        <v>78</v>
       </c>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="30"/>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="30"/>
-      <c r="S14" s="30"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="30"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="30"/>
-      <c r="X14" s="30"/>
-      <c r="Y14" s="30"/>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="31"/>
-      <c r="AE14" s="33"/>
+      <c r="L14" s="91"/>
+      <c r="M14" s="91"/>
+      <c r="N14" s="91"/>
+      <c r="O14" s="91"/>
+      <c r="P14" s="91"/>
+      <c r="Q14" s="91"/>
+      <c r="R14" s="91"/>
+      <c r="S14" s="91"/>
+      <c r="T14" s="91"/>
+      <c r="U14" s="91"/>
+      <c r="V14" s="91"/>
+      <c r="W14" s="91"/>
+      <c r="X14" s="91"/>
+      <c r="Y14" s="91"/>
+      <c r="Z14" s="91"/>
+      <c r="AA14" s="91"/>
+      <c r="AB14" s="91"/>
+      <c r="AC14" s="91"/>
+      <c r="AD14" s="92"/>
+      <c r="AE14" s="32"/>
       <c r="AF14" s="30"/>
       <c r="AG14" s="30"/>
       <c r="AH14" s="30"/>
@@ -4396,9 +4449,9 @@
       <c r="AJ14" s="30"/>
       <c r="AK14" s="30"/>
       <c r="AL14" s="31"/>
-      <c r="AM14" s="34"/>
-      <c r="AN14" s="35"/>
-      <c r="AO14" s="35"/>
+      <c r="AM14" s="33"/>
+      <c r="AN14" s="34"/>
+      <c r="AO14" s="34"/>
       <c r="AP14" s="30"/>
       <c r="AQ14" s="30"/>
       <c r="AR14" s="30"/>
@@ -4422,363 +4475,363 @@
       <c r="BJ14" s="26"/>
       <c r="BK14" s="26"/>
     </row>
-    <row r="15" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
+    <row r="15" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A15" s="18"/>
-      <c r="B15" s="36">
+      <c r="B15" s="35">
         <f t="shared" ref="B15:B19" si="0">B14+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="37" t="s">
-        <v>25</v>
+      <c r="C15" s="36" t="s">
+        <v>23</v>
       </c>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="38"/>
-      <c r="S15" s="38"/>
-      <c r="T15" s="38"/>
-      <c r="U15" s="38"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="38"/>
-      <c r="Y15" s="38"/>
-      <c r="Z15" s="38"/>
-      <c r="AA15" s="38"/>
-      <c r="AB15" s="38"/>
-      <c r="AC15" s="38"/>
-      <c r="AD15" s="38"/>
-      <c r="AE15" s="38"/>
-      <c r="AF15" s="38"/>
-      <c r="AG15" s="38"/>
-      <c r="AH15" s="38"/>
-      <c r="AI15" s="38"/>
-      <c r="AJ15" s="38"/>
-      <c r="AK15" s="38"/>
-      <c r="AL15" s="38"/>
-      <c r="AM15" s="38"/>
-      <c r="AN15" s="38"/>
-      <c r="AO15" s="38"/>
-      <c r="AP15" s="38"/>
-      <c r="AQ15" s="38"/>
-      <c r="AR15" s="38"/>
-      <c r="AS15" s="38"/>
-      <c r="AT15" s="38"/>
-      <c r="AU15" s="38"/>
-      <c r="AV15" s="38"/>
-      <c r="AW15" s="38"/>
-      <c r="AX15" s="38"/>
-      <c r="AY15" s="38"/>
-      <c r="AZ15" s="38"/>
-      <c r="BA15" s="38"/>
-      <c r="BB15" s="38"/>
-      <c r="BC15" s="38"/>
-      <c r="BD15" s="38"/>
-      <c r="BE15" s="38"/>
-      <c r="BF15" s="39"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="37"/>
+      <c r="AH15" s="37"/>
+      <c r="AI15" s="37"/>
+      <c r="AJ15" s="37"/>
+      <c r="AK15" s="37"/>
+      <c r="AL15" s="37"/>
+      <c r="AM15" s="37"/>
+      <c r="AN15" s="37"/>
+      <c r="AO15" s="37"/>
+      <c r="AP15" s="37"/>
+      <c r="AQ15" s="37"/>
+      <c r="AR15" s="37"/>
+      <c r="AS15" s="37"/>
+      <c r="AT15" s="37"/>
+      <c r="AU15" s="37"/>
+      <c r="AV15" s="37"/>
+      <c r="AW15" s="37"/>
+      <c r="AX15" s="37"/>
+      <c r="AY15" s="37"/>
+      <c r="AZ15" s="37"/>
+      <c r="BA15" s="37"/>
+      <c r="BB15" s="37"/>
+      <c r="BC15" s="37"/>
+      <c r="BD15" s="37"/>
+      <c r="BE15" s="37"/>
+      <c r="BF15" s="38"/>
       <c r="BG15" s="26"/>
       <c r="BH15" s="26"/>
       <c r="BI15" s="26"/>
       <c r="BJ15" s="26"/>
       <c r="BK15" s="26"/>
     </row>
-    <row r="16" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
+    <row r="16" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A16" s="18"/>
-      <c r="B16" s="36">
+      <c r="B16" s="35">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41" t="s">
-        <v>26</v>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40" t="s">
+        <v>24</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="45" t="s">
-        <v>27</v>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="87" t="s">
+        <v>25</v>
       </c>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="43"/>
-      <c r="AC16" s="43"/>
-      <c r="AD16" s="44"/>
-      <c r="AE16" s="46"/>
-      <c r="AF16" s="43"/>
-      <c r="AG16" s="43"/>
-      <c r="AH16" s="43"/>
-      <c r="AI16" s="43"/>
-      <c r="AJ16" s="43"/>
-      <c r="AK16" s="43"/>
-      <c r="AL16" s="44"/>
-      <c r="AM16" s="45"/>
-      <c r="AN16" s="47"/>
-      <c r="AO16" s="47"/>
-      <c r="AP16" s="43"/>
-      <c r="AQ16" s="43"/>
-      <c r="AR16" s="43"/>
-      <c r="AS16" s="43"/>
-      <c r="AT16" s="43"/>
-      <c r="AU16" s="43"/>
-      <c r="AV16" s="43"/>
-      <c r="AW16" s="43"/>
-      <c r="AX16" s="43"/>
-      <c r="AY16" s="43"/>
-      <c r="AZ16" s="43"/>
-      <c r="BA16" s="43"/>
-      <c r="BB16" s="43"/>
-      <c r="BC16" s="43"/>
-      <c r="BD16" s="43"/>
-      <c r="BE16" s="43"/>
-      <c r="BF16" s="44"/>
+      <c r="L16" s="88"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="88"/>
+      <c r="O16" s="88"/>
+      <c r="P16" s="88"/>
+      <c r="Q16" s="88"/>
+      <c r="R16" s="88"/>
+      <c r="S16" s="88"/>
+      <c r="T16" s="88"/>
+      <c r="U16" s="88"/>
+      <c r="V16" s="88"/>
+      <c r="W16" s="88"/>
+      <c r="X16" s="88"/>
+      <c r="Y16" s="88"/>
+      <c r="Z16" s="88"/>
+      <c r="AA16" s="88"/>
+      <c r="AB16" s="88"/>
+      <c r="AC16" s="88"/>
+      <c r="AD16" s="89"/>
+      <c r="AE16" s="45"/>
+      <c r="AF16" s="42"/>
+      <c r="AG16" s="42"/>
+      <c r="AH16" s="42"/>
+      <c r="AI16" s="42"/>
+      <c r="AJ16" s="42"/>
+      <c r="AK16" s="42"/>
+      <c r="AL16" s="43"/>
+      <c r="AM16" s="44"/>
+      <c r="AN16" s="46"/>
+      <c r="AO16" s="46"/>
+      <c r="AP16" s="42"/>
+      <c r="AQ16" s="42"/>
+      <c r="AR16" s="42"/>
+      <c r="AS16" s="42"/>
+      <c r="AT16" s="42"/>
+      <c r="AU16" s="42"/>
+      <c r="AV16" s="42"/>
+      <c r="AW16" s="42"/>
+      <c r="AX16" s="42"/>
+      <c r="AY16" s="42"/>
+      <c r="AZ16" s="42"/>
+      <c r="BA16" s="42"/>
+      <c r="BB16" s="42"/>
+      <c r="BC16" s="42"/>
+      <c r="BD16" s="42"/>
+      <c r="BE16" s="42"/>
+      <c r="BF16" s="43"/>
       <c r="BG16" s="26"/>
       <c r="BH16" s="26"/>
       <c r="BI16" s="26"/>
       <c r="BJ16" s="26"/>
       <c r="BK16" s="26"/>
     </row>
-    <row r="17" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
+    <row r="17" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A17" s="18"/>
-      <c r="B17" s="36">
+      <c r="B17" s="35">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C17" s="48" t="s">
-        <v>28</v>
+      <c r="C17" s="47" t="s">
+        <v>26</v>
       </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
-      <c r="L17" s="49"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="49"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="49"/>
-      <c r="T17" s="49"/>
-      <c r="U17" s="49"/>
-      <c r="V17" s="49"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="49"/>
-      <c r="Y17" s="49"/>
-      <c r="Z17" s="49"/>
-      <c r="AA17" s="49"/>
-      <c r="AB17" s="49"/>
-      <c r="AC17" s="49"/>
-      <c r="AD17" s="49"/>
-      <c r="AE17" s="49"/>
-      <c r="AF17" s="49"/>
-      <c r="AG17" s="49"/>
-      <c r="AH17" s="49"/>
-      <c r="AI17" s="49"/>
-      <c r="AJ17" s="49"/>
-      <c r="AK17" s="49"/>
-      <c r="AL17" s="49"/>
-      <c r="AM17" s="49"/>
-      <c r="AN17" s="49"/>
-      <c r="AO17" s="49"/>
-      <c r="AP17" s="49"/>
-      <c r="AQ17" s="49"/>
-      <c r="AR17" s="49"/>
-      <c r="AS17" s="49"/>
-      <c r="AT17" s="49"/>
-      <c r="AU17" s="49"/>
-      <c r="AV17" s="49"/>
-      <c r="AW17" s="49"/>
-      <c r="AX17" s="49"/>
-      <c r="AY17" s="49"/>
-      <c r="AZ17" s="49"/>
-      <c r="BA17" s="49"/>
-      <c r="BB17" s="49"/>
-      <c r="BC17" s="49"/>
-      <c r="BD17" s="49"/>
-      <c r="BE17" s="49"/>
-      <c r="BF17" s="50"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="48"/>
+      <c r="W17" s="48"/>
+      <c r="X17" s="48"/>
+      <c r="Y17" s="48"/>
+      <c r="Z17" s="48"/>
+      <c r="AA17" s="48"/>
+      <c r="AB17" s="48"/>
+      <c r="AC17" s="48"/>
+      <c r="AD17" s="48"/>
+      <c r="AE17" s="48"/>
+      <c r="AF17" s="48"/>
+      <c r="AG17" s="48"/>
+      <c r="AH17" s="48"/>
+      <c r="AI17" s="48"/>
+      <c r="AJ17" s="48"/>
+      <c r="AK17" s="48"/>
+      <c r="AL17" s="48"/>
+      <c r="AM17" s="48"/>
+      <c r="AN17" s="48"/>
+      <c r="AO17" s="48"/>
+      <c r="AP17" s="48"/>
+      <c r="AQ17" s="48"/>
+      <c r="AR17" s="48"/>
+      <c r="AS17" s="48"/>
+      <c r="AT17" s="48"/>
+      <c r="AU17" s="48"/>
+      <c r="AV17" s="48"/>
+      <c r="AW17" s="48"/>
+      <c r="AX17" s="48"/>
+      <c r="AY17" s="48"/>
+      <c r="AZ17" s="48"/>
+      <c r="BA17" s="48"/>
+      <c r="BB17" s="48"/>
+      <c r="BC17" s="48"/>
+      <c r="BD17" s="48"/>
+      <c r="BE17" s="48"/>
+      <c r="BF17" s="49"/>
       <c r="BG17" s="26"/>
       <c r="BH17" s="26"/>
       <c r="BI17" s="26"/>
       <c r="BJ17" s="26"/>
       <c r="BK17" s="26"/>
     </row>
-    <row r="18" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
+    <row r="18" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A18" s="18"/>
-      <c r="B18" s="36">
+      <c r="B18" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="41" t="s">
-        <v>29</v>
+      <c r="C18" s="50"/>
+      <c r="D18" s="40" t="s">
+        <v>27</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="45" t="s">
-        <v>30</v>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="41"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="87" t="s">
+        <v>28</v>
       </c>
-      <c r="L18" s="43"/>
-      <c r="M18" s="43"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="43"/>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="43"/>
-      <c r="Y18" s="43"/>
-      <c r="Z18" s="43"/>
-      <c r="AA18" s="43"/>
-      <c r="AB18" s="43"/>
-      <c r="AC18" s="43"/>
-      <c r="AD18" s="44"/>
-      <c r="AE18" s="46"/>
-      <c r="AF18" s="43"/>
-      <c r="AG18" s="43"/>
-      <c r="AH18" s="43"/>
-      <c r="AI18" s="43"/>
-      <c r="AJ18" s="43"/>
-      <c r="AK18" s="43"/>
-      <c r="AL18" s="44"/>
-      <c r="AM18" s="45"/>
-      <c r="AN18" s="47"/>
-      <c r="AO18" s="47"/>
-      <c r="AP18" s="43"/>
-      <c r="AQ18" s="43"/>
-      <c r="AR18" s="43"/>
-      <c r="AS18" s="43"/>
-      <c r="AT18" s="43"/>
-      <c r="AU18" s="43"/>
-      <c r="AV18" s="43"/>
-      <c r="AW18" s="43"/>
-      <c r="AX18" s="43"/>
-      <c r="AY18" s="43"/>
-      <c r="AZ18" s="43"/>
-      <c r="BA18" s="43"/>
-      <c r="BB18" s="43"/>
-      <c r="BC18" s="43"/>
-      <c r="BD18" s="43"/>
-      <c r="BE18" s="43"/>
-      <c r="BF18" s="44"/>
+      <c r="L18" s="88"/>
+      <c r="M18" s="88"/>
+      <c r="N18" s="88"/>
+      <c r="O18" s="88"/>
+      <c r="P18" s="88"/>
+      <c r="Q18" s="88"/>
+      <c r="R18" s="88"/>
+      <c r="S18" s="88"/>
+      <c r="T18" s="88"/>
+      <c r="U18" s="88"/>
+      <c r="V18" s="88"/>
+      <c r="W18" s="88"/>
+      <c r="X18" s="88"/>
+      <c r="Y18" s="88"/>
+      <c r="Z18" s="88"/>
+      <c r="AA18" s="88"/>
+      <c r="AB18" s="88"/>
+      <c r="AC18" s="88"/>
+      <c r="AD18" s="89"/>
+      <c r="AE18" s="45"/>
+      <c r="AF18" s="42"/>
+      <c r="AG18" s="42"/>
+      <c r="AH18" s="42"/>
+      <c r="AI18" s="42"/>
+      <c r="AJ18" s="42"/>
+      <c r="AK18" s="42"/>
+      <c r="AL18" s="43"/>
+      <c r="AM18" s="44"/>
+      <c r="AN18" s="46"/>
+      <c r="AO18" s="46"/>
+      <c r="AP18" s="42"/>
+      <c r="AQ18" s="42"/>
+      <c r="AR18" s="42"/>
+      <c r="AS18" s="42"/>
+      <c r="AT18" s="42"/>
+      <c r="AU18" s="42"/>
+      <c r="AV18" s="42"/>
+      <c r="AW18" s="42"/>
+      <c r="AX18" s="42"/>
+      <c r="AY18" s="42"/>
+      <c r="AZ18" s="42"/>
+      <c r="BA18" s="42"/>
+      <c r="BB18" s="42"/>
+      <c r="BC18" s="42"/>
+      <c r="BD18" s="42"/>
+      <c r="BE18" s="42"/>
+      <c r="BF18" s="43"/>
       <c r="BG18" s="26"/>
       <c r="BH18" s="26"/>
       <c r="BI18" s="26"/>
       <c r="BJ18" s="26"/>
       <c r="BK18" s="26"/>
     </row>
-    <row r="19" spans="1:63" ht="15.75" customHeight="1" outlineLevel="1">
+    <row r="19" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A19" s="18"/>
-      <c r="B19" s="36">
+      <c r="B19" s="35">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="41" t="s">
-        <v>31</v>
+      <c r="C19" s="51"/>
+      <c r="D19" s="40" t="s">
+        <v>29</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="45" t="s">
-        <v>32</v>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="87" t="s">
+        <v>76</v>
       </c>
-      <c r="L19" s="43"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="43"/>
-      <c r="O19" s="43"/>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="43"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="43"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="43"/>
-      <c r="V19" s="43"/>
-      <c r="W19" s="43"/>
-      <c r="X19" s="43"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="43"/>
-      <c r="AA19" s="43"/>
-      <c r="AB19" s="43"/>
-      <c r="AC19" s="43"/>
-      <c r="AD19" s="44"/>
-      <c r="AE19" s="46"/>
-      <c r="AF19" s="43"/>
-      <c r="AG19" s="43"/>
-      <c r="AH19" s="43"/>
-      <c r="AI19" s="43"/>
-      <c r="AJ19" s="43"/>
-      <c r="AK19" s="43"/>
-      <c r="AL19" s="44"/>
-      <c r="AM19" s="45"/>
-      <c r="AN19" s="47"/>
-      <c r="AO19" s="47"/>
-      <c r="AP19" s="43"/>
-      <c r="AQ19" s="43"/>
-      <c r="AR19" s="43"/>
-      <c r="AS19" s="43"/>
-      <c r="AT19" s="43"/>
-      <c r="AU19" s="43"/>
-      <c r="AV19" s="43"/>
-      <c r="AW19" s="43"/>
-      <c r="AX19" s="43"/>
-      <c r="AY19" s="43"/>
-      <c r="AZ19" s="43"/>
-      <c r="BA19" s="43"/>
-      <c r="BB19" s="43"/>
-      <c r="BC19" s="43"/>
-      <c r="BD19" s="43"/>
-      <c r="BE19" s="43"/>
-      <c r="BF19" s="44"/>
+      <c r="L19" s="88"/>
+      <c r="M19" s="88"/>
+      <c r="N19" s="88"/>
+      <c r="O19" s="88"/>
+      <c r="P19" s="88"/>
+      <c r="Q19" s="88"/>
+      <c r="R19" s="88"/>
+      <c r="S19" s="88"/>
+      <c r="T19" s="88"/>
+      <c r="U19" s="88"/>
+      <c r="V19" s="88"/>
+      <c r="W19" s="88"/>
+      <c r="X19" s="88"/>
+      <c r="Y19" s="88"/>
+      <c r="Z19" s="88"/>
+      <c r="AA19" s="88"/>
+      <c r="AB19" s="88"/>
+      <c r="AC19" s="88"/>
+      <c r="AD19" s="89"/>
+      <c r="AE19" s="45"/>
+      <c r="AF19" s="42"/>
+      <c r="AG19" s="42"/>
+      <c r="AH19" s="42"/>
+      <c r="AI19" s="42"/>
+      <c r="AJ19" s="42"/>
+      <c r="AK19" s="42"/>
+      <c r="AL19" s="43"/>
+      <c r="AM19" s="44"/>
+      <c r="AN19" s="46"/>
+      <c r="AO19" s="46"/>
+      <c r="AP19" s="42"/>
+      <c r="AQ19" s="42"/>
+      <c r="AR19" s="42"/>
+      <c r="AS19" s="42"/>
+      <c r="AT19" s="42"/>
+      <c r="AU19" s="42"/>
+      <c r="AV19" s="42"/>
+      <c r="AW19" s="42"/>
+      <c r="AX19" s="42"/>
+      <c r="AY19" s="42"/>
+      <c r="AZ19" s="42"/>
+      <c r="BA19" s="42"/>
+      <c r="BB19" s="42"/>
+      <c r="BC19" s="42"/>
+      <c r="BD19" s="42"/>
+      <c r="BE19" s="42"/>
+      <c r="BF19" s="43"/>
       <c r="BG19" s="26"/>
       <c r="BH19" s="26"/>
       <c r="BI19" s="26"/>
       <c r="BJ19" s="26"/>
       <c r="BK19" s="26"/>
     </row>
-    <row r="20" spans="1:63">
+    <row r="20" spans="1:63" ht="16.5">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -4843,9 +4896,9 @@
       <c r="BJ20" s="5"/>
       <c r="BK20" s="5"/>
     </row>
-    <row r="21" spans="1:63" ht="15.75" customHeight="1">
+    <row r="21" spans="1:63" ht="16.5">
       <c r="A21" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -4910,7 +4963,7 @@
       <c r="BJ21" s="9"/>
       <c r="BK21" s="9"/>
     </row>
-    <row r="22" spans="1:63">
+    <row r="22" spans="1:63" ht="16.5">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -4975,7 +5028,7 @@
       <c r="BJ22" s="5"/>
       <c r="BK22" s="5"/>
     </row>
-    <row r="23" spans="1:63">
+    <row r="23" spans="1:63" ht="16.5">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -5040,9 +5093,9 @@
       <c r="BJ23" s="5"/>
       <c r="BK23" s="5"/>
     </row>
-    <row r="24" spans="1:63" ht="15.75" customHeight="1">
+    <row r="24" spans="1:63" ht="16.5">
       <c r="A24" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -5107,7 +5160,7 @@
       <c r="BJ24" s="2"/>
       <c r="BK24" s="2"/>
     </row>
-    <row r="25" spans="1:63">
+    <row r="25" spans="1:63" ht="16.5">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -5172,10 +5225,10 @@
       <c r="BJ25" s="5"/>
       <c r="BK25" s="5"/>
     </row>
-    <row r="26" spans="1:63" outlineLevel="1">
+    <row r="26" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A26" s="5"/>
-      <c r="B26" s="53" t="s">
-        <v>35</v>
+      <c r="B26" s="52" t="s">
+        <v>32</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -5239,11 +5292,11 @@
       <c r="BJ26" s="5"/>
       <c r="BK26" s="5"/>
     </row>
-    <row r="27" spans="1:63" outlineLevel="1">
+    <row r="27" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -5306,46 +5359,46 @@
       <c r="BJ27" s="5"/>
       <c r="BK27" s="5"/>
     </row>
-    <row r="28" spans="1:63" outlineLevel="1">
+    <row r="28" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
-      <c r="C28" s="54" t="s">
-        <v>37</v>
+      <c r="C28" s="53" t="s">
+        <v>34</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="56"/>
-      <c r="J28" s="54" t="s">
-        <v>38</v>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="53" t="s">
+        <v>35</v>
       </c>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
-      <c r="V28" s="55"/>
-      <c r="W28" s="55"/>
-      <c r="X28" s="55"/>
-      <c r="Y28" s="55"/>
-      <c r="Z28" s="55"/>
-      <c r="AA28" s="55"/>
-      <c r="AB28" s="55"/>
-      <c r="AC28" s="55"/>
-      <c r="AD28" s="55"/>
-      <c r="AE28" s="55"/>
-      <c r="AF28" s="55"/>
-      <c r="AG28" s="55"/>
-      <c r="AH28" s="55"/>
-      <c r="AI28" s="56"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
+      <c r="Q28" s="54"/>
+      <c r="R28" s="54"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="54"/>
+      <c r="X28" s="54"/>
+      <c r="Y28" s="54"/>
+      <c r="Z28" s="54"/>
+      <c r="AA28" s="54"/>
+      <c r="AB28" s="54"/>
+      <c r="AC28" s="54"/>
+      <c r="AD28" s="54"/>
+      <c r="AE28" s="54"/>
+      <c r="AF28" s="54"/>
+      <c r="AG28" s="54"/>
+      <c r="AH28" s="54"/>
+      <c r="AI28" s="55"/>
       <c r="AJ28" s="5"/>
       <c r="AK28" s="5"/>
       <c r="AL28" s="5"/>
@@ -5375,46 +5428,46 @@
       <c r="BJ28" s="5"/>
       <c r="BK28" s="5"/>
     </row>
-    <row r="29" spans="1:63" outlineLevel="1">
+    <row r="29" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="57" t="s">
-        <v>39</v>
+      <c r="C29" s="56" t="s">
+        <v>36</v>
       </c>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="57" t="s">
-        <v>40</v>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="84" t="s">
+        <v>37</v>
       </c>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="58"/>
-      <c r="S29" s="58"/>
-      <c r="T29" s="58"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="58"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="58"/>
-      <c r="Y29" s="58"/>
-      <c r="Z29" s="58"/>
-      <c r="AA29" s="58"/>
-      <c r="AB29" s="58"/>
-      <c r="AC29" s="58"/>
-      <c r="AD29" s="58"/>
-      <c r="AE29" s="58"/>
-      <c r="AF29" s="58"/>
-      <c r="AG29" s="58"/>
-      <c r="AH29" s="58"/>
-      <c r="AI29" s="59"/>
+      <c r="K29" s="85"/>
+      <c r="L29" s="85"/>
+      <c r="M29" s="85"/>
+      <c r="N29" s="85"/>
+      <c r="O29" s="85"/>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="85"/>
+      <c r="R29" s="85"/>
+      <c r="S29" s="85"/>
+      <c r="T29" s="85"/>
+      <c r="U29" s="85"/>
+      <c r="V29" s="85"/>
+      <c r="W29" s="85"/>
+      <c r="X29" s="85"/>
+      <c r="Y29" s="85"/>
+      <c r="Z29" s="85"/>
+      <c r="AA29" s="85"/>
+      <c r="AB29" s="85"/>
+      <c r="AC29" s="85"/>
+      <c r="AD29" s="85"/>
+      <c r="AE29" s="85"/>
+      <c r="AF29" s="85"/>
+      <c r="AG29" s="85"/>
+      <c r="AH29" s="85"/>
+      <c r="AI29" s="86"/>
       <c r="AJ29" s="5"/>
       <c r="AK29" s="5"/>
       <c r="AL29" s="5"/>
@@ -5444,46 +5497,46 @@
       <c r="BJ29" s="5"/>
       <c r="BK29" s="5"/>
     </row>
-    <row r="30" spans="1:63" outlineLevel="1">
+    <row r="30" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="57" t="s">
-        <v>41</v>
+      <c r="C30" s="56" t="s">
+        <v>38</v>
       </c>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="57" t="s">
-        <v>42</v>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="84" t="s">
+        <v>39</v>
       </c>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="58"/>
-      <c r="N30" s="58"/>
-      <c r="O30" s="58"/>
-      <c r="P30" s="58"/>
-      <c r="Q30" s="58"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="58"/>
-      <c r="W30" s="58"/>
-      <c r="X30" s="58"/>
-      <c r="Y30" s="58"/>
-      <c r="Z30" s="58"/>
-      <c r="AA30" s="58"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="58"/>
-      <c r="AD30" s="58"/>
-      <c r="AE30" s="58"/>
-      <c r="AF30" s="58"/>
-      <c r="AG30" s="58"/>
-      <c r="AH30" s="58"/>
-      <c r="AI30" s="59"/>
+      <c r="K30" s="85"/>
+      <c r="L30" s="85"/>
+      <c r="M30" s="85"/>
+      <c r="N30" s="85"/>
+      <c r="O30" s="85"/>
+      <c r="P30" s="85"/>
+      <c r="Q30" s="85"/>
+      <c r="R30" s="85"/>
+      <c r="S30" s="85"/>
+      <c r="T30" s="85"/>
+      <c r="U30" s="85"/>
+      <c r="V30" s="85"/>
+      <c r="W30" s="85"/>
+      <c r="X30" s="85"/>
+      <c r="Y30" s="85"/>
+      <c r="Z30" s="85"/>
+      <c r="AA30" s="85"/>
+      <c r="AB30" s="85"/>
+      <c r="AC30" s="85"/>
+      <c r="AD30" s="85"/>
+      <c r="AE30" s="85"/>
+      <c r="AF30" s="85"/>
+      <c r="AG30" s="85"/>
+      <c r="AH30" s="85"/>
+      <c r="AI30" s="86"/>
       <c r="AJ30" s="5"/>
       <c r="AK30" s="5"/>
       <c r="AL30" s="5"/>
@@ -5513,46 +5566,46 @@
       <c r="BJ30" s="5"/>
       <c r="BK30" s="5"/>
     </row>
-    <row r="31" spans="1:63" outlineLevel="1">
+    <row r="31" spans="1:63" ht="36.75" customHeight="1" outlineLevel="1">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="57" t="s">
-        <v>43</v>
+      <c r="C31" s="56" t="s">
+        <v>40</v>
       </c>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="57" t="s">
-        <v>44</v>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="81" t="s">
+        <v>75</v>
       </c>
-      <c r="K31" s="58"/>
-      <c r="L31" s="58"/>
-      <c r="M31" s="58"/>
-      <c r="N31" s="58"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="58"/>
-      <c r="Q31" s="58"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="58"/>
-      <c r="T31" s="58"/>
-      <c r="U31" s="58"/>
-      <c r="V31" s="58"/>
-      <c r="W31" s="58"/>
-      <c r="X31" s="58"/>
-      <c r="Y31" s="58"/>
-      <c r="Z31" s="58"/>
-      <c r="AA31" s="58"/>
-      <c r="AB31" s="58"/>
-      <c r="AC31" s="58"/>
-      <c r="AD31" s="58"/>
-      <c r="AE31" s="58"/>
-      <c r="AF31" s="58"/>
-      <c r="AG31" s="58"/>
-      <c r="AH31" s="58"/>
-      <c r="AI31" s="59"/>
+      <c r="K31" s="82"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="82"/>
+      <c r="N31" s="82"/>
+      <c r="O31" s="82"/>
+      <c r="P31" s="82"/>
+      <c r="Q31" s="82"/>
+      <c r="R31" s="82"/>
+      <c r="S31" s="82"/>
+      <c r="T31" s="82"/>
+      <c r="U31" s="82"/>
+      <c r="V31" s="82"/>
+      <c r="W31" s="82"/>
+      <c r="X31" s="82"/>
+      <c r="Y31" s="82"/>
+      <c r="Z31" s="82"/>
+      <c r="AA31" s="82"/>
+      <c r="AB31" s="82"/>
+      <c r="AC31" s="82"/>
+      <c r="AD31" s="82"/>
+      <c r="AE31" s="82"/>
+      <c r="AF31" s="82"/>
+      <c r="AG31" s="82"/>
+      <c r="AH31" s="82"/>
+      <c r="AI31" s="83"/>
       <c r="AJ31" s="5"/>
       <c r="AK31" s="5"/>
       <c r="AL31" s="5"/>
@@ -5582,7 +5635,7 @@
       <c r="BJ31" s="5"/>
       <c r="BK31" s="5"/>
     </row>
-    <row r="32" spans="1:63" outlineLevel="1">
+    <row r="32" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
@@ -5647,7 +5700,7 @@
       <c r="BJ32" s="5"/>
       <c r="BK32" s="5"/>
     </row>
-    <row r="33" spans="1:63">
+    <row r="33" spans="1:63" ht="16.5">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -5713,7 +5766,14 @@
       <c r="BK33" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="13">
+    <mergeCell ref="K14:AD14"/>
+    <mergeCell ref="K19:AD19"/>
+    <mergeCell ref="J31:AI31"/>
+    <mergeCell ref="J30:AI30"/>
+    <mergeCell ref="J29:AI29"/>
+    <mergeCell ref="K18:AD18"/>
+    <mergeCell ref="K16:AD16"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="I7:AS7"/>
     <mergeCell ref="C9:H9"/>
@@ -5752,320 +5812,320 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A2" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="C2" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A3" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="62" t="s">
+      <c r="B3" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="C3" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A4" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="B4" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A5" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="B5" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="62" t="s">
+      <c r="C5" s="61"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A6" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B6" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="62" t="s">
+      <c r="C6" s="61"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A7" s="62"/>
+      <c r="B7" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="62" t="s">
+      <c r="C7" s="61"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A8" s="62"/>
+      <c r="B8" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="62" t="s">
+      <c r="C8" s="61"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="62"/>
+      <c r="B9" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="C9" s="61"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="62"/>
+      <c r="B10" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="63"/>
-      <c r="B7" s="62" t="s">
+      <c r="C10" s="61"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="62"/>
+      <c r="B11" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="63"/>
-      <c r="B8" s="62" t="s">
+      <c r="C11" s="61"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A12" s="62"/>
+      <c r="B12" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="63"/>
-      <c r="B9" s="62" t="s">
+      <c r="C12" s="61"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A13" s="62"/>
+      <c r="B13" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="63"/>
-      <c r="B10" s="62" t="s">
+      <c r="C13" s="61"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A14" s="62"/>
+      <c r="B14" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="63"/>
-      <c r="B11" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" s="62"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="63"/>
-      <c r="B12" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="62"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="63"/>
-      <c r="B13" s="62" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="63"/>
-      <c r="B14" s="62" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
+      <c r="A15" s="62"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="63"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
+      <c r="A16" s="62"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="63"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
+      <c r="A17" s="62"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="63"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
+      <c r="A18" s="62"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="63"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
+      <c r="A19" s="62"/>
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
+      <c r="A20" s="62"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="63"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
+      <c r="A21" s="62"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="63"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="61"/>
-      <c r="F22" s="61"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="63"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
+      <c r="A23" s="62"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="63"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
+      <c r="A24" s="62"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="63"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="63"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="64"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9"/>
@@ -57098,80 +57158,80 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BF14"/>
+  <dimension ref="A1:BF17"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U33" sqref="U33"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="58" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" ht="15.75" customHeight="1">
+    <row r="1" spans="1:58" ht="16.5">
       <c r="A1" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
-      <c r="AO1" s="67"/>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="67"/>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="67"/>
-      <c r="AW1" s="67"/>
-      <c r="AX1" s="67"/>
-      <c r="AY1" s="67"/>
-      <c r="AZ1" s="67"/>
-      <c r="BA1" s="67"/>
-      <c r="BB1" s="67"/>
-      <c r="BC1" s="67"/>
-      <c r="BD1" s="67"/>
-      <c r="BE1" s="67"/>
-      <c r="BF1" s="67"/>
-    </row>
-    <row r="2" spans="1:58">
+      <c r="B1" s="64"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="66"/>
+      <c r="T1" s="66"/>
+      <c r="U1" s="66"/>
+      <c r="V1" s="66"/>
+      <c r="W1" s="66"/>
+      <c r="X1" s="66"/>
+      <c r="Y1" s="66"/>
+      <c r="Z1" s="66"/>
+      <c r="AA1" s="66"/>
+      <c r="AB1" s="66"/>
+      <c r="AC1" s="66"/>
+      <c r="AD1" s="66"/>
+      <c r="AE1" s="66"/>
+      <c r="AF1" s="66"/>
+      <c r="AG1" s="66"/>
+      <c r="AH1" s="66"/>
+      <c r="AI1" s="66"/>
+      <c r="AJ1" s="66"/>
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="66"/>
+      <c r="AR1" s="66"/>
+      <c r="AS1" s="66"/>
+      <c r="AT1" s="66"/>
+      <c r="AU1" s="66"/>
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="66"/>
+      <c r="BA1" s="66"/>
+      <c r="BB1" s="66"/>
+      <c r="BC1" s="66"/>
+      <c r="BD1" s="66"/>
+      <c r="BE1" s="66"/>
+      <c r="BF1" s="66"/>
+    </row>
+    <row r="2" spans="1:58" ht="16.5">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -57231,7 +57291,7 @@
       <c r="BE2" s="3"/>
       <c r="BF2" s="3"/>
     </row>
-    <row r="3" spans="1:58">
+    <row r="3" spans="1:58" ht="16.5">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -57291,69 +57351,69 @@
       <c r="BE3" s="3"/>
       <c r="BF3" s="3"/>
     </row>
-    <row r="4" spans="1:58" ht="15.75" customHeight="1">
+    <row r="4" spans="1:58" ht="16.5">
       <c r="A4" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="67"/>
-      <c r="AD4" s="67"/>
-      <c r="AE4" s="67"/>
-      <c r="AF4" s="67"/>
-      <c r="AG4" s="67"/>
-      <c r="AH4" s="67"/>
-      <c r="AI4" s="67"/>
-      <c r="AJ4" s="67"/>
-      <c r="AK4" s="67"/>
-      <c r="AL4" s="67"/>
-      <c r="AM4" s="67"/>
-      <c r="AN4" s="67"/>
-      <c r="AO4" s="67"/>
-      <c r="AP4" s="67"/>
-      <c r="AQ4" s="67"/>
-      <c r="AR4" s="67"/>
-      <c r="AS4" s="67"/>
-      <c r="AT4" s="67"/>
-      <c r="AU4" s="67"/>
-      <c r="AV4" s="67"/>
-      <c r="AW4" s="67"/>
-      <c r="AX4" s="67"/>
-      <c r="AY4" s="67"/>
-      <c r="AZ4" s="67"/>
-      <c r="BA4" s="67"/>
-      <c r="BB4" s="67"/>
-      <c r="BC4" s="67"/>
-      <c r="BD4" s="67"/>
-      <c r="BE4" s="67"/>
-      <c r="BF4" s="67"/>
-    </row>
-    <row r="5" spans="1:58">
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="66"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="66"/>
+      <c r="AJ4" s="66"/>
+      <c r="AK4" s="66"/>
+      <c r="AL4" s="66"/>
+      <c r="AM4" s="66"/>
+      <c r="AN4" s="66"/>
+      <c r="AO4" s="66"/>
+      <c r="AP4" s="66"/>
+      <c r="AQ4" s="66"/>
+      <c r="AR4" s="66"/>
+      <c r="AS4" s="66"/>
+      <c r="AT4" s="66"/>
+      <c r="AU4" s="66"/>
+      <c r="AV4" s="66"/>
+      <c r="AW4" s="66"/>
+      <c r="AX4" s="66"/>
+      <c r="AY4" s="66"/>
+      <c r="AZ4" s="66"/>
+      <c r="BA4" s="66"/>
+      <c r="BB4" s="66"/>
+      <c r="BC4" s="66"/>
+      <c r="BD4" s="66"/>
+      <c r="BE4" s="66"/>
+      <c r="BF4" s="66"/>
+    </row>
+    <row r="5" spans="1:58" ht="16.5">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -57413,26 +57473,26 @@
       <c r="BE5" s="3"/>
       <c r="BF5" s="3"/>
     </row>
-    <row r="6" spans="1:58" outlineLevel="1">
+    <row r="6" spans="1:58" ht="16.5" outlineLevel="1">
       <c r="A6" s="3"/>
-      <c r="B6" s="68" t="s">
-        <v>70</v>
+      <c r="B6" s="67" t="s">
+        <v>66</v>
       </c>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
-      <c r="P6" s="69"/>
-      <c r="Q6" s="69"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
@@ -57475,45 +57535,45 @@
       <c r="BE6" s="3"/>
       <c r="BF6" s="3"/>
     </row>
-    <row r="7" spans="1:58" outlineLevel="1">
+    <row r="7" spans="1:58" ht="16.5" outlineLevel="1">
       <c r="A7" s="3"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="77" t="s">
-        <v>71</v>
+      <c r="B7" s="68"/>
+      <c r="C7" s="93" t="s">
+        <v>67</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="78" t="s">
-        <v>72</v>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="95"/>
+      <c r="I7" s="96" t="s">
+        <v>68</v>
       </c>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="73"/>
+      <c r="J7" s="94"/>
+      <c r="K7" s="94"/>
+      <c r="L7" s="94"/>
+      <c r="M7" s="94"/>
+      <c r="N7" s="94"/>
+      <c r="O7" s="94"/>
+      <c r="P7" s="94"/>
+      <c r="Q7" s="94"/>
+      <c r="R7" s="94"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="94"/>
+      <c r="U7" s="94"/>
+      <c r="V7" s="94"/>
+      <c r="W7" s="94"/>
+      <c r="X7" s="94"/>
+      <c r="Y7" s="94"/>
+      <c r="Z7" s="94"/>
+      <c r="AA7" s="94"/>
+      <c r="AB7" s="94"/>
+      <c r="AC7" s="94"/>
+      <c r="AD7" s="94"/>
+      <c r="AE7" s="94"/>
+      <c r="AF7" s="94"/>
+      <c r="AG7" s="94"/>
+      <c r="AH7" s="95"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
@@ -57539,45 +57599,45 @@
       <c r="BE7" s="3"/>
       <c r="BF7" s="3"/>
     </row>
-    <row r="8" spans="1:58" outlineLevel="1">
+    <row r="8" spans="1:58" ht="16.5" outlineLevel="1">
       <c r="A8" s="3"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="77" t="s">
-        <v>73</v>
+      <c r="B8" s="68"/>
+      <c r="C8" s="93" t="s">
+        <v>69</v>
       </c>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="78" t="s">
-        <v>74</v>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="95"/>
+      <c r="I8" s="96" t="s">
+        <v>70</v>
       </c>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="72"/>
-      <c r="M8" s="72"/>
-      <c r="N8" s="72"/>
-      <c r="O8" s="72"/>
-      <c r="P8" s="72"/>
-      <c r="Q8" s="72"/>
-      <c r="R8" s="72"/>
-      <c r="S8" s="72"/>
-      <c r="T8" s="72"/>
-      <c r="U8" s="72"/>
-      <c r="V8" s="72"/>
-      <c r="W8" s="72"/>
-      <c r="X8" s="72"/>
-      <c r="Y8" s="72"/>
-      <c r="Z8" s="72"/>
-      <c r="AA8" s="72"/>
-      <c r="AB8" s="72"/>
-      <c r="AC8" s="72"/>
-      <c r="AD8" s="72"/>
-      <c r="AE8" s="72"/>
-      <c r="AF8" s="72"/>
-      <c r="AG8" s="72"/>
-      <c r="AH8" s="73"/>
+      <c r="J8" s="94"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="94"/>
+      <c r="R8" s="94"/>
+      <c r="S8" s="94"/>
+      <c r="T8" s="94"/>
+      <c r="U8" s="94"/>
+      <c r="V8" s="94"/>
+      <c r="W8" s="94"/>
+      <c r="X8" s="94"/>
+      <c r="Y8" s="94"/>
+      <c r="Z8" s="94"/>
+      <c r="AA8" s="94"/>
+      <c r="AB8" s="94"/>
+      <c r="AC8" s="94"/>
+      <c r="AD8" s="94"/>
+      <c r="AE8" s="94"/>
+      <c r="AF8" s="94"/>
+      <c r="AG8" s="94"/>
+      <c r="AH8" s="95"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
@@ -57603,45 +57663,45 @@
       <c r="BE8" s="3"/>
       <c r="BF8" s="3"/>
     </row>
-    <row r="9" spans="1:58" outlineLevel="1">
+    <row r="9" spans="1:58" ht="16.5" outlineLevel="1">
       <c r="A9" s="3"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="77" t="s">
+      <c r="B9" s="68"/>
+      <c r="C9" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="78" t="s">
-        <v>75</v>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="95"/>
+      <c r="I9" s="96" t="s">
+        <v>71</v>
       </c>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="72"/>
-      <c r="W9" s="72"/>
-      <c r="X9" s="72"/>
-      <c r="Y9" s="72"/>
-      <c r="Z9" s="72"/>
-      <c r="AA9" s="72"/>
-      <c r="AB9" s="72"/>
-      <c r="AC9" s="72"/>
-      <c r="AD9" s="72"/>
-      <c r="AE9" s="72"/>
-      <c r="AF9" s="72"/>
-      <c r="AG9" s="72"/>
-      <c r="AH9" s="73"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="94"/>
+      <c r="S9" s="94"/>
+      <c r="T9" s="94"/>
+      <c r="U9" s="94"/>
+      <c r="V9" s="94"/>
+      <c r="W9" s="94"/>
+      <c r="X9" s="94"/>
+      <c r="Y9" s="94"/>
+      <c r="Z9" s="94"/>
+      <c r="AA9" s="94"/>
+      <c r="AB9" s="94"/>
+      <c r="AC9" s="94"/>
+      <c r="AD9" s="94"/>
+      <c r="AE9" s="94"/>
+      <c r="AF9" s="94"/>
+      <c r="AG9" s="94"/>
+      <c r="AH9" s="95"/>
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
       <c r="AK9" s="3"/>
@@ -57667,45 +57727,45 @@
       <c r="BE9" s="3"/>
       <c r="BF9" s="3"/>
     </row>
-    <row r="10" spans="1:58" outlineLevel="1">
+    <row r="10" spans="1:58" ht="16.5" outlineLevel="1">
       <c r="A10" s="3"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="77" t="s">
-        <v>76</v>
+      <c r="B10" s="68"/>
+      <c r="C10" s="93" t="s">
+        <v>72</v>
       </c>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="78" t="s">
-        <v>77</v>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="95"/>
+      <c r="I10" s="96" t="s">
+        <v>73</v>
       </c>
-      <c r="J10" s="72"/>
-      <c r="K10" s="72"/>
-      <c r="L10" s="72"/>
-      <c r="M10" s="72"/>
-      <c r="N10" s="72"/>
-      <c r="O10" s="72"/>
-      <c r="P10" s="72"/>
-      <c r="Q10" s="72"/>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="72"/>
-      <c r="X10" s="72"/>
-      <c r="Y10" s="72"/>
-      <c r="Z10" s="72"/>
-      <c r="AA10" s="72"/>
-      <c r="AB10" s="72"/>
-      <c r="AC10" s="72"/>
-      <c r="AD10" s="72"/>
-      <c r="AE10" s="72"/>
-      <c r="AF10" s="72"/>
-      <c r="AG10" s="72"/>
-      <c r="AH10" s="73"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="94"/>
+      <c r="N10" s="94"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="94"/>
+      <c r="W10" s="94"/>
+      <c r="X10" s="94"/>
+      <c r="Y10" s="94"/>
+      <c r="Z10" s="94"/>
+      <c r="AA10" s="94"/>
+      <c r="AB10" s="94"/>
+      <c r="AC10" s="94"/>
+      <c r="AD10" s="94"/>
+      <c r="AE10" s="94"/>
+      <c r="AF10" s="94"/>
+      <c r="AG10" s="94"/>
+      <c r="AH10" s="95"/>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
@@ -57731,24 +57791,24 @@
       <c r="BE10" s="3"/>
       <c r="BF10" s="3"/>
     </row>
-    <row r="11" spans="1:58" outlineLevel="1">
+    <row r="11" spans="1:58" ht="16.5" outlineLevel="1">
       <c r="A11" s="3"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="69"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
@@ -57791,19 +57851,19 @@
       <c r="BE11" s="3"/>
       <c r="BF11" s="3"/>
     </row>
-    <row r="12" spans="1:58" outlineLevel="1">
+    <row r="12" spans="1:58" ht="16.5" outlineLevel="1">
       <c r="A12" s="3"/>
-      <c r="B12" s="68" t="s">
-        <v>78</v>
+      <c r="B12" s="67" t="s">
+        <v>74</v>
       </c>
-      <c r="C12" s="69"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -57853,127 +57913,309 @@
       <c r="BE12" s="3"/>
       <c r="BF12" s="3"/>
     </row>
-    <row r="13" spans="1:58" ht="15.75" customHeight="1" outlineLevel="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="70" t="s">
+    <row r="13" spans="1:58" s="98" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A13" s="68"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5"/>
-      <c r="AG13" s="5"/>
-      <c r="AH13" s="5"/>
-      <c r="AI13" s="3"/>
-      <c r="AJ13" s="3"/>
-      <c r="AK13" s="3"/>
-      <c r="AL13" s="3"/>
-      <c r="AM13" s="3"/>
-      <c r="AN13" s="3"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="3"/>
-      <c r="AQ13" s="3"/>
-      <c r="AR13" s="3"/>
-      <c r="AS13" s="3"/>
-      <c r="AT13" s="3"/>
-      <c r="AU13" s="3"/>
-      <c r="AV13" s="3"/>
-      <c r="AW13" s="3"/>
-      <c r="AX13" s="3"/>
-      <c r="AY13" s="3"/>
-      <c r="AZ13" s="3"/>
-      <c r="BA13" s="3"/>
-      <c r="BB13" s="3"/>
-      <c r="BC13" s="3"/>
-      <c r="BD13" s="3"/>
-      <c r="BE13" s="3"/>
-      <c r="BF13" s="3"/>
-    </row>
-    <row r="14" spans="1:58">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="69"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="3"/>
-      <c r="V14" s="3"/>
-      <c r="W14" s="3"/>
-      <c r="X14" s="3"/>
-      <c r="Y14" s="3"/>
-      <c r="Z14" s="3"/>
-      <c r="AA14" s="3"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
-      <c r="AD14" s="3"/>
-      <c r="AE14" s="3"/>
-      <c r="AF14" s="3"/>
-      <c r="AG14" s="3"/>
-      <c r="AH14" s="3"/>
-      <c r="AI14" s="3"/>
-      <c r="AJ14" s="3"/>
-      <c r="AK14" s="3"/>
-      <c r="AL14" s="3"/>
-      <c r="AM14" s="3"/>
-      <c r="AN14" s="3"/>
-      <c r="AO14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AQ14" s="3"/>
-      <c r="AR14" s="3"/>
-      <c r="AS14" s="3"/>
-      <c r="AT14" s="3"/>
-      <c r="AU14" s="3"/>
-      <c r="AV14" s="3"/>
-      <c r="AW14" s="3"/>
-      <c r="AX14" s="3"/>
-      <c r="AY14" s="3"/>
-      <c r="AZ14" s="3"/>
-      <c r="BA14" s="3"/>
-      <c r="BB14" s="3"/>
-      <c r="BC14" s="3"/>
-      <c r="BD14" s="3"/>
-      <c r="BE14" s="3"/>
-      <c r="BF14" s="3"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="68"/>
+      <c r="U13" s="68"/>
+      <c r="V13" s="68"/>
+      <c r="W13" s="68"/>
+      <c r="X13" s="68"/>
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="68"/>
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="68"/>
+      <c r="AE13" s="68"/>
+      <c r="AF13" s="68"/>
+      <c r="AG13" s="68"/>
+      <c r="AH13" s="68"/>
+      <c r="AI13" s="68"/>
+      <c r="AJ13" s="68"/>
+      <c r="AK13" s="68"/>
+      <c r="AL13" s="68"/>
+      <c r="AM13" s="68"/>
+      <c r="AN13" s="68"/>
+      <c r="AO13" s="68"/>
+      <c r="AP13" s="68"/>
+      <c r="AQ13" s="68"/>
+      <c r="AR13" s="68"/>
+      <c r="AS13" s="68"/>
+      <c r="AT13" s="68"/>
+      <c r="AU13" s="68"/>
+      <c r="AV13" s="68"/>
+      <c r="AW13" s="68"/>
+      <c r="AX13" s="68"/>
+      <c r="AY13" s="68"/>
+      <c r="AZ13" s="68"/>
+      <c r="BA13" s="68"/>
+      <c r="BB13" s="68"/>
+      <c r="BC13" s="68"/>
+      <c r="BD13" s="68"/>
+      <c r="BE13" s="68"/>
+      <c r="BF13" s="68"/>
+    </row>
+    <row r="14" spans="1:58" s="98" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A14" s="68"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="68"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
+      <c r="R14" s="68"/>
+      <c r="S14" s="68"/>
+      <c r="T14" s="68"/>
+      <c r="U14" s="68"/>
+      <c r="V14" s="68"/>
+      <c r="W14" s="68"/>
+      <c r="X14" s="68"/>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="68"/>
+      <c r="AB14" s="68"/>
+      <c r="AC14" s="68"/>
+      <c r="AD14" s="68"/>
+      <c r="AE14" s="68"/>
+      <c r="AF14" s="68"/>
+      <c r="AG14" s="68"/>
+      <c r="AH14" s="68"/>
+      <c r="AI14" s="68"/>
+      <c r="AJ14" s="68"/>
+      <c r="AK14" s="68"/>
+      <c r="AL14" s="68"/>
+      <c r="AM14" s="68"/>
+      <c r="AN14" s="68"/>
+      <c r="AO14" s="68"/>
+      <c r="AP14" s="68"/>
+      <c r="AQ14" s="68"/>
+      <c r="AR14" s="68"/>
+      <c r="AS14" s="68"/>
+      <c r="AT14" s="68"/>
+      <c r="AU14" s="68"/>
+      <c r="AV14" s="68"/>
+      <c r="AW14" s="68"/>
+      <c r="AX14" s="68"/>
+      <c r="AY14" s="68"/>
+      <c r="AZ14" s="68"/>
+      <c r="BA14" s="68"/>
+      <c r="BB14" s="68"/>
+      <c r="BC14" s="68"/>
+      <c r="BD14" s="68"/>
+      <c r="BE14" s="68"/>
+      <c r="BF14" s="68"/>
+    </row>
+    <row r="15" spans="1:58" s="98" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A15" s="68"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="68"/>
+      <c r="L15" s="68"/>
+      <c r="M15" s="68"/>
+      <c r="N15" s="68"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="68"/>
+      <c r="Q15" s="68"/>
+      <c r="R15" s="68"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="68"/>
+      <c r="U15" s="68"/>
+      <c r="V15" s="68"/>
+      <c r="W15" s="68"/>
+      <c r="X15" s="68"/>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="68"/>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="68"/>
+      <c r="AD15" s="68"/>
+      <c r="AE15" s="68"/>
+      <c r="AF15" s="68"/>
+      <c r="AG15" s="68"/>
+      <c r="AH15" s="68"/>
+      <c r="AI15" s="68"/>
+      <c r="AJ15" s="68"/>
+      <c r="AK15" s="68"/>
+      <c r="AL15" s="68"/>
+      <c r="AM15" s="68"/>
+      <c r="AN15" s="68"/>
+      <c r="AO15" s="68"/>
+      <c r="AP15" s="68"/>
+      <c r="AQ15" s="68"/>
+      <c r="AR15" s="68"/>
+      <c r="AS15" s="68"/>
+      <c r="AT15" s="68"/>
+      <c r="AU15" s="68"/>
+      <c r="AV15" s="68"/>
+      <c r="AW15" s="68"/>
+      <c r="AX15" s="68"/>
+      <c r="AY15" s="68"/>
+      <c r="AZ15" s="68"/>
+      <c r="BA15" s="68"/>
+      <c r="BB15" s="68"/>
+      <c r="BC15" s="68"/>
+      <c r="BD15" s="68"/>
+      <c r="BE15" s="68"/>
+      <c r="BF15" s="68"/>
+    </row>
+    <row r="16" spans="1:58" s="98" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="68"/>
+      <c r="AJ16" s="68"/>
+      <c r="AK16" s="68"/>
+      <c r="AL16" s="68"/>
+      <c r="AM16" s="68"/>
+      <c r="AN16" s="68"/>
+      <c r="AO16" s="68"/>
+      <c r="AP16" s="68"/>
+      <c r="AQ16" s="68"/>
+      <c r="AR16" s="68"/>
+      <c r="AS16" s="68"/>
+      <c r="AT16" s="68"/>
+      <c r="AU16" s="68"/>
+      <c r="AV16" s="68"/>
+      <c r="AW16" s="68"/>
+      <c r="AX16" s="68"/>
+      <c r="AY16" s="68"/>
+      <c r="AZ16" s="68"/>
+      <c r="BA16" s="68"/>
+      <c r="BB16" s="68"/>
+      <c r="BC16" s="68"/>
+      <c r="BD16" s="68"/>
+      <c r="BE16" s="68"/>
+      <c r="BF16" s="68"/>
+    </row>
+    <row r="17" spans="1:58" s="98" customFormat="1" ht="16.5">
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="68"/>
+      <c r="M17" s="68"/>
+      <c r="N17" s="68"/>
+      <c r="O17" s="68"/>
+      <c r="P17" s="68"/>
+      <c r="Q17" s="68"/>
+      <c r="R17" s="68"/>
+      <c r="S17" s="68"/>
+      <c r="T17" s="68"/>
+      <c r="U17" s="68"/>
+      <c r="V17" s="68"/>
+      <c r="W17" s="68"/>
+      <c r="X17" s="68"/>
+      <c r="Y17" s="68"/>
+      <c r="Z17" s="68"/>
+      <c r="AA17" s="68"/>
+      <c r="AB17" s="68"/>
+      <c r="AC17" s="68"/>
+      <c r="AD17" s="68"/>
+      <c r="AE17" s="68"/>
+      <c r="AF17" s="68"/>
+      <c r="AG17" s="68"/>
+      <c r="AH17" s="68"/>
+      <c r="AI17" s="68"/>
+      <c r="AJ17" s="68"/>
+      <c r="AK17" s="68"/>
+      <c r="AL17" s="68"/>
+      <c r="AM17" s="68"/>
+      <c r="AN17" s="68"/>
+      <c r="AO17" s="68"/>
+      <c r="AP17" s="68"/>
+      <c r="AQ17" s="68"/>
+      <c r="AR17" s="68"/>
+      <c r="AS17" s="68"/>
+      <c r="AT17" s="68"/>
+      <c r="AU17" s="68"/>
+      <c r="AV17" s="68"/>
+      <c r="AW17" s="68"/>
+      <c r="AX17" s="68"/>
+      <c r="AY17" s="68"/>
+      <c r="AZ17" s="68"/>
+      <c r="BA17" s="68"/>
+      <c r="BB17" s="68"/>
+      <c r="BC17" s="68"/>
+      <c r="BD17" s="68"/>
+      <c r="BE17" s="68"/>
+      <c r="BF17" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/ha-asset/01_design/03_batch/設計書_3.1.ヘルスチェックバッチ.xlsx
+++ b/ha-asset/01_design/03_batch/設計書_3.1.ヘルスチェックバッチ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\03_batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2920453B-B25E-4682-9F18-0B3E47EF0E35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C89B6B-2C2A-4675-9508-D004E6011E9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="2640" windowWidth="21600" windowHeight="12855" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8835" yWindow="1260" windowWidth="19320" windowHeight="16035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0.更新履歴'!$A$1:$AA$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1.機能一覧'!$A$1:$AW$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'2.1.ヘルスチェックバッチ'!$A$1:$BK$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2.1.ヘルスチェックバッチ'!$A$1:$BK$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'3.1.ファイルIF'!$A$1:$BF$17</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
   <si>
     <t>0.更新履歴</t>
   </si>
@@ -81,9 +81,6 @@
     <t>起動方法/タイミング</t>
   </si>
   <si>
-    <t>2.1.1.処理詳細</t>
-  </si>
-  <si>
     <t>#</t>
   </si>
   <si>
@@ -121,15 +118,6 @@
   </si>
   <si>
     <t>エラーメール送信</t>
-  </si>
-  <si>
-    <t>2.1.2.DB処理</t>
-  </si>
-  <si>
-    <t>2.1.3.備考</t>
-  </si>
-  <si>
-    <t>2.1.3.1.エラーメール</t>
   </si>
   <si>
     <t>以下のメールを送信する</t>
@@ -260,30 +248,56 @@
   <si>
     <t>[3.1.ファイルIF]シート
 　3.1.1.ヘルスチェックエラーメール本文 参照</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>2.1.3.1.エラーメール 参照</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>MS932</t>
-    <phoneticPr fontId="9"/>
-  </si>
-  <si>
-    <t>API設計書を呼び出し</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>92_テンプレート一覧.xlsx</t>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>#2 シート参照</t>
     <rPh sb="6" eb="8">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="9"/>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>02_api/設計書_2.1.ヘルスチェックAPI.xlsx 参照</t>
+    <rPh sb="31" eb="33">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>引数1:</t>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2.1.2.処理詳細</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2.1.3.DB処理</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2.1.4.備考</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2.1.4.1.エラーメール</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>2.1.4.1.エラーメール 参照</t>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -341,13 +355,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Meiryo"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Meiryo"/>
       <family val="3"/>
@@ -358,6 +365,11 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -625,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -737,6 +749,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -751,16 +770,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -779,13 +791,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -794,15 +810,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1023,9 +1042,7 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7:Z7"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1094,681 +1111,681 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="3"/>
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="72" t="s">
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72" t="s">
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="75" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="O3" s="70"/>
-      <c r="P3" s="70"/>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="70"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="70"/>
-      <c r="Z3" s="71"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="74"/>
       <c r="AA3" s="3"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="3"/>
-      <c r="B4" s="73">
+      <c r="B4" s="76">
         <v>44150</v>
       </c>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="74" t="s">
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="69" t="s">
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="70"/>
-      <c r="Q4" s="70"/>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="70"/>
-      <c r="Y4" s="70"/>
-      <c r="Z4" s="71"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="73"/>
+      <c r="O4" s="73"/>
+      <c r="P4" s="73"/>
+      <c r="Q4" s="73"/>
+      <c r="R4" s="73"/>
+      <c r="S4" s="73"/>
+      <c r="T4" s="73"/>
+      <c r="U4" s="73"/>
+      <c r="V4" s="73"/>
+      <c r="W4" s="73"/>
+      <c r="X4" s="73"/>
+      <c r="Y4" s="73"/>
+      <c r="Z4" s="74"/>
       <c r="AA4" s="3"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="3"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="O5" s="70"/>
-      <c r="P5" s="70"/>
-      <c r="Q5" s="70"/>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="70"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="70"/>
-      <c r="X5" s="70"/>
-      <c r="Y5" s="70"/>
-      <c r="Z5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="73"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="72"/>
+      <c r="K5" s="73"/>
+      <c r="L5" s="73"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="73"/>
+      <c r="O5" s="73"/>
+      <c r="P5" s="73"/>
+      <c r="Q5" s="73"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="73"/>
+      <c r="U5" s="73"/>
+      <c r="V5" s="73"/>
+      <c r="W5" s="73"/>
+      <c r="X5" s="73"/>
+      <c r="Y5" s="73"/>
+      <c r="Z5" s="74"/>
       <c r="AA5" s="3"/>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="3"/>
-      <c r="B6" s="69"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="O6" s="70"/>
-      <c r="P6" s="70"/>
-      <c r="Q6" s="70"/>
-      <c r="R6" s="70"/>
-      <c r="S6" s="70"/>
-      <c r="T6" s="70"/>
-      <c r="U6" s="70"/>
-      <c r="V6" s="70"/>
-      <c r="W6" s="70"/>
-      <c r="X6" s="70"/>
-      <c r="Y6" s="70"/>
-      <c r="Z6" s="71"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="73"/>
+      <c r="L6" s="73"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="73"/>
+      <c r="O6" s="73"/>
+      <c r="P6" s="73"/>
+      <c r="Q6" s="73"/>
+      <c r="R6" s="73"/>
+      <c r="S6" s="73"/>
+      <c r="T6" s="73"/>
+      <c r="U6" s="73"/>
+      <c r="V6" s="73"/>
+      <c r="W6" s="73"/>
+      <c r="X6" s="73"/>
+      <c r="Y6" s="73"/>
+      <c r="Z6" s="74"/>
       <c r="AA6" s="3"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="3"/>
-      <c r="B7" s="69"/>
-      <c r="C7" s="70"/>
-      <c r="D7" s="70"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70"/>
-      <c r="V7" s="70"/>
-      <c r="W7" s="70"/>
-      <c r="X7" s="70"/>
-      <c r="Y7" s="70"/>
-      <c r="Z7" s="71"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="74"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="74"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="74"/>
       <c r="AA7" s="3"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="3"/>
-      <c r="B8" s="69"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="O8" s="70"/>
-      <c r="P8" s="70"/>
-      <c r="Q8" s="70"/>
-      <c r="R8" s="70"/>
-      <c r="S8" s="70"/>
-      <c r="T8" s="70"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="70"/>
-      <c r="W8" s="70"/>
-      <c r="X8" s="70"/>
-      <c r="Y8" s="70"/>
-      <c r="Z8" s="71"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="73"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="73"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="74"/>
       <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="3"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="70"/>
-      <c r="Z9" s="71"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="74"/>
       <c r="AA9" s="3"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="3"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="70"/>
-      <c r="R10" s="70"/>
-      <c r="S10" s="70"/>
-      <c r="T10" s="70"/>
-      <c r="U10" s="70"/>
-      <c r="V10" s="70"/>
-      <c r="W10" s="70"/>
-      <c r="X10" s="70"/>
-      <c r="Y10" s="70"/>
-      <c r="Z10" s="71"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="74"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="74"/>
       <c r="AA10" s="3"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="3"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="70"/>
-      <c r="L11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
-      <c r="O11" s="70"/>
-      <c r="P11" s="70"/>
-      <c r="Q11" s="70"/>
-      <c r="R11" s="70"/>
-      <c r="S11" s="70"/>
-      <c r="T11" s="70"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="70"/>
-      <c r="W11" s="70"/>
-      <c r="X11" s="70"/>
-      <c r="Y11" s="70"/>
-      <c r="Z11" s="71"/>
+      <c r="B11" s="72"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="72"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="74"/>
+      <c r="J11" s="72"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
+      <c r="M11" s="73"/>
+      <c r="N11" s="73"/>
+      <c r="O11" s="73"/>
+      <c r="P11" s="73"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="73"/>
+      <c r="U11" s="73"/>
+      <c r="V11" s="73"/>
+      <c r="W11" s="73"/>
+      <c r="X11" s="73"/>
+      <c r="Y11" s="73"/>
+      <c r="Z11" s="74"/>
       <c r="AA11" s="3"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="3"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="69"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="69"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="70"/>
-      <c r="P12" s="70"/>
-      <c r="Q12" s="70"/>
-      <c r="R12" s="70"/>
-      <c r="S12" s="70"/>
-      <c r="T12" s="70"/>
-      <c r="U12" s="70"/>
-      <c r="V12" s="70"/>
-      <c r="W12" s="70"/>
-      <c r="X12" s="70"/>
-      <c r="Y12" s="70"/>
-      <c r="Z12" s="71"/>
+      <c r="B12" s="72"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="74"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="74"/>
+      <c r="J12" s="72"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="73"/>
+      <c r="M12" s="73"/>
+      <c r="N12" s="73"/>
+      <c r="O12" s="73"/>
+      <c r="P12" s="73"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="73"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="73"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="73"/>
+      <c r="Z12" s="74"/>
       <c r="AA12" s="3"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="3"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="69"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="70"/>
-      <c r="P13" s="70"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="71"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="72"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="74"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="73"/>
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="73"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="74"/>
       <c r="AA13" s="3"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="3"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="69"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="70"/>
-      <c r="P14" s="70"/>
-      <c r="Q14" s="70"/>
-      <c r="R14" s="70"/>
-      <c r="S14" s="70"/>
-      <c r="T14" s="70"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="70"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="70"/>
-      <c r="Y14" s="70"/>
-      <c r="Z14" s="71"/>
+      <c r="B14" s="72"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="74"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="73"/>
+      <c r="O14" s="73"/>
+      <c r="P14" s="73"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="73"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="73"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="73"/>
+      <c r="X14" s="73"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" s="74"/>
       <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="3"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="69"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="70"/>
-      <c r="P15" s="70"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
-      <c r="Z15" s="71"/>
+      <c r="B15" s="72"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="72"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="72"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
+      <c r="O15" s="73"/>
+      <c r="P15" s="73"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="73"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="73"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="73"/>
+      <c r="X15" s="73"/>
+      <c r="Y15" s="73"/>
+      <c r="Z15" s="74"/>
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="3"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="69"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="70"/>
-      <c r="P16" s="70"/>
-      <c r="Q16" s="70"/>
-      <c r="R16" s="70"/>
-      <c r="S16" s="70"/>
-      <c r="T16" s="70"/>
-      <c r="U16" s="70"/>
-      <c r="V16" s="70"/>
-      <c r="W16" s="70"/>
-      <c r="X16" s="70"/>
-      <c r="Y16" s="70"/>
-      <c r="Z16" s="71"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="74"/>
+      <c r="F16" s="72"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="74"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="73"/>
+      <c r="O16" s="73"/>
+      <c r="P16" s="73"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="73"/>
+      <c r="T16" s="73"/>
+      <c r="U16" s="73"/>
+      <c r="V16" s="73"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="73"/>
+      <c r="Y16" s="73"/>
+      <c r="Z16" s="74"/>
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="3"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70"/>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70"/>
-      <c r="S17" s="70"/>
-      <c r="T17" s="70"/>
-      <c r="U17" s="70"/>
-      <c r="V17" s="70"/>
-      <c r="W17" s="70"/>
-      <c r="X17" s="70"/>
-      <c r="Y17" s="70"/>
-      <c r="Z17" s="71"/>
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="74"/>
+      <c r="J17" s="72"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+      <c r="N17" s="73"/>
+      <c r="O17" s="73"/>
+      <c r="P17" s="73"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="73"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="73"/>
+      <c r="V17" s="73"/>
+      <c r="W17" s="73"/>
+      <c r="X17" s="73"/>
+      <c r="Y17" s="73"/>
+      <c r="Z17" s="74"/>
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="3"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="70"/>
-      <c r="P18" s="70"/>
-      <c r="Q18" s="70"/>
-      <c r="R18" s="70"/>
-      <c r="S18" s="70"/>
-      <c r="T18" s="70"/>
-      <c r="U18" s="70"/>
-      <c r="V18" s="70"/>
-      <c r="W18" s="70"/>
-      <c r="X18" s="70"/>
-      <c r="Y18" s="70"/>
-      <c r="Z18" s="71"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="73"/>
+      <c r="O18" s="73"/>
+      <c r="P18" s="73"/>
+      <c r="Q18" s="73"/>
+      <c r="R18" s="73"/>
+      <c r="S18" s="73"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="73"/>
+      <c r="V18" s="73"/>
+      <c r="W18" s="73"/>
+      <c r="X18" s="73"/>
+      <c r="Y18" s="73"/>
+      <c r="Z18" s="74"/>
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="3"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="69"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="70"/>
-      <c r="P19" s="70"/>
-      <c r="Q19" s="70"/>
-      <c r="R19" s="70"/>
-      <c r="S19" s="70"/>
-      <c r="T19" s="70"/>
-      <c r="U19" s="70"/>
-      <c r="V19" s="70"/>
-      <c r="W19" s="70"/>
-      <c r="X19" s="70"/>
-      <c r="Y19" s="70"/>
-      <c r="Z19" s="71"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="73"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="72"/>
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="73"/>
+      <c r="N19" s="73"/>
+      <c r="O19" s="73"/>
+      <c r="P19" s="73"/>
+      <c r="Q19" s="73"/>
+      <c r="R19" s="73"/>
+      <c r="S19" s="73"/>
+      <c r="T19" s="73"/>
+      <c r="U19" s="73"/>
+      <c r="V19" s="73"/>
+      <c r="W19" s="73"/>
+      <c r="X19" s="73"/>
+      <c r="Y19" s="73"/>
+      <c r="Z19" s="74"/>
       <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="3"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="70"/>
-      <c r="P20" s="70"/>
-      <c r="Q20" s="70"/>
-      <c r="R20" s="70"/>
-      <c r="S20" s="70"/>
-      <c r="T20" s="70"/>
-      <c r="U20" s="70"/>
-      <c r="V20" s="70"/>
-      <c r="W20" s="70"/>
-      <c r="X20" s="70"/>
-      <c r="Y20" s="70"/>
-      <c r="Z20" s="71"/>
+      <c r="B20" s="72"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="72"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="73"/>
+      <c r="P20" s="73"/>
+      <c r="Q20" s="73"/>
+      <c r="R20" s="73"/>
+      <c r="S20" s="73"/>
+      <c r="T20" s="73"/>
+      <c r="U20" s="73"/>
+      <c r="V20" s="73"/>
+      <c r="W20" s="73"/>
+      <c r="X20" s="73"/>
+      <c r="Y20" s="73"/>
+      <c r="Z20" s="74"/>
       <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="3"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="71"/>
-      <c r="J21" s="69"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="70"/>
-      <c r="P21" s="70"/>
-      <c r="Q21" s="70"/>
-      <c r="R21" s="70"/>
-      <c r="S21" s="70"/>
-      <c r="T21" s="70"/>
-      <c r="U21" s="70"/>
-      <c r="V21" s="70"/>
-      <c r="W21" s="70"/>
-      <c r="X21" s="70"/>
-      <c r="Y21" s="70"/>
-      <c r="Z21" s="71"/>
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="72"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="72"/>
+      <c r="K21" s="73"/>
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="73"/>
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="73"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="73"/>
+      <c r="W21" s="73"/>
+      <c r="X21" s="73"/>
+      <c r="Y21" s="73"/>
+      <c r="Z21" s="74"/>
       <c r="AA21" s="3"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="3"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="69"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="70"/>
-      <c r="P22" s="70"/>
-      <c r="Q22" s="70"/>
-      <c r="R22" s="70"/>
-      <c r="S22" s="70"/>
-      <c r="T22" s="70"/>
-      <c r="U22" s="70"/>
-      <c r="V22" s="70"/>
-      <c r="W22" s="70"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="70"/>
-      <c r="Z22" s="71"/>
+      <c r="B22" s="72"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="72"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="74"/>
+      <c r="J22" s="72"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="73"/>
+      <c r="T22" s="73"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="73"/>
+      <c r="W22" s="73"/>
+      <c r="X22" s="73"/>
+      <c r="Y22" s="73"/>
+      <c r="Z22" s="74"/>
       <c r="AA22" s="3"/>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="3"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="69"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="70"/>
-      <c r="Q23" s="70"/>
-      <c r="R23" s="70"/>
-      <c r="S23" s="70"/>
-      <c r="T23" s="70"/>
-      <c r="U23" s="70"/>
-      <c r="V23" s="70"/>
-      <c r="W23" s="70"/>
-      <c r="X23" s="70"/>
-      <c r="Y23" s="70"/>
-      <c r="Z23" s="71"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="74"/>
+      <c r="J23" s="72"/>
+      <c r="K23" s="73"/>
+      <c r="L23" s="73"/>
+      <c r="M23" s="73"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="73"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="73"/>
+      <c r="V23" s="73"/>
+      <c r="W23" s="73"/>
+      <c r="X23" s="73"/>
+      <c r="Y23" s="73"/>
+      <c r="Z23" s="74"/>
       <c r="AA23" s="3"/>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="3"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="71"/>
-      <c r="J24" s="69"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70"/>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="70"/>
-      <c r="S24" s="70"/>
-      <c r="T24" s="70"/>
-      <c r="U24" s="70"/>
-      <c r="V24" s="70"/>
-      <c r="W24" s="70"/>
-      <c r="X24" s="70"/>
-      <c r="Y24" s="70"/>
-      <c r="Z24" s="71"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="72"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="73"/>
+      <c r="P24" s="73"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="73"/>
+      <c r="U24" s="73"/>
+      <c r="V24" s="73"/>
+      <c r="W24" s="73"/>
+      <c r="X24" s="73"/>
+      <c r="Y24" s="73"/>
+      <c r="Z24" s="74"/>
       <c r="AA24" s="3"/>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="3"/>
-      <c r="B25" s="69"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="69"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="70"/>
-      <c r="P25" s="70"/>
-      <c r="Q25" s="70"/>
-      <c r="R25" s="70"/>
-      <c r="S25" s="70"/>
-      <c r="T25" s="70"/>
-      <c r="U25" s="70"/>
-      <c r="V25" s="70"/>
-      <c r="W25" s="70"/>
-      <c r="X25" s="70"/>
-      <c r="Y25" s="70"/>
-      <c r="Z25" s="71"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="74"/>
+      <c r="J25" s="72"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
+      <c r="O25" s="73"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="73"/>
+      <c r="R25" s="73"/>
+      <c r="S25" s="73"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="73"/>
+      <c r="W25" s="73"/>
+      <c r="X25" s="73"/>
+      <c r="Y25" s="73"/>
+      <c r="Z25" s="74"/>
       <c r="AA25" s="3"/>
     </row>
     <row r="26" spans="1:27">
@@ -1831,6 +1848,66 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="J14:Z14"/>
     <mergeCell ref="B12:E12"/>
@@ -1840,68 +1917,8 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:Z13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
   </mergeCells>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3509,7 +3526,7 @@
       <c r="AW31" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3520,18 +3537,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BK33"/>
+  <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="63" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="16.5">
+    <row r="1" spans="1:64" ht="16.5">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -3598,7 +3613,7 @@
       <c r="BJ1" s="2"/>
       <c r="BK1" s="2"/>
     </row>
-    <row r="2" spans="1:63" ht="16.5">
+    <row r="2" spans="1:64" ht="16.5">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -3663,7 +3678,7 @@
       <c r="BJ2" s="5"/>
       <c r="BK2" s="5"/>
     </row>
-    <row r="3" spans="1:63" ht="16.5">
+    <row r="3" spans="1:64" ht="16.5">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -3728,7 +3743,7 @@
       <c r="BJ3" s="5"/>
       <c r="BK3" s="5"/>
     </row>
-    <row r="4" spans="1:63" ht="16.5">
+    <row r="4" spans="1:64" ht="16.5">
       <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
@@ -3795,7 +3810,7 @@
       <c r="BJ4" s="9"/>
       <c r="BK4" s="9"/>
     </row>
-    <row r="5" spans="1:63" ht="16.5">
+    <row r="5" spans="1:64" ht="16.5">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3860,7 +3875,7 @@
       <c r="BJ5" s="5"/>
       <c r="BK5" s="5"/>
     </row>
-    <row r="6" spans="1:63" ht="16.5">
+    <row r="6" spans="1:64" ht="16.5" outlineLevel="1">
       <c r="A6" s="5"/>
       <c r="B6" s="10" t="s">
         <v>11</v>
@@ -3927,56 +3942,56 @@
       <c r="BJ6" s="5"/>
       <c r="BK6" s="5"/>
     </row>
-    <row r="7" spans="1:63" ht="16.5">
+    <row r="7" spans="1:64" ht="16.5" outlineLevel="1">
       <c r="A7" s="5"/>
       <c r="B7" s="16"/>
-      <c r="C7" s="75" t="s">
+      <c r="C7" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="76" t="s">
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="74"/>
+      <c r="I7" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70"/>
-      <c r="V7" s="70"/>
-      <c r="W7" s="70"/>
-      <c r="X7" s="70"/>
-      <c r="Y7" s="70"/>
-      <c r="Z7" s="70"/>
-      <c r="AA7" s="70"/>
-      <c r="AB7" s="70"/>
-      <c r="AC7" s="70"/>
-      <c r="AD7" s="70"/>
-      <c r="AE7" s="70"/>
-      <c r="AF7" s="70"/>
-      <c r="AG7" s="70"/>
-      <c r="AH7" s="70"/>
-      <c r="AI7" s="70"/>
-      <c r="AJ7" s="70"/>
-      <c r="AK7" s="70"/>
-      <c r="AL7" s="70"/>
-      <c r="AM7" s="70"/>
-      <c r="AN7" s="70"/>
-      <c r="AO7" s="70"/>
-      <c r="AP7" s="70"/>
-      <c r="AQ7" s="70"/>
-      <c r="AR7" s="70"/>
-      <c r="AS7" s="71"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="73"/>
+      <c r="AB7" s="73"/>
+      <c r="AC7" s="73"/>
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="73"/>
+      <c r="AF7" s="73"/>
+      <c r="AG7" s="73"/>
+      <c r="AH7" s="73"/>
+      <c r="AI7" s="73"/>
+      <c r="AJ7" s="73"/>
+      <c r="AK7" s="73"/>
+      <c r="AL7" s="73"/>
+      <c r="AM7" s="73"/>
+      <c r="AN7" s="73"/>
+      <c r="AO7" s="73"/>
+      <c r="AP7" s="73"/>
+      <c r="AQ7" s="73"/>
+      <c r="AR7" s="73"/>
+      <c r="AS7" s="74"/>
       <c r="AT7" s="15"/>
       <c r="AU7" s="4"/>
       <c r="AV7" s="4"/>
@@ -3996,56 +4011,56 @@
       <c r="BJ7" s="5"/>
       <c r="BK7" s="5"/>
     </row>
-    <row r="8" spans="1:63" ht="16.5">
+    <row r="8" spans="1:64" ht="16.5" outlineLevel="1">
       <c r="A8" s="5"/>
       <c r="B8" s="16"/>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="78" t="s">
-        <v>77</v>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="74"/>
+      <c r="I8" s="90" t="s">
+        <v>72</v>
       </c>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="79"/>
-      <c r="P8" s="79"/>
-      <c r="Q8" s="79"/>
-      <c r="R8" s="79"/>
-      <c r="S8" s="79"/>
-      <c r="T8" s="79"/>
-      <c r="U8" s="79"/>
-      <c r="V8" s="79"/>
-      <c r="W8" s="79"/>
-      <c r="X8" s="79"/>
-      <c r="Y8" s="79"/>
-      <c r="Z8" s="79"/>
-      <c r="AA8" s="79"/>
-      <c r="AB8" s="79"/>
-      <c r="AC8" s="79"/>
-      <c r="AD8" s="79"/>
-      <c r="AE8" s="79"/>
-      <c r="AF8" s="79"/>
-      <c r="AG8" s="79"/>
-      <c r="AH8" s="79"/>
-      <c r="AI8" s="79"/>
-      <c r="AJ8" s="79"/>
-      <c r="AK8" s="79"/>
-      <c r="AL8" s="79"/>
-      <c r="AM8" s="79"/>
-      <c r="AN8" s="79"/>
-      <c r="AO8" s="79"/>
-      <c r="AP8" s="79"/>
-      <c r="AQ8" s="79"/>
-      <c r="AR8" s="79"/>
-      <c r="AS8" s="80"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="91"/>
+      <c r="L8" s="91"/>
+      <c r="M8" s="91"/>
+      <c r="N8" s="91"/>
+      <c r="O8" s="91"/>
+      <c r="P8" s="91"/>
+      <c r="Q8" s="91"/>
+      <c r="R8" s="91"/>
+      <c r="S8" s="91"/>
+      <c r="T8" s="91"/>
+      <c r="U8" s="91"/>
+      <c r="V8" s="91"/>
+      <c r="W8" s="91"/>
+      <c r="X8" s="91"/>
+      <c r="Y8" s="91"/>
+      <c r="Z8" s="91"/>
+      <c r="AA8" s="91"/>
+      <c r="AB8" s="91"/>
+      <c r="AC8" s="91"/>
+      <c r="AD8" s="91"/>
+      <c r="AE8" s="91"/>
+      <c r="AF8" s="91"/>
+      <c r="AG8" s="91"/>
+      <c r="AH8" s="91"/>
+      <c r="AI8" s="91"/>
+      <c r="AJ8" s="91"/>
+      <c r="AK8" s="91"/>
+      <c r="AL8" s="91"/>
+      <c r="AM8" s="91"/>
+      <c r="AN8" s="91"/>
+      <c r="AO8" s="91"/>
+      <c r="AP8" s="91"/>
+      <c r="AQ8" s="91"/>
+      <c r="AR8" s="91"/>
+      <c r="AS8" s="92"/>
       <c r="AT8" s="15"/>
       <c r="AU8" s="4"/>
       <c r="AV8" s="4"/>
@@ -4065,54 +4080,54 @@
       <c r="BJ8" s="5"/>
       <c r="BK8" s="5"/>
     </row>
-    <row r="9" spans="1:63" ht="16.5">
+    <row r="9" spans="1:64" ht="16.5" outlineLevel="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="75" t="s">
+      <c r="B9" s="16"/>
+      <c r="C9" s="87" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="O9" s="70"/>
-      <c r="P9" s="70"/>
-      <c r="Q9" s="70"/>
-      <c r="R9" s="70"/>
-      <c r="S9" s="70"/>
-      <c r="T9" s="70"/>
-      <c r="U9" s="70"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="70"/>
-      <c r="X9" s="70"/>
-      <c r="Y9" s="70"/>
-      <c r="Z9" s="70"/>
-      <c r="AA9" s="70"/>
-      <c r="AB9" s="70"/>
-      <c r="AC9" s="70"/>
-      <c r="AD9" s="70"/>
-      <c r="AE9" s="70"/>
-      <c r="AF9" s="70"/>
-      <c r="AG9" s="70"/>
-      <c r="AH9" s="70"/>
-      <c r="AI9" s="70"/>
-      <c r="AJ9" s="70"/>
-      <c r="AK9" s="70"/>
-      <c r="AL9" s="70"/>
-      <c r="AM9" s="70"/>
-      <c r="AN9" s="70"/>
-      <c r="AO9" s="70"/>
-      <c r="AP9" s="70"/>
-      <c r="AQ9" s="70"/>
-      <c r="AR9" s="70"/>
-      <c r="AS9" s="71"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="73"/>
+      <c r="AC9" s="73"/>
+      <c r="AD9" s="73"/>
+      <c r="AE9" s="73"/>
+      <c r="AF9" s="73"/>
+      <c r="AG9" s="73"/>
+      <c r="AH9" s="73"/>
+      <c r="AI9" s="73"/>
+      <c r="AJ9" s="73"/>
+      <c r="AK9" s="73"/>
+      <c r="AL9" s="73"/>
+      <c r="AM9" s="73"/>
+      <c r="AN9" s="73"/>
+      <c r="AO9" s="73"/>
+      <c r="AP9" s="73"/>
+      <c r="AQ9" s="73"/>
+      <c r="AR9" s="73"/>
+      <c r="AS9" s="74"/>
       <c r="AT9" s="15"/>
       <c r="AU9" s="4"/>
       <c r="AV9" s="4"/>
@@ -4132,139 +4147,142 @@
       <c r="BJ9" s="5"/>
       <c r="BK9" s="5"/>
     </row>
-    <row r="10" spans="1:63" ht="16.5">
+    <row r="10" spans="1:64" s="101" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
-      <c r="AB10" s="5"/>
-      <c r="AC10" s="5"/>
-      <c r="AD10" s="5"/>
-      <c r="AE10" s="5"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="5"/>
-      <c r="AH10" s="5"/>
-      <c r="AI10" s="5"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="5"/>
-      <c r="AP10" s="5"/>
-      <c r="AQ10" s="5"/>
-      <c r="AR10" s="5"/>
-      <c r="AS10" s="5"/>
-      <c r="AT10" s="5"/>
-      <c r="AU10" s="5"/>
-      <c r="AV10" s="5"/>
-      <c r="AW10" s="5"/>
-      <c r="AX10" s="5"/>
-      <c r="AY10" s="5"/>
-      <c r="AZ10" s="5"/>
-      <c r="BA10" s="5"/>
-      <c r="BB10" s="5"/>
-      <c r="BC10" s="5"/>
-      <c r="BD10" s="5"/>
-      <c r="BE10" s="5"/>
-      <c r="BF10" s="5"/>
-      <c r="BG10" s="5"/>
-      <c r="BH10" s="5"/>
-      <c r="BI10" s="5"/>
-      <c r="BJ10" s="5"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="100" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="98"/>
+      <c r="K10" s="98"/>
+      <c r="L10" s="98"/>
+      <c r="M10" s="98"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="98"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="98"/>
+      <c r="AA10" s="98"/>
+      <c r="AB10" s="98"/>
+      <c r="AC10" s="98"/>
+      <c r="AD10" s="98"/>
+      <c r="AE10" s="98"/>
+      <c r="AF10" s="98"/>
+      <c r="AG10" s="98"/>
+      <c r="AH10" s="98"/>
+      <c r="AI10" s="98"/>
+      <c r="AJ10" s="98"/>
+      <c r="AK10" s="98"/>
+      <c r="AL10" s="98"/>
+      <c r="AM10" s="98"/>
+      <c r="AN10" s="98"/>
+      <c r="AO10" s="98"/>
+      <c r="AP10" s="98"/>
+      <c r="AQ10" s="98"/>
+      <c r="AR10" s="98"/>
+      <c r="AS10" s="98"/>
+      <c r="AT10" s="98"/>
+      <c r="AU10" s="98"/>
+      <c r="AV10" s="98"/>
+      <c r="AW10" s="98"/>
+      <c r="AX10" s="98"/>
+      <c r="AY10" s="98"/>
+      <c r="AZ10" s="98"/>
+      <c r="BA10" s="98"/>
+      <c r="BB10" s="98"/>
+      <c r="BC10" s="98"/>
+      <c r="BD10" s="98"/>
+      <c r="BE10" s="98"/>
+      <c r="BF10" s="98"/>
+      <c r="BG10" s="98"/>
+      <c r="BH10" s="98"/>
+      <c r="BI10" s="98"/>
+      <c r="BJ10" s="99"/>
       <c r="BK10" s="5"/>
-    </row>
-    <row r="11" spans="1:63" ht="15.75" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
-      <c r="S11" s="9"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="9"/>
-      <c r="W11" s="9"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="9"/>
-      <c r="AA11" s="9"/>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="9"/>
-      <c r="AD11" s="9"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
-      <c r="AG11" s="9"/>
-      <c r="AH11" s="9"/>
-      <c r="AI11" s="9"/>
-      <c r="AJ11" s="9"/>
-      <c r="AK11" s="9"/>
-      <c r="AL11" s="9"/>
-      <c r="AM11" s="9"/>
-      <c r="AN11" s="9"/>
-      <c r="AO11" s="9"/>
-      <c r="AP11" s="9"/>
-      <c r="AQ11" s="9"/>
-      <c r="AR11" s="9"/>
-      <c r="AS11" s="9"/>
-      <c r="AT11" s="9"/>
-      <c r="AU11" s="9"/>
-      <c r="AV11" s="9"/>
-      <c r="AW11" s="9"/>
-      <c r="AX11" s="9"/>
-      <c r="AY11" s="9"/>
-      <c r="AZ11" s="9"/>
-      <c r="BA11" s="9"/>
-      <c r="BB11" s="9"/>
-      <c r="BC11" s="9"/>
-      <c r="BD11" s="9"/>
-      <c r="BE11" s="9"/>
-      <c r="BF11" s="9"/>
-      <c r="BG11" s="9"/>
-      <c r="BH11" s="9"/>
-      <c r="BI11" s="9"/>
-      <c r="BJ11" s="9"/>
-      <c r="BK11" s="9"/>
-    </row>
-    <row r="12" spans="1:63" ht="16.5">
+      <c r="BL10" s="68"/>
+    </row>
+    <row r="11" spans="1:64" s="69" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="5"/>
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5"/>
+      <c r="AS11" s="5"/>
+      <c r="AT11" s="5"/>
+      <c r="AU11" s="5"/>
+      <c r="AV11" s="5"/>
+      <c r="AW11" s="5"/>
+      <c r="AX11" s="5"/>
+      <c r="AY11" s="5"/>
+      <c r="AZ11" s="5"/>
+      <c r="BA11" s="5"/>
+      <c r="BB11" s="5"/>
+      <c r="BC11" s="5"/>
+      <c r="BD11" s="5"/>
+      <c r="BE11" s="5"/>
+      <c r="BF11" s="5"/>
+      <c r="BG11" s="5"/>
+      <c r="BH11" s="5"/>
+      <c r="BI11" s="5"/>
+      <c r="BJ11" s="5"/>
+      <c r="BK11" s="5"/>
+    </row>
+    <row r="12" spans="1:64" ht="16.5">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -4275,26 +4293,26 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="5"/>
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
@@ -4303,314 +4321,304 @@
       <c r="AJ12" s="5"/>
       <c r="AK12" s="5"/>
       <c r="AL12" s="5"/>
-      <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="4"/>
-      <c r="AT12" s="4"/>
-      <c r="AU12" s="4"/>
-      <c r="AV12" s="4"/>
-      <c r="AW12" s="4"/>
-      <c r="AX12" s="4"/>
-      <c r="AY12" s="4"/>
-      <c r="AZ12" s="4"/>
-      <c r="BA12" s="4"/>
-      <c r="BB12" s="4"/>
-      <c r="BC12" s="4"/>
-      <c r="BD12" s="4"/>
-      <c r="BE12" s="4"/>
-      <c r="BF12" s="4"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="5"/>
+      <c r="AR12" s="5"/>
+      <c r="AS12" s="5"/>
+      <c r="AT12" s="5"/>
+      <c r="AU12" s="5"/>
+      <c r="AV12" s="5"/>
+      <c r="AW12" s="5"/>
+      <c r="AX12" s="5"/>
+      <c r="AY12" s="5"/>
+      <c r="AZ12" s="5"/>
+      <c r="BA12" s="5"/>
+      <c r="BB12" s="5"/>
+      <c r="BC12" s="5"/>
+      <c r="BD12" s="5"/>
+      <c r="BE12" s="5"/>
+      <c r="BF12" s="5"/>
       <c r="BG12" s="5"/>
       <c r="BH12" s="5"/>
       <c r="BI12" s="5"/>
       <c r="BJ12" s="5"/>
       <c r="BK12" s="5"/>
     </row>
-    <row r="13" spans="1:63" ht="16.5" outlineLevel="1">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19" t="s">
+    <row r="13" spans="1:64" ht="15.75" customHeight="1">
+      <c r="A13" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
+      <c r="AB13" s="9"/>
+      <c r="AC13" s="9"/>
+      <c r="AD13" s="9"/>
+      <c r="AE13" s="9"/>
+      <c r="AF13" s="9"/>
+      <c r="AG13" s="9"/>
+      <c r="AH13" s="9"/>
+      <c r="AI13" s="9"/>
+      <c r="AJ13" s="9"/>
+      <c r="AK13" s="9"/>
+      <c r="AL13" s="9"/>
+      <c r="AM13" s="9"/>
+      <c r="AN13" s="9"/>
+      <c r="AO13" s="9"/>
+      <c r="AP13" s="9"/>
+      <c r="AQ13" s="9"/>
+      <c r="AR13" s="9"/>
+      <c r="AS13" s="9"/>
+      <c r="AT13" s="9"/>
+      <c r="AU13" s="9"/>
+      <c r="AV13" s="9"/>
+      <c r="AW13" s="9"/>
+      <c r="AX13" s="9"/>
+      <c r="AY13" s="9"/>
+      <c r="AZ13" s="9"/>
+      <c r="BA13" s="9"/>
+      <c r="BB13" s="9"/>
+      <c r="BC13" s="9"/>
+      <c r="BD13" s="9"/>
+      <c r="BE13" s="9"/>
+      <c r="BF13" s="9"/>
+      <c r="BG13" s="9"/>
+      <c r="BH13" s="9"/>
+      <c r="BI13" s="9"/>
+      <c r="BJ13" s="9"/>
+      <c r="BK13" s="9"/>
+    </row>
+    <row r="14" spans="1:64" ht="16.5">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="AX14" s="4"/>
+      <c r="AY14" s="4"/>
+      <c r="AZ14" s="4"/>
+      <c r="BA14" s="4"/>
+      <c r="BB14" s="4"/>
+      <c r="BC14" s="4"/>
+      <c r="BD14" s="4"/>
+      <c r="BE14" s="4"/>
+      <c r="BF14" s="4"/>
+      <c r="BG14" s="5"/>
+      <c r="BH14" s="5"/>
+      <c r="BI14" s="5"/>
+      <c r="BJ14" s="5"/>
+      <c r="BK14" s="5"/>
+    </row>
+    <row r="15" spans="1:64" ht="16.5" outlineLevel="1">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="20" t="s">
+      <c r="L15" s="21"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
+      <c r="W15" s="22"/>
+      <c r="X15" s="22"/>
+      <c r="Y15" s="22"/>
+      <c r="Z15" s="22"/>
+      <c r="AA15" s="22"/>
+      <c r="AB15" s="22"/>
+      <c r="AC15" s="22"/>
+      <c r="AD15" s="23"/>
+      <c r="AE15" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="L13" s="21"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="22"/>
-      <c r="X13" s="22"/>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="22"/>
-      <c r="AB13" s="22"/>
-      <c r="AC13" s="22"/>
-      <c r="AD13" s="23"/>
-      <c r="AE13" s="24" t="s">
+      <c r="AF15" s="21"/>
+      <c r="AG15" s="22"/>
+      <c r="AH15" s="22"/>
+      <c r="AI15" s="22"/>
+      <c r="AJ15" s="22"/>
+      <c r="AK15" s="22"/>
+      <c r="AL15" s="23"/>
+      <c r="AM15" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="AF13" s="21"/>
-      <c r="AG13" s="22"/>
-      <c r="AH13" s="22"/>
-      <c r="AI13" s="22"/>
-      <c r="AJ13" s="22"/>
-      <c r="AK13" s="22"/>
-      <c r="AL13" s="23"/>
-      <c r="AM13" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="AN13" s="21"/>
-      <c r="AO13" s="22"/>
-      <c r="AP13" s="22"/>
-      <c r="AQ13" s="25"/>
-      <c r="AR13" s="25"/>
-      <c r="AS13" s="25"/>
-      <c r="AT13" s="25"/>
-      <c r="AU13" s="25"/>
-      <c r="AV13" s="25"/>
-      <c r="AW13" s="25"/>
-      <c r="AX13" s="25"/>
-      <c r="AY13" s="25"/>
-      <c r="AZ13" s="22"/>
-      <c r="BA13" s="22"/>
-      <c r="BB13" s="22"/>
-      <c r="BC13" s="22"/>
-      <c r="BD13" s="22"/>
-      <c r="BE13" s="22"/>
-      <c r="BF13" s="23"/>
-      <c r="BG13" s="26"/>
-      <c r="BH13" s="26"/>
-      <c r="BI13" s="26"/>
-      <c r="BJ13" s="26"/>
-      <c r="BK13" s="26"/>
-    </row>
-    <row r="14" spans="1:63" ht="16.5" outlineLevel="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="27">
-        <v>1</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="90" t="s">
-        <v>78</v>
-      </c>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="91"/>
-      <c r="R14" s="91"/>
-      <c r="S14" s="91"/>
-      <c r="T14" s="91"/>
-      <c r="U14" s="91"/>
-      <c r="V14" s="91"/>
-      <c r="W14" s="91"/>
-      <c r="X14" s="91"/>
-      <c r="Y14" s="91"/>
-      <c r="Z14" s="91"/>
-      <c r="AA14" s="91"/>
-      <c r="AB14" s="91"/>
-      <c r="AC14" s="91"/>
-      <c r="AD14" s="92"/>
-      <c r="AE14" s="32"/>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="30"/>
-      <c r="AH14" s="30"/>
-      <c r="AI14" s="30"/>
-      <c r="AJ14" s="30"/>
-      <c r="AK14" s="30"/>
-      <c r="AL14" s="31"/>
-      <c r="AM14" s="33"/>
-      <c r="AN14" s="34"/>
-      <c r="AO14" s="34"/>
-      <c r="AP14" s="30"/>
-      <c r="AQ14" s="30"/>
-      <c r="AR14" s="30"/>
-      <c r="AS14" s="30"/>
-      <c r="AT14" s="30"/>
-      <c r="AU14" s="30"/>
-      <c r="AV14" s="30"/>
-      <c r="AW14" s="30"/>
-      <c r="AX14" s="30"/>
-      <c r="AY14" s="30"/>
-      <c r="AZ14" s="30"/>
-      <c r="BA14" s="30"/>
-      <c r="BB14" s="30"/>
-      <c r="BC14" s="30"/>
-      <c r="BD14" s="30"/>
-      <c r="BE14" s="30"/>
-      <c r="BF14" s="31"/>
-      <c r="BG14" s="26"/>
-      <c r="BH14" s="26"/>
-      <c r="BI14" s="26"/>
-      <c r="BJ14" s="26"/>
-      <c r="BK14" s="26"/>
-    </row>
-    <row r="15" spans="1:63" ht="16.5" outlineLevel="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="35">
-        <f t="shared" ref="B15:B19" si="0">B14+1</f>
-        <v>2</v>
-      </c>
-      <c r="C15" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="37"/>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="37"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="37"/>
-      <c r="AK15" s="37"/>
-      <c r="AL15" s="37"/>
-      <c r="AM15" s="37"/>
-      <c r="AN15" s="37"/>
-      <c r="AO15" s="37"/>
-      <c r="AP15" s="37"/>
-      <c r="AQ15" s="37"/>
-      <c r="AR15" s="37"/>
-      <c r="AS15" s="37"/>
-      <c r="AT15" s="37"/>
-      <c r="AU15" s="37"/>
-      <c r="AV15" s="37"/>
-      <c r="AW15" s="37"/>
-      <c r="AX15" s="37"/>
-      <c r="AY15" s="37"/>
-      <c r="AZ15" s="37"/>
-      <c r="BA15" s="37"/>
-      <c r="BB15" s="37"/>
-      <c r="BC15" s="37"/>
-      <c r="BD15" s="37"/>
-      <c r="BE15" s="37"/>
-      <c r="BF15" s="38"/>
+      <c r="AN15" s="21"/>
+      <c r="AO15" s="22"/>
+      <c r="AP15" s="22"/>
+      <c r="AQ15" s="25"/>
+      <c r="AR15" s="25"/>
+      <c r="AS15" s="25"/>
+      <c r="AT15" s="25"/>
+      <c r="AU15" s="25"/>
+      <c r="AV15" s="25"/>
+      <c r="AW15" s="25"/>
+      <c r="AX15" s="25"/>
+      <c r="AY15" s="25"/>
+      <c r="AZ15" s="22"/>
+      <c r="BA15" s="22"/>
+      <c r="BB15" s="22"/>
+      <c r="BC15" s="22"/>
+      <c r="BD15" s="22"/>
+      <c r="BE15" s="22"/>
+      <c r="BF15" s="23"/>
       <c r="BG15" s="26"/>
       <c r="BH15" s="26"/>
       <c r="BI15" s="26"/>
       <c r="BJ15" s="26"/>
       <c r="BK15" s="26"/>
     </row>
-    <row r="16" spans="1:63" ht="16.5" outlineLevel="1">
+    <row r="16" spans="1:64" ht="16.5" outlineLevel="1">
       <c r="A16" s="18"/>
-      <c r="B16" s="35">
-        <f t="shared" si="0"/>
-        <v>3</v>
+      <c r="B16" s="27">
+        <v>1</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40" t="s">
-        <v>24</v>
+      <c r="C16" s="28" t="s">
+        <v>21</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="87" t="s">
-        <v>25</v>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="78" t="s">
+        <v>75</v>
       </c>
-      <c r="L16" s="88"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="88"/>
-      <c r="O16" s="88"/>
-      <c r="P16" s="88"/>
-      <c r="Q16" s="88"/>
-      <c r="R16" s="88"/>
-      <c r="S16" s="88"/>
-      <c r="T16" s="88"/>
-      <c r="U16" s="88"/>
-      <c r="V16" s="88"/>
-      <c r="W16" s="88"/>
-      <c r="X16" s="88"/>
-      <c r="Y16" s="88"/>
-      <c r="Z16" s="88"/>
-      <c r="AA16" s="88"/>
-      <c r="AB16" s="88"/>
-      <c r="AC16" s="88"/>
-      <c r="AD16" s="89"/>
-      <c r="AE16" s="45"/>
-      <c r="AF16" s="42"/>
-      <c r="AG16" s="42"/>
-      <c r="AH16" s="42"/>
-      <c r="AI16" s="42"/>
-      <c r="AJ16" s="42"/>
-      <c r="AK16" s="42"/>
-      <c r="AL16" s="43"/>
-      <c r="AM16" s="44"/>
-      <c r="AN16" s="46"/>
-      <c r="AO16" s="46"/>
-      <c r="AP16" s="42"/>
-      <c r="AQ16" s="42"/>
-      <c r="AR16" s="42"/>
-      <c r="AS16" s="42"/>
-      <c r="AT16" s="42"/>
-      <c r="AU16" s="42"/>
-      <c r="AV16" s="42"/>
-      <c r="AW16" s="42"/>
-      <c r="AX16" s="42"/>
-      <c r="AY16" s="42"/>
-      <c r="AZ16" s="42"/>
-      <c r="BA16" s="42"/>
-      <c r="BB16" s="42"/>
-      <c r="BC16" s="42"/>
-      <c r="BD16" s="42"/>
-      <c r="BE16" s="42"/>
-      <c r="BF16" s="43"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="79"/>
+      <c r="S16" s="79"/>
+      <c r="T16" s="79"/>
+      <c r="U16" s="79"/>
+      <c r="V16" s="79"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="79"/>
+      <c r="Z16" s="79"/>
+      <c r="AA16" s="79"/>
+      <c r="AB16" s="79"/>
+      <c r="AC16" s="79"/>
+      <c r="AD16" s="80"/>
+      <c r="AE16" s="32"/>
+      <c r="AF16" s="30"/>
+      <c r="AG16" s="30"/>
+      <c r="AH16" s="30"/>
+      <c r="AI16" s="30"/>
+      <c r="AJ16" s="30"/>
+      <c r="AK16" s="30"/>
+      <c r="AL16" s="31"/>
+      <c r="AM16" s="33"/>
+      <c r="AN16" s="34"/>
+      <c r="AO16" s="34"/>
+      <c r="AP16" s="30"/>
+      <c r="AQ16" s="30"/>
+      <c r="AR16" s="30"/>
+      <c r="AS16" s="30"/>
+      <c r="AT16" s="30"/>
+      <c r="AU16" s="30"/>
+      <c r="AV16" s="30"/>
+      <c r="AW16" s="30"/>
+      <c r="AX16" s="30"/>
+      <c r="AY16" s="30"/>
+      <c r="AZ16" s="30"/>
+      <c r="BA16" s="30"/>
+      <c r="BB16" s="30"/>
+      <c r="BC16" s="30"/>
+      <c r="BD16" s="30"/>
+      <c r="BE16" s="30"/>
+      <c r="BF16" s="31"/>
       <c r="BG16" s="26"/>
       <c r="BH16" s="26"/>
       <c r="BI16" s="26"/>
@@ -4620,67 +4628,67 @@
     <row r="17" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A17" s="18"/>
       <c r="B17" s="35">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f t="shared" ref="B17:B21" si="0">B16+1</f>
+        <v>2</v>
       </c>
-      <c r="C17" s="47" t="s">
-        <v>26</v>
+      <c r="C17" s="36" t="s">
+        <v>22</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="48"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="48"/>
-      <c r="Y17" s="48"/>
-      <c r="Z17" s="48"/>
-      <c r="AA17" s="48"/>
-      <c r="AB17" s="48"/>
-      <c r="AC17" s="48"/>
-      <c r="AD17" s="48"/>
-      <c r="AE17" s="48"/>
-      <c r="AF17" s="48"/>
-      <c r="AG17" s="48"/>
-      <c r="AH17" s="48"/>
-      <c r="AI17" s="48"/>
-      <c r="AJ17" s="48"/>
-      <c r="AK17" s="48"/>
-      <c r="AL17" s="48"/>
-      <c r="AM17" s="48"/>
-      <c r="AN17" s="48"/>
-      <c r="AO17" s="48"/>
-      <c r="AP17" s="48"/>
-      <c r="AQ17" s="48"/>
-      <c r="AR17" s="48"/>
-      <c r="AS17" s="48"/>
-      <c r="AT17" s="48"/>
-      <c r="AU17" s="48"/>
-      <c r="AV17" s="48"/>
-      <c r="AW17" s="48"/>
-      <c r="AX17" s="48"/>
-      <c r="AY17" s="48"/>
-      <c r="AZ17" s="48"/>
-      <c r="BA17" s="48"/>
-      <c r="BB17" s="48"/>
-      <c r="BC17" s="48"/>
-      <c r="BD17" s="48"/>
-      <c r="BE17" s="48"/>
-      <c r="BF17" s="49"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="37"/>
+      <c r="AA17" s="37"/>
+      <c r="AB17" s="37"/>
+      <c r="AC17" s="37"/>
+      <c r="AD17" s="37"/>
+      <c r="AE17" s="37"/>
+      <c r="AF17" s="37"/>
+      <c r="AG17" s="37"/>
+      <c r="AH17" s="37"/>
+      <c r="AI17" s="37"/>
+      <c r="AJ17" s="37"/>
+      <c r="AK17" s="37"/>
+      <c r="AL17" s="37"/>
+      <c r="AM17" s="37"/>
+      <c r="AN17" s="37"/>
+      <c r="AO17" s="37"/>
+      <c r="AP17" s="37"/>
+      <c r="AQ17" s="37"/>
+      <c r="AR17" s="37"/>
+      <c r="AS17" s="37"/>
+      <c r="AT17" s="37"/>
+      <c r="AU17" s="37"/>
+      <c r="AV17" s="37"/>
+      <c r="AW17" s="37"/>
+      <c r="AX17" s="37"/>
+      <c r="AY17" s="37"/>
+      <c r="AZ17" s="37"/>
+      <c r="BA17" s="37"/>
+      <c r="BB17" s="37"/>
+      <c r="BC17" s="37"/>
+      <c r="BD17" s="37"/>
+      <c r="BE17" s="37"/>
+      <c r="BF17" s="38"/>
       <c r="BG17" s="26"/>
       <c r="BH17" s="26"/>
       <c r="BI17" s="26"/>
@@ -4691,11 +4699,11 @@
       <c r="A18" s="18"/>
       <c r="B18" s="35">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
-      <c r="C18" s="50"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="40" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
@@ -4703,28 +4711,28 @@
       <c r="H18" s="41"/>
       <c r="I18" s="42"/>
       <c r="J18" s="43"/>
-      <c r="K18" s="87" t="s">
-        <v>28</v>
+      <c r="K18" s="78" t="s">
+        <v>24</v>
       </c>
-      <c r="L18" s="88"/>
-      <c r="M18" s="88"/>
-      <c r="N18" s="88"/>
-      <c r="O18" s="88"/>
-      <c r="P18" s="88"/>
-      <c r="Q18" s="88"/>
-      <c r="R18" s="88"/>
-      <c r="S18" s="88"/>
-      <c r="T18" s="88"/>
-      <c r="U18" s="88"/>
-      <c r="V18" s="88"/>
-      <c r="W18" s="88"/>
-      <c r="X18" s="88"/>
-      <c r="Y18" s="88"/>
-      <c r="Z18" s="88"/>
-      <c r="AA18" s="88"/>
-      <c r="AB18" s="88"/>
-      <c r="AC18" s="88"/>
-      <c r="AD18" s="89"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
+      <c r="P18" s="79"/>
+      <c r="Q18" s="79"/>
+      <c r="R18" s="79"/>
+      <c r="S18" s="79"/>
+      <c r="T18" s="79"/>
+      <c r="U18" s="79"/>
+      <c r="V18" s="79"/>
+      <c r="W18" s="79"/>
+      <c r="X18" s="79"/>
+      <c r="Y18" s="79"/>
+      <c r="Z18" s="79"/>
+      <c r="AA18" s="79"/>
+      <c r="AB18" s="79"/>
+      <c r="AC18" s="79"/>
+      <c r="AD18" s="80"/>
       <c r="AE18" s="45"/>
       <c r="AF18" s="42"/>
       <c r="AG18" s="42"/>
@@ -4763,205 +4771,215 @@
       <c r="A19" s="18"/>
       <c r="B19" s="35">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="40" t="s">
-        <v>29</v>
+      <c r="C19" s="47" t="s">
+        <v>25</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="87" t="s">
-        <v>76</v>
-      </c>
-      <c r="L19" s="88"/>
-      <c r="M19" s="88"/>
-      <c r="N19" s="88"/>
-      <c r="O19" s="88"/>
-      <c r="P19" s="88"/>
-      <c r="Q19" s="88"/>
-      <c r="R19" s="88"/>
-      <c r="S19" s="88"/>
-      <c r="T19" s="88"/>
-      <c r="U19" s="88"/>
-      <c r="V19" s="88"/>
-      <c r="W19" s="88"/>
-      <c r="X19" s="88"/>
-      <c r="Y19" s="88"/>
-      <c r="Z19" s="88"/>
-      <c r="AA19" s="88"/>
-      <c r="AB19" s="88"/>
-      <c r="AC19" s="88"/>
-      <c r="AD19" s="89"/>
-      <c r="AE19" s="45"/>
-      <c r="AF19" s="42"/>
-      <c r="AG19" s="42"/>
-      <c r="AH19" s="42"/>
-      <c r="AI19" s="42"/>
-      <c r="AJ19" s="42"/>
-      <c r="AK19" s="42"/>
-      <c r="AL19" s="43"/>
-      <c r="AM19" s="44"/>
-      <c r="AN19" s="46"/>
-      <c r="AO19" s="46"/>
-      <c r="AP19" s="42"/>
-      <c r="AQ19" s="42"/>
-      <c r="AR19" s="42"/>
-      <c r="AS19" s="42"/>
-      <c r="AT19" s="42"/>
-      <c r="AU19" s="42"/>
-      <c r="AV19" s="42"/>
-      <c r="AW19" s="42"/>
-      <c r="AX19" s="42"/>
-      <c r="AY19" s="42"/>
-      <c r="AZ19" s="42"/>
-      <c r="BA19" s="42"/>
-      <c r="BB19" s="42"/>
-      <c r="BC19" s="42"/>
-      <c r="BD19" s="42"/>
-      <c r="BE19" s="42"/>
-      <c r="BF19" s="43"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+      <c r="P19" s="48"/>
+      <c r="Q19" s="48"/>
+      <c r="R19" s="48"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="48"/>
+      <c r="X19" s="48"/>
+      <c r="Y19" s="48"/>
+      <c r="Z19" s="48"/>
+      <c r="AA19" s="48"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="48"/>
+      <c r="AE19" s="48"/>
+      <c r="AF19" s="48"/>
+      <c r="AG19" s="48"/>
+      <c r="AH19" s="48"/>
+      <c r="AI19" s="48"/>
+      <c r="AJ19" s="48"/>
+      <c r="AK19" s="48"/>
+      <c r="AL19" s="48"/>
+      <c r="AM19" s="48"/>
+      <c r="AN19" s="48"/>
+      <c r="AO19" s="48"/>
+      <c r="AP19" s="48"/>
+      <c r="AQ19" s="48"/>
+      <c r="AR19" s="48"/>
+      <c r="AS19" s="48"/>
+      <c r="AT19" s="48"/>
+      <c r="AU19" s="48"/>
+      <c r="AV19" s="48"/>
+      <c r="AW19" s="48"/>
+      <c r="AX19" s="48"/>
+      <c r="AY19" s="48"/>
+      <c r="AZ19" s="48"/>
+      <c r="BA19" s="48"/>
+      <c r="BB19" s="48"/>
+      <c r="BC19" s="48"/>
+      <c r="BD19" s="48"/>
+      <c r="BE19" s="48"/>
+      <c r="BF19" s="49"/>
       <c r="BG19" s="26"/>
       <c r="BH19" s="26"/>
       <c r="BI19" s="26"/>
       <c r="BJ19" s="26"/>
       <c r="BK19" s="26"/>
     </row>
-    <row r="20" spans="1:63" ht="16.5">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="5"/>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="5"/>
-      <c r="R20" s="5"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="5"/>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="5"/>
-      <c r="AD20" s="5"/>
-      <c r="AE20" s="5"/>
-      <c r="AF20" s="5"/>
-      <c r="AG20" s="5"/>
-      <c r="AH20" s="5"/>
-      <c r="AI20" s="5"/>
-      <c r="AJ20" s="5"/>
-      <c r="AK20" s="5"/>
-      <c r="AL20" s="5"/>
-      <c r="AM20" s="5"/>
-      <c r="AN20" s="5"/>
-      <c r="AO20" s="5"/>
-      <c r="AP20" s="5"/>
-      <c r="AQ20" s="5"/>
-      <c r="AR20" s="5"/>
-      <c r="AS20" s="5"/>
-      <c r="AT20" s="5"/>
-      <c r="AU20" s="5"/>
-      <c r="AV20" s="5"/>
-      <c r="AW20" s="5"/>
-      <c r="AX20" s="5"/>
-      <c r="AY20" s="5"/>
-      <c r="AZ20" s="5"/>
-      <c r="BA20" s="5"/>
-      <c r="BB20" s="5"/>
-      <c r="BC20" s="5"/>
-      <c r="BD20" s="5"/>
-      <c r="BE20" s="5"/>
-      <c r="BF20" s="5"/>
-      <c r="BG20" s="5"/>
-      <c r="BH20" s="5"/>
-      <c r="BI20" s="5"/>
-      <c r="BJ20" s="5"/>
-      <c r="BK20" s="5"/>
-    </row>
-    <row r="21" spans="1:63" ht="16.5">
-      <c r="A21" s="6" t="s">
-        <v>30</v>
+    <row r="20" spans="1:63" ht="16.5" outlineLevel="1">
+      <c r="A20" s="18"/>
+      <c r="B20" s="35">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="9"/>
-      <c r="AD21" s="9"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="9"/>
-      <c r="AK21" s="9"/>
-      <c r="AL21" s="9"/>
-      <c r="AM21" s="9"/>
-      <c r="AN21" s="9"/>
-      <c r="AO21" s="9"/>
-      <c r="AP21" s="9"/>
-      <c r="AQ21" s="9"/>
-      <c r="AR21" s="9"/>
-      <c r="AS21" s="9"/>
-      <c r="AT21" s="9"/>
-      <c r="AU21" s="9"/>
-      <c r="AV21" s="9"/>
-      <c r="AW21" s="9"/>
-      <c r="AX21" s="9"/>
-      <c r="AY21" s="9"/>
-      <c r="AZ21" s="9"/>
-      <c r="BA21" s="9"/>
-      <c r="BB21" s="9"/>
-      <c r="BC21" s="9"/>
-      <c r="BD21" s="9"/>
-      <c r="BE21" s="9"/>
-      <c r="BF21" s="9"/>
-      <c r="BG21" s="9"/>
-      <c r="BH21" s="9"/>
-      <c r="BI21" s="9"/>
-      <c r="BJ21" s="9"/>
-      <c r="BK21" s="9"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="41"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
+      <c r="P20" s="79"/>
+      <c r="Q20" s="79"/>
+      <c r="R20" s="79"/>
+      <c r="S20" s="79"/>
+      <c r="T20" s="79"/>
+      <c r="U20" s="79"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="79"/>
+      <c r="Y20" s="79"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="79"/>
+      <c r="AB20" s="79"/>
+      <c r="AC20" s="79"/>
+      <c r="AD20" s="80"/>
+      <c r="AE20" s="45"/>
+      <c r="AF20" s="42"/>
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="42"/>
+      <c r="AI20" s="42"/>
+      <c r="AJ20" s="42"/>
+      <c r="AK20" s="42"/>
+      <c r="AL20" s="43"/>
+      <c r="AM20" s="44"/>
+      <c r="AN20" s="46"/>
+      <c r="AO20" s="46"/>
+      <c r="AP20" s="42"/>
+      <c r="AQ20" s="42"/>
+      <c r="AR20" s="42"/>
+      <c r="AS20" s="42"/>
+      <c r="AT20" s="42"/>
+      <c r="AU20" s="42"/>
+      <c r="AV20" s="42"/>
+      <c r="AW20" s="42"/>
+      <c r="AX20" s="42"/>
+      <c r="AY20" s="42"/>
+      <c r="AZ20" s="42"/>
+      <c r="BA20" s="42"/>
+      <c r="BB20" s="42"/>
+      <c r="BC20" s="42"/>
+      <c r="BD20" s="42"/>
+      <c r="BE20" s="42"/>
+      <c r="BF20" s="43"/>
+      <c r="BG20" s="26"/>
+      <c r="BH20" s="26"/>
+      <c r="BI20" s="26"/>
+      <c r="BJ20" s="26"/>
+      <c r="BK20" s="26"/>
+    </row>
+    <row r="21" spans="1:63" ht="16.5" outlineLevel="1">
+      <c r="A21" s="18"/>
+      <c r="B21" s="35">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C21" s="51"/>
+      <c r="D21" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="78" t="s">
+        <v>82</v>
+      </c>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
+      <c r="P21" s="79"/>
+      <c r="Q21" s="79"/>
+      <c r="R21" s="79"/>
+      <c r="S21" s="79"/>
+      <c r="T21" s="79"/>
+      <c r="U21" s="79"/>
+      <c r="V21" s="79"/>
+      <c r="W21" s="79"/>
+      <c r="X21" s="79"/>
+      <c r="Y21" s="79"/>
+      <c r="Z21" s="79"/>
+      <c r="AA21" s="79"/>
+      <c r="AB21" s="79"/>
+      <c r="AC21" s="79"/>
+      <c r="AD21" s="80"/>
+      <c r="AE21" s="45"/>
+      <c r="AF21" s="42"/>
+      <c r="AG21" s="42"/>
+      <c r="AH21" s="42"/>
+      <c r="AI21" s="42"/>
+      <c r="AJ21" s="42"/>
+      <c r="AK21" s="42"/>
+      <c r="AL21" s="43"/>
+      <c r="AM21" s="44"/>
+      <c r="AN21" s="46"/>
+      <c r="AO21" s="46"/>
+      <c r="AP21" s="42"/>
+      <c r="AQ21" s="42"/>
+      <c r="AR21" s="42"/>
+      <c r="AS21" s="42"/>
+      <c r="AT21" s="42"/>
+      <c r="AU21" s="42"/>
+      <c r="AV21" s="42"/>
+      <c r="AW21" s="42"/>
+      <c r="AX21" s="42"/>
+      <c r="AY21" s="42"/>
+      <c r="AZ21" s="42"/>
+      <c r="BA21" s="42"/>
+      <c r="BB21" s="42"/>
+      <c r="BC21" s="42"/>
+      <c r="BD21" s="42"/>
+      <c r="BE21" s="42"/>
+      <c r="BF21" s="43"/>
+      <c r="BG21" s="26"/>
+      <c r="BH21" s="26"/>
+      <c r="BI21" s="26"/>
+      <c r="BJ21" s="26"/>
+      <c r="BK21" s="26"/>
     </row>
     <row r="22" spans="1:63" ht="16.5">
       <c r="A22" s="5"/>
@@ -5029,136 +5047,136 @@
       <c r="BK22" s="5"/>
     </row>
     <row r="23" spans="1:63" ht="16.5">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
-      <c r="AM23" s="5"/>
-      <c r="AN23" s="5"/>
-      <c r="AO23" s="5"/>
-      <c r="AP23" s="5"/>
-      <c r="AQ23" s="5"/>
-      <c r="AR23" s="5"/>
-      <c r="AS23" s="5"/>
-      <c r="AT23" s="5"/>
-      <c r="AU23" s="5"/>
-      <c r="AV23" s="5"/>
-      <c r="AW23" s="5"/>
-      <c r="AX23" s="5"/>
-      <c r="AY23" s="5"/>
-      <c r="AZ23" s="5"/>
-      <c r="BA23" s="5"/>
-      <c r="BB23" s="5"/>
-      <c r="BC23" s="5"/>
-      <c r="BD23" s="5"/>
-      <c r="BE23" s="5"/>
-      <c r="BF23" s="5"/>
-      <c r="BG23" s="5"/>
-      <c r="BH23" s="5"/>
-      <c r="BI23" s="5"/>
-      <c r="BJ23" s="5"/>
-      <c r="BK23" s="5"/>
+      <c r="A23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+      <c r="R23" s="9"/>
+      <c r="S23" s="9"/>
+      <c r="T23" s="9"/>
+      <c r="U23" s="9"/>
+      <c r="V23" s="9"/>
+      <c r="W23" s="9"/>
+      <c r="X23" s="9"/>
+      <c r="Y23" s="9"/>
+      <c r="Z23" s="9"/>
+      <c r="AA23" s="9"/>
+      <c r="AB23" s="9"/>
+      <c r="AC23" s="9"/>
+      <c r="AD23" s="9"/>
+      <c r="AE23" s="9"/>
+      <c r="AF23" s="9"/>
+      <c r="AG23" s="9"/>
+      <c r="AH23" s="9"/>
+      <c r="AI23" s="9"/>
+      <c r="AJ23" s="9"/>
+      <c r="AK23" s="9"/>
+      <c r="AL23" s="9"/>
+      <c r="AM23" s="9"/>
+      <c r="AN23" s="9"/>
+      <c r="AO23" s="9"/>
+      <c r="AP23" s="9"/>
+      <c r="AQ23" s="9"/>
+      <c r="AR23" s="9"/>
+      <c r="AS23" s="9"/>
+      <c r="AT23" s="9"/>
+      <c r="AU23" s="9"/>
+      <c r="AV23" s="9"/>
+      <c r="AW23" s="9"/>
+      <c r="AX23" s="9"/>
+      <c r="AY23" s="9"/>
+      <c r="AZ23" s="9"/>
+      <c r="BA23" s="9"/>
+      <c r="BB23" s="9"/>
+      <c r="BC23" s="9"/>
+      <c r="BD23" s="9"/>
+      <c r="BE23" s="9"/>
+      <c r="BF23" s="9"/>
+      <c r="BG23" s="9"/>
+      <c r="BH23" s="9"/>
+      <c r="BI23" s="9"/>
+      <c r="BJ23" s="9"/>
+      <c r="BK23" s="9"/>
     </row>
     <row r="24" spans="1:63" ht="16.5">
-      <c r="A24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
-      <c r="AH24" s="2"/>
-      <c r="AI24" s="2"/>
-      <c r="AJ24" s="2"/>
-      <c r="AK24" s="2"/>
-      <c r="AL24" s="2"/>
-      <c r="AM24" s="2"/>
-      <c r="AN24" s="2"/>
-      <c r="AO24" s="2"/>
-      <c r="AP24" s="2"/>
-      <c r="AQ24" s="2"/>
-      <c r="AR24" s="2"/>
-      <c r="AS24" s="2"/>
-      <c r="AT24" s="2"/>
-      <c r="AU24" s="2"/>
-      <c r="AV24" s="2"/>
-      <c r="AW24" s="2"/>
-      <c r="AX24" s="2"/>
-      <c r="AY24" s="2"/>
-      <c r="AZ24" s="2"/>
-      <c r="BA24" s="2"/>
-      <c r="BB24" s="2"/>
-      <c r="BC24" s="2"/>
-      <c r="BD24" s="2"/>
-      <c r="BE24" s="2"/>
-      <c r="BF24" s="2"/>
-      <c r="BG24" s="2"/>
-      <c r="BH24" s="2"/>
-      <c r="BI24" s="2"/>
-      <c r="BJ24" s="2"/>
-      <c r="BK24" s="2"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="5"/>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="5"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5"/>
+      <c r="AR24" s="5"/>
+      <c r="AS24" s="5"/>
+      <c r="AT24" s="5"/>
+      <c r="AU24" s="5"/>
+      <c r="AV24" s="5"/>
+      <c r="AW24" s="5"/>
+      <c r="AX24" s="5"/>
+      <c r="AY24" s="5"/>
+      <c r="AZ24" s="5"/>
+      <c r="BA24" s="5"/>
+      <c r="BB24" s="5"/>
+      <c r="BC24" s="5"/>
+      <c r="BD24" s="5"/>
+      <c r="BE24" s="5"/>
+      <c r="BF24" s="5"/>
+      <c r="BG24" s="5"/>
+      <c r="BH24" s="5"/>
+      <c r="BI24" s="5"/>
+      <c r="BJ24" s="5"/>
+      <c r="BK24" s="5"/>
     </row>
     <row r="25" spans="1:63" ht="16.5">
       <c r="A25" s="5"/>
@@ -5225,79 +5243,77 @@
       <c r="BJ25" s="5"/>
       <c r="BK25" s="5"/>
     </row>
-    <row r="26" spans="1:63" ht="16.5" outlineLevel="1">
-      <c r="A26" s="5"/>
-      <c r="B26" s="52" t="s">
-        <v>32</v>
+    <row r="26" spans="1:63" ht="16.5">
+      <c r="A26" s="6" t="s">
+        <v>80</v>
       </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="5"/>
-      <c r="AF26" s="5"/>
-      <c r="AG26" s="5"/>
-      <c r="AH26" s="5"/>
-      <c r="AI26" s="5"/>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="5"/>
-      <c r="AM26" s="5"/>
-      <c r="AN26" s="5"/>
-      <c r="AO26" s="5"/>
-      <c r="AP26" s="5"/>
-      <c r="AQ26" s="5"/>
-      <c r="AR26" s="5"/>
-      <c r="AS26" s="5"/>
-      <c r="AT26" s="5"/>
-      <c r="AU26" s="5"/>
-      <c r="AV26" s="5"/>
-      <c r="AW26" s="5"/>
-      <c r="AX26" s="5"/>
-      <c r="AY26" s="5"/>
-      <c r="AZ26" s="5"/>
-      <c r="BA26" s="5"/>
-      <c r="BB26" s="5"/>
-      <c r="BC26" s="5"/>
-      <c r="BD26" s="5"/>
-      <c r="BE26" s="5"/>
-      <c r="BF26" s="5"/>
-      <c r="BG26" s="5"/>
-      <c r="BH26" s="5"/>
-      <c r="BI26" s="5"/>
-      <c r="BJ26" s="5"/>
-      <c r="BK26" s="5"/>
-    </row>
-    <row r="27" spans="1:63" ht="16.5" outlineLevel="1">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="2"/>
+      <c r="AU26" s="2"/>
+      <c r="AV26" s="2"/>
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="2"/>
+      <c r="AZ26" s="2"/>
+      <c r="BA26" s="2"/>
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="2"/>
+      <c r="BD26" s="2"/>
+      <c r="BE26" s="2"/>
+      <c r="BF26" s="2"/>
+      <c r="BG26" s="2"/>
+      <c r="BH26" s="2"/>
+      <c r="BI26" s="2"/>
+      <c r="BJ26" s="2"/>
+      <c r="BK26" s="2"/>
+    </row>
+    <row r="27" spans="1:63" ht="16.5">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -5361,44 +5377,42 @@
     </row>
     <row r="28" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="53" t="s">
-        <v>34</v>
+      <c r="B28" s="52" t="s">
+        <v>81</v>
       </c>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
-      <c r="Q28" s="54"/>
-      <c r="R28" s="54"/>
-      <c r="S28" s="54"/>
-      <c r="T28" s="54"/>
-      <c r="U28" s="54"/>
-      <c r="V28" s="54"/>
-      <c r="W28" s="54"/>
-      <c r="X28" s="54"/>
-      <c r="Y28" s="54"/>
-      <c r="Z28" s="54"/>
-      <c r="AA28" s="54"/>
-      <c r="AB28" s="54"/>
-      <c r="AC28" s="54"/>
-      <c r="AD28" s="54"/>
-      <c r="AE28" s="54"/>
-      <c r="AF28" s="54"/>
-      <c r="AG28" s="54"/>
-      <c r="AH28" s="54"/>
-      <c r="AI28" s="55"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="5"/>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="5"/>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
       <c r="AJ28" s="5"/>
       <c r="AK28" s="5"/>
       <c r="AL28" s="5"/>
@@ -5431,43 +5445,41 @@
     <row r="29" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
-      <c r="C29" s="56" t="s">
-        <v>36</v>
+      <c r="C29" s="4" t="s">
+        <v>29</v>
       </c>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="84" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="85"/>
-      <c r="L29" s="85"/>
-      <c r="M29" s="85"/>
-      <c r="N29" s="85"/>
-      <c r="O29" s="85"/>
-      <c r="P29" s="85"/>
-      <c r="Q29" s="85"/>
-      <c r="R29" s="85"/>
-      <c r="S29" s="85"/>
-      <c r="T29" s="85"/>
-      <c r="U29" s="85"/>
-      <c r="V29" s="85"/>
-      <c r="W29" s="85"/>
-      <c r="X29" s="85"/>
-      <c r="Y29" s="85"/>
-      <c r="Z29" s="85"/>
-      <c r="AA29" s="85"/>
-      <c r="AB29" s="85"/>
-      <c r="AC29" s="85"/>
-      <c r="AD29" s="85"/>
-      <c r="AE29" s="85"/>
-      <c r="AF29" s="85"/>
-      <c r="AG29" s="85"/>
-      <c r="AH29" s="85"/>
-      <c r="AI29" s="86"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5"/>
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
+      <c r="S29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5"/>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="5"/>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
       <c r="AJ29" s="5"/>
       <c r="AK29" s="5"/>
       <c r="AL29" s="5"/>
@@ -5500,43 +5512,43 @@
     <row r="30" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="56" t="s">
-        <v>38</v>
+      <c r="C30" s="53" t="s">
+        <v>30</v>
       </c>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="84" t="s">
-        <v>39</v>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="53" t="s">
+        <v>31</v>
       </c>
-      <c r="K30" s="85"/>
-      <c r="L30" s="85"/>
-      <c r="M30" s="85"/>
-      <c r="N30" s="85"/>
-      <c r="O30" s="85"/>
-      <c r="P30" s="85"/>
-      <c r="Q30" s="85"/>
-      <c r="R30" s="85"/>
-      <c r="S30" s="85"/>
-      <c r="T30" s="85"/>
-      <c r="U30" s="85"/>
-      <c r="V30" s="85"/>
-      <c r="W30" s="85"/>
-      <c r="X30" s="85"/>
-      <c r="Y30" s="85"/>
-      <c r="Z30" s="85"/>
-      <c r="AA30" s="85"/>
-      <c r="AB30" s="85"/>
-      <c r="AC30" s="85"/>
-      <c r="AD30" s="85"/>
-      <c r="AE30" s="85"/>
-      <c r="AF30" s="85"/>
-      <c r="AG30" s="85"/>
-      <c r="AH30" s="85"/>
-      <c r="AI30" s="86"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
+      <c r="Q30" s="54"/>
+      <c r="R30" s="54"/>
+      <c r="S30" s="54"/>
+      <c r="T30" s="54"/>
+      <c r="U30" s="54"/>
+      <c r="V30" s="54"/>
+      <c r="W30" s="54"/>
+      <c r="X30" s="54"/>
+      <c r="Y30" s="54"/>
+      <c r="Z30" s="54"/>
+      <c r="AA30" s="54"/>
+      <c r="AB30" s="54"/>
+      <c r="AC30" s="54"/>
+      <c r="AD30" s="54"/>
+      <c r="AE30" s="54"/>
+      <c r="AF30" s="54"/>
+      <c r="AG30" s="54"/>
+      <c r="AH30" s="54"/>
+      <c r="AI30" s="55"/>
       <c r="AJ30" s="5"/>
       <c r="AK30" s="5"/>
       <c r="AL30" s="5"/>
@@ -5566,11 +5578,11 @@
       <c r="BJ30" s="5"/>
       <c r="BK30" s="5"/>
     </row>
-    <row r="31" spans="1:63" ht="36.75" customHeight="1" outlineLevel="1">
+    <row r="31" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="56" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D31" s="57"/>
       <c r="E31" s="57"/>
@@ -5578,34 +5590,34 @@
       <c r="G31" s="57"/>
       <c r="H31" s="57"/>
       <c r="I31" s="58"/>
-      <c r="J31" s="81" t="s">
-        <v>75</v>
+      <c r="J31" s="84" t="s">
+        <v>33</v>
       </c>
-      <c r="K31" s="82"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="82"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="82"/>
-      <c r="P31" s="82"/>
-      <c r="Q31" s="82"/>
-      <c r="R31" s="82"/>
-      <c r="S31" s="82"/>
-      <c r="T31" s="82"/>
-      <c r="U31" s="82"/>
-      <c r="V31" s="82"/>
-      <c r="W31" s="82"/>
-      <c r="X31" s="82"/>
-      <c r="Y31" s="82"/>
-      <c r="Z31" s="82"/>
-      <c r="AA31" s="82"/>
-      <c r="AB31" s="82"/>
-      <c r="AC31" s="82"/>
-      <c r="AD31" s="82"/>
-      <c r="AE31" s="82"/>
-      <c r="AF31" s="82"/>
-      <c r="AG31" s="82"/>
-      <c r="AH31" s="82"/>
-      <c r="AI31" s="83"/>
+      <c r="K31" s="85"/>
+      <c r="L31" s="85"/>
+      <c r="M31" s="85"/>
+      <c r="N31" s="85"/>
+      <c r="O31" s="85"/>
+      <c r="P31" s="85"/>
+      <c r="Q31" s="85"/>
+      <c r="R31" s="85"/>
+      <c r="S31" s="85"/>
+      <c r="T31" s="85"/>
+      <c r="U31" s="85"/>
+      <c r="V31" s="85"/>
+      <c r="W31" s="85"/>
+      <c r="X31" s="85"/>
+      <c r="Y31" s="85"/>
+      <c r="Z31" s="85"/>
+      <c r="AA31" s="85"/>
+      <c r="AB31" s="85"/>
+      <c r="AC31" s="85"/>
+      <c r="AD31" s="85"/>
+      <c r="AE31" s="85"/>
+      <c r="AF31" s="85"/>
+      <c r="AG31" s="85"/>
+      <c r="AH31" s="85"/>
+      <c r="AI31" s="86"/>
       <c r="AJ31" s="5"/>
       <c r="AK31" s="5"/>
       <c r="AL31" s="5"/>
@@ -5638,39 +5650,43 @@
     <row r="32" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="5"/>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="5"/>
-      <c r="AD32" s="5"/>
-      <c r="AE32" s="5"/>
-      <c r="AF32" s="5"/>
-      <c r="AG32" s="5"/>
-      <c r="AH32" s="5"/>
-      <c r="AI32" s="5"/>
+      <c r="C32" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="K32" s="85"/>
+      <c r="L32" s="85"/>
+      <c r="M32" s="85"/>
+      <c r="N32" s="85"/>
+      <c r="O32" s="85"/>
+      <c r="P32" s="85"/>
+      <c r="Q32" s="85"/>
+      <c r="R32" s="85"/>
+      <c r="S32" s="85"/>
+      <c r="T32" s="85"/>
+      <c r="U32" s="85"/>
+      <c r="V32" s="85"/>
+      <c r="W32" s="85"/>
+      <c r="X32" s="85"/>
+      <c r="Y32" s="85"/>
+      <c r="Z32" s="85"/>
+      <c r="AA32" s="85"/>
+      <c r="AB32" s="85"/>
+      <c r="AC32" s="85"/>
+      <c r="AD32" s="85"/>
+      <c r="AE32" s="85"/>
+      <c r="AF32" s="85"/>
+      <c r="AG32" s="85"/>
+      <c r="AH32" s="85"/>
+      <c r="AI32" s="86"/>
       <c r="AJ32" s="5"/>
       <c r="AK32" s="5"/>
       <c r="AL32" s="5"/>
@@ -5700,42 +5716,46 @@
       <c r="BJ32" s="5"/>
       <c r="BK32" s="5"/>
     </row>
-    <row r="33" spans="1:63" ht="16.5">
+    <row r="33" spans="1:63" ht="36.75" customHeight="1" outlineLevel="1">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="5"/>
-      <c r="R33" s="5"/>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="5"/>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="5"/>
-      <c r="AD33" s="5"/>
-      <c r="AE33" s="5"/>
-      <c r="AF33" s="5"/>
-      <c r="AG33" s="5"/>
-      <c r="AH33" s="5"/>
-      <c r="AI33" s="5"/>
+      <c r="C33" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="K33" s="82"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="82"/>
+      <c r="O33" s="82"/>
+      <c r="P33" s="82"/>
+      <c r="Q33" s="82"/>
+      <c r="R33" s="82"/>
+      <c r="S33" s="82"/>
+      <c r="T33" s="82"/>
+      <c r="U33" s="82"/>
+      <c r="V33" s="82"/>
+      <c r="W33" s="82"/>
+      <c r="X33" s="82"/>
+      <c r="Y33" s="82"/>
+      <c r="Z33" s="82"/>
+      <c r="AA33" s="82"/>
+      <c r="AB33" s="82"/>
+      <c r="AC33" s="82"/>
+      <c r="AD33" s="82"/>
+      <c r="AE33" s="82"/>
+      <c r="AF33" s="82"/>
+      <c r="AG33" s="82"/>
+      <c r="AH33" s="82"/>
+      <c r="AI33" s="83"/>
       <c r="AJ33" s="5"/>
       <c r="AK33" s="5"/>
       <c r="AL33" s="5"/>
@@ -5765,30 +5785,162 @@
       <c r="BJ33" s="5"/>
       <c r="BK33" s="5"/>
     </row>
+    <row r="34" spans="1:63" ht="16.5" outlineLevel="1">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="5"/>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="5"/>
+      <c r="AR34" s="5"/>
+      <c r="AS34" s="5"/>
+      <c r="AT34" s="5"/>
+      <c r="AU34" s="5"/>
+      <c r="AV34" s="5"/>
+      <c r="AW34" s="5"/>
+      <c r="AX34" s="5"/>
+      <c r="AY34" s="5"/>
+      <c r="AZ34" s="5"/>
+      <c r="BA34" s="5"/>
+      <c r="BB34" s="5"/>
+      <c r="BC34" s="5"/>
+      <c r="BD34" s="5"/>
+      <c r="BE34" s="5"/>
+      <c r="BF34" s="5"/>
+      <c r="BG34" s="5"/>
+      <c r="BH34" s="5"/>
+      <c r="BI34" s="5"/>
+      <c r="BJ34" s="5"/>
+      <c r="BK34" s="5"/>
+    </row>
+    <row r="35" spans="1:63" ht="16.5">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="5"/>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="5"/>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="5"/>
+      <c r="AD35" s="5"/>
+      <c r="AE35" s="5"/>
+      <c r="AF35" s="5"/>
+      <c r="AG35" s="5"/>
+      <c r="AH35" s="5"/>
+      <c r="AI35" s="5"/>
+      <c r="AJ35" s="5"/>
+      <c r="AK35" s="5"/>
+      <c r="AL35" s="5"/>
+      <c r="AM35" s="5"/>
+      <c r="AN35" s="5"/>
+      <c r="AO35" s="5"/>
+      <c r="AP35" s="5"/>
+      <c r="AQ35" s="5"/>
+      <c r="AR35" s="5"/>
+      <c r="AS35" s="5"/>
+      <c r="AT35" s="5"/>
+      <c r="AU35" s="5"/>
+      <c r="AV35" s="5"/>
+      <c r="AW35" s="5"/>
+      <c r="AX35" s="5"/>
+      <c r="AY35" s="5"/>
+      <c r="AZ35" s="5"/>
+      <c r="BA35" s="5"/>
+      <c r="BB35" s="5"/>
+      <c r="BC35" s="5"/>
+      <c r="BD35" s="5"/>
+      <c r="BE35" s="5"/>
+      <c r="BF35" s="5"/>
+      <c r="BG35" s="5"/>
+      <c r="BH35" s="5"/>
+      <c r="BI35" s="5"/>
+      <c r="BJ35" s="5"/>
+      <c r="BK35" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="K14:AD14"/>
-    <mergeCell ref="K19:AD19"/>
-    <mergeCell ref="J31:AI31"/>
-    <mergeCell ref="J30:AI30"/>
-    <mergeCell ref="J29:AI29"/>
-    <mergeCell ref="K18:AD18"/>
-    <mergeCell ref="K16:AD16"/>
+  <mergeCells count="15">
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:BJ10"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="I7:AS7"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="I9:AS9"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="I8:AS8"/>
+    <mergeCell ref="K16:AD16"/>
+    <mergeCell ref="K21:AD21"/>
+    <mergeCell ref="J33:AI33"/>
+    <mergeCell ref="J32:AI32"/>
+    <mergeCell ref="J31:AI31"/>
+    <mergeCell ref="K20:AD20"/>
+    <mergeCell ref="K18:AD18"/>
   </mergeCells>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="35" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="3" max="16383" man="1"/>
-    <brk id="10" max="16383" man="1"/>
-    <brk id="20" max="16383" man="1"/>
-    <brk id="23" max="16383" man="1"/>
+    <brk id="12" max="16383" man="1"/>
+    <brk id="22" max="16383" man="1"/>
+    <brk id="25" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -5813,13 +5965,13 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
       <c r="A1" s="59" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B1" s="59" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C1" s="59" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D1" s="60"/>
       <c r="E1" s="60"/>
@@ -5829,13 +5981,13 @@
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="61" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D2" s="60"/>
       <c r="E2" s="60"/>
@@ -5845,13 +5997,13 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="61" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C3" s="61" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D3" s="60"/>
       <c r="E3" s="60"/>
@@ -5861,10 +6013,10 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="61" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C4" s="61"/>
       <c r="D4" s="60"/>
@@ -5875,10 +6027,10 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="61" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C5" s="61"/>
       <c r="D5" s="60"/>
@@ -5889,10 +6041,10 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="A6" s="61" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C6" s="61"/>
       <c r="D6" s="60"/>
@@ -5904,7 +6056,7 @@
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="62"/>
       <c r="B7" s="61" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C7" s="61"/>
       <c r="D7" s="60"/>
@@ -5916,7 +6068,7 @@
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="A8" s="62"/>
       <c r="B8" s="61" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C8" s="61"/>
       <c r="D8" s="60"/>
@@ -5928,7 +6080,7 @@
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="62"/>
       <c r="B9" s="61" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C9" s="61"/>
       <c r="D9" s="60"/>
@@ -5940,7 +6092,7 @@
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="62"/>
       <c r="B10" s="61" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C10" s="61"/>
       <c r="D10" s="60"/>
@@ -5952,7 +6104,7 @@
     <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="62"/>
       <c r="B11" s="61" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C11" s="61"/>
       <c r="D11" s="60"/>
@@ -5964,7 +6116,7 @@
     <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="62"/>
       <c r="B12" s="61" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C12" s="61"/>
       <c r="D12" s="60"/>
@@ -5976,7 +6128,7 @@
     <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="62"/>
       <c r="B13" s="61" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C13" s="61"/>
       <c r="D13" s="60"/>
@@ -5988,7 +6140,7 @@
     <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="62"/>
       <c r="B14" s="61" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C14" s="62"/>
       <c r="D14" s="60"/>
@@ -6128,7 +6280,7 @@
       <c r="H27" s="60"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -57148,7 +57300,7 @@
       <c r="AW1000" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -57160,9 +57312,7 @@
   </sheetPr>
   <dimension ref="A1:BF17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AD4" sqref="AD4"/>
-    </sheetView>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" outlineLevelRow="1"/>
   <cols>
@@ -57171,7 +57321,7 @@
   <sheetData>
     <row r="1" spans="1:58" ht="16.5">
       <c r="A1" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B1" s="64"/>
       <c r="C1" s="65"/>
@@ -57353,7 +57503,7 @@
     </row>
     <row r="4" spans="1:58" ht="16.5">
       <c r="A4" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B4" s="64"/>
       <c r="C4" s="65"/>
@@ -57476,7 +57626,7 @@
     <row r="6" spans="1:58" ht="16.5" outlineLevel="1">
       <c r="A6" s="3"/>
       <c r="B6" s="67" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
@@ -57538,16 +57688,16 @@
     <row r="7" spans="1:58" ht="16.5" outlineLevel="1">
       <c r="A7" s="3"/>
       <c r="B7" s="68"/>
-      <c r="C7" s="93" t="s">
-        <v>67</v>
+      <c r="C7" s="96" t="s">
+        <v>63</v>
       </c>
       <c r="D7" s="94"/>
       <c r="E7" s="94"/>
       <c r="F7" s="94"/>
       <c r="G7" s="94"/>
       <c r="H7" s="95"/>
-      <c r="I7" s="96" t="s">
-        <v>68</v>
+      <c r="I7" s="93" t="s">
+        <v>64</v>
       </c>
       <c r="J7" s="94"/>
       <c r="K7" s="94"/>
@@ -57602,16 +57752,16 @@
     <row r="8" spans="1:58" ht="16.5" outlineLevel="1">
       <c r="A8" s="3"/>
       <c r="B8" s="68"/>
-      <c r="C8" s="93" t="s">
-        <v>69</v>
+      <c r="C8" s="96" t="s">
+        <v>65</v>
       </c>
       <c r="D8" s="94"/>
       <c r="E8" s="94"/>
       <c r="F8" s="94"/>
       <c r="G8" s="94"/>
       <c r="H8" s="95"/>
-      <c r="I8" s="96" t="s">
-        <v>70</v>
+      <c r="I8" s="93" t="s">
+        <v>66</v>
       </c>
       <c r="J8" s="94"/>
       <c r="K8" s="94"/>
@@ -57666,7 +57816,7 @@
     <row r="9" spans="1:58" ht="16.5" outlineLevel="1">
       <c r="A9" s="3"/>
       <c r="B9" s="68"/>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="96" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="94"/>
@@ -57674,8 +57824,8 @@
       <c r="F9" s="94"/>
       <c r="G9" s="94"/>
       <c r="H9" s="95"/>
-      <c r="I9" s="96" t="s">
-        <v>71</v>
+      <c r="I9" s="93" t="s">
+        <v>67</v>
       </c>
       <c r="J9" s="94"/>
       <c r="K9" s="94"/>
@@ -57730,16 +57880,16 @@
     <row r="10" spans="1:58" ht="16.5" outlineLevel="1">
       <c r="A10" s="3"/>
       <c r="B10" s="68"/>
-      <c r="C10" s="93" t="s">
-        <v>72</v>
+      <c r="C10" s="96" t="s">
+        <v>68</v>
       </c>
       <c r="D10" s="94"/>
       <c r="E10" s="94"/>
       <c r="F10" s="94"/>
       <c r="G10" s="94"/>
       <c r="H10" s="95"/>
-      <c r="I10" s="96" t="s">
-        <v>73</v>
+      <c r="I10" s="93" t="s">
+        <v>69</v>
       </c>
       <c r="J10" s="94"/>
       <c r="K10" s="94"/>
@@ -57854,7 +58004,7 @@
     <row r="12" spans="1:58" ht="16.5" outlineLevel="1">
       <c r="A12" s="3"/>
       <c r="B12" s="67" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C12" s="68"/>
       <c r="D12" s="68"/>
@@ -57913,11 +58063,11 @@
       <c r="BE12" s="3"/>
       <c r="BF12" s="3"/>
     </row>
-    <row r="13" spans="1:58" s="98" customFormat="1" ht="16.5" outlineLevel="1">
+    <row r="13" spans="1:58" s="71" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A13" s="68"/>
       <c r="B13" s="67"/>
-      <c r="C13" s="97" t="s">
-        <v>79</v>
+      <c r="C13" s="70" t="s">
+        <v>73</v>
       </c>
       <c r="D13" s="68"/>
       <c r="E13" s="68"/>
@@ -57975,12 +58125,12 @@
       <c r="BE13" s="68"/>
       <c r="BF13" s="68"/>
     </row>
-    <row r="14" spans="1:58" s="98" customFormat="1" ht="16.5" outlineLevel="1">
+    <row r="14" spans="1:58" s="71" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A14" s="68"/>
       <c r="B14" s="67"/>
       <c r="C14" s="68"/>
       <c r="D14" s="68" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E14" s="68"/>
       <c r="F14" s="68"/>
@@ -58037,7 +58187,7 @@
       <c r="BE14" s="68"/>
       <c r="BF14" s="68"/>
     </row>
-    <row r="15" spans="1:58" s="98" customFormat="1" ht="16.5" outlineLevel="1">
+    <row r="15" spans="1:58" s="71" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A15" s="68"/>
       <c r="B15" s="67"/>
       <c r="C15" s="68"/>
@@ -58097,10 +58247,10 @@
       <c r="BE15" s="68"/>
       <c r="BF15" s="68"/>
     </row>
-    <row r="16" spans="1:58" s="98" customFormat="1" ht="16.5" outlineLevel="1">
+    <row r="16" spans="1:58" s="71" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A16" s="68"/>
       <c r="B16" s="68"/>
-      <c r="C16" s="97"/>
+      <c r="C16" s="70"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
@@ -58157,7 +58307,7 @@
       <c r="BE16" s="68"/>
       <c r="BF16" s="68"/>
     </row>
-    <row r="17" spans="1:58" s="98" customFormat="1" ht="16.5">
+    <row r="17" spans="1:58" s="71" customFormat="1" ht="16.5">
       <c r="A17" s="68"/>
       <c r="B17" s="68"/>
       <c r="C17" s="68"/>
@@ -58228,7 +58378,7 @@
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="I9:AH9"/>
   </mergeCells>
-  <phoneticPr fontId="9"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="40" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ha-asset/01_design/03_batch/設計書_3.1.ヘルスチェックバッチ.xlsx
+++ b/ha-asset/01_design/03_batch/設計書_3.1.ヘルスチェックバッチ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\03_batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C89B6B-2C2A-4675-9508-D004E6011E9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF031C6-7A3B-4477-92D2-ED5ED8E453FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8835" yWindow="1260" windowWidth="19320" windowHeight="16035" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="255" yWindow="945" windowWidth="22770" windowHeight="16080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -18,20 +18,18 @@
     <sheet name="2.1.ヘルスチェックバッチ" sheetId="3" r:id="rId3"/>
     <sheet name="データ入力例" sheetId="4" state="hidden" r:id="rId4"/>
     <sheet name="白紙" sheetId="5" state="hidden" r:id="rId5"/>
-    <sheet name="3.1.ファイルIF" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0.更新履歴'!$A$1:$AA$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1.機能一覧'!$A$1:$AW$5</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'2.1.ヘルスチェックバッチ'!$A$1:$BK$36</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'3.1.ファイルIF'!$A$1:$BF$17</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>0.更新履歴</t>
   </si>
@@ -60,13 +58,7 @@
     <t>健康管理APIサーバのヘルスチェックAPIを呼び出し、サーバ状態を確認するバッチ</t>
   </si>
   <si>
-    <t>2.1.ヘルスチェックバッチ</t>
-  </si>
-  <si>
     <t>2.1.1.バッチ仕様</t>
-  </si>
-  <si>
-    <t>API名</t>
   </si>
   <si>
     <t>シェル名</t>
@@ -213,91 +205,55 @@
     <t>MI</t>
   </si>
   <si>
-    <t>3.1. ファイルIF</t>
-  </si>
-  <si>
-    <t>3.1.1.ヘルスチェックエラーメール本文</t>
-  </si>
-  <si>
-    <t>3.1.1.1 概要</t>
-  </si>
-  <si>
-    <t>ファイル名</t>
-  </si>
-  <si>
-    <t>health-check-template.txt</t>
-  </si>
-  <si>
-    <t>ファイル形式</t>
-  </si>
-  <si>
-    <t>HTML</t>
-  </si>
-  <si>
-    <t>UTF-8</t>
-  </si>
-  <si>
-    <t>S3キー</t>
-  </si>
-  <si>
-    <t>mail-template/health-check-template.txt</t>
-  </si>
-  <si>
-    <t>3.1.1.2 ファイル内容</t>
-  </si>
-  <si>
-    <t>[3.1.ファイルIF]シート
-　3.1.1.ヘルスチェックエラーメール本文 参照</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>MS932</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>92_テンプレート一覧.xlsx</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>#2 シート参照</t>
-    <rPh sb="6" eb="8">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>02_api/設計書_2.1.ヘルスチェックAPI.xlsx 参照</t>
     <rPh sb="31" eb="33">
       <t>サンショウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>引数1:</t>
   </si>
   <si>
     <t>なし</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>2.1.2.処理詳細</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>2.1.3.DB処理</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>2.1.4.備考</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>2.1.4.1.エラーメール</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
   </si>
   <si>
     <t>2.1.4.1.エラーメール 参照</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>92_テンプレート一覧.xlsx
+　#2 シート参照</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2.1.ヘルスチェックバッチ</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>バッチ仕様</t>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
@@ -307,7 +263,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -354,13 +310,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Meiryo"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="6"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -372,7 +321,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -409,14 +358,8 @@
         <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -633,11 +576,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -664,10 +622,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -726,36 +680,16 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -770,6 +704,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -783,45 +725,27 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1042,7 +966,7 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1111,681 +1035,681 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="3"/>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="75" t="s">
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="62"/>
+      <c r="J3" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="74"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="62"/>
       <c r="AA3" s="3"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="3"/>
-      <c r="B4" s="76">
+      <c r="B4" s="64">
         <v>44150</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="77" t="s">
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="74"/>
-      <c r="J4" s="72" t="s">
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="73"/>
-      <c r="L4" s="73"/>
-      <c r="M4" s="73"/>
-      <c r="N4" s="73"/>
-      <c r="O4" s="73"/>
-      <c r="P4" s="73"/>
-      <c r="Q4" s="73"/>
-      <c r="R4" s="73"/>
-      <c r="S4" s="73"/>
-      <c r="T4" s="73"/>
-      <c r="U4" s="73"/>
-      <c r="V4" s="73"/>
-      <c r="W4" s="73"/>
-      <c r="X4" s="73"/>
-      <c r="Y4" s="73"/>
-      <c r="Z4" s="74"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="62"/>
       <c r="AA4" s="3"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="3"/>
-      <c r="B5" s="72"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="73"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="72"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="73"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
-      <c r="O5" s="73"/>
-      <c r="P5" s="73"/>
-      <c r="Q5" s="73"/>
-      <c r="R5" s="73"/>
-      <c r="S5" s="73"/>
-      <c r="T5" s="73"/>
-      <c r="U5" s="73"/>
-      <c r="V5" s="73"/>
-      <c r="W5" s="73"/>
-      <c r="X5" s="73"/>
-      <c r="Y5" s="73"/>
-      <c r="Z5" s="74"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="61"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="60"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
+      <c r="S5" s="61"/>
+      <c r="T5" s="61"/>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="61"/>
+      <c r="Y5" s="61"/>
+      <c r="Z5" s="62"/>
       <c r="AA5" s="3"/>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="3"/>
-      <c r="B6" s="72"/>
-      <c r="C6" s="73"/>
-      <c r="D6" s="73"/>
-      <c r="E6" s="74"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="74"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="73"/>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="73"/>
-      <c r="X6" s="73"/>
-      <c r="Y6" s="73"/>
-      <c r="Z6" s="74"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="61"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="62"/>
       <c r="AA6" s="3"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="3"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="74"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="74"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="61"/>
+      <c r="U7" s="61"/>
+      <c r="V7" s="61"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="61"/>
+      <c r="Z7" s="62"/>
       <c r="AA7" s="3"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="3"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="74"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="73"/>
-      <c r="W8" s="73"/>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="74"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="61"/>
+      <c r="N8" s="61"/>
+      <c r="O8" s="61"/>
+      <c r="P8" s="61"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="61"/>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="61"/>
+      <c r="Y8" s="61"/>
+      <c r="Z8" s="62"/>
       <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="3"/>
-      <c r="B9" s="72"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="74"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="61"/>
+      <c r="N9" s="61"/>
+      <c r="O9" s="61"/>
+      <c r="P9" s="61"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="61"/>
+      <c r="S9" s="61"/>
+      <c r="T9" s="61"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="61"/>
+      <c r="Y9" s="61"/>
+      <c r="Z9" s="62"/>
       <c r="AA9" s="3"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="3"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="72"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="74"/>
-      <c r="J10" s="72"/>
-      <c r="K10" s="73"/>
-      <c r="L10" s="73"/>
-      <c r="M10" s="73"/>
-      <c r="N10" s="73"/>
-      <c r="O10" s="73"/>
-      <c r="P10" s="73"/>
-      <c r="Q10" s="73"/>
-      <c r="R10" s="73"/>
-      <c r="S10" s="73"/>
-      <c r="T10" s="73"/>
-      <c r="U10" s="73"/>
-      <c r="V10" s="73"/>
-      <c r="W10" s="73"/>
-      <c r="X10" s="73"/>
-      <c r="Y10" s="73"/>
-      <c r="Z10" s="74"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="61"/>
+      <c r="N10" s="61"/>
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="61"/>
+      <c r="R10" s="61"/>
+      <c r="S10" s="61"/>
+      <c r="T10" s="61"/>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="61"/>
+      <c r="Y10" s="61"/>
+      <c r="Z10" s="62"/>
       <c r="AA10" s="3"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="3"/>
-      <c r="B11" s="72"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="72"/>
-      <c r="G11" s="73"/>
-      <c r="H11" s="73"/>
-      <c r="I11" s="74"/>
-      <c r="J11" s="72"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="73"/>
-      <c r="M11" s="73"/>
-      <c r="N11" s="73"/>
-      <c r="O11" s="73"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="73"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="73"/>
-      <c r="U11" s="73"/>
-      <c r="V11" s="73"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="73"/>
-      <c r="Z11" s="74"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="61"/>
+      <c r="N11" s="61"/>
+      <c r="O11" s="61"/>
+      <c r="P11" s="61"/>
+      <c r="Q11" s="61"/>
+      <c r="R11" s="61"/>
+      <c r="S11" s="61"/>
+      <c r="T11" s="61"/>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="61"/>
+      <c r="Y11" s="61"/>
+      <c r="Z11" s="62"/>
       <c r="AA11" s="3"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="3"/>
-      <c r="B12" s="72"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="72"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="74"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="73"/>
-      <c r="L12" s="73"/>
-      <c r="M12" s="73"/>
-      <c r="N12" s="73"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="73"/>
-      <c r="S12" s="73"/>
-      <c r="T12" s="73"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="73"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="73"/>
-      <c r="Y12" s="73"/>
-      <c r="Z12" s="74"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="62"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="61"/>
+      <c r="N12" s="61"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="61"/>
+      <c r="Q12" s="61"/>
+      <c r="R12" s="61"/>
+      <c r="S12" s="61"/>
+      <c r="T12" s="61"/>
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="61"/>
+      <c r="Y12" s="61"/>
+      <c r="Z12" s="62"/>
       <c r="AA12" s="3"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="3"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="73"/>
-      <c r="H13" s="73"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="72"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="73"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="73"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="73"/>
-      <c r="U13" s="73"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="73"/>
-      <c r="X13" s="73"/>
-      <c r="Y13" s="73"/>
-      <c r="Z13" s="74"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="62"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="60"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="61"/>
+      <c r="U13" s="61"/>
+      <c r="V13" s="61"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="61"/>
+      <c r="Y13" s="61"/>
+      <c r="Z13" s="62"/>
       <c r="AA13" s="3"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="3"/>
-      <c r="B14" s="72"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="74"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-      <c r="N14" s="73"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
-      <c r="Q14" s="73"/>
-      <c r="R14" s="73"/>
-      <c r="S14" s="73"/>
-      <c r="T14" s="73"/>
-      <c r="U14" s="73"/>
-      <c r="V14" s="73"/>
-      <c r="W14" s="73"/>
-      <c r="X14" s="73"/>
-      <c r="Y14" s="73"/>
-      <c r="Z14" s="74"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="62"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="61"/>
+      <c r="P14" s="61"/>
+      <c r="Q14" s="61"/>
+      <c r="R14" s="61"/>
+      <c r="S14" s="61"/>
+      <c r="T14" s="61"/>
+      <c r="U14" s="61"/>
+      <c r="V14" s="61"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="61"/>
+      <c r="Y14" s="61"/>
+      <c r="Z14" s="62"/>
       <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="3"/>
-      <c r="B15" s="72"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="72"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-      <c r="N15" s="73"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
-      <c r="Q15" s="73"/>
-      <c r="R15" s="73"/>
-      <c r="S15" s="73"/>
-      <c r="T15" s="73"/>
-      <c r="U15" s="73"/>
-      <c r="V15" s="73"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="73"/>
-      <c r="Y15" s="73"/>
-      <c r="Z15" s="74"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="60"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="62"/>
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="3"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="72"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="72"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-      <c r="N16" s="73"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
-      <c r="Q16" s="73"/>
-      <c r="R16" s="73"/>
-      <c r="S16" s="73"/>
-      <c r="T16" s="73"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="74"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="62"/>
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="3"/>
-      <c r="B17" s="72"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
-      <c r="N17" s="73"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
-      <c r="Q17" s="73"/>
-      <c r="R17" s="73"/>
-      <c r="S17" s="73"/>
-      <c r="T17" s="73"/>
-      <c r="U17" s="73"/>
-      <c r="V17" s="73"/>
-      <c r="W17" s="73"/>
-      <c r="X17" s="73"/>
-      <c r="Y17" s="73"/>
-      <c r="Z17" s="74"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="62"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="60"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="61"/>
+      <c r="P17" s="61"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="61"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="62"/>
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="3"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="73"/>
-      <c r="L18" s="73"/>
-      <c r="M18" s="73"/>
-      <c r="N18" s="73"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
-      <c r="Q18" s="73"/>
-      <c r="R18" s="73"/>
-      <c r="S18" s="73"/>
-      <c r="T18" s="73"/>
-      <c r="U18" s="73"/>
-      <c r="V18" s="73"/>
-      <c r="W18" s="73"/>
-      <c r="X18" s="73"/>
-      <c r="Y18" s="73"/>
-      <c r="Z18" s="74"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="61"/>
+      <c r="P18" s="61"/>
+      <c r="Q18" s="61"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="61"/>
+      <c r="Z18" s="62"/>
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="3"/>
-      <c r="B19" s="72"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="73"/>
-      <c r="L19" s="73"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="73"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
-      <c r="Q19" s="73"/>
-      <c r="R19" s="73"/>
-      <c r="S19" s="73"/>
-      <c r="T19" s="73"/>
-      <c r="U19" s="73"/>
-      <c r="V19" s="73"/>
-      <c r="W19" s="73"/>
-      <c r="X19" s="73"/>
-      <c r="Y19" s="73"/>
-      <c r="Z19" s="74"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="61"/>
+      <c r="P19" s="61"/>
+      <c r="Q19" s="61"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="61"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="61"/>
+      <c r="Z19" s="62"/>
       <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="3"/>
-      <c r="B20" s="72"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="74"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="73"/>
-      <c r="L20" s="73"/>
-      <c r="M20" s="73"/>
-      <c r="N20" s="73"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
-      <c r="Q20" s="73"/>
-      <c r="R20" s="73"/>
-      <c r="S20" s="73"/>
-      <c r="T20" s="73"/>
-      <c r="U20" s="73"/>
-      <c r="V20" s="73"/>
-      <c r="W20" s="73"/>
-      <c r="X20" s="73"/>
-      <c r="Y20" s="73"/>
-      <c r="Z20" s="74"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="61"/>
+      <c r="P20" s="61"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
+      <c r="U20" s="61"/>
+      <c r="V20" s="61"/>
+      <c r="W20" s="61"/>
+      <c r="X20" s="61"/>
+      <c r="Y20" s="61"/>
+      <c r="Z20" s="62"/>
       <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="3"/>
-      <c r="B21" s="72"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="73"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="72"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="73"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="72"/>
-      <c r="K21" s="73"/>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="73"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="73"/>
-      <c r="R21" s="73"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="73"/>
-      <c r="U21" s="73"/>
-      <c r="V21" s="73"/>
-      <c r="W21" s="73"/>
-      <c r="X21" s="73"/>
-      <c r="Y21" s="73"/>
-      <c r="Z21" s="74"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="60"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="61"/>
+      <c r="P21" s="61"/>
+      <c r="Q21" s="61"/>
+      <c r="R21" s="61"/>
+      <c r="S21" s="61"/>
+      <c r="T21" s="61"/>
+      <c r="U21" s="61"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="61"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="62"/>
       <c r="AA21" s="3"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="3"/>
-      <c r="B22" s="72"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="73"/>
-      <c r="I22" s="74"/>
-      <c r="J22" s="72"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
-      <c r="M22" s="73"/>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="73"/>
-      <c r="W22" s="73"/>
-      <c r="X22" s="73"/>
-      <c r="Y22" s="73"/>
-      <c r="Z22" s="74"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="61"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="60"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="61"/>
+      <c r="P22" s="61"/>
+      <c r="Q22" s="61"/>
+      <c r="R22" s="61"/>
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61"/>
+      <c r="Y22" s="61"/>
+      <c r="Z22" s="62"/>
       <c r="AA22" s="3"/>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="3"/>
-      <c r="B23" s="72"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="73"/>
-      <c r="L23" s="73"/>
-      <c r="M23" s="73"/>
-      <c r="N23" s="73"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="73"/>
-      <c r="R23" s="73"/>
-      <c r="S23" s="73"/>
-      <c r="T23" s="73"/>
-      <c r="U23" s="73"/>
-      <c r="V23" s="73"/>
-      <c r="W23" s="73"/>
-      <c r="X23" s="73"/>
-      <c r="Y23" s="73"/>
-      <c r="Z23" s="74"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="61"/>
+      <c r="P23" s="61"/>
+      <c r="Q23" s="61"/>
+      <c r="R23" s="61"/>
+      <c r="S23" s="61"/>
+      <c r="T23" s="61"/>
+      <c r="U23" s="61"/>
+      <c r="V23" s="61"/>
+      <c r="W23" s="61"/>
+      <c r="X23" s="61"/>
+      <c r="Y23" s="61"/>
+      <c r="Z23" s="62"/>
       <c r="AA23" s="3"/>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="3"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="73"/>
-      <c r="D24" s="73"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="73"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="73"/>
-      <c r="L24" s="73"/>
-      <c r="M24" s="73"/>
-      <c r="N24" s="73"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
-      <c r="Q24" s="73"/>
-      <c r="R24" s="73"/>
-      <c r="S24" s="73"/>
-      <c r="T24" s="73"/>
-      <c r="U24" s="73"/>
-      <c r="V24" s="73"/>
-      <c r="W24" s="73"/>
-      <c r="X24" s="73"/>
-      <c r="Y24" s="73"/>
-      <c r="Z24" s="74"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="61"/>
+      <c r="P24" s="61"/>
+      <c r="Q24" s="61"/>
+      <c r="R24" s="61"/>
+      <c r="S24" s="61"/>
+      <c r="T24" s="61"/>
+      <c r="U24" s="61"/>
+      <c r="V24" s="61"/>
+      <c r="W24" s="61"/>
+      <c r="X24" s="61"/>
+      <c r="Y24" s="61"/>
+      <c r="Z24" s="62"/>
       <c r="AA24" s="3"/>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="3"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="74"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="72"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="73"/>
-      <c r="M25" s="73"/>
-      <c r="N25" s="73"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="73"/>
-      <c r="R25" s="73"/>
-      <c r="S25" s="73"/>
-      <c r="T25" s="73"/>
-      <c r="U25" s="73"/>
-      <c r="V25" s="73"/>
-      <c r="W25" s="73"/>
-      <c r="X25" s="73"/>
-      <c r="Y25" s="73"/>
-      <c r="Z25" s="74"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="60"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="61"/>
+      <c r="P25" s="61"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="61"/>
+      <c r="S25" s="61"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="61"/>
+      <c r="V25" s="61"/>
+      <c r="W25" s="61"/>
+      <c r="X25" s="61"/>
+      <c r="Y25" s="61"/>
+      <c r="Z25" s="62"/>
       <c r="AA25" s="3"/>
     </row>
     <row r="26" spans="1:27">
@@ -1848,12 +1772,60 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:Z11"/>
     <mergeCell ref="B9:E9"/>
@@ -1863,62 +1835,14 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
   </mergeCells>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3526,7 +3450,7 @@
       <c r="AW31" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3539,7 +3463,9 @@
   </sheetPr>
   <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:BJ9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -3548,7 +3474,7 @@
   <sheetData>
     <row r="1" spans="1:64" ht="16.5">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3745,7 +3671,7 @@
     </row>
     <row r="4" spans="1:64" ht="16.5">
       <c r="A4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
@@ -3878,7 +3804,7 @@
     <row r="6" spans="1:64" ht="16.5" outlineLevel="1">
       <c r="A6" s="5"/>
       <c r="B6" s="10" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -3912,312 +3838,312 @@
       <c r="AF6" s="11"/>
       <c r="AG6" s="11"/>
       <c r="AH6" s="11"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="13"/>
-      <c r="AN6" s="13"/>
-      <c r="AO6" s="13"/>
-      <c r="AP6" s="13"/>
-      <c r="AQ6" s="13"/>
-      <c r="AR6" s="13"/>
-      <c r="AS6" s="14"/>
-      <c r="AT6" s="15"/>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4"/>
-      <c r="AX6" s="4"/>
-      <c r="AY6" s="4"/>
-      <c r="AZ6" s="4"/>
-      <c r="BA6" s="4"/>
-      <c r="BB6" s="4"/>
-      <c r="BC6" s="4"/>
-      <c r="BD6" s="4"/>
-      <c r="BE6" s="4"/>
-      <c r="BF6" s="4"/>
-      <c r="BG6" s="5"/>
-      <c r="BH6" s="5"/>
-      <c r="BI6" s="5"/>
-      <c r="BJ6" s="5"/>
-      <c r="BK6" s="5"/>
+      <c r="AI6" s="80"/>
+      <c r="AJ6" s="80"/>
+      <c r="AK6" s="80"/>
+      <c r="AL6" s="80"/>
+      <c r="AM6" s="80"/>
+      <c r="AN6" s="80"/>
+      <c r="AO6" s="80"/>
+      <c r="AP6" s="80"/>
+      <c r="AQ6" s="80"/>
+      <c r="AR6" s="80"/>
+      <c r="AS6" s="80"/>
+      <c r="AT6" s="80"/>
+      <c r="AU6" s="80"/>
+      <c r="AV6" s="80"/>
+      <c r="AW6" s="80"/>
+      <c r="AX6" s="80"/>
+      <c r="AY6" s="80"/>
+      <c r="AZ6" s="80"/>
+      <c r="BA6" s="80"/>
+      <c r="BB6" s="80"/>
+      <c r="BC6" s="80"/>
+      <c r="BD6" s="80"/>
+      <c r="BE6" s="80"/>
+      <c r="BF6" s="80"/>
+      <c r="BG6" s="80"/>
+      <c r="BH6" s="80"/>
+      <c r="BI6" s="80"/>
+      <c r="BJ6" s="81"/>
+      <c r="BK6" s="82"/>
     </row>
     <row r="7" spans="1:64" ht="16.5" outlineLevel="1">
       <c r="A7" s="5"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="87" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="83" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="83"/>
+      <c r="Y7" s="83"/>
+      <c r="Z7" s="83"/>
+      <c r="AA7" s="83"/>
+      <c r="AB7" s="83"/>
+      <c r="AC7" s="83"/>
+      <c r="AD7" s="83"/>
+      <c r="AE7" s="83"/>
+      <c r="AF7" s="83"/>
+      <c r="AG7" s="83"/>
+      <c r="AH7" s="83"/>
+      <c r="AI7" s="83"/>
+      <c r="AJ7" s="83"/>
+      <c r="AK7" s="83"/>
+      <c r="AL7" s="83"/>
+      <c r="AM7" s="83"/>
+      <c r="AN7" s="83"/>
+      <c r="AO7" s="83"/>
+      <c r="AP7" s="83"/>
+      <c r="AQ7" s="83"/>
+      <c r="AR7" s="83"/>
+      <c r="AS7" s="83"/>
+      <c r="AT7" s="83"/>
+      <c r="AU7" s="83"/>
+      <c r="AV7" s="83"/>
+      <c r="AW7" s="83"/>
+      <c r="AX7" s="83"/>
+      <c r="AY7" s="83"/>
+      <c r="AZ7" s="83"/>
+      <c r="BA7" s="83"/>
+      <c r="BB7" s="83"/>
+      <c r="BC7" s="83"/>
+      <c r="BD7" s="83"/>
+      <c r="BE7" s="83"/>
+      <c r="BF7" s="83"/>
+      <c r="BG7" s="83"/>
+      <c r="BH7" s="83"/>
+      <c r="BI7" s="83"/>
+      <c r="BJ7" s="83"/>
+      <c r="BK7" s="5"/>
+    </row>
+    <row r="8" spans="1:64" ht="16.5" outlineLevel="1">
+      <c r="A8" s="5"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="88" t="s">
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="84"/>
+      <c r="S8" s="84"/>
+      <c r="T8" s="84"/>
+      <c r="U8" s="84"/>
+      <c r="V8" s="84"/>
+      <c r="W8" s="84"/>
+      <c r="X8" s="84"/>
+      <c r="Y8" s="84"/>
+      <c r="Z8" s="84"/>
+      <c r="AA8" s="84"/>
+      <c r="AB8" s="84"/>
+      <c r="AC8" s="84"/>
+      <c r="AD8" s="84"/>
+      <c r="AE8" s="84"/>
+      <c r="AF8" s="84"/>
+      <c r="AG8" s="84"/>
+      <c r="AH8" s="84"/>
+      <c r="AI8" s="84"/>
+      <c r="AJ8" s="84"/>
+      <c r="AK8" s="84"/>
+      <c r="AL8" s="84"/>
+      <c r="AM8" s="84"/>
+      <c r="AN8" s="84"/>
+      <c r="AO8" s="84"/>
+      <c r="AP8" s="84"/>
+      <c r="AQ8" s="84"/>
+      <c r="AR8" s="84"/>
+      <c r="AS8" s="84"/>
+      <c r="AT8" s="84"/>
+      <c r="AU8" s="84"/>
+      <c r="AV8" s="84"/>
+      <c r="AW8" s="84"/>
+      <c r="AX8" s="84"/>
+      <c r="AY8" s="84"/>
+      <c r="AZ8" s="84"/>
+      <c r="BA8" s="84"/>
+      <c r="BB8" s="84"/>
+      <c r="BC8" s="84"/>
+      <c r="BD8" s="84"/>
+      <c r="BE8" s="84"/>
+      <c r="BF8" s="84"/>
+      <c r="BG8" s="84"/>
+      <c r="BH8" s="84"/>
+      <c r="BI8" s="84"/>
+      <c r="BJ8" s="84"/>
+      <c r="BK8" s="5"/>
+    </row>
+    <row r="9" spans="1:64" ht="16.5" outlineLevel="1">
+      <c r="A9" s="5"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="73"/>
-      <c r="O7" s="73"/>
-      <c r="P7" s="73"/>
-      <c r="Q7" s="73"/>
-      <c r="R7" s="73"/>
-      <c r="S7" s="73"/>
-      <c r="T7" s="73"/>
-      <c r="U7" s="73"/>
-      <c r="V7" s="73"/>
-      <c r="W7" s="73"/>
-      <c r="X7" s="73"/>
-      <c r="Y7" s="73"/>
-      <c r="Z7" s="73"/>
-      <c r="AA7" s="73"/>
-      <c r="AB7" s="73"/>
-      <c r="AC7" s="73"/>
-      <c r="AD7" s="73"/>
-      <c r="AE7" s="73"/>
-      <c r="AF7" s="73"/>
-      <c r="AG7" s="73"/>
-      <c r="AH7" s="73"/>
-      <c r="AI7" s="73"/>
-      <c r="AJ7" s="73"/>
-      <c r="AK7" s="73"/>
-      <c r="AL7" s="73"/>
-      <c r="AM7" s="73"/>
-      <c r="AN7" s="73"/>
-      <c r="AO7" s="73"/>
-      <c r="AP7" s="73"/>
-      <c r="AQ7" s="73"/>
-      <c r="AR7" s="73"/>
-      <c r="AS7" s="74"/>
-      <c r="AT7" s="15"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="AX7" s="4"/>
-      <c r="AY7" s="4"/>
-      <c r="AZ7" s="4"/>
-      <c r="BA7" s="4"/>
-      <c r="BB7" s="4"/>
-      <c r="BC7" s="4"/>
-      <c r="BD7" s="4"/>
-      <c r="BE7" s="4"/>
-      <c r="BF7" s="4"/>
-      <c r="BG7" s="5"/>
-      <c r="BH7" s="5"/>
-      <c r="BI7" s="5"/>
-      <c r="BJ7" s="5"/>
-      <c r="BK7" s="5"/>
-    </row>
-    <row r="8" spans="1:64" ht="16.5" outlineLevel="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="89" t="s">
-        <v>14</v>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
+      <c r="L9" s="83"/>
+      <c r="M9" s="83"/>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+      <c r="P9" s="83"/>
+      <c r="Q9" s="83"/>
+      <c r="R9" s="83"/>
+      <c r="S9" s="83"/>
+      <c r="T9" s="83"/>
+      <c r="U9" s="83"/>
+      <c r="V9" s="83"/>
+      <c r="W9" s="83"/>
+      <c r="X9" s="83"/>
+      <c r="Y9" s="83"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="83"/>
+      <c r="AB9" s="83"/>
+      <c r="AC9" s="83"/>
+      <c r="AD9" s="83"/>
+      <c r="AE9" s="83"/>
+      <c r="AF9" s="83"/>
+      <c r="AG9" s="83"/>
+      <c r="AH9" s="83"/>
+      <c r="AI9" s="83"/>
+      <c r="AJ9" s="83"/>
+      <c r="AK9" s="83"/>
+      <c r="AL9" s="83"/>
+      <c r="AM9" s="83"/>
+      <c r="AN9" s="83"/>
+      <c r="AO9" s="83"/>
+      <c r="AP9" s="83"/>
+      <c r="AQ9" s="83"/>
+      <c r="AR9" s="83"/>
+      <c r="AS9" s="83"/>
+      <c r="AT9" s="83"/>
+      <c r="AU9" s="83"/>
+      <c r="AV9" s="83"/>
+      <c r="AW9" s="83"/>
+      <c r="AX9" s="83"/>
+      <c r="AY9" s="83"/>
+      <c r="AZ9" s="83"/>
+      <c r="BA9" s="83"/>
+      <c r="BB9" s="83"/>
+      <c r="BC9" s="83"/>
+      <c r="BD9" s="83"/>
+      <c r="BE9" s="83"/>
+      <c r="BF9" s="83"/>
+      <c r="BG9" s="83"/>
+      <c r="BH9" s="83"/>
+      <c r="BI9" s="83"/>
+      <c r="BJ9" s="83"/>
+      <c r="BK9" s="5"/>
+    </row>
+    <row r="10" spans="1:64" s="59" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A10" s="5"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="66" t="s">
+        <v>60</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="74"/>
-      <c r="I8" s="90" t="s">
-        <v>72</v>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="83" t="s">
+        <v>61</v>
       </c>
-      <c r="J8" s="91"/>
-      <c r="K8" s="91"/>
-      <c r="L8" s="91"/>
-      <c r="M8" s="91"/>
-      <c r="N8" s="91"/>
-      <c r="O8" s="91"/>
-      <c r="P8" s="91"/>
-      <c r="Q8" s="91"/>
-      <c r="R8" s="91"/>
-      <c r="S8" s="91"/>
-      <c r="T8" s="91"/>
-      <c r="U8" s="91"/>
-      <c r="V8" s="91"/>
-      <c r="W8" s="91"/>
-      <c r="X8" s="91"/>
-      <c r="Y8" s="91"/>
-      <c r="Z8" s="91"/>
-      <c r="AA8" s="91"/>
-      <c r="AB8" s="91"/>
-      <c r="AC8" s="91"/>
-      <c r="AD8" s="91"/>
-      <c r="AE8" s="91"/>
-      <c r="AF8" s="91"/>
-      <c r="AG8" s="91"/>
-      <c r="AH8" s="91"/>
-      <c r="AI8" s="91"/>
-      <c r="AJ8" s="91"/>
-      <c r="AK8" s="91"/>
-      <c r="AL8" s="91"/>
-      <c r="AM8" s="91"/>
-      <c r="AN8" s="91"/>
-      <c r="AO8" s="91"/>
-      <c r="AP8" s="91"/>
-      <c r="AQ8" s="91"/>
-      <c r="AR8" s="91"/>
-      <c r="AS8" s="92"/>
-      <c r="AT8" s="15"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="AX8" s="4"/>
-      <c r="AY8" s="4"/>
-      <c r="AZ8" s="4"/>
-      <c r="BA8" s="4"/>
-      <c r="BB8" s="4"/>
-      <c r="BC8" s="4"/>
-      <c r="BD8" s="4"/>
-      <c r="BE8" s="4"/>
-      <c r="BF8" s="4"/>
-      <c r="BG8" s="5"/>
-      <c r="BH8" s="5"/>
-      <c r="BI8" s="5"/>
-      <c r="BJ8" s="5"/>
-      <c r="BK8" s="5"/>
-    </row>
-    <row r="9" spans="1:64" ht="16.5" outlineLevel="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="87" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="74"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="73"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="73"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="73"/>
-      <c r="Y9" s="73"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="73"/>
-      <c r="AB9" s="73"/>
-      <c r="AC9" s="73"/>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="73"/>
-      <c r="AF9" s="73"/>
-      <c r="AG9" s="73"/>
-      <c r="AH9" s="73"/>
-      <c r="AI9" s="73"/>
-      <c r="AJ9" s="73"/>
-      <c r="AK9" s="73"/>
-      <c r="AL9" s="73"/>
-      <c r="AM9" s="73"/>
-      <c r="AN9" s="73"/>
-      <c r="AO9" s="73"/>
-      <c r="AP9" s="73"/>
-      <c r="AQ9" s="73"/>
-      <c r="AR9" s="73"/>
-      <c r="AS9" s="74"/>
-      <c r="AT9" s="15"/>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4"/>
-      <c r="AW9" s="4"/>
-      <c r="AX9" s="4"/>
-      <c r="AY9" s="4"/>
-      <c r="AZ9" s="4"/>
-      <c r="BA9" s="4"/>
-      <c r="BB9" s="4"/>
-      <c r="BC9" s="4"/>
-      <c r="BD9" s="4"/>
-      <c r="BE9" s="4"/>
-      <c r="BF9" s="4"/>
-      <c r="BG9" s="5"/>
-      <c r="BH9" s="5"/>
-      <c r="BI9" s="5"/>
-      <c r="BJ9" s="5"/>
-      <c r="BK9" s="5"/>
-    </row>
-    <row r="10" spans="1:64" s="101" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="97" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="99"/>
-      <c r="I10" s="100" t="s">
-        <v>77</v>
-      </c>
-      <c r="J10" s="98"/>
-      <c r="K10" s="98"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="98"/>
-      <c r="P10" s="98"/>
-      <c r="Q10" s="98"/>
-      <c r="R10" s="98"/>
-      <c r="S10" s="98"/>
-      <c r="T10" s="98"/>
-      <c r="U10" s="98"/>
-      <c r="V10" s="98"/>
-      <c r="W10" s="98"/>
-      <c r="X10" s="98"/>
-      <c r="Y10" s="98"/>
-      <c r="Z10" s="98"/>
-      <c r="AA10" s="98"/>
-      <c r="AB10" s="98"/>
-      <c r="AC10" s="98"/>
-      <c r="AD10" s="98"/>
-      <c r="AE10" s="98"/>
-      <c r="AF10" s="98"/>
-      <c r="AG10" s="98"/>
-      <c r="AH10" s="98"/>
-      <c r="AI10" s="98"/>
-      <c r="AJ10" s="98"/>
-      <c r="AK10" s="98"/>
-      <c r="AL10" s="98"/>
-      <c r="AM10" s="98"/>
-      <c r="AN10" s="98"/>
-      <c r="AO10" s="98"/>
-      <c r="AP10" s="98"/>
-      <c r="AQ10" s="98"/>
-      <c r="AR10" s="98"/>
-      <c r="AS10" s="98"/>
-      <c r="AT10" s="98"/>
-      <c r="AU10" s="98"/>
-      <c r="AV10" s="98"/>
-      <c r="AW10" s="98"/>
-      <c r="AX10" s="98"/>
-      <c r="AY10" s="98"/>
-      <c r="AZ10" s="98"/>
-      <c r="BA10" s="98"/>
-      <c r="BB10" s="98"/>
-      <c r="BC10" s="98"/>
-      <c r="BD10" s="98"/>
-      <c r="BE10" s="98"/>
-      <c r="BF10" s="98"/>
-      <c r="BG10" s="98"/>
-      <c r="BH10" s="98"/>
-      <c r="BI10" s="98"/>
-      <c r="BJ10" s="99"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="85"/>
+      <c r="S10" s="85"/>
+      <c r="T10" s="85"/>
+      <c r="U10" s="85"/>
+      <c r="V10" s="85"/>
+      <c r="W10" s="85"/>
+      <c r="X10" s="85"/>
+      <c r="Y10" s="85"/>
+      <c r="Z10" s="85"/>
+      <c r="AA10" s="85"/>
+      <c r="AB10" s="85"/>
+      <c r="AC10" s="85"/>
+      <c r="AD10" s="85"/>
+      <c r="AE10" s="85"/>
+      <c r="AF10" s="85"/>
+      <c r="AG10" s="85"/>
+      <c r="AH10" s="85"/>
+      <c r="AI10" s="85"/>
+      <c r="AJ10" s="85"/>
+      <c r="AK10" s="85"/>
+      <c r="AL10" s="85"/>
+      <c r="AM10" s="85"/>
+      <c r="AN10" s="85"/>
+      <c r="AO10" s="85"/>
+      <c r="AP10" s="85"/>
+      <c r="AQ10" s="85"/>
+      <c r="AR10" s="85"/>
+      <c r="AS10" s="85"/>
+      <c r="AT10" s="85"/>
+      <c r="AU10" s="85"/>
+      <c r="AV10" s="85"/>
+      <c r="AW10" s="85"/>
+      <c r="AX10" s="85"/>
+      <c r="AY10" s="85"/>
+      <c r="AZ10" s="85"/>
+      <c r="BA10" s="85"/>
+      <c r="BB10" s="85"/>
+      <c r="BC10" s="85"/>
+      <c r="BD10" s="85"/>
+      <c r="BE10" s="85"/>
+      <c r="BF10" s="85"/>
+      <c r="BG10" s="85"/>
+      <c r="BH10" s="85"/>
+      <c r="BI10" s="85"/>
+      <c r="BJ10" s="85"/>
       <c r="BK10" s="5"/>
-      <c r="BL10" s="68"/>
-    </row>
-    <row r="11" spans="1:64" s="69" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="BL10" s="57"/>
+    </row>
+    <row r="11" spans="1:64" s="58" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -4349,7 +4275,7 @@
     </row>
     <row r="13" spans="1:64" ht="15.75" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
@@ -4480,506 +4406,506 @@
       <c r="BK14" s="5"/>
     </row>
     <row r="15" spans="1:64" ht="16.5" outlineLevel="1">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19" t="s">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="L15" s="17"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="20" t="s">
+      <c r="AF15" s="17"/>
+      <c r="AG15" s="18"/>
+      <c r="AH15" s="18"/>
+      <c r="AI15" s="18"/>
+      <c r="AJ15" s="18"/>
+      <c r="AK15" s="18"/>
+      <c r="AL15" s="19"/>
+      <c r="AM15" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="L15" s="21"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
-      <c r="U15" s="22"/>
-      <c r="V15" s="22"/>
-      <c r="W15" s="22"/>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="22"/>
-      <c r="Z15" s="22"/>
-      <c r="AA15" s="22"/>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="22"/>
-      <c r="AD15" s="23"/>
-      <c r="AE15" s="24" t="s">
+      <c r="AN15" s="17"/>
+      <c r="AO15" s="18"/>
+      <c r="AP15" s="18"/>
+      <c r="AQ15" s="21"/>
+      <c r="AR15" s="21"/>
+      <c r="AS15" s="21"/>
+      <c r="AT15" s="21"/>
+      <c r="AU15" s="21"/>
+      <c r="AV15" s="21"/>
+      <c r="AW15" s="21"/>
+      <c r="AX15" s="21"/>
+      <c r="AY15" s="21"/>
+      <c r="AZ15" s="18"/>
+      <c r="BA15" s="18"/>
+      <c r="BB15" s="18"/>
+      <c r="BC15" s="18"/>
+      <c r="BD15" s="18"/>
+      <c r="BE15" s="18"/>
+      <c r="BF15" s="19"/>
+      <c r="BG15" s="22"/>
+      <c r="BH15" s="22"/>
+      <c r="BI15" s="22"/>
+      <c r="BJ15" s="22"/>
+      <c r="BK15" s="22"/>
+    </row>
+    <row r="16" spans="1:64" ht="16.5" outlineLevel="1">
+      <c r="A16" s="14"/>
+      <c r="B16" s="23">
+        <v>1</v>
+      </c>
+      <c r="C16" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="AF15" s="21"/>
-      <c r="AG15" s="22"/>
-      <c r="AH15" s="22"/>
-      <c r="AI15" s="22"/>
-      <c r="AJ15" s="22"/>
-      <c r="AK15" s="22"/>
-      <c r="AL15" s="23"/>
-      <c r="AM15" s="24" t="s">
-        <v>20</v>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="70" t="s">
+        <v>59</v>
       </c>
-      <c r="AN15" s="21"/>
-      <c r="AO15" s="22"/>
-      <c r="AP15" s="22"/>
-      <c r="AQ15" s="25"/>
-      <c r="AR15" s="25"/>
-      <c r="AS15" s="25"/>
-      <c r="AT15" s="25"/>
-      <c r="AU15" s="25"/>
-      <c r="AV15" s="25"/>
-      <c r="AW15" s="25"/>
-      <c r="AX15" s="25"/>
-      <c r="AY15" s="25"/>
-      <c r="AZ15" s="22"/>
-      <c r="BA15" s="22"/>
-      <c r="BB15" s="22"/>
-      <c r="BC15" s="22"/>
-      <c r="BD15" s="22"/>
-      <c r="BE15" s="22"/>
-      <c r="BF15" s="23"/>
-      <c r="BG15" s="26"/>
-      <c r="BH15" s="26"/>
-      <c r="BI15" s="26"/>
-      <c r="BJ15" s="26"/>
-      <c r="BK15" s="26"/>
-    </row>
-    <row r="16" spans="1:64" ht="16.5" outlineLevel="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="27">
-        <v>1</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="78" t="s">
-        <v>75</v>
-      </c>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
-      <c r="P16" s="79"/>
-      <c r="Q16" s="79"/>
-      <c r="R16" s="79"/>
-      <c r="S16" s="79"/>
-      <c r="T16" s="79"/>
-      <c r="U16" s="79"/>
-      <c r="V16" s="79"/>
-      <c r="W16" s="79"/>
-      <c r="X16" s="79"/>
-      <c r="Y16" s="79"/>
-      <c r="Z16" s="79"/>
-      <c r="AA16" s="79"/>
-      <c r="AB16" s="79"/>
-      <c r="AC16" s="79"/>
-      <c r="AD16" s="80"/>
-      <c r="AE16" s="32"/>
-      <c r="AF16" s="30"/>
-      <c r="AG16" s="30"/>
-      <c r="AH16" s="30"/>
-      <c r="AI16" s="30"/>
-      <c r="AJ16" s="30"/>
-      <c r="AK16" s="30"/>
-      <c r="AL16" s="31"/>
-      <c r="AM16" s="33"/>
-      <c r="AN16" s="34"/>
-      <c r="AO16" s="34"/>
-      <c r="AP16" s="30"/>
-      <c r="AQ16" s="30"/>
-      <c r="AR16" s="30"/>
-      <c r="AS16" s="30"/>
-      <c r="AT16" s="30"/>
-      <c r="AU16" s="30"/>
-      <c r="AV16" s="30"/>
-      <c r="AW16" s="30"/>
-      <c r="AX16" s="30"/>
-      <c r="AY16" s="30"/>
-      <c r="AZ16" s="30"/>
-      <c r="BA16" s="30"/>
-      <c r="BB16" s="30"/>
-      <c r="BC16" s="30"/>
-      <c r="BD16" s="30"/>
-      <c r="BE16" s="30"/>
-      <c r="BF16" s="31"/>
-      <c r="BG16" s="26"/>
-      <c r="BH16" s="26"/>
-      <c r="BI16" s="26"/>
-      <c r="BJ16" s="26"/>
-      <c r="BK16" s="26"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="71"/>
+      <c r="T16" s="71"/>
+      <c r="U16" s="71"/>
+      <c r="V16" s="71"/>
+      <c r="W16" s="71"/>
+      <c r="X16" s="71"/>
+      <c r="Y16" s="71"/>
+      <c r="Z16" s="71"/>
+      <c r="AA16" s="71"/>
+      <c r="AB16" s="71"/>
+      <c r="AC16" s="71"/>
+      <c r="AD16" s="72"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="26"/>
+      <c r="AG16" s="26"/>
+      <c r="AH16" s="26"/>
+      <c r="AI16" s="26"/>
+      <c r="AJ16" s="26"/>
+      <c r="AK16" s="26"/>
+      <c r="AL16" s="27"/>
+      <c r="AM16" s="29"/>
+      <c r="AN16" s="30"/>
+      <c r="AO16" s="30"/>
+      <c r="AP16" s="26"/>
+      <c r="AQ16" s="26"/>
+      <c r="AR16" s="26"/>
+      <c r="AS16" s="26"/>
+      <c r="AT16" s="26"/>
+      <c r="AU16" s="26"/>
+      <c r="AV16" s="26"/>
+      <c r="AW16" s="26"/>
+      <c r="AX16" s="26"/>
+      <c r="AY16" s="26"/>
+      <c r="AZ16" s="26"/>
+      <c r="BA16" s="26"/>
+      <c r="BB16" s="26"/>
+      <c r="BC16" s="26"/>
+      <c r="BD16" s="26"/>
+      <c r="BE16" s="26"/>
+      <c r="BF16" s="27"/>
+      <c r="BG16" s="22"/>
+      <c r="BH16" s="22"/>
+      <c r="BI16" s="22"/>
+      <c r="BJ16" s="22"/>
+      <c r="BK16" s="22"/>
     </row>
     <row r="17" spans="1:63" ht="16.5" outlineLevel="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="35">
+      <c r="A17" s="14"/>
+      <c r="B17" s="31">
         <f t="shared" ref="B17:B21" si="0">B16+1</f>
         <v>2</v>
       </c>
-      <c r="C17" s="36" t="s">
-        <v>22</v>
+      <c r="C17" s="32" t="s">
+        <v>20</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="37"/>
-      <c r="AA17" s="37"/>
-      <c r="AB17" s="37"/>
-      <c r="AC17" s="37"/>
-      <c r="AD17" s="37"/>
-      <c r="AE17" s="37"/>
-      <c r="AF17" s="37"/>
-      <c r="AG17" s="37"/>
-      <c r="AH17" s="37"/>
-      <c r="AI17" s="37"/>
-      <c r="AJ17" s="37"/>
-      <c r="AK17" s="37"/>
-      <c r="AL17" s="37"/>
-      <c r="AM17" s="37"/>
-      <c r="AN17" s="37"/>
-      <c r="AO17" s="37"/>
-      <c r="AP17" s="37"/>
-      <c r="AQ17" s="37"/>
-      <c r="AR17" s="37"/>
-      <c r="AS17" s="37"/>
-      <c r="AT17" s="37"/>
-      <c r="AU17" s="37"/>
-      <c r="AV17" s="37"/>
-      <c r="AW17" s="37"/>
-      <c r="AX17" s="37"/>
-      <c r="AY17" s="37"/>
-      <c r="AZ17" s="37"/>
-      <c r="BA17" s="37"/>
-      <c r="BB17" s="37"/>
-      <c r="BC17" s="37"/>
-      <c r="BD17" s="37"/>
-      <c r="BE17" s="37"/>
-      <c r="BF17" s="38"/>
-      <c r="BG17" s="26"/>
-      <c r="BH17" s="26"/>
-      <c r="BI17" s="26"/>
-      <c r="BJ17" s="26"/>
-      <c r="BK17" s="26"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="33"/>
+      <c r="AC17" s="33"/>
+      <c r="AD17" s="33"/>
+      <c r="AE17" s="33"/>
+      <c r="AF17" s="33"/>
+      <c r="AG17" s="33"/>
+      <c r="AH17" s="33"/>
+      <c r="AI17" s="33"/>
+      <c r="AJ17" s="33"/>
+      <c r="AK17" s="33"/>
+      <c r="AL17" s="33"/>
+      <c r="AM17" s="33"/>
+      <c r="AN17" s="33"/>
+      <c r="AO17" s="33"/>
+      <c r="AP17" s="33"/>
+      <c r="AQ17" s="33"/>
+      <c r="AR17" s="33"/>
+      <c r="AS17" s="33"/>
+      <c r="AT17" s="33"/>
+      <c r="AU17" s="33"/>
+      <c r="AV17" s="33"/>
+      <c r="AW17" s="33"/>
+      <c r="AX17" s="33"/>
+      <c r="AY17" s="33"/>
+      <c r="AZ17" s="33"/>
+      <c r="BA17" s="33"/>
+      <c r="BB17" s="33"/>
+      <c r="BC17" s="33"/>
+      <c r="BD17" s="33"/>
+      <c r="BE17" s="33"/>
+      <c r="BF17" s="34"/>
+      <c r="BG17" s="22"/>
+      <c r="BH17" s="22"/>
+      <c r="BI17" s="22"/>
+      <c r="BJ17" s="22"/>
+      <c r="BK17" s="22"/>
     </row>
     <row r="18" spans="1:63" ht="16.5" outlineLevel="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="35">
+      <c r="A18" s="14"/>
+      <c r="B18" s="31">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40" t="s">
-        <v>23</v>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36" t="s">
+        <v>21</v>
       </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="78" t="s">
-        <v>24</v>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="70" t="s">
+        <v>22</v>
       </c>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="79"/>
-      <c r="Q18" s="79"/>
-      <c r="R18" s="79"/>
-      <c r="S18" s="79"/>
-      <c r="T18" s="79"/>
-      <c r="U18" s="79"/>
-      <c r="V18" s="79"/>
-      <c r="W18" s="79"/>
-      <c r="X18" s="79"/>
-      <c r="Y18" s="79"/>
-      <c r="Z18" s="79"/>
-      <c r="AA18" s="79"/>
-      <c r="AB18" s="79"/>
-      <c r="AC18" s="79"/>
-      <c r="AD18" s="80"/>
-      <c r="AE18" s="45"/>
-      <c r="AF18" s="42"/>
-      <c r="AG18" s="42"/>
-      <c r="AH18" s="42"/>
-      <c r="AI18" s="42"/>
-      <c r="AJ18" s="42"/>
-      <c r="AK18" s="42"/>
-      <c r="AL18" s="43"/>
-      <c r="AM18" s="44"/>
-      <c r="AN18" s="46"/>
-      <c r="AO18" s="46"/>
-      <c r="AP18" s="42"/>
-      <c r="AQ18" s="42"/>
-      <c r="AR18" s="42"/>
-      <c r="AS18" s="42"/>
-      <c r="AT18" s="42"/>
-      <c r="AU18" s="42"/>
-      <c r="AV18" s="42"/>
-      <c r="AW18" s="42"/>
-      <c r="AX18" s="42"/>
-      <c r="AY18" s="42"/>
-      <c r="AZ18" s="42"/>
-      <c r="BA18" s="42"/>
-      <c r="BB18" s="42"/>
-      <c r="BC18" s="42"/>
-      <c r="BD18" s="42"/>
-      <c r="BE18" s="42"/>
-      <c r="BF18" s="43"/>
-      <c r="BG18" s="26"/>
-      <c r="BH18" s="26"/>
-      <c r="BI18" s="26"/>
-      <c r="BJ18" s="26"/>
-      <c r="BK18" s="26"/>
+      <c r="L18" s="71"/>
+      <c r="M18" s="71"/>
+      <c r="N18" s="71"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="71"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="71"/>
+      <c r="V18" s="71"/>
+      <c r="W18" s="71"/>
+      <c r="X18" s="71"/>
+      <c r="Y18" s="71"/>
+      <c r="Z18" s="71"/>
+      <c r="AA18" s="71"/>
+      <c r="AB18" s="71"/>
+      <c r="AC18" s="71"/>
+      <c r="AD18" s="72"/>
+      <c r="AE18" s="41"/>
+      <c r="AF18" s="38"/>
+      <c r="AG18" s="38"/>
+      <c r="AH18" s="38"/>
+      <c r="AI18" s="38"/>
+      <c r="AJ18" s="38"/>
+      <c r="AK18" s="38"/>
+      <c r="AL18" s="39"/>
+      <c r="AM18" s="40"/>
+      <c r="AN18" s="42"/>
+      <c r="AO18" s="42"/>
+      <c r="AP18" s="38"/>
+      <c r="AQ18" s="38"/>
+      <c r="AR18" s="38"/>
+      <c r="AS18" s="38"/>
+      <c r="AT18" s="38"/>
+      <c r="AU18" s="38"/>
+      <c r="AV18" s="38"/>
+      <c r="AW18" s="38"/>
+      <c r="AX18" s="38"/>
+      <c r="AY18" s="38"/>
+      <c r="AZ18" s="38"/>
+      <c r="BA18" s="38"/>
+      <c r="BB18" s="38"/>
+      <c r="BC18" s="38"/>
+      <c r="BD18" s="38"/>
+      <c r="BE18" s="38"/>
+      <c r="BF18" s="39"/>
+      <c r="BG18" s="22"/>
+      <c r="BH18" s="22"/>
+      <c r="BI18" s="22"/>
+      <c r="BJ18" s="22"/>
+      <c r="BK18" s="22"/>
     </row>
     <row r="19" spans="1:63" ht="16.5" outlineLevel="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="35">
+      <c r="A19" s="14"/>
+      <c r="B19" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C19" s="47" t="s">
-        <v>25</v>
+      <c r="C19" s="43" t="s">
+        <v>23</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="48"/>
-      <c r="H19" s="48"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="48"/>
-      <c r="Y19" s="48"/>
-      <c r="Z19" s="48"/>
-      <c r="AA19" s="48"/>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="48"/>
-      <c r="AD19" s="48"/>
-      <c r="AE19" s="48"/>
-      <c r="AF19" s="48"/>
-      <c r="AG19" s="48"/>
-      <c r="AH19" s="48"/>
-      <c r="AI19" s="48"/>
-      <c r="AJ19" s="48"/>
-      <c r="AK19" s="48"/>
-      <c r="AL19" s="48"/>
-      <c r="AM19" s="48"/>
-      <c r="AN19" s="48"/>
-      <c r="AO19" s="48"/>
-      <c r="AP19" s="48"/>
-      <c r="AQ19" s="48"/>
-      <c r="AR19" s="48"/>
-      <c r="AS19" s="48"/>
-      <c r="AT19" s="48"/>
-      <c r="AU19" s="48"/>
-      <c r="AV19" s="48"/>
-      <c r="AW19" s="48"/>
-      <c r="AX19" s="48"/>
-      <c r="AY19" s="48"/>
-      <c r="AZ19" s="48"/>
-      <c r="BA19" s="48"/>
-      <c r="BB19" s="48"/>
-      <c r="BC19" s="48"/>
-      <c r="BD19" s="48"/>
-      <c r="BE19" s="48"/>
-      <c r="BF19" s="49"/>
-      <c r="BG19" s="26"/>
-      <c r="BH19" s="26"/>
-      <c r="BI19" s="26"/>
-      <c r="BJ19" s="26"/>
-      <c r="BK19" s="26"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="44"/>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+      <c r="T19" s="44"/>
+      <c r="U19" s="44"/>
+      <c r="V19" s="44"/>
+      <c r="W19" s="44"/>
+      <c r="X19" s="44"/>
+      <c r="Y19" s="44"/>
+      <c r="Z19" s="44"/>
+      <c r="AA19" s="44"/>
+      <c r="AB19" s="44"/>
+      <c r="AC19" s="44"/>
+      <c r="AD19" s="44"/>
+      <c r="AE19" s="44"/>
+      <c r="AF19" s="44"/>
+      <c r="AG19" s="44"/>
+      <c r="AH19" s="44"/>
+      <c r="AI19" s="44"/>
+      <c r="AJ19" s="44"/>
+      <c r="AK19" s="44"/>
+      <c r="AL19" s="44"/>
+      <c r="AM19" s="44"/>
+      <c r="AN19" s="44"/>
+      <c r="AO19" s="44"/>
+      <c r="AP19" s="44"/>
+      <c r="AQ19" s="44"/>
+      <c r="AR19" s="44"/>
+      <c r="AS19" s="44"/>
+      <c r="AT19" s="44"/>
+      <c r="AU19" s="44"/>
+      <c r="AV19" s="44"/>
+      <c r="AW19" s="44"/>
+      <c r="AX19" s="44"/>
+      <c r="AY19" s="44"/>
+      <c r="AZ19" s="44"/>
+      <c r="BA19" s="44"/>
+      <c r="BB19" s="44"/>
+      <c r="BC19" s="44"/>
+      <c r="BD19" s="44"/>
+      <c r="BE19" s="44"/>
+      <c r="BF19" s="45"/>
+      <c r="BG19" s="22"/>
+      <c r="BH19" s="22"/>
+      <c r="BI19" s="22"/>
+      <c r="BJ19" s="22"/>
+      <c r="BK19" s="22"/>
     </row>
     <row r="20" spans="1:63" ht="16.5" outlineLevel="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="35">
+      <c r="A20" s="14"/>
+      <c r="B20" s="31">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C20" s="50"/>
-      <c r="D20" s="40" t="s">
-        <v>26</v>
+      <c r="C20" s="46"/>
+      <c r="D20" s="36" t="s">
+        <v>24</v>
       </c>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="78" t="s">
-        <v>27</v>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="70" t="s">
+        <v>25</v>
       </c>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
-      <c r="P20" s="79"/>
-      <c r="Q20" s="79"/>
-      <c r="R20" s="79"/>
-      <c r="S20" s="79"/>
-      <c r="T20" s="79"/>
-      <c r="U20" s="79"/>
-      <c r="V20" s="79"/>
-      <c r="W20" s="79"/>
-      <c r="X20" s="79"/>
-      <c r="Y20" s="79"/>
-      <c r="Z20" s="79"/>
-      <c r="AA20" s="79"/>
-      <c r="AB20" s="79"/>
-      <c r="AC20" s="79"/>
-      <c r="AD20" s="80"/>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="42"/>
-      <c r="AG20" s="42"/>
-      <c r="AH20" s="42"/>
-      <c r="AI20" s="42"/>
-      <c r="AJ20" s="42"/>
-      <c r="AK20" s="42"/>
-      <c r="AL20" s="43"/>
-      <c r="AM20" s="44"/>
-      <c r="AN20" s="46"/>
-      <c r="AO20" s="46"/>
-      <c r="AP20" s="42"/>
-      <c r="AQ20" s="42"/>
-      <c r="AR20" s="42"/>
-      <c r="AS20" s="42"/>
-      <c r="AT20" s="42"/>
-      <c r="AU20" s="42"/>
-      <c r="AV20" s="42"/>
-      <c r="AW20" s="42"/>
-      <c r="AX20" s="42"/>
-      <c r="AY20" s="42"/>
-      <c r="AZ20" s="42"/>
-      <c r="BA20" s="42"/>
-      <c r="BB20" s="42"/>
-      <c r="BC20" s="42"/>
-      <c r="BD20" s="42"/>
-      <c r="BE20" s="42"/>
-      <c r="BF20" s="43"/>
-      <c r="BG20" s="26"/>
-      <c r="BH20" s="26"/>
-      <c r="BI20" s="26"/>
-      <c r="BJ20" s="26"/>
-      <c r="BK20" s="26"/>
+      <c r="L20" s="71"/>
+      <c r="M20" s="71"/>
+      <c r="N20" s="71"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="71"/>
+      <c r="T20" s="71"/>
+      <c r="U20" s="71"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="71"/>
+      <c r="Z20" s="71"/>
+      <c r="AA20" s="71"/>
+      <c r="AB20" s="71"/>
+      <c r="AC20" s="71"/>
+      <c r="AD20" s="72"/>
+      <c r="AE20" s="41"/>
+      <c r="AF20" s="38"/>
+      <c r="AG20" s="38"/>
+      <c r="AH20" s="38"/>
+      <c r="AI20" s="38"/>
+      <c r="AJ20" s="38"/>
+      <c r="AK20" s="38"/>
+      <c r="AL20" s="39"/>
+      <c r="AM20" s="40"/>
+      <c r="AN20" s="42"/>
+      <c r="AO20" s="42"/>
+      <c r="AP20" s="38"/>
+      <c r="AQ20" s="38"/>
+      <c r="AR20" s="38"/>
+      <c r="AS20" s="38"/>
+      <c r="AT20" s="38"/>
+      <c r="AU20" s="38"/>
+      <c r="AV20" s="38"/>
+      <c r="AW20" s="38"/>
+      <c r="AX20" s="38"/>
+      <c r="AY20" s="38"/>
+      <c r="AZ20" s="38"/>
+      <c r="BA20" s="38"/>
+      <c r="BB20" s="38"/>
+      <c r="BC20" s="38"/>
+      <c r="BD20" s="38"/>
+      <c r="BE20" s="38"/>
+      <c r="BF20" s="39"/>
+      <c r="BG20" s="22"/>
+      <c r="BH20" s="22"/>
+      <c r="BI20" s="22"/>
+      <c r="BJ20" s="22"/>
+      <c r="BK20" s="22"/>
     </row>
     <row r="21" spans="1:63" ht="16.5" outlineLevel="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="35">
+      <c r="A21" s="14"/>
+      <c r="B21" s="31">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="40" t="s">
-        <v>28</v>
+      <c r="C21" s="47"/>
+      <c r="D21" s="36" t="s">
+        <v>26</v>
       </c>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="78" t="s">
-        <v>82</v>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="70" t="s">
+        <v>66</v>
       </c>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
-      <c r="P21" s="79"/>
-      <c r="Q21" s="79"/>
-      <c r="R21" s="79"/>
-      <c r="S21" s="79"/>
-      <c r="T21" s="79"/>
-      <c r="U21" s="79"/>
-      <c r="V21" s="79"/>
-      <c r="W21" s="79"/>
-      <c r="X21" s="79"/>
-      <c r="Y21" s="79"/>
-      <c r="Z21" s="79"/>
-      <c r="AA21" s="79"/>
-      <c r="AB21" s="79"/>
-      <c r="AC21" s="79"/>
-      <c r="AD21" s="80"/>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="42"/>
-      <c r="AG21" s="42"/>
-      <c r="AH21" s="42"/>
-      <c r="AI21" s="42"/>
-      <c r="AJ21" s="42"/>
-      <c r="AK21" s="42"/>
-      <c r="AL21" s="43"/>
-      <c r="AM21" s="44"/>
-      <c r="AN21" s="46"/>
-      <c r="AO21" s="46"/>
-      <c r="AP21" s="42"/>
-      <c r="AQ21" s="42"/>
-      <c r="AR21" s="42"/>
-      <c r="AS21" s="42"/>
-      <c r="AT21" s="42"/>
-      <c r="AU21" s="42"/>
-      <c r="AV21" s="42"/>
-      <c r="AW21" s="42"/>
-      <c r="AX21" s="42"/>
-      <c r="AY21" s="42"/>
-      <c r="AZ21" s="42"/>
-      <c r="BA21" s="42"/>
-      <c r="BB21" s="42"/>
-      <c r="BC21" s="42"/>
-      <c r="BD21" s="42"/>
-      <c r="BE21" s="42"/>
-      <c r="BF21" s="43"/>
-      <c r="BG21" s="26"/>
-      <c r="BH21" s="26"/>
-      <c r="BI21" s="26"/>
-      <c r="BJ21" s="26"/>
-      <c r="BK21" s="26"/>
+      <c r="L21" s="71"/>
+      <c r="M21" s="71"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="71"/>
+      <c r="T21" s="71"/>
+      <c r="U21" s="71"/>
+      <c r="V21" s="71"/>
+      <c r="W21" s="71"/>
+      <c r="X21" s="71"/>
+      <c r="Y21" s="71"/>
+      <c r="Z21" s="71"/>
+      <c r="AA21" s="71"/>
+      <c r="AB21" s="71"/>
+      <c r="AC21" s="71"/>
+      <c r="AD21" s="72"/>
+      <c r="AE21" s="41"/>
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="38"/>
+      <c r="AH21" s="38"/>
+      <c r="AI21" s="38"/>
+      <c r="AJ21" s="38"/>
+      <c r="AK21" s="38"/>
+      <c r="AL21" s="39"/>
+      <c r="AM21" s="40"/>
+      <c r="AN21" s="42"/>
+      <c r="AO21" s="42"/>
+      <c r="AP21" s="38"/>
+      <c r="AQ21" s="38"/>
+      <c r="AR21" s="38"/>
+      <c r="AS21" s="38"/>
+      <c r="AT21" s="38"/>
+      <c r="AU21" s="38"/>
+      <c r="AV21" s="38"/>
+      <c r="AW21" s="38"/>
+      <c r="AX21" s="38"/>
+      <c r="AY21" s="38"/>
+      <c r="AZ21" s="38"/>
+      <c r="BA21" s="38"/>
+      <c r="BB21" s="38"/>
+      <c r="BC21" s="38"/>
+      <c r="BD21" s="38"/>
+      <c r="BE21" s="38"/>
+      <c r="BF21" s="39"/>
+      <c r="BG21" s="22"/>
+      <c r="BH21" s="22"/>
+      <c r="BI21" s="22"/>
+      <c r="BJ21" s="22"/>
+      <c r="BK21" s="22"/>
     </row>
     <row r="22" spans="1:63" ht="16.5">
       <c r="A22" s="5"/>
@@ -5048,7 +4974,7 @@
     </row>
     <row r="23" spans="1:63" ht="16.5">
       <c r="A23" s="6" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -5245,7 +5171,7 @@
     </row>
     <row r="26" spans="1:63" ht="16.5">
       <c r="A26" s="6" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -5377,8 +5303,8 @@
     </row>
     <row r="28" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A28" s="5"/>
-      <c r="B28" s="52" t="s">
-        <v>81</v>
+      <c r="B28" s="48" t="s">
+        <v>65</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -5446,7 +5372,7 @@
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -5512,43 +5438,43 @@
     <row r="30" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="53" t="s">
-        <v>30</v>
+      <c r="C30" s="49" t="s">
+        <v>28</v>
       </c>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="53" t="s">
-        <v>31</v>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="49" t="s">
+        <v>29</v>
       </c>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
-      <c r="Q30" s="54"/>
-      <c r="R30" s="54"/>
-      <c r="S30" s="54"/>
-      <c r="T30" s="54"/>
-      <c r="U30" s="54"/>
-      <c r="V30" s="54"/>
-      <c r="W30" s="54"/>
-      <c r="X30" s="54"/>
-      <c r="Y30" s="54"/>
-      <c r="Z30" s="54"/>
-      <c r="AA30" s="54"/>
-      <c r="AB30" s="54"/>
-      <c r="AC30" s="54"/>
-      <c r="AD30" s="54"/>
-      <c r="AE30" s="54"/>
-      <c r="AF30" s="54"/>
-      <c r="AG30" s="54"/>
-      <c r="AH30" s="54"/>
-      <c r="AI30" s="55"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="50"/>
+      <c r="O30" s="50"/>
+      <c r="P30" s="50"/>
+      <c r="Q30" s="50"/>
+      <c r="R30" s="50"/>
+      <c r="S30" s="50"/>
+      <c r="T30" s="50"/>
+      <c r="U30" s="50"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+      <c r="X30" s="50"/>
+      <c r="Y30" s="50"/>
+      <c r="Z30" s="50"/>
+      <c r="AA30" s="50"/>
+      <c r="AB30" s="50"/>
+      <c r="AC30" s="50"/>
+      <c r="AD30" s="50"/>
+      <c r="AE30" s="50"/>
+      <c r="AF30" s="50"/>
+      <c r="AG30" s="50"/>
+      <c r="AH30" s="50"/>
+      <c r="AI30" s="51"/>
       <c r="AJ30" s="5"/>
       <c r="AK30" s="5"/>
       <c r="AL30" s="5"/>
@@ -5581,43 +5507,43 @@
     <row r="31" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="56" t="s">
-        <v>32</v>
+      <c r="C31" s="76" t="s">
+        <v>30</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="84" t="s">
-        <v>33</v>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="77"/>
+      <c r="G31" s="77"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="78"/>
+      <c r="J31" s="76" t="s">
+        <v>31</v>
       </c>
-      <c r="K31" s="85"/>
-      <c r="L31" s="85"/>
-      <c r="M31" s="85"/>
-      <c r="N31" s="85"/>
-      <c r="O31" s="85"/>
-      <c r="P31" s="85"/>
-      <c r="Q31" s="85"/>
-      <c r="R31" s="85"/>
-      <c r="S31" s="85"/>
-      <c r="T31" s="85"/>
-      <c r="U31" s="85"/>
-      <c r="V31" s="85"/>
-      <c r="W31" s="85"/>
-      <c r="X31" s="85"/>
-      <c r="Y31" s="85"/>
-      <c r="Z31" s="85"/>
-      <c r="AA31" s="85"/>
-      <c r="AB31" s="85"/>
-      <c r="AC31" s="85"/>
-      <c r="AD31" s="85"/>
-      <c r="AE31" s="85"/>
-      <c r="AF31" s="85"/>
-      <c r="AG31" s="85"/>
-      <c r="AH31" s="85"/>
-      <c r="AI31" s="86"/>
+      <c r="K31" s="77"/>
+      <c r="L31" s="77"/>
+      <c r="M31" s="77"/>
+      <c r="N31" s="77"/>
+      <c r="O31" s="77"/>
+      <c r="P31" s="77"/>
+      <c r="Q31" s="77"/>
+      <c r="R31" s="77"/>
+      <c r="S31" s="77"/>
+      <c r="T31" s="77"/>
+      <c r="U31" s="77"/>
+      <c r="V31" s="77"/>
+      <c r="W31" s="77"/>
+      <c r="X31" s="77"/>
+      <c r="Y31" s="77"/>
+      <c r="Z31" s="77"/>
+      <c r="AA31" s="77"/>
+      <c r="AB31" s="77"/>
+      <c r="AC31" s="77"/>
+      <c r="AD31" s="77"/>
+      <c r="AE31" s="77"/>
+      <c r="AF31" s="77"/>
+      <c r="AG31" s="77"/>
+      <c r="AH31" s="77"/>
+      <c r="AI31" s="78"/>
       <c r="AJ31" s="5"/>
       <c r="AK31" s="5"/>
       <c r="AL31" s="5"/>
@@ -5650,43 +5576,43 @@
     <row r="32" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="56" t="s">
-        <v>34</v>
+      <c r="C32" s="76" t="s">
+        <v>32</v>
       </c>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="84" t="s">
-        <v>35</v>
+      <c r="D32" s="77"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="78"/>
+      <c r="J32" s="76" t="s">
+        <v>33</v>
       </c>
-      <c r="K32" s="85"/>
-      <c r="L32" s="85"/>
-      <c r="M32" s="85"/>
-      <c r="N32" s="85"/>
-      <c r="O32" s="85"/>
-      <c r="P32" s="85"/>
-      <c r="Q32" s="85"/>
-      <c r="R32" s="85"/>
-      <c r="S32" s="85"/>
-      <c r="T32" s="85"/>
-      <c r="U32" s="85"/>
-      <c r="V32" s="85"/>
-      <c r="W32" s="85"/>
-      <c r="X32" s="85"/>
-      <c r="Y32" s="85"/>
-      <c r="Z32" s="85"/>
-      <c r="AA32" s="85"/>
-      <c r="AB32" s="85"/>
-      <c r="AC32" s="85"/>
-      <c r="AD32" s="85"/>
-      <c r="AE32" s="85"/>
-      <c r="AF32" s="85"/>
-      <c r="AG32" s="85"/>
-      <c r="AH32" s="85"/>
-      <c r="AI32" s="86"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="77"/>
+      <c r="R32" s="77"/>
+      <c r="S32" s="77"/>
+      <c r="T32" s="77"/>
+      <c r="U32" s="77"/>
+      <c r="V32" s="77"/>
+      <c r="W32" s="77"/>
+      <c r="X32" s="77"/>
+      <c r="Y32" s="77"/>
+      <c r="Z32" s="77"/>
+      <c r="AA32" s="77"/>
+      <c r="AB32" s="77"/>
+      <c r="AC32" s="77"/>
+      <c r="AD32" s="77"/>
+      <c r="AE32" s="77"/>
+      <c r="AF32" s="77"/>
+      <c r="AG32" s="77"/>
+      <c r="AH32" s="77"/>
+      <c r="AI32" s="78"/>
       <c r="AJ32" s="5"/>
       <c r="AK32" s="5"/>
       <c r="AL32" s="5"/>
@@ -5716,46 +5642,46 @@
       <c r="BJ32" s="5"/>
       <c r="BK32" s="5"/>
     </row>
-    <row r="33" spans="1:63" ht="36.75" customHeight="1" outlineLevel="1">
+    <row r="33" spans="1:63" ht="31.5" customHeight="1" outlineLevel="1">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="56" t="s">
-        <v>36</v>
+      <c r="C33" s="76" t="s">
+        <v>34</v>
       </c>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="58"/>
-      <c r="J33" s="81" t="s">
-        <v>71</v>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="78"/>
+      <c r="J33" s="73" t="s">
+        <v>67</v>
       </c>
-      <c r="K33" s="82"/>
-      <c r="L33" s="82"/>
-      <c r="M33" s="82"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="82"/>
-      <c r="P33" s="82"/>
-      <c r="Q33" s="82"/>
-      <c r="R33" s="82"/>
-      <c r="S33" s="82"/>
-      <c r="T33" s="82"/>
-      <c r="U33" s="82"/>
-      <c r="V33" s="82"/>
-      <c r="W33" s="82"/>
-      <c r="X33" s="82"/>
-      <c r="Y33" s="82"/>
-      <c r="Z33" s="82"/>
-      <c r="AA33" s="82"/>
-      <c r="AB33" s="82"/>
-      <c r="AC33" s="82"/>
-      <c r="AD33" s="82"/>
-      <c r="AE33" s="82"/>
-      <c r="AF33" s="82"/>
-      <c r="AG33" s="82"/>
-      <c r="AH33" s="82"/>
-      <c r="AI33" s="83"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
+      <c r="M33" s="74"/>
+      <c r="N33" s="74"/>
+      <c r="O33" s="74"/>
+      <c r="P33" s="74"/>
+      <c r="Q33" s="74"/>
+      <c r="R33" s="74"/>
+      <c r="S33" s="74"/>
+      <c r="T33" s="74"/>
+      <c r="U33" s="74"/>
+      <c r="V33" s="74"/>
+      <c r="W33" s="74"/>
+      <c r="X33" s="74"/>
+      <c r="Y33" s="74"/>
+      <c r="Z33" s="74"/>
+      <c r="AA33" s="74"/>
+      <c r="AB33" s="74"/>
+      <c r="AC33" s="74"/>
+      <c r="AD33" s="74"/>
+      <c r="AE33" s="74"/>
+      <c r="AF33" s="74"/>
+      <c r="AG33" s="74"/>
+      <c r="AH33" s="74"/>
+      <c r="AI33" s="75"/>
       <c r="AJ33" s="5"/>
       <c r="AK33" s="5"/>
       <c r="AL33" s="5"/>
@@ -5916,15 +5842,12 @@
       <c r="BK35" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:BJ10"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:AS7"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:AS9"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:AS8"/>
+  <mergeCells count="18">
+    <mergeCell ref="C31:I31"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="I9:BJ9"/>
+    <mergeCell ref="I8:BJ8"/>
     <mergeCell ref="K16:AD16"/>
     <mergeCell ref="K21:AD21"/>
     <mergeCell ref="J33:AI33"/>
@@ -5932,8 +5855,14 @@
     <mergeCell ref="J31:AI31"/>
     <mergeCell ref="K20:AD20"/>
     <mergeCell ref="K18:AD18"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:BJ10"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I7:BJ7"/>
   </mergeCells>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="35" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="4" manualBreakCount="4">
@@ -5964,323 +5893,323 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A2" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="59" t="s">
+      <c r="B2" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="61" t="s">
+      <c r="C2" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A3" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="B3" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="61" t="s">
+      <c r="C3" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A4" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="B4" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="61" t="s">
+      <c r="C4" s="54"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A5" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B5" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="61" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A6" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B6" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="61" t="s">
+      <c r="C6" s="54"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A7" s="55"/>
+      <c r="B7" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="C7" s="54"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A8" s="55"/>
+      <c r="B8" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="62"/>
-      <c r="B7" s="61" t="s">
+      <c r="C8" s="54"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="55"/>
+      <c r="B9" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="61"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="62"/>
-      <c r="B8" s="61" t="s">
+      <c r="C9" s="54"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="55"/>
+      <c r="B10" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="62"/>
-      <c r="B9" s="61" t="s">
+      <c r="C10" s="54"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="55"/>
+      <c r="B11" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="62"/>
-      <c r="B10" s="61" t="s">
+      <c r="C11" s="54"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A12" s="55"/>
+      <c r="B12" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="62"/>
-      <c r="B11" s="61" t="s">
+      <c r="C12" s="54"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A13" s="55"/>
+      <c r="B13" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="62"/>
-      <c r="B12" s="61" t="s">
+      <c r="C13" s="54"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A14" s="55"/>
+      <c r="B14" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="62"/>
-      <c r="B13" s="61" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="62"/>
-      <c r="B14" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="62"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="62"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="62"/>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="62"/>
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="62"/>
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="62"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="62"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="62"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53"/>
+      <c r="H23" s="53"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="62"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="62"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="60"/>
-      <c r="H25" s="60"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="53"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="62"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="53"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="63"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="60"/>
-      <c r="G27" s="60"/>
-      <c r="H27" s="60"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="53"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -57300,1086 +57229,7 @@
       <c r="AW1000" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:BF17"/>
-  <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" outlineLevelRow="1"/>
-  <cols>
-    <col min="1" max="58" width="3.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:58" ht="16.5">
-      <c r="A1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
-      <c r="AC1" s="66"/>
-      <c r="AD1" s="66"/>
-      <c r="AE1" s="66"/>
-      <c r="AF1" s="66"/>
-      <c r="AG1" s="66"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="66"/>
-      <c r="AJ1" s="66"/>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="66"/>
-      <c r="AP1" s="66"/>
-      <c r="AQ1" s="66"/>
-      <c r="AR1" s="66"/>
-      <c r="AS1" s="66"/>
-      <c r="AT1" s="66"/>
-      <c r="AU1" s="66"/>
-      <c r="AV1" s="66"/>
-      <c r="AW1" s="66"/>
-      <c r="AX1" s="66"/>
-      <c r="AY1" s="66"/>
-      <c r="AZ1" s="66"/>
-      <c r="BA1" s="66"/>
-      <c r="BB1" s="66"/>
-      <c r="BC1" s="66"/>
-      <c r="BD1" s="66"/>
-      <c r="BE1" s="66"/>
-      <c r="BF1" s="66"/>
-    </row>
-    <row r="2" spans="1:58" ht="16.5">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
-      <c r="X2" s="3"/>
-      <c r="Y2" s="3"/>
-      <c r="Z2" s="3"/>
-      <c r="AA2" s="3"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
-      <c r="AD2" s="3"/>
-      <c r="AE2" s="3"/>
-      <c r="AF2" s="3"/>
-      <c r="AG2" s="3"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
-      <c r="AL2" s="3"/>
-      <c r="AM2" s="3"/>
-      <c r="AN2" s="3"/>
-      <c r="AO2" s="3"/>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="3"/>
-      <c r="AW2" s="3"/>
-      <c r="AX2" s="3"/>
-      <c r="AY2" s="3"/>
-      <c r="AZ2" s="3"/>
-      <c r="BA2" s="3"/>
-      <c r="BB2" s="3"/>
-      <c r="BC2" s="3"/>
-      <c r="BD2" s="3"/>
-      <c r="BE2" s="3"/>
-      <c r="BF2" s="3"/>
-    </row>
-    <row r="3" spans="1:58" ht="16.5">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
-      <c r="AD3" s="3"/>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="3"/>
-      <c r="AK3" s="3"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="3"/>
-      <c r="AN3" s="3"/>
-      <c r="AO3" s="3"/>
-      <c r="AP3" s="3"/>
-      <c r="AQ3" s="3"/>
-      <c r="AR3" s="3"/>
-      <c r="AS3" s="3"/>
-      <c r="AT3" s="3"/>
-      <c r="AU3" s="3"/>
-      <c r="AV3" s="3"/>
-      <c r="AW3" s="3"/>
-      <c r="AX3" s="3"/>
-      <c r="AY3" s="3"/>
-      <c r="AZ3" s="3"/>
-      <c r="BA3" s="3"/>
-      <c r="BB3" s="3"/>
-      <c r="BC3" s="3"/>
-      <c r="BD3" s="3"/>
-      <c r="BE3" s="3"/>
-      <c r="BF3" s="3"/>
-    </row>
-    <row r="4" spans="1:58" ht="16.5">
-      <c r="A4" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="66"/>
-      <c r="AM4" s="66"/>
-      <c r="AN4" s="66"/>
-      <c r="AO4" s="66"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="66"/>
-      <c r="AR4" s="66"/>
-      <c r="AS4" s="66"/>
-      <c r="AT4" s="66"/>
-      <c r="AU4" s="66"/>
-      <c r="AV4" s="66"/>
-      <c r="AW4" s="66"/>
-      <c r="AX4" s="66"/>
-      <c r="AY4" s="66"/>
-      <c r="AZ4" s="66"/>
-      <c r="BA4" s="66"/>
-      <c r="BB4" s="66"/>
-      <c r="BC4" s="66"/>
-      <c r="BD4" s="66"/>
-      <c r="BE4" s="66"/>
-      <c r="BF4" s="66"/>
-    </row>
-    <row r="5" spans="1:58" ht="16.5">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-      <c r="AA5" s="3"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
-      <c r="AD5" s="3"/>
-      <c r="AE5" s="3"/>
-      <c r="AF5" s="3"/>
-      <c r="AG5" s="3"/>
-      <c r="AH5" s="3"/>
-      <c r="AI5" s="3"/>
-      <c r="AJ5" s="3"/>
-      <c r="AK5" s="3"/>
-      <c r="AL5" s="3"/>
-      <c r="AM5" s="3"/>
-      <c r="AN5" s="3"/>
-      <c r="AO5" s="3"/>
-      <c r="AP5" s="3"/>
-      <c r="AQ5" s="3"/>
-      <c r="AR5" s="3"/>
-      <c r="AS5" s="3"/>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="3"/>
-      <c r="AW5" s="3"/>
-      <c r="AX5" s="3"/>
-      <c r="AY5" s="3"/>
-      <c r="AZ5" s="3"/>
-      <c r="BA5" s="3"/>
-      <c r="BB5" s="3"/>
-      <c r="BC5" s="3"/>
-      <c r="BD5" s="3"/>
-      <c r="BE5" s="3"/>
-      <c r="BF5" s="3"/>
-    </row>
-    <row r="6" spans="1:58" ht="16.5" outlineLevel="1">
-      <c r="A6" s="3"/>
-      <c r="B6" s="67" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
-      <c r="AM6" s="3"/>
-      <c r="AN6" s="3"/>
-      <c r="AO6" s="3"/>
-      <c r="AP6" s="3"/>
-      <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
-      <c r="AT6" s="3"/>
-      <c r="AU6" s="3"/>
-      <c r="AV6" s="3"/>
-      <c r="AW6" s="3"/>
-      <c r="AX6" s="3"/>
-      <c r="AY6" s="3"/>
-      <c r="AZ6" s="3"/>
-      <c r="BA6" s="3"/>
-      <c r="BB6" s="3"/>
-      <c r="BC6" s="3"/>
-      <c r="BD6" s="3"/>
-      <c r="BE6" s="3"/>
-      <c r="BF6" s="3"/>
-    </row>
-    <row r="7" spans="1:58" ht="16.5" outlineLevel="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="96" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="93" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" s="94"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="94"/>
-      <c r="N7" s="94"/>
-      <c r="O7" s="94"/>
-      <c r="P7" s="94"/>
-      <c r="Q7" s="94"/>
-      <c r="R7" s="94"/>
-      <c r="S7" s="94"/>
-      <c r="T7" s="94"/>
-      <c r="U7" s="94"/>
-      <c r="V7" s="94"/>
-      <c r="W7" s="94"/>
-      <c r="X7" s="94"/>
-      <c r="Y7" s="94"/>
-      <c r="Z7" s="94"/>
-      <c r="AA7" s="94"/>
-      <c r="AB7" s="94"/>
-      <c r="AC7" s="94"/>
-      <c r="AD7" s="94"/>
-      <c r="AE7" s="94"/>
-      <c r="AF7" s="94"/>
-      <c r="AG7" s="94"/>
-      <c r="AH7" s="95"/>
-      <c r="AI7" s="3"/>
-      <c r="AJ7" s="3"/>
-      <c r="AK7" s="3"/>
-      <c r="AL7" s="3"/>
-      <c r="AM7" s="3"/>
-      <c r="AN7" s="3"/>
-      <c r="AO7" s="3"/>
-      <c r="AP7" s="3"/>
-      <c r="AQ7" s="3"/>
-      <c r="AR7" s="3"/>
-      <c r="AS7" s="3"/>
-      <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="3"/>
-      <c r="AW7" s="3"/>
-      <c r="AX7" s="3"/>
-      <c r="AY7" s="3"/>
-      <c r="AZ7" s="3"/>
-      <c r="BA7" s="3"/>
-      <c r="BB7" s="3"/>
-      <c r="BC7" s="3"/>
-      <c r="BD7" s="3"/>
-      <c r="BE7" s="3"/>
-      <c r="BF7" s="3"/>
-    </row>
-    <row r="8" spans="1:58" ht="16.5" outlineLevel="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="96" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="95"/>
-      <c r="I8" s="93" t="s">
-        <v>66</v>
-      </c>
-      <c r="J8" s="94"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94"/>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="94"/>
-      <c r="R8" s="94"/>
-      <c r="S8" s="94"/>
-      <c r="T8" s="94"/>
-      <c r="U8" s="94"/>
-      <c r="V8" s="94"/>
-      <c r="W8" s="94"/>
-      <c r="X8" s="94"/>
-      <c r="Y8" s="94"/>
-      <c r="Z8" s="94"/>
-      <c r="AA8" s="94"/>
-      <c r="AB8" s="94"/>
-      <c r="AC8" s="94"/>
-      <c r="AD8" s="94"/>
-      <c r="AE8" s="94"/>
-      <c r="AF8" s="94"/>
-      <c r="AG8" s="94"/>
-      <c r="AH8" s="95"/>
-      <c r="AI8" s="3"/>
-      <c r="AJ8" s="3"/>
-      <c r="AK8" s="3"/>
-      <c r="AL8" s="3"/>
-      <c r="AM8" s="3"/>
-      <c r="AN8" s="3"/>
-      <c r="AO8" s="3"/>
-      <c r="AP8" s="3"/>
-      <c r="AQ8" s="3"/>
-      <c r="AR8" s="3"/>
-      <c r="AS8" s="3"/>
-      <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
-      <c r="AY8" s="3"/>
-      <c r="AZ8" s="3"/>
-      <c r="BA8" s="3"/>
-      <c r="BB8" s="3"/>
-      <c r="BC8" s="3"/>
-      <c r="BD8" s="3"/>
-      <c r="BE8" s="3"/>
-      <c r="BF8" s="3"/>
-    </row>
-    <row r="9" spans="1:58" ht="16.5" outlineLevel="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="96" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="95"/>
-      <c r="I9" s="93" t="s">
-        <v>67</v>
-      </c>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="94"/>
-      <c r="S9" s="94"/>
-      <c r="T9" s="94"/>
-      <c r="U9" s="94"/>
-      <c r="V9" s="94"/>
-      <c r="W9" s="94"/>
-      <c r="X9" s="94"/>
-      <c r="Y9" s="94"/>
-      <c r="Z9" s="94"/>
-      <c r="AA9" s="94"/>
-      <c r="AB9" s="94"/>
-      <c r="AC9" s="94"/>
-      <c r="AD9" s="94"/>
-      <c r="AE9" s="94"/>
-      <c r="AF9" s="94"/>
-      <c r="AG9" s="94"/>
-      <c r="AH9" s="95"/>
-      <c r="AI9" s="3"/>
-      <c r="AJ9" s="3"/>
-      <c r="AK9" s="3"/>
-      <c r="AL9" s="3"/>
-      <c r="AM9" s="3"/>
-      <c r="AN9" s="3"/>
-      <c r="AO9" s="3"/>
-      <c r="AP9" s="3"/>
-      <c r="AQ9" s="3"/>
-      <c r="AR9" s="3"/>
-      <c r="AS9" s="3"/>
-      <c r="AT9" s="3"/>
-      <c r="AU9" s="3"/>
-      <c r="AV9" s="3"/>
-      <c r="AW9" s="3"/>
-      <c r="AX9" s="3"/>
-      <c r="AY9" s="3"/>
-      <c r="AZ9" s="3"/>
-      <c r="BA9" s="3"/>
-      <c r="BB9" s="3"/>
-      <c r="BC9" s="3"/>
-      <c r="BD9" s="3"/>
-      <c r="BE9" s="3"/>
-      <c r="BF9" s="3"/>
-    </row>
-    <row r="10" spans="1:58" ht="16.5" outlineLevel="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="96" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="95"/>
-      <c r="I10" s="93" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" s="94"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="94"/>
-      <c r="T10" s="94"/>
-      <c r="U10" s="94"/>
-      <c r="V10" s="94"/>
-      <c r="W10" s="94"/>
-      <c r="X10" s="94"/>
-      <c r="Y10" s="94"/>
-      <c r="Z10" s="94"/>
-      <c r="AA10" s="94"/>
-      <c r="AB10" s="94"/>
-      <c r="AC10" s="94"/>
-      <c r="AD10" s="94"/>
-      <c r="AE10" s="94"/>
-      <c r="AF10" s="94"/>
-      <c r="AG10" s="94"/>
-      <c r="AH10" s="95"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
-      <c r="AK10" s="3"/>
-      <c r="AL10" s="3"/>
-      <c r="AM10" s="3"/>
-      <c r="AN10" s="3"/>
-      <c r="AO10" s="3"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="3"/>
-      <c r="AT10" s="3"/>
-      <c r="AU10" s="3"/>
-      <c r="AV10" s="3"/>
-      <c r="AW10" s="3"/>
-      <c r="AX10" s="3"/>
-      <c r="AY10" s="3"/>
-      <c r="AZ10" s="3"/>
-      <c r="BA10" s="3"/>
-      <c r="BB10" s="3"/>
-      <c r="BC10" s="3"/>
-      <c r="BD10" s="3"/>
-      <c r="BE10" s="3"/>
-      <c r="BF10" s="3"/>
-    </row>
-    <row r="11" spans="1:58" ht="16.5" outlineLevel="1">
-      <c r="A11" s="3"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="68"/>
-      <c r="L11" s="68"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="68"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
-      <c r="X11" s="3"/>
-      <c r="Y11" s="3"/>
-      <c r="Z11" s="3"/>
-      <c r="AA11" s="3"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
-      <c r="AD11" s="3"/>
-      <c r="AE11" s="3"/>
-      <c r="AF11" s="3"/>
-      <c r="AG11" s="3"/>
-      <c r="AH11" s="3"/>
-      <c r="AI11" s="3"/>
-      <c r="AJ11" s="3"/>
-      <c r="AK11" s="3"/>
-      <c r="AL11" s="3"/>
-      <c r="AM11" s="3"/>
-      <c r="AN11" s="3"/>
-      <c r="AO11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AQ11" s="3"/>
-      <c r="AR11" s="3"/>
-      <c r="AS11" s="3"/>
-      <c r="AT11" s="3"/>
-      <c r="AU11" s="3"/>
-      <c r="AV11" s="3"/>
-      <c r="AW11" s="3"/>
-      <c r="AX11" s="3"/>
-      <c r="AY11" s="3"/>
-      <c r="AZ11" s="3"/>
-      <c r="BA11" s="3"/>
-      <c r="BB11" s="3"/>
-      <c r="BC11" s="3"/>
-      <c r="BD11" s="3"/>
-      <c r="BE11" s="3"/>
-      <c r="BF11" s="3"/>
-    </row>
-    <row r="12" spans="1:58" ht="16.5" outlineLevel="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
-      <c r="AG12" s="3"/>
-      <c r="AH12" s="3"/>
-      <c r="AI12" s="3"/>
-      <c r="AJ12" s="3"/>
-      <c r="AK12" s="3"/>
-      <c r="AL12" s="3"/>
-      <c r="AM12" s="3"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="3"/>
-      <c r="AP12" s="3"/>
-      <c r="AQ12" s="3"/>
-      <c r="AR12" s="3"/>
-      <c r="AS12" s="3"/>
-      <c r="AT12" s="3"/>
-      <c r="AU12" s="3"/>
-      <c r="AV12" s="3"/>
-      <c r="AW12" s="3"/>
-      <c r="AX12" s="3"/>
-      <c r="AY12" s="3"/>
-      <c r="AZ12" s="3"/>
-      <c r="BA12" s="3"/>
-      <c r="BB12" s="3"/>
-      <c r="BC12" s="3"/>
-      <c r="BD12" s="3"/>
-      <c r="BE12" s="3"/>
-      <c r="BF12" s="3"/>
-    </row>
-    <row r="13" spans="1:58" s="71" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A13" s="68"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="70" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="68"/>
-      <c r="R13" s="68"/>
-      <c r="S13" s="68"/>
-      <c r="T13" s="68"/>
-      <c r="U13" s="68"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="68"/>
-      <c r="X13" s="68"/>
-      <c r="Y13" s="68"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="68"/>
-      <c r="AB13" s="68"/>
-      <c r="AC13" s="68"/>
-      <c r="AD13" s="68"/>
-      <c r="AE13" s="68"/>
-      <c r="AF13" s="68"/>
-      <c r="AG13" s="68"/>
-      <c r="AH13" s="68"/>
-      <c r="AI13" s="68"/>
-      <c r="AJ13" s="68"/>
-      <c r="AK13" s="68"/>
-      <c r="AL13" s="68"/>
-      <c r="AM13" s="68"/>
-      <c r="AN13" s="68"/>
-      <c r="AO13" s="68"/>
-      <c r="AP13" s="68"/>
-      <c r="AQ13" s="68"/>
-      <c r="AR13" s="68"/>
-      <c r="AS13" s="68"/>
-      <c r="AT13" s="68"/>
-      <c r="AU13" s="68"/>
-      <c r="AV13" s="68"/>
-      <c r="AW13" s="68"/>
-      <c r="AX13" s="68"/>
-      <c r="AY13" s="68"/>
-      <c r="AZ13" s="68"/>
-      <c r="BA13" s="68"/>
-      <c r="BB13" s="68"/>
-      <c r="BC13" s="68"/>
-      <c r="BD13" s="68"/>
-      <c r="BE13" s="68"/>
-      <c r="BF13" s="68"/>
-    </row>
-    <row r="14" spans="1:58" s="71" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A14" s="68"/>
-      <c r="B14" s="67"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
-      <c r="R14" s="68"/>
-      <c r="S14" s="68"/>
-      <c r="T14" s="68"/>
-      <c r="U14" s="68"/>
-      <c r="V14" s="68"/>
-      <c r="W14" s="68"/>
-      <c r="X14" s="68"/>
-      <c r="Y14" s="68"/>
-      <c r="Z14" s="68"/>
-      <c r="AA14" s="68"/>
-      <c r="AB14" s="68"/>
-      <c r="AC14" s="68"/>
-      <c r="AD14" s="68"/>
-      <c r="AE14" s="68"/>
-      <c r="AF14" s="68"/>
-      <c r="AG14" s="68"/>
-      <c r="AH14" s="68"/>
-      <c r="AI14" s="68"/>
-      <c r="AJ14" s="68"/>
-      <c r="AK14" s="68"/>
-      <c r="AL14" s="68"/>
-      <c r="AM14" s="68"/>
-      <c r="AN14" s="68"/>
-      <c r="AO14" s="68"/>
-      <c r="AP14" s="68"/>
-      <c r="AQ14" s="68"/>
-      <c r="AR14" s="68"/>
-      <c r="AS14" s="68"/>
-      <c r="AT14" s="68"/>
-      <c r="AU14" s="68"/>
-      <c r="AV14" s="68"/>
-      <c r="AW14" s="68"/>
-      <c r="AX14" s="68"/>
-      <c r="AY14" s="68"/>
-      <c r="AZ14" s="68"/>
-      <c r="BA14" s="68"/>
-      <c r="BB14" s="68"/>
-      <c r="BC14" s="68"/>
-      <c r="BD14" s="68"/>
-      <c r="BE14" s="68"/>
-      <c r="BF14" s="68"/>
-    </row>
-    <row r="15" spans="1:58" s="71" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A15" s="68"/>
-      <c r="B15" s="67"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="68"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="68"/>
-      <c r="N15" s="68"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="68"/>
-      <c r="Q15" s="68"/>
-      <c r="R15" s="68"/>
-      <c r="S15" s="68"/>
-      <c r="T15" s="68"/>
-      <c r="U15" s="68"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="68"/>
-      <c r="X15" s="68"/>
-      <c r="Y15" s="68"/>
-      <c r="Z15" s="68"/>
-      <c r="AA15" s="68"/>
-      <c r="AB15" s="68"/>
-      <c r="AC15" s="68"/>
-      <c r="AD15" s="68"/>
-      <c r="AE15" s="68"/>
-      <c r="AF15" s="68"/>
-      <c r="AG15" s="68"/>
-      <c r="AH15" s="68"/>
-      <c r="AI15" s="68"/>
-      <c r="AJ15" s="68"/>
-      <c r="AK15" s="68"/>
-      <c r="AL15" s="68"/>
-      <c r="AM15" s="68"/>
-      <c r="AN15" s="68"/>
-      <c r="AO15" s="68"/>
-      <c r="AP15" s="68"/>
-      <c r="AQ15" s="68"/>
-      <c r="AR15" s="68"/>
-      <c r="AS15" s="68"/>
-      <c r="AT15" s="68"/>
-      <c r="AU15" s="68"/>
-      <c r="AV15" s="68"/>
-      <c r="AW15" s="68"/>
-      <c r="AX15" s="68"/>
-      <c r="AY15" s="68"/>
-      <c r="AZ15" s="68"/>
-      <c r="BA15" s="68"/>
-      <c r="BB15" s="68"/>
-      <c r="BC15" s="68"/>
-      <c r="BD15" s="68"/>
-      <c r="BE15" s="68"/>
-      <c r="BF15" s="68"/>
-    </row>
-    <row r="16" spans="1:58" s="71" customFormat="1" ht="16.5" outlineLevel="1">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5"/>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5"/>
-      <c r="AD16" s="5"/>
-      <c r="AE16" s="5"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="5"/>
-      <c r="AH16" s="5"/>
-      <c r="AI16" s="68"/>
-      <c r="AJ16" s="68"/>
-      <c r="AK16" s="68"/>
-      <c r="AL16" s="68"/>
-      <c r="AM16" s="68"/>
-      <c r="AN16" s="68"/>
-      <c r="AO16" s="68"/>
-      <c r="AP16" s="68"/>
-      <c r="AQ16" s="68"/>
-      <c r="AR16" s="68"/>
-      <c r="AS16" s="68"/>
-      <c r="AT16" s="68"/>
-      <c r="AU16" s="68"/>
-      <c r="AV16" s="68"/>
-      <c r="AW16" s="68"/>
-      <c r="AX16" s="68"/>
-      <c r="AY16" s="68"/>
-      <c r="AZ16" s="68"/>
-      <c r="BA16" s="68"/>
-      <c r="BB16" s="68"/>
-      <c r="BC16" s="68"/>
-      <c r="BD16" s="68"/>
-      <c r="BE16" s="68"/>
-      <c r="BF16" s="68"/>
-    </row>
-    <row r="17" spans="1:58" s="71" customFormat="1" ht="16.5">
-      <c r="A17" s="68"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="68"/>
-      <c r="H17" s="68"/>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="68"/>
-      <c r="U17" s="68"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="68"/>
-      <c r="Y17" s="68"/>
-      <c r="Z17" s="68"/>
-      <c r="AA17" s="68"/>
-      <c r="AB17" s="68"/>
-      <c r="AC17" s="68"/>
-      <c r="AD17" s="68"/>
-      <c r="AE17" s="68"/>
-      <c r="AF17" s="68"/>
-      <c r="AG17" s="68"/>
-      <c r="AH17" s="68"/>
-      <c r="AI17" s="68"/>
-      <c r="AJ17" s="68"/>
-      <c r="AK17" s="68"/>
-      <c r="AL17" s="68"/>
-      <c r="AM17" s="68"/>
-      <c r="AN17" s="68"/>
-      <c r="AO17" s="68"/>
-      <c r="AP17" s="68"/>
-      <c r="AQ17" s="68"/>
-      <c r="AR17" s="68"/>
-      <c r="AS17" s="68"/>
-      <c r="AT17" s="68"/>
-      <c r="AU17" s="68"/>
-      <c r="AV17" s="68"/>
-      <c r="AW17" s="68"/>
-      <c r="AX17" s="68"/>
-      <c r="AY17" s="68"/>
-      <c r="AZ17" s="68"/>
-      <c r="BA17" s="68"/>
-      <c r="BB17" s="68"/>
-      <c r="BC17" s="68"/>
-      <c r="BD17" s="68"/>
-      <c r="BE17" s="68"/>
-      <c r="BF17" s="68"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="I10:AH10"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="I7:AH7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I8:AH8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="I9:AH9"/>
-  </mergeCells>
-  <phoneticPr fontId="8"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="40" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/ha-asset/01_design/03_batch/設計書_3.1.ヘルスチェックバッチ.xlsx
+++ b/ha-asset/01_design/03_batch/設計書_3.1.ヘルスチェックバッチ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\03_batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF031C6-7A3B-4477-92D2-ED5ED8E453FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F192AF-6179-47D0-8800-ABD7D3901394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="255" yWindow="945" windowWidth="22770" windowHeight="16080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2190" yWindow="1215" windowWidth="22770" windowHeight="16080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -690,6 +690,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -704,14 +707,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -724,28 +734,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1035,681 +1035,681 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="3"/>
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63" t="s">
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="62"/>
-      <c r="J3" s="63" t="s">
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="62"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="65"/>
       <c r="AA3" s="3"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="3"/>
-      <c r="B4" s="64">
+      <c r="B4" s="67">
         <v>44150</v>
       </c>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="65" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="62"/>
-      <c r="J4" s="60" t="s">
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="62"/>
+      <c r="K4" s="64"/>
+      <c r="L4" s="64"/>
+      <c r="M4" s="64"/>
+      <c r="N4" s="64"/>
+      <c r="O4" s="64"/>
+      <c r="P4" s="64"/>
+      <c r="Q4" s="64"/>
+      <c r="R4" s="64"/>
+      <c r="S4" s="64"/>
+      <c r="T4" s="64"/>
+      <c r="U4" s="64"/>
+      <c r="V4" s="64"/>
+      <c r="W4" s="64"/>
+      <c r="X4" s="64"/>
+      <c r="Y4" s="64"/>
+      <c r="Z4" s="65"/>
       <c r="AA4" s="3"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="3"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61"/>
-      <c r="H5" s="61"/>
-      <c r="I5" s="62"/>
-      <c r="J5" s="60"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
-      <c r="S5" s="61"/>
-      <c r="T5" s="61"/>
-      <c r="U5" s="61"/>
-      <c r="V5" s="61"/>
-      <c r="W5" s="61"/>
-      <c r="X5" s="61"/>
-      <c r="Y5" s="61"/>
-      <c r="Z5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="63"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="64"/>
+      <c r="L5" s="64"/>
+      <c r="M5" s="64"/>
+      <c r="N5" s="64"/>
+      <c r="O5" s="64"/>
+      <c r="P5" s="64"/>
+      <c r="Q5" s="64"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="64"/>
+      <c r="U5" s="64"/>
+      <c r="V5" s="64"/>
+      <c r="W5" s="64"/>
+      <c r="X5" s="64"/>
+      <c r="Y5" s="64"/>
+      <c r="Z5" s="65"/>
       <c r="AA5" s="3"/>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="3"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="62"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="61"/>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="64"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="64"/>
+      <c r="M6" s="64"/>
+      <c r="N6" s="64"/>
+      <c r="O6" s="64"/>
+      <c r="P6" s="64"/>
+      <c r="Q6" s="64"/>
+      <c r="R6" s="64"/>
+      <c r="S6" s="64"/>
+      <c r="T6" s="64"/>
+      <c r="U6" s="64"/>
+      <c r="V6" s="64"/>
+      <c r="W6" s="64"/>
+      <c r="X6" s="64"/>
+      <c r="Y6" s="64"/>
+      <c r="Z6" s="65"/>
       <c r="AA6" s="3"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="3"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="61"/>
-      <c r="U7" s="61"/>
-      <c r="V7" s="61"/>
-      <c r="W7" s="61"/>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="61"/>
-      <c r="Z7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="64"/>
+      <c r="O7" s="64"/>
+      <c r="P7" s="64"/>
+      <c r="Q7" s="64"/>
+      <c r="R7" s="64"/>
+      <c r="S7" s="64"/>
+      <c r="T7" s="64"/>
+      <c r="U7" s="64"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="64"/>
+      <c r="X7" s="64"/>
+      <c r="Y7" s="64"/>
+      <c r="Z7" s="65"/>
       <c r="AA7" s="3"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="3"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="61"/>
-      <c r="I8" s="62"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="61"/>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="61"/>
-      <c r="U8" s="61"/>
-      <c r="V8" s="61"/>
-      <c r="W8" s="61"/>
-      <c r="X8" s="61"/>
-      <c r="Y8" s="61"/>
-      <c r="Z8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="63"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="63"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="64"/>
+      <c r="P8" s="64"/>
+      <c r="Q8" s="64"/>
+      <c r="R8" s="64"/>
+      <c r="S8" s="64"/>
+      <c r="T8" s="64"/>
+      <c r="U8" s="64"/>
+      <c r="V8" s="64"/>
+      <c r="W8" s="64"/>
+      <c r="X8" s="64"/>
+      <c r="Y8" s="64"/>
+      <c r="Z8" s="65"/>
       <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="3"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="61"/>
-      <c r="P9" s="61"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="61"/>
-      <c r="S9" s="61"/>
-      <c r="T9" s="61"/>
-      <c r="U9" s="61"/>
-      <c r="V9" s="61"/>
-      <c r="W9" s="61"/>
-      <c r="X9" s="61"/>
-      <c r="Y9" s="61"/>
-      <c r="Z9" s="62"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="63"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="64"/>
+      <c r="U9" s="64"/>
+      <c r="V9" s="64"/>
+      <c r="W9" s="64"/>
+      <c r="X9" s="64"/>
+      <c r="Y9" s="64"/>
+      <c r="Z9" s="65"/>
       <c r="AA9" s="3"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="3"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61"/>
-      <c r="H10" s="61"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="61"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="61"/>
-      <c r="R10" s="61"/>
-      <c r="S10" s="61"/>
-      <c r="T10" s="61"/>
-      <c r="U10" s="61"/>
-      <c r="V10" s="61"/>
-      <c r="W10" s="61"/>
-      <c r="X10" s="61"/>
-      <c r="Y10" s="61"/>
-      <c r="Z10" s="62"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="63"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="64"/>
+      <c r="V10" s="64"/>
+      <c r="W10" s="64"/>
+      <c r="X10" s="64"/>
+      <c r="Y10" s="64"/>
+      <c r="Z10" s="65"/>
       <c r="AA10" s="3"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="3"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="60"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="61"/>
-      <c r="O11" s="61"/>
-      <c r="P11" s="61"/>
-      <c r="Q11" s="61"/>
-      <c r="R11" s="61"/>
-      <c r="S11" s="61"/>
-      <c r="T11" s="61"/>
-      <c r="U11" s="61"/>
-      <c r="V11" s="61"/>
-      <c r="W11" s="61"/>
-      <c r="X11" s="61"/>
-      <c r="Y11" s="61"/>
-      <c r="Z11" s="62"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="63"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="64"/>
+      <c r="V11" s="64"/>
+      <c r="W11" s="64"/>
+      <c r="X11" s="64"/>
+      <c r="Y11" s="64"/>
+      <c r="Z11" s="65"/>
       <c r="AA11" s="3"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="3"/>
-      <c r="B12" s="60"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="60"/>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="61"/>
-      <c r="N12" s="61"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="61"/>
-      <c r="Q12" s="61"/>
-      <c r="R12" s="61"/>
-      <c r="S12" s="61"/>
-      <c r="T12" s="61"/>
-      <c r="U12" s="61"/>
-      <c r="V12" s="61"/>
-      <c r="W12" s="61"/>
-      <c r="X12" s="61"/>
-      <c r="Y12" s="61"/>
-      <c r="Z12" s="62"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="64"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="64"/>
+      <c r="V12" s="64"/>
+      <c r="W12" s="64"/>
+      <c r="X12" s="64"/>
+      <c r="Y12" s="64"/>
+      <c r="Z12" s="65"/>
       <c r="AA12" s="3"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="3"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="61"/>
-      <c r="U13" s="61"/>
-      <c r="V13" s="61"/>
-      <c r="W13" s="61"/>
-      <c r="X13" s="61"/>
-      <c r="Y13" s="61"/>
-      <c r="Z13" s="62"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="64"/>
+      <c r="U13" s="64"/>
+      <c r="V13" s="64"/>
+      <c r="W13" s="64"/>
+      <c r="X13" s="64"/>
+      <c r="Y13" s="64"/>
+      <c r="Z13" s="65"/>
       <c r="AA13" s="3"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="3"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="60"/>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="61"/>
-      <c r="O14" s="61"/>
-      <c r="P14" s="61"/>
-      <c r="Q14" s="61"/>
-      <c r="R14" s="61"/>
-      <c r="S14" s="61"/>
-      <c r="T14" s="61"/>
-      <c r="U14" s="61"/>
-      <c r="V14" s="61"/>
-      <c r="W14" s="61"/>
-      <c r="X14" s="61"/>
-      <c r="Y14" s="61"/>
-      <c r="Z14" s="62"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="64"/>
+      <c r="W14" s="64"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="65"/>
       <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="3"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="61"/>
-      <c r="N15" s="61"/>
-      <c r="O15" s="61"/>
-      <c r="P15" s="61"/>
-      <c r="Q15" s="61"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="61"/>
-      <c r="T15" s="61"/>
-      <c r="U15" s="61"/>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
-      <c r="Y15" s="61"/>
-      <c r="Z15" s="62"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="64"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="64"/>
+      <c r="V15" s="64"/>
+      <c r="W15" s="64"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="65"/>
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="3"/>
-      <c r="B16" s="60"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61"/>
-      <c r="M16" s="61"/>
-      <c r="N16" s="61"/>
-      <c r="O16" s="61"/>
-      <c r="P16" s="61"/>
-      <c r="Q16" s="61"/>
-      <c r="R16" s="61"/>
-      <c r="S16" s="61"/>
-      <c r="T16" s="61"/>
-      <c r="U16" s="61"/>
-      <c r="V16" s="61"/>
-      <c r="W16" s="61"/>
-      <c r="X16" s="61"/>
-      <c r="Y16" s="61"/>
-      <c r="Z16" s="62"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="63"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="65"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="64"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="64"/>
+      <c r="U16" s="64"/>
+      <c r="V16" s="64"/>
+      <c r="W16" s="64"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="65"/>
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="3"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="60"/>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="61"/>
-      <c r="N17" s="61"/>
-      <c r="O17" s="61"/>
-      <c r="P17" s="61"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="61"/>
-      <c r="V17" s="61"/>
-      <c r="W17" s="61"/>
-      <c r="X17" s="61"/>
-      <c r="Y17" s="61"/>
-      <c r="Z17" s="62"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="64"/>
+      <c r="M17" s="64"/>
+      <c r="N17" s="64"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="64"/>
+      <c r="U17" s="64"/>
+      <c r="V17" s="64"/>
+      <c r="W17" s="64"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="65"/>
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="3"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="60"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="61"/>
-      <c r="N18" s="61"/>
-      <c r="O18" s="61"/>
-      <c r="P18" s="61"/>
-      <c r="Q18" s="61"/>
-      <c r="R18" s="61"/>
-      <c r="S18" s="61"/>
-      <c r="T18" s="61"/>
-      <c r="U18" s="61"/>
-      <c r="V18" s="61"/>
-      <c r="W18" s="61"/>
-      <c r="X18" s="61"/>
-      <c r="Y18" s="61"/>
-      <c r="Z18" s="62"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="64"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="65"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="64"/>
+      <c r="L18" s="64"/>
+      <c r="M18" s="64"/>
+      <c r="N18" s="64"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="64"/>
+      <c r="X18" s="64"/>
+      <c r="Y18" s="64"/>
+      <c r="Z18" s="65"/>
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="3"/>
-      <c r="B19" s="60"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="61"/>
-      <c r="O19" s="61"/>
-      <c r="P19" s="61"/>
-      <c r="Q19" s="61"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="61"/>
-      <c r="V19" s="61"/>
-      <c r="W19" s="61"/>
-      <c r="X19" s="61"/>
-      <c r="Y19" s="61"/>
-      <c r="Z19" s="62"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="64"/>
+      <c r="L19" s="64"/>
+      <c r="M19" s="64"/>
+      <c r="N19" s="64"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="64"/>
+      <c r="T19" s="64"/>
+      <c r="U19" s="64"/>
+      <c r="V19" s="64"/>
+      <c r="W19" s="64"/>
+      <c r="X19" s="64"/>
+      <c r="Y19" s="64"/>
+      <c r="Z19" s="65"/>
       <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="3"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="61"/>
-      <c r="L20" s="61"/>
-      <c r="M20" s="61"/>
-      <c r="N20" s="61"/>
-      <c r="O20" s="61"/>
-      <c r="P20" s="61"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="61"/>
-      <c r="U20" s="61"/>
-      <c r="V20" s="61"/>
-      <c r="W20" s="61"/>
-      <c r="X20" s="61"/>
-      <c r="Y20" s="61"/>
-      <c r="Z20" s="62"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="64"/>
+      <c r="L20" s="64"/>
+      <c r="M20" s="64"/>
+      <c r="N20" s="64"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="64"/>
+      <c r="T20" s="64"/>
+      <c r="U20" s="64"/>
+      <c r="V20" s="64"/>
+      <c r="W20" s="64"/>
+      <c r="X20" s="64"/>
+      <c r="Y20" s="64"/>
+      <c r="Z20" s="65"/>
       <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="3"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="61"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="61"/>
-      <c r="N21" s="61"/>
-      <c r="O21" s="61"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
-      <c r="S21" s="61"/>
-      <c r="T21" s="61"/>
-      <c r="U21" s="61"/>
-      <c r="V21" s="61"/>
-      <c r="W21" s="61"/>
-      <c r="X21" s="61"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="62"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="64"/>
+      <c r="M21" s="64"/>
+      <c r="N21" s="64"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="64"/>
+      <c r="U21" s="64"/>
+      <c r="V21" s="64"/>
+      <c r="W21" s="64"/>
+      <c r="X21" s="64"/>
+      <c r="Y21" s="64"/>
+      <c r="Z21" s="65"/>
       <c r="AA21" s="3"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="3"/>
-      <c r="B22" s="60"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="61"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="60"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="61"/>
-      <c r="N22" s="61"/>
-      <c r="O22" s="61"/>
-      <c r="P22" s="61"/>
-      <c r="Q22" s="61"/>
-      <c r="R22" s="61"/>
-      <c r="S22" s="61"/>
-      <c r="T22" s="61"/>
-      <c r="U22" s="61"/>
-      <c r="V22" s="61"/>
-      <c r="W22" s="61"/>
-      <c r="X22" s="61"/>
-      <c r="Y22" s="61"/>
-      <c r="Z22" s="62"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
+      <c r="N22" s="64"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="64"/>
+      <c r="U22" s="64"/>
+      <c r="V22" s="64"/>
+      <c r="W22" s="64"/>
+      <c r="X22" s="64"/>
+      <c r="Y22" s="64"/>
+      <c r="Z22" s="65"/>
       <c r="AA22" s="3"/>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="3"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="60"/>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="61"/>
-      <c r="N23" s="61"/>
-      <c r="O23" s="61"/>
-      <c r="P23" s="61"/>
-      <c r="Q23" s="61"/>
-      <c r="R23" s="61"/>
-      <c r="S23" s="61"/>
-      <c r="T23" s="61"/>
-      <c r="U23" s="61"/>
-      <c r="V23" s="61"/>
-      <c r="W23" s="61"/>
-      <c r="X23" s="61"/>
-      <c r="Y23" s="61"/>
-      <c r="Z23" s="62"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="64"/>
+      <c r="N23" s="64"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="64"/>
+      <c r="T23" s="64"/>
+      <c r="U23" s="64"/>
+      <c r="V23" s="64"/>
+      <c r="W23" s="64"/>
+      <c r="X23" s="64"/>
+      <c r="Y23" s="64"/>
+      <c r="Z23" s="65"/>
       <c r="AA23" s="3"/>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="3"/>
-      <c r="B24" s="60"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="61"/>
-      <c r="H24" s="61"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="61"/>
-      <c r="N24" s="61"/>
-      <c r="O24" s="61"/>
-      <c r="P24" s="61"/>
-      <c r="Q24" s="61"/>
-      <c r="R24" s="61"/>
-      <c r="S24" s="61"/>
-      <c r="T24" s="61"/>
-      <c r="U24" s="61"/>
-      <c r="V24" s="61"/>
-      <c r="W24" s="61"/>
-      <c r="X24" s="61"/>
-      <c r="Y24" s="61"/>
-      <c r="Z24" s="62"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="64"/>
+      <c r="H24" s="64"/>
+      <c r="I24" s="65"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="64"/>
+      <c r="N24" s="64"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="64"/>
+      <c r="T24" s="64"/>
+      <c r="U24" s="64"/>
+      <c r="V24" s="64"/>
+      <c r="W24" s="64"/>
+      <c r="X24" s="64"/>
+      <c r="Y24" s="64"/>
+      <c r="Z24" s="65"/>
       <c r="AA24" s="3"/>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="3"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="60"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="60"/>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="61"/>
-      <c r="R25" s="61"/>
-      <c r="S25" s="61"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="61"/>
-      <c r="V25" s="61"/>
-      <c r="W25" s="61"/>
-      <c r="X25" s="61"/>
-      <c r="Y25" s="61"/>
-      <c r="Z25" s="62"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
+      <c r="E25" s="65"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="65"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="64"/>
+      <c r="N25" s="64"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="64"/>
+      <c r="T25" s="64"/>
+      <c r="U25" s="64"/>
+      <c r="V25" s="64"/>
+      <c r="W25" s="64"/>
+      <c r="X25" s="64"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="65"/>
       <c r="AA25" s="3"/>
     </row>
     <row r="26" spans="1:27">
@@ -1772,6 +1772,66 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="J14:Z14"/>
     <mergeCell ref="B12:E12"/>
@@ -1781,66 +1841,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:Z13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3463,9 +3463,7 @@
   </sheetPr>
   <dimension ref="A1:BL35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:BJ9"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -3838,308 +3836,308 @@
       <c r="AF6" s="11"/>
       <c r="AG6" s="11"/>
       <c r="AH6" s="11"/>
-      <c r="AI6" s="80"/>
-      <c r="AJ6" s="80"/>
-      <c r="AK6" s="80"/>
-      <c r="AL6" s="80"/>
-      <c r="AM6" s="80"/>
-      <c r="AN6" s="80"/>
-      <c r="AO6" s="80"/>
-      <c r="AP6" s="80"/>
-      <c r="AQ6" s="80"/>
-      <c r="AR6" s="80"/>
-      <c r="AS6" s="80"/>
-      <c r="AT6" s="80"/>
-      <c r="AU6" s="80"/>
-      <c r="AV6" s="80"/>
-      <c r="AW6" s="80"/>
-      <c r="AX6" s="80"/>
-      <c r="AY6" s="80"/>
-      <c r="AZ6" s="80"/>
-      <c r="BA6" s="80"/>
-      <c r="BB6" s="80"/>
-      <c r="BC6" s="80"/>
-      <c r="BD6" s="80"/>
-      <c r="BE6" s="80"/>
-      <c r="BF6" s="80"/>
-      <c r="BG6" s="80"/>
-      <c r="BH6" s="80"/>
-      <c r="BI6" s="80"/>
-      <c r="BJ6" s="81"/>
-      <c r="BK6" s="82"/>
+      <c r="AI6" s="60"/>
+      <c r="AJ6" s="60"/>
+      <c r="AK6" s="60"/>
+      <c r="AL6" s="60"/>
+      <c r="AM6" s="60"/>
+      <c r="AN6" s="60"/>
+      <c r="AO6" s="60"/>
+      <c r="AP6" s="60"/>
+      <c r="AQ6" s="60"/>
+      <c r="AR6" s="60"/>
+      <c r="AS6" s="60"/>
+      <c r="AT6" s="60"/>
+      <c r="AU6" s="60"/>
+      <c r="AV6" s="60"/>
+      <c r="AW6" s="60"/>
+      <c r="AX6" s="60"/>
+      <c r="AY6" s="60"/>
+      <c r="AZ6" s="60"/>
+      <c r="BA6" s="60"/>
+      <c r="BB6" s="60"/>
+      <c r="BC6" s="60"/>
+      <c r="BD6" s="60"/>
+      <c r="BE6" s="60"/>
+      <c r="BF6" s="60"/>
+      <c r="BG6" s="60"/>
+      <c r="BH6" s="60"/>
+      <c r="BI6" s="60"/>
+      <c r="BJ6" s="61"/>
+      <c r="BK6" s="62"/>
     </row>
     <row r="7" spans="1:64" ht="16.5" outlineLevel="1">
       <c r="A7" s="5"/>
       <c r="B7" s="12"/>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="83" t="s">
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="83"/>
-      <c r="K7" s="83"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="83"/>
-      <c r="T7" s="83"/>
-      <c r="U7" s="83"/>
-      <c r="V7" s="83"/>
-      <c r="W7" s="83"/>
-      <c r="X7" s="83"/>
-      <c r="Y7" s="83"/>
-      <c r="Z7" s="83"/>
-      <c r="AA7" s="83"/>
-      <c r="AB7" s="83"/>
-      <c r="AC7" s="83"/>
-      <c r="AD7" s="83"/>
-      <c r="AE7" s="83"/>
-      <c r="AF7" s="83"/>
-      <c r="AG7" s="83"/>
-      <c r="AH7" s="83"/>
-      <c r="AI7" s="83"/>
-      <c r="AJ7" s="83"/>
-      <c r="AK7" s="83"/>
-      <c r="AL7" s="83"/>
-      <c r="AM7" s="83"/>
-      <c r="AN7" s="83"/>
-      <c r="AO7" s="83"/>
-      <c r="AP7" s="83"/>
-      <c r="AQ7" s="83"/>
-      <c r="AR7" s="83"/>
-      <c r="AS7" s="83"/>
-      <c r="AT7" s="83"/>
-      <c r="AU7" s="83"/>
-      <c r="AV7" s="83"/>
-      <c r="AW7" s="83"/>
-      <c r="AX7" s="83"/>
-      <c r="AY7" s="83"/>
-      <c r="AZ7" s="83"/>
-      <c r="BA7" s="83"/>
-      <c r="BB7" s="83"/>
-      <c r="BC7" s="83"/>
-      <c r="BD7" s="83"/>
-      <c r="BE7" s="83"/>
-      <c r="BF7" s="83"/>
-      <c r="BG7" s="83"/>
-      <c r="BH7" s="83"/>
-      <c r="BI7" s="83"/>
-      <c r="BJ7" s="83"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="72"/>
+      <c r="M7" s="72"/>
+      <c r="N7" s="72"/>
+      <c r="O7" s="72"/>
+      <c r="P7" s="72"/>
+      <c r="Q7" s="72"/>
+      <c r="R7" s="72"/>
+      <c r="S7" s="72"/>
+      <c r="T7" s="72"/>
+      <c r="U7" s="72"/>
+      <c r="V7" s="72"/>
+      <c r="W7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="72"/>
+      <c r="AB7" s="72"/>
+      <c r="AC7" s="72"/>
+      <c r="AD7" s="72"/>
+      <c r="AE7" s="72"/>
+      <c r="AF7" s="72"/>
+      <c r="AG7" s="72"/>
+      <c r="AH7" s="72"/>
+      <c r="AI7" s="72"/>
+      <c r="AJ7" s="72"/>
+      <c r="AK7" s="72"/>
+      <c r="AL7" s="72"/>
+      <c r="AM7" s="72"/>
+      <c r="AN7" s="72"/>
+      <c r="AO7" s="72"/>
+      <c r="AP7" s="72"/>
+      <c r="AQ7" s="72"/>
+      <c r="AR7" s="72"/>
+      <c r="AS7" s="72"/>
+      <c r="AT7" s="72"/>
+      <c r="AU7" s="72"/>
+      <c r="AV7" s="72"/>
+      <c r="AW7" s="72"/>
+      <c r="AX7" s="72"/>
+      <c r="AY7" s="72"/>
+      <c r="AZ7" s="72"/>
+      <c r="BA7" s="72"/>
+      <c r="BB7" s="72"/>
+      <c r="BC7" s="72"/>
+      <c r="BD7" s="72"/>
+      <c r="BE7" s="72"/>
+      <c r="BF7" s="72"/>
+      <c r="BG7" s="72"/>
+      <c r="BH7" s="72"/>
+      <c r="BI7" s="72"/>
+      <c r="BJ7" s="72"/>
       <c r="BK7" s="5"/>
     </row>
     <row r="8" spans="1:64" ht="16.5" outlineLevel="1">
       <c r="A8" s="5"/>
       <c r="B8" s="12"/>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="61"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="84" t="s">
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="73" t="s">
         <v>58</v>
       </c>
-      <c r="J8" s="84"/>
-      <c r="K8" s="84"/>
-      <c r="L8" s="84"/>
-      <c r="M8" s="84"/>
-      <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="84"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="84"/>
-      <c r="S8" s="84"/>
-      <c r="T8" s="84"/>
-      <c r="U8" s="84"/>
-      <c r="V8" s="84"/>
-      <c r="W8" s="84"/>
-      <c r="X8" s="84"/>
-      <c r="Y8" s="84"/>
-      <c r="Z8" s="84"/>
-      <c r="AA8" s="84"/>
-      <c r="AB8" s="84"/>
-      <c r="AC8" s="84"/>
-      <c r="AD8" s="84"/>
-      <c r="AE8" s="84"/>
-      <c r="AF8" s="84"/>
-      <c r="AG8" s="84"/>
-      <c r="AH8" s="84"/>
-      <c r="AI8" s="84"/>
-      <c r="AJ8" s="84"/>
-      <c r="AK8" s="84"/>
-      <c r="AL8" s="84"/>
-      <c r="AM8" s="84"/>
-      <c r="AN8" s="84"/>
-      <c r="AO8" s="84"/>
-      <c r="AP8" s="84"/>
-      <c r="AQ8" s="84"/>
-      <c r="AR8" s="84"/>
-      <c r="AS8" s="84"/>
-      <c r="AT8" s="84"/>
-      <c r="AU8" s="84"/>
-      <c r="AV8" s="84"/>
-      <c r="AW8" s="84"/>
-      <c r="AX8" s="84"/>
-      <c r="AY8" s="84"/>
-      <c r="AZ8" s="84"/>
-      <c r="BA8" s="84"/>
-      <c r="BB8" s="84"/>
-      <c r="BC8" s="84"/>
-      <c r="BD8" s="84"/>
-      <c r="BE8" s="84"/>
-      <c r="BF8" s="84"/>
-      <c r="BG8" s="84"/>
-      <c r="BH8" s="84"/>
-      <c r="BI8" s="84"/>
-      <c r="BJ8" s="84"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="73"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="73"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="73"/>
+      <c r="AA8" s="73"/>
+      <c r="AB8" s="73"/>
+      <c r="AC8" s="73"/>
+      <c r="AD8" s="73"/>
+      <c r="AE8" s="73"/>
+      <c r="AF8" s="73"/>
+      <c r="AG8" s="73"/>
+      <c r="AH8" s="73"/>
+      <c r="AI8" s="73"/>
+      <c r="AJ8" s="73"/>
+      <c r="AK8" s="73"/>
+      <c r="AL8" s="73"/>
+      <c r="AM8" s="73"/>
+      <c r="AN8" s="73"/>
+      <c r="AO8" s="73"/>
+      <c r="AP8" s="73"/>
+      <c r="AQ8" s="73"/>
+      <c r="AR8" s="73"/>
+      <c r="AS8" s="73"/>
+      <c r="AT8" s="73"/>
+      <c r="AU8" s="73"/>
+      <c r="AV8" s="73"/>
+      <c r="AW8" s="73"/>
+      <c r="AX8" s="73"/>
+      <c r="AY8" s="73"/>
+      <c r="AZ8" s="73"/>
+      <c r="BA8" s="73"/>
+      <c r="BB8" s="73"/>
+      <c r="BC8" s="73"/>
+      <c r="BD8" s="73"/>
+      <c r="BE8" s="73"/>
+      <c r="BF8" s="73"/>
+      <c r="BG8" s="73"/>
+      <c r="BH8" s="73"/>
+      <c r="BI8" s="73"/>
+      <c r="BJ8" s="73"/>
       <c r="BK8" s="5"/>
     </row>
     <row r="9" spans="1:64" ht="16.5" outlineLevel="1">
       <c r="A9" s="5"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-      <c r="O9" s="83"/>
-      <c r="P9" s="83"/>
-      <c r="Q9" s="83"/>
-      <c r="R9" s="83"/>
-      <c r="S9" s="83"/>
-      <c r="T9" s="83"/>
-      <c r="U9" s="83"/>
-      <c r="V9" s="83"/>
-      <c r="W9" s="83"/>
-      <c r="X9" s="83"/>
-      <c r="Y9" s="83"/>
-      <c r="Z9" s="83"/>
-      <c r="AA9" s="83"/>
-      <c r="AB9" s="83"/>
-      <c r="AC9" s="83"/>
-      <c r="AD9" s="83"/>
-      <c r="AE9" s="83"/>
-      <c r="AF9" s="83"/>
-      <c r="AG9" s="83"/>
-      <c r="AH9" s="83"/>
-      <c r="AI9" s="83"/>
-      <c r="AJ9" s="83"/>
-      <c r="AK9" s="83"/>
-      <c r="AL9" s="83"/>
-      <c r="AM9" s="83"/>
-      <c r="AN9" s="83"/>
-      <c r="AO9" s="83"/>
-      <c r="AP9" s="83"/>
-      <c r="AQ9" s="83"/>
-      <c r="AR9" s="83"/>
-      <c r="AS9" s="83"/>
-      <c r="AT9" s="83"/>
-      <c r="AU9" s="83"/>
-      <c r="AV9" s="83"/>
-      <c r="AW9" s="83"/>
-      <c r="AX9" s="83"/>
-      <c r="AY9" s="83"/>
-      <c r="AZ9" s="83"/>
-      <c r="BA9" s="83"/>
-      <c r="BB9" s="83"/>
-      <c r="BC9" s="83"/>
-      <c r="BD9" s="83"/>
-      <c r="BE9" s="83"/>
-      <c r="BF9" s="83"/>
-      <c r="BG9" s="83"/>
-      <c r="BH9" s="83"/>
-      <c r="BI9" s="83"/>
-      <c r="BJ9" s="83"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
+      <c r="M9" s="72"/>
+      <c r="N9" s="72"/>
+      <c r="O9" s="72"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="72"/>
+      <c r="R9" s="72"/>
+      <c r="S9" s="72"/>
+      <c r="T9" s="72"/>
+      <c r="U9" s="72"/>
+      <c r="V9" s="72"/>
+      <c r="W9" s="72"/>
+      <c r="X9" s="72"/>
+      <c r="Y9" s="72"/>
+      <c r="Z9" s="72"/>
+      <c r="AA9" s="72"/>
+      <c r="AB9" s="72"/>
+      <c r="AC9" s="72"/>
+      <c r="AD9" s="72"/>
+      <c r="AE9" s="72"/>
+      <c r="AF9" s="72"/>
+      <c r="AG9" s="72"/>
+      <c r="AH9" s="72"/>
+      <c r="AI9" s="72"/>
+      <c r="AJ9" s="72"/>
+      <c r="AK9" s="72"/>
+      <c r="AL9" s="72"/>
+      <c r="AM9" s="72"/>
+      <c r="AN9" s="72"/>
+      <c r="AO9" s="72"/>
+      <c r="AP9" s="72"/>
+      <c r="AQ9" s="72"/>
+      <c r="AR9" s="72"/>
+      <c r="AS9" s="72"/>
+      <c r="AT9" s="72"/>
+      <c r="AU9" s="72"/>
+      <c r="AV9" s="72"/>
+      <c r="AW9" s="72"/>
+      <c r="AX9" s="72"/>
+      <c r="AY9" s="72"/>
+      <c r="AZ9" s="72"/>
+      <c r="BA9" s="72"/>
+      <c r="BB9" s="72"/>
+      <c r="BC9" s="72"/>
+      <c r="BD9" s="72"/>
+      <c r="BE9" s="72"/>
+      <c r="BF9" s="72"/>
+      <c r="BG9" s="72"/>
+      <c r="BH9" s="72"/>
+      <c r="BI9" s="72"/>
+      <c r="BJ9" s="72"/>
       <c r="BK9" s="5"/>
     </row>
     <row r="10" spans="1:64" s="59" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A10" s="5"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="66" t="s">
+      <c r="C10" s="80" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
-      <c r="G10" s="67"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="83" t="s">
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85"/>
-      <c r="O10" s="85"/>
-      <c r="P10" s="85"/>
-      <c r="Q10" s="85"/>
-      <c r="R10" s="85"/>
-      <c r="S10" s="85"/>
-      <c r="T10" s="85"/>
-      <c r="U10" s="85"/>
-      <c r="V10" s="85"/>
-      <c r="W10" s="85"/>
-      <c r="X10" s="85"/>
-      <c r="Y10" s="85"/>
-      <c r="Z10" s="85"/>
-      <c r="AA10" s="85"/>
-      <c r="AB10" s="85"/>
-      <c r="AC10" s="85"/>
-      <c r="AD10" s="85"/>
-      <c r="AE10" s="85"/>
-      <c r="AF10" s="85"/>
-      <c r="AG10" s="85"/>
-      <c r="AH10" s="85"/>
-      <c r="AI10" s="85"/>
-      <c r="AJ10" s="85"/>
-      <c r="AK10" s="85"/>
-      <c r="AL10" s="85"/>
-      <c r="AM10" s="85"/>
-      <c r="AN10" s="85"/>
-      <c r="AO10" s="85"/>
-      <c r="AP10" s="85"/>
-      <c r="AQ10" s="85"/>
-      <c r="AR10" s="85"/>
-      <c r="AS10" s="85"/>
-      <c r="AT10" s="85"/>
-      <c r="AU10" s="85"/>
-      <c r="AV10" s="85"/>
-      <c r="AW10" s="85"/>
-      <c r="AX10" s="85"/>
-      <c r="AY10" s="85"/>
-      <c r="AZ10" s="85"/>
-      <c r="BA10" s="85"/>
-      <c r="BB10" s="85"/>
-      <c r="BC10" s="85"/>
-      <c r="BD10" s="85"/>
-      <c r="BE10" s="85"/>
-      <c r="BF10" s="85"/>
-      <c r="BG10" s="85"/>
-      <c r="BH10" s="85"/>
-      <c r="BI10" s="85"/>
-      <c r="BJ10" s="85"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
+      <c r="O10" s="82"/>
+      <c r="P10" s="82"/>
+      <c r="Q10" s="82"/>
+      <c r="R10" s="82"/>
+      <c r="S10" s="82"/>
+      <c r="T10" s="82"/>
+      <c r="U10" s="82"/>
+      <c r="V10" s="82"/>
+      <c r="W10" s="82"/>
+      <c r="X10" s="82"/>
+      <c r="Y10" s="82"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="82"/>
+      <c r="AB10" s="82"/>
+      <c r="AC10" s="82"/>
+      <c r="AD10" s="82"/>
+      <c r="AE10" s="82"/>
+      <c r="AF10" s="82"/>
+      <c r="AG10" s="82"/>
+      <c r="AH10" s="82"/>
+      <c r="AI10" s="82"/>
+      <c r="AJ10" s="82"/>
+      <c r="AK10" s="82"/>
+      <c r="AL10" s="82"/>
+      <c r="AM10" s="82"/>
+      <c r="AN10" s="82"/>
+      <c r="AO10" s="82"/>
+      <c r="AP10" s="82"/>
+      <c r="AQ10" s="82"/>
+      <c r="AR10" s="82"/>
+      <c r="AS10" s="82"/>
+      <c r="AT10" s="82"/>
+      <c r="AU10" s="82"/>
+      <c r="AV10" s="82"/>
+      <c r="AW10" s="82"/>
+      <c r="AX10" s="82"/>
+      <c r="AY10" s="82"/>
+      <c r="AZ10" s="82"/>
+      <c r="BA10" s="82"/>
+      <c r="BB10" s="82"/>
+      <c r="BC10" s="82"/>
+      <c r="BD10" s="82"/>
+      <c r="BE10" s="82"/>
+      <c r="BF10" s="82"/>
+      <c r="BG10" s="82"/>
+      <c r="BH10" s="82"/>
+      <c r="BI10" s="82"/>
+      <c r="BJ10" s="82"/>
       <c r="BK10" s="5"/>
       <c r="BL10" s="57"/>
     </row>
@@ -4495,28 +4493,28 @@
       <c r="H16" s="25"/>
       <c r="I16" s="26"/>
       <c r="J16" s="27"/>
-      <c r="K16" s="70" t="s">
+      <c r="K16" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="L16" s="71"/>
-      <c r="M16" s="71"/>
-      <c r="N16" s="71"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="71"/>
-      <c r="U16" s="71"/>
-      <c r="V16" s="71"/>
-      <c r="W16" s="71"/>
-      <c r="X16" s="71"/>
-      <c r="Y16" s="71"/>
-      <c r="Z16" s="71"/>
-      <c r="AA16" s="71"/>
-      <c r="AB16" s="71"/>
-      <c r="AC16" s="71"/>
-      <c r="AD16" s="72"/>
+      <c r="L16" s="75"/>
+      <c r="M16" s="75"/>
+      <c r="N16" s="75"/>
+      <c r="O16" s="75"/>
+      <c r="P16" s="75"/>
+      <c r="Q16" s="75"/>
+      <c r="R16" s="75"/>
+      <c r="S16" s="75"/>
+      <c r="T16" s="75"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="75"/>
+      <c r="W16" s="75"/>
+      <c r="X16" s="75"/>
+      <c r="Y16" s="75"/>
+      <c r="Z16" s="75"/>
+      <c r="AA16" s="75"/>
+      <c r="AB16" s="75"/>
+      <c r="AC16" s="75"/>
+      <c r="AD16" s="76"/>
       <c r="AE16" s="28"/>
       <c r="AF16" s="26"/>
       <c r="AG16" s="26"/>
@@ -4637,28 +4635,28 @@
       <c r="H18" s="37"/>
       <c r="I18" s="38"/>
       <c r="J18" s="39"/>
-      <c r="K18" s="70" t="s">
+      <c r="K18" s="74" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="71"/>
-      <c r="M18" s="71"/>
-      <c r="N18" s="71"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="71"/>
-      <c r="V18" s="71"/>
-      <c r="W18" s="71"/>
-      <c r="X18" s="71"/>
-      <c r="Y18" s="71"/>
-      <c r="Z18" s="71"/>
-      <c r="AA18" s="71"/>
-      <c r="AB18" s="71"/>
-      <c r="AC18" s="71"/>
-      <c r="AD18" s="72"/>
+      <c r="L18" s="75"/>
+      <c r="M18" s="75"/>
+      <c r="N18" s="75"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="75"/>
+      <c r="Q18" s="75"/>
+      <c r="R18" s="75"/>
+      <c r="S18" s="75"/>
+      <c r="T18" s="75"/>
+      <c r="U18" s="75"/>
+      <c r="V18" s="75"/>
+      <c r="W18" s="75"/>
+      <c r="X18" s="75"/>
+      <c r="Y18" s="75"/>
+      <c r="Z18" s="75"/>
+      <c r="AA18" s="75"/>
+      <c r="AB18" s="75"/>
+      <c r="AC18" s="75"/>
+      <c r="AD18" s="76"/>
       <c r="AE18" s="41"/>
       <c r="AF18" s="38"/>
       <c r="AG18" s="38"/>
@@ -4779,28 +4777,28 @@
       <c r="H20" s="37"/>
       <c r="I20" s="38"/>
       <c r="J20" s="39"/>
-      <c r="K20" s="70" t="s">
+      <c r="K20" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="71"/>
-      <c r="M20" s="71"/>
-      <c r="N20" s="71"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="71"/>
-      <c r="U20" s="71"/>
-      <c r="V20" s="71"/>
-      <c r="W20" s="71"/>
-      <c r="X20" s="71"/>
-      <c r="Y20" s="71"/>
-      <c r="Z20" s="71"/>
-      <c r="AA20" s="71"/>
-      <c r="AB20" s="71"/>
-      <c r="AC20" s="71"/>
-      <c r="AD20" s="72"/>
+      <c r="L20" s="75"/>
+      <c r="M20" s="75"/>
+      <c r="N20" s="75"/>
+      <c r="O20" s="75"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="75"/>
+      <c r="R20" s="75"/>
+      <c r="S20" s="75"/>
+      <c r="T20" s="75"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="75"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="75"/>
+      <c r="Y20" s="75"/>
+      <c r="Z20" s="75"/>
+      <c r="AA20" s="75"/>
+      <c r="AB20" s="75"/>
+      <c r="AC20" s="75"/>
+      <c r="AD20" s="76"/>
       <c r="AE20" s="41"/>
       <c r="AF20" s="38"/>
       <c r="AG20" s="38"/>
@@ -4851,28 +4849,28 @@
       <c r="H21" s="37"/>
       <c r="I21" s="38"/>
       <c r="J21" s="39"/>
-      <c r="K21" s="70" t="s">
+      <c r="K21" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="L21" s="71"/>
-      <c r="M21" s="71"/>
-      <c r="N21" s="71"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="71"/>
-      <c r="U21" s="71"/>
-      <c r="V21" s="71"/>
-      <c r="W21" s="71"/>
-      <c r="X21" s="71"/>
-      <c r="Y21" s="71"/>
-      <c r="Z21" s="71"/>
-      <c r="AA21" s="71"/>
-      <c r="AB21" s="71"/>
-      <c r="AC21" s="71"/>
-      <c r="AD21" s="72"/>
+      <c r="L21" s="75"/>
+      <c r="M21" s="75"/>
+      <c r="N21" s="75"/>
+      <c r="O21" s="75"/>
+      <c r="P21" s="75"/>
+      <c r="Q21" s="75"/>
+      <c r="R21" s="75"/>
+      <c r="S21" s="75"/>
+      <c r="T21" s="75"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="75"/>
+      <c r="W21" s="75"/>
+      <c r="X21" s="75"/>
+      <c r="Y21" s="75"/>
+      <c r="Z21" s="75"/>
+      <c r="AA21" s="75"/>
+      <c r="AB21" s="75"/>
+      <c r="AC21" s="75"/>
+      <c r="AD21" s="76"/>
       <c r="AE21" s="41"/>
       <c r="AF21" s="38"/>
       <c r="AG21" s="38"/>
@@ -5507,43 +5505,43 @@
     <row r="31" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="76" t="s">
+      <c r="C31" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="77"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="78"/>
-      <c r="J31" s="76" t="s">
+      <c r="D31" s="70"/>
+      <c r="E31" s="70"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="71"/>
+      <c r="J31" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="K31" s="77"/>
-      <c r="L31" s="77"/>
-      <c r="M31" s="77"/>
-      <c r="N31" s="77"/>
-      <c r="O31" s="77"/>
-      <c r="P31" s="77"/>
-      <c r="Q31" s="77"/>
-      <c r="R31" s="77"/>
-      <c r="S31" s="77"/>
-      <c r="T31" s="77"/>
-      <c r="U31" s="77"/>
-      <c r="V31" s="77"/>
-      <c r="W31" s="77"/>
-      <c r="X31" s="77"/>
-      <c r="Y31" s="77"/>
-      <c r="Z31" s="77"/>
-      <c r="AA31" s="77"/>
-      <c r="AB31" s="77"/>
-      <c r="AC31" s="77"/>
-      <c r="AD31" s="77"/>
-      <c r="AE31" s="77"/>
-      <c r="AF31" s="77"/>
-      <c r="AG31" s="77"/>
-      <c r="AH31" s="77"/>
-      <c r="AI31" s="78"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="70"/>
+      <c r="P31" s="70"/>
+      <c r="Q31" s="70"/>
+      <c r="R31" s="70"/>
+      <c r="S31" s="70"/>
+      <c r="T31" s="70"/>
+      <c r="U31" s="70"/>
+      <c r="V31" s="70"/>
+      <c r="W31" s="70"/>
+      <c r="X31" s="70"/>
+      <c r="Y31" s="70"/>
+      <c r="Z31" s="70"/>
+      <c r="AA31" s="70"/>
+      <c r="AB31" s="70"/>
+      <c r="AC31" s="70"/>
+      <c r="AD31" s="70"/>
+      <c r="AE31" s="70"/>
+      <c r="AF31" s="70"/>
+      <c r="AG31" s="70"/>
+      <c r="AH31" s="70"/>
+      <c r="AI31" s="71"/>
       <c r="AJ31" s="5"/>
       <c r="AK31" s="5"/>
       <c r="AL31" s="5"/>
@@ -5576,43 +5574,43 @@
     <row r="32" spans="1:63" ht="16.5" outlineLevel="1">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="76" t="s">
+      <c r="C32" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="77"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="78"/>
-      <c r="J32" s="76" t="s">
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="71"/>
+      <c r="J32" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="77"/>
-      <c r="Q32" s="77"/>
-      <c r="R32" s="77"/>
-      <c r="S32" s="77"/>
-      <c r="T32" s="77"/>
-      <c r="U32" s="77"/>
-      <c r="V32" s="77"/>
-      <c r="W32" s="77"/>
-      <c r="X32" s="77"/>
-      <c r="Y32" s="77"/>
-      <c r="Z32" s="77"/>
-      <c r="AA32" s="77"/>
-      <c r="AB32" s="77"/>
-      <c r="AC32" s="77"/>
-      <c r="AD32" s="77"/>
-      <c r="AE32" s="77"/>
-      <c r="AF32" s="77"/>
-      <c r="AG32" s="77"/>
-      <c r="AH32" s="77"/>
-      <c r="AI32" s="78"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="70"/>
+      <c r="P32" s="70"/>
+      <c r="Q32" s="70"/>
+      <c r="R32" s="70"/>
+      <c r="S32" s="70"/>
+      <c r="T32" s="70"/>
+      <c r="U32" s="70"/>
+      <c r="V32" s="70"/>
+      <c r="W32" s="70"/>
+      <c r="X32" s="70"/>
+      <c r="Y32" s="70"/>
+      <c r="Z32" s="70"/>
+      <c r="AA32" s="70"/>
+      <c r="AB32" s="70"/>
+      <c r="AC32" s="70"/>
+      <c r="AD32" s="70"/>
+      <c r="AE32" s="70"/>
+      <c r="AF32" s="70"/>
+      <c r="AG32" s="70"/>
+      <c r="AH32" s="70"/>
+      <c r="AI32" s="71"/>
       <c r="AJ32" s="5"/>
       <c r="AK32" s="5"/>
       <c r="AL32" s="5"/>
@@ -5645,43 +5643,43 @@
     <row r="33" spans="1:63" ht="31.5" customHeight="1" outlineLevel="1">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="76" t="s">
+      <c r="C33" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="73" t="s">
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="71"/>
+      <c r="J33" s="77" t="s">
         <v>67</v>
       </c>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
-      <c r="M33" s="74"/>
-      <c r="N33" s="74"/>
-      <c r="O33" s="74"/>
-      <c r="P33" s="74"/>
-      <c r="Q33" s="74"/>
-      <c r="R33" s="74"/>
-      <c r="S33" s="74"/>
-      <c r="T33" s="74"/>
-      <c r="U33" s="74"/>
-      <c r="V33" s="74"/>
-      <c r="W33" s="74"/>
-      <c r="X33" s="74"/>
-      <c r="Y33" s="74"/>
-      <c r="Z33" s="74"/>
-      <c r="AA33" s="74"/>
-      <c r="AB33" s="74"/>
-      <c r="AC33" s="74"/>
-      <c r="AD33" s="74"/>
-      <c r="AE33" s="74"/>
-      <c r="AF33" s="74"/>
-      <c r="AG33" s="74"/>
-      <c r="AH33" s="74"/>
-      <c r="AI33" s="75"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="78"/>
+      <c r="N33" s="78"/>
+      <c r="O33" s="78"/>
+      <c r="P33" s="78"/>
+      <c r="Q33" s="78"/>
+      <c r="R33" s="78"/>
+      <c r="S33" s="78"/>
+      <c r="T33" s="78"/>
+      <c r="U33" s="78"/>
+      <c r="V33" s="78"/>
+      <c r="W33" s="78"/>
+      <c r="X33" s="78"/>
+      <c r="Y33" s="78"/>
+      <c r="Z33" s="78"/>
+      <c r="AA33" s="78"/>
+      <c r="AB33" s="78"/>
+      <c r="AC33" s="78"/>
+      <c r="AD33" s="78"/>
+      <c r="AE33" s="78"/>
+      <c r="AF33" s="78"/>
+      <c r="AG33" s="78"/>
+      <c r="AH33" s="78"/>
+      <c r="AI33" s="79"/>
       <c r="AJ33" s="5"/>
       <c r="AK33" s="5"/>
       <c r="AL33" s="5"/>
@@ -5843,6 +5841,10 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I7:BJ7"/>
     <mergeCell ref="C31:I31"/>
     <mergeCell ref="C32:I32"/>
     <mergeCell ref="C33:I33"/>
@@ -5857,10 +5859,6 @@
     <mergeCell ref="K18:AD18"/>
     <mergeCell ref="C10:H10"/>
     <mergeCell ref="I10:BJ10"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I7:BJ7"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ha-asset/01_design/03_batch/設計書_3.1.ヘルスチェックバッチ.xlsx
+++ b/ha-asset/01_design/03_batch/設計書_3.1.ヘルスチェックバッチ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\03_batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4F192AF-6179-47D0-8800-ABD7D3901394}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E52A16-7E37-47A4-9249-671299878AC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="1215" windowWidth="22770" windowHeight="16080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0.更新履歴'!$A$1:$AA$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1.機能一覧'!$A$1:$AW$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'2.1.ヘルスチェックバッチ'!$A$1:$BK$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2.1.ヘルスチェックバッチ'!$A$1:$BP$37</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
   <si>
     <t>0.更新履歴</t>
   </si>
@@ -88,28 +88,7 @@
     <t>例外詳細</t>
   </si>
   <si>
-    <t>ヘルスチェックAPI実行</t>
-  </si>
-  <si>
     <t>ヘルスチェックAPI.result == "0"：正常 の場合</t>
-  </si>
-  <si>
-    <t>成功デバッグログ出力</t>
-  </si>
-  <si>
-    <t>ログメッセージ："健康管理APIサーバが起動状態..."</t>
-  </si>
-  <si>
-    <t>ヘルスチェックAPI.result == "1"：異常 の場合</t>
-  </si>
-  <si>
-    <t>失敗デバッグログ出力</t>
-  </si>
-  <si>
-    <t>ログメッセージ："健康管理APIサーバの状態が異常..."</t>
-  </si>
-  <si>
-    <t>エラーメール送信</t>
   </si>
   <si>
     <t>以下のメールを送信する</t>
@@ -209,16 +188,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>02_api/設計書_2.1.ヘルスチェックAPI.xlsx 参照</t>
-    <rPh sb="31" eb="33">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
-    <t>引数1:</t>
-  </si>
-  <si>
     <t>なし</t>
     <phoneticPr fontId="7"/>
   </si>
@@ -239,10 +208,6 @@
     <phoneticPr fontId="7"/>
   </si>
   <si>
-    <t>2.1.4.1.エラーメール 参照</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>92_テンプレート一覧.xlsx
 　#2 シート参照</t>
     <phoneticPr fontId="7"/>
@@ -255,6 +220,47 @@
     <t>バッチ仕様</t>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <t>条件</t>
+  </si>
+  <si>
+    <t>エラーコード</t>
+  </si>
+  <si>
+    <t>エラーメッセージ</t>
+  </si>
+  <si>
+    <t>ヘルスチェックAPI実行</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>成功デバッグログ出力</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ログメッセージ："健康管理APIサーバが起動状態..."</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>02_api/設計書_2.1.ヘルスチェックAPI.xlsx 参照</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ヘルスチェックAPI.result == "1"：異常 の場合</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>エラーメール送信</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2.1.4.1.エラーメール 参照</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>引数</t>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
@@ -263,7 +269,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -295,6 +301,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -316,12 +323,22 @@
       <charset val="128"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,8 +375,14 @@
         <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF94E873"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -441,35 +464,11 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -503,35 +502,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -591,11 +561,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -614,7 +661,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -625,49 +671,9 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -680,18 +686,13 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -707,45 +708,83 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -966,7 +1005,7 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1035,681 +1074,681 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="3"/>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="66" t="s">
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="66" t="s">
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="65"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="27"/>
       <c r="AA3" s="3"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="3"/>
-      <c r="B4" s="67">
+      <c r="B4" s="29">
         <v>44150</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="68" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="63" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="64"/>
-      <c r="O4" s="64"/>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="64"/>
-      <c r="V4" s="64"/>
-      <c r="W4" s="64"/>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="65"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="27"/>
       <c r="AA4" s="3"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="3"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="64"/>
-      <c r="H5" s="64"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="63"/>
-      <c r="K5" s="64"/>
-      <c r="L5" s="64"/>
-      <c r="M5" s="64"/>
-      <c r="N5" s="64"/>
-      <c r="O5" s="64"/>
-      <c r="P5" s="64"/>
-      <c r="Q5" s="64"/>
-      <c r="R5" s="64"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="64"/>
-      <c r="U5" s="64"/>
-      <c r="V5" s="64"/>
-      <c r="W5" s="64"/>
-      <c r="X5" s="64"/>
-      <c r="Y5" s="64"/>
-      <c r="Z5" s="65"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="27"/>
       <c r="AA5" s="3"/>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="3"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="64"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="64"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="64"/>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64"/>
-      <c r="P6" s="64"/>
-      <c r="Q6" s="64"/>
-      <c r="R6" s="64"/>
-      <c r="S6" s="64"/>
-      <c r="T6" s="64"/>
-      <c r="U6" s="64"/>
-      <c r="V6" s="64"/>
-      <c r="W6" s="64"/>
-      <c r="X6" s="64"/>
-      <c r="Y6" s="64"/>
-      <c r="Z6" s="65"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
+      <c r="W6" s="26"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="26"/>
+      <c r="Z6" s="27"/>
       <c r="AA6" s="3"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="3"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
-      <c r="Y7" s="64"/>
-      <c r="Z7" s="65"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="27"/>
       <c r="AA7" s="3"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="3"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="65"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="65"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
+      <c r="W8" s="26"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="26"/>
+      <c r="Z8" s="27"/>
       <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="3"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="65"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
+      <c r="W9" s="26"/>
+      <c r="X9" s="26"/>
+      <c r="Y9" s="26"/>
+      <c r="Z9" s="27"/>
       <c r="AA9" s="3"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="3"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="63"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="65"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="26"/>
+      <c r="X10" s="26"/>
+      <c r="Y10" s="26"/>
+      <c r="Z10" s="27"/>
       <c r="AA10" s="3"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="3"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="63"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="64"/>
-      <c r="T11" s="64"/>
-      <c r="U11" s="64"/>
-      <c r="V11" s="64"/>
-      <c r="W11" s="64"/>
-      <c r="X11" s="64"/>
-      <c r="Y11" s="64"/>
-      <c r="Z11" s="65"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
+      <c r="W11" s="26"/>
+      <c r="X11" s="26"/>
+      <c r="Y11" s="26"/>
+      <c r="Z11" s="27"/>
       <c r="AA11" s="3"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="3"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="65"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="65"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="64"/>
-      <c r="U12" s="64"/>
-      <c r="V12" s="64"/>
-      <c r="W12" s="64"/>
-      <c r="X12" s="64"/>
-      <c r="Y12" s="64"/>
-      <c r="Z12" s="65"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="26"/>
+      <c r="Y12" s="26"/>
+      <c r="Z12" s="27"/>
       <c r="AA12" s="3"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="3"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="64"/>
-      <c r="U13" s="64"/>
-      <c r="V13" s="64"/>
-      <c r="W13" s="64"/>
-      <c r="X13" s="64"/>
-      <c r="Y13" s="64"/>
-      <c r="Z13" s="65"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="26"/>
+      <c r="X13" s="26"/>
+      <c r="Y13" s="26"/>
+      <c r="Z13" s="27"/>
       <c r="AA13" s="3"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="3"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="65"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="64"/>
-      <c r="U14" s="64"/>
-      <c r="V14" s="64"/>
-      <c r="W14" s="64"/>
-      <c r="X14" s="64"/>
-      <c r="Y14" s="64"/>
-      <c r="Z14" s="65"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="27"/>
       <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="3"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="64"/>
-      <c r="T15" s="64"/>
-      <c r="U15" s="64"/>
-      <c r="V15" s="64"/>
-      <c r="W15" s="64"/>
-      <c r="X15" s="64"/>
-      <c r="Y15" s="64"/>
-      <c r="Z15" s="65"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="27"/>
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="3"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="64"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="64"/>
-      <c r="T16" s="64"/>
-      <c r="U16" s="64"/>
-      <c r="V16" s="64"/>
-      <c r="W16" s="64"/>
-      <c r="X16" s="64"/>
-      <c r="Y16" s="64"/>
-      <c r="Z16" s="65"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="27"/>
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="3"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="64"/>
-      <c r="M17" s="64"/>
-      <c r="N17" s="64"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="64"/>
-      <c r="T17" s="64"/>
-      <c r="U17" s="64"/>
-      <c r="V17" s="64"/>
-      <c r="W17" s="64"/>
-      <c r="X17" s="64"/>
-      <c r="Y17" s="64"/>
-      <c r="Z17" s="65"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="27"/>
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="3"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="64"/>
-      <c r="I18" s="65"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="64"/>
-      <c r="L18" s="64"/>
-      <c r="M18" s="64"/>
-      <c r="N18" s="64"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="64"/>
-      <c r="T18" s="64"/>
-      <c r="U18" s="64"/>
-      <c r="V18" s="64"/>
-      <c r="W18" s="64"/>
-      <c r="X18" s="64"/>
-      <c r="Y18" s="64"/>
-      <c r="Z18" s="65"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="25"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="27"/>
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="3"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
-      <c r="D19" s="64"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="64"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="64"/>
-      <c r="L19" s="64"/>
-      <c r="M19" s="64"/>
-      <c r="N19" s="64"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="64"/>
-      <c r="T19" s="64"/>
-      <c r="U19" s="64"/>
-      <c r="V19" s="64"/>
-      <c r="W19" s="64"/>
-      <c r="X19" s="64"/>
-      <c r="Y19" s="64"/>
-      <c r="Z19" s="65"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="25"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
+      <c r="W19" s="26"/>
+      <c r="X19" s="26"/>
+      <c r="Y19" s="26"/>
+      <c r="Z19" s="27"/>
       <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="3"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="64"/>
-      <c r="L20" s="64"/>
-      <c r="M20" s="64"/>
-      <c r="N20" s="64"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="64"/>
-      <c r="T20" s="64"/>
-      <c r="U20" s="64"/>
-      <c r="V20" s="64"/>
-      <c r="W20" s="64"/>
-      <c r="X20" s="64"/>
-      <c r="Y20" s="64"/>
-      <c r="Z20" s="65"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="25"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="27"/>
       <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="3"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="64"/>
-      <c r="L21" s="64"/>
-      <c r="M21" s="64"/>
-      <c r="N21" s="64"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="64"/>
-      <c r="T21" s="64"/>
-      <c r="U21" s="64"/>
-      <c r="V21" s="64"/>
-      <c r="W21" s="64"/>
-      <c r="X21" s="64"/>
-      <c r="Y21" s="64"/>
-      <c r="Z21" s="65"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
+      <c r="W21" s="26"/>
+      <c r="X21" s="26"/>
+      <c r="Y21" s="26"/>
+      <c r="Z21" s="27"/>
       <c r="AA21" s="3"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="3"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
-      <c r="N22" s="64"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="64"/>
-      <c r="S22" s="64"/>
-      <c r="T22" s="64"/>
-      <c r="U22" s="64"/>
-      <c r="V22" s="64"/>
-      <c r="W22" s="64"/>
-      <c r="X22" s="64"/>
-      <c r="Y22" s="64"/>
-      <c r="Z22" s="65"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="27"/>
       <c r="AA22" s="3"/>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="3"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="64"/>
-      <c r="I23" s="65"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="64"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="64"/>
-      <c r="T23" s="64"/>
-      <c r="U23" s="64"/>
-      <c r="V23" s="64"/>
-      <c r="W23" s="64"/>
-      <c r="X23" s="64"/>
-      <c r="Y23" s="64"/>
-      <c r="Z23" s="65"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
+      <c r="W23" s="26"/>
+      <c r="X23" s="26"/>
+      <c r="Y23" s="26"/>
+      <c r="Z23" s="27"/>
       <c r="AA23" s="3"/>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="3"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="64"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="65"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="64"/>
-      <c r="L24" s="64"/>
-      <c r="M24" s="64"/>
-      <c r="N24" s="64"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="64"/>
-      <c r="T24" s="64"/>
-      <c r="U24" s="64"/>
-      <c r="V24" s="64"/>
-      <c r="W24" s="64"/>
-      <c r="X24" s="64"/>
-      <c r="Y24" s="64"/>
-      <c r="Z24" s="65"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="27"/>
       <c r="AA24" s="3"/>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="3"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="63"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="64"/>
-      <c r="I25" s="65"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-      <c r="M25" s="64"/>
-      <c r="N25" s="64"/>
-      <c r="O25" s="64"/>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="64"/>
-      <c r="R25" s="64"/>
-      <c r="S25" s="64"/>
-      <c r="T25" s="64"/>
-      <c r="U25" s="64"/>
-      <c r="V25" s="64"/>
-      <c r="W25" s="64"/>
-      <c r="X25" s="64"/>
-      <c r="Y25" s="64"/>
-      <c r="Z25" s="65"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="26"/>
+      <c r="X25" s="26"/>
+      <c r="Y25" s="26"/>
+      <c r="Z25" s="27"/>
       <c r="AA25" s="3"/>
     </row>
     <row r="26" spans="1:27">
@@ -1772,12 +1811,60 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:Z11"/>
     <mergeCell ref="B9:E9"/>
@@ -1787,60 +1874,12 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3461,18 +3500,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BL35"/>
+  <dimension ref="A1:BP36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="63" width="3.7109375" customWidth="1"/>
+    <col min="1" max="68" width="3.7109375" style="46" customWidth="1"/>
+    <col min="69" max="16384" width="14.42578125" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="16.5">
-      <c r="A1" s="1" t="s">
-        <v>68</v>
+    <row r="1" spans="1:68" ht="16.5">
+      <c r="A1" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3536,8 +3576,13 @@
       <c r="BI1" s="2"/>
       <c r="BJ1" s="2"/>
       <c r="BK1" s="2"/>
-    </row>
-    <row r="2" spans="1:64" ht="16.5">
+      <c r="BL1" s="2"/>
+      <c r="BM1" s="2"/>
+      <c r="BN1" s="2"/>
+      <c r="BO1" s="2"/>
+      <c r="BP1" s="2"/>
+    </row>
+    <row r="2" spans="1:68" ht="16.5">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -3601,8 +3646,13 @@
       <c r="BI2" s="5"/>
       <c r="BJ2" s="5"/>
       <c r="BK2" s="5"/>
-    </row>
-    <row r="3" spans="1:64" ht="16.5">
+      <c r="BL2" s="5"/>
+      <c r="BM2" s="5"/>
+      <c r="BN2" s="5"/>
+      <c r="BO2" s="5"/>
+      <c r="BP2" s="5"/>
+    </row>
+    <row r="3" spans="1:68" ht="16.5">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -3666,75 +3716,85 @@
       <c r="BI3" s="5"/>
       <c r="BJ3" s="5"/>
       <c r="BK3" s="5"/>
-    </row>
-    <row r="4" spans="1:64" ht="16.5">
+      <c r="BL3" s="5"/>
+      <c r="BM3" s="5"/>
+      <c r="BN3" s="5"/>
+      <c r="BO3" s="5"/>
+      <c r="BP3" s="5"/>
+    </row>
+    <row r="4" spans="1:68" ht="16.5">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="9"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="9"/>
-      <c r="W4" s="9"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="9"/>
-      <c r="AI4" s="9"/>
-      <c r="AJ4" s="9"/>
-      <c r="AK4" s="9"/>
-      <c r="AL4" s="9"/>
-      <c r="AM4" s="9"/>
-      <c r="AN4" s="9"/>
-      <c r="AO4" s="9"/>
-      <c r="AP4" s="9"/>
-      <c r="AQ4" s="9"/>
-      <c r="AR4" s="9"/>
-      <c r="AS4" s="9"/>
-      <c r="AT4" s="9"/>
-      <c r="AU4" s="9"/>
-      <c r="AV4" s="9"/>
-      <c r="AW4" s="9"/>
-      <c r="AX4" s="9"/>
-      <c r="AY4" s="9"/>
-      <c r="AZ4" s="9"/>
-      <c r="BA4" s="9"/>
-      <c r="BB4" s="9"/>
-      <c r="BC4" s="9"/>
-      <c r="BD4" s="9"/>
-      <c r="BE4" s="9"/>
-      <c r="BF4" s="9"/>
-      <c r="BG4" s="9"/>
-      <c r="BH4" s="9"/>
-      <c r="BI4" s="9"/>
-      <c r="BJ4" s="9"/>
-      <c r="BK4" s="9"/>
-    </row>
-    <row r="5" spans="1:64" ht="16.5">
+      <c r="C4" s="7"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="8"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="8"/>
+      <c r="AI4" s="8"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="8"/>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AR4" s="8"/>
+      <c r="AS4" s="8"/>
+      <c r="AT4" s="8"/>
+      <c r="AU4" s="8"/>
+      <c r="AV4" s="8"/>
+      <c r="AW4" s="8"/>
+      <c r="AX4" s="8"/>
+      <c r="AY4" s="8"/>
+      <c r="AZ4" s="8"/>
+      <c r="BA4" s="8"/>
+      <c r="BB4" s="8"/>
+      <c r="BC4" s="8"/>
+      <c r="BD4" s="8"/>
+      <c r="BE4" s="8"/>
+      <c r="BF4" s="8"/>
+      <c r="BG4" s="8"/>
+      <c r="BH4" s="8"/>
+      <c r="BI4" s="8"/>
+      <c r="BJ4" s="8"/>
+      <c r="BK4" s="8"/>
+      <c r="BL4" s="8"/>
+      <c r="BM4" s="8"/>
+      <c r="BN4" s="8"/>
+      <c r="BO4" s="8"/>
+      <c r="BP4" s="8"/>
+    </row>
+    <row r="5" spans="1:68" ht="16.5">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -3798,350 +3858,379 @@
       <c r="BI5" s="5"/>
       <c r="BJ5" s="5"/>
       <c r="BK5" s="5"/>
-    </row>
-    <row r="6" spans="1:64" ht="16.5" outlineLevel="1">
+      <c r="BL5" s="5"/>
+      <c r="BM5" s="5"/>
+      <c r="BN5" s="5"/>
+      <c r="BO5" s="5"/>
+      <c r="BP5" s="5"/>
+    </row>
+    <row r="6" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A6" s="5"/>
-      <c r="B6" s="10" t="s">
-        <v>69</v>
+      <c r="B6" s="9" t="s">
+        <v>59</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="11"/>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
-      <c r="AI6" s="60"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="60"/>
-      <c r="AL6" s="60"/>
-      <c r="AM6" s="60"/>
-      <c r="AN6" s="60"/>
-      <c r="AO6" s="60"/>
-      <c r="AP6" s="60"/>
-      <c r="AQ6" s="60"/>
-      <c r="AR6" s="60"/>
-      <c r="AS6" s="60"/>
-      <c r="AT6" s="60"/>
-      <c r="AU6" s="60"/>
-      <c r="AV6" s="60"/>
-      <c r="AW6" s="60"/>
-      <c r="AX6" s="60"/>
-      <c r="AY6" s="60"/>
-      <c r="AZ6" s="60"/>
-      <c r="BA6" s="60"/>
-      <c r="BB6" s="60"/>
-      <c r="BC6" s="60"/>
-      <c r="BD6" s="60"/>
-      <c r="BE6" s="60"/>
-      <c r="BF6" s="60"/>
-      <c r="BG6" s="60"/>
-      <c r="BH6" s="60"/>
-      <c r="BI6" s="60"/>
-      <c r="BJ6" s="61"/>
-      <c r="BK6" s="62"/>
-    </row>
-    <row r="7" spans="1:64" ht="16.5" outlineLevel="1">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10"/>
+      <c r="S6" s="10"/>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Y6" s="10"/>
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10"/>
+      <c r="AB6" s="10"/>
+      <c r="AC6" s="10"/>
+      <c r="AD6" s="10"/>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="22"/>
+      <c r="AN6" s="22"/>
+      <c r="AO6" s="22"/>
+      <c r="AP6" s="22"/>
+      <c r="AQ6" s="22"/>
+      <c r="AR6" s="22"/>
+      <c r="AS6" s="22"/>
+      <c r="AT6" s="22"/>
+      <c r="AU6" s="22"/>
+      <c r="AV6" s="22"/>
+      <c r="AW6" s="22"/>
+      <c r="AX6" s="22"/>
+      <c r="AY6" s="22"/>
+      <c r="AZ6" s="22"/>
+      <c r="BA6" s="22"/>
+      <c r="BB6" s="22"/>
+      <c r="BC6" s="22"/>
+      <c r="BD6" s="22"/>
+      <c r="BE6" s="22"/>
+      <c r="BF6" s="22"/>
+      <c r="BG6" s="22"/>
+      <c r="BH6" s="22"/>
+      <c r="BI6" s="22"/>
+      <c r="BJ6" s="23"/>
+      <c r="BK6" s="24"/>
+      <c r="BL6" s="24"/>
+      <c r="BM6" s="24"/>
+      <c r="BN6" s="24"/>
+      <c r="BO6" s="24"/>
+      <c r="BP6" s="24"/>
+    </row>
+    <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="5"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="83" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="72" t="s">
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
-      <c r="O7" s="72"/>
-      <c r="P7" s="72"/>
-      <c r="Q7" s="72"/>
-      <c r="R7" s="72"/>
-      <c r="S7" s="72"/>
-      <c r="T7" s="72"/>
-      <c r="U7" s="72"/>
-      <c r="V7" s="72"/>
-      <c r="W7" s="72"/>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="72"/>
-      <c r="AB7" s="72"/>
-      <c r="AC7" s="72"/>
-      <c r="AD7" s="72"/>
-      <c r="AE7" s="72"/>
-      <c r="AF7" s="72"/>
-      <c r="AG7" s="72"/>
-      <c r="AH7" s="72"/>
-      <c r="AI7" s="72"/>
-      <c r="AJ7" s="72"/>
-      <c r="AK7" s="72"/>
-      <c r="AL7" s="72"/>
-      <c r="AM7" s="72"/>
-      <c r="AN7" s="72"/>
-      <c r="AO7" s="72"/>
-      <c r="AP7" s="72"/>
-      <c r="AQ7" s="72"/>
-      <c r="AR7" s="72"/>
-      <c r="AS7" s="72"/>
-      <c r="AT7" s="72"/>
-      <c r="AU7" s="72"/>
-      <c r="AV7" s="72"/>
-      <c r="AW7" s="72"/>
-      <c r="AX7" s="72"/>
-      <c r="AY7" s="72"/>
-      <c r="AZ7" s="72"/>
-      <c r="BA7" s="72"/>
-      <c r="BB7" s="72"/>
-      <c r="BC7" s="72"/>
-      <c r="BD7" s="72"/>
-      <c r="BE7" s="72"/>
-      <c r="BF7" s="72"/>
-      <c r="BG7" s="72"/>
-      <c r="BH7" s="72"/>
-      <c r="BI7" s="72"/>
-      <c r="BJ7" s="72"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
+      <c r="X7" s="33"/>
+      <c r="Y7" s="33"/>
+      <c r="Z7" s="33"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="33"/>
+      <c r="AC7" s="33"/>
+      <c r="AD7" s="33"/>
+      <c r="AE7" s="33"/>
+      <c r="AF7" s="33"/>
+      <c r="AG7" s="33"/>
+      <c r="AH7" s="33"/>
+      <c r="AI7" s="33"/>
+      <c r="AJ7" s="33"/>
+      <c r="AK7" s="33"/>
+      <c r="AL7" s="33"/>
+      <c r="AM7" s="33"/>
+      <c r="AN7" s="33"/>
+      <c r="AO7" s="33"/>
+      <c r="AP7" s="33"/>
+      <c r="AQ7" s="33"/>
+      <c r="AR7" s="33"/>
+      <c r="AS7" s="33"/>
+      <c r="AT7" s="33"/>
+      <c r="AU7" s="33"/>
+      <c r="AV7" s="33"/>
+      <c r="AW7" s="33"/>
+      <c r="AX7" s="33"/>
+      <c r="AY7" s="33"/>
+      <c r="AZ7" s="33"/>
+      <c r="BA7" s="33"/>
+      <c r="BB7" s="33"/>
+      <c r="BC7" s="33"/>
+      <c r="BD7" s="33"/>
+      <c r="BE7" s="33"/>
+      <c r="BF7" s="33"/>
+      <c r="BG7" s="33"/>
+      <c r="BH7" s="33"/>
+      <c r="BI7" s="33"/>
+      <c r="BJ7" s="33"/>
       <c r="BK7" s="5"/>
-    </row>
-    <row r="8" spans="1:64" ht="16.5" outlineLevel="1">
+      <c r="BL7" s="5"/>
+      <c r="BM7" s="5"/>
+      <c r="BN7" s="5"/>
+      <c r="BO7" s="5"/>
+      <c r="BP7" s="5"/>
+    </row>
+    <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="5"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="85" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="73" t="s">
-        <v>58</v>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="37" t="s">
+        <v>51</v>
       </c>
-      <c r="J8" s="73"/>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
-      <c r="M8" s="73"/>
-      <c r="N8" s="73"/>
-      <c r="O8" s="73"/>
-      <c r="P8" s="73"/>
-      <c r="Q8" s="73"/>
-      <c r="R8" s="73"/>
-      <c r="S8" s="73"/>
-      <c r="T8" s="73"/>
-      <c r="U8" s="73"/>
-      <c r="V8" s="73"/>
-      <c r="W8" s="73"/>
-      <c r="X8" s="73"/>
-      <c r="Y8" s="73"/>
-      <c r="Z8" s="73"/>
-      <c r="AA8" s="73"/>
-      <c r="AB8" s="73"/>
-      <c r="AC8" s="73"/>
-      <c r="AD8" s="73"/>
-      <c r="AE8" s="73"/>
-      <c r="AF8" s="73"/>
-      <c r="AG8" s="73"/>
-      <c r="AH8" s="73"/>
-      <c r="AI8" s="73"/>
-      <c r="AJ8" s="73"/>
-      <c r="AK8" s="73"/>
-      <c r="AL8" s="73"/>
-      <c r="AM8" s="73"/>
-      <c r="AN8" s="73"/>
-      <c r="AO8" s="73"/>
-      <c r="AP8" s="73"/>
-      <c r="AQ8" s="73"/>
-      <c r="AR8" s="73"/>
-      <c r="AS8" s="73"/>
-      <c r="AT8" s="73"/>
-      <c r="AU8" s="73"/>
-      <c r="AV8" s="73"/>
-      <c r="AW8" s="73"/>
-      <c r="AX8" s="73"/>
-      <c r="AY8" s="73"/>
-      <c r="AZ8" s="73"/>
-      <c r="BA8" s="73"/>
-      <c r="BB8" s="73"/>
-      <c r="BC8" s="73"/>
-      <c r="BD8" s="73"/>
-      <c r="BE8" s="73"/>
-      <c r="BF8" s="73"/>
-      <c r="BG8" s="73"/>
-      <c r="BH8" s="73"/>
-      <c r="BI8" s="73"/>
-      <c r="BJ8" s="73"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="37"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="37"/>
+      <c r="AC8" s="37"/>
+      <c r="AD8" s="37"/>
+      <c r="AE8" s="37"/>
+      <c r="AF8" s="37"/>
+      <c r="AG8" s="37"/>
+      <c r="AH8" s="37"/>
+      <c r="AI8" s="37"/>
+      <c r="AJ8" s="37"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="37"/>
+      <c r="AN8" s="37"/>
+      <c r="AO8" s="37"/>
+      <c r="AP8" s="37"/>
+      <c r="AQ8" s="37"/>
+      <c r="AR8" s="37"/>
+      <c r="AS8" s="37"/>
+      <c r="AT8" s="37"/>
+      <c r="AU8" s="37"/>
+      <c r="AV8" s="37"/>
+      <c r="AW8" s="37"/>
+      <c r="AX8" s="37"/>
+      <c r="AY8" s="37"/>
+      <c r="AZ8" s="37"/>
+      <c r="BA8" s="37"/>
+      <c r="BB8" s="37"/>
+      <c r="BC8" s="37"/>
+      <c r="BD8" s="37"/>
+      <c r="BE8" s="37"/>
+      <c r="BF8" s="37"/>
+      <c r="BG8" s="37"/>
+      <c r="BH8" s="37"/>
+      <c r="BI8" s="37"/>
+      <c r="BJ8" s="37"/>
       <c r="BK8" s="5"/>
-    </row>
-    <row r="9" spans="1:64" ht="16.5" outlineLevel="1">
+      <c r="BL8" s="5"/>
+      <c r="BM8" s="5"/>
+      <c r="BN8" s="5"/>
+      <c r="BO8" s="5"/>
+      <c r="BP8" s="5"/>
+    </row>
+    <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="5"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="83" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="72"/>
-      <c r="V9" s="72"/>
-      <c r="W9" s="72"/>
-      <c r="X9" s="72"/>
-      <c r="Y9" s="72"/>
-      <c r="Z9" s="72"/>
-      <c r="AA9" s="72"/>
-      <c r="AB9" s="72"/>
-      <c r="AC9" s="72"/>
-      <c r="AD9" s="72"/>
-      <c r="AE9" s="72"/>
-      <c r="AF9" s="72"/>
-      <c r="AG9" s="72"/>
-      <c r="AH9" s="72"/>
-      <c r="AI9" s="72"/>
-      <c r="AJ9" s="72"/>
-      <c r="AK9" s="72"/>
-      <c r="AL9" s="72"/>
-      <c r="AM9" s="72"/>
-      <c r="AN9" s="72"/>
-      <c r="AO9" s="72"/>
-      <c r="AP9" s="72"/>
-      <c r="AQ9" s="72"/>
-      <c r="AR9" s="72"/>
-      <c r="AS9" s="72"/>
-      <c r="AT9" s="72"/>
-      <c r="AU9" s="72"/>
-      <c r="AV9" s="72"/>
-      <c r="AW9" s="72"/>
-      <c r="AX9" s="72"/>
-      <c r="AY9" s="72"/>
-      <c r="AZ9" s="72"/>
-      <c r="BA9" s="72"/>
-      <c r="BB9" s="72"/>
-      <c r="BC9" s="72"/>
-      <c r="BD9" s="72"/>
-      <c r="BE9" s="72"/>
-      <c r="BF9" s="72"/>
-      <c r="BG9" s="72"/>
-      <c r="BH9" s="72"/>
-      <c r="BI9" s="72"/>
-      <c r="BJ9" s="72"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33"/>
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="33"/>
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="33"/>
+      <c r="AK9" s="33"/>
+      <c r="AL9" s="33"/>
+      <c r="AM9" s="33"/>
+      <c r="AN9" s="33"/>
+      <c r="AO9" s="33"/>
+      <c r="AP9" s="33"/>
+      <c r="AQ9" s="33"/>
+      <c r="AR9" s="33"/>
+      <c r="AS9" s="33"/>
+      <c r="AT9" s="33"/>
+      <c r="AU9" s="33"/>
+      <c r="AV9" s="33"/>
+      <c r="AW9" s="33"/>
+      <c r="AX9" s="33"/>
+      <c r="AY9" s="33"/>
+      <c r="AZ9" s="33"/>
+      <c r="BA9" s="33"/>
+      <c r="BB9" s="33"/>
+      <c r="BC9" s="33"/>
+      <c r="BD9" s="33"/>
+      <c r="BE9" s="33"/>
+      <c r="BF9" s="33"/>
+      <c r="BG9" s="33"/>
+      <c r="BH9" s="33"/>
+      <c r="BI9" s="33"/>
+      <c r="BJ9" s="33"/>
       <c r="BK9" s="5"/>
-    </row>
-    <row r="10" spans="1:64" s="59" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="BL9" s="5"/>
+      <c r="BM9" s="5"/>
+      <c r="BN9" s="5"/>
+      <c r="BO9" s="5"/>
+      <c r="BP9" s="5"/>
+    </row>
+    <row r="10" spans="1:68" s="44" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A10" s="5"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="80" t="s">
-        <v>60</v>
+      <c r="B10" s="12"/>
+      <c r="C10" s="41" t="s">
+        <v>70</v>
       </c>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="72" t="s">
-        <v>61</v>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="33" t="s">
+        <v>52</v>
       </c>
-      <c r="J10" s="82"/>
-      <c r="K10" s="82"/>
-      <c r="L10" s="82"/>
-      <c r="M10" s="82"/>
-      <c r="N10" s="82"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="82"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="82"/>
-      <c r="S10" s="82"/>
-      <c r="T10" s="82"/>
-      <c r="U10" s="82"/>
-      <c r="V10" s="82"/>
-      <c r="W10" s="82"/>
-      <c r="X10" s="82"/>
-      <c r="Y10" s="82"/>
-      <c r="Z10" s="82"/>
-      <c r="AA10" s="82"/>
-      <c r="AB10" s="82"/>
-      <c r="AC10" s="82"/>
-      <c r="AD10" s="82"/>
-      <c r="AE10" s="82"/>
-      <c r="AF10" s="82"/>
-      <c r="AG10" s="82"/>
-      <c r="AH10" s="82"/>
-      <c r="AI10" s="82"/>
-      <c r="AJ10" s="82"/>
-      <c r="AK10" s="82"/>
-      <c r="AL10" s="82"/>
-      <c r="AM10" s="82"/>
-      <c r="AN10" s="82"/>
-      <c r="AO10" s="82"/>
-      <c r="AP10" s="82"/>
-      <c r="AQ10" s="82"/>
-      <c r="AR10" s="82"/>
-      <c r="AS10" s="82"/>
-      <c r="AT10" s="82"/>
-      <c r="AU10" s="82"/>
-      <c r="AV10" s="82"/>
-      <c r="AW10" s="82"/>
-      <c r="AX10" s="82"/>
-      <c r="AY10" s="82"/>
-      <c r="AZ10" s="82"/>
-      <c r="BA10" s="82"/>
-      <c r="BB10" s="82"/>
-      <c r="BC10" s="82"/>
-      <c r="BD10" s="82"/>
-      <c r="BE10" s="82"/>
-      <c r="BF10" s="82"/>
-      <c r="BG10" s="82"/>
-      <c r="BH10" s="82"/>
-      <c r="BI10" s="82"/>
-      <c r="BJ10" s="82"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
+      <c r="AA10" s="49"/>
+      <c r="AB10" s="49"/>
+      <c r="AC10" s="49"/>
+      <c r="AD10" s="49"/>
+      <c r="AE10" s="49"/>
+      <c r="AF10" s="49"/>
+      <c r="AG10" s="49"/>
+      <c r="AH10" s="49"/>
+      <c r="AI10" s="49"/>
+      <c r="AJ10" s="49"/>
+      <c r="AK10" s="49"/>
+      <c r="AL10" s="49"/>
+      <c r="AM10" s="49"/>
+      <c r="AN10" s="49"/>
+      <c r="AO10" s="49"/>
+      <c r="AP10" s="49"/>
+      <c r="AQ10" s="49"/>
+      <c r="AR10" s="49"/>
+      <c r="AS10" s="49"/>
+      <c r="AT10" s="49"/>
+      <c r="AU10" s="49"/>
+      <c r="AV10" s="49"/>
+      <c r="AW10" s="49"/>
+      <c r="AX10" s="49"/>
+      <c r="AY10" s="49"/>
+      <c r="AZ10" s="49"/>
+      <c r="BA10" s="49"/>
+      <c r="BB10" s="49"/>
+      <c r="BC10" s="49"/>
+      <c r="BD10" s="49"/>
+      <c r="BE10" s="49"/>
+      <c r="BF10" s="49"/>
+      <c r="BG10" s="49"/>
+      <c r="BH10" s="49"/>
+      <c r="BI10" s="49"/>
+      <c r="BJ10" s="49"/>
       <c r="BK10" s="5"/>
-      <c r="BL10" s="57"/>
-    </row>
-    <row r="11" spans="1:64" s="58" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="BL10" s="5"/>
+      <c r="BM10" s="5"/>
+      <c r="BN10" s="5"/>
+      <c r="BO10" s="5"/>
+      <c r="BP10" s="5"/>
+    </row>
+    <row r="11" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -4205,8 +4294,13 @@
       <c r="BI11" s="5"/>
       <c r="BJ11" s="5"/>
       <c r="BK11" s="5"/>
-    </row>
-    <row r="12" spans="1:64" ht="16.5">
+      <c r="BL11" s="5"/>
+      <c r="BM11" s="5"/>
+      <c r="BN11" s="5"/>
+      <c r="BO11" s="5"/>
+      <c r="BP11" s="5"/>
+    </row>
+    <row r="12" spans="1:68" ht="16.5">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -4270,75 +4364,85 @@
       <c r="BI12" s="5"/>
       <c r="BJ12" s="5"/>
       <c r="BK12" s="5"/>
-    </row>
-    <row r="13" spans="1:64" ht="15.75" customHeight="1">
+      <c r="BL12" s="5"/>
+      <c r="BM12" s="5"/>
+      <c r="BN12" s="5"/>
+      <c r="BO12" s="5"/>
+      <c r="BP12" s="5"/>
+    </row>
+    <row r="13" spans="1:68" ht="15.75" customHeight="1">
       <c r="A13" s="6" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B13" s="7"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="9"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
-      <c r="S13" s="9"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="9"/>
-      <c r="W13" s="9"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
-      <c r="Z13" s="9"/>
-      <c r="AA13" s="9"/>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="9"/>
-      <c r="AD13" s="9"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
-      <c r="AG13" s="9"/>
-      <c r="AH13" s="9"/>
-      <c r="AI13" s="9"/>
-      <c r="AJ13" s="9"/>
-      <c r="AK13" s="9"/>
-      <c r="AL13" s="9"/>
-      <c r="AM13" s="9"/>
-      <c r="AN13" s="9"/>
-      <c r="AO13" s="9"/>
-      <c r="AP13" s="9"/>
-      <c r="AQ13" s="9"/>
-      <c r="AR13" s="9"/>
-      <c r="AS13" s="9"/>
-      <c r="AT13" s="9"/>
-      <c r="AU13" s="9"/>
-      <c r="AV13" s="9"/>
-      <c r="AW13" s="9"/>
-      <c r="AX13" s="9"/>
-      <c r="AY13" s="9"/>
-      <c r="AZ13" s="9"/>
-      <c r="BA13" s="9"/>
-      <c r="BB13" s="9"/>
-      <c r="BC13" s="9"/>
-      <c r="BD13" s="9"/>
-      <c r="BE13" s="9"/>
-      <c r="BF13" s="9"/>
-      <c r="BG13" s="9"/>
-      <c r="BH13" s="9"/>
-      <c r="BI13" s="9"/>
-      <c r="BJ13" s="9"/>
-      <c r="BK13" s="9"/>
-    </row>
-    <row r="14" spans="1:64" ht="16.5">
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="8"/>
+      <c r="AO13" s="8"/>
+      <c r="AP13" s="8"/>
+      <c r="AQ13" s="8"/>
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="8"/>
+      <c r="AT13" s="8"/>
+      <c r="AU13" s="8"/>
+      <c r="AV13" s="8"/>
+      <c r="AW13" s="8"/>
+      <c r="AX13" s="8"/>
+      <c r="AY13" s="8"/>
+      <c r="AZ13" s="8"/>
+      <c r="BA13" s="8"/>
+      <c r="BB13" s="8"/>
+      <c r="BC13" s="8"/>
+      <c r="BD13" s="8"/>
+      <c r="BE13" s="8"/>
+      <c r="BF13" s="8"/>
+      <c r="BG13" s="8"/>
+      <c r="BH13" s="8"/>
+      <c r="BI13" s="8"/>
+      <c r="BJ13" s="8"/>
+      <c r="BK13" s="8"/>
+      <c r="BL13" s="8"/>
+      <c r="BM13" s="8"/>
+      <c r="BN13" s="8"/>
+      <c r="BO13" s="8"/>
+      <c r="BP13" s="8"/>
+    </row>
+    <row r="14" spans="1:68" ht="16.5">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -4349,26 +4453,26 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="4"/>
-      <c r="W14" s="4"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
-      <c r="Z14" s="4"/>
-      <c r="AA14" s="4"/>
-      <c r="AB14" s="4"/>
-      <c r="AC14" s="4"/>
-      <c r="AD14" s="4"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
@@ -4377,732 +4481,794 @@
       <c r="AJ14" s="5"/>
       <c r="AK14" s="5"/>
       <c r="AL14" s="5"/>
-      <c r="AM14" s="4"/>
-      <c r="AN14" s="4"/>
-      <c r="AO14" s="4"/>
-      <c r="AP14" s="4"/>
-      <c r="AQ14" s="4"/>
-      <c r="AR14" s="4"/>
-      <c r="AS14" s="4"/>
-      <c r="AT14" s="4"/>
-      <c r="AU14" s="4"/>
-      <c r="AV14" s="4"/>
-      <c r="AW14" s="4"/>
-      <c r="AX14" s="4"/>
-      <c r="AY14" s="4"/>
-      <c r="AZ14" s="4"/>
-      <c r="BA14" s="4"/>
-      <c r="BB14" s="4"/>
-      <c r="BC14" s="4"/>
-      <c r="BD14" s="4"/>
-      <c r="BE14" s="4"/>
-      <c r="BF14" s="4"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="5"/>
+      <c r="AR14" s="5"/>
+      <c r="AS14" s="5"/>
+      <c r="AT14" s="5"/>
+      <c r="AU14" s="5"/>
+      <c r="AV14" s="5"/>
+      <c r="AW14" s="5"/>
+      <c r="AX14" s="5"/>
+      <c r="AY14" s="5"/>
+      <c r="AZ14" s="5"/>
+      <c r="BA14" s="5"/>
+      <c r="BB14" s="5"/>
+      <c r="BC14" s="5"/>
+      <c r="BD14" s="5"/>
+      <c r="BE14" s="5"/>
+      <c r="BF14" s="5"/>
       <c r="BG14" s="5"/>
       <c r="BH14" s="5"/>
       <c r="BI14" s="5"/>
       <c r="BJ14" s="5"/>
       <c r="BK14" s="5"/>
-    </row>
-    <row r="15" spans="1:64" ht="16.5" outlineLevel="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15" t="s">
+      <c r="BL14" s="5"/>
+      <c r="BM14" s="5"/>
+      <c r="BN14" s="5"/>
+      <c r="BO14" s="5"/>
+      <c r="BP14" s="5"/>
+    </row>
+    <row r="15" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A15" s="5"/>
+      <c r="B15" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="16" t="s">
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="17"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
-      <c r="W15" s="18"/>
-      <c r="X15" s="18"/>
-      <c r="Y15" s="18"/>
-      <c r="Z15" s="18"/>
-      <c r="AA15" s="18"/>
-      <c r="AB15" s="18"/>
-      <c r="AC15" s="18"/>
-      <c r="AD15" s="19"/>
-      <c r="AE15" s="20" t="s">
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="43"/>
+      <c r="W15" s="43"/>
+      <c r="X15" s="43"/>
+      <c r="Y15" s="43"/>
+      <c r="Z15" s="43"/>
+      <c r="AA15" s="43"/>
+      <c r="AB15" s="43"/>
+      <c r="AC15" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="AF15" s="17"/>
-      <c r="AG15" s="18"/>
-      <c r="AH15" s="18"/>
-      <c r="AI15" s="18"/>
-      <c r="AJ15" s="18"/>
-      <c r="AK15" s="18"/>
-      <c r="AL15" s="19"/>
-      <c r="AM15" s="20" t="s">
+      <c r="AD15" s="43"/>
+      <c r="AE15" s="43"/>
+      <c r="AF15" s="43"/>
+      <c r="AG15" s="43"/>
+      <c r="AH15" s="43"/>
+      <c r="AI15" s="43"/>
+      <c r="AJ15" s="43"/>
+      <c r="AK15" s="43"/>
+      <c r="AL15" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="AN15" s="17"/>
-      <c r="AO15" s="18"/>
-      <c r="AP15" s="18"/>
-      <c r="AQ15" s="21"/>
-      <c r="AR15" s="21"/>
-      <c r="AS15" s="21"/>
-      <c r="AT15" s="21"/>
-      <c r="AU15" s="21"/>
-      <c r="AV15" s="21"/>
-      <c r="AW15" s="21"/>
-      <c r="AX15" s="21"/>
-      <c r="AY15" s="21"/>
-      <c r="AZ15" s="18"/>
-      <c r="BA15" s="18"/>
-      <c r="BB15" s="18"/>
-      <c r="BC15" s="18"/>
-      <c r="BD15" s="18"/>
-      <c r="BE15" s="18"/>
-      <c r="BF15" s="19"/>
-      <c r="BG15" s="22"/>
-      <c r="BH15" s="22"/>
-      <c r="BI15" s="22"/>
-      <c r="BJ15" s="22"/>
-      <c r="BK15" s="22"/>
-    </row>
-    <row r="16" spans="1:64" ht="16.5" outlineLevel="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="23">
+      <c r="AM15" s="43"/>
+      <c r="AN15" s="43"/>
+      <c r="AO15" s="43"/>
+      <c r="AP15" s="43"/>
+      <c r="AQ15" s="43"/>
+      <c r="AR15" s="43"/>
+      <c r="AS15" s="43"/>
+      <c r="AT15" s="43"/>
+      <c r="AU15" s="43"/>
+      <c r="AV15" s="43"/>
+      <c r="AW15" s="43"/>
+      <c r="AX15" s="43"/>
+      <c r="AY15" s="43"/>
+      <c r="AZ15" s="43"/>
+      <c r="BA15" s="43"/>
+      <c r="BB15" s="43"/>
+      <c r="BC15" s="43"/>
+      <c r="BD15" s="43"/>
+      <c r="BE15" s="43"/>
+      <c r="BF15" s="43"/>
+      <c r="BG15" s="43"/>
+      <c r="BH15" s="43"/>
+      <c r="BI15" s="43"/>
+      <c r="BJ15" s="43"/>
+      <c r="BK15" s="43"/>
+      <c r="BL15" s="43"/>
+      <c r="BM15" s="43"/>
+      <c r="BN15" s="43"/>
+      <c r="BO15" s="43"/>
+      <c r="BP15" s="5"/>
+    </row>
+    <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A16" s="5"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
+      <c r="V16" s="43"/>
+      <c r="W16" s="43"/>
+      <c r="X16" s="43"/>
+      <c r="Y16" s="43"/>
+      <c r="Z16" s="43"/>
+      <c r="AA16" s="43"/>
+      <c r="AB16" s="43"/>
+      <c r="AC16" s="43"/>
+      <c r="AD16" s="43"/>
+      <c r="AE16" s="43"/>
+      <c r="AF16" s="43"/>
+      <c r="AG16" s="43"/>
+      <c r="AH16" s="43"/>
+      <c r="AI16" s="43"/>
+      <c r="AJ16" s="43"/>
+      <c r="AK16" s="43"/>
+      <c r="AL16" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM16" s="43"/>
+      <c r="AN16" s="43"/>
+      <c r="AO16" s="43"/>
+      <c r="AP16" s="43"/>
+      <c r="AQ16" s="43"/>
+      <c r="AR16" s="43"/>
+      <c r="AS16" s="43"/>
+      <c r="AT16" s="43"/>
+      <c r="AU16" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="AV16" s="43"/>
+      <c r="AW16" s="43"/>
+      <c r="AX16" s="43"/>
+      <c r="AY16" s="43"/>
+      <c r="AZ16" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="BA16" s="43"/>
+      <c r="BB16" s="43"/>
+      <c r="BC16" s="43"/>
+      <c r="BD16" s="43"/>
+      <c r="BE16" s="43"/>
+      <c r="BF16" s="43"/>
+      <c r="BG16" s="43"/>
+      <c r="BH16" s="43"/>
+      <c r="BI16" s="43"/>
+      <c r="BJ16" s="43"/>
+      <c r="BK16" s="43"/>
+      <c r="BL16" s="43"/>
+      <c r="BM16" s="43"/>
+      <c r="BN16" s="43"/>
+      <c r="BO16" s="43"/>
+      <c r="BP16" s="5"/>
+    </row>
+    <row r="17" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A17" s="5"/>
+      <c r="B17" s="52">
+        <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C17" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="53"/>
+      <c r="J17" s="53"/>
+      <c r="K17" s="53"/>
+      <c r="L17" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="M17" s="53"/>
+      <c r="N17" s="53"/>
+      <c r="O17" s="53"/>
+      <c r="P17" s="53"/>
+      <c r="Q17" s="53"/>
+      <c r="R17" s="53"/>
+      <c r="S17" s="53"/>
+      <c r="T17" s="53"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="53"/>
+      <c r="X17" s="53"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="53"/>
+      <c r="AD17" s="53"/>
+      <c r="AE17" s="53"/>
+      <c r="AF17" s="53"/>
+      <c r="AG17" s="53"/>
+      <c r="AH17" s="53"/>
+      <c r="AI17" s="53"/>
+      <c r="AJ17" s="53"/>
+      <c r="AK17" s="53"/>
+      <c r="AL17" s="54"/>
+      <c r="AM17" s="54"/>
+      <c r="AN17" s="54"/>
+      <c r="AO17" s="54"/>
+      <c r="AP17" s="54"/>
+      <c r="AQ17" s="54"/>
+      <c r="AR17" s="54"/>
+      <c r="AS17" s="54"/>
+      <c r="AT17" s="54"/>
+      <c r="AU17" s="54"/>
+      <c r="AV17" s="54"/>
+      <c r="AW17" s="54"/>
+      <c r="AX17" s="54"/>
+      <c r="AY17" s="54"/>
+      <c r="AZ17" s="54"/>
+      <c r="BA17" s="54"/>
+      <c r="BB17" s="54"/>
+      <c r="BC17" s="54"/>
+      <c r="BD17" s="54"/>
+      <c r="BE17" s="54"/>
+      <c r="BF17" s="54"/>
+      <c r="BG17" s="54"/>
+      <c r="BH17" s="54"/>
+      <c r="BI17" s="54"/>
+      <c r="BJ17" s="54"/>
+      <c r="BK17" s="54"/>
+      <c r="BL17" s="54"/>
+      <c r="BM17" s="54"/>
+      <c r="BN17" s="54"/>
+      <c r="BO17" s="54"/>
+      <c r="BP17" s="5"/>
+    </row>
+    <row r="18" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A18" s="5"/>
+      <c r="B18" s="45">
+        <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>2</v>
+      </c>
+      <c r="C18" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="L16" s="75"/>
-      <c r="M16" s="75"/>
-      <c r="N16" s="75"/>
-      <c r="O16" s="75"/>
-      <c r="P16" s="75"/>
-      <c r="Q16" s="75"/>
-      <c r="R16" s="75"/>
-      <c r="S16" s="75"/>
-      <c r="T16" s="75"/>
-      <c r="U16" s="75"/>
-      <c r="V16" s="75"/>
-      <c r="W16" s="75"/>
-      <c r="X16" s="75"/>
-      <c r="Y16" s="75"/>
-      <c r="Z16" s="75"/>
-      <c r="AA16" s="75"/>
-      <c r="AB16" s="75"/>
-      <c r="AC16" s="75"/>
-      <c r="AD16" s="76"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="26"/>
-      <c r="AG16" s="26"/>
-      <c r="AH16" s="26"/>
-      <c r="AI16" s="26"/>
-      <c r="AJ16" s="26"/>
-      <c r="AK16" s="26"/>
-      <c r="AL16" s="27"/>
-      <c r="AM16" s="29"/>
-      <c r="AN16" s="30"/>
-      <c r="AO16" s="30"/>
-      <c r="AP16" s="26"/>
-      <c r="AQ16" s="26"/>
-      <c r="AR16" s="26"/>
-      <c r="AS16" s="26"/>
-      <c r="AT16" s="26"/>
-      <c r="AU16" s="26"/>
-      <c r="AV16" s="26"/>
-      <c r="AW16" s="26"/>
-      <c r="AX16" s="26"/>
-      <c r="AY16" s="26"/>
-      <c r="AZ16" s="26"/>
-      <c r="BA16" s="26"/>
-      <c r="BB16" s="26"/>
-      <c r="BC16" s="26"/>
-      <c r="BD16" s="26"/>
-      <c r="BE16" s="26"/>
-      <c r="BF16" s="27"/>
-      <c r="BG16" s="22"/>
-      <c r="BH16" s="22"/>
-      <c r="BI16" s="22"/>
-      <c r="BJ16" s="22"/>
-      <c r="BK16" s="22"/>
-    </row>
-    <row r="17" spans="1:63" ht="16.5" outlineLevel="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="31">
-        <f t="shared" ref="B17:B21" si="0">B16+1</f>
-        <v>2</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="33"/>
-      <c r="T17" s="33"/>
-      <c r="U17" s="33"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="33"/>
-      <c r="AB17" s="33"/>
-      <c r="AC17" s="33"/>
-      <c r="AD17" s="33"/>
-      <c r="AE17" s="33"/>
-      <c r="AF17" s="33"/>
-      <c r="AG17" s="33"/>
-      <c r="AH17" s="33"/>
-      <c r="AI17" s="33"/>
-      <c r="AJ17" s="33"/>
-      <c r="AK17" s="33"/>
-      <c r="AL17" s="33"/>
-      <c r="AM17" s="33"/>
-      <c r="AN17" s="33"/>
-      <c r="AO17" s="33"/>
-      <c r="AP17" s="33"/>
-      <c r="AQ17" s="33"/>
-      <c r="AR17" s="33"/>
-      <c r="AS17" s="33"/>
-      <c r="AT17" s="33"/>
-      <c r="AU17" s="33"/>
-      <c r="AV17" s="33"/>
-      <c r="AW17" s="33"/>
-      <c r="AX17" s="33"/>
-      <c r="AY17" s="33"/>
-      <c r="AZ17" s="33"/>
-      <c r="BA17" s="33"/>
-      <c r="BB17" s="33"/>
-      <c r="BC17" s="33"/>
-      <c r="BD17" s="33"/>
-      <c r="BE17" s="33"/>
-      <c r="BF17" s="34"/>
-      <c r="BG17" s="22"/>
-      <c r="BH17" s="22"/>
-      <c r="BI17" s="22"/>
-      <c r="BJ17" s="22"/>
-      <c r="BK17" s="22"/>
-    </row>
-    <row r="18" spans="1:63" ht="16.5" outlineLevel="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="31">
-        <f t="shared" si="0"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56"/>
+      <c r="N18" s="56"/>
+      <c r="O18" s="56"/>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="56"/>
+      <c r="V18" s="56"/>
+      <c r="W18" s="56"/>
+      <c r="X18" s="56"/>
+      <c r="Y18" s="56"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="56"/>
+      <c r="AD18" s="56"/>
+      <c r="AE18" s="56"/>
+      <c r="AF18" s="56"/>
+      <c r="AG18" s="56"/>
+      <c r="AH18" s="56"/>
+      <c r="AI18" s="56"/>
+      <c r="AJ18" s="56"/>
+      <c r="AK18" s="56"/>
+      <c r="AL18" s="56"/>
+      <c r="AM18" s="56"/>
+      <c r="AN18" s="56"/>
+      <c r="AO18" s="56"/>
+      <c r="AP18" s="56"/>
+      <c r="AQ18" s="56"/>
+      <c r="AR18" s="56"/>
+      <c r="AS18" s="56"/>
+      <c r="AT18" s="56"/>
+      <c r="AU18" s="56"/>
+      <c r="AV18" s="56"/>
+      <c r="AW18" s="56"/>
+      <c r="AX18" s="56"/>
+      <c r="AY18" s="56"/>
+      <c r="AZ18" s="56"/>
+      <c r="BA18" s="56"/>
+      <c r="BB18" s="56"/>
+      <c r="BC18" s="56"/>
+      <c r="BD18" s="56"/>
+      <c r="BE18" s="56"/>
+      <c r="BF18" s="56"/>
+      <c r="BG18" s="56"/>
+      <c r="BH18" s="56"/>
+      <c r="BI18" s="56"/>
+      <c r="BJ18" s="56"/>
+      <c r="BK18" s="56"/>
+      <c r="BL18" s="56"/>
+      <c r="BM18" s="56"/>
+      <c r="BN18" s="56"/>
+      <c r="BO18" s="57"/>
+      <c r="BP18" s="5"/>
+    </row>
+    <row r="19" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A19" s="5"/>
+      <c r="B19" s="45">
+        <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36" t="s">
-        <v>21</v>
+      <c r="C19" s="58"/>
+      <c r="D19" s="60" t="s">
+        <v>64</v>
       </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="74" t="s">
-        <v>22</v>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="53" t="s">
+        <v>65</v>
       </c>
-      <c r="L18" s="75"/>
-      <c r="M18" s="75"/>
-      <c r="N18" s="75"/>
-      <c r="O18" s="75"/>
-      <c r="P18" s="75"/>
-      <c r="Q18" s="75"/>
-      <c r="R18" s="75"/>
-      <c r="S18" s="75"/>
-      <c r="T18" s="75"/>
-      <c r="U18" s="75"/>
-      <c r="V18" s="75"/>
-      <c r="W18" s="75"/>
-      <c r="X18" s="75"/>
-      <c r="Y18" s="75"/>
-      <c r="Z18" s="75"/>
-      <c r="AA18" s="75"/>
-      <c r="AB18" s="75"/>
-      <c r="AC18" s="75"/>
-      <c r="AD18" s="76"/>
-      <c r="AE18" s="41"/>
-      <c r="AF18" s="38"/>
-      <c r="AG18" s="38"/>
-      <c r="AH18" s="38"/>
-      <c r="AI18" s="38"/>
-      <c r="AJ18" s="38"/>
-      <c r="AK18" s="38"/>
-      <c r="AL18" s="39"/>
-      <c r="AM18" s="40"/>
-      <c r="AN18" s="42"/>
-      <c r="AO18" s="42"/>
-      <c r="AP18" s="38"/>
-      <c r="AQ18" s="38"/>
-      <c r="AR18" s="38"/>
-      <c r="AS18" s="38"/>
-      <c r="AT18" s="38"/>
-      <c r="AU18" s="38"/>
-      <c r="AV18" s="38"/>
-      <c r="AW18" s="38"/>
-      <c r="AX18" s="38"/>
-      <c r="AY18" s="38"/>
-      <c r="AZ18" s="38"/>
-      <c r="BA18" s="38"/>
-      <c r="BB18" s="38"/>
-      <c r="BC18" s="38"/>
-      <c r="BD18" s="38"/>
-      <c r="BE18" s="38"/>
-      <c r="BF18" s="39"/>
-      <c r="BG18" s="22"/>
-      <c r="BH18" s="22"/>
-      <c r="BI18" s="22"/>
-      <c r="BJ18" s="22"/>
-      <c r="BK18" s="22"/>
-    </row>
-    <row r="19" spans="1:63" ht="16.5" outlineLevel="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="31">
-        <f t="shared" si="0"/>
+      <c r="M19" s="53"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+      <c r="P19" s="53"/>
+      <c r="Q19" s="53"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="53"/>
+      <c r="T19" s="53"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="53"/>
+      <c r="Z19" s="53"/>
+      <c r="AA19" s="53"/>
+      <c r="AB19" s="53"/>
+      <c r="AC19" s="53"/>
+      <c r="AD19" s="53"/>
+      <c r="AE19" s="53"/>
+      <c r="AF19" s="53"/>
+      <c r="AG19" s="53"/>
+      <c r="AH19" s="53"/>
+      <c r="AI19" s="53"/>
+      <c r="AJ19" s="53"/>
+      <c r="AK19" s="53"/>
+      <c r="AL19" s="54"/>
+      <c r="AM19" s="54"/>
+      <c r="AN19" s="54"/>
+      <c r="AO19" s="54"/>
+      <c r="AP19" s="54"/>
+      <c r="AQ19" s="54"/>
+      <c r="AR19" s="54"/>
+      <c r="AS19" s="54"/>
+      <c r="AT19" s="54"/>
+      <c r="AU19" s="54"/>
+      <c r="AV19" s="54"/>
+      <c r="AW19" s="54"/>
+      <c r="AX19" s="54"/>
+      <c r="AY19" s="54"/>
+      <c r="AZ19" s="54"/>
+      <c r="BA19" s="54"/>
+      <c r="BB19" s="54"/>
+      <c r="BC19" s="54"/>
+      <c r="BD19" s="54"/>
+      <c r="BE19" s="54"/>
+      <c r="BF19" s="54"/>
+      <c r="BG19" s="54"/>
+      <c r="BH19" s="54"/>
+      <c r="BI19" s="54"/>
+      <c r="BJ19" s="54"/>
+      <c r="BK19" s="54"/>
+      <c r="BL19" s="54"/>
+      <c r="BM19" s="54"/>
+      <c r="BN19" s="54"/>
+      <c r="BO19" s="54"/>
+      <c r="BP19" s="5"/>
+    </row>
+    <row r="20" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="45">
+        <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C19" s="43" t="s">
-        <v>23</v>
+      <c r="C20" s="61" t="s">
+        <v>67</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="44"/>
-      <c r="Z19" s="44"/>
-      <c r="AA19" s="44"/>
-      <c r="AB19" s="44"/>
-      <c r="AC19" s="44"/>
-      <c r="AD19" s="44"/>
-      <c r="AE19" s="44"/>
-      <c r="AF19" s="44"/>
-      <c r="AG19" s="44"/>
-      <c r="AH19" s="44"/>
-      <c r="AI19" s="44"/>
-      <c r="AJ19" s="44"/>
-      <c r="AK19" s="44"/>
-      <c r="AL19" s="44"/>
-      <c r="AM19" s="44"/>
-      <c r="AN19" s="44"/>
-      <c r="AO19" s="44"/>
-      <c r="AP19" s="44"/>
-      <c r="AQ19" s="44"/>
-      <c r="AR19" s="44"/>
-      <c r="AS19" s="44"/>
-      <c r="AT19" s="44"/>
-      <c r="AU19" s="44"/>
-      <c r="AV19" s="44"/>
-      <c r="AW19" s="44"/>
-      <c r="AX19" s="44"/>
-      <c r="AY19" s="44"/>
-      <c r="AZ19" s="44"/>
-      <c r="BA19" s="44"/>
-      <c r="BB19" s="44"/>
-      <c r="BC19" s="44"/>
-      <c r="BD19" s="44"/>
-      <c r="BE19" s="44"/>
-      <c r="BF19" s="45"/>
-      <c r="BG19" s="22"/>
-      <c r="BH19" s="22"/>
-      <c r="BI19" s="22"/>
-      <c r="BJ19" s="22"/>
-      <c r="BK19" s="22"/>
-    </row>
-    <row r="20" spans="1:63" ht="16.5" outlineLevel="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="31">
-        <f t="shared" si="0"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="62"/>
+      <c r="AB20" s="62"/>
+      <c r="AC20" s="62"/>
+      <c r="AD20" s="62"/>
+      <c r="AE20" s="62"/>
+      <c r="AF20" s="62"/>
+      <c r="AG20" s="62"/>
+      <c r="AH20" s="62"/>
+      <c r="AI20" s="62"/>
+      <c r="AJ20" s="62"/>
+      <c r="AK20" s="62"/>
+      <c r="AL20" s="62"/>
+      <c r="AM20" s="62"/>
+      <c r="AN20" s="62"/>
+      <c r="AO20" s="62"/>
+      <c r="AP20" s="62"/>
+      <c r="AQ20" s="62"/>
+      <c r="AR20" s="62"/>
+      <c r="AS20" s="62"/>
+      <c r="AT20" s="62"/>
+      <c r="AU20" s="62"/>
+      <c r="AV20" s="62"/>
+      <c r="AW20" s="62"/>
+      <c r="AX20" s="62"/>
+      <c r="AY20" s="62"/>
+      <c r="AZ20" s="62"/>
+      <c r="BA20" s="62"/>
+      <c r="BB20" s="62"/>
+      <c r="BC20" s="62"/>
+      <c r="BD20" s="62"/>
+      <c r="BE20" s="62"/>
+      <c r="BF20" s="62"/>
+      <c r="BG20" s="62"/>
+      <c r="BH20" s="62"/>
+      <c r="BI20" s="62"/>
+      <c r="BJ20" s="62"/>
+      <c r="BK20" s="62"/>
+      <c r="BL20" s="62"/>
+      <c r="BM20" s="62"/>
+      <c r="BN20" s="62"/>
+      <c r="BO20" s="63"/>
+      <c r="BP20" s="5"/>
+    </row>
+    <row r="21" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A21" s="5"/>
+      <c r="B21" s="45">
+        <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>5</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="36" t="s">
-        <v>24</v>
+      <c r="C21" s="65"/>
+      <c r="D21" s="59" t="s">
+        <v>64</v>
       </c>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="74" t="s">
-        <v>25</v>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="50" t="s">
+        <v>65</v>
       </c>
-      <c r="L20" s="75"/>
-      <c r="M20" s="75"/>
-      <c r="N20" s="75"/>
-      <c r="O20" s="75"/>
-      <c r="P20" s="75"/>
-      <c r="Q20" s="75"/>
-      <c r="R20" s="75"/>
-      <c r="S20" s="75"/>
-      <c r="T20" s="75"/>
-      <c r="U20" s="75"/>
-      <c r="V20" s="75"/>
-      <c r="W20" s="75"/>
-      <c r="X20" s="75"/>
-      <c r="Y20" s="75"/>
-      <c r="Z20" s="75"/>
-      <c r="AA20" s="75"/>
-      <c r="AB20" s="75"/>
-      <c r="AC20" s="75"/>
-      <c r="AD20" s="76"/>
-      <c r="AE20" s="41"/>
-      <c r="AF20" s="38"/>
-      <c r="AG20" s="38"/>
-      <c r="AH20" s="38"/>
-      <c r="AI20" s="38"/>
-      <c r="AJ20" s="38"/>
-      <c r="AK20" s="38"/>
-      <c r="AL20" s="39"/>
-      <c r="AM20" s="40"/>
-      <c r="AN20" s="42"/>
-      <c r="AO20" s="42"/>
-      <c r="AP20" s="38"/>
-      <c r="AQ20" s="38"/>
-      <c r="AR20" s="38"/>
-      <c r="AS20" s="38"/>
-      <c r="AT20" s="38"/>
-      <c r="AU20" s="38"/>
-      <c r="AV20" s="38"/>
-      <c r="AW20" s="38"/>
-      <c r="AX20" s="38"/>
-      <c r="AY20" s="38"/>
-      <c r="AZ20" s="38"/>
-      <c r="BA20" s="38"/>
-      <c r="BB20" s="38"/>
-      <c r="BC20" s="38"/>
-      <c r="BD20" s="38"/>
-      <c r="BE20" s="38"/>
-      <c r="BF20" s="39"/>
-      <c r="BG20" s="22"/>
-      <c r="BH20" s="22"/>
-      <c r="BI20" s="22"/>
-      <c r="BJ20" s="22"/>
-      <c r="BK20" s="22"/>
-    </row>
-    <row r="21" spans="1:63" ht="16.5" outlineLevel="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="31">
-        <f t="shared" si="0"/>
+      <c r="M21" s="50"/>
+      <c r="N21" s="50"/>
+      <c r="O21" s="50"/>
+      <c r="P21" s="50"/>
+      <c r="Q21" s="50"/>
+      <c r="R21" s="50"/>
+      <c r="S21" s="50"/>
+      <c r="T21" s="50"/>
+      <c r="U21" s="50"/>
+      <c r="V21" s="50"/>
+      <c r="W21" s="50"/>
+      <c r="X21" s="50"/>
+      <c r="Y21" s="50"/>
+      <c r="Z21" s="50"/>
+      <c r="AA21" s="50"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="50"/>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="50"/>
+      <c r="AF21" s="50"/>
+      <c r="AG21" s="50"/>
+      <c r="AH21" s="50"/>
+      <c r="AI21" s="50"/>
+      <c r="AJ21" s="50"/>
+      <c r="AK21" s="50"/>
+      <c r="AL21" s="51"/>
+      <c r="AM21" s="51"/>
+      <c r="AN21" s="51"/>
+      <c r="AO21" s="51"/>
+      <c r="AP21" s="51"/>
+      <c r="AQ21" s="51"/>
+      <c r="AR21" s="51"/>
+      <c r="AS21" s="51"/>
+      <c r="AT21" s="51"/>
+      <c r="AU21" s="51"/>
+      <c r="AV21" s="51"/>
+      <c r="AW21" s="51"/>
+      <c r="AX21" s="51"/>
+      <c r="AY21" s="51"/>
+      <c r="AZ21" s="51"/>
+      <c r="BA21" s="51"/>
+      <c r="BB21" s="51"/>
+      <c r="BC21" s="51"/>
+      <c r="BD21" s="51"/>
+      <c r="BE21" s="51"/>
+      <c r="BF21" s="51"/>
+      <c r="BG21" s="51"/>
+      <c r="BH21" s="51"/>
+      <c r="BI21" s="51"/>
+      <c r="BJ21" s="51"/>
+      <c r="BK21" s="51"/>
+      <c r="BL21" s="51"/>
+      <c r="BM21" s="51"/>
+      <c r="BN21" s="51"/>
+      <c r="BO21" s="51"/>
+      <c r="BP21" s="5"/>
+    </row>
+    <row r="22" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A22" s="5"/>
+      <c r="B22" s="45">
+        <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>6</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="36" t="s">
-        <v>26</v>
+      <c r="C22" s="64"/>
+      <c r="D22" s="59" t="s">
+        <v>68</v>
       </c>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="74" t="s">
-        <v>66</v>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="50" t="s">
+        <v>69</v>
       </c>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="75"/>
-      <c r="O21" s="75"/>
-      <c r="P21" s="75"/>
-      <c r="Q21" s="75"/>
-      <c r="R21" s="75"/>
-      <c r="S21" s="75"/>
-      <c r="T21" s="75"/>
-      <c r="U21" s="75"/>
-      <c r="V21" s="75"/>
-      <c r="W21" s="75"/>
-      <c r="X21" s="75"/>
-      <c r="Y21" s="75"/>
-      <c r="Z21" s="75"/>
-      <c r="AA21" s="75"/>
-      <c r="AB21" s="75"/>
-      <c r="AC21" s="75"/>
-      <c r="AD21" s="76"/>
-      <c r="AE21" s="41"/>
-      <c r="AF21" s="38"/>
-      <c r="AG21" s="38"/>
-      <c r="AH21" s="38"/>
-      <c r="AI21" s="38"/>
-      <c r="AJ21" s="38"/>
-      <c r="AK21" s="38"/>
-      <c r="AL21" s="39"/>
-      <c r="AM21" s="40"/>
-      <c r="AN21" s="42"/>
-      <c r="AO21" s="42"/>
-      <c r="AP21" s="38"/>
-      <c r="AQ21" s="38"/>
-      <c r="AR21" s="38"/>
-      <c r="AS21" s="38"/>
-      <c r="AT21" s="38"/>
-      <c r="AU21" s="38"/>
-      <c r="AV21" s="38"/>
-      <c r="AW21" s="38"/>
-      <c r="AX21" s="38"/>
-      <c r="AY21" s="38"/>
-      <c r="AZ21" s="38"/>
-      <c r="BA21" s="38"/>
-      <c r="BB21" s="38"/>
-      <c r="BC21" s="38"/>
-      <c r="BD21" s="38"/>
-      <c r="BE21" s="38"/>
-      <c r="BF21" s="39"/>
-      <c r="BG21" s="22"/>
-      <c r="BH21" s="22"/>
-      <c r="BI21" s="22"/>
-      <c r="BJ21" s="22"/>
-      <c r="BK21" s="22"/>
-    </row>
-    <row r="22" spans="1:63" ht="16.5">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="5"/>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="5"/>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="5"/>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="5"/>
-      <c r="AD22" s="5"/>
-      <c r="AE22" s="5"/>
-      <c r="AF22" s="5"/>
-      <c r="AG22" s="5"/>
-      <c r="AH22" s="5"/>
-      <c r="AI22" s="5"/>
-      <c r="AJ22" s="5"/>
-      <c r="AK22" s="5"/>
-      <c r="AL22" s="5"/>
-      <c r="AM22" s="5"/>
-      <c r="AN22" s="5"/>
-      <c r="AO22" s="5"/>
-      <c r="AP22" s="5"/>
-      <c r="AQ22" s="5"/>
-      <c r="AR22" s="5"/>
-      <c r="AS22" s="5"/>
-      <c r="AT22" s="5"/>
-      <c r="AU22" s="5"/>
-      <c r="AV22" s="5"/>
-      <c r="AW22" s="5"/>
-      <c r="AX22" s="5"/>
-      <c r="AY22" s="5"/>
-      <c r="AZ22" s="5"/>
-      <c r="BA22" s="5"/>
-      <c r="BB22" s="5"/>
-      <c r="BC22" s="5"/>
-      <c r="BD22" s="5"/>
-      <c r="BE22" s="5"/>
-      <c r="BF22" s="5"/>
-      <c r="BG22" s="5"/>
-      <c r="BH22" s="5"/>
-      <c r="BI22" s="5"/>
-      <c r="BJ22" s="5"/>
-      <c r="BK22" s="5"/>
-    </row>
-    <row r="23" spans="1:63" ht="16.5">
-      <c r="A23" s="6" t="s">
-        <v>63</v>
+      <c r="M22" s="50"/>
+      <c r="N22" s="50"/>
+      <c r="O22" s="50"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="50"/>
+      <c r="U22" s="50"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="50"/>
+      <c r="X22" s="50"/>
+      <c r="Y22" s="50"/>
+      <c r="Z22" s="50"/>
+      <c r="AA22" s="50"/>
+      <c r="AB22" s="50"/>
+      <c r="AC22" s="50"/>
+      <c r="AD22" s="50"/>
+      <c r="AE22" s="50"/>
+      <c r="AF22" s="50"/>
+      <c r="AG22" s="50"/>
+      <c r="AH22" s="50"/>
+      <c r="AI22" s="50"/>
+      <c r="AJ22" s="50"/>
+      <c r="AK22" s="50"/>
+      <c r="AL22" s="51"/>
+      <c r="AM22" s="51"/>
+      <c r="AN22" s="51"/>
+      <c r="AO22" s="51"/>
+      <c r="AP22" s="51"/>
+      <c r="AQ22" s="51"/>
+      <c r="AR22" s="51"/>
+      <c r="AS22" s="51"/>
+      <c r="AT22" s="51"/>
+      <c r="AU22" s="51"/>
+      <c r="AV22" s="51"/>
+      <c r="AW22" s="51"/>
+      <c r="AX22" s="51"/>
+      <c r="AY22" s="51"/>
+      <c r="AZ22" s="51"/>
+      <c r="BA22" s="51"/>
+      <c r="BB22" s="51"/>
+      <c r="BC22" s="51"/>
+      <c r="BD22" s="51"/>
+      <c r="BE22" s="51"/>
+      <c r="BF22" s="51"/>
+      <c r="BG22" s="51"/>
+      <c r="BH22" s="51"/>
+      <c r="BI22" s="51"/>
+      <c r="BJ22" s="51"/>
+      <c r="BK22" s="51"/>
+      <c r="BL22" s="51"/>
+      <c r="BM22" s="51"/>
+      <c r="BN22" s="51"/>
+      <c r="BO22" s="51"/>
+      <c r="BP22" s="5"/>
+    </row>
+    <row r="23" spans="1:68" ht="16.5">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="5"/>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="5"/>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="5"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="5"/>
+      <c r="AR23" s="5"/>
+      <c r="AS23" s="5"/>
+      <c r="AT23" s="5"/>
+      <c r="AU23" s="5"/>
+      <c r="AV23" s="5"/>
+      <c r="AW23" s="5"/>
+      <c r="AX23" s="5"/>
+      <c r="AY23" s="5"/>
+      <c r="AZ23" s="5"/>
+      <c r="BA23" s="5"/>
+      <c r="BB23" s="5"/>
+      <c r="BC23" s="5"/>
+      <c r="BD23" s="5"/>
+      <c r="BE23" s="5"/>
+      <c r="BF23" s="5"/>
+      <c r="BG23" s="5"/>
+      <c r="BH23" s="5"/>
+      <c r="BI23" s="5"/>
+      <c r="BJ23" s="5"/>
+      <c r="BK23" s="5"/>
+      <c r="BL23" s="5"/>
+      <c r="BM23" s="5"/>
+      <c r="BN23" s="5"/>
+      <c r="BO23" s="5"/>
+      <c r="BP23" s="5"/>
+    </row>
+    <row r="24" spans="1:68" ht="16.5">
+      <c r="A24" s="6" t="s">
+        <v>54</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="9"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
-      <c r="AG23" s="9"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="9"/>
-      <c r="AJ23" s="9"/>
-      <c r="AK23" s="9"/>
-      <c r="AL23" s="9"/>
-      <c r="AM23" s="9"/>
-      <c r="AN23" s="9"/>
-      <c r="AO23" s="9"/>
-      <c r="AP23" s="9"/>
-      <c r="AQ23" s="9"/>
-      <c r="AR23" s="9"/>
-      <c r="AS23" s="9"/>
-      <c r="AT23" s="9"/>
-      <c r="AU23" s="9"/>
-      <c r="AV23" s="9"/>
-      <c r="AW23" s="9"/>
-      <c r="AX23" s="9"/>
-      <c r="AY23" s="9"/>
-      <c r="AZ23" s="9"/>
-      <c r="BA23" s="9"/>
-      <c r="BB23" s="9"/>
-      <c r="BC23" s="9"/>
-      <c r="BD23" s="9"/>
-      <c r="BE23" s="9"/>
-      <c r="BF23" s="9"/>
-      <c r="BG23" s="9"/>
-      <c r="BH23" s="9"/>
-      <c r="BI23" s="9"/>
-      <c r="BJ23" s="9"/>
-      <c r="BK23" s="9"/>
-    </row>
-    <row r="24" spans="1:63" ht="16.5">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="5"/>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="5"/>
-      <c r="AD24" s="5"/>
-      <c r="AE24" s="5"/>
-      <c r="AF24" s="5"/>
-      <c r="AG24" s="5"/>
-      <c r="AH24" s="5"/>
-      <c r="AI24" s="5"/>
-      <c r="AJ24" s="5"/>
-      <c r="AK24" s="5"/>
-      <c r="AL24" s="5"/>
-      <c r="AM24" s="5"/>
-      <c r="AN24" s="5"/>
-      <c r="AO24" s="5"/>
-      <c r="AP24" s="5"/>
-      <c r="AQ24" s="5"/>
-      <c r="AR24" s="5"/>
-      <c r="AS24" s="5"/>
-      <c r="AT24" s="5"/>
-      <c r="AU24" s="5"/>
-      <c r="AV24" s="5"/>
-      <c r="AW24" s="5"/>
-      <c r="AX24" s="5"/>
-      <c r="AY24" s="5"/>
-      <c r="AZ24" s="5"/>
-      <c r="BA24" s="5"/>
-      <c r="BB24" s="5"/>
-      <c r="BC24" s="5"/>
-      <c r="BD24" s="5"/>
-      <c r="BE24" s="5"/>
-      <c r="BF24" s="5"/>
-      <c r="BG24" s="5"/>
-      <c r="BH24" s="5"/>
-      <c r="BI24" s="5"/>
-      <c r="BJ24" s="5"/>
-      <c r="BK24" s="5"/>
-    </row>
-    <row r="25" spans="1:63" ht="16.5">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="8"/>
+      <c r="AN24" s="8"/>
+      <c r="AO24" s="8"/>
+      <c r="AP24" s="8"/>
+      <c r="AQ24" s="8"/>
+      <c r="AR24" s="8"/>
+      <c r="AS24" s="8"/>
+      <c r="AT24" s="8"/>
+      <c r="AU24" s="8"/>
+      <c r="AV24" s="8"/>
+      <c r="AW24" s="8"/>
+      <c r="AX24" s="8"/>
+      <c r="AY24" s="8"/>
+      <c r="AZ24" s="8"/>
+      <c r="BA24" s="8"/>
+      <c r="BB24" s="8"/>
+      <c r="BC24" s="8"/>
+      <c r="BD24" s="8"/>
+      <c r="BE24" s="8"/>
+      <c r="BF24" s="8"/>
+      <c r="BG24" s="8"/>
+      <c r="BH24" s="8"/>
+      <c r="BI24" s="8"/>
+      <c r="BJ24" s="8"/>
+      <c r="BK24" s="8"/>
+      <c r="BL24" s="8"/>
+      <c r="BM24" s="8"/>
+      <c r="BN24" s="8"/>
+      <c r="BO24" s="8"/>
+      <c r="BP24" s="8"/>
+    </row>
+    <row r="25" spans="1:68" ht="16.5">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -5166,144 +5332,157 @@
       <c r="BI25" s="5"/>
       <c r="BJ25" s="5"/>
       <c r="BK25" s="5"/>
-    </row>
-    <row r="26" spans="1:63" ht="16.5">
-      <c r="A26" s="6" t="s">
-        <v>64</v>
+      <c r="BL25" s="5"/>
+      <c r="BM25" s="5"/>
+      <c r="BN25" s="5"/>
+      <c r="BO25" s="5"/>
+      <c r="BP25" s="5"/>
+    </row>
+    <row r="26" spans="1:68" ht="16.5">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="5"/>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="5"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+      <c r="AO26" s="5"/>
+      <c r="AP26" s="5"/>
+      <c r="AQ26" s="5"/>
+      <c r="AR26" s="5"/>
+      <c r="AS26" s="5"/>
+      <c r="AT26" s="5"/>
+      <c r="AU26" s="5"/>
+      <c r="AV26" s="5"/>
+      <c r="AW26" s="5"/>
+      <c r="AX26" s="5"/>
+      <c r="AY26" s="5"/>
+      <c r="AZ26" s="5"/>
+      <c r="BA26" s="5"/>
+      <c r="BB26" s="5"/>
+      <c r="BC26" s="5"/>
+      <c r="BD26" s="5"/>
+      <c r="BE26" s="5"/>
+      <c r="BF26" s="5"/>
+      <c r="BG26" s="5"/>
+      <c r="BH26" s="5"/>
+      <c r="BI26" s="5"/>
+      <c r="BJ26" s="5"/>
+      <c r="BK26" s="5"/>
+      <c r="BL26" s="5"/>
+      <c r="BM26" s="5"/>
+      <c r="BN26" s="5"/>
+      <c r="BO26" s="5"/>
+      <c r="BP26" s="5"/>
+    </row>
+    <row r="27" spans="1:68" ht="16.5">
+      <c r="A27" s="6" t="s">
+        <v>55</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="2"/>
-      <c r="AB26" s="2"/>
-      <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
-      <c r="AE26" s="2"/>
-      <c r="AF26" s="2"/>
-      <c r="AG26" s="2"/>
-      <c r="AH26" s="2"/>
-      <c r="AI26" s="2"/>
-      <c r="AJ26" s="2"/>
-      <c r="AK26" s="2"/>
-      <c r="AL26" s="2"/>
-      <c r="AM26" s="2"/>
-      <c r="AN26" s="2"/>
-      <c r="AO26" s="2"/>
-      <c r="AP26" s="2"/>
-      <c r="AQ26" s="2"/>
-      <c r="AR26" s="2"/>
-      <c r="AS26" s="2"/>
-      <c r="AT26" s="2"/>
-      <c r="AU26" s="2"/>
-      <c r="AV26" s="2"/>
-      <c r="AW26" s="2"/>
-      <c r="AX26" s="2"/>
-      <c r="AY26" s="2"/>
-      <c r="AZ26" s="2"/>
-      <c r="BA26" s="2"/>
-      <c r="BB26" s="2"/>
-      <c r="BC26" s="2"/>
-      <c r="BD26" s="2"/>
-      <c r="BE26" s="2"/>
-      <c r="BF26" s="2"/>
-      <c r="BG26" s="2"/>
-      <c r="BH26" s="2"/>
-      <c r="BI26" s="2"/>
-      <c r="BJ26" s="2"/>
-      <c r="BK26" s="2"/>
-    </row>
-    <row r="27" spans="1:63" ht="16.5">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="5"/>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="5"/>
-      <c r="R27" s="5"/>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="5"/>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="5"/>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="5"/>
-      <c r="AD27" s="5"/>
-      <c r="AE27" s="5"/>
-      <c r="AF27" s="5"/>
-      <c r="AG27" s="5"/>
-      <c r="AH27" s="5"/>
-      <c r="AI27" s="5"/>
-      <c r="AJ27" s="5"/>
-      <c r="AK27" s="5"/>
-      <c r="AL27" s="5"/>
-      <c r="AM27" s="5"/>
-      <c r="AN27" s="5"/>
-      <c r="AO27" s="5"/>
-      <c r="AP27" s="5"/>
-      <c r="AQ27" s="5"/>
-      <c r="AR27" s="5"/>
-      <c r="AS27" s="5"/>
-      <c r="AT27" s="5"/>
-      <c r="AU27" s="5"/>
-      <c r="AV27" s="5"/>
-      <c r="AW27" s="5"/>
-      <c r="AX27" s="5"/>
-      <c r="AY27" s="5"/>
-      <c r="AZ27" s="5"/>
-      <c r="BA27" s="5"/>
-      <c r="BB27" s="5"/>
-      <c r="BC27" s="5"/>
-      <c r="BD27" s="5"/>
-      <c r="BE27" s="5"/>
-      <c r="BF27" s="5"/>
-      <c r="BG27" s="5"/>
-      <c r="BH27" s="5"/>
-      <c r="BI27" s="5"/>
-      <c r="BJ27" s="5"/>
-      <c r="BK27" s="5"/>
-    </row>
-    <row r="28" spans="1:63" ht="16.5" outlineLevel="1">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="2"/>
+      <c r="AS27" s="2"/>
+      <c r="AT27" s="2"/>
+      <c r="AU27" s="2"/>
+      <c r="AV27" s="2"/>
+      <c r="AW27" s="2"/>
+      <c r="AX27" s="2"/>
+      <c r="AY27" s="2"/>
+      <c r="AZ27" s="2"/>
+      <c r="BA27" s="2"/>
+      <c r="BB27" s="2"/>
+      <c r="BC27" s="2"/>
+      <c r="BD27" s="2"/>
+      <c r="BE27" s="2"/>
+      <c r="BF27" s="2"/>
+      <c r="BG27" s="2"/>
+      <c r="BH27" s="2"/>
+      <c r="BI27" s="2"/>
+      <c r="BJ27" s="2"/>
+      <c r="BK27" s="2"/>
+      <c r="BL27" s="2"/>
+      <c r="BM27" s="2"/>
+      <c r="BN27" s="2"/>
+      <c r="BO27" s="2"/>
+      <c r="BP27" s="2"/>
+    </row>
+    <row r="28" spans="1:68" ht="16.5">
       <c r="A28" s="5"/>
-      <c r="B28" s="48" t="s">
-        <v>65</v>
-      </c>
+      <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -5365,13 +5544,18 @@
       <c r="BI28" s="5"/>
       <c r="BJ28" s="5"/>
       <c r="BK28" s="5"/>
-    </row>
-    <row r="29" spans="1:63" ht="16.5" outlineLevel="1">
+      <c r="BL28" s="5"/>
+      <c r="BM28" s="5"/>
+      <c r="BN28" s="5"/>
+      <c r="BO28" s="5"/>
+      <c r="BP28" s="5"/>
+    </row>
+    <row r="29" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="4" t="s">
-        <v>27</v>
+      <c r="B29" s="13" t="s">
+        <v>56</v>
       </c>
+      <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -5432,47 +5616,50 @@
       <c r="BI29" s="5"/>
       <c r="BJ29" s="5"/>
       <c r="BK29" s="5"/>
-    </row>
-    <row r="30" spans="1:63" ht="16.5" outlineLevel="1">
+      <c r="BL29" s="5"/>
+      <c r="BM29" s="5"/>
+      <c r="BN29" s="5"/>
+      <c r="BO29" s="5"/>
+      <c r="BP29" s="5"/>
+    </row>
+    <row r="30" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
-      <c r="C30" s="49" t="s">
-        <v>28</v>
+      <c r="C30" s="5" t="s">
+        <v>20</v>
       </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="51"/>
-      <c r="J30" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="50"/>
-      <c r="O30" s="50"/>
-      <c r="P30" s="50"/>
-      <c r="Q30" s="50"/>
-      <c r="R30" s="50"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="50"/>
-      <c r="Y30" s="50"/>
-      <c r="Z30" s="50"/>
-      <c r="AA30" s="50"/>
-      <c r="AB30" s="50"/>
-      <c r="AC30" s="50"/>
-      <c r="AD30" s="50"/>
-      <c r="AE30" s="50"/>
-      <c r="AF30" s="50"/>
-      <c r="AG30" s="50"/>
-      <c r="AH30" s="50"/>
-      <c r="AI30" s="51"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="5"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5"/>
+      <c r="R30" s="5"/>
+      <c r="S30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="5"/>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
       <c r="AJ30" s="5"/>
       <c r="AK30" s="5"/>
       <c r="AL30" s="5"/>
@@ -5501,47 +5688,52 @@
       <c r="BI30" s="5"/>
       <c r="BJ30" s="5"/>
       <c r="BK30" s="5"/>
-    </row>
-    <row r="31" spans="1:63" ht="16.5" outlineLevel="1">
+      <c r="BL30" s="5"/>
+      <c r="BM30" s="5"/>
+      <c r="BN30" s="5"/>
+      <c r="BO30" s="5"/>
+      <c r="BP30" s="5"/>
+    </row>
+    <row r="31" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
-      <c r="C31" s="69" t="s">
-        <v>30</v>
+      <c r="C31" s="14" t="s">
+        <v>21</v>
       </c>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="69" t="s">
-        <v>31</v>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="14" t="s">
+        <v>22</v>
       </c>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="70"/>
-      <c r="P31" s="70"/>
-      <c r="Q31" s="70"/>
-      <c r="R31" s="70"/>
-      <c r="S31" s="70"/>
-      <c r="T31" s="70"/>
-      <c r="U31" s="70"/>
-      <c r="V31" s="70"/>
-      <c r="W31" s="70"/>
-      <c r="X31" s="70"/>
-      <c r="Y31" s="70"/>
-      <c r="Z31" s="70"/>
-      <c r="AA31" s="70"/>
-      <c r="AB31" s="70"/>
-      <c r="AC31" s="70"/>
-      <c r="AD31" s="70"/>
-      <c r="AE31" s="70"/>
-      <c r="AF31" s="70"/>
-      <c r="AG31" s="70"/>
-      <c r="AH31" s="70"/>
-      <c r="AI31" s="71"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="15"/>
+      <c r="Y31" s="15"/>
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="15"/>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="15"/>
+      <c r="AD31" s="15"/>
+      <c r="AE31" s="15"/>
+      <c r="AF31" s="15"/>
+      <c r="AG31" s="15"/>
+      <c r="AH31" s="15"/>
+      <c r="AI31" s="16"/>
       <c r="AJ31" s="5"/>
       <c r="AK31" s="5"/>
       <c r="AL31" s="5"/>
@@ -5570,47 +5762,52 @@
       <c r="BI31" s="5"/>
       <c r="BJ31" s="5"/>
       <c r="BK31" s="5"/>
-    </row>
-    <row r="32" spans="1:63" ht="16.5" outlineLevel="1">
+      <c r="BL31" s="5"/>
+      <c r="BM31" s="5"/>
+      <c r="BN31" s="5"/>
+      <c r="BO31" s="5"/>
+      <c r="BP31" s="5"/>
+    </row>
+    <row r="32" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="69" t="s">
-        <v>32</v>
+      <c r="C32" s="34" t="s">
+        <v>23</v>
       </c>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="69" t="s">
-        <v>33</v>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="34" t="s">
+        <v>24</v>
       </c>
-      <c r="K32" s="70"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="70"/>
-      <c r="N32" s="70"/>
-      <c r="O32" s="70"/>
-      <c r="P32" s="70"/>
-      <c r="Q32" s="70"/>
-      <c r="R32" s="70"/>
-      <c r="S32" s="70"/>
-      <c r="T32" s="70"/>
-      <c r="U32" s="70"/>
-      <c r="V32" s="70"/>
-      <c r="W32" s="70"/>
-      <c r="X32" s="70"/>
-      <c r="Y32" s="70"/>
-      <c r="Z32" s="70"/>
-      <c r="AA32" s="70"/>
-      <c r="AB32" s="70"/>
-      <c r="AC32" s="70"/>
-      <c r="AD32" s="70"/>
-      <c r="AE32" s="70"/>
-      <c r="AF32" s="70"/>
-      <c r="AG32" s="70"/>
-      <c r="AH32" s="70"/>
-      <c r="AI32" s="71"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+      <c r="Z32" s="35"/>
+      <c r="AA32" s="35"/>
+      <c r="AB32" s="35"/>
+      <c r="AC32" s="35"/>
+      <c r="AD32" s="35"/>
+      <c r="AE32" s="35"/>
+      <c r="AF32" s="35"/>
+      <c r="AG32" s="35"/>
+      <c r="AH32" s="35"/>
+      <c r="AI32" s="36"/>
       <c r="AJ32" s="5"/>
       <c r="AK32" s="5"/>
       <c r="AL32" s="5"/>
@@ -5639,47 +5836,52 @@
       <c r="BI32" s="5"/>
       <c r="BJ32" s="5"/>
       <c r="BK32" s="5"/>
-    </row>
-    <row r="33" spans="1:63" ht="31.5" customHeight="1" outlineLevel="1">
+      <c r="BL32" s="5"/>
+      <c r="BM32" s="5"/>
+      <c r="BN32" s="5"/>
+      <c r="BO32" s="5"/>
+      <c r="BP32" s="5"/>
+    </row>
+    <row r="33" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="69" t="s">
-        <v>34</v>
+      <c r="C33" s="34" t="s">
+        <v>25</v>
       </c>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="77" t="s">
-        <v>67</v>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="34" t="s">
+        <v>26</v>
       </c>
-      <c r="K33" s="78"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="78"/>
-      <c r="N33" s="78"/>
-      <c r="O33" s="78"/>
-      <c r="P33" s="78"/>
-      <c r="Q33" s="78"/>
-      <c r="R33" s="78"/>
-      <c r="S33" s="78"/>
-      <c r="T33" s="78"/>
-      <c r="U33" s="78"/>
-      <c r="V33" s="78"/>
-      <c r="W33" s="78"/>
-      <c r="X33" s="78"/>
-      <c r="Y33" s="78"/>
-      <c r="Z33" s="78"/>
-      <c r="AA33" s="78"/>
-      <c r="AB33" s="78"/>
-      <c r="AC33" s="78"/>
-      <c r="AD33" s="78"/>
-      <c r="AE33" s="78"/>
-      <c r="AF33" s="78"/>
-      <c r="AG33" s="78"/>
-      <c r="AH33" s="78"/>
-      <c r="AI33" s="79"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+      <c r="Z33" s="35"/>
+      <c r="AA33" s="35"/>
+      <c r="AB33" s="35"/>
+      <c r="AC33" s="35"/>
+      <c r="AD33" s="35"/>
+      <c r="AE33" s="35"/>
+      <c r="AF33" s="35"/>
+      <c r="AG33" s="35"/>
+      <c r="AH33" s="35"/>
+      <c r="AI33" s="36"/>
       <c r="AJ33" s="5"/>
       <c r="AK33" s="5"/>
       <c r="AL33" s="5"/>
@@ -5708,43 +5910,52 @@
       <c r="BI33" s="5"/>
       <c r="BJ33" s="5"/>
       <c r="BK33" s="5"/>
-    </row>
-    <row r="34" spans="1:63" ht="16.5" outlineLevel="1">
+      <c r="BL33" s="5"/>
+      <c r="BM33" s="5"/>
+      <c r="BN33" s="5"/>
+      <c r="BO33" s="5"/>
+      <c r="BP33" s="5"/>
+    </row>
+    <row r="34" spans="1:68" ht="31.5" customHeight="1" outlineLevel="1">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="5"/>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="5"/>
-      <c r="R34" s="5"/>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="5"/>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="5"/>
-      <c r="AD34" s="5"/>
-      <c r="AE34" s="5"/>
-      <c r="AF34" s="5"/>
-      <c r="AG34" s="5"/>
-      <c r="AH34" s="5"/>
-      <c r="AI34" s="5"/>
+      <c r="C34" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="K34" s="39"/>
+      <c r="L34" s="39"/>
+      <c r="M34" s="39"/>
+      <c r="N34" s="39"/>
+      <c r="O34" s="39"/>
+      <c r="P34" s="39"/>
+      <c r="Q34" s="39"/>
+      <c r="R34" s="39"/>
+      <c r="S34" s="39"/>
+      <c r="T34" s="39"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="39"/>
+      <c r="W34" s="39"/>
+      <c r="X34" s="39"/>
+      <c r="Y34" s="39"/>
+      <c r="Z34" s="39"/>
+      <c r="AA34" s="39"/>
+      <c r="AB34" s="39"/>
+      <c r="AC34" s="39"/>
+      <c r="AD34" s="39"/>
+      <c r="AE34" s="39"/>
+      <c r="AF34" s="39"/>
+      <c r="AG34" s="39"/>
+      <c r="AH34" s="39"/>
+      <c r="AI34" s="40"/>
       <c r="AJ34" s="5"/>
       <c r="AK34" s="5"/>
       <c r="AL34" s="5"/>
@@ -5773,8 +5984,13 @@
       <c r="BI34" s="5"/>
       <c r="BJ34" s="5"/>
       <c r="BK34" s="5"/>
-    </row>
-    <row r="35" spans="1:63" ht="16.5">
+      <c r="BL34" s="5"/>
+      <c r="BM34" s="5"/>
+      <c r="BN34" s="5"/>
+      <c r="BO34" s="5"/>
+      <c r="BP34" s="5"/>
+    </row>
+    <row r="35" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
@@ -5838,27 +6054,130 @@
       <c r="BI35" s="5"/>
       <c r="BJ35" s="5"/>
       <c r="BK35" s="5"/>
+      <c r="BL35" s="5"/>
+      <c r="BM35" s="5"/>
+      <c r="BN35" s="5"/>
+      <c r="BO35" s="5"/>
+      <c r="BP35" s="5"/>
+    </row>
+    <row r="36" spans="1:68" ht="16.5">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="5"/>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="5"/>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="5"/>
+      <c r="AD36" s="5"/>
+      <c r="AE36" s="5"/>
+      <c r="AF36" s="5"/>
+      <c r="AG36" s="5"/>
+      <c r="AH36" s="5"/>
+      <c r="AI36" s="5"/>
+      <c r="AJ36" s="5"/>
+      <c r="AK36" s="5"/>
+      <c r="AL36" s="5"/>
+      <c r="AM36" s="5"/>
+      <c r="AN36" s="5"/>
+      <c r="AO36" s="5"/>
+      <c r="AP36" s="5"/>
+      <c r="AQ36" s="5"/>
+      <c r="AR36" s="5"/>
+      <c r="AS36" s="5"/>
+      <c r="AT36" s="5"/>
+      <c r="AU36" s="5"/>
+      <c r="AV36" s="5"/>
+      <c r="AW36" s="5"/>
+      <c r="AX36" s="5"/>
+      <c r="AY36" s="5"/>
+      <c r="AZ36" s="5"/>
+      <c r="BA36" s="5"/>
+      <c r="BB36" s="5"/>
+      <c r="BC36" s="5"/>
+      <c r="BD36" s="5"/>
+      <c r="BE36" s="5"/>
+      <c r="BF36" s="5"/>
+      <c r="BG36" s="5"/>
+      <c r="BH36" s="5"/>
+      <c r="BI36" s="5"/>
+      <c r="BJ36" s="5"/>
+      <c r="BK36" s="5"/>
+      <c r="BL36" s="5"/>
+      <c r="BM36" s="5"/>
+      <c r="BN36" s="5"/>
+      <c r="BO36" s="5"/>
+      <c r="BP36" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="46">
+    <mergeCell ref="AZ21:BO21"/>
+    <mergeCell ref="AZ22:BO22"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="L22:AB22"/>
+    <mergeCell ref="AC22:AK22"/>
+    <mergeCell ref="AL22:AT22"/>
+    <mergeCell ref="AU22:AY22"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="L21:AB21"/>
+    <mergeCell ref="AC21:AK21"/>
+    <mergeCell ref="AL21:AT21"/>
+    <mergeCell ref="AU21:AY21"/>
+    <mergeCell ref="AZ19:BO19"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="L19:AB19"/>
+    <mergeCell ref="AC19:AK19"/>
+    <mergeCell ref="AL19:AT19"/>
+    <mergeCell ref="AU19:AY19"/>
+    <mergeCell ref="AZ17:BO17"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="L17:AB17"/>
+    <mergeCell ref="AC17:AK17"/>
+    <mergeCell ref="AL17:AT17"/>
+    <mergeCell ref="AU17:AY17"/>
+    <mergeCell ref="L15:AB16"/>
+    <mergeCell ref="AC15:AK16"/>
+    <mergeCell ref="AL15:BO15"/>
+    <mergeCell ref="AL16:AT16"/>
+    <mergeCell ref="AU16:AY16"/>
+    <mergeCell ref="AZ16:BO16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:K16"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="I9:BJ9"/>
+    <mergeCell ref="I8:BJ8"/>
+    <mergeCell ref="J34:AI34"/>
+    <mergeCell ref="J33:AI33"/>
+    <mergeCell ref="J32:AI32"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:BJ10"/>
     <mergeCell ref="C7:H7"/>
     <mergeCell ref="C9:H9"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="I7:BJ7"/>
-    <mergeCell ref="C31:I31"/>
     <mergeCell ref="C32:I32"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="I9:BJ9"/>
-    <mergeCell ref="I8:BJ8"/>
-    <mergeCell ref="K16:AD16"/>
-    <mergeCell ref="K21:AD21"/>
-    <mergeCell ref="J33:AI33"/>
-    <mergeCell ref="J32:AI32"/>
-    <mergeCell ref="J31:AI31"/>
-    <mergeCell ref="K20:AD20"/>
-    <mergeCell ref="K18:AD18"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:BJ10"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5866,8 +6185,8 @@
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="3" max="16383" man="1"/>
     <brk id="12" max="16383" man="1"/>
-    <brk id="22" max="16383" man="1"/>
-    <brk id="25" max="16383" man="1"/>
+    <brk id="23" max="16383" man="1"/>
+    <brk id="26" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -5891,320 +6210,320 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A2" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A3" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="C3" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A4" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="54" t="s">
+      <c r="B4" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="C4" s="19"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A5" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="B5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="54" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A6" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B6" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="54" t="s">
+      <c r="C6" s="19"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A7" s="20"/>
+      <c r="B7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="54" t="s">
+      <c r="C7" s="19"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="C8" s="19"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A9" s="20"/>
+      <c r="B9" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="54" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A10" s="20"/>
+      <c r="B10" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="20"/>
+      <c r="B11" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="54"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="54" t="s">
+      <c r="C11" s="19"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A12" s="20"/>
+      <c r="B12" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="54" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A13" s="20"/>
+      <c r="B13" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="55"/>
-      <c r="B7" s="54" t="s">
+      <c r="C13" s="19"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="54"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="55"/>
-      <c r="B8" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="C8" s="54"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="55"/>
-      <c r="B9" s="54" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="54"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="55"/>
-      <c r="B10" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="55"/>
-      <c r="B11" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="55"/>
-      <c r="B12" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="55"/>
-      <c r="B13" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="54"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="55"/>
-      <c r="B14" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="55"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="55"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="55"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="55"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="55"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="55"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="55"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="56"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>

--- a/ha-asset/01_design/03_batch/設計書_3.1.ヘルスチェックバッチ.xlsx
+++ b/ha-asset/01_design/03_batch/設計書_3.1.ヘルスチェックバッチ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\03_batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E52A16-7E37-47A4-9249-671299878AC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA34A0A7-5C98-48C6-B86C-B64FCB7874AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28290" yWindow="2775" windowWidth="27090" windowHeight="14220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
   <si>
     <t>0.更新履歴</t>
   </si>
@@ -261,6 +261,48 @@
     <t>引数</t>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>OPTION</t>
+  </si>
+  <si>
+    <t>HHMI</t>
+  </si>
+  <si>
+    <t>HHMISS</t>
+  </si>
+  <si>
+    <t>YYYY/MM</t>
+  </si>
+  <si>
+    <t>YYYY/MM/DD</t>
+  </si>
+  <si>
+    <t>HH:MI</t>
+  </si>
+  <si>
+    <t>HH:MI:SS</t>
+  </si>
+  <si>
+    <t>YYYY/MM/DD HH:MI:SS</t>
+  </si>
+  <si>
+    <t>メールアドレス形式</t>
+  </si>
+  <si>
+    <t>URL形式</t>
+  </si>
 </sst>
 </file>
 
@@ -382,7 +424,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -638,11 +680,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -686,14 +752,29 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -708,12 +789,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -723,6 +821,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -739,52 +840,22 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1005,7 +1076,7 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1074,681 +1145,681 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="3"/>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="28" t="s">
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="28" t="s">
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="27"/>
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="M3" s="37"/>
+      <c r="N3" s="37"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="38"/>
       <c r="AA3" s="3"/>
     </row>
     <row r="4" spans="1:27">
       <c r="A4" s="3"/>
-      <c r="B4" s="29">
+      <c r="B4" s="40">
         <v>44150</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="30" t="s">
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="25" t="s">
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="27"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="38"/>
       <c r="AA4" s="3"/>
     </row>
     <row r="5" spans="1:27">
       <c r="A5" s="3"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="26"/>
-      <c r="X5" s="26"/>
-      <c r="Y5" s="26"/>
-      <c r="Z5" s="27"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37"/>
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="38"/>
       <c r="AA5" s="3"/>
     </row>
     <row r="6" spans="1:27">
       <c r="A6" s="3"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="27"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
-      <c r="W6" s="26"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="26"/>
-      <c r="Z6" s="27"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
+      <c r="M6" s="37"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="37"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="S6" s="37"/>
+      <c r="T6" s="37"/>
+      <c r="U6" s="37"/>
+      <c r="V6" s="37"/>
+      <c r="W6" s="37"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="38"/>
       <c r="AA6" s="3"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" s="3"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
-      <c r="W7" s="26"/>
-      <c r="X7" s="26"/>
-      <c r="Y7" s="26"/>
-      <c r="Z7" s="27"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="37"/>
+      <c r="P7" s="37"/>
+      <c r="Q7" s="37"/>
+      <c r="R7" s="37"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="37"/>
+      <c r="U7" s="37"/>
+      <c r="V7" s="37"/>
+      <c r="W7" s="37"/>
+      <c r="X7" s="37"/>
+      <c r="Y7" s="37"/>
+      <c r="Z7" s="38"/>
       <c r="AA7" s="3"/>
     </row>
     <row r="8" spans="1:27">
       <c r="A8" s="3"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="27"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="37"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="37"/>
+      <c r="T8" s="37"/>
+      <c r="U8" s="37"/>
+      <c r="V8" s="37"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="37"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="38"/>
       <c r="AA8" s="3"/>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="3"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
-      <c r="W9" s="26"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="26"/>
-      <c r="Z9" s="27"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="37"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="37"/>
+      <c r="V9" s="37"/>
+      <c r="W9" s="37"/>
+      <c r="X9" s="37"/>
+      <c r="Y9" s="37"/>
+      <c r="Z9" s="38"/>
       <c r="AA9" s="3"/>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="3"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
-      <c r="W10" s="26"/>
-      <c r="X10" s="26"/>
-      <c r="Y10" s="26"/>
-      <c r="Z10" s="27"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="38"/>
       <c r="AA10" s="3"/>
     </row>
     <row r="11" spans="1:27">
       <c r="A11" s="3"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
-      <c r="W11" s="26"/>
-      <c r="X11" s="26"/>
-      <c r="Y11" s="26"/>
-      <c r="Z11" s="27"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="37"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="37"/>
+      <c r="S11" s="37"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="37"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="37"/>
+      <c r="X11" s="37"/>
+      <c r="Y11" s="37"/>
+      <c r="Z11" s="38"/>
       <c r="AA11" s="3"/>
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="3"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="26"/>
-      <c r="Y12" s="26"/>
-      <c r="Z12" s="27"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="37"/>
+      <c r="S12" s="37"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="37"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="37"/>
+      <c r="X12" s="37"/>
+      <c r="Y12" s="37"/>
+      <c r="Z12" s="38"/>
       <c r="AA12" s="3"/>
     </row>
     <row r="13" spans="1:27">
       <c r="A13" s="3"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
-      <c r="W13" s="26"/>
-      <c r="X13" s="26"/>
-      <c r="Y13" s="26"/>
-      <c r="Z13" s="27"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="37"/>
+      <c r="X13" s="37"/>
+      <c r="Y13" s="37"/>
+      <c r="Z13" s="38"/>
       <c r="AA13" s="3"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="3"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
-      <c r="W14" s="26"/>
-      <c r="X14" s="26"/>
-      <c r="Y14" s="26"/>
-      <c r="Z14" s="27"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="37"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="37"/>
+      <c r="N14" s="37"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="37"/>
+      <c r="S14" s="37"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="37"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="37"/>
+      <c r="X14" s="37"/>
+      <c r="Y14" s="37"/>
+      <c r="Z14" s="38"/>
       <c r="AA14" s="3"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="3"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-      <c r="Y15" s="26"/>
-      <c r="Z15" s="27"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="38"/>
       <c r="AA15" s="3"/>
     </row>
     <row r="16" spans="1:27">
       <c r="A16" s="3"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
-      <c r="W16" s="26"/>
-      <c r="X16" s="26"/>
-      <c r="Y16" s="26"/>
-      <c r="Z16" s="27"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="37"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="37"/>
+      <c r="N16" s="37"/>
+      <c r="O16" s="37"/>
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="37"/>
+      <c r="S16" s="37"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="37"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="37"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="38"/>
       <c r="AA16" s="3"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="3"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-      <c r="Y17" s="26"/>
-      <c r="Z17" s="27"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="37"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+      <c r="Y17" s="37"/>
+      <c r="Z17" s="38"/>
       <c r="AA17" s="3"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="3"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="X18" s="26"/>
-      <c r="Y18" s="26"/>
-      <c r="Z18" s="27"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="37"/>
+      <c r="O18" s="37"/>
+      <c r="P18" s="37"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="37"/>
+      <c r="X18" s="37"/>
+      <c r="Y18" s="37"/>
+      <c r="Z18" s="38"/>
       <c r="AA18" s="3"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="3"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
-      <c r="Y19" s="26"/>
-      <c r="Z19" s="27"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="38"/>
       <c r="AA19" s="3"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="3"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
-      <c r="W20" s="26"/>
-      <c r="X20" s="26"/>
-      <c r="Y20" s="26"/>
-      <c r="Z20" s="27"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="37"/>
+      <c r="Q20" s="37"/>
+      <c r="R20" s="37"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="38"/>
       <c r="AA20" s="3"/>
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="3"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
-      <c r="Y21" s="26"/>
-      <c r="Z21" s="27"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="37"/>
+      <c r="N21" s="37"/>
+      <c r="O21" s="37"/>
+      <c r="P21" s="37"/>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
+      <c r="Y21" s="37"/>
+      <c r="Z21" s="38"/>
       <c r="AA21" s="3"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="3"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
-      <c r="W22" s="26"/>
-      <c r="X22" s="26"/>
-      <c r="Y22" s="26"/>
-      <c r="Z22" s="27"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="37"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="37"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="38"/>
       <c r="AA22" s="3"/>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="3"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="25"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
-      <c r="W23" s="26"/>
-      <c r="X23" s="26"/>
-      <c r="Y23" s="26"/>
-      <c r="Z23" s="27"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="37"/>
+      <c r="P23" s="37"/>
+      <c r="Q23" s="37"/>
+      <c r="R23" s="37"/>
+      <c r="S23" s="37"/>
+      <c r="T23" s="37"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="37"/>
+      <c r="X23" s="37"/>
+      <c r="Y23" s="37"/>
+      <c r="Z23" s="38"/>
       <c r="AA23" s="3"/>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" s="3"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="26"/>
-      <c r="X24" s="26"/>
-      <c r="Y24" s="26"/>
-      <c r="Z24" s="27"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="37"/>
+      <c r="O24" s="37"/>
+      <c r="P24" s="37"/>
+      <c r="Q24" s="37"/>
+      <c r="R24" s="37"/>
+      <c r="S24" s="37"/>
+      <c r="T24" s="37"/>
+      <c r="U24" s="37"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="37"/>
+      <c r="X24" s="37"/>
+      <c r="Y24" s="37"/>
+      <c r="Z24" s="38"/>
       <c r="AA24" s="3"/>
     </row>
     <row r="25" spans="1:27">
       <c r="A25" s="3"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
-      <c r="W25" s="26"/>
-      <c r="X25" s="26"/>
-      <c r="Y25" s="26"/>
-      <c r="Z25" s="27"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="37"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
+      <c r="R25" s="37"/>
+      <c r="S25" s="37"/>
+      <c r="T25" s="37"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="37"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="38"/>
       <c r="AA25" s="3"/>
     </row>
     <row r="26" spans="1:27">
@@ -1811,6 +1882,66 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="J14:Z14"/>
     <mergeCell ref="B12:E12"/>
@@ -1820,66 +1951,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:Z13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3502,12 +3573,14 @@
   </sheetPr>
   <dimension ref="A1:BP36"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="X29" sqref="X29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="68" width="3.7109375" style="46" customWidth="1"/>
-    <col min="69" max="16384" width="14.42578125" style="46"/>
+    <col min="1" max="68" width="3.7109375" style="25" customWidth="1"/>
+    <col min="69" max="16384" width="14.42578125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:68" ht="16.5">
@@ -3901,108 +3974,108 @@
       <c r="AF6" s="10"/>
       <c r="AG6" s="10"/>
       <c r="AH6" s="10"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="22"/>
-      <c r="AO6" s="22"/>
-      <c r="AP6" s="22"/>
-      <c r="AQ6" s="22"/>
-      <c r="AR6" s="22"/>
-      <c r="AS6" s="22"/>
-      <c r="AT6" s="22"/>
-      <c r="AU6" s="22"/>
-      <c r="AV6" s="22"/>
-      <c r="AW6" s="22"/>
-      <c r="AX6" s="22"/>
-      <c r="AY6" s="22"/>
-      <c r="AZ6" s="22"/>
-      <c r="BA6" s="22"/>
-      <c r="BB6" s="22"/>
-      <c r="BC6" s="22"/>
-      <c r="BD6" s="22"/>
-      <c r="BE6" s="22"/>
-      <c r="BF6" s="22"/>
-      <c r="BG6" s="22"/>
-      <c r="BH6" s="22"/>
-      <c r="BI6" s="22"/>
-      <c r="BJ6" s="23"/>
-      <c r="BK6" s="24"/>
-      <c r="BL6" s="24"/>
-      <c r="BM6" s="24"/>
-      <c r="BN6" s="24"/>
-      <c r="BO6" s="24"/>
-      <c r="BP6" s="24"/>
+      <c r="AI6" s="20"/>
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="20"/>
+      <c r="AL6" s="20"/>
+      <c r="AM6" s="20"/>
+      <c r="AN6" s="20"/>
+      <c r="AO6" s="20"/>
+      <c r="AP6" s="20"/>
+      <c r="AQ6" s="20"/>
+      <c r="AR6" s="20"/>
+      <c r="AS6" s="20"/>
+      <c r="AT6" s="20"/>
+      <c r="AU6" s="20"/>
+      <c r="AV6" s="20"/>
+      <c r="AW6" s="20"/>
+      <c r="AX6" s="20"/>
+      <c r="AY6" s="20"/>
+      <c r="AZ6" s="20"/>
+      <c r="BA6" s="20"/>
+      <c r="BB6" s="20"/>
+      <c r="BC6" s="20"/>
+      <c r="BD6" s="20"/>
+      <c r="BE6" s="20"/>
+      <c r="BF6" s="20"/>
+      <c r="BG6" s="20"/>
+      <c r="BH6" s="20"/>
+      <c r="BI6" s="20"/>
+      <c r="BJ6" s="21"/>
+      <c r="BK6" s="22"/>
+      <c r="BL6" s="22"/>
+      <c r="BM6" s="22"/>
+      <c r="BN6" s="22"/>
+      <c r="BO6" s="22"/>
+      <c r="BP6" s="22"/>
     </row>
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="5"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="33" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="33"/>
-      <c r="S7" s="33"/>
-      <c r="T7" s="33"/>
-      <c r="U7" s="33"/>
-      <c r="V7" s="33"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="33"/>
-      <c r="Z7" s="33"/>
-      <c r="AA7" s="33"/>
-      <c r="AB7" s="33"/>
-      <c r="AC7" s="33"/>
-      <c r="AD7" s="33"/>
-      <c r="AE7" s="33"/>
-      <c r="AF7" s="33"/>
-      <c r="AG7" s="33"/>
-      <c r="AH7" s="33"/>
-      <c r="AI7" s="33"/>
-      <c r="AJ7" s="33"/>
-      <c r="AK7" s="33"/>
-      <c r="AL7" s="33"/>
-      <c r="AM7" s="33"/>
-      <c r="AN7" s="33"/>
-      <c r="AO7" s="33"/>
-      <c r="AP7" s="33"/>
-      <c r="AQ7" s="33"/>
-      <c r="AR7" s="33"/>
-      <c r="AS7" s="33"/>
-      <c r="AT7" s="33"/>
-      <c r="AU7" s="33"/>
-      <c r="AV7" s="33"/>
-      <c r="AW7" s="33"/>
-      <c r="AX7" s="33"/>
-      <c r="AY7" s="33"/>
-      <c r="AZ7" s="33"/>
-      <c r="BA7" s="33"/>
-      <c r="BB7" s="33"/>
-      <c r="BC7" s="33"/>
-      <c r="BD7" s="33"/>
-      <c r="BE7" s="33"/>
-      <c r="BF7" s="33"/>
-      <c r="BG7" s="33"/>
-      <c r="BH7" s="33"/>
-      <c r="BI7" s="33"/>
-      <c r="BJ7" s="33"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="53"/>
+      <c r="P7" s="53"/>
+      <c r="Q7" s="53"/>
+      <c r="R7" s="53"/>
+      <c r="S7" s="53"/>
+      <c r="T7" s="53"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+      <c r="W7" s="53"/>
+      <c r="X7" s="53"/>
+      <c r="Y7" s="53"/>
+      <c r="Z7" s="53"/>
+      <c r="AA7" s="53"/>
+      <c r="AB7" s="53"/>
+      <c r="AC7" s="53"/>
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="53"/>
+      <c r="AG7" s="53"/>
+      <c r="AH7" s="53"/>
+      <c r="AI7" s="53"/>
+      <c r="AJ7" s="53"/>
+      <c r="AK7" s="53"/>
+      <c r="AL7" s="53"/>
+      <c r="AM7" s="53"/>
+      <c r="AN7" s="53"/>
+      <c r="AO7" s="53"/>
+      <c r="AP7" s="53"/>
+      <c r="AQ7" s="53"/>
+      <c r="AR7" s="53"/>
+      <c r="AS7" s="53"/>
+      <c r="AT7" s="53"/>
+      <c r="AU7" s="53"/>
+      <c r="AV7" s="53"/>
+      <c r="AW7" s="53"/>
+      <c r="AX7" s="53"/>
+      <c r="AY7" s="53"/>
+      <c r="AZ7" s="53"/>
+      <c r="BA7" s="53"/>
+      <c r="BB7" s="53"/>
+      <c r="BC7" s="53"/>
+      <c r="BD7" s="53"/>
+      <c r="BE7" s="53"/>
+      <c r="BF7" s="53"/>
+      <c r="BG7" s="53"/>
+      <c r="BH7" s="53"/>
+      <c r="BI7" s="53"/>
+      <c r="BJ7" s="53"/>
       <c r="BK7" s="5"/>
       <c r="BL7" s="5"/>
       <c r="BM7" s="5"/>
@@ -4013,70 +4086,70 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="5"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="37" t="s">
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="37"/>
-      <c r="AF8" s="37"/>
-      <c r="AG8" s="37"/>
-      <c r="AH8" s="37"/>
-      <c r="AI8" s="37"/>
-      <c r="AJ8" s="37"/>
-      <c r="AK8" s="37"/>
-      <c r="AL8" s="37"/>
-      <c r="AM8" s="37"/>
-      <c r="AN8" s="37"/>
-      <c r="AO8" s="37"/>
-      <c r="AP8" s="37"/>
-      <c r="AQ8" s="37"/>
-      <c r="AR8" s="37"/>
-      <c r="AS8" s="37"/>
-      <c r="AT8" s="37"/>
-      <c r="AU8" s="37"/>
-      <c r="AV8" s="37"/>
-      <c r="AW8" s="37"/>
-      <c r="AX8" s="37"/>
-      <c r="AY8" s="37"/>
-      <c r="AZ8" s="37"/>
-      <c r="BA8" s="37"/>
-      <c r="BB8" s="37"/>
-      <c r="BC8" s="37"/>
-      <c r="BD8" s="37"/>
-      <c r="BE8" s="37"/>
-      <c r="BF8" s="37"/>
-      <c r="BG8" s="37"/>
-      <c r="BH8" s="37"/>
-      <c r="BI8" s="37"/>
-      <c r="BJ8" s="37"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="54"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="54"/>
+      <c r="Z8" s="54"/>
+      <c r="AA8" s="54"/>
+      <c r="AB8" s="54"/>
+      <c r="AC8" s="54"/>
+      <c r="AD8" s="54"/>
+      <c r="AE8" s="54"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="54"/>
+      <c r="AH8" s="54"/>
+      <c r="AI8" s="54"/>
+      <c r="AJ8" s="54"/>
+      <c r="AK8" s="54"/>
+      <c r="AL8" s="54"/>
+      <c r="AM8" s="54"/>
+      <c r="AN8" s="54"/>
+      <c r="AO8" s="54"/>
+      <c r="AP8" s="54"/>
+      <c r="AQ8" s="54"/>
+      <c r="AR8" s="54"/>
+      <c r="AS8" s="54"/>
+      <c r="AT8" s="54"/>
+      <c r="AU8" s="54"/>
+      <c r="AV8" s="54"/>
+      <c r="AW8" s="54"/>
+      <c r="AX8" s="54"/>
+      <c r="AY8" s="54"/>
+      <c r="AZ8" s="54"/>
+      <c r="BA8" s="54"/>
+      <c r="BB8" s="54"/>
+      <c r="BC8" s="54"/>
+      <c r="BD8" s="54"/>
+      <c r="BE8" s="54"/>
+      <c r="BF8" s="54"/>
+      <c r="BG8" s="54"/>
+      <c r="BH8" s="54"/>
+      <c r="BI8" s="54"/>
+      <c r="BJ8" s="54"/>
       <c r="BK8" s="5"/>
       <c r="BL8" s="5"/>
       <c r="BM8" s="5"/>
@@ -4087,68 +4160,68 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="5"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="33"/>
-      <c r="Z9" s="33"/>
-      <c r="AA9" s="33"/>
-      <c r="AB9" s="33"/>
-      <c r="AC9" s="33"/>
-      <c r="AD9" s="33"/>
-      <c r="AE9" s="33"/>
-      <c r="AF9" s="33"/>
-      <c r="AG9" s="33"/>
-      <c r="AH9" s="33"/>
-      <c r="AI9" s="33"/>
-      <c r="AJ9" s="33"/>
-      <c r="AK9" s="33"/>
-      <c r="AL9" s="33"/>
-      <c r="AM9" s="33"/>
-      <c r="AN9" s="33"/>
-      <c r="AO9" s="33"/>
-      <c r="AP9" s="33"/>
-      <c r="AQ9" s="33"/>
-      <c r="AR9" s="33"/>
-      <c r="AS9" s="33"/>
-      <c r="AT9" s="33"/>
-      <c r="AU9" s="33"/>
-      <c r="AV9" s="33"/>
-      <c r="AW9" s="33"/>
-      <c r="AX9" s="33"/>
-      <c r="AY9" s="33"/>
-      <c r="AZ9" s="33"/>
-      <c r="BA9" s="33"/>
-      <c r="BB9" s="33"/>
-      <c r="BC9" s="33"/>
-      <c r="BD9" s="33"/>
-      <c r="BE9" s="33"/>
-      <c r="BF9" s="33"/>
-      <c r="BG9" s="33"/>
-      <c r="BH9" s="33"/>
-      <c r="BI9" s="33"/>
-      <c r="BJ9" s="33"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="53"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="53"/>
+      <c r="U9" s="53"/>
+      <c r="V9" s="53"/>
+      <c r="W9" s="53"/>
+      <c r="X9" s="53"/>
+      <c r="Y9" s="53"/>
+      <c r="Z9" s="53"/>
+      <c r="AA9" s="53"/>
+      <c r="AB9" s="53"/>
+      <c r="AC9" s="53"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="53"/>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="53"/>
+      <c r="AI9" s="53"/>
+      <c r="AJ9" s="53"/>
+      <c r="AK9" s="53"/>
+      <c r="AL9" s="53"/>
+      <c r="AM9" s="53"/>
+      <c r="AN9" s="53"/>
+      <c r="AO9" s="53"/>
+      <c r="AP9" s="53"/>
+      <c r="AQ9" s="53"/>
+      <c r="AR9" s="53"/>
+      <c r="AS9" s="53"/>
+      <c r="AT9" s="53"/>
+      <c r="AU9" s="53"/>
+      <c r="AV9" s="53"/>
+      <c r="AW9" s="53"/>
+      <c r="AX9" s="53"/>
+      <c r="AY9" s="53"/>
+      <c r="AZ9" s="53"/>
+      <c r="BA9" s="53"/>
+      <c r="BB9" s="53"/>
+      <c r="BC9" s="53"/>
+      <c r="BD9" s="53"/>
+      <c r="BE9" s="53"/>
+      <c r="BF9" s="53"/>
+      <c r="BG9" s="53"/>
+      <c r="BH9" s="53"/>
+      <c r="BI9" s="53"/>
+      <c r="BJ9" s="53"/>
       <c r="BK9" s="5"/>
       <c r="BL9" s="5"/>
       <c r="BM9" s="5"/>
@@ -4156,73 +4229,73 @@
       <c r="BO9" s="5"/>
       <c r="BP9" s="5"/>
     </row>
-    <row r="10" spans="1:68" s="44" customFormat="1" ht="16.5" outlineLevel="1">
+    <row r="10" spans="1:68" s="23" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A10" s="5"/>
       <c r="B10" s="12"/>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="33" t="s">
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="49"/>
-      <c r="U10" s="49"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="49"/>
-      <c r="Y10" s="49"/>
-      <c r="Z10" s="49"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="49"/>
-      <c r="AC10" s="49"/>
-      <c r="AD10" s="49"/>
-      <c r="AE10" s="49"/>
-      <c r="AF10" s="49"/>
-      <c r="AG10" s="49"/>
-      <c r="AH10" s="49"/>
-      <c r="AI10" s="49"/>
-      <c r="AJ10" s="49"/>
-      <c r="AK10" s="49"/>
-      <c r="AL10" s="49"/>
-      <c r="AM10" s="49"/>
-      <c r="AN10" s="49"/>
-      <c r="AO10" s="49"/>
-      <c r="AP10" s="49"/>
-      <c r="AQ10" s="49"/>
-      <c r="AR10" s="49"/>
-      <c r="AS10" s="49"/>
-      <c r="AT10" s="49"/>
-      <c r="AU10" s="49"/>
-      <c r="AV10" s="49"/>
-      <c r="AW10" s="49"/>
-      <c r="AX10" s="49"/>
-      <c r="AY10" s="49"/>
-      <c r="AZ10" s="49"/>
-      <c r="BA10" s="49"/>
-      <c r="BB10" s="49"/>
-      <c r="BC10" s="49"/>
-      <c r="BD10" s="49"/>
-      <c r="BE10" s="49"/>
-      <c r="BF10" s="49"/>
-      <c r="BG10" s="49"/>
-      <c r="BH10" s="49"/>
-      <c r="BI10" s="49"/>
-      <c r="BJ10" s="49"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
+      <c r="R10" s="60"/>
+      <c r="S10" s="60"/>
+      <c r="T10" s="60"/>
+      <c r="U10" s="60"/>
+      <c r="V10" s="60"/>
+      <c r="W10" s="60"/>
+      <c r="X10" s="60"/>
+      <c r="Y10" s="60"/>
+      <c r="Z10" s="60"/>
+      <c r="AA10" s="60"/>
+      <c r="AB10" s="60"/>
+      <c r="AC10" s="60"/>
+      <c r="AD10" s="60"/>
+      <c r="AE10" s="60"/>
+      <c r="AF10" s="60"/>
+      <c r="AG10" s="60"/>
+      <c r="AH10" s="60"/>
+      <c r="AI10" s="60"/>
+      <c r="AJ10" s="60"/>
+      <c r="AK10" s="60"/>
+      <c r="AL10" s="60"/>
+      <c r="AM10" s="60"/>
+      <c r="AN10" s="60"/>
+      <c r="AO10" s="60"/>
+      <c r="AP10" s="60"/>
+      <c r="AQ10" s="60"/>
+      <c r="AR10" s="60"/>
+      <c r="AS10" s="60"/>
+      <c r="AT10" s="60"/>
+      <c r="AU10" s="60"/>
+      <c r="AV10" s="60"/>
+      <c r="AW10" s="60"/>
+      <c r="AX10" s="60"/>
+      <c r="AY10" s="60"/>
+      <c r="AZ10" s="60"/>
+      <c r="BA10" s="60"/>
+      <c r="BB10" s="60"/>
+      <c r="BC10" s="60"/>
+      <c r="BD10" s="60"/>
+      <c r="BE10" s="60"/>
+      <c r="BF10" s="60"/>
+      <c r="BG10" s="60"/>
+      <c r="BH10" s="60"/>
+      <c r="BI10" s="60"/>
+      <c r="BJ10" s="60"/>
       <c r="BK10" s="5"/>
       <c r="BL10" s="5"/>
       <c r="BM10" s="5"/>
@@ -4514,616 +4587,616 @@
     </row>
     <row r="15" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="43" t="s">
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="43"/>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="43"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="43"/>
-      <c r="V15" s="43"/>
-      <c r="W15" s="43"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="43"/>
-      <c r="Z15" s="43"/>
-      <c r="AA15" s="43"/>
-      <c r="AB15" s="43"/>
-      <c r="AC15" s="43" t="s">
+      <c r="M15" s="48"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="48"/>
+      <c r="P15" s="48"/>
+      <c r="Q15" s="48"/>
+      <c r="R15" s="48"/>
+      <c r="S15" s="48"/>
+      <c r="T15" s="48"/>
+      <c r="U15" s="48"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="48"/>
+      <c r="X15" s="48"/>
+      <c r="Y15" s="48"/>
+      <c r="Z15" s="48"/>
+      <c r="AA15" s="48"/>
+      <c r="AB15" s="48"/>
+      <c r="AC15" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="AD15" s="43"/>
-      <c r="AE15" s="43"/>
-      <c r="AF15" s="43"/>
-      <c r="AG15" s="43"/>
-      <c r="AH15" s="43"/>
-      <c r="AI15" s="43"/>
-      <c r="AJ15" s="43"/>
-      <c r="AK15" s="43"/>
-      <c r="AL15" s="43" t="s">
+      <c r="AD15" s="48"/>
+      <c r="AE15" s="48"/>
+      <c r="AF15" s="48"/>
+      <c r="AG15" s="48"/>
+      <c r="AH15" s="48"/>
+      <c r="AI15" s="48"/>
+      <c r="AJ15" s="48"/>
+      <c r="AK15" s="48"/>
+      <c r="AL15" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="AM15" s="43"/>
-      <c r="AN15" s="43"/>
-      <c r="AO15" s="43"/>
-      <c r="AP15" s="43"/>
-      <c r="AQ15" s="43"/>
-      <c r="AR15" s="43"/>
-      <c r="AS15" s="43"/>
-      <c r="AT15" s="43"/>
-      <c r="AU15" s="43"/>
-      <c r="AV15" s="43"/>
-      <c r="AW15" s="43"/>
-      <c r="AX15" s="43"/>
-      <c r="AY15" s="43"/>
-      <c r="AZ15" s="43"/>
-      <c r="BA15" s="43"/>
-      <c r="BB15" s="43"/>
-      <c r="BC15" s="43"/>
-      <c r="BD15" s="43"/>
-      <c r="BE15" s="43"/>
-      <c r="BF15" s="43"/>
-      <c r="BG15" s="43"/>
-      <c r="BH15" s="43"/>
-      <c r="BI15" s="43"/>
-      <c r="BJ15" s="43"/>
-      <c r="BK15" s="43"/>
-      <c r="BL15" s="43"/>
-      <c r="BM15" s="43"/>
-      <c r="BN15" s="43"/>
-      <c r="BO15" s="43"/>
+      <c r="AM15" s="48"/>
+      <c r="AN15" s="48"/>
+      <c r="AO15" s="48"/>
+      <c r="AP15" s="48"/>
+      <c r="AQ15" s="48"/>
+      <c r="AR15" s="48"/>
+      <c r="AS15" s="48"/>
+      <c r="AT15" s="48"/>
+      <c r="AU15" s="48"/>
+      <c r="AV15" s="48"/>
+      <c r="AW15" s="48"/>
+      <c r="AX15" s="48"/>
+      <c r="AY15" s="48"/>
+      <c r="AZ15" s="48"/>
+      <c r="BA15" s="48"/>
+      <c r="BB15" s="48"/>
+      <c r="BC15" s="48"/>
+      <c r="BD15" s="48"/>
+      <c r="BE15" s="48"/>
+      <c r="BF15" s="48"/>
+      <c r="BG15" s="48"/>
+      <c r="BH15" s="48"/>
+      <c r="BI15" s="48"/>
+      <c r="BJ15" s="48"/>
+      <c r="BK15" s="48"/>
+      <c r="BL15" s="48"/>
+      <c r="BM15" s="48"/>
+      <c r="BN15" s="48"/>
+      <c r="BO15" s="48"/>
       <c r="BP15" s="5"/>
     </row>
     <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="43"/>
-      <c r="L16" s="43"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="43"/>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="43"/>
-      <c r="R16" s="43"/>
-      <c r="S16" s="43"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="43"/>
-      <c r="V16" s="43"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="43"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="43"/>
-      <c r="AC16" s="43"/>
-      <c r="AD16" s="43"/>
-      <c r="AE16" s="43"/>
-      <c r="AF16" s="43"/>
-      <c r="AG16" s="43"/>
-      <c r="AH16" s="43"/>
-      <c r="AI16" s="43"/>
-      <c r="AJ16" s="43"/>
-      <c r="AK16" s="43"/>
-      <c r="AL16" s="43" t="s">
+      <c r="B16" s="49"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="48"/>
+      <c r="X16" s="48"/>
+      <c r="Y16" s="48"/>
+      <c r="Z16" s="48"/>
+      <c r="AA16" s="48"/>
+      <c r="AB16" s="48"/>
+      <c r="AC16" s="48"/>
+      <c r="AD16" s="48"/>
+      <c r="AE16" s="48"/>
+      <c r="AF16" s="48"/>
+      <c r="AG16" s="48"/>
+      <c r="AH16" s="48"/>
+      <c r="AI16" s="48"/>
+      <c r="AJ16" s="48"/>
+      <c r="AK16" s="48"/>
+      <c r="AL16" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="AM16" s="43"/>
-      <c r="AN16" s="43"/>
-      <c r="AO16" s="43"/>
-      <c r="AP16" s="43"/>
-      <c r="AQ16" s="43"/>
-      <c r="AR16" s="43"/>
-      <c r="AS16" s="43"/>
-      <c r="AT16" s="43"/>
-      <c r="AU16" s="43" t="s">
+      <c r="AM16" s="48"/>
+      <c r="AN16" s="48"/>
+      <c r="AO16" s="48"/>
+      <c r="AP16" s="48"/>
+      <c r="AQ16" s="48"/>
+      <c r="AR16" s="48"/>
+      <c r="AS16" s="48"/>
+      <c r="AT16" s="48"/>
+      <c r="AU16" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="AV16" s="43"/>
-      <c r="AW16" s="43"/>
-      <c r="AX16" s="43"/>
-      <c r="AY16" s="43"/>
-      <c r="AZ16" s="43" t="s">
+      <c r="AV16" s="48"/>
+      <c r="AW16" s="48"/>
+      <c r="AX16" s="48"/>
+      <c r="AY16" s="48"/>
+      <c r="AZ16" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="BA16" s="43"/>
-      <c r="BB16" s="43"/>
-      <c r="BC16" s="43"/>
-      <c r="BD16" s="43"/>
-      <c r="BE16" s="43"/>
-      <c r="BF16" s="43"/>
-      <c r="BG16" s="43"/>
-      <c r="BH16" s="43"/>
-      <c r="BI16" s="43"/>
-      <c r="BJ16" s="43"/>
-      <c r="BK16" s="43"/>
-      <c r="BL16" s="43"/>
-      <c r="BM16" s="43"/>
-      <c r="BN16" s="43"/>
-      <c r="BO16" s="43"/>
+      <c r="BA16" s="48"/>
+      <c r="BB16" s="48"/>
+      <c r="BC16" s="48"/>
+      <c r="BD16" s="48"/>
+      <c r="BE16" s="48"/>
+      <c r="BF16" s="48"/>
+      <c r="BG16" s="48"/>
+      <c r="BH16" s="48"/>
+      <c r="BI16" s="48"/>
+      <c r="BJ16" s="48"/>
+      <c r="BK16" s="48"/>
+      <c r="BL16" s="48"/>
+      <c r="BM16" s="48"/>
+      <c r="BN16" s="48"/>
+      <c r="BO16" s="48"/>
       <c r="BP16" s="5"/>
     </row>
     <row r="17" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A17" s="5"/>
-      <c r="B17" s="52">
+      <c r="B17" s="26">
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C17" s="53" t="s">
+      <c r="C17" s="47" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="53"/>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
-      <c r="L17" s="53" t="s">
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="53"/>
-      <c r="Q17" s="53"/>
-      <c r="R17" s="53"/>
-      <c r="S17" s="53"/>
-      <c r="T17" s="53"/>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="53"/>
-      <c r="AB17" s="53"/>
-      <c r="AC17" s="53"/>
-      <c r="AD17" s="53"/>
-      <c r="AE17" s="53"/>
-      <c r="AF17" s="53"/>
-      <c r="AG17" s="53"/>
-      <c r="AH17" s="53"/>
-      <c r="AI17" s="53"/>
-      <c r="AJ17" s="53"/>
-      <c r="AK17" s="53"/>
-      <c r="AL17" s="54"/>
-      <c r="AM17" s="54"/>
-      <c r="AN17" s="54"/>
-      <c r="AO17" s="54"/>
-      <c r="AP17" s="54"/>
-      <c r="AQ17" s="54"/>
-      <c r="AR17" s="54"/>
-      <c r="AS17" s="54"/>
-      <c r="AT17" s="54"/>
-      <c r="AU17" s="54"/>
-      <c r="AV17" s="54"/>
-      <c r="AW17" s="54"/>
-      <c r="AX17" s="54"/>
-      <c r="AY17" s="54"/>
-      <c r="AZ17" s="54"/>
-      <c r="BA17" s="54"/>
-      <c r="BB17" s="54"/>
-      <c r="BC17" s="54"/>
-      <c r="BD17" s="54"/>
-      <c r="BE17" s="54"/>
-      <c r="BF17" s="54"/>
-      <c r="BG17" s="54"/>
-      <c r="BH17" s="54"/>
-      <c r="BI17" s="54"/>
-      <c r="BJ17" s="54"/>
-      <c r="BK17" s="54"/>
-      <c r="BL17" s="54"/>
-      <c r="BM17" s="54"/>
-      <c r="BN17" s="54"/>
-      <c r="BO17" s="54"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="47"/>
+      <c r="X17" s="47"/>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="47"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="47"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="47"/>
+      <c r="AF17" s="47"/>
+      <c r="AG17" s="47"/>
+      <c r="AH17" s="47"/>
+      <c r="AI17" s="47"/>
+      <c r="AJ17" s="47"/>
+      <c r="AK17" s="47"/>
+      <c r="AL17" s="45"/>
+      <c r="AM17" s="45"/>
+      <c r="AN17" s="45"/>
+      <c r="AO17" s="45"/>
+      <c r="AP17" s="45"/>
+      <c r="AQ17" s="45"/>
+      <c r="AR17" s="45"/>
+      <c r="AS17" s="45"/>
+      <c r="AT17" s="45"/>
+      <c r="AU17" s="45"/>
+      <c r="AV17" s="45"/>
+      <c r="AW17" s="45"/>
+      <c r="AX17" s="45"/>
+      <c r="AY17" s="45"/>
+      <c r="AZ17" s="45"/>
+      <c r="BA17" s="45"/>
+      <c r="BB17" s="45"/>
+      <c r="BC17" s="45"/>
+      <c r="BD17" s="45"/>
+      <c r="BE17" s="45"/>
+      <c r="BF17" s="45"/>
+      <c r="BG17" s="45"/>
+      <c r="BH17" s="45"/>
+      <c r="BI17" s="45"/>
+      <c r="BJ17" s="45"/>
+      <c r="BK17" s="45"/>
+      <c r="BL17" s="45"/>
+      <c r="BM17" s="45"/>
+      <c r="BN17" s="45"/>
+      <c r="BO17" s="45"/>
       <c r="BP17" s="5"/>
     </row>
     <row r="18" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A18" s="5"/>
-      <c r="B18" s="45">
+      <c r="B18" s="24">
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="H18" s="56"/>
-      <c r="I18" s="56"/>
-      <c r="J18" s="56"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="56"/>
-      <c r="M18" s="56"/>
-      <c r="N18" s="56"/>
-      <c r="O18" s="56"/>
-      <c r="P18" s="56"/>
-      <c r="Q18" s="56"/>
-      <c r="R18" s="56"/>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="56"/>
-      <c r="Y18" s="56"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="56"/>
-      <c r="AB18" s="56"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="56"/>
-      <c r="AF18" s="56"/>
-      <c r="AG18" s="56"/>
-      <c r="AH18" s="56"/>
-      <c r="AI18" s="56"/>
-      <c r="AJ18" s="56"/>
-      <c r="AK18" s="56"/>
-      <c r="AL18" s="56"/>
-      <c r="AM18" s="56"/>
-      <c r="AN18" s="56"/>
-      <c r="AO18" s="56"/>
-      <c r="AP18" s="56"/>
-      <c r="AQ18" s="56"/>
-      <c r="AR18" s="56"/>
-      <c r="AS18" s="56"/>
-      <c r="AT18" s="56"/>
-      <c r="AU18" s="56"/>
-      <c r="AV18" s="56"/>
-      <c r="AW18" s="56"/>
-      <c r="AX18" s="56"/>
-      <c r="AY18" s="56"/>
-      <c r="AZ18" s="56"/>
-      <c r="BA18" s="56"/>
-      <c r="BB18" s="56"/>
-      <c r="BC18" s="56"/>
-      <c r="BD18" s="56"/>
-      <c r="BE18" s="56"/>
-      <c r="BF18" s="56"/>
-      <c r="BG18" s="56"/>
-      <c r="BH18" s="56"/>
-      <c r="BI18" s="56"/>
-      <c r="BJ18" s="56"/>
-      <c r="BK18" s="56"/>
-      <c r="BL18" s="56"/>
-      <c r="BM18" s="56"/>
-      <c r="BN18" s="56"/>
-      <c r="BO18" s="57"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="28"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="28"/>
+      <c r="AA18" s="28"/>
+      <c r="AB18" s="28"/>
+      <c r="AC18" s="28"/>
+      <c r="AD18" s="28"/>
+      <c r="AE18" s="28"/>
+      <c r="AF18" s="28"/>
+      <c r="AG18" s="28"/>
+      <c r="AH18" s="28"/>
+      <c r="AI18" s="28"/>
+      <c r="AJ18" s="28"/>
+      <c r="AK18" s="28"/>
+      <c r="AL18" s="28"/>
+      <c r="AM18" s="28"/>
+      <c r="AN18" s="28"/>
+      <c r="AO18" s="28"/>
+      <c r="AP18" s="28"/>
+      <c r="AQ18" s="28"/>
+      <c r="AR18" s="28"/>
+      <c r="AS18" s="28"/>
+      <c r="AT18" s="28"/>
+      <c r="AU18" s="28"/>
+      <c r="AV18" s="28"/>
+      <c r="AW18" s="28"/>
+      <c r="AX18" s="28"/>
+      <c r="AY18" s="28"/>
+      <c r="AZ18" s="28"/>
+      <c r="BA18" s="28"/>
+      <c r="BB18" s="28"/>
+      <c r="BC18" s="28"/>
+      <c r="BD18" s="28"/>
+      <c r="BE18" s="28"/>
+      <c r="BF18" s="28"/>
+      <c r="BG18" s="28"/>
+      <c r="BH18" s="28"/>
+      <c r="BI18" s="28"/>
+      <c r="BJ18" s="28"/>
+      <c r="BK18" s="28"/>
+      <c r="BL18" s="28"/>
+      <c r="BM18" s="28"/>
+      <c r="BN18" s="28"/>
+      <c r="BO18" s="29"/>
       <c r="BP18" s="5"/>
     </row>
     <row r="19" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A19" s="5"/>
-      <c r="B19" s="45">
+      <c r="B19" s="24">
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="60" t="s">
+      <c r="C19" s="30"/>
+      <c r="D19" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="53" t="s">
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="53"/>
-      <c r="T19" s="53"/>
-      <c r="U19" s="53"/>
-      <c r="V19" s="53"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="53"/>
-      <c r="Y19" s="53"/>
-      <c r="Z19" s="53"/>
-      <c r="AA19" s="53"/>
-      <c r="AB19" s="53"/>
-      <c r="AC19" s="53"/>
-      <c r="AD19" s="53"/>
-      <c r="AE19" s="53"/>
-      <c r="AF19" s="53"/>
-      <c r="AG19" s="53"/>
-      <c r="AH19" s="53"/>
-      <c r="AI19" s="53"/>
-      <c r="AJ19" s="53"/>
-      <c r="AK19" s="53"/>
-      <c r="AL19" s="54"/>
-      <c r="AM19" s="54"/>
-      <c r="AN19" s="54"/>
-      <c r="AO19" s="54"/>
-      <c r="AP19" s="54"/>
-      <c r="AQ19" s="54"/>
-      <c r="AR19" s="54"/>
-      <c r="AS19" s="54"/>
-      <c r="AT19" s="54"/>
-      <c r="AU19" s="54"/>
-      <c r="AV19" s="54"/>
-      <c r="AW19" s="54"/>
-      <c r="AX19" s="54"/>
-      <c r="AY19" s="54"/>
-      <c r="AZ19" s="54"/>
-      <c r="BA19" s="54"/>
-      <c r="BB19" s="54"/>
-      <c r="BC19" s="54"/>
-      <c r="BD19" s="54"/>
-      <c r="BE19" s="54"/>
-      <c r="BF19" s="54"/>
-      <c r="BG19" s="54"/>
-      <c r="BH19" s="54"/>
-      <c r="BI19" s="54"/>
-      <c r="BJ19" s="54"/>
-      <c r="BK19" s="54"/>
-      <c r="BL19" s="54"/>
-      <c r="BM19" s="54"/>
-      <c r="BN19" s="54"/>
-      <c r="BO19" s="54"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="47"/>
+      <c r="AB19" s="47"/>
+      <c r="AC19" s="47"/>
+      <c r="AD19" s="47"/>
+      <c r="AE19" s="47"/>
+      <c r="AF19" s="47"/>
+      <c r="AG19" s="47"/>
+      <c r="AH19" s="47"/>
+      <c r="AI19" s="47"/>
+      <c r="AJ19" s="47"/>
+      <c r="AK19" s="47"/>
+      <c r="AL19" s="45"/>
+      <c r="AM19" s="45"/>
+      <c r="AN19" s="45"/>
+      <c r="AO19" s="45"/>
+      <c r="AP19" s="45"/>
+      <c r="AQ19" s="45"/>
+      <c r="AR19" s="45"/>
+      <c r="AS19" s="45"/>
+      <c r="AT19" s="45"/>
+      <c r="AU19" s="45"/>
+      <c r="AV19" s="45"/>
+      <c r="AW19" s="45"/>
+      <c r="AX19" s="45"/>
+      <c r="AY19" s="45"/>
+      <c r="AZ19" s="45"/>
+      <c r="BA19" s="45"/>
+      <c r="BB19" s="45"/>
+      <c r="BC19" s="45"/>
+      <c r="BD19" s="45"/>
+      <c r="BE19" s="45"/>
+      <c r="BF19" s="45"/>
+      <c r="BG19" s="45"/>
+      <c r="BH19" s="45"/>
+      <c r="BI19" s="45"/>
+      <c r="BJ19" s="45"/>
+      <c r="BK19" s="45"/>
+      <c r="BL19" s="45"/>
+      <c r="BM19" s="45"/>
+      <c r="BN19" s="45"/>
+      <c r="BO19" s="45"/>
       <c r="BP19" s="5"/>
     </row>
     <row r="20" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A20" s="5"/>
-      <c r="B20" s="45">
+      <c r="B20" s="24">
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C20" s="61" t="s">
+      <c r="C20" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="62"/>
-      <c r="AB20" s="62"/>
-      <c r="AC20" s="62"/>
-      <c r="AD20" s="62"/>
-      <c r="AE20" s="62"/>
-      <c r="AF20" s="62"/>
-      <c r="AG20" s="62"/>
-      <c r="AH20" s="62"/>
-      <c r="AI20" s="62"/>
-      <c r="AJ20" s="62"/>
-      <c r="AK20" s="62"/>
-      <c r="AL20" s="62"/>
-      <c r="AM20" s="62"/>
-      <c r="AN20" s="62"/>
-      <c r="AO20" s="62"/>
-      <c r="AP20" s="62"/>
-      <c r="AQ20" s="62"/>
-      <c r="AR20" s="62"/>
-      <c r="AS20" s="62"/>
-      <c r="AT20" s="62"/>
-      <c r="AU20" s="62"/>
-      <c r="AV20" s="62"/>
-      <c r="AW20" s="62"/>
-      <c r="AX20" s="62"/>
-      <c r="AY20" s="62"/>
-      <c r="AZ20" s="62"/>
-      <c r="BA20" s="62"/>
-      <c r="BB20" s="62"/>
-      <c r="BC20" s="62"/>
-      <c r="BD20" s="62"/>
-      <c r="BE20" s="62"/>
-      <c r="BF20" s="62"/>
-      <c r="BG20" s="62"/>
-      <c r="BH20" s="62"/>
-      <c r="BI20" s="62"/>
-      <c r="BJ20" s="62"/>
-      <c r="BK20" s="62"/>
-      <c r="BL20" s="62"/>
-      <c r="BM20" s="62"/>
-      <c r="BN20" s="62"/>
-      <c r="BO20" s="63"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="32"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="32"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="32"/>
+      <c r="AA20" s="32"/>
+      <c r="AB20" s="32"/>
+      <c r="AC20" s="32"/>
+      <c r="AD20" s="32"/>
+      <c r="AE20" s="32"/>
+      <c r="AF20" s="32"/>
+      <c r="AG20" s="32"/>
+      <c r="AH20" s="32"/>
+      <c r="AI20" s="32"/>
+      <c r="AJ20" s="32"/>
+      <c r="AK20" s="32"/>
+      <c r="AL20" s="32"/>
+      <c r="AM20" s="32"/>
+      <c r="AN20" s="32"/>
+      <c r="AO20" s="32"/>
+      <c r="AP20" s="32"/>
+      <c r="AQ20" s="32"/>
+      <c r="AR20" s="32"/>
+      <c r="AS20" s="32"/>
+      <c r="AT20" s="32"/>
+      <c r="AU20" s="32"/>
+      <c r="AV20" s="32"/>
+      <c r="AW20" s="32"/>
+      <c r="AX20" s="32"/>
+      <c r="AY20" s="32"/>
+      <c r="AZ20" s="32"/>
+      <c r="BA20" s="32"/>
+      <c r="BB20" s="32"/>
+      <c r="BC20" s="32"/>
+      <c r="BD20" s="32"/>
+      <c r="BE20" s="32"/>
+      <c r="BF20" s="32"/>
+      <c r="BG20" s="32"/>
+      <c r="BH20" s="32"/>
+      <c r="BI20" s="32"/>
+      <c r="BJ20" s="32"/>
+      <c r="BK20" s="32"/>
+      <c r="BL20" s="32"/>
+      <c r="BM20" s="32"/>
+      <c r="BN20" s="32"/>
+      <c r="BO20" s="33"/>
       <c r="BP20" s="5"/>
     </row>
     <row r="21" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A21" s="5"/>
-      <c r="B21" s="45">
+      <c r="B21" s="24">
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>5</v>
       </c>
-      <c r="C21" s="65"/>
-      <c r="D21" s="59" t="s">
+      <c r="C21" s="35"/>
+      <c r="D21" s="43" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="50" t="s">
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="M21" s="50"/>
-      <c r="N21" s="50"/>
-      <c r="O21" s="50"/>
-      <c r="P21" s="50"/>
-      <c r="Q21" s="50"/>
-      <c r="R21" s="50"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="50"/>
-      <c r="Y21" s="50"/>
-      <c r="Z21" s="50"/>
-      <c r="AA21" s="50"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="50"/>
-      <c r="AE21" s="50"/>
-      <c r="AF21" s="50"/>
-      <c r="AG21" s="50"/>
-      <c r="AH21" s="50"/>
-      <c r="AI21" s="50"/>
-      <c r="AJ21" s="50"/>
-      <c r="AK21" s="50"/>
-      <c r="AL21" s="51"/>
-      <c r="AM21" s="51"/>
-      <c r="AN21" s="51"/>
-      <c r="AO21" s="51"/>
-      <c r="AP21" s="51"/>
-      <c r="AQ21" s="51"/>
-      <c r="AR21" s="51"/>
-      <c r="AS21" s="51"/>
-      <c r="AT21" s="51"/>
-      <c r="AU21" s="51"/>
-      <c r="AV21" s="51"/>
-      <c r="AW21" s="51"/>
-      <c r="AX21" s="51"/>
-      <c r="AY21" s="51"/>
-      <c r="AZ21" s="51"/>
-      <c r="BA21" s="51"/>
-      <c r="BB21" s="51"/>
-      <c r="BC21" s="51"/>
-      <c r="BD21" s="51"/>
-      <c r="BE21" s="51"/>
-      <c r="BF21" s="51"/>
-      <c r="BG21" s="51"/>
-      <c r="BH21" s="51"/>
-      <c r="BI21" s="51"/>
-      <c r="BJ21" s="51"/>
-      <c r="BK21" s="51"/>
-      <c r="BL21" s="51"/>
-      <c r="BM21" s="51"/>
-      <c r="BN21" s="51"/>
-      <c r="BO21" s="51"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" s="44"/>
+      <c r="Q21" s="44"/>
+      <c r="R21" s="44"/>
+      <c r="S21" s="44"/>
+      <c r="T21" s="44"/>
+      <c r="U21" s="44"/>
+      <c r="V21" s="44"/>
+      <c r="W21" s="44"/>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="44"/>
+      <c r="AC21" s="44"/>
+      <c r="AD21" s="44"/>
+      <c r="AE21" s="44"/>
+      <c r="AF21" s="44"/>
+      <c r="AG21" s="44"/>
+      <c r="AH21" s="44"/>
+      <c r="AI21" s="44"/>
+      <c r="AJ21" s="44"/>
+      <c r="AK21" s="44"/>
+      <c r="AL21" s="42"/>
+      <c r="AM21" s="42"/>
+      <c r="AN21" s="42"/>
+      <c r="AO21" s="42"/>
+      <c r="AP21" s="42"/>
+      <c r="AQ21" s="42"/>
+      <c r="AR21" s="42"/>
+      <c r="AS21" s="42"/>
+      <c r="AT21" s="42"/>
+      <c r="AU21" s="42"/>
+      <c r="AV21" s="42"/>
+      <c r="AW21" s="42"/>
+      <c r="AX21" s="42"/>
+      <c r="AY21" s="42"/>
+      <c r="AZ21" s="42"/>
+      <c r="BA21" s="42"/>
+      <c r="BB21" s="42"/>
+      <c r="BC21" s="42"/>
+      <c r="BD21" s="42"/>
+      <c r="BE21" s="42"/>
+      <c r="BF21" s="42"/>
+      <c r="BG21" s="42"/>
+      <c r="BH21" s="42"/>
+      <c r="BI21" s="42"/>
+      <c r="BJ21" s="42"/>
+      <c r="BK21" s="42"/>
+      <c r="BL21" s="42"/>
+      <c r="BM21" s="42"/>
+      <c r="BN21" s="42"/>
+      <c r="BO21" s="42"/>
       <c r="BP21" s="5"/>
     </row>
     <row r="22" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A22" s="5"/>
-      <c r="B22" s="45">
+      <c r="B22" s="24">
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>6</v>
       </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="59" t="s">
+      <c r="C22" s="34"/>
+      <c r="D22" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="50" t="s">
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="M22" s="50"/>
-      <c r="N22" s="50"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="50"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="50"/>
-      <c r="Y22" s="50"/>
-      <c r="Z22" s="50"/>
-      <c r="AA22" s="50"/>
-      <c r="AB22" s="50"/>
-      <c r="AC22" s="50"/>
-      <c r="AD22" s="50"/>
-      <c r="AE22" s="50"/>
-      <c r="AF22" s="50"/>
-      <c r="AG22" s="50"/>
-      <c r="AH22" s="50"/>
-      <c r="AI22" s="50"/>
-      <c r="AJ22" s="50"/>
-      <c r="AK22" s="50"/>
-      <c r="AL22" s="51"/>
-      <c r="AM22" s="51"/>
-      <c r="AN22" s="51"/>
-      <c r="AO22" s="51"/>
-      <c r="AP22" s="51"/>
-      <c r="AQ22" s="51"/>
-      <c r="AR22" s="51"/>
-      <c r="AS22" s="51"/>
-      <c r="AT22" s="51"/>
-      <c r="AU22" s="51"/>
-      <c r="AV22" s="51"/>
-      <c r="AW22" s="51"/>
-      <c r="AX22" s="51"/>
-      <c r="AY22" s="51"/>
-      <c r="AZ22" s="51"/>
-      <c r="BA22" s="51"/>
-      <c r="BB22" s="51"/>
-      <c r="BC22" s="51"/>
-      <c r="BD22" s="51"/>
-      <c r="BE22" s="51"/>
-      <c r="BF22" s="51"/>
-      <c r="BG22" s="51"/>
-      <c r="BH22" s="51"/>
-      <c r="BI22" s="51"/>
-      <c r="BJ22" s="51"/>
-      <c r="BK22" s="51"/>
-      <c r="BL22" s="51"/>
-      <c r="BM22" s="51"/>
-      <c r="BN22" s="51"/>
-      <c r="BO22" s="51"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="44"/>
+      <c r="S22" s="44"/>
+      <c r="T22" s="44"/>
+      <c r="U22" s="44"/>
+      <c r="V22" s="44"/>
+      <c r="W22" s="44"/>
+      <c r="X22" s="44"/>
+      <c r="Y22" s="44"/>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="44"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="44"/>
+      <c r="AF22" s="44"/>
+      <c r="AG22" s="44"/>
+      <c r="AH22" s="44"/>
+      <c r="AI22" s="44"/>
+      <c r="AJ22" s="44"/>
+      <c r="AK22" s="44"/>
+      <c r="AL22" s="42"/>
+      <c r="AM22" s="42"/>
+      <c r="AN22" s="42"/>
+      <c r="AO22" s="42"/>
+      <c r="AP22" s="42"/>
+      <c r="AQ22" s="42"/>
+      <c r="AR22" s="42"/>
+      <c r="AS22" s="42"/>
+      <c r="AT22" s="42"/>
+      <c r="AU22" s="42"/>
+      <c r="AV22" s="42"/>
+      <c r="AW22" s="42"/>
+      <c r="AX22" s="42"/>
+      <c r="AY22" s="42"/>
+      <c r="AZ22" s="42"/>
+      <c r="BA22" s="42"/>
+      <c r="BB22" s="42"/>
+      <c r="BC22" s="42"/>
+      <c r="BD22" s="42"/>
+      <c r="BE22" s="42"/>
+      <c r="BF22" s="42"/>
+      <c r="BG22" s="42"/>
+      <c r="BH22" s="42"/>
+      <c r="BI22" s="42"/>
+      <c r="BJ22" s="42"/>
+      <c r="BK22" s="42"/>
+      <c r="BL22" s="42"/>
+      <c r="BM22" s="42"/>
+      <c r="BN22" s="42"/>
+      <c r="BO22" s="42"/>
       <c r="BP22" s="5"/>
     </row>
     <row r="23" spans="1:68" ht="16.5">
@@ -5771,43 +5844,43 @@
     <row r="32" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A32" s="5"/>
       <c r="B32" s="5"/>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="34" t="s">
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="35"/>
-      <c r="Y32" s="35"/>
-      <c r="Z32" s="35"/>
-      <c r="AA32" s="35"/>
-      <c r="AB32" s="35"/>
-      <c r="AC32" s="35"/>
-      <c r="AD32" s="35"/>
-      <c r="AE32" s="35"/>
-      <c r="AF32" s="35"/>
-      <c r="AG32" s="35"/>
-      <c r="AH32" s="35"/>
-      <c r="AI32" s="36"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="51"/>
+      <c r="S32" s="51"/>
+      <c r="T32" s="51"/>
+      <c r="U32" s="51"/>
+      <c r="V32" s="51"/>
+      <c r="W32" s="51"/>
+      <c r="X32" s="51"/>
+      <c r="Y32" s="51"/>
+      <c r="Z32" s="51"/>
+      <c r="AA32" s="51"/>
+      <c r="AB32" s="51"/>
+      <c r="AC32" s="51"/>
+      <c r="AD32" s="51"/>
+      <c r="AE32" s="51"/>
+      <c r="AF32" s="51"/>
+      <c r="AG32" s="51"/>
+      <c r="AH32" s="51"/>
+      <c r="AI32" s="52"/>
       <c r="AJ32" s="5"/>
       <c r="AK32" s="5"/>
       <c r="AL32" s="5"/>
@@ -5845,43 +5918,43 @@
     <row r="33" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A33" s="5"/>
       <c r="B33" s="5"/>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="50" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="34" t="s">
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="52"/>
+      <c r="J33" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="35"/>
-      <c r="Z33" s="35"/>
-      <c r="AA33" s="35"/>
-      <c r="AB33" s="35"/>
-      <c r="AC33" s="35"/>
-      <c r="AD33" s="35"/>
-      <c r="AE33" s="35"/>
-      <c r="AF33" s="35"/>
-      <c r="AG33" s="35"/>
-      <c r="AH33" s="35"/>
-      <c r="AI33" s="36"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51"/>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51"/>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51"/>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51"/>
+      <c r="Z33" s="51"/>
+      <c r="AA33" s="51"/>
+      <c r="AB33" s="51"/>
+      <c r="AC33" s="51"/>
+      <c r="AD33" s="51"/>
+      <c r="AE33" s="51"/>
+      <c r="AF33" s="51"/>
+      <c r="AG33" s="51"/>
+      <c r="AH33" s="51"/>
+      <c r="AI33" s="52"/>
       <c r="AJ33" s="5"/>
       <c r="AK33" s="5"/>
       <c r="AL33" s="5"/>
@@ -5919,43 +5992,43 @@
     <row r="34" spans="1:68" ht="31.5" customHeight="1" outlineLevel="1">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="38" t="s">
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="K34" s="39"/>
-      <c r="L34" s="39"/>
-      <c r="M34" s="39"/>
-      <c r="N34" s="39"/>
-      <c r="O34" s="39"/>
-      <c r="P34" s="39"/>
-      <c r="Q34" s="39"/>
-      <c r="R34" s="39"/>
-      <c r="S34" s="39"/>
-      <c r="T34" s="39"/>
-      <c r="U34" s="39"/>
-      <c r="V34" s="39"/>
-      <c r="W34" s="39"/>
-      <c r="X34" s="39"/>
-      <c r="Y34" s="39"/>
-      <c r="Z34" s="39"/>
-      <c r="AA34" s="39"/>
-      <c r="AB34" s="39"/>
-      <c r="AC34" s="39"/>
-      <c r="AD34" s="39"/>
-      <c r="AE34" s="39"/>
-      <c r="AF34" s="39"/>
-      <c r="AG34" s="39"/>
-      <c r="AH34" s="39"/>
-      <c r="AI34" s="40"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="56"/>
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="56"/>
+      <c r="R34" s="56"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="56"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="56"/>
+      <c r="X34" s="56"/>
+      <c r="Y34" s="56"/>
+      <c r="Z34" s="56"/>
+      <c r="AA34" s="56"/>
+      <c r="AB34" s="56"/>
+      <c r="AC34" s="56"/>
+      <c r="AD34" s="56"/>
+      <c r="AE34" s="56"/>
+      <c r="AF34" s="56"/>
+      <c r="AG34" s="56"/>
+      <c r="AH34" s="56"/>
+      <c r="AI34" s="57"/>
       <c r="AJ34" s="5"/>
       <c r="AK34" s="5"/>
       <c r="AL34" s="5"/>
@@ -6132,6 +6205,40 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I7:BJ7"/>
+    <mergeCell ref="C32:I32"/>
+    <mergeCell ref="I8:BJ8"/>
+    <mergeCell ref="J34:AI34"/>
+    <mergeCell ref="J33:AI33"/>
+    <mergeCell ref="J32:AI32"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:BJ10"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:K16"/>
+    <mergeCell ref="C33:I33"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="I9:BJ9"/>
+    <mergeCell ref="L15:AB16"/>
+    <mergeCell ref="AC15:AK16"/>
+    <mergeCell ref="AL15:BO15"/>
+    <mergeCell ref="AL16:AT16"/>
+    <mergeCell ref="AU16:AY16"/>
+    <mergeCell ref="AZ16:BO16"/>
+    <mergeCell ref="AZ17:BO17"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="L17:AB17"/>
+    <mergeCell ref="AC17:AK17"/>
+    <mergeCell ref="AL17:AT17"/>
+    <mergeCell ref="AU17:AY17"/>
+    <mergeCell ref="AZ19:BO19"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="L19:AB19"/>
+    <mergeCell ref="AC19:AK19"/>
+    <mergeCell ref="AL19:AT19"/>
+    <mergeCell ref="AU19:AY19"/>
     <mergeCell ref="AZ21:BO21"/>
     <mergeCell ref="AZ22:BO22"/>
     <mergeCell ref="D22:K22"/>
@@ -6144,40 +6251,6 @@
     <mergeCell ref="AC21:AK21"/>
     <mergeCell ref="AL21:AT21"/>
     <mergeCell ref="AU21:AY21"/>
-    <mergeCell ref="AZ19:BO19"/>
-    <mergeCell ref="D19:K19"/>
-    <mergeCell ref="L19:AB19"/>
-    <mergeCell ref="AC19:AK19"/>
-    <mergeCell ref="AL19:AT19"/>
-    <mergeCell ref="AU19:AY19"/>
-    <mergeCell ref="AZ17:BO17"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="L17:AB17"/>
-    <mergeCell ref="AC17:AK17"/>
-    <mergeCell ref="AL17:AT17"/>
-    <mergeCell ref="AU17:AY17"/>
-    <mergeCell ref="L15:AB16"/>
-    <mergeCell ref="AC15:AK16"/>
-    <mergeCell ref="AL15:BO15"/>
-    <mergeCell ref="AL16:AT16"/>
-    <mergeCell ref="AU16:AY16"/>
-    <mergeCell ref="AZ16:BO16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:K16"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="C34:I34"/>
-    <mergeCell ref="I9:BJ9"/>
-    <mergeCell ref="I8:BJ8"/>
-    <mergeCell ref="J34:AI34"/>
-    <mergeCell ref="J33:AI33"/>
-    <mergeCell ref="J32:AI32"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:BJ10"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I7:BJ7"/>
-    <mergeCell ref="C32:I32"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6199,331 +6272,362 @@
   </sheetPr>
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection sqref="A1:D27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="8" width="4.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="D1" s="66" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="67" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="D2" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="67" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
+      <c r="D3" s="68" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68" t="s">
+        <v>75</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A8" s="20"/>
-      <c r="B8" s="19" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="19" t="s">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="67"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A11" s="18"/>
+      <c r="B11" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="67"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="19" t="s">
+      <c r="C12" s="67"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="19" t="s">
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="67"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A15" s="18"/>
+      <c r="B15" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="67"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A13" s="20"/>
-      <c r="B13" s="19" t="s">
-        <v>49</v>
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18" t="s">
+        <v>78</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A14" s="20"/>
-      <c r="B14" s="19" t="s">
-        <v>50</v>
+      <c r="C17" s="67"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18" t="s">
+        <v>79</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="67"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="67"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="67"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="67"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7"/>

--- a/ha-asset/01_design/03_batch/設計書_3.1.ヘルスチェックバッチ.xlsx
+++ b/ha-asset/01_design/03_batch/設計書_3.1.ヘルスチェックバッチ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\03_batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA34A0A7-5C98-48C6-B86C-B64FCB7874AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CE13B8-6885-40FC-999F-ADFB9D14CD37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28290" yWindow="2775" windowWidth="27090" windowHeight="14220" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="510" windowWidth="24330" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0.更新履歴'!$A$1:$AA$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1.機能一覧'!$A$1:$AW$5</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'2.1.ヘルスチェックバッチ'!$A$1:$BP$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2.1.ヘルスチェックバッチ'!$A$1:$BP$56</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="110">
   <si>
     <t>0.更新履歴</t>
   </si>
@@ -303,6 +303,153 @@
   <si>
     <t>URL形式</t>
   </si>
+  <si>
+    <t>API通信情報を登録</t>
+    <rPh sb="3" eb="5">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>API通信情報を更新</t>
+    <rPh sb="3" eb="5">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2.1.3.1.API通信情報作成 参照</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2.1.3.2.API通信情報更新 参照</t>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>編集仕様</t>
+  </si>
+  <si>
+    <t>出力</t>
+  </si>
+  <si>
+    <t>採番</t>
+    <rPh sb="0" eb="2">
+      <t>サイバン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>API通信情報</t>
+    <rPh sb="3" eb="5">
+      <t>ツウシン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>API通信情報ID</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>API名</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>システム日時</t>
+    <rPh sb="4" eb="6">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>リクエスト送信日時</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>更新日時</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>登録日時</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>API通信情報</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>APIレスポンス</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>HTTPステータス</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>処理結果</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>エラー詳細</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>レスポンス受信日時</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2.1.3.1.API通信情報作成</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2.1.3.2.API通信情報更新</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>ヘルスチェックAPI</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2.1.3.1.API通信情報作成 で採番したシーケンス</t>
+    <rPh sb="19" eb="21">
+      <t>サイバン</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>2.1.ヘルスチェックバッチ
+　API通信情報を登録/更新処理を追加</t>
+    <rPh sb="27" eb="29">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
@@ -311,7 +458,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -379,6 +526,21 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -424,7 +586,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -704,11 +866,128 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -775,43 +1054,26 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -821,9 +1083,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -840,22 +1099,184 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1076,7 +1497,9 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12:Z12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1145,681 +1568,688 @@
     </row>
     <row r="3" spans="1:27">
       <c r="A3" s="3"/>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="39" t="s">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39" t="s">
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="38"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="44"/>
       <c r="AA3" s="3"/>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" ht="16.5">
       <c r="A4" s="3"/>
-      <c r="B4" s="40">
+      <c r="B4" s="116">
         <v>44150</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="41" t="s">
+      <c r="C4" s="117"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="119" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="36" t="s">
+      <c r="G4" s="117"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="38"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="117"/>
+      <c r="N4" s="117"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="117"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="117"/>
+      <c r="T4" s="117"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="117"/>
+      <c r="W4" s="117"/>
+      <c r="X4" s="117"/>
+      <c r="Y4" s="117"/>
+      <c r="Z4" s="118"/>
       <c r="AA4" s="3"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" ht="31.5" customHeight="1">
       <c r="A5" s="3"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="37"/>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37"/>
-      <c r="W5" s="37"/>
-      <c r="X5" s="37"/>
-      <c r="Y5" s="37"/>
-      <c r="Z5" s="38"/>
+      <c r="B5" s="121">
+        <v>44192</v>
+      </c>
+      <c r="C5" s="117"/>
+      <c r="D5" s="117"/>
+      <c r="E5" s="118"/>
+      <c r="F5" s="120">
+        <f>F4+0.01</f>
+        <v>1.01</v>
+      </c>
+      <c r="G5" s="117"/>
+      <c r="H5" s="117"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="122" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="117"/>
+      <c r="R5" s="117"/>
+      <c r="S5" s="117"/>
+      <c r="T5" s="117"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="117"/>
+      <c r="W5" s="117"/>
+      <c r="X5" s="117"/>
+      <c r="Y5" s="117"/>
+      <c r="Z5" s="118"/>
       <c r="AA5" s="3"/>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" ht="16.5">
       <c r="A6" s="3"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="38"/>
+      <c r="B6" s="120"/>
+      <c r="C6" s="117"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="118"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="117"/>
+      <c r="L6" s="117"/>
+      <c r="M6" s="117"/>
+      <c r="N6" s="117"/>
+      <c r="O6" s="117"/>
+      <c r="P6" s="117"/>
+      <c r="Q6" s="117"/>
+      <c r="R6" s="117"/>
+      <c r="S6" s="117"/>
+      <c r="T6" s="117"/>
+      <c r="U6" s="117"/>
+      <c r="V6" s="117"/>
+      <c r="W6" s="117"/>
+      <c r="X6" s="117"/>
+      <c r="Y6" s="117"/>
+      <c r="Z6" s="118"/>
       <c r="AA6" s="3"/>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" ht="16.5">
       <c r="A7" s="3"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
-      <c r="O7" s="37"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="37"/>
-      <c r="R7" s="37"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="37"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="37"/>
-      <c r="W7" s="37"/>
-      <c r="X7" s="37"/>
-      <c r="Y7" s="37"/>
-      <c r="Z7" s="38"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="118"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="117"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="120"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="117"/>
+      <c r="N7" s="117"/>
+      <c r="O7" s="117"/>
+      <c r="P7" s="117"/>
+      <c r="Q7" s="117"/>
+      <c r="R7" s="117"/>
+      <c r="S7" s="117"/>
+      <c r="T7" s="117"/>
+      <c r="U7" s="117"/>
+      <c r="V7" s="117"/>
+      <c r="W7" s="117"/>
+      <c r="X7" s="117"/>
+      <c r="Y7" s="117"/>
+      <c r="Z7" s="118"/>
       <c r="AA7" s="3"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" ht="16.5">
       <c r="A8" s="3"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="38"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="117"/>
+      <c r="D8" s="117"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
+      <c r="Q8" s="117"/>
+      <c r="R8" s="117"/>
+      <c r="S8" s="117"/>
+      <c r="T8" s="117"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="117"/>
+      <c r="W8" s="117"/>
+      <c r="X8" s="117"/>
+      <c r="Y8" s="117"/>
+      <c r="Z8" s="118"/>
       <c r="AA8" s="3"/>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" ht="16.5">
       <c r="A9" s="3"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="36"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="37"/>
-      <c r="R9" s="37"/>
-      <c r="S9" s="37"/>
-      <c r="T9" s="37"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="37"/>
-      <c r="X9" s="37"/>
-      <c r="Y9" s="37"/>
-      <c r="Z9" s="38"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="118"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="118"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
+      <c r="Q9" s="117"/>
+      <c r="R9" s="117"/>
+      <c r="S9" s="117"/>
+      <c r="T9" s="117"/>
+      <c r="U9" s="117"/>
+      <c r="V9" s="117"/>
+      <c r="W9" s="117"/>
+      <c r="X9" s="117"/>
+      <c r="Y9" s="117"/>
+      <c r="Z9" s="118"/>
       <c r="AA9" s="3"/>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" ht="16.5">
       <c r="A10" s="3"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="37"/>
-      <c r="W10" s="37"/>
-      <c r="X10" s="37"/>
-      <c r="Y10" s="37"/>
-      <c r="Z10" s="38"/>
+      <c r="B10" s="120"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="118"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
+      <c r="Q10" s="117"/>
+      <c r="R10" s="117"/>
+      <c r="S10" s="117"/>
+      <c r="T10" s="117"/>
+      <c r="U10" s="117"/>
+      <c r="V10" s="117"/>
+      <c r="W10" s="117"/>
+      <c r="X10" s="117"/>
+      <c r="Y10" s="117"/>
+      <c r="Z10" s="118"/>
       <c r="AA10" s="3"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" ht="16.5">
       <c r="A11" s="3"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="37"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="37"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="37"/>
-      <c r="T11" s="37"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="37"/>
-      <c r="W11" s="37"/>
-      <c r="X11" s="37"/>
-      <c r="Y11" s="37"/>
-      <c r="Z11" s="38"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="117"/>
+      <c r="Q11" s="117"/>
+      <c r="R11" s="117"/>
+      <c r="S11" s="117"/>
+      <c r="T11" s="117"/>
+      <c r="U11" s="117"/>
+      <c r="V11" s="117"/>
+      <c r="W11" s="117"/>
+      <c r="X11" s="117"/>
+      <c r="Y11" s="117"/>
+      <c r="Z11" s="118"/>
       <c r="AA11" s="3"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" ht="16.5">
       <c r="A12" s="3"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
-      <c r="O12" s="37"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="37"/>
-      <c r="R12" s="37"/>
-      <c r="S12" s="37"/>
-      <c r="T12" s="37"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="37"/>
-      <c r="X12" s="37"/>
-      <c r="Y12" s="37"/>
-      <c r="Z12" s="38"/>
+      <c r="B12" s="120"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="118"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="118"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="117"/>
+      <c r="Q12" s="117"/>
+      <c r="R12" s="117"/>
+      <c r="S12" s="117"/>
+      <c r="T12" s="117"/>
+      <c r="U12" s="117"/>
+      <c r="V12" s="117"/>
+      <c r="W12" s="117"/>
+      <c r="X12" s="117"/>
+      <c r="Y12" s="117"/>
+      <c r="Z12" s="118"/>
       <c r="AA12" s="3"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" ht="16.5">
       <c r="A13" s="3"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="38"/>
+      <c r="B13" s="120"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="117"/>
+      <c r="Q13" s="117"/>
+      <c r="R13" s="117"/>
+      <c r="S13" s="117"/>
+      <c r="T13" s="117"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="117"/>
+      <c r="W13" s="117"/>
+      <c r="X13" s="117"/>
+      <c r="Y13" s="117"/>
+      <c r="Z13" s="118"/>
       <c r="AA13" s="3"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" ht="16.5">
       <c r="A14" s="3"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="37"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
-      <c r="O14" s="37"/>
-      <c r="P14" s="37"/>
-      <c r="Q14" s="37"/>
-      <c r="R14" s="37"/>
-      <c r="S14" s="37"/>
-      <c r="T14" s="37"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="37"/>
-      <c r="W14" s="37"/>
-      <c r="X14" s="37"/>
-      <c r="Y14" s="37"/>
-      <c r="Z14" s="38"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="118"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="118"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="117"/>
+      <c r="Q14" s="117"/>
+      <c r="R14" s="117"/>
+      <c r="S14" s="117"/>
+      <c r="T14" s="117"/>
+      <c r="U14" s="117"/>
+      <c r="V14" s="117"/>
+      <c r="W14" s="117"/>
+      <c r="X14" s="117"/>
+      <c r="Y14" s="117"/>
+      <c r="Z14" s="118"/>
       <c r="AA14" s="3"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" ht="16.5">
       <c r="A15" s="3"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="37"/>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="38"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="118"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="118"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="117"/>
+      <c r="P15" s="117"/>
+      <c r="Q15" s="117"/>
+      <c r="R15" s="117"/>
+      <c r="S15" s="117"/>
+      <c r="T15" s="117"/>
+      <c r="U15" s="117"/>
+      <c r="V15" s="117"/>
+      <c r="W15" s="117"/>
+      <c r="X15" s="117"/>
+      <c r="Y15" s="117"/>
+      <c r="Z15" s="118"/>
       <c r="AA15" s="3"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" ht="16.5">
       <c r="A16" s="3"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="37"/>
-      <c r="Q16" s="37"/>
-      <c r="R16" s="37"/>
-      <c r="S16" s="37"/>
-      <c r="T16" s="37"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="37"/>
-      <c r="W16" s="37"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="37"/>
-      <c r="Z16" s="38"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="118"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="118"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="117"/>
+      <c r="Q16" s="117"/>
+      <c r="R16" s="117"/>
+      <c r="S16" s="117"/>
+      <c r="T16" s="117"/>
+      <c r="U16" s="117"/>
+      <c r="V16" s="117"/>
+      <c r="W16" s="117"/>
+      <c r="X16" s="117"/>
+      <c r="Y16" s="117"/>
+      <c r="Z16" s="118"/>
       <c r="AA16" s="3"/>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" ht="16.5">
       <c r="A17" s="3"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
-      <c r="O17" s="37"/>
-      <c r="P17" s="37"/>
-      <c r="Q17" s="37"/>
-      <c r="R17" s="37"/>
-      <c r="S17" s="37"/>
-      <c r="T17" s="37"/>
-      <c r="U17" s="37"/>
-      <c r="V17" s="37"/>
-      <c r="W17" s="37"/>
-      <c r="X17" s="37"/>
-      <c r="Y17" s="37"/>
-      <c r="Z17" s="38"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="118"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="118"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="117"/>
+      <c r="Q17" s="117"/>
+      <c r="R17" s="117"/>
+      <c r="S17" s="117"/>
+      <c r="T17" s="117"/>
+      <c r="U17" s="117"/>
+      <c r="V17" s="117"/>
+      <c r="W17" s="117"/>
+      <c r="X17" s="117"/>
+      <c r="Y17" s="117"/>
+      <c r="Z17" s="118"/>
       <c r="AA17" s="3"/>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" ht="16.5">
       <c r="A18" s="3"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="37"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="37"/>
-      <c r="X18" s="37"/>
-      <c r="Y18" s="37"/>
-      <c r="Z18" s="38"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="118"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="117"/>
+      <c r="P18" s="117"/>
+      <c r="Q18" s="117"/>
+      <c r="R18" s="117"/>
+      <c r="S18" s="117"/>
+      <c r="T18" s="117"/>
+      <c r="U18" s="117"/>
+      <c r="V18" s="117"/>
+      <c r="W18" s="117"/>
+      <c r="X18" s="117"/>
+      <c r="Y18" s="117"/>
+      <c r="Z18" s="118"/>
       <c r="AA18" s="3"/>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" ht="16.5">
       <c r="A19" s="3"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="37"/>
-      <c r="W19" s="37"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="37"/>
-      <c r="Z19" s="38"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="118"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="117"/>
+      <c r="P19" s="117"/>
+      <c r="Q19" s="117"/>
+      <c r="R19" s="117"/>
+      <c r="S19" s="117"/>
+      <c r="T19" s="117"/>
+      <c r="U19" s="117"/>
+      <c r="V19" s="117"/>
+      <c r="W19" s="117"/>
+      <c r="X19" s="117"/>
+      <c r="Y19" s="117"/>
+      <c r="Z19" s="118"/>
       <c r="AA19" s="3"/>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" ht="16.5">
       <c r="A20" s="3"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
-      <c r="O20" s="37"/>
-      <c r="P20" s="37"/>
-      <c r="Q20" s="37"/>
-      <c r="R20" s="37"/>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
-      <c r="X20" s="37"/>
-      <c r="Y20" s="37"/>
-      <c r="Z20" s="38"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="118"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="117"/>
+      <c r="P20" s="117"/>
+      <c r="Q20" s="117"/>
+      <c r="R20" s="117"/>
+      <c r="S20" s="117"/>
+      <c r="T20" s="117"/>
+      <c r="U20" s="117"/>
+      <c r="V20" s="117"/>
+      <c r="W20" s="117"/>
+      <c r="X20" s="117"/>
+      <c r="Y20" s="117"/>
+      <c r="Z20" s="118"/>
       <c r="AA20" s="3"/>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" ht="16.5">
       <c r="A21" s="3"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
-      <c r="O21" s="37"/>
-      <c r="P21" s="37"/>
-      <c r="Q21" s="37"/>
-      <c r="R21" s="37"/>
-      <c r="S21" s="37"/>
-      <c r="T21" s="37"/>
-      <c r="U21" s="37"/>
-      <c r="V21" s="37"/>
-      <c r="W21" s="37"/>
-      <c r="X21" s="37"/>
-      <c r="Y21" s="37"/>
-      <c r="Z21" s="38"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="118"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="118"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="117"/>
+      <c r="O21" s="117"/>
+      <c r="P21" s="117"/>
+      <c r="Q21" s="117"/>
+      <c r="R21" s="117"/>
+      <c r="S21" s="117"/>
+      <c r="T21" s="117"/>
+      <c r="U21" s="117"/>
+      <c r="V21" s="117"/>
+      <c r="W21" s="117"/>
+      <c r="X21" s="117"/>
+      <c r="Y21" s="117"/>
+      <c r="Z21" s="118"/>
       <c r="AA21" s="3"/>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" ht="16.5">
       <c r="A22" s="3"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="37"/>
-      <c r="W22" s="37"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="37"/>
-      <c r="Z22" s="38"/>
+      <c r="B22" s="120"/>
+      <c r="C22" s="117"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="118"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="118"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="117"/>
+      <c r="P22" s="117"/>
+      <c r="Q22" s="117"/>
+      <c r="R22" s="117"/>
+      <c r="S22" s="117"/>
+      <c r="T22" s="117"/>
+      <c r="U22" s="117"/>
+      <c r="V22" s="117"/>
+      <c r="W22" s="117"/>
+      <c r="X22" s="117"/>
+      <c r="Y22" s="117"/>
+      <c r="Z22" s="118"/>
       <c r="AA22" s="3"/>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" ht="16.5">
       <c r="A23" s="3"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
-      <c r="O23" s="37"/>
-      <c r="P23" s="37"/>
-      <c r="Q23" s="37"/>
-      <c r="R23" s="37"/>
-      <c r="S23" s="37"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="37"/>
-      <c r="V23" s="37"/>
-      <c r="W23" s="37"/>
-      <c r="X23" s="37"/>
-      <c r="Y23" s="37"/>
-      <c r="Z23" s="38"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="118"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="120"/>
+      <c r="K23" s="117"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="117"/>
+      <c r="N23" s="117"/>
+      <c r="O23" s="117"/>
+      <c r="P23" s="117"/>
+      <c r="Q23" s="117"/>
+      <c r="R23" s="117"/>
+      <c r="S23" s="117"/>
+      <c r="T23" s="117"/>
+      <c r="U23" s="117"/>
+      <c r="V23" s="117"/>
+      <c r="W23" s="117"/>
+      <c r="X23" s="117"/>
+      <c r="Y23" s="117"/>
+      <c r="Z23" s="118"/>
       <c r="AA23" s="3"/>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" ht="16.5">
       <c r="A24" s="3"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="37"/>
-      <c r="Q24" s="37"/>
-      <c r="R24" s="37"/>
-      <c r="S24" s="37"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="37"/>
-      <c r="V24" s="37"/>
-      <c r="W24" s="37"/>
-      <c r="X24" s="37"/>
-      <c r="Y24" s="37"/>
-      <c r="Z24" s="38"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="118"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="120"/>
+      <c r="K24" s="117"/>
+      <c r="L24" s="117"/>
+      <c r="M24" s="117"/>
+      <c r="N24" s="117"/>
+      <c r="O24" s="117"/>
+      <c r="P24" s="117"/>
+      <c r="Q24" s="117"/>
+      <c r="R24" s="117"/>
+      <c r="S24" s="117"/>
+      <c r="T24" s="117"/>
+      <c r="U24" s="117"/>
+      <c r="V24" s="117"/>
+      <c r="W24" s="117"/>
+      <c r="X24" s="117"/>
+      <c r="Y24" s="117"/>
+      <c r="Z24" s="118"/>
       <c r="AA24" s="3"/>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" ht="16.5">
       <c r="A25" s="3"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="37"/>
-      <c r="S25" s="37"/>
-      <c r="T25" s="37"/>
-      <c r="U25" s="37"/>
-      <c r="V25" s="37"/>
-      <c r="W25" s="37"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="37"/>
-      <c r="Z25" s="38"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="118"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="117"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="117"/>
+      <c r="N25" s="117"/>
+      <c r="O25" s="117"/>
+      <c r="P25" s="117"/>
+      <c r="Q25" s="117"/>
+      <c r="R25" s="117"/>
+      <c r="S25" s="117"/>
+      <c r="T25" s="117"/>
+      <c r="U25" s="117"/>
+      <c r="V25" s="117"/>
+      <c r="W25" s="117"/>
+      <c r="X25" s="117"/>
+      <c r="Y25" s="117"/>
+      <c r="Z25" s="118"/>
       <c r="AA25" s="3"/>
     </row>
     <row r="26" spans="1:27">
@@ -1882,12 +2312,60 @@
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F14:I14"/>
+    <mergeCell ref="J14:Z14"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="J12:Z12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="J13:Z13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:Z11"/>
     <mergeCell ref="B9:E9"/>
@@ -1897,60 +2375,12 @@
     <mergeCell ref="F10:I10"/>
     <mergeCell ref="J10:Z10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F14:I14"/>
-    <mergeCell ref="J14:Z14"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="J12:Z12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="J13:Z13"/>
-    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3571,10 +4001,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BP36"/>
+  <dimension ref="A1:BP55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="X29" sqref="X29"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
@@ -4012,70 +4442,70 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="5"/>
       <c r="B7" s="11"/>
-      <c r="C7" s="61" t="s">
+      <c r="C7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="53" t="s">
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="53"/>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
-      <c r="Z7" s="53"/>
-      <c r="AA7" s="53"/>
-      <c r="AB7" s="53"/>
-      <c r="AC7" s="53"/>
-      <c r="AD7" s="53"/>
-      <c r="AE7" s="53"/>
-      <c r="AF7" s="53"/>
-      <c r="AG7" s="53"/>
-      <c r="AH7" s="53"/>
-      <c r="AI7" s="53"/>
-      <c r="AJ7" s="53"/>
-      <c r="AK7" s="53"/>
-      <c r="AL7" s="53"/>
-      <c r="AM7" s="53"/>
-      <c r="AN7" s="53"/>
-      <c r="AO7" s="53"/>
-      <c r="AP7" s="53"/>
-      <c r="AQ7" s="53"/>
-      <c r="AR7" s="53"/>
-      <c r="AS7" s="53"/>
-      <c r="AT7" s="53"/>
-      <c r="AU7" s="53"/>
-      <c r="AV7" s="53"/>
-      <c r="AW7" s="53"/>
-      <c r="AX7" s="53"/>
-      <c r="AY7" s="53"/>
-      <c r="AZ7" s="53"/>
-      <c r="BA7" s="53"/>
-      <c r="BB7" s="53"/>
-      <c r="BC7" s="53"/>
-      <c r="BD7" s="53"/>
-      <c r="BE7" s="53"/>
-      <c r="BF7" s="53"/>
-      <c r="BG7" s="53"/>
-      <c r="BH7" s="53"/>
-      <c r="BI7" s="53"/>
-      <c r="BJ7" s="53"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="50"/>
+      <c r="P7" s="50"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="50"/>
+      <c r="T7" s="50"/>
+      <c r="U7" s="50"/>
+      <c r="V7" s="50"/>
+      <c r="W7" s="50"/>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="50"/>
+      <c r="AA7" s="50"/>
+      <c r="AB7" s="50"/>
+      <c r="AC7" s="50"/>
+      <c r="AD7" s="50"/>
+      <c r="AE7" s="50"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
+      <c r="AH7" s="50"/>
+      <c r="AI7" s="50"/>
+      <c r="AJ7" s="50"/>
+      <c r="AK7" s="50"/>
+      <c r="AL7" s="50"/>
+      <c r="AM7" s="50"/>
+      <c r="AN7" s="50"/>
+      <c r="AO7" s="50"/>
+      <c r="AP7" s="50"/>
+      <c r="AQ7" s="50"/>
+      <c r="AR7" s="50"/>
+      <c r="AS7" s="50"/>
+      <c r="AT7" s="50"/>
+      <c r="AU7" s="50"/>
+      <c r="AV7" s="50"/>
+      <c r="AW7" s="50"/>
+      <c r="AX7" s="50"/>
+      <c r="AY7" s="50"/>
+      <c r="AZ7" s="50"/>
+      <c r="BA7" s="50"/>
+      <c r="BB7" s="50"/>
+      <c r="BC7" s="50"/>
+      <c r="BD7" s="50"/>
+      <c r="BE7" s="50"/>
+      <c r="BF7" s="50"/>
+      <c r="BG7" s="50"/>
+      <c r="BH7" s="50"/>
+      <c r="BI7" s="50"/>
+      <c r="BJ7" s="50"/>
       <c r="BK7" s="5"/>
       <c r="BL7" s="5"/>
       <c r="BM7" s="5"/>
@@ -4086,14 +4516,14 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="5"/>
       <c r="B8" s="11"/>
-      <c r="C8" s="63" t="s">
+      <c r="C8" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="59"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="48"/>
       <c r="I8" s="54" t="s">
         <v>51</v>
       </c>
@@ -4160,68 +4590,68 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="5"/>
       <c r="B9" s="11"/>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="53"/>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="53"/>
-      <c r="U9" s="53"/>
-      <c r="V9" s="53"/>
-      <c r="W9" s="53"/>
-      <c r="X9" s="53"/>
-      <c r="Y9" s="53"/>
-      <c r="Z9" s="53"/>
-      <c r="AA9" s="53"/>
-      <c r="AB9" s="53"/>
-      <c r="AC9" s="53"/>
-      <c r="AD9" s="53"/>
-      <c r="AE9" s="53"/>
-      <c r="AF9" s="53"/>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="53"/>
-      <c r="AI9" s="53"/>
-      <c r="AJ9" s="53"/>
-      <c r="AK9" s="53"/>
-      <c r="AL9" s="53"/>
-      <c r="AM9" s="53"/>
-      <c r="AN9" s="53"/>
-      <c r="AO9" s="53"/>
-      <c r="AP9" s="53"/>
-      <c r="AQ9" s="53"/>
-      <c r="AR9" s="53"/>
-      <c r="AS9" s="53"/>
-      <c r="AT9" s="53"/>
-      <c r="AU9" s="53"/>
-      <c r="AV9" s="53"/>
-      <c r="AW9" s="53"/>
-      <c r="AX9" s="53"/>
-      <c r="AY9" s="53"/>
-      <c r="AZ9" s="53"/>
-      <c r="BA9" s="53"/>
-      <c r="BB9" s="53"/>
-      <c r="BC9" s="53"/>
-      <c r="BD9" s="53"/>
-      <c r="BE9" s="53"/>
-      <c r="BF9" s="53"/>
-      <c r="BG9" s="53"/>
-      <c r="BH9" s="53"/>
-      <c r="BI9" s="53"/>
-      <c r="BJ9" s="53"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="50"/>
+      <c r="P9" s="50"/>
+      <c r="Q9" s="50"/>
+      <c r="R9" s="50"/>
+      <c r="S9" s="50"/>
+      <c r="T9" s="50"/>
+      <c r="U9" s="50"/>
+      <c r="V9" s="50"/>
+      <c r="W9" s="50"/>
+      <c r="X9" s="50"/>
+      <c r="Y9" s="50"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="50"/>
+      <c r="AB9" s="50"/>
+      <c r="AC9" s="50"/>
+      <c r="AD9" s="50"/>
+      <c r="AE9" s="50"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
+      <c r="AH9" s="50"/>
+      <c r="AI9" s="50"/>
+      <c r="AJ9" s="50"/>
+      <c r="AK9" s="50"/>
+      <c r="AL9" s="50"/>
+      <c r="AM9" s="50"/>
+      <c r="AN9" s="50"/>
+      <c r="AO9" s="50"/>
+      <c r="AP9" s="50"/>
+      <c r="AQ9" s="50"/>
+      <c r="AR9" s="50"/>
+      <c r="AS9" s="50"/>
+      <c r="AT9" s="50"/>
+      <c r="AU9" s="50"/>
+      <c r="AV9" s="50"/>
+      <c r="AW9" s="50"/>
+      <c r="AX9" s="50"/>
+      <c r="AY9" s="50"/>
+      <c r="AZ9" s="50"/>
+      <c r="BA9" s="50"/>
+      <c r="BB9" s="50"/>
+      <c r="BC9" s="50"/>
+      <c r="BD9" s="50"/>
+      <c r="BE9" s="50"/>
+      <c r="BF9" s="50"/>
+      <c r="BG9" s="50"/>
+      <c r="BH9" s="50"/>
+      <c r="BI9" s="50"/>
+      <c r="BJ9" s="50"/>
       <c r="BK9" s="5"/>
       <c r="BL9" s="5"/>
       <c r="BM9" s="5"/>
@@ -4235,67 +4665,67 @@
       <c r="C10" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="53" t="s">
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="60"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="60"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="60"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="60"/>
-      <c r="AD10" s="60"/>
-      <c r="AE10" s="60"/>
-      <c r="AF10" s="60"/>
-      <c r="AG10" s="60"/>
-      <c r="AH10" s="60"/>
-      <c r="AI10" s="60"/>
-      <c r="AJ10" s="60"/>
-      <c r="AK10" s="60"/>
-      <c r="AL10" s="60"/>
-      <c r="AM10" s="60"/>
-      <c r="AN10" s="60"/>
-      <c r="AO10" s="60"/>
-      <c r="AP10" s="60"/>
-      <c r="AQ10" s="60"/>
-      <c r="AR10" s="60"/>
-      <c r="AS10" s="60"/>
-      <c r="AT10" s="60"/>
-      <c r="AU10" s="60"/>
-      <c r="AV10" s="60"/>
-      <c r="AW10" s="60"/>
-      <c r="AX10" s="60"/>
-      <c r="AY10" s="60"/>
-      <c r="AZ10" s="60"/>
-      <c r="BA10" s="60"/>
-      <c r="BB10" s="60"/>
-      <c r="BC10" s="60"/>
-      <c r="BD10" s="60"/>
-      <c r="BE10" s="60"/>
-      <c r="BF10" s="60"/>
-      <c r="BG10" s="60"/>
-      <c r="BH10" s="60"/>
-      <c r="BI10" s="60"/>
-      <c r="BJ10" s="60"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+      <c r="R10" s="59"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="59"/>
+      <c r="U10" s="59"/>
+      <c r="V10" s="59"/>
+      <c r="W10" s="59"/>
+      <c r="X10" s="59"/>
+      <c r="Y10" s="59"/>
+      <c r="Z10" s="59"/>
+      <c r="AA10" s="59"/>
+      <c r="AB10" s="59"/>
+      <c r="AC10" s="59"/>
+      <c r="AD10" s="59"/>
+      <c r="AE10" s="59"/>
+      <c r="AF10" s="59"/>
+      <c r="AG10" s="59"/>
+      <c r="AH10" s="59"/>
+      <c r="AI10" s="59"/>
+      <c r="AJ10" s="59"/>
+      <c r="AK10" s="59"/>
+      <c r="AL10" s="59"/>
+      <c r="AM10" s="59"/>
+      <c r="AN10" s="59"/>
+      <c r="AO10" s="59"/>
+      <c r="AP10" s="59"/>
+      <c r="AQ10" s="59"/>
+      <c r="AR10" s="59"/>
+      <c r="AS10" s="59"/>
+      <c r="AT10" s="59"/>
+      <c r="AU10" s="59"/>
+      <c r="AV10" s="59"/>
+      <c r="AW10" s="59"/>
+      <c r="AX10" s="59"/>
+      <c r="AY10" s="59"/>
+      <c r="AZ10" s="59"/>
+      <c r="BA10" s="59"/>
+      <c r="BB10" s="59"/>
+      <c r="BC10" s="59"/>
+      <c r="BD10" s="59"/>
+      <c r="BE10" s="59"/>
+      <c r="BF10" s="59"/>
+      <c r="BG10" s="59"/>
+      <c r="BH10" s="59"/>
+      <c r="BI10" s="59"/>
+      <c r="BJ10" s="59"/>
       <c r="BK10" s="5"/>
       <c r="BL10" s="5"/>
       <c r="BM10" s="5"/>
@@ -4587,388 +5017,390 @@
     </row>
     <row r="15" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A15" s="5"/>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="48" t="s">
+      <c r="C15" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48" t="s">
+      <c r="D15" s="61"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
-      <c r="AA15" s="48"/>
-      <c r="AB15" s="48"/>
-      <c r="AC15" s="48" t="s">
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="61"/>
+      <c r="P15" s="61"/>
+      <c r="Q15" s="61"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="61"/>
+      <c r="Z15" s="61"/>
+      <c r="AA15" s="61"/>
+      <c r="AB15" s="61"/>
+      <c r="AC15" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="AD15" s="48"/>
-      <c r="AE15" s="48"/>
-      <c r="AF15" s="48"/>
-      <c r="AG15" s="48"/>
-      <c r="AH15" s="48"/>
-      <c r="AI15" s="48"/>
-      <c r="AJ15" s="48"/>
-      <c r="AK15" s="48"/>
-      <c r="AL15" s="48" t="s">
+      <c r="AD15" s="61"/>
+      <c r="AE15" s="61"/>
+      <c r="AF15" s="61"/>
+      <c r="AG15" s="61"/>
+      <c r="AH15" s="61"/>
+      <c r="AI15" s="61"/>
+      <c r="AJ15" s="61"/>
+      <c r="AK15" s="61"/>
+      <c r="AL15" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="AM15" s="48"/>
-      <c r="AN15" s="48"/>
-      <c r="AO15" s="48"/>
-      <c r="AP15" s="48"/>
-      <c r="AQ15" s="48"/>
-      <c r="AR15" s="48"/>
-      <c r="AS15" s="48"/>
-      <c r="AT15" s="48"/>
-      <c r="AU15" s="48"/>
-      <c r="AV15" s="48"/>
-      <c r="AW15" s="48"/>
-      <c r="AX15" s="48"/>
-      <c r="AY15" s="48"/>
-      <c r="AZ15" s="48"/>
-      <c r="BA15" s="48"/>
-      <c r="BB15" s="48"/>
-      <c r="BC15" s="48"/>
-      <c r="BD15" s="48"/>
-      <c r="BE15" s="48"/>
-      <c r="BF15" s="48"/>
-      <c r="BG15" s="48"/>
-      <c r="BH15" s="48"/>
-      <c r="BI15" s="48"/>
-      <c r="BJ15" s="48"/>
-      <c r="BK15" s="48"/>
-      <c r="BL15" s="48"/>
-      <c r="BM15" s="48"/>
-      <c r="BN15" s="48"/>
-      <c r="BO15" s="48"/>
+      <c r="AM15" s="61"/>
+      <c r="AN15" s="61"/>
+      <c r="AO15" s="61"/>
+      <c r="AP15" s="61"/>
+      <c r="AQ15" s="61"/>
+      <c r="AR15" s="61"/>
+      <c r="AS15" s="61"/>
+      <c r="AT15" s="61"/>
+      <c r="AU15" s="61"/>
+      <c r="AV15" s="61"/>
+      <c r="AW15" s="61"/>
+      <c r="AX15" s="61"/>
+      <c r="AY15" s="61"/>
+      <c r="AZ15" s="61"/>
+      <c r="BA15" s="61"/>
+      <c r="BB15" s="61"/>
+      <c r="BC15" s="61"/>
+      <c r="BD15" s="61"/>
+      <c r="BE15" s="61"/>
+      <c r="BF15" s="61"/>
+      <c r="BG15" s="61"/>
+      <c r="BH15" s="61"/>
+      <c r="BI15" s="61"/>
+      <c r="BJ15" s="61"/>
+      <c r="BK15" s="61"/>
+      <c r="BL15" s="61"/>
+      <c r="BM15" s="61"/>
+      <c r="BN15" s="61"/>
+      <c r="BO15" s="61"/>
       <c r="BP15" s="5"/>
     </row>
     <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A16" s="5"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="48"/>
-      <c r="AE16" s="48"/>
-      <c r="AF16" s="48"/>
-      <c r="AG16" s="48"/>
-      <c r="AH16" s="48"/>
-      <c r="AI16" s="48"/>
-      <c r="AJ16" s="48"/>
-      <c r="AK16" s="48"/>
-      <c r="AL16" s="48" t="s">
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="61"/>
+      <c r="P16" s="61"/>
+      <c r="Q16" s="61"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="61"/>
+      <c r="AE16" s="61"/>
+      <c r="AF16" s="61"/>
+      <c r="AG16" s="61"/>
+      <c r="AH16" s="61"/>
+      <c r="AI16" s="61"/>
+      <c r="AJ16" s="61"/>
+      <c r="AK16" s="61"/>
+      <c r="AL16" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="AM16" s="48"/>
-      <c r="AN16" s="48"/>
-      <c r="AO16" s="48"/>
-      <c r="AP16" s="48"/>
-      <c r="AQ16" s="48"/>
-      <c r="AR16" s="48"/>
-      <c r="AS16" s="48"/>
-      <c r="AT16" s="48"/>
-      <c r="AU16" s="48" t="s">
+      <c r="AM16" s="61"/>
+      <c r="AN16" s="61"/>
+      <c r="AO16" s="61"/>
+      <c r="AP16" s="61"/>
+      <c r="AQ16" s="61"/>
+      <c r="AR16" s="61"/>
+      <c r="AS16" s="61"/>
+      <c r="AT16" s="61"/>
+      <c r="AU16" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="AV16" s="48"/>
-      <c r="AW16" s="48"/>
-      <c r="AX16" s="48"/>
-      <c r="AY16" s="48"/>
-      <c r="AZ16" s="48" t="s">
+      <c r="AV16" s="61"/>
+      <c r="AW16" s="61"/>
+      <c r="AX16" s="61"/>
+      <c r="AY16" s="61"/>
+      <c r="AZ16" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="BA16" s="48"/>
-      <c r="BB16" s="48"/>
-      <c r="BC16" s="48"/>
-      <c r="BD16" s="48"/>
-      <c r="BE16" s="48"/>
-      <c r="BF16" s="48"/>
-      <c r="BG16" s="48"/>
-      <c r="BH16" s="48"/>
-      <c r="BI16" s="48"/>
-      <c r="BJ16" s="48"/>
-      <c r="BK16" s="48"/>
-      <c r="BL16" s="48"/>
-      <c r="BM16" s="48"/>
-      <c r="BN16" s="48"/>
-      <c r="BO16" s="48"/>
+      <c r="BA16" s="61"/>
+      <c r="BB16" s="61"/>
+      <c r="BC16" s="61"/>
+      <c r="BD16" s="61"/>
+      <c r="BE16" s="61"/>
+      <c r="BF16" s="61"/>
+      <c r="BG16" s="61"/>
+      <c r="BH16" s="61"/>
+      <c r="BI16" s="61"/>
+      <c r="BJ16" s="61"/>
+      <c r="BK16" s="61"/>
+      <c r="BL16" s="61"/>
+      <c r="BM16" s="61"/>
+      <c r="BN16" s="61"/>
+      <c r="BO16" s="61"/>
       <c r="BP16" s="5"/>
     </row>
-    <row r="17" spans="1:68" ht="16.5" outlineLevel="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="26">
+    <row r="17" spans="1:68" s="72" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A17" s="68"/>
+      <c r="B17" s="69">
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C17" s="47" t="s">
-        <v>63</v>
+      <c r="C17" s="70" t="s">
+        <v>85</v>
       </c>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47" t="s">
-        <v>66</v>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70" t="s">
+        <v>87</v>
       </c>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="47"/>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="47"/>
-      <c r="AB17" s="47"/>
-      <c r="AC17" s="47"/>
-      <c r="AD17" s="47"/>
-      <c r="AE17" s="47"/>
-      <c r="AF17" s="47"/>
-      <c r="AG17" s="47"/>
-      <c r="AH17" s="47"/>
-      <c r="AI17" s="47"/>
-      <c r="AJ17" s="47"/>
-      <c r="AK17" s="47"/>
-      <c r="AL17" s="45"/>
-      <c r="AM17" s="45"/>
-      <c r="AN17" s="45"/>
-      <c r="AO17" s="45"/>
-      <c r="AP17" s="45"/>
-      <c r="AQ17" s="45"/>
-      <c r="AR17" s="45"/>
-      <c r="AS17" s="45"/>
-      <c r="AT17" s="45"/>
-      <c r="AU17" s="45"/>
-      <c r="AV17" s="45"/>
-      <c r="AW17" s="45"/>
-      <c r="AX17" s="45"/>
-      <c r="AY17" s="45"/>
-      <c r="AZ17" s="45"/>
-      <c r="BA17" s="45"/>
-      <c r="BB17" s="45"/>
-      <c r="BC17" s="45"/>
-      <c r="BD17" s="45"/>
-      <c r="BE17" s="45"/>
-      <c r="BF17" s="45"/>
-      <c r="BG17" s="45"/>
-      <c r="BH17" s="45"/>
-      <c r="BI17" s="45"/>
-      <c r="BJ17" s="45"/>
-      <c r="BK17" s="45"/>
-      <c r="BL17" s="45"/>
-      <c r="BM17" s="45"/>
-      <c r="BN17" s="45"/>
-      <c r="BO17" s="45"/>
-      <c r="BP17" s="5"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70"/>
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70"/>
+      <c r="S17" s="70"/>
+      <c r="T17" s="70"/>
+      <c r="U17" s="70"/>
+      <c r="V17" s="70"/>
+      <c r="W17" s="70"/>
+      <c r="X17" s="70"/>
+      <c r="Y17" s="70"/>
+      <c r="Z17" s="70"/>
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="70"/>
+      <c r="AD17" s="70"/>
+      <c r="AE17" s="70"/>
+      <c r="AF17" s="70"/>
+      <c r="AG17" s="70"/>
+      <c r="AH17" s="70"/>
+      <c r="AI17" s="70"/>
+      <c r="AJ17" s="70"/>
+      <c r="AK17" s="70"/>
+      <c r="AL17" s="71"/>
+      <c r="AM17" s="71"/>
+      <c r="AN17" s="71"/>
+      <c r="AO17" s="71"/>
+      <c r="AP17" s="71"/>
+      <c r="AQ17" s="71"/>
+      <c r="AR17" s="71"/>
+      <c r="AS17" s="71"/>
+      <c r="AT17" s="71"/>
+      <c r="AU17" s="71"/>
+      <c r="AV17" s="71"/>
+      <c r="AW17" s="71"/>
+      <c r="AX17" s="71"/>
+      <c r="AY17" s="71"/>
+      <c r="AZ17" s="71"/>
+      <c r="BA17" s="71"/>
+      <c r="BB17" s="71"/>
+      <c r="BC17" s="71"/>
+      <c r="BD17" s="71"/>
+      <c r="BE17" s="71"/>
+      <c r="BF17" s="71"/>
+      <c r="BG17" s="71"/>
+      <c r="BH17" s="71"/>
+      <c r="BI17" s="71"/>
+      <c r="BJ17" s="71"/>
+      <c r="BK17" s="71"/>
+      <c r="BL17" s="71"/>
+      <c r="BM17" s="71"/>
+      <c r="BN17" s="71"/>
+      <c r="BO17" s="71"/>
+      <c r="BP17" s="68"/>
     </row>
     <row r="18" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A18" s="5"/>
-      <c r="B18" s="24">
+      <c r="B18" s="26">
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C18" s="27" t="s">
-        <v>19</v>
+      <c r="C18" s="63" t="s">
+        <v>63</v>
       </c>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="28"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
-      <c r="Y18" s="28"/>
-      <c r="Z18" s="28"/>
-      <c r="AA18" s="28"/>
-      <c r="AB18" s="28"/>
-      <c r="AC18" s="28"/>
-      <c r="AD18" s="28"/>
-      <c r="AE18" s="28"/>
-      <c r="AF18" s="28"/>
-      <c r="AG18" s="28"/>
-      <c r="AH18" s="28"/>
-      <c r="AI18" s="28"/>
-      <c r="AJ18" s="28"/>
-      <c r="AK18" s="28"/>
-      <c r="AL18" s="28"/>
-      <c r="AM18" s="28"/>
-      <c r="AN18" s="28"/>
-      <c r="AO18" s="28"/>
-      <c r="AP18" s="28"/>
-      <c r="AQ18" s="28"/>
-      <c r="AR18" s="28"/>
-      <c r="AS18" s="28"/>
-      <c r="AT18" s="28"/>
-      <c r="AU18" s="28"/>
-      <c r="AV18" s="28"/>
-      <c r="AW18" s="28"/>
-      <c r="AX18" s="28"/>
-      <c r="AY18" s="28"/>
-      <c r="AZ18" s="28"/>
-      <c r="BA18" s="28"/>
-      <c r="BB18" s="28"/>
-      <c r="BC18" s="28"/>
-      <c r="BD18" s="28"/>
-      <c r="BE18" s="28"/>
-      <c r="BF18" s="28"/>
-      <c r="BG18" s="28"/>
-      <c r="BH18" s="28"/>
-      <c r="BI18" s="28"/>
-      <c r="BJ18" s="28"/>
-      <c r="BK18" s="28"/>
-      <c r="BL18" s="28"/>
-      <c r="BM18" s="28"/>
-      <c r="BN18" s="28"/>
-      <c r="BO18" s="29"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
+      <c r="AG18" s="63"/>
+      <c r="AH18" s="63"/>
+      <c r="AI18" s="63"/>
+      <c r="AJ18" s="63"/>
+      <c r="AK18" s="63"/>
+      <c r="AL18" s="62"/>
+      <c r="AM18" s="62"/>
+      <c r="AN18" s="62"/>
+      <c r="AO18" s="62"/>
+      <c r="AP18" s="62"/>
+      <c r="AQ18" s="62"/>
+      <c r="AR18" s="62"/>
+      <c r="AS18" s="62"/>
+      <c r="AT18" s="62"/>
+      <c r="AU18" s="62"/>
+      <c r="AV18" s="62"/>
+      <c r="AW18" s="62"/>
+      <c r="AX18" s="62"/>
+      <c r="AY18" s="62"/>
+      <c r="AZ18" s="62"/>
+      <c r="BA18" s="62"/>
+      <c r="BB18" s="62"/>
+      <c r="BC18" s="62"/>
+      <c r="BD18" s="62"/>
+      <c r="BE18" s="62"/>
+      <c r="BF18" s="62"/>
+      <c r="BG18" s="62"/>
+      <c r="BH18" s="62"/>
+      <c r="BI18" s="62"/>
+      <c r="BJ18" s="62"/>
+      <c r="BK18" s="62"/>
+      <c r="BL18" s="62"/>
+      <c r="BM18" s="62"/>
+      <c r="BN18" s="62"/>
+      <c r="BO18" s="62"/>
       <c r="BP18" s="5"/>
     </row>
-    <row r="19" spans="1:68" ht="16.5" outlineLevel="1">
-      <c r="A19" s="5"/>
-      <c r="B19" s="24">
+    <row r="19" spans="1:68" s="72" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A19" s="68"/>
+      <c r="B19" s="69">
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="46" t="s">
-        <v>64</v>
+      <c r="C19" s="70" t="s">
+        <v>86</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
-      <c r="L19" s="47" t="s">
-        <v>65</v>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70" t="s">
+        <v>88</v>
       </c>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="47"/>
-      <c r="AB19" s="47"/>
-      <c r="AC19" s="47"/>
-      <c r="AD19" s="47"/>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="47"/>
-      <c r="AG19" s="47"/>
-      <c r="AH19" s="47"/>
-      <c r="AI19" s="47"/>
-      <c r="AJ19" s="47"/>
-      <c r="AK19" s="47"/>
-      <c r="AL19" s="45"/>
-      <c r="AM19" s="45"/>
-      <c r="AN19" s="45"/>
-      <c r="AO19" s="45"/>
-      <c r="AP19" s="45"/>
-      <c r="AQ19" s="45"/>
-      <c r="AR19" s="45"/>
-      <c r="AS19" s="45"/>
-      <c r="AT19" s="45"/>
-      <c r="AU19" s="45"/>
-      <c r="AV19" s="45"/>
-      <c r="AW19" s="45"/>
-      <c r="AX19" s="45"/>
-      <c r="AY19" s="45"/>
-      <c r="AZ19" s="45"/>
-      <c r="BA19" s="45"/>
-      <c r="BB19" s="45"/>
-      <c r="BC19" s="45"/>
-      <c r="BD19" s="45"/>
-      <c r="BE19" s="45"/>
-      <c r="BF19" s="45"/>
-      <c r="BG19" s="45"/>
-      <c r="BH19" s="45"/>
-      <c r="BI19" s="45"/>
-      <c r="BJ19" s="45"/>
-      <c r="BK19" s="45"/>
-      <c r="BL19" s="45"/>
-      <c r="BM19" s="45"/>
-      <c r="BN19" s="45"/>
-      <c r="BO19" s="45"/>
-      <c r="BP19" s="5"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="70"/>
+      <c r="P19" s="70"/>
+      <c r="Q19" s="70"/>
+      <c r="R19" s="70"/>
+      <c r="S19" s="70"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="70"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="70"/>
+      <c r="X19" s="70"/>
+      <c r="Y19" s="70"/>
+      <c r="Z19" s="70"/>
+      <c r="AA19" s="70"/>
+      <c r="AB19" s="70"/>
+      <c r="AC19" s="70"/>
+      <c r="AD19" s="70"/>
+      <c r="AE19" s="70"/>
+      <c r="AF19" s="70"/>
+      <c r="AG19" s="70"/>
+      <c r="AH19" s="70"/>
+      <c r="AI19" s="70"/>
+      <c r="AJ19" s="70"/>
+      <c r="AK19" s="70"/>
+      <c r="AL19" s="71"/>
+      <c r="AM19" s="71"/>
+      <c r="AN19" s="71"/>
+      <c r="AO19" s="71"/>
+      <c r="AP19" s="71"/>
+      <c r="AQ19" s="71"/>
+      <c r="AR19" s="71"/>
+      <c r="AS19" s="71"/>
+      <c r="AT19" s="71"/>
+      <c r="AU19" s="71"/>
+      <c r="AV19" s="71"/>
+      <c r="AW19" s="71"/>
+      <c r="AX19" s="71"/>
+      <c r="AY19" s="71"/>
+      <c r="AZ19" s="71"/>
+      <c r="BA19" s="71"/>
+      <c r="BB19" s="71"/>
+      <c r="BC19" s="71"/>
+      <c r="BD19" s="71"/>
+      <c r="BE19" s="71"/>
+      <c r="BF19" s="71"/>
+      <c r="BG19" s="71"/>
+      <c r="BH19" s="71"/>
+      <c r="BI19" s="71"/>
+      <c r="BJ19" s="71"/>
+      <c r="BK19" s="71"/>
+      <c r="BL19" s="71"/>
+      <c r="BM19" s="71"/>
+      <c r="BN19" s="71"/>
+      <c r="BO19" s="71"/>
+      <c r="BP19" s="68"/>
     </row>
     <row r="20" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A20" s="5"/>
@@ -4976,73 +5408,73 @@
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C20" s="31" t="s">
-        <v>67</v>
+      <c r="C20" s="27" t="s">
+        <v>19</v>
       </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="32"/>
-      <c r="S20" s="32"/>
-      <c r="T20" s="32"/>
-      <c r="U20" s="32"/>
-      <c r="V20" s="32"/>
-      <c r="W20" s="32"/>
-      <c r="X20" s="32"/>
-      <c r="Y20" s="32"/>
-      <c r="Z20" s="32"/>
-      <c r="AA20" s="32"/>
-      <c r="AB20" s="32"/>
-      <c r="AC20" s="32"/>
-      <c r="AD20" s="32"/>
-      <c r="AE20" s="32"/>
-      <c r="AF20" s="32"/>
-      <c r="AG20" s="32"/>
-      <c r="AH20" s="32"/>
-      <c r="AI20" s="32"/>
-      <c r="AJ20" s="32"/>
-      <c r="AK20" s="32"/>
-      <c r="AL20" s="32"/>
-      <c r="AM20" s="32"/>
-      <c r="AN20" s="32"/>
-      <c r="AO20" s="32"/>
-      <c r="AP20" s="32"/>
-      <c r="AQ20" s="32"/>
-      <c r="AR20" s="32"/>
-      <c r="AS20" s="32"/>
-      <c r="AT20" s="32"/>
-      <c r="AU20" s="32"/>
-      <c r="AV20" s="32"/>
-      <c r="AW20" s="32"/>
-      <c r="AX20" s="32"/>
-      <c r="AY20" s="32"/>
-      <c r="AZ20" s="32"/>
-      <c r="BA20" s="32"/>
-      <c r="BB20" s="32"/>
-      <c r="BC20" s="32"/>
-      <c r="BD20" s="32"/>
-      <c r="BE20" s="32"/>
-      <c r="BF20" s="32"/>
-      <c r="BG20" s="32"/>
-      <c r="BH20" s="32"/>
-      <c r="BI20" s="32"/>
-      <c r="BJ20" s="32"/>
-      <c r="BK20" s="32"/>
-      <c r="BL20" s="32"/>
-      <c r="BM20" s="32"/>
-      <c r="BN20" s="32"/>
-      <c r="BO20" s="33"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="28"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="28"/>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="28"/>
+      <c r="AD20" s="28"/>
+      <c r="AE20" s="28"/>
+      <c r="AF20" s="28"/>
+      <c r="AG20" s="28"/>
+      <c r="AH20" s="28"/>
+      <c r="AI20" s="28"/>
+      <c r="AJ20" s="28"/>
+      <c r="AK20" s="28"/>
+      <c r="AL20" s="28"/>
+      <c r="AM20" s="28"/>
+      <c r="AN20" s="28"/>
+      <c r="AO20" s="28"/>
+      <c r="AP20" s="28"/>
+      <c r="AQ20" s="28"/>
+      <c r="AR20" s="28"/>
+      <c r="AS20" s="28"/>
+      <c r="AT20" s="28"/>
+      <c r="AU20" s="28"/>
+      <c r="AV20" s="28"/>
+      <c r="AW20" s="28"/>
+      <c r="AX20" s="28"/>
+      <c r="AY20" s="28"/>
+      <c r="AZ20" s="28"/>
+      <c r="BA20" s="28"/>
+      <c r="BB20" s="28"/>
+      <c r="BC20" s="28"/>
+      <c r="BD20" s="28"/>
+      <c r="BE20" s="28"/>
+      <c r="BF20" s="28"/>
+      <c r="BG20" s="28"/>
+      <c r="BH20" s="28"/>
+      <c r="BI20" s="28"/>
+      <c r="BJ20" s="28"/>
+      <c r="BK20" s="28"/>
+      <c r="BL20" s="28"/>
+      <c r="BM20" s="28"/>
+      <c r="BN20" s="28"/>
+      <c r="BO20" s="29"/>
       <c r="BP20" s="5"/>
     </row>
     <row r="21" spans="1:68" ht="16.5" outlineLevel="1">
@@ -5051,75 +5483,75 @@
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>5</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="43" t="s">
+      <c r="C21" s="30"/>
+      <c r="D21" s="64" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="44" t="s">
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+      <c r="I21" s="64"/>
+      <c r="J21" s="64"/>
+      <c r="K21" s="64"/>
+      <c r="L21" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="44"/>
-      <c r="AD21" s="44"/>
-      <c r="AE21" s="44"/>
-      <c r="AF21" s="44"/>
-      <c r="AG21" s="44"/>
-      <c r="AH21" s="44"/>
-      <c r="AI21" s="44"/>
-      <c r="AJ21" s="44"/>
-      <c r="AK21" s="44"/>
-      <c r="AL21" s="42"/>
-      <c r="AM21" s="42"/>
-      <c r="AN21" s="42"/>
-      <c r="AO21" s="42"/>
-      <c r="AP21" s="42"/>
-      <c r="AQ21" s="42"/>
-      <c r="AR21" s="42"/>
-      <c r="AS21" s="42"/>
-      <c r="AT21" s="42"/>
-      <c r="AU21" s="42"/>
-      <c r="AV21" s="42"/>
-      <c r="AW21" s="42"/>
-      <c r="AX21" s="42"/>
-      <c r="AY21" s="42"/>
-      <c r="AZ21" s="42"/>
-      <c r="BA21" s="42"/>
-      <c r="BB21" s="42"/>
-      <c r="BC21" s="42"/>
-      <c r="BD21" s="42"/>
-      <c r="BE21" s="42"/>
-      <c r="BF21" s="42"/>
-      <c r="BG21" s="42"/>
-      <c r="BH21" s="42"/>
-      <c r="BI21" s="42"/>
-      <c r="BJ21" s="42"/>
-      <c r="BK21" s="42"/>
-      <c r="BL21" s="42"/>
-      <c r="BM21" s="42"/>
-      <c r="BN21" s="42"/>
-      <c r="BO21" s="42"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
+      <c r="T21" s="63"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="63"/>
+      <c r="AB21" s="63"/>
+      <c r="AC21" s="63"/>
+      <c r="AD21" s="63"/>
+      <c r="AE21" s="63"/>
+      <c r="AF21" s="63"/>
+      <c r="AG21" s="63"/>
+      <c r="AH21" s="63"/>
+      <c r="AI21" s="63"/>
+      <c r="AJ21" s="63"/>
+      <c r="AK21" s="63"/>
+      <c r="AL21" s="62"/>
+      <c r="AM21" s="62"/>
+      <c r="AN21" s="62"/>
+      <c r="AO21" s="62"/>
+      <c r="AP21" s="62"/>
+      <c r="AQ21" s="62"/>
+      <c r="AR21" s="62"/>
+      <c r="AS21" s="62"/>
+      <c r="AT21" s="62"/>
+      <c r="AU21" s="62"/>
+      <c r="AV21" s="62"/>
+      <c r="AW21" s="62"/>
+      <c r="AX21" s="62"/>
+      <c r="AY21" s="62"/>
+      <c r="AZ21" s="62"/>
+      <c r="BA21" s="62"/>
+      <c r="BB21" s="62"/>
+      <c r="BC21" s="62"/>
+      <c r="BD21" s="62"/>
+      <c r="BE21" s="62"/>
+      <c r="BF21" s="62"/>
+      <c r="BG21" s="62"/>
+      <c r="BH21" s="62"/>
+      <c r="BI21" s="62"/>
+      <c r="BJ21" s="62"/>
+      <c r="BK21" s="62"/>
+      <c r="BL21" s="62"/>
+      <c r="BM21" s="62"/>
+      <c r="BN21" s="62"/>
+      <c r="BO21" s="62"/>
       <c r="BP21" s="5"/>
     </row>
     <row r="22" spans="1:68" ht="16.5" outlineLevel="1">
@@ -5128,218 +5560,228 @@
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>6</v>
       </c>
-      <c r="C22" s="34"/>
-      <c r="D22" s="43" t="s">
+      <c r="C22" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="32"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="32"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="32"/>
+      <c r="AA22" s="32"/>
+      <c r="AB22" s="32"/>
+      <c r="AC22" s="32"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22" s="32"/>
+      <c r="AF22" s="32"/>
+      <c r="AG22" s="32"/>
+      <c r="AH22" s="32"/>
+      <c r="AI22" s="32"/>
+      <c r="AJ22" s="32"/>
+      <c r="AK22" s="32"/>
+      <c r="AL22" s="32"/>
+      <c r="AM22" s="32"/>
+      <c r="AN22" s="32"/>
+      <c r="AO22" s="32"/>
+      <c r="AP22" s="32"/>
+      <c r="AQ22" s="32"/>
+      <c r="AR22" s="32"/>
+      <c r="AS22" s="32"/>
+      <c r="AT22" s="32"/>
+      <c r="AU22" s="32"/>
+      <c r="AV22" s="32"/>
+      <c r="AW22" s="32"/>
+      <c r="AX22" s="32"/>
+      <c r="AY22" s="32"/>
+      <c r="AZ22" s="32"/>
+      <c r="BA22" s="32"/>
+      <c r="BB22" s="32"/>
+      <c r="BC22" s="32"/>
+      <c r="BD22" s="32"/>
+      <c r="BE22" s="32"/>
+      <c r="BF22" s="32"/>
+      <c r="BG22" s="32"/>
+      <c r="BH22" s="32"/>
+      <c r="BI22" s="32"/>
+      <c r="BJ22" s="32"/>
+      <c r="BK22" s="32"/>
+      <c r="BL22" s="32"/>
+      <c r="BM22" s="32"/>
+      <c r="BN22" s="32"/>
+      <c r="BO22" s="33"/>
+      <c r="BP22" s="5"/>
+    </row>
+    <row r="23" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A23" s="5"/>
+      <c r="B23" s="24">
+        <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>7</v>
+      </c>
+      <c r="C23" s="35"/>
+      <c r="D23" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="66"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="67" t="s">
+        <v>65</v>
+      </c>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67"/>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67"/>
+      <c r="S23" s="67"/>
+      <c r="T23" s="67"/>
+      <c r="U23" s="67"/>
+      <c r="V23" s="67"/>
+      <c r="W23" s="67"/>
+      <c r="X23" s="67"/>
+      <c r="Y23" s="67"/>
+      <c r="Z23" s="67"/>
+      <c r="AA23" s="67"/>
+      <c r="AB23" s="67"/>
+      <c r="AC23" s="67"/>
+      <c r="AD23" s="67"/>
+      <c r="AE23" s="67"/>
+      <c r="AF23" s="67"/>
+      <c r="AG23" s="67"/>
+      <c r="AH23" s="67"/>
+      <c r="AI23" s="67"/>
+      <c r="AJ23" s="67"/>
+      <c r="AK23" s="67"/>
+      <c r="AL23" s="65"/>
+      <c r="AM23" s="65"/>
+      <c r="AN23" s="65"/>
+      <c r="AO23" s="65"/>
+      <c r="AP23" s="65"/>
+      <c r="AQ23" s="65"/>
+      <c r="AR23" s="65"/>
+      <c r="AS23" s="65"/>
+      <c r="AT23" s="65"/>
+      <c r="AU23" s="65"/>
+      <c r="AV23" s="65"/>
+      <c r="AW23" s="65"/>
+      <c r="AX23" s="65"/>
+      <c r="AY23" s="65"/>
+      <c r="AZ23" s="65"/>
+      <c r="BA23" s="65"/>
+      <c r="BB23" s="65"/>
+      <c r="BC23" s="65"/>
+      <c r="BD23" s="65"/>
+      <c r="BE23" s="65"/>
+      <c r="BF23" s="65"/>
+      <c r="BG23" s="65"/>
+      <c r="BH23" s="65"/>
+      <c r="BI23" s="65"/>
+      <c r="BJ23" s="65"/>
+      <c r="BK23" s="65"/>
+      <c r="BL23" s="65"/>
+      <c r="BM23" s="65"/>
+      <c r="BN23" s="65"/>
+      <c r="BO23" s="65"/>
+      <c r="BP23" s="5"/>
+    </row>
+    <row r="24" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A24" s="5"/>
+      <c r="B24" s="24">
+        <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
+        <v>8</v>
+      </c>
+      <c r="C24" s="34"/>
+      <c r="D24" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
-      <c r="J22" s="43"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="44" t="s">
+      <c r="E24" s="66"/>
+      <c r="F24" s="66"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="66"/>
+      <c r="J24" s="66"/>
+      <c r="K24" s="66"/>
+      <c r="L24" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="44"/>
-      <c r="Y22" s="44"/>
-      <c r="Z22" s="44"/>
-      <c r="AA22" s="44"/>
-      <c r="AB22" s="44"/>
-      <c r="AC22" s="44"/>
-      <c r="AD22" s="44"/>
-      <c r="AE22" s="44"/>
-      <c r="AF22" s="44"/>
-      <c r="AG22" s="44"/>
-      <c r="AH22" s="44"/>
-      <c r="AI22" s="44"/>
-      <c r="AJ22" s="44"/>
-      <c r="AK22" s="44"/>
-      <c r="AL22" s="42"/>
-      <c r="AM22" s="42"/>
-      <c r="AN22" s="42"/>
-      <c r="AO22" s="42"/>
-      <c r="AP22" s="42"/>
-      <c r="AQ22" s="42"/>
-      <c r="AR22" s="42"/>
-      <c r="AS22" s="42"/>
-      <c r="AT22" s="42"/>
-      <c r="AU22" s="42"/>
-      <c r="AV22" s="42"/>
-      <c r="AW22" s="42"/>
-      <c r="AX22" s="42"/>
-      <c r="AY22" s="42"/>
-      <c r="AZ22" s="42"/>
-      <c r="BA22" s="42"/>
-      <c r="BB22" s="42"/>
-      <c r="BC22" s="42"/>
-      <c r="BD22" s="42"/>
-      <c r="BE22" s="42"/>
-      <c r="BF22" s="42"/>
-      <c r="BG22" s="42"/>
-      <c r="BH22" s="42"/>
-      <c r="BI22" s="42"/>
-      <c r="BJ22" s="42"/>
-      <c r="BK22" s="42"/>
-      <c r="BL22" s="42"/>
-      <c r="BM22" s="42"/>
-      <c r="BN22" s="42"/>
-      <c r="BO22" s="42"/>
-      <c r="BP22" s="5"/>
-    </row>
-    <row r="23" spans="1:68" ht="16.5">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="5"/>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="5"/>
-      <c r="AD23" s="5"/>
-      <c r="AE23" s="5"/>
-      <c r="AF23" s="5"/>
-      <c r="AG23" s="5"/>
-      <c r="AH23" s="5"/>
-      <c r="AI23" s="5"/>
-      <c r="AJ23" s="5"/>
-      <c r="AK23" s="5"/>
-      <c r="AL23" s="5"/>
-      <c r="AM23" s="5"/>
-      <c r="AN23" s="5"/>
-      <c r="AO23" s="5"/>
-      <c r="AP23" s="5"/>
-      <c r="AQ23" s="5"/>
-      <c r="AR23" s="5"/>
-      <c r="AS23" s="5"/>
-      <c r="AT23" s="5"/>
-      <c r="AU23" s="5"/>
-      <c r="AV23" s="5"/>
-      <c r="AW23" s="5"/>
-      <c r="AX23" s="5"/>
-      <c r="AY23" s="5"/>
-      <c r="AZ23" s="5"/>
-      <c r="BA23" s="5"/>
-      <c r="BB23" s="5"/>
-      <c r="BC23" s="5"/>
-      <c r="BD23" s="5"/>
-      <c r="BE23" s="5"/>
-      <c r="BF23" s="5"/>
-      <c r="BG23" s="5"/>
-      <c r="BH23" s="5"/>
-      <c r="BI23" s="5"/>
-      <c r="BJ23" s="5"/>
-      <c r="BK23" s="5"/>
-      <c r="BL23" s="5"/>
-      <c r="BM23" s="5"/>
-      <c r="BN23" s="5"/>
-      <c r="BO23" s="5"/>
-      <c r="BP23" s="5"/>
-    </row>
-    <row r="24" spans="1:68" ht="16.5">
-      <c r="A24" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="8"/>
-      <c r="Q24" s="8"/>
-      <c r="R24" s="8"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="8"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="8"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
-      <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
-      <c r="AC24" s="8"/>
-      <c r="AD24" s="8"/>
-      <c r="AE24" s="8"/>
-      <c r="AF24" s="8"/>
-      <c r="AG24" s="8"/>
-      <c r="AH24" s="8"/>
-      <c r="AI24" s="8"/>
-      <c r="AJ24" s="8"/>
-      <c r="AK24" s="8"/>
-      <c r="AL24" s="8"/>
-      <c r="AM24" s="8"/>
-      <c r="AN24" s="8"/>
-      <c r="AO24" s="8"/>
-      <c r="AP24" s="8"/>
-      <c r="AQ24" s="8"/>
-      <c r="AR24" s="8"/>
-      <c r="AS24" s="8"/>
-      <c r="AT24" s="8"/>
-      <c r="AU24" s="8"/>
-      <c r="AV24" s="8"/>
-      <c r="AW24" s="8"/>
-      <c r="AX24" s="8"/>
-      <c r="AY24" s="8"/>
-      <c r="AZ24" s="8"/>
-      <c r="BA24" s="8"/>
-      <c r="BB24" s="8"/>
-      <c r="BC24" s="8"/>
-      <c r="BD24" s="8"/>
-      <c r="BE24" s="8"/>
-      <c r="BF24" s="8"/>
-      <c r="BG24" s="8"/>
-      <c r="BH24" s="8"/>
-      <c r="BI24" s="8"/>
-      <c r="BJ24" s="8"/>
-      <c r="BK24" s="8"/>
-      <c r="BL24" s="8"/>
-      <c r="BM24" s="8"/>
-      <c r="BN24" s="8"/>
-      <c r="BO24" s="8"/>
-      <c r="BP24" s="8"/>
+      <c r="M24" s="67"/>
+      <c r="N24" s="67"/>
+      <c r="O24" s="67"/>
+      <c r="P24" s="67"/>
+      <c r="Q24" s="67"/>
+      <c r="R24" s="67"/>
+      <c r="S24" s="67"/>
+      <c r="T24" s="67"/>
+      <c r="U24" s="67"/>
+      <c r="V24" s="67"/>
+      <c r="W24" s="67"/>
+      <c r="X24" s="67"/>
+      <c r="Y24" s="67"/>
+      <c r="Z24" s="67"/>
+      <c r="AA24" s="67"/>
+      <c r="AB24" s="67"/>
+      <c r="AC24" s="67"/>
+      <c r="AD24" s="67"/>
+      <c r="AE24" s="67"/>
+      <c r="AF24" s="67"/>
+      <c r="AG24" s="67"/>
+      <c r="AH24" s="67"/>
+      <c r="AI24" s="67"/>
+      <c r="AJ24" s="67"/>
+      <c r="AK24" s="67"/>
+      <c r="AL24" s="65"/>
+      <c r="AM24" s="65"/>
+      <c r="AN24" s="65"/>
+      <c r="AO24" s="65"/>
+      <c r="AP24" s="65"/>
+      <c r="AQ24" s="65"/>
+      <c r="AR24" s="65"/>
+      <c r="AS24" s="65"/>
+      <c r="AT24" s="65"/>
+      <c r="AU24" s="65"/>
+      <c r="AV24" s="65"/>
+      <c r="AW24" s="65"/>
+      <c r="AX24" s="65"/>
+      <c r="AY24" s="65"/>
+      <c r="AZ24" s="65"/>
+      <c r="BA24" s="65"/>
+      <c r="BB24" s="65"/>
+      <c r="BC24" s="65"/>
+      <c r="BD24" s="65"/>
+      <c r="BE24" s="65"/>
+      <c r="BF24" s="65"/>
+      <c r="BG24" s="65"/>
+      <c r="BH24" s="65"/>
+      <c r="BI24" s="65"/>
+      <c r="BJ24" s="65"/>
+      <c r="BK24" s="65"/>
+      <c r="BL24" s="65"/>
+      <c r="BM24" s="65"/>
+      <c r="BN24" s="65"/>
+      <c r="BO24" s="65"/>
+      <c r="BP24" s="5"/>
     </row>
     <row r="25" spans="1:68" ht="16.5">
       <c r="A25" s="5"/>
@@ -5412,150 +5854,152 @@
       <c r="BP25" s="5"/>
     </row>
     <row r="26" spans="1:68" ht="16.5">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="5"/>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="5"/>
-      <c r="R26" s="5"/>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="5"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="5"/>
-      <c r="AD26" s="5"/>
-      <c r="AE26" s="5"/>
-      <c r="AF26" s="5"/>
-      <c r="AG26" s="5"/>
-      <c r="AH26" s="5"/>
-      <c r="AI26" s="5"/>
-      <c r="AJ26" s="5"/>
-      <c r="AK26" s="5"/>
-      <c r="AL26" s="5"/>
-      <c r="AM26" s="5"/>
-      <c r="AN26" s="5"/>
-      <c r="AO26" s="5"/>
-      <c r="AP26" s="5"/>
-      <c r="AQ26" s="5"/>
-      <c r="AR26" s="5"/>
-      <c r="AS26" s="5"/>
-      <c r="AT26" s="5"/>
-      <c r="AU26" s="5"/>
-      <c r="AV26" s="5"/>
-      <c r="AW26" s="5"/>
-      <c r="AX26" s="5"/>
-      <c r="AY26" s="5"/>
-      <c r="AZ26" s="5"/>
-      <c r="BA26" s="5"/>
-      <c r="BB26" s="5"/>
-      <c r="BC26" s="5"/>
-      <c r="BD26" s="5"/>
-      <c r="BE26" s="5"/>
-      <c r="BF26" s="5"/>
-      <c r="BG26" s="5"/>
-      <c r="BH26" s="5"/>
-      <c r="BI26" s="5"/>
-      <c r="BJ26" s="5"/>
-      <c r="BK26" s="5"/>
-      <c r="BL26" s="5"/>
-      <c r="BM26" s="5"/>
-      <c r="BN26" s="5"/>
-      <c r="BO26" s="5"/>
-      <c r="BP26" s="5"/>
+      <c r="A26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="8"/>
+      <c r="AN26" s="8"/>
+      <c r="AO26" s="8"/>
+      <c r="AP26" s="8"/>
+      <c r="AQ26" s="8"/>
+      <c r="AR26" s="8"/>
+      <c r="AS26" s="8"/>
+      <c r="AT26" s="8"/>
+      <c r="AU26" s="8"/>
+      <c r="AV26" s="8"/>
+      <c r="AW26" s="8"/>
+      <c r="AX26" s="8"/>
+      <c r="AY26" s="8"/>
+      <c r="AZ26" s="8"/>
+      <c r="BA26" s="8"/>
+      <c r="BB26" s="8"/>
+      <c r="BC26" s="8"/>
+      <c r="BD26" s="8"/>
+      <c r="BE26" s="8"/>
+      <c r="BF26" s="8"/>
+      <c r="BG26" s="8"/>
+      <c r="BH26" s="8"/>
+      <c r="BI26" s="8"/>
+      <c r="BJ26" s="8"/>
+      <c r="BK26" s="8"/>
+      <c r="BL26" s="8"/>
+      <c r="BM26" s="8"/>
+      <c r="BN26" s="8"/>
+      <c r="BO26" s="8"/>
+      <c r="BP26" s="8"/>
     </row>
     <row r="27" spans="1:68" ht="16.5">
-      <c r="A27" s="6" t="s">
-        <v>55</v>
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="5"/>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="5"/>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="5"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="5"/>
+      <c r="AP27" s="5"/>
+      <c r="AQ27" s="5"/>
+      <c r="AR27" s="5"/>
+      <c r="AS27" s="5"/>
+      <c r="AT27" s="5"/>
+      <c r="AU27" s="5"/>
+      <c r="AV27" s="5"/>
+      <c r="AW27" s="5"/>
+      <c r="AX27" s="5"/>
+      <c r="AY27" s="5"/>
+      <c r="AZ27" s="5"/>
+      <c r="BA27" s="5"/>
+      <c r="BB27" s="5"/>
+      <c r="BC27" s="5"/>
+      <c r="BD27" s="5"/>
+      <c r="BE27" s="5"/>
+      <c r="BF27" s="5"/>
+      <c r="BG27" s="5"/>
+      <c r="BH27" s="5"/>
+      <c r="BI27" s="5"/>
+      <c r="BJ27" s="5"/>
+      <c r="BK27" s="5"/>
+      <c r="BL27" s="5"/>
+      <c r="BM27" s="5"/>
+      <c r="BN27" s="5"/>
+      <c r="BO27" s="5"/>
+      <c r="BP27" s="5"/>
+    </row>
+    <row r="28" spans="1:68" s="23" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A28" s="5"/>
+      <c r="B28" s="73" t="s">
+        <v>105</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="2"/>
-      <c r="AB27" s="2"/>
-      <c r="AC27" s="2"/>
-      <c r="AD27" s="2"/>
-      <c r="AE27" s="2"/>
-      <c r="AF27" s="2"/>
-      <c r="AG27" s="2"/>
-      <c r="AH27" s="2"/>
-      <c r="AI27" s="2"/>
-      <c r="AJ27" s="2"/>
-      <c r="AK27" s="2"/>
-      <c r="AL27" s="2"/>
-      <c r="AM27" s="2"/>
-      <c r="AN27" s="2"/>
-      <c r="AO27" s="2"/>
-      <c r="AP27" s="2"/>
-      <c r="AQ27" s="2"/>
-      <c r="AR27" s="2"/>
-      <c r="AS27" s="2"/>
-      <c r="AT27" s="2"/>
-      <c r="AU27" s="2"/>
-      <c r="AV27" s="2"/>
-      <c r="AW27" s="2"/>
-      <c r="AX27" s="2"/>
-      <c r="AY27" s="2"/>
-      <c r="AZ27" s="2"/>
-      <c r="BA27" s="2"/>
-      <c r="BB27" s="2"/>
-      <c r="BC27" s="2"/>
-      <c r="BD27" s="2"/>
-      <c r="BE27" s="2"/>
-      <c r="BF27" s="2"/>
-      <c r="BG27" s="2"/>
-      <c r="BH27" s="2"/>
-      <c r="BI27" s="2"/>
-      <c r="BJ27" s="2"/>
-      <c r="BK27" s="2"/>
-      <c r="BL27" s="2"/>
-      <c r="BM27" s="2"/>
-      <c r="BN27" s="2"/>
-      <c r="BO27" s="2"/>
-      <c r="BP27" s="2"/>
-    </row>
-    <row r="28" spans="1:68" ht="16.5">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -5623,60 +6067,68 @@
       <c r="BO28" s="5"/>
       <c r="BP28" s="5"/>
     </row>
-    <row r="29" spans="1:68" ht="16.5" outlineLevel="1">
+    <row r="29" spans="1:68" s="23" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A29" s="5"/>
-      <c r="B29" s="13" t="s">
-        <v>56</v>
+      <c r="B29" s="13"/>
+      <c r="C29" s="74" t="s">
+        <v>28</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="5"/>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="5"/>
-      <c r="R29" s="5"/>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="5"/>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="5"/>
-      <c r="AD29" s="5"/>
-      <c r="AE29" s="5"/>
-      <c r="AF29" s="5"/>
-      <c r="AG29" s="5"/>
-      <c r="AH29" s="5"/>
-      <c r="AI29" s="5"/>
-      <c r="AJ29" s="5"/>
-      <c r="AK29" s="5"/>
-      <c r="AL29" s="5"/>
-      <c r="AM29" s="5"/>
-      <c r="AN29" s="5"/>
-      <c r="AO29" s="5"/>
-      <c r="AP29" s="5"/>
-      <c r="AQ29" s="5"/>
-      <c r="AR29" s="5"/>
-      <c r="AS29" s="5"/>
-      <c r="AT29" s="5"/>
-      <c r="AU29" s="5"/>
-      <c r="AV29" s="5"/>
-      <c r="AW29" s="5"/>
-      <c r="AX29" s="5"/>
-      <c r="AY29" s="5"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="75"/>
+      <c r="H29" s="75"/>
+      <c r="I29" s="75"/>
+      <c r="J29" s="76"/>
+      <c r="K29" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="75"/>
+      <c r="O29" s="75"/>
+      <c r="P29" s="75"/>
+      <c r="Q29" s="76"/>
+      <c r="R29" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="S29" s="79"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="79"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="79"/>
+      <c r="Y29" s="79"/>
+      <c r="Z29" s="79"/>
+      <c r="AA29" s="79"/>
+      <c r="AB29" s="79"/>
+      <c r="AC29" s="79"/>
+      <c r="AD29" s="79"/>
+      <c r="AE29" s="79"/>
+      <c r="AF29" s="79"/>
+      <c r="AG29" s="79"/>
+      <c r="AH29" s="79"/>
+      <c r="AI29" s="79"/>
+      <c r="AJ29" s="80"/>
+      <c r="AK29" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL29" s="75"/>
+      <c r="AM29" s="75"/>
+      <c r="AN29" s="75"/>
+      <c r="AO29" s="75"/>
+      <c r="AP29" s="75"/>
+      <c r="AQ29" s="75"/>
+      <c r="AR29" s="76"/>
+      <c r="AS29" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT29" s="75"/>
+      <c r="AU29" s="75"/>
+      <c r="AV29" s="75"/>
+      <c r="AW29" s="75"/>
+      <c r="AX29" s="75"/>
+      <c r="AY29" s="76"/>
       <c r="AZ29" s="5"/>
       <c r="BA29" s="5"/>
       <c r="BB29" s="5"/>
@@ -5695,60 +6147,64 @@
       <c r="BO29" s="5"/>
       <c r="BP29" s="5"/>
     </row>
-    <row r="30" spans="1:68" ht="16.5" outlineLevel="1">
+    <row r="30" spans="1:68" s="23" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5" t="s">
-        <v>20</v>
+      <c r="B30" s="13"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="82"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="82"/>
+      <c r="I30" s="82"/>
+      <c r="J30" s="83"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="82"/>
+      <c r="M30" s="82"/>
+      <c r="N30" s="82"/>
+      <c r="O30" s="82"/>
+      <c r="P30" s="82"/>
+      <c r="Q30" s="82"/>
+      <c r="R30" s="84" t="s">
+        <v>91</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="5"/>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="5"/>
-      <c r="R30" s="5"/>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="5"/>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="5"/>
-      <c r="AD30" s="5"/>
-      <c r="AE30" s="5"/>
-      <c r="AF30" s="5"/>
-      <c r="AG30" s="5"/>
-      <c r="AH30" s="5"/>
-      <c r="AI30" s="5"/>
-      <c r="AJ30" s="5"/>
-      <c r="AK30" s="5"/>
-      <c r="AL30" s="5"/>
-      <c r="AM30" s="5"/>
-      <c r="AN30" s="5"/>
-      <c r="AO30" s="5"/>
-      <c r="AP30" s="5"/>
-      <c r="AQ30" s="5"/>
-      <c r="AR30" s="5"/>
-      <c r="AS30" s="5"/>
-      <c r="AT30" s="5"/>
-      <c r="AU30" s="5"/>
-      <c r="AV30" s="5"/>
-      <c r="AW30" s="5"/>
-      <c r="AX30" s="5"/>
-      <c r="AY30" s="5"/>
+      <c r="S30" s="85"/>
+      <c r="T30" s="85"/>
+      <c r="U30" s="85"/>
+      <c r="V30" s="85"/>
+      <c r="W30" s="85"/>
+      <c r="X30" s="85"/>
+      <c r="Y30" s="85"/>
+      <c r="Z30" s="85"/>
+      <c r="AA30" s="85"/>
+      <c r="AB30" s="85"/>
+      <c r="AC30" s="85"/>
+      <c r="AD30" s="85"/>
+      <c r="AE30" s="85"/>
+      <c r="AF30" s="85"/>
+      <c r="AG30" s="85"/>
+      <c r="AH30" s="85"/>
+      <c r="AI30" s="85"/>
+      <c r="AJ30" s="86"/>
+      <c r="AK30" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL30" s="87"/>
+      <c r="AM30" s="87"/>
+      <c r="AN30" s="87"/>
+      <c r="AO30" s="88"/>
+      <c r="AP30" s="88"/>
+      <c r="AQ30" s="88"/>
+      <c r="AR30" s="89"/>
+      <c r="AS30" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT30" s="91"/>
+      <c r="AU30" s="91"/>
+      <c r="AV30" s="91"/>
+      <c r="AW30" s="91"/>
+      <c r="AX30" s="91"/>
+      <c r="AY30" s="92"/>
       <c r="AZ30" s="5"/>
       <c r="BA30" s="5"/>
       <c r="BB30" s="5"/>
@@ -5767,62 +6223,62 @@
       <c r="BO30" s="5"/>
       <c r="BP30" s="5"/>
     </row>
-    <row r="31" spans="1:68" ht="16.5" outlineLevel="1">
+    <row r="31" spans="1:68" s="23" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="14" t="s">
-        <v>21</v>
+      <c r="B31" s="13"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="82"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="82"/>
+      <c r="H31" s="82"/>
+      <c r="I31" s="82"/>
+      <c r="J31" s="83"/>
+      <c r="K31" s="90"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="91"/>
+      <c r="N31" s="91"/>
+      <c r="O31" s="91"/>
+      <c r="P31" s="91"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="93" t="s">
+        <v>107</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="14" t="s">
-        <v>22</v>
+      <c r="S31" s="94"/>
+      <c r="T31" s="94"/>
+      <c r="U31" s="94"/>
+      <c r="V31" s="94"/>
+      <c r="W31" s="94"/>
+      <c r="X31" s="94"/>
+      <c r="Y31" s="94"/>
+      <c r="Z31" s="94"/>
+      <c r="AA31" s="94"/>
+      <c r="AB31" s="94"/>
+      <c r="AC31" s="94"/>
+      <c r="AD31" s="94"/>
+      <c r="AE31" s="94"/>
+      <c r="AF31" s="94"/>
+      <c r="AG31" s="94"/>
+      <c r="AH31" s="94"/>
+      <c r="AI31" s="94"/>
+      <c r="AJ31" s="95"/>
+      <c r="AK31" s="87"/>
+      <c r="AL31" s="88"/>
+      <c r="AM31" s="88"/>
+      <c r="AN31" s="88"/>
+      <c r="AO31" s="88"/>
+      <c r="AP31" s="88"/>
+      <c r="AQ31" s="88"/>
+      <c r="AR31" s="89"/>
+      <c r="AS31" s="90" t="s">
+        <v>94</v>
       </c>
-      <c r="K31" s="15"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="15"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="15"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="15"/>
-      <c r="R31" s="15"/>
-      <c r="S31" s="15"/>
-      <c r="T31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="15"/>
-      <c r="Y31" s="15"/>
-      <c r="Z31" s="15"/>
-      <c r="AA31" s="15"/>
-      <c r="AB31" s="15"/>
-      <c r="AC31" s="15"/>
-      <c r="AD31" s="15"/>
-      <c r="AE31" s="15"/>
-      <c r="AF31" s="15"/>
-      <c r="AG31" s="15"/>
-      <c r="AH31" s="15"/>
-      <c r="AI31" s="16"/>
-      <c r="AJ31" s="5"/>
-      <c r="AK31" s="5"/>
-      <c r="AL31" s="5"/>
-      <c r="AM31" s="5"/>
-      <c r="AN31" s="5"/>
-      <c r="AO31" s="5"/>
-      <c r="AP31" s="5"/>
-      <c r="AQ31" s="5"/>
-      <c r="AR31" s="5"/>
-      <c r="AS31" s="5"/>
-      <c r="AT31" s="5"/>
-      <c r="AU31" s="5"/>
-      <c r="AV31" s="5"/>
-      <c r="AW31" s="5"/>
-      <c r="AX31" s="5"/>
-      <c r="AY31" s="5"/>
+      <c r="AT31" s="91"/>
+      <c r="AU31" s="91"/>
+      <c r="AV31" s="91"/>
+      <c r="AW31" s="91"/>
+      <c r="AX31" s="91"/>
+      <c r="AY31" s="92"/>
       <c r="AZ31" s="5"/>
       <c r="BA31" s="5"/>
       <c r="BB31" s="5"/>
@@ -5841,62 +6297,62 @@
       <c r="BO31" s="5"/>
       <c r="BP31" s="5"/>
     </row>
-    <row r="32" spans="1:68" ht="16.5" outlineLevel="1">
+    <row r="32" spans="1:68" s="23" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="50" t="s">
-        <v>23</v>
+      <c r="B32" s="13"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="82"/>
+      <c r="H32" s="82"/>
+      <c r="I32" s="82"/>
+      <c r="J32" s="83"/>
+      <c r="K32" s="81"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="82"/>
+      <c r="N32" s="82"/>
+      <c r="O32" s="82"/>
+      <c r="P32" s="82"/>
+      <c r="Q32" s="82"/>
+      <c r="R32" s="93" t="s">
+        <v>95</v>
       </c>
-      <c r="D32" s="51"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="51"/>
-      <c r="I32" s="52"/>
-      <c r="J32" s="50" t="s">
-        <v>24</v>
+      <c r="S32" s="94"/>
+      <c r="T32" s="94"/>
+      <c r="U32" s="94"/>
+      <c r="V32" s="94"/>
+      <c r="W32" s="94"/>
+      <c r="X32" s="94"/>
+      <c r="Y32" s="94"/>
+      <c r="Z32" s="94"/>
+      <c r="AA32" s="94"/>
+      <c r="AB32" s="94"/>
+      <c r="AC32" s="94"/>
+      <c r="AD32" s="94"/>
+      <c r="AE32" s="94"/>
+      <c r="AF32" s="94"/>
+      <c r="AG32" s="94"/>
+      <c r="AH32" s="94"/>
+      <c r="AI32" s="94"/>
+      <c r="AJ32" s="95"/>
+      <c r="AK32" s="87"/>
+      <c r="AL32" s="88"/>
+      <c r="AM32" s="88"/>
+      <c r="AN32" s="88"/>
+      <c r="AO32" s="88"/>
+      <c r="AP32" s="88"/>
+      <c r="AQ32" s="88"/>
+      <c r="AR32" s="89"/>
+      <c r="AS32" s="81" t="s">
+        <v>96</v>
       </c>
-      <c r="K32" s="51"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="51"/>
-      <c r="N32" s="51"/>
-      <c r="O32" s="51"/>
-      <c r="P32" s="51"/>
-      <c r="Q32" s="51"/>
-      <c r="R32" s="51"/>
-      <c r="S32" s="51"/>
-      <c r="T32" s="51"/>
-      <c r="U32" s="51"/>
-      <c r="V32" s="51"/>
-      <c r="W32" s="51"/>
-      <c r="X32" s="51"/>
-      <c r="Y32" s="51"/>
-      <c r="Z32" s="51"/>
-      <c r="AA32" s="51"/>
-      <c r="AB32" s="51"/>
-      <c r="AC32" s="51"/>
-      <c r="AD32" s="51"/>
-      <c r="AE32" s="51"/>
-      <c r="AF32" s="51"/>
-      <c r="AG32" s="51"/>
-      <c r="AH32" s="51"/>
-      <c r="AI32" s="52"/>
-      <c r="AJ32" s="5"/>
-      <c r="AK32" s="5"/>
-      <c r="AL32" s="5"/>
-      <c r="AM32" s="5"/>
-      <c r="AN32" s="5"/>
-      <c r="AO32" s="5"/>
-      <c r="AP32" s="5"/>
-      <c r="AQ32" s="5"/>
-      <c r="AR32" s="5"/>
-      <c r="AS32" s="5"/>
-      <c r="AT32" s="5"/>
-      <c r="AU32" s="5"/>
-      <c r="AV32" s="5"/>
-      <c r="AW32" s="5"/>
-      <c r="AX32" s="5"/>
-      <c r="AY32" s="5"/>
+      <c r="AT32" s="82"/>
+      <c r="AU32" s="82"/>
+      <c r="AV32" s="82"/>
+      <c r="AW32" s="82"/>
+      <c r="AX32" s="82"/>
+      <c r="AY32" s="83"/>
       <c r="AZ32" s="5"/>
       <c r="BA32" s="5"/>
       <c r="BB32" s="5"/>
@@ -5915,62 +6371,62 @@
       <c r="BO32" s="5"/>
       <c r="BP32" s="5"/>
     </row>
-    <row r="33" spans="1:68" ht="16.5" outlineLevel="1">
+    <row r="33" spans="1:68" s="23" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="50" t="s">
-        <v>25</v>
+      <c r="B33" s="13"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="82"/>
+      <c r="J33" s="83"/>
+      <c r="K33" s="81"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="82"/>
+      <c r="N33" s="82"/>
+      <c r="O33" s="82"/>
+      <c r="P33" s="82"/>
+      <c r="Q33" s="82"/>
+      <c r="R33" s="93" t="s">
+        <v>95</v>
       </c>
-      <c r="D33" s="51"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="51"/>
-      <c r="H33" s="51"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="50" t="s">
-        <v>26</v>
+      <c r="S33" s="94"/>
+      <c r="T33" s="94"/>
+      <c r="U33" s="94"/>
+      <c r="V33" s="94"/>
+      <c r="W33" s="94"/>
+      <c r="X33" s="94"/>
+      <c r="Y33" s="94"/>
+      <c r="Z33" s="94"/>
+      <c r="AA33" s="94"/>
+      <c r="AB33" s="94"/>
+      <c r="AC33" s="94"/>
+      <c r="AD33" s="94"/>
+      <c r="AE33" s="94"/>
+      <c r="AF33" s="94"/>
+      <c r="AG33" s="94"/>
+      <c r="AH33" s="94"/>
+      <c r="AI33" s="94"/>
+      <c r="AJ33" s="95"/>
+      <c r="AK33" s="87"/>
+      <c r="AL33" s="88"/>
+      <c r="AM33" s="88"/>
+      <c r="AN33" s="88"/>
+      <c r="AO33" s="88"/>
+      <c r="AP33" s="88"/>
+      <c r="AQ33" s="88"/>
+      <c r="AR33" s="89"/>
+      <c r="AS33" s="81" t="s">
+        <v>97</v>
       </c>
-      <c r="K33" s="51"/>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51"/>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51"/>
-      <c r="P33" s="51"/>
-      <c r="Q33" s="51"/>
-      <c r="R33" s="51"/>
-      <c r="S33" s="51"/>
-      <c r="T33" s="51"/>
-      <c r="U33" s="51"/>
-      <c r="V33" s="51"/>
-      <c r="W33" s="51"/>
-      <c r="X33" s="51"/>
-      <c r="Y33" s="51"/>
-      <c r="Z33" s="51"/>
-      <c r="AA33" s="51"/>
-      <c r="AB33" s="51"/>
-      <c r="AC33" s="51"/>
-      <c r="AD33" s="51"/>
-      <c r="AE33" s="51"/>
-      <c r="AF33" s="51"/>
-      <c r="AG33" s="51"/>
-      <c r="AH33" s="51"/>
-      <c r="AI33" s="52"/>
-      <c r="AJ33" s="5"/>
-      <c r="AK33" s="5"/>
-      <c r="AL33" s="5"/>
-      <c r="AM33" s="5"/>
-      <c r="AN33" s="5"/>
-      <c r="AO33" s="5"/>
-      <c r="AP33" s="5"/>
-      <c r="AQ33" s="5"/>
-      <c r="AR33" s="5"/>
-      <c r="AS33" s="5"/>
-      <c r="AT33" s="5"/>
-      <c r="AU33" s="5"/>
-      <c r="AV33" s="5"/>
-      <c r="AW33" s="5"/>
-      <c r="AX33" s="5"/>
-      <c r="AY33" s="5"/>
+      <c r="AT33" s="82"/>
+      <c r="AU33" s="82"/>
+      <c r="AV33" s="82"/>
+      <c r="AW33" s="82"/>
+      <c r="AX33" s="82"/>
+      <c r="AY33" s="83"/>
       <c r="AZ33" s="5"/>
       <c r="BA33" s="5"/>
       <c r="BB33" s="5"/>
@@ -5989,62 +6445,62 @@
       <c r="BO33" s="5"/>
       <c r="BP33" s="5"/>
     </row>
-    <row r="34" spans="1:68" ht="31.5" customHeight="1" outlineLevel="1">
+    <row r="34" spans="1:68" s="23" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="50" t="s">
-        <v>27</v>
+      <c r="B34" s="13"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="82"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="82"/>
+      <c r="J34" s="83"/>
+      <c r="K34" s="81"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="82"/>
+      <c r="N34" s="82"/>
+      <c r="O34" s="82"/>
+      <c r="P34" s="82"/>
+      <c r="Q34" s="82"/>
+      <c r="R34" s="96" t="s">
+        <v>95</v>
       </c>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="55" t="s">
-        <v>57</v>
+      <c r="S34" s="97"/>
+      <c r="T34" s="97"/>
+      <c r="U34" s="97"/>
+      <c r="V34" s="97"/>
+      <c r="W34" s="97"/>
+      <c r="X34" s="97"/>
+      <c r="Y34" s="97"/>
+      <c r="Z34" s="97"/>
+      <c r="AA34" s="97"/>
+      <c r="AB34" s="97"/>
+      <c r="AC34" s="97"/>
+      <c r="AD34" s="97"/>
+      <c r="AE34" s="97"/>
+      <c r="AF34" s="97"/>
+      <c r="AG34" s="97"/>
+      <c r="AH34" s="97"/>
+      <c r="AI34" s="97"/>
+      <c r="AJ34" s="98"/>
+      <c r="AK34" s="99"/>
+      <c r="AL34" s="99"/>
+      <c r="AM34" s="99"/>
+      <c r="AN34" s="99"/>
+      <c r="AO34" s="99"/>
+      <c r="AP34" s="99"/>
+      <c r="AQ34" s="99"/>
+      <c r="AR34" s="100"/>
+      <c r="AS34" s="81" t="s">
+        <v>98</v>
       </c>
-      <c r="K34" s="56"/>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="56"/>
-      <c r="O34" s="56"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="56"/>
-      <c r="R34" s="56"/>
-      <c r="S34" s="56"/>
-      <c r="T34" s="56"/>
-      <c r="U34" s="56"/>
-      <c r="V34" s="56"/>
-      <c r="W34" s="56"/>
-      <c r="X34" s="56"/>
-      <c r="Y34" s="56"/>
-      <c r="Z34" s="56"/>
-      <c r="AA34" s="56"/>
-      <c r="AB34" s="56"/>
-      <c r="AC34" s="56"/>
-      <c r="AD34" s="56"/>
-      <c r="AE34" s="56"/>
-      <c r="AF34" s="56"/>
-      <c r="AG34" s="56"/>
-      <c r="AH34" s="56"/>
-      <c r="AI34" s="57"/>
-      <c r="AJ34" s="5"/>
-      <c r="AK34" s="5"/>
-      <c r="AL34" s="5"/>
-      <c r="AM34" s="5"/>
-      <c r="AN34" s="5"/>
-      <c r="AO34" s="5"/>
-      <c r="AP34" s="5"/>
-      <c r="AQ34" s="5"/>
-      <c r="AR34" s="5"/>
-      <c r="AS34" s="5"/>
-      <c r="AT34" s="5"/>
-      <c r="AU34" s="5"/>
-      <c r="AV34" s="5"/>
-      <c r="AW34" s="5"/>
-      <c r="AX34" s="5"/>
-      <c r="AY34" s="5"/>
+      <c r="AT34" s="82"/>
+      <c r="AU34" s="82"/>
+      <c r="AV34" s="82"/>
+      <c r="AW34" s="82"/>
+      <c r="AX34" s="82"/>
+      <c r="AY34" s="83"/>
       <c r="AZ34" s="5"/>
       <c r="BA34" s="5"/>
       <c r="BB34" s="5"/>
@@ -6063,9 +6519,9 @@
       <c r="BO34" s="5"/>
       <c r="BP34" s="5"/>
     </row>
-    <row r="35" spans="1:68" ht="16.5" outlineLevel="1">
+    <row r="35" spans="1:68" s="23" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -6133,9 +6589,11 @@
       <c r="BO35" s="5"/>
       <c r="BP35" s="5"/>
     </row>
-    <row r="36" spans="1:68" ht="16.5">
+    <row r="36" spans="1:68" s="23" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
+      <c r="B36" s="73" t="s">
+        <v>106</v>
+      </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -6203,23 +6661,1460 @@
       <c r="BO36" s="5"/>
       <c r="BP36" s="5"/>
     </row>
+    <row r="37" spans="1:68" s="23" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A37" s="5"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="D37" s="75"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="75"/>
+      <c r="H37" s="75"/>
+      <c r="I37" s="75"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" s="75"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="75"/>
+      <c r="O37" s="75"/>
+      <c r="P37" s="75"/>
+      <c r="Q37" s="76"/>
+      <c r="R37" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="S37" s="79"/>
+      <c r="T37" s="79"/>
+      <c r="U37" s="79"/>
+      <c r="V37" s="79"/>
+      <c r="W37" s="79"/>
+      <c r="X37" s="79"/>
+      <c r="Y37" s="79"/>
+      <c r="Z37" s="79"/>
+      <c r="AA37" s="79"/>
+      <c r="AB37" s="79"/>
+      <c r="AC37" s="79"/>
+      <c r="AD37" s="79"/>
+      <c r="AE37" s="79"/>
+      <c r="AF37" s="79"/>
+      <c r="AG37" s="79"/>
+      <c r="AH37" s="79"/>
+      <c r="AI37" s="79"/>
+      <c r="AJ37" s="80"/>
+      <c r="AK37" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="AL37" s="75"/>
+      <c r="AM37" s="75"/>
+      <c r="AN37" s="75"/>
+      <c r="AO37" s="75"/>
+      <c r="AP37" s="75"/>
+      <c r="AQ37" s="75"/>
+      <c r="AR37" s="76"/>
+      <c r="AS37" s="77" t="s">
+        <v>21</v>
+      </c>
+      <c r="AT37" s="75"/>
+      <c r="AU37" s="75"/>
+      <c r="AV37" s="75"/>
+      <c r="AW37" s="75"/>
+      <c r="AX37" s="75"/>
+      <c r="AY37" s="76"/>
+      <c r="AZ37" s="5"/>
+      <c r="BA37" s="5"/>
+      <c r="BB37" s="5"/>
+      <c r="BC37" s="5"/>
+      <c r="BD37" s="5"/>
+      <c r="BE37" s="5"/>
+      <c r="BF37" s="5"/>
+      <c r="BG37" s="5"/>
+      <c r="BH37" s="5"/>
+      <c r="BI37" s="5"/>
+      <c r="BJ37" s="5"/>
+      <c r="BK37" s="5"/>
+      <c r="BL37" s="5"/>
+      <c r="BM37" s="5"/>
+      <c r="BN37" s="5"/>
+      <c r="BO37" s="5"/>
+      <c r="BP37" s="5"/>
+    </row>
+    <row r="38" spans="1:68" s="23" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A38" s="5"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="101" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="102"/>
+      <c r="E38" s="102"/>
+      <c r="F38" s="102"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="102"/>
+      <c r="I38" s="102"/>
+      <c r="J38" s="103"/>
+      <c r="K38" s="81" t="s">
+        <v>93</v>
+      </c>
+      <c r="L38" s="82"/>
+      <c r="M38" s="82"/>
+      <c r="N38" s="82"/>
+      <c r="O38" s="82"/>
+      <c r="P38" s="82"/>
+      <c r="Q38" s="82"/>
+      <c r="R38" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="S38" s="85"/>
+      <c r="T38" s="85"/>
+      <c r="U38" s="85"/>
+      <c r="V38" s="85"/>
+      <c r="W38" s="85"/>
+      <c r="X38" s="85"/>
+      <c r="Y38" s="85"/>
+      <c r="Z38" s="85"/>
+      <c r="AA38" s="85"/>
+      <c r="AB38" s="85"/>
+      <c r="AC38" s="85"/>
+      <c r="AD38" s="85"/>
+      <c r="AE38" s="85"/>
+      <c r="AF38" s="85"/>
+      <c r="AG38" s="85"/>
+      <c r="AH38" s="85"/>
+      <c r="AI38" s="85"/>
+      <c r="AJ38" s="86"/>
+      <c r="AK38" s="87" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL38" s="87"/>
+      <c r="AM38" s="87"/>
+      <c r="AN38" s="87"/>
+      <c r="AO38" s="88"/>
+      <c r="AP38" s="88"/>
+      <c r="AQ38" s="88"/>
+      <c r="AR38" s="89"/>
+      <c r="AS38" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="AT38" s="91"/>
+      <c r="AU38" s="91"/>
+      <c r="AV38" s="91"/>
+      <c r="AW38" s="91"/>
+      <c r="AX38" s="91"/>
+      <c r="AY38" s="92"/>
+      <c r="AZ38" s="5"/>
+      <c r="BA38" s="5"/>
+      <c r="BB38" s="5"/>
+      <c r="BC38" s="5"/>
+      <c r="BD38" s="5"/>
+      <c r="BE38" s="5"/>
+      <c r="BF38" s="5"/>
+      <c r="BG38" s="5"/>
+      <c r="BH38" s="5"/>
+      <c r="BI38" s="5"/>
+      <c r="BJ38" s="5"/>
+      <c r="BK38" s="5"/>
+      <c r="BL38" s="5"/>
+      <c r="BM38" s="5"/>
+      <c r="BN38" s="5"/>
+      <c r="BO38" s="5"/>
+      <c r="BP38" s="5"/>
+    </row>
+    <row r="39" spans="1:68" s="23" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A39" s="5"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="104" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="105"/>
+      <c r="E39" s="105"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
+      <c r="H39" s="105"/>
+      <c r="I39" s="105"/>
+      <c r="J39" s="106"/>
+      <c r="K39" s="82" t="s">
+        <v>101</v>
+      </c>
+      <c r="L39" s="82"/>
+      <c r="M39" s="82"/>
+      <c r="N39" s="82"/>
+      <c r="O39" s="82"/>
+      <c r="P39" s="82"/>
+      <c r="Q39" s="82"/>
+      <c r="R39" s="93"/>
+      <c r="S39" s="94"/>
+      <c r="T39" s="94"/>
+      <c r="U39" s="94"/>
+      <c r="V39" s="94"/>
+      <c r="W39" s="94"/>
+      <c r="X39" s="94"/>
+      <c r="Y39" s="94"/>
+      <c r="Z39" s="94"/>
+      <c r="AA39" s="94"/>
+      <c r="AB39" s="94"/>
+      <c r="AC39" s="94"/>
+      <c r="AD39" s="94"/>
+      <c r="AE39" s="94"/>
+      <c r="AF39" s="94"/>
+      <c r="AG39" s="94"/>
+      <c r="AH39" s="94"/>
+      <c r="AI39" s="94"/>
+      <c r="AJ39" s="95"/>
+      <c r="AK39" s="87"/>
+      <c r="AL39" s="88"/>
+      <c r="AM39" s="88"/>
+      <c r="AN39" s="88"/>
+      <c r="AO39" s="88"/>
+      <c r="AP39" s="88"/>
+      <c r="AQ39" s="88"/>
+      <c r="AR39" s="89"/>
+      <c r="AS39" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT39" s="82"/>
+      <c r="AU39" s="82"/>
+      <c r="AV39" s="82"/>
+      <c r="AW39" s="82"/>
+      <c r="AX39" s="82"/>
+      <c r="AY39" s="83"/>
+      <c r="AZ39" s="5"/>
+      <c r="BA39" s="5"/>
+      <c r="BB39" s="5"/>
+      <c r="BC39" s="5"/>
+      <c r="BD39" s="5"/>
+      <c r="BE39" s="5"/>
+      <c r="BF39" s="5"/>
+      <c r="BG39" s="5"/>
+      <c r="BH39" s="5"/>
+      <c r="BI39" s="5"/>
+      <c r="BJ39" s="5"/>
+      <c r="BK39" s="5"/>
+      <c r="BL39" s="5"/>
+      <c r="BM39" s="5"/>
+      <c r="BN39" s="5"/>
+      <c r="BO39" s="5"/>
+      <c r="BP39" s="5"/>
+    </row>
+    <row r="40" spans="1:68" s="23" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A40" s="5"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="107"/>
+      <c r="D40" s="108"/>
+      <c r="E40" s="108"/>
+      <c r="F40" s="108"/>
+      <c r="G40" s="108"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="108"/>
+      <c r="J40" s="109"/>
+      <c r="K40" s="82" t="s">
+        <v>102</v>
+      </c>
+      <c r="L40" s="82"/>
+      <c r="M40" s="82"/>
+      <c r="N40" s="82"/>
+      <c r="O40" s="82"/>
+      <c r="P40" s="82"/>
+      <c r="Q40" s="83"/>
+      <c r="R40" s="93"/>
+      <c r="S40" s="94"/>
+      <c r="T40" s="94"/>
+      <c r="U40" s="94"/>
+      <c r="V40" s="94"/>
+      <c r="W40" s="94"/>
+      <c r="X40" s="94"/>
+      <c r="Y40" s="94"/>
+      <c r="Z40" s="94"/>
+      <c r="AA40" s="94"/>
+      <c r="AB40" s="94"/>
+      <c r="AC40" s="94"/>
+      <c r="AD40" s="94"/>
+      <c r="AE40" s="94"/>
+      <c r="AF40" s="94"/>
+      <c r="AG40" s="94"/>
+      <c r="AH40" s="94"/>
+      <c r="AI40" s="94"/>
+      <c r="AJ40" s="95"/>
+      <c r="AK40" s="87"/>
+      <c r="AL40" s="88"/>
+      <c r="AM40" s="88"/>
+      <c r="AN40" s="88"/>
+      <c r="AO40" s="88"/>
+      <c r="AP40" s="88"/>
+      <c r="AQ40" s="88"/>
+      <c r="AR40" s="89"/>
+      <c r="AS40" s="81" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT40" s="82"/>
+      <c r="AU40" s="82"/>
+      <c r="AV40" s="82"/>
+      <c r="AW40" s="82"/>
+      <c r="AX40" s="82"/>
+      <c r="AY40" s="83"/>
+      <c r="AZ40" s="5"/>
+      <c r="BA40" s="5"/>
+      <c r="BB40" s="5"/>
+      <c r="BC40" s="5"/>
+      <c r="BD40" s="5"/>
+      <c r="BE40" s="5"/>
+      <c r="BF40" s="5"/>
+      <c r="BG40" s="5"/>
+      <c r="BH40" s="5"/>
+      <c r="BI40" s="5"/>
+      <c r="BJ40" s="5"/>
+      <c r="BK40" s="5"/>
+      <c r="BL40" s="5"/>
+      <c r="BM40" s="5"/>
+      <c r="BN40" s="5"/>
+      <c r="BO40" s="5"/>
+      <c r="BP40" s="5"/>
+    </row>
+    <row r="41" spans="1:68" s="23" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A41" s="5"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="111"/>
+      <c r="H41" s="111"/>
+      <c r="I41" s="111"/>
+      <c r="J41" s="112"/>
+      <c r="K41" s="82" t="s">
+        <v>103</v>
+      </c>
+      <c r="L41" s="82"/>
+      <c r="M41" s="82"/>
+      <c r="N41" s="82"/>
+      <c r="O41" s="82"/>
+      <c r="P41" s="82"/>
+      <c r="Q41" s="83"/>
+      <c r="R41" s="93"/>
+      <c r="S41" s="94"/>
+      <c r="T41" s="94"/>
+      <c r="U41" s="94"/>
+      <c r="V41" s="94"/>
+      <c r="W41" s="94"/>
+      <c r="X41" s="94"/>
+      <c r="Y41" s="94"/>
+      <c r="Z41" s="94"/>
+      <c r="AA41" s="94"/>
+      <c r="AB41" s="94"/>
+      <c r="AC41" s="94"/>
+      <c r="AD41" s="94"/>
+      <c r="AE41" s="94"/>
+      <c r="AF41" s="94"/>
+      <c r="AG41" s="94"/>
+      <c r="AH41" s="94"/>
+      <c r="AI41" s="94"/>
+      <c r="AJ41" s="95"/>
+      <c r="AK41" s="87"/>
+      <c r="AL41" s="88"/>
+      <c r="AM41" s="88"/>
+      <c r="AN41" s="88"/>
+      <c r="AO41" s="88"/>
+      <c r="AP41" s="88"/>
+      <c r="AQ41" s="88"/>
+      <c r="AR41" s="89"/>
+      <c r="AS41" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="AT41" s="82"/>
+      <c r="AU41" s="82"/>
+      <c r="AV41" s="82"/>
+      <c r="AW41" s="82"/>
+      <c r="AX41" s="82"/>
+      <c r="AY41" s="83"/>
+      <c r="AZ41" s="5"/>
+      <c r="BA41" s="5"/>
+      <c r="BB41" s="5"/>
+      <c r="BC41" s="5"/>
+      <c r="BD41" s="5"/>
+      <c r="BE41" s="5"/>
+      <c r="BF41" s="5"/>
+      <c r="BG41" s="5"/>
+      <c r="BH41" s="5"/>
+      <c r="BI41" s="5"/>
+      <c r="BJ41" s="5"/>
+      <c r="BK41" s="5"/>
+      <c r="BL41" s="5"/>
+      <c r="BM41" s="5"/>
+      <c r="BN41" s="5"/>
+      <c r="BO41" s="5"/>
+      <c r="BP41" s="5"/>
+    </row>
+    <row r="42" spans="1:68" s="23" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A42" s="5"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="114"/>
+      <c r="H42" s="114"/>
+      <c r="I42" s="114"/>
+      <c r="J42" s="115"/>
+      <c r="K42" s="81"/>
+      <c r="L42" s="82"/>
+      <c r="M42" s="82"/>
+      <c r="N42" s="82"/>
+      <c r="O42" s="82"/>
+      <c r="P42" s="82"/>
+      <c r="Q42" s="82"/>
+      <c r="R42" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="S42" s="94"/>
+      <c r="T42" s="94"/>
+      <c r="U42" s="94"/>
+      <c r="V42" s="94"/>
+      <c r="W42" s="94"/>
+      <c r="X42" s="94"/>
+      <c r="Y42" s="94"/>
+      <c r="Z42" s="94"/>
+      <c r="AA42" s="94"/>
+      <c r="AB42" s="94"/>
+      <c r="AC42" s="94"/>
+      <c r="AD42" s="94"/>
+      <c r="AE42" s="94"/>
+      <c r="AF42" s="94"/>
+      <c r="AG42" s="94"/>
+      <c r="AH42" s="94"/>
+      <c r="AI42" s="94"/>
+      <c r="AJ42" s="95"/>
+      <c r="AK42" s="87"/>
+      <c r="AL42" s="88"/>
+      <c r="AM42" s="88"/>
+      <c r="AN42" s="88"/>
+      <c r="AO42" s="88"/>
+      <c r="AP42" s="88"/>
+      <c r="AQ42" s="88"/>
+      <c r="AR42" s="89"/>
+      <c r="AS42" s="81" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT42" s="82"/>
+      <c r="AU42" s="82"/>
+      <c r="AV42" s="82"/>
+      <c r="AW42" s="82"/>
+      <c r="AX42" s="82"/>
+      <c r="AY42" s="83"/>
+      <c r="AZ42" s="5"/>
+      <c r="BA42" s="5"/>
+      <c r="BB42" s="5"/>
+      <c r="BC42" s="5"/>
+      <c r="BD42" s="5"/>
+      <c r="BE42" s="5"/>
+      <c r="BF42" s="5"/>
+      <c r="BG42" s="5"/>
+      <c r="BH42" s="5"/>
+      <c r="BI42" s="5"/>
+      <c r="BJ42" s="5"/>
+      <c r="BK42" s="5"/>
+      <c r="BL42" s="5"/>
+      <c r="BM42" s="5"/>
+      <c r="BN42" s="5"/>
+      <c r="BO42" s="5"/>
+      <c r="BP42" s="5"/>
+    </row>
+    <row r="43" spans="1:68" s="23" customFormat="1" ht="16.5" outlineLevel="1">
+      <c r="A43" s="5"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="81"/>
+      <c r="D43" s="82"/>
+      <c r="E43" s="82"/>
+      <c r="F43" s="82"/>
+      <c r="G43" s="82"/>
+      <c r="H43" s="82"/>
+      <c r="I43" s="82"/>
+      <c r="J43" s="83"/>
+      <c r="K43" s="81"/>
+      <c r="L43" s="82"/>
+      <c r="M43" s="82"/>
+      <c r="N43" s="82"/>
+      <c r="O43" s="82"/>
+      <c r="P43" s="82"/>
+      <c r="Q43" s="82"/>
+      <c r="R43" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="S43" s="94"/>
+      <c r="T43" s="94"/>
+      <c r="U43" s="94"/>
+      <c r="V43" s="94"/>
+      <c r="W43" s="94"/>
+      <c r="X43" s="94"/>
+      <c r="Y43" s="94"/>
+      <c r="Z43" s="94"/>
+      <c r="AA43" s="94"/>
+      <c r="AB43" s="94"/>
+      <c r="AC43" s="94"/>
+      <c r="AD43" s="94"/>
+      <c r="AE43" s="94"/>
+      <c r="AF43" s="94"/>
+      <c r="AG43" s="94"/>
+      <c r="AH43" s="94"/>
+      <c r="AI43" s="94"/>
+      <c r="AJ43" s="95"/>
+      <c r="AK43" s="99"/>
+      <c r="AL43" s="99"/>
+      <c r="AM43" s="99"/>
+      <c r="AN43" s="99"/>
+      <c r="AO43" s="99"/>
+      <c r="AP43" s="99"/>
+      <c r="AQ43" s="99"/>
+      <c r="AR43" s="100"/>
+      <c r="AS43" s="81" t="s">
+        <v>97</v>
+      </c>
+      <c r="AT43" s="82"/>
+      <c r="AU43" s="82"/>
+      <c r="AV43" s="82"/>
+      <c r="AW43" s="82"/>
+      <c r="AX43" s="82"/>
+      <c r="AY43" s="83"/>
+      <c r="AZ43" s="5"/>
+      <c r="BA43" s="5"/>
+      <c r="BB43" s="5"/>
+      <c r="BC43" s="5"/>
+      <c r="BD43" s="5"/>
+      <c r="BE43" s="5"/>
+      <c r="BF43" s="5"/>
+      <c r="BG43" s="5"/>
+      <c r="BH43" s="5"/>
+      <c r="BI43" s="5"/>
+      <c r="BJ43" s="5"/>
+      <c r="BK43" s="5"/>
+      <c r="BL43" s="5"/>
+      <c r="BM43" s="5"/>
+      <c r="BN43" s="5"/>
+      <c r="BO43" s="5"/>
+      <c r="BP43" s="5"/>
+    </row>
+    <row r="44" spans="1:68" ht="16.5">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+      <c r="W44" s="5"/>
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5"/>
+      <c r="Z44" s="5"/>
+      <c r="AA44" s="5"/>
+      <c r="AB44" s="5"/>
+      <c r="AC44" s="5"/>
+      <c r="AD44" s="5"/>
+      <c r="AE44" s="5"/>
+      <c r="AF44" s="5"/>
+      <c r="AG44" s="5"/>
+      <c r="AH44" s="5"/>
+      <c r="AI44" s="5"/>
+      <c r="AJ44" s="5"/>
+      <c r="AK44" s="5"/>
+      <c r="AL44" s="5"/>
+      <c r="AM44" s="5"/>
+      <c r="AN44" s="5"/>
+      <c r="AO44" s="5"/>
+      <c r="AP44" s="5"/>
+      <c r="AQ44" s="5"/>
+      <c r="AR44" s="5"/>
+      <c r="AS44" s="5"/>
+      <c r="AT44" s="5"/>
+      <c r="AU44" s="5"/>
+      <c r="AV44" s="5"/>
+      <c r="AW44" s="5"/>
+      <c r="AX44" s="5"/>
+      <c r="AY44" s="5"/>
+      <c r="AZ44" s="5"/>
+      <c r="BA44" s="5"/>
+      <c r="BB44" s="5"/>
+      <c r="BC44" s="5"/>
+      <c r="BD44" s="5"/>
+      <c r="BE44" s="5"/>
+      <c r="BF44" s="5"/>
+      <c r="BG44" s="5"/>
+      <c r="BH44" s="5"/>
+      <c r="BI44" s="5"/>
+      <c r="BJ44" s="5"/>
+      <c r="BK44" s="5"/>
+      <c r="BL44" s="5"/>
+      <c r="BM44" s="5"/>
+      <c r="BN44" s="5"/>
+      <c r="BO44" s="5"/>
+      <c r="BP44" s="5"/>
+    </row>
+    <row r="45" spans="1:68" ht="16.5">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+      <c r="W45" s="5"/>
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5"/>
+      <c r="Z45" s="5"/>
+      <c r="AA45" s="5"/>
+      <c r="AB45" s="5"/>
+      <c r="AC45" s="5"/>
+      <c r="AD45" s="5"/>
+      <c r="AE45" s="5"/>
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="5"/>
+      <c r="AH45" s="5"/>
+      <c r="AI45" s="5"/>
+      <c r="AJ45" s="5"/>
+      <c r="AK45" s="5"/>
+      <c r="AL45" s="5"/>
+      <c r="AM45" s="5"/>
+      <c r="AN45" s="5"/>
+      <c r="AO45" s="5"/>
+      <c r="AP45" s="5"/>
+      <c r="AQ45" s="5"/>
+      <c r="AR45" s="5"/>
+      <c r="AS45" s="5"/>
+      <c r="AT45" s="5"/>
+      <c r="AU45" s="5"/>
+      <c r="AV45" s="5"/>
+      <c r="AW45" s="5"/>
+      <c r="AX45" s="5"/>
+      <c r="AY45" s="5"/>
+      <c r="AZ45" s="5"/>
+      <c r="BA45" s="5"/>
+      <c r="BB45" s="5"/>
+      <c r="BC45" s="5"/>
+      <c r="BD45" s="5"/>
+      <c r="BE45" s="5"/>
+      <c r="BF45" s="5"/>
+      <c r="BG45" s="5"/>
+      <c r="BH45" s="5"/>
+      <c r="BI45" s="5"/>
+      <c r="BJ45" s="5"/>
+      <c r="BK45" s="5"/>
+      <c r="BL45" s="5"/>
+      <c r="BM45" s="5"/>
+      <c r="BN45" s="5"/>
+      <c r="BO45" s="5"/>
+      <c r="BP45" s="5"/>
+    </row>
+    <row r="46" spans="1:68" ht="16.5">
+      <c r="A46" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="2"/>
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="2"/>
+      <c r="AH46" s="2"/>
+      <c r="AI46" s="2"/>
+      <c r="AJ46" s="2"/>
+      <c r="AK46" s="2"/>
+      <c r="AL46" s="2"/>
+      <c r="AM46" s="2"/>
+      <c r="AN46" s="2"/>
+      <c r="AO46" s="2"/>
+      <c r="AP46" s="2"/>
+      <c r="AQ46" s="2"/>
+      <c r="AR46" s="2"/>
+      <c r="AS46" s="2"/>
+      <c r="AT46" s="2"/>
+      <c r="AU46" s="2"/>
+      <c r="AV46" s="2"/>
+      <c r="AW46" s="2"/>
+      <c r="AX46" s="2"/>
+      <c r="AY46" s="2"/>
+      <c r="AZ46" s="2"/>
+      <c r="BA46" s="2"/>
+      <c r="BB46" s="2"/>
+      <c r="BC46" s="2"/>
+      <c r="BD46" s="2"/>
+      <c r="BE46" s="2"/>
+      <c r="BF46" s="2"/>
+      <c r="BG46" s="2"/>
+      <c r="BH46" s="2"/>
+      <c r="BI46" s="2"/>
+      <c r="BJ46" s="2"/>
+      <c r="BK46" s="2"/>
+      <c r="BL46" s="2"/>
+      <c r="BM46" s="2"/>
+      <c r="BN46" s="2"/>
+      <c r="BO46" s="2"/>
+      <c r="BP46" s="2"/>
+    </row>
+    <row r="47" spans="1:68" ht="16.5">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5"/>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5"/>
+      <c r="Z47" s="5"/>
+      <c r="AA47" s="5"/>
+      <c r="AB47" s="5"/>
+      <c r="AC47" s="5"/>
+      <c r="AD47" s="5"/>
+      <c r="AE47" s="5"/>
+      <c r="AF47" s="5"/>
+      <c r="AG47" s="5"/>
+      <c r="AH47" s="5"/>
+      <c r="AI47" s="5"/>
+      <c r="AJ47" s="5"/>
+      <c r="AK47" s="5"/>
+      <c r="AL47" s="5"/>
+      <c r="AM47" s="5"/>
+      <c r="AN47" s="5"/>
+      <c r="AO47" s="5"/>
+      <c r="AP47" s="5"/>
+      <c r="AQ47" s="5"/>
+      <c r="AR47" s="5"/>
+      <c r="AS47" s="5"/>
+      <c r="AT47" s="5"/>
+      <c r="AU47" s="5"/>
+      <c r="AV47" s="5"/>
+      <c r="AW47" s="5"/>
+      <c r="AX47" s="5"/>
+      <c r="AY47" s="5"/>
+      <c r="AZ47" s="5"/>
+      <c r="BA47" s="5"/>
+      <c r="BB47" s="5"/>
+      <c r="BC47" s="5"/>
+      <c r="BD47" s="5"/>
+      <c r="BE47" s="5"/>
+      <c r="BF47" s="5"/>
+      <c r="BG47" s="5"/>
+      <c r="BH47" s="5"/>
+      <c r="BI47" s="5"/>
+      <c r="BJ47" s="5"/>
+      <c r="BK47" s="5"/>
+      <c r="BL47" s="5"/>
+      <c r="BM47" s="5"/>
+      <c r="BN47" s="5"/>
+      <c r="BO47" s="5"/>
+      <c r="BP47" s="5"/>
+    </row>
+    <row r="48" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A48" s="5"/>
+      <c r="B48" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5"/>
+      <c r="Z48" s="5"/>
+      <c r="AA48" s="5"/>
+      <c r="AB48" s="5"/>
+      <c r="AC48" s="5"/>
+      <c r="AD48" s="5"/>
+      <c r="AE48" s="5"/>
+      <c r="AF48" s="5"/>
+      <c r="AG48" s="5"/>
+      <c r="AH48" s="5"/>
+      <c r="AI48" s="5"/>
+      <c r="AJ48" s="5"/>
+      <c r="AK48" s="5"/>
+      <c r="AL48" s="5"/>
+      <c r="AM48" s="5"/>
+      <c r="AN48" s="5"/>
+      <c r="AO48" s="5"/>
+      <c r="AP48" s="5"/>
+      <c r="AQ48" s="5"/>
+      <c r="AR48" s="5"/>
+      <c r="AS48" s="5"/>
+      <c r="AT48" s="5"/>
+      <c r="AU48" s="5"/>
+      <c r="AV48" s="5"/>
+      <c r="AW48" s="5"/>
+      <c r="AX48" s="5"/>
+      <c r="AY48" s="5"/>
+      <c r="AZ48" s="5"/>
+      <c r="BA48" s="5"/>
+      <c r="BB48" s="5"/>
+      <c r="BC48" s="5"/>
+      <c r="BD48" s="5"/>
+      <c r="BE48" s="5"/>
+      <c r="BF48" s="5"/>
+      <c r="BG48" s="5"/>
+      <c r="BH48" s="5"/>
+      <c r="BI48" s="5"/>
+      <c r="BJ48" s="5"/>
+      <c r="BK48" s="5"/>
+      <c r="BL48" s="5"/>
+      <c r="BM48" s="5"/>
+      <c r="BN48" s="5"/>
+      <c r="BO48" s="5"/>
+      <c r="BP48" s="5"/>
+    </row>
+    <row r="49" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
+      <c r="U49" s="5"/>
+      <c r="V49" s="5"/>
+      <c r="W49" s="5"/>
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5"/>
+      <c r="Z49" s="5"/>
+      <c r="AA49" s="5"/>
+      <c r="AB49" s="5"/>
+      <c r="AC49" s="5"/>
+      <c r="AD49" s="5"/>
+      <c r="AE49" s="5"/>
+      <c r="AF49" s="5"/>
+      <c r="AG49" s="5"/>
+      <c r="AH49" s="5"/>
+      <c r="AI49" s="5"/>
+      <c r="AJ49" s="5"/>
+      <c r="AK49" s="5"/>
+      <c r="AL49" s="5"/>
+      <c r="AM49" s="5"/>
+      <c r="AN49" s="5"/>
+      <c r="AO49" s="5"/>
+      <c r="AP49" s="5"/>
+      <c r="AQ49" s="5"/>
+      <c r="AR49" s="5"/>
+      <c r="AS49" s="5"/>
+      <c r="AT49" s="5"/>
+      <c r="AU49" s="5"/>
+      <c r="AV49" s="5"/>
+      <c r="AW49" s="5"/>
+      <c r="AX49" s="5"/>
+      <c r="AY49" s="5"/>
+      <c r="AZ49" s="5"/>
+      <c r="BA49" s="5"/>
+      <c r="BB49" s="5"/>
+      <c r="BC49" s="5"/>
+      <c r="BD49" s="5"/>
+      <c r="BE49" s="5"/>
+      <c r="BF49" s="5"/>
+      <c r="BG49" s="5"/>
+      <c r="BH49" s="5"/>
+      <c r="BI49" s="5"/>
+      <c r="BJ49" s="5"/>
+      <c r="BK49" s="5"/>
+      <c r="BL49" s="5"/>
+      <c r="BM49" s="5"/>
+      <c r="BN49" s="5"/>
+      <c r="BO49" s="5"/>
+      <c r="BP49" s="5"/>
+    </row>
+    <row r="50" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" s="15"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="15"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="15"/>
+      <c r="R50" s="15"/>
+      <c r="S50" s="15"/>
+      <c r="T50" s="15"/>
+      <c r="U50" s="15"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="15"/>
+      <c r="Y50" s="15"/>
+      <c r="Z50" s="15"/>
+      <c r="AA50" s="15"/>
+      <c r="AB50" s="15"/>
+      <c r="AC50" s="15"/>
+      <c r="AD50" s="15"/>
+      <c r="AE50" s="15"/>
+      <c r="AF50" s="15"/>
+      <c r="AG50" s="15"/>
+      <c r="AH50" s="15"/>
+      <c r="AI50" s="16"/>
+      <c r="AJ50" s="5"/>
+      <c r="AK50" s="5"/>
+      <c r="AL50" s="5"/>
+      <c r="AM50" s="5"/>
+      <c r="AN50" s="5"/>
+      <c r="AO50" s="5"/>
+      <c r="AP50" s="5"/>
+      <c r="AQ50" s="5"/>
+      <c r="AR50" s="5"/>
+      <c r="AS50" s="5"/>
+      <c r="AT50" s="5"/>
+      <c r="AU50" s="5"/>
+      <c r="AV50" s="5"/>
+      <c r="AW50" s="5"/>
+      <c r="AX50" s="5"/>
+      <c r="AY50" s="5"/>
+      <c r="AZ50" s="5"/>
+      <c r="BA50" s="5"/>
+      <c r="BB50" s="5"/>
+      <c r="BC50" s="5"/>
+      <c r="BD50" s="5"/>
+      <c r="BE50" s="5"/>
+      <c r="BF50" s="5"/>
+      <c r="BG50" s="5"/>
+      <c r="BH50" s="5"/>
+      <c r="BI50" s="5"/>
+      <c r="BJ50" s="5"/>
+      <c r="BK50" s="5"/>
+      <c r="BL50" s="5"/>
+      <c r="BM50" s="5"/>
+      <c r="BN50" s="5"/>
+      <c r="BO50" s="5"/>
+      <c r="BP50" s="5"/>
+    </row>
+    <row r="51" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52"/>
+      <c r="H51" s="52"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="K51" s="52"/>
+      <c r="L51" s="52"/>
+      <c r="M51" s="52"/>
+      <c r="N51" s="52"/>
+      <c r="O51" s="52"/>
+      <c r="P51" s="52"/>
+      <c r="Q51" s="52"/>
+      <c r="R51" s="52"/>
+      <c r="S51" s="52"/>
+      <c r="T51" s="52"/>
+      <c r="U51" s="52"/>
+      <c r="V51" s="52"/>
+      <c r="W51" s="52"/>
+      <c r="X51" s="52"/>
+      <c r="Y51" s="52"/>
+      <c r="Z51" s="52"/>
+      <c r="AA51" s="52"/>
+      <c r="AB51" s="52"/>
+      <c r="AC51" s="52"/>
+      <c r="AD51" s="52"/>
+      <c r="AE51" s="52"/>
+      <c r="AF51" s="52"/>
+      <c r="AG51" s="52"/>
+      <c r="AH51" s="52"/>
+      <c r="AI51" s="53"/>
+      <c r="AJ51" s="5"/>
+      <c r="AK51" s="5"/>
+      <c r="AL51" s="5"/>
+      <c r="AM51" s="5"/>
+      <c r="AN51" s="5"/>
+      <c r="AO51" s="5"/>
+      <c r="AP51" s="5"/>
+      <c r="AQ51" s="5"/>
+      <c r="AR51" s="5"/>
+      <c r="AS51" s="5"/>
+      <c r="AT51" s="5"/>
+      <c r="AU51" s="5"/>
+      <c r="AV51" s="5"/>
+      <c r="AW51" s="5"/>
+      <c r="AX51" s="5"/>
+      <c r="AY51" s="5"/>
+      <c r="AZ51" s="5"/>
+      <c r="BA51" s="5"/>
+      <c r="BB51" s="5"/>
+      <c r="BC51" s="5"/>
+      <c r="BD51" s="5"/>
+      <c r="BE51" s="5"/>
+      <c r="BF51" s="5"/>
+      <c r="BG51" s="5"/>
+      <c r="BH51" s="5"/>
+      <c r="BI51" s="5"/>
+      <c r="BJ51" s="5"/>
+      <c r="BK51" s="5"/>
+      <c r="BL51" s="5"/>
+      <c r="BM51" s="5"/>
+      <c r="BN51" s="5"/>
+      <c r="BO51" s="5"/>
+      <c r="BP51" s="5"/>
+    </row>
+    <row r="52" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="52"/>
+      <c r="Q52" s="52"/>
+      <c r="R52" s="52"/>
+      <c r="S52" s="52"/>
+      <c r="T52" s="52"/>
+      <c r="U52" s="52"/>
+      <c r="V52" s="52"/>
+      <c r="W52" s="52"/>
+      <c r="X52" s="52"/>
+      <c r="Y52" s="52"/>
+      <c r="Z52" s="52"/>
+      <c r="AA52" s="52"/>
+      <c r="AB52" s="52"/>
+      <c r="AC52" s="52"/>
+      <c r="AD52" s="52"/>
+      <c r="AE52" s="52"/>
+      <c r="AF52" s="52"/>
+      <c r="AG52" s="52"/>
+      <c r="AH52" s="52"/>
+      <c r="AI52" s="53"/>
+      <c r="AJ52" s="5"/>
+      <c r="AK52" s="5"/>
+      <c r="AL52" s="5"/>
+      <c r="AM52" s="5"/>
+      <c r="AN52" s="5"/>
+      <c r="AO52" s="5"/>
+      <c r="AP52" s="5"/>
+      <c r="AQ52" s="5"/>
+      <c r="AR52" s="5"/>
+      <c r="AS52" s="5"/>
+      <c r="AT52" s="5"/>
+      <c r="AU52" s="5"/>
+      <c r="AV52" s="5"/>
+      <c r="AW52" s="5"/>
+      <c r="AX52" s="5"/>
+      <c r="AY52" s="5"/>
+      <c r="AZ52" s="5"/>
+      <c r="BA52" s="5"/>
+      <c r="BB52" s="5"/>
+      <c r="BC52" s="5"/>
+      <c r="BD52" s="5"/>
+      <c r="BE52" s="5"/>
+      <c r="BF52" s="5"/>
+      <c r="BG52" s="5"/>
+      <c r="BH52" s="5"/>
+      <c r="BI52" s="5"/>
+      <c r="BJ52" s="5"/>
+      <c r="BK52" s="5"/>
+      <c r="BL52" s="5"/>
+      <c r="BM52" s="5"/>
+      <c r="BN52" s="5"/>
+      <c r="BO52" s="5"/>
+      <c r="BP52" s="5"/>
+    </row>
+    <row r="53" spans="1:68" ht="31.5" customHeight="1" outlineLevel="1">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="K53" s="56"/>
+      <c r="L53" s="56"/>
+      <c r="M53" s="56"/>
+      <c r="N53" s="56"/>
+      <c r="O53" s="56"/>
+      <c r="P53" s="56"/>
+      <c r="Q53" s="56"/>
+      <c r="R53" s="56"/>
+      <c r="S53" s="56"/>
+      <c r="T53" s="56"/>
+      <c r="U53" s="56"/>
+      <c r="V53" s="56"/>
+      <c r="W53" s="56"/>
+      <c r="X53" s="56"/>
+      <c r="Y53" s="56"/>
+      <c r="Z53" s="56"/>
+      <c r="AA53" s="56"/>
+      <c r="AB53" s="56"/>
+      <c r="AC53" s="56"/>
+      <c r="AD53" s="56"/>
+      <c r="AE53" s="56"/>
+      <c r="AF53" s="56"/>
+      <c r="AG53" s="56"/>
+      <c r="AH53" s="56"/>
+      <c r="AI53" s="57"/>
+      <c r="AJ53" s="5"/>
+      <c r="AK53" s="5"/>
+      <c r="AL53" s="5"/>
+      <c r="AM53" s="5"/>
+      <c r="AN53" s="5"/>
+      <c r="AO53" s="5"/>
+      <c r="AP53" s="5"/>
+      <c r="AQ53" s="5"/>
+      <c r="AR53" s="5"/>
+      <c r="AS53" s="5"/>
+      <c r="AT53" s="5"/>
+      <c r="AU53" s="5"/>
+      <c r="AV53" s="5"/>
+      <c r="AW53" s="5"/>
+      <c r="AX53" s="5"/>
+      <c r="AY53" s="5"/>
+      <c r="AZ53" s="5"/>
+      <c r="BA53" s="5"/>
+      <c r="BB53" s="5"/>
+      <c r="BC53" s="5"/>
+      <c r="BD53" s="5"/>
+      <c r="BE53" s="5"/>
+      <c r="BF53" s="5"/>
+      <c r="BG53" s="5"/>
+      <c r="BH53" s="5"/>
+      <c r="BI53" s="5"/>
+      <c r="BJ53" s="5"/>
+      <c r="BK53" s="5"/>
+      <c r="BL53" s="5"/>
+      <c r="BM53" s="5"/>
+      <c r="BN53" s="5"/>
+      <c r="BO53" s="5"/>
+      <c r="BP53" s="5"/>
+    </row>
+    <row r="54" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="A54" s="5"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5"/>
+      <c r="Z54" s="5"/>
+      <c r="AA54" s="5"/>
+      <c r="AB54" s="5"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="5"/>
+      <c r="AI54" s="5"/>
+      <c r="AJ54" s="5"/>
+      <c r="AK54" s="5"/>
+      <c r="AL54" s="5"/>
+      <c r="AM54" s="5"/>
+      <c r="AN54" s="5"/>
+      <c r="AO54" s="5"/>
+      <c r="AP54" s="5"/>
+      <c r="AQ54" s="5"/>
+      <c r="AR54" s="5"/>
+      <c r="AS54" s="5"/>
+      <c r="AT54" s="5"/>
+      <c r="AU54" s="5"/>
+      <c r="AV54" s="5"/>
+      <c r="AW54" s="5"/>
+      <c r="AX54" s="5"/>
+      <c r="AY54" s="5"/>
+      <c r="AZ54" s="5"/>
+      <c r="BA54" s="5"/>
+      <c r="BB54" s="5"/>
+      <c r="BC54" s="5"/>
+      <c r="BD54" s="5"/>
+      <c r="BE54" s="5"/>
+      <c r="BF54" s="5"/>
+      <c r="BG54" s="5"/>
+      <c r="BH54" s="5"/>
+      <c r="BI54" s="5"/>
+      <c r="BJ54" s="5"/>
+      <c r="BK54" s="5"/>
+      <c r="BL54" s="5"/>
+      <c r="BM54" s="5"/>
+      <c r="BN54" s="5"/>
+      <c r="BO54" s="5"/>
+      <c r="BP54" s="5"/>
+    </row>
+    <row r="55" spans="1:68" ht="16.5">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="5"/>
+      <c r="G55" s="5"/>
+      <c r="H55" s="5"/>
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+      <c r="N55" s="5"/>
+      <c r="O55" s="5"/>
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="5"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+      <c r="W55" s="5"/>
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5"/>
+      <c r="Z55" s="5"/>
+      <c r="AA55" s="5"/>
+      <c r="AB55" s="5"/>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="5"/>
+      <c r="AG55" s="5"/>
+      <c r="AH55" s="5"/>
+      <c r="AI55" s="5"/>
+      <c r="AJ55" s="5"/>
+      <c r="AK55" s="5"/>
+      <c r="AL55" s="5"/>
+      <c r="AM55" s="5"/>
+      <c r="AN55" s="5"/>
+      <c r="AO55" s="5"/>
+      <c r="AP55" s="5"/>
+      <c r="AQ55" s="5"/>
+      <c r="AR55" s="5"/>
+      <c r="AS55" s="5"/>
+      <c r="AT55" s="5"/>
+      <c r="AU55" s="5"/>
+      <c r="AV55" s="5"/>
+      <c r="AW55" s="5"/>
+      <c r="AX55" s="5"/>
+      <c r="AY55" s="5"/>
+      <c r="AZ55" s="5"/>
+      <c r="BA55" s="5"/>
+      <c r="BB55" s="5"/>
+      <c r="BC55" s="5"/>
+      <c r="BD55" s="5"/>
+      <c r="BE55" s="5"/>
+      <c r="BF55" s="5"/>
+      <c r="BG55" s="5"/>
+      <c r="BH55" s="5"/>
+      <c r="BI55" s="5"/>
+      <c r="BJ55" s="5"/>
+      <c r="BK55" s="5"/>
+      <c r="BL55" s="5"/>
+      <c r="BM55" s="5"/>
+      <c r="BN55" s="5"/>
+      <c r="BO55" s="5"/>
+      <c r="BP55" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I7:BJ7"/>
-    <mergeCell ref="C32:I32"/>
-    <mergeCell ref="I8:BJ8"/>
-    <mergeCell ref="J34:AI34"/>
-    <mergeCell ref="J33:AI33"/>
-    <mergeCell ref="J32:AI32"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:BJ10"/>
+  <mergeCells count="102">
+    <mergeCell ref="C42:J42"/>
+    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="R42:AJ42"/>
+    <mergeCell ref="AS42:AY42"/>
+    <mergeCell ref="C43:J43"/>
+    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="R43:AJ43"/>
+    <mergeCell ref="AS43:AY43"/>
+    <mergeCell ref="C40:J40"/>
+    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="R40:AJ40"/>
+    <mergeCell ref="AS40:AY40"/>
+    <mergeCell ref="C41:J41"/>
+    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="R41:AJ41"/>
+    <mergeCell ref="AS41:AY41"/>
+    <mergeCell ref="C38:J38"/>
+    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="R38:AJ38"/>
+    <mergeCell ref="AS38:AY38"/>
+    <mergeCell ref="C39:J39"/>
+    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="R39:AJ39"/>
+    <mergeCell ref="AS39:AY39"/>
+    <mergeCell ref="C33:J33"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="R33:AJ33"/>
+    <mergeCell ref="AS33:AY33"/>
+    <mergeCell ref="C34:J34"/>
+    <mergeCell ref="K34:Q34"/>
+    <mergeCell ref="R34:AJ34"/>
+    <mergeCell ref="AS34:AY34"/>
+    <mergeCell ref="C32:J32"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="R32:AJ32"/>
+    <mergeCell ref="AS32:AY32"/>
+    <mergeCell ref="C30:J30"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="R30:AJ30"/>
+    <mergeCell ref="AS30:AY30"/>
+    <mergeCell ref="C31:J31"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="R31:AJ31"/>
+    <mergeCell ref="AS31:AY31"/>
+    <mergeCell ref="AC17:AK17"/>
+    <mergeCell ref="AL17:AT17"/>
+    <mergeCell ref="AU17:AY17"/>
+    <mergeCell ref="AZ17:BO17"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="L19:AB19"/>
+    <mergeCell ref="AC19:AK19"/>
+    <mergeCell ref="AL19:AT19"/>
+    <mergeCell ref="AU19:AY19"/>
+    <mergeCell ref="AZ19:BO19"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:K16"/>
-    <mergeCell ref="C33:I33"/>
-    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="C53:I53"/>
     <mergeCell ref="I9:BJ9"/>
     <mergeCell ref="L15:AB16"/>
     <mergeCell ref="AC15:AK16"/>
@@ -6227,30 +8122,43 @@
     <mergeCell ref="AL16:AT16"/>
     <mergeCell ref="AU16:AY16"/>
     <mergeCell ref="AZ16:BO16"/>
-    <mergeCell ref="AZ17:BO17"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="L17:AB17"/>
-    <mergeCell ref="AC17:AK17"/>
-    <mergeCell ref="AL17:AT17"/>
-    <mergeCell ref="AU17:AY17"/>
-    <mergeCell ref="AZ19:BO19"/>
-    <mergeCell ref="D19:K19"/>
-    <mergeCell ref="L19:AB19"/>
-    <mergeCell ref="AC19:AK19"/>
-    <mergeCell ref="AL19:AT19"/>
-    <mergeCell ref="AU19:AY19"/>
+    <mergeCell ref="AZ18:BO18"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="L18:AB18"/>
+    <mergeCell ref="AC18:AK18"/>
+    <mergeCell ref="AL18:AT18"/>
+    <mergeCell ref="J53:AI53"/>
+    <mergeCell ref="J52:AI52"/>
+    <mergeCell ref="J51:AI51"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:BJ10"/>
+    <mergeCell ref="AU18:AY18"/>
     <mergeCell ref="AZ21:BO21"/>
-    <mergeCell ref="AZ22:BO22"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="L22:AB22"/>
-    <mergeCell ref="AC22:AK22"/>
-    <mergeCell ref="AL22:AT22"/>
-    <mergeCell ref="AU22:AY22"/>
     <mergeCell ref="D21:K21"/>
     <mergeCell ref="L21:AB21"/>
     <mergeCell ref="AC21:AK21"/>
     <mergeCell ref="AL21:AT21"/>
     <mergeCell ref="AU21:AY21"/>
+    <mergeCell ref="AZ23:BO23"/>
+    <mergeCell ref="AZ24:BO24"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="L24:AB24"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I7:BJ7"/>
+    <mergeCell ref="C51:I51"/>
+    <mergeCell ref="I8:BJ8"/>
+    <mergeCell ref="AC24:AK24"/>
+    <mergeCell ref="AL24:AT24"/>
+    <mergeCell ref="AU24:AY24"/>
+    <mergeCell ref="D23:K23"/>
+    <mergeCell ref="L23:AB23"/>
+    <mergeCell ref="AC23:AK23"/>
+    <mergeCell ref="AL23:AT23"/>
+    <mergeCell ref="AU23:AY23"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="L17:AB17"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6258,8 +8166,8 @@
   <rowBreaks count="4" manualBreakCount="4">
     <brk id="3" max="16383" man="1"/>
     <brk id="12" max="16383" man="1"/>
-    <brk id="23" max="16383" man="1"/>
-    <brk id="26" max="16383" man="1"/>
+    <brk id="25" max="16383" man="1"/>
+    <brk id="45" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -6286,16 +8194,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="38" t="s">
         <v>71</v>
       </c>
       <c r="E1" s="17"/>
@@ -6310,10 +8218,10 @@
       <c r="B2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="68" t="s">
+      <c r="D2" s="40" t="s">
         <v>72</v>
       </c>
       <c r="E2" s="17"/>
@@ -6328,10 +8236,10 @@
       <c r="B3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="68" t="s">
+      <c r="D3" s="40" t="s">
         <v>73</v>
       </c>
       <c r="E3" s="17"/>
@@ -6346,8 +8254,8 @@
       <c r="B4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68" t="s">
+      <c r="C4" s="39"/>
+      <c r="D4" s="40" t="s">
         <v>74</v>
       </c>
       <c r="E4" s="17"/>
@@ -6362,8 +8270,8 @@
       <c r="B5" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="68" t="s">
+      <c r="C5" s="39"/>
+      <c r="D5" s="40" t="s">
         <v>75</v>
       </c>
       <c r="E5" s="17"/>
@@ -6378,8 +8286,8 @@
       <c r="B6" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="67"/>
-      <c r="D6" s="68"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
@@ -6390,8 +8298,8 @@
       <c r="B7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="68"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="17"/>
@@ -6402,8 +8310,8 @@
       <c r="B8" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="68"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="17"/>
@@ -6414,8 +8322,8 @@
       <c r="B9" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
@@ -6426,8 +8334,8 @@
       <c r="B10" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="67"/>
-      <c r="D10" s="68"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
@@ -6438,8 +8346,8 @@
       <c r="B11" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
@@ -6450,8 +8358,8 @@
       <c r="B12" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
@@ -6462,8 +8370,8 @@
       <c r="B13" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="17"/>
@@ -6474,8 +8382,8 @@
       <c r="B14" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C14" s="67"/>
-      <c r="D14" s="68"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="40"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
@@ -6486,8 +8394,8 @@
       <c r="B15" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="68"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
@@ -6498,8 +8406,8 @@
       <c r="B16" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="68"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
       <c r="E16" s="17"/>
       <c r="F16" s="17"/>
       <c r="G16" s="17"/>
@@ -6510,8 +8418,8 @@
       <c r="B17" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="68"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="40"/>
       <c r="E17" s="17"/>
       <c r="F17" s="17"/>
       <c r="G17" s="17"/>
@@ -6522,8 +8430,8 @@
       <c r="B18" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="68"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="40"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="17"/>
@@ -6534,8 +8442,8 @@
       <c r="B19" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="68"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="17"/>
@@ -6546,8 +8454,8 @@
       <c r="B20" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="67"/>
-      <c r="D20" s="68"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="40"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="17"/>
@@ -6558,8 +8466,8 @@
       <c r="B21" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="68"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="40"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="17"/>
@@ -6570,8 +8478,8 @@
       <c r="B22" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="68"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="40"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" s="17"/>
@@ -6582,8 +8490,8 @@
       <c r="B23" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="68"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="40"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="17"/>
@@ -6592,8 +8500,8 @@
     <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="A24" s="18"/>
       <c r="B24" s="18"/>
-      <c r="C24" s="67"/>
-      <c r="D24" s="68"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="40"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="17"/>
@@ -6602,8 +8510,8 @@
     <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" s="18"/>
       <c r="B25" s="18"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="68"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="40"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="17"/>
@@ -6612,8 +8520,8 @@
     <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="A26" s="18"/>
       <c r="B26" s="18"/>
-      <c r="C26" s="67"/>
-      <c r="D26" s="68"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="17"/>
@@ -6622,8 +8530,8 @@
     <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="A27" s="19"/>
       <c r="B27" s="19"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="70"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="17"/>

--- a/ha-asset/01_design/03_batch/設計書_3.1.ヘルスチェックバッチ.xlsx
+++ b/ha-asset/01_design/03_batch/設計書_3.1.ヘルスチェックバッチ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\app\git\work-3g\ha-asset\01_design\03_batch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CA45CC-B647-411C-A568-07900EDA07B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9DEB995-6C93-4FC1-B7CB-0CEA4FAAF325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7905" yWindow="630" windowWidth="20580" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5880" yWindow="855" windowWidth="22920" windowHeight="14625" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="0.更新履歴" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,14 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'0.更新履歴'!$A$1:$AA$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'1.機能一覧'!$A$1:$AW$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'2.1.ヘルスチェックバッチ'!$A$1:$BP$103</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'2.1.ヘルスチェックバッチ'!$A$1:$BP$104</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="151">
   <si>
     <t>更新日時</t>
   </si>
@@ -338,10 +338,6 @@
   </si>
   <si>
     <t>HTTPステータス</t>
-    <phoneticPr fontId="6"/>
-  </si>
-  <si>
-    <t>処理結果</t>
     <phoneticPr fontId="6"/>
   </si>
   <si>
@@ -676,6 +672,28 @@
     <t>機能一覧シート最新化</t>
     <phoneticPr fontId="6"/>
   </si>
+  <si>
+    <t>2.1.ヘルスチェックバッチ最新化</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>HTTPメソッド</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>リクエストURL</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>"GET"</t>
+    <phoneticPr fontId="6"/>
+  </si>
+  <si>
+    <t>健康管理API_ヘルスチェックAPI、"$host/api/healthcheck"
+NodeAPI_ヘルスチェックAPIの場合、"$host/api/healthcheck"
+RootAPI_ヘルスチェックAPIの場合、"$host/api/root/healthcheck"</t>
+    <phoneticPr fontId="6"/>
+  </si>
 </sst>
 </file>
 
@@ -684,7 +702,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -761,6 +779,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Meiryo"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -812,7 +837,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -1200,21 +1225,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1341,18 +1357,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1367,41 +1371,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1409,50 +1398,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1461,6 +1423,17 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1476,33 +1449,81 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -1724,9 +1745,9 @@
   </sheetPr>
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="J14" sqref="J14:Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1798,48 +1819,48 @@
     </row>
     <row r="3" spans="1:27" ht="16.5">
       <c r="A3" s="2"/>
-      <c r="B3" s="65" t="s">
+      <c r="B3" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="65" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="65" t="s">
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="67"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="63"/>
       <c r="AA3" s="2"/>
     </row>
     <row r="4" spans="1:27" ht="16.5">
       <c r="A4" s="2"/>
-      <c r="B4" s="68">
+      <c r="B4" s="64">
         <v>44150</v>
       </c>
       <c r="C4" s="58"/>
       <c r="D4" s="58"/>
       <c r="E4" s="59"/>
-      <c r="F4" s="69" t="s">
+      <c r="F4" s="65" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="58"/>
@@ -1868,7 +1889,7 @@
     </row>
     <row r="5" spans="1:27" ht="31.5" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="60">
+      <c r="B5" s="66">
         <v>44192</v>
       </c>
       <c r="C5" s="58"/>
@@ -1881,8 +1902,8 @@
       <c r="G5" s="58"/>
       <c r="H5" s="58"/>
       <c r="I5" s="59"/>
-      <c r="J5" s="64" t="s">
-        <v>89</v>
+      <c r="J5" s="60" t="s">
+        <v>88</v>
       </c>
       <c r="K5" s="58"/>
       <c r="L5" s="58"/>
@@ -1904,7 +1925,7 @@
     </row>
     <row r="6" spans="1:27" ht="16.5">
       <c r="A6" s="2"/>
-      <c r="B6" s="60">
+      <c r="B6" s="66">
         <v>44354</v>
       </c>
       <c r="C6" s="58"/>
@@ -1917,30 +1938,30 @@
       <c r="G6" s="58"/>
       <c r="H6" s="58"/>
       <c r="I6" s="59"/>
-      <c r="J6" s="61" t="s">
-        <v>90</v>
+      <c r="J6" s="67" t="s">
+        <v>89</v>
       </c>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="62"/>
-      <c r="O6" s="62"/>
-      <c r="P6" s="62"/>
-      <c r="Q6" s="62"/>
-      <c r="R6" s="62"/>
-      <c r="S6" s="62"/>
-      <c r="T6" s="62"/>
-      <c r="U6" s="62"/>
-      <c r="V6" s="62"/>
-      <c r="W6" s="62"/>
-      <c r="X6" s="62"/>
-      <c r="Y6" s="62"/>
-      <c r="Z6" s="63"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="68"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="69"/>
       <c r="AA6" s="2"/>
     </row>
     <row r="7" spans="1:27" ht="16.5">
       <c r="A7" s="2"/>
-      <c r="B7" s="60">
+      <c r="B7" s="66">
         <v>45088</v>
       </c>
       <c r="C7" s="58"/>
@@ -1954,7 +1975,7 @@
       <c r="H7" s="58"/>
       <c r="I7" s="59"/>
       <c r="J7" s="57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K7" s="58"/>
       <c r="L7" s="58"/>
@@ -1976,18 +1997,22 @@
     </row>
     <row r="8" spans="1:27" ht="16.5">
       <c r="A8" s="2"/>
-      <c r="B8" s="57"/>
+      <c r="B8" s="66">
+        <v>45647</v>
+      </c>
       <c r="C8" s="58"/>
       <c r="D8" s="58"/>
       <c r="E8" s="59"/>
-      <c r="F8" s="57" t="str">
+      <c r="F8" s="57">
         <f t="shared" si="0"/>
-        <v/>
+        <v>1.04</v>
       </c>
       <c r="G8" s="58"/>
       <c r="H8" s="58"/>
       <c r="I8" s="59"/>
-      <c r="J8" s="57"/>
+      <c r="J8" s="57" t="s">
+        <v>146</v>
+      </c>
       <c r="K8" s="58"/>
       <c r="L8" s="58"/>
       <c r="M8" s="58"/>
@@ -2610,6 +2635,66 @@
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="J24:Z24"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="J25:Z25"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="J11:Z11"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="J9:Z9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="J10:Z10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:Z8"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:Z6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="J7:Z7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="J5:Z5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="J3:Z3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:Z4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F23:I23"/>
+    <mergeCell ref="J23:Z23"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:I21"/>
+    <mergeCell ref="J21:Z21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="F22:I22"/>
+    <mergeCell ref="J22:Z22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="F20:I20"/>
+    <mergeCell ref="J20:Z20"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:I18"/>
+    <mergeCell ref="J18:Z18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:I19"/>
+    <mergeCell ref="J19:Z19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="J17:Z17"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="F15:I15"/>
+    <mergeCell ref="J15:Z15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="J16:Z16"/>
+    <mergeCell ref="B17:E17"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="J14:Z14"/>
     <mergeCell ref="B12:E12"/>
@@ -2619,66 +2704,6 @@
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="J13:Z13"/>
     <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F17:I17"/>
-    <mergeCell ref="J17:Z17"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="F15:I15"/>
-    <mergeCell ref="J15:Z15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="J16:Z16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="F20:I20"/>
-    <mergeCell ref="J20:Z20"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:I18"/>
-    <mergeCell ref="J18:Z18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:I19"/>
-    <mergeCell ref="J19:Z19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="F23:I23"/>
-    <mergeCell ref="J23:Z23"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:I21"/>
-    <mergeCell ref="J21:Z21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="F22:I22"/>
-    <mergeCell ref="J22:Z22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="F5:I5"/>
-    <mergeCell ref="J5:Z5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="J3:Z3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="J4:Z4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:Z8"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:Z6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:Z7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="J11:Z11"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="J9:Z9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="J10:Z10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="J24:Z24"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="J25:Z25"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2863,7 +2888,7 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2917,7 +2942,7 @@
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
       <c r="D5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -2970,7 +2995,7 @@
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -3023,7 +3048,7 @@
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -4463,9 +4488,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BP102"/>
+  <dimension ref="A1:BP103"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1"/>
   <cols>
@@ -4904,70 +4929,70 @@
     <row r="7" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A7" s="3"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="90" t="s">
+      <c r="C7" s="111" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="93" t="s">
-        <v>95</v>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="98" t="s">
+        <v>94</v>
       </c>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-      <c r="L7" s="93"/>
-      <c r="M7" s="93"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="93"/>
-      <c r="R7" s="93"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="93"/>
-      <c r="U7" s="93"/>
-      <c r="V7" s="93"/>
-      <c r="W7" s="93"/>
-      <c r="X7" s="93"/>
-      <c r="Y7" s="93"/>
-      <c r="Z7" s="93"/>
-      <c r="AA7" s="93"/>
-      <c r="AB7" s="93"/>
-      <c r="AC7" s="93"/>
-      <c r="AD7" s="93"/>
-      <c r="AE7" s="93"/>
-      <c r="AF7" s="93"/>
-      <c r="AG7" s="93"/>
-      <c r="AH7" s="93"/>
-      <c r="AI7" s="93"/>
-      <c r="AJ7" s="93"/>
-      <c r="AK7" s="93"/>
-      <c r="AL7" s="93"/>
-      <c r="AM7" s="93"/>
-      <c r="AN7" s="93"/>
-      <c r="AO7" s="93"/>
-      <c r="AP7" s="93"/>
-      <c r="AQ7" s="93"/>
-      <c r="AR7" s="93"/>
-      <c r="AS7" s="93"/>
-      <c r="AT7" s="93"/>
-      <c r="AU7" s="93"/>
-      <c r="AV7" s="93"/>
-      <c r="AW7" s="93"/>
-      <c r="AX7" s="93"/>
-      <c r="AY7" s="93"/>
-      <c r="AZ7" s="93"/>
-      <c r="BA7" s="93"/>
-      <c r="BB7" s="93"/>
-      <c r="BC7" s="93"/>
-      <c r="BD7" s="93"/>
-      <c r="BE7" s="93"/>
-      <c r="BF7" s="93"/>
-      <c r="BG7" s="93"/>
-      <c r="BH7" s="93"/>
-      <c r="BI7" s="93"/>
-      <c r="BJ7" s="93"/>
+      <c r="J7" s="98"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="98"/>
+      <c r="T7" s="98"/>
+      <c r="U7" s="98"/>
+      <c r="V7" s="98"/>
+      <c r="W7" s="98"/>
+      <c r="X7" s="98"/>
+      <c r="Y7" s="98"/>
+      <c r="Z7" s="98"/>
+      <c r="AA7" s="98"/>
+      <c r="AB7" s="98"/>
+      <c r="AC7" s="98"/>
+      <c r="AD7" s="98"/>
+      <c r="AE7" s="98"/>
+      <c r="AF7" s="98"/>
+      <c r="AG7" s="98"/>
+      <c r="AH7" s="98"/>
+      <c r="AI7" s="98"/>
+      <c r="AJ7" s="98"/>
+      <c r="AK7" s="98"/>
+      <c r="AL7" s="98"/>
+      <c r="AM7" s="98"/>
+      <c r="AN7" s="98"/>
+      <c r="AO7" s="98"/>
+      <c r="AP7" s="98"/>
+      <c r="AQ7" s="98"/>
+      <c r="AR7" s="98"/>
+      <c r="AS7" s="98"/>
+      <c r="AT7" s="98"/>
+      <c r="AU7" s="98"/>
+      <c r="AV7" s="98"/>
+      <c r="AW7" s="98"/>
+      <c r="AX7" s="98"/>
+      <c r="AY7" s="98"/>
+      <c r="AZ7" s="98"/>
+      <c r="BA7" s="98"/>
+      <c r="BB7" s="98"/>
+      <c r="BC7" s="98"/>
+      <c r="BD7" s="98"/>
+      <c r="BE7" s="98"/>
+      <c r="BF7" s="98"/>
+      <c r="BG7" s="98"/>
+      <c r="BH7" s="98"/>
+      <c r="BI7" s="98"/>
+      <c r="BJ7" s="98"/>
       <c r="BK7" s="3"/>
       <c r="BL7" s="3"/>
       <c r="BM7" s="3"/>
@@ -4978,70 +5003,70 @@
     <row r="8" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A8" s="3"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="92" t="s">
+      <c r="C8" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="81" t="s">
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="81"/>
-      <c r="M8" s="81"/>
-      <c r="N8" s="81"/>
-      <c r="O8" s="81"/>
-      <c r="P8" s="81"/>
-      <c r="Q8" s="81"/>
-      <c r="R8" s="81"/>
-      <c r="S8" s="81"/>
-      <c r="T8" s="81"/>
-      <c r="U8" s="81"/>
-      <c r="V8" s="81"/>
-      <c r="W8" s="81"/>
-      <c r="X8" s="81"/>
-      <c r="Y8" s="81"/>
-      <c r="Z8" s="81"/>
-      <c r="AA8" s="81"/>
-      <c r="AB8" s="81"/>
-      <c r="AC8" s="81"/>
-      <c r="AD8" s="81"/>
-      <c r="AE8" s="81"/>
-      <c r="AF8" s="81"/>
-      <c r="AG8" s="81"/>
-      <c r="AH8" s="81"/>
-      <c r="AI8" s="81"/>
-      <c r="AJ8" s="81"/>
-      <c r="AK8" s="81"/>
-      <c r="AL8" s="81"/>
-      <c r="AM8" s="81"/>
-      <c r="AN8" s="81"/>
-      <c r="AO8" s="81"/>
-      <c r="AP8" s="81"/>
-      <c r="AQ8" s="81"/>
-      <c r="AR8" s="81"/>
-      <c r="AS8" s="81"/>
-      <c r="AT8" s="81"/>
-      <c r="AU8" s="81"/>
-      <c r="AV8" s="81"/>
-      <c r="AW8" s="81"/>
-      <c r="AX8" s="81"/>
-      <c r="AY8" s="81"/>
-      <c r="AZ8" s="81"/>
-      <c r="BA8" s="81"/>
-      <c r="BB8" s="81"/>
-      <c r="BC8" s="81"/>
-      <c r="BD8" s="81"/>
-      <c r="BE8" s="81"/>
-      <c r="BF8" s="81"/>
-      <c r="BG8" s="81"/>
-      <c r="BH8" s="81"/>
-      <c r="BI8" s="81"/>
-      <c r="BJ8" s="81"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
+      <c r="M8" s="113"/>
+      <c r="N8" s="113"/>
+      <c r="O8" s="113"/>
+      <c r="P8" s="113"/>
+      <c r="Q8" s="113"/>
+      <c r="R8" s="113"/>
+      <c r="S8" s="113"/>
+      <c r="T8" s="113"/>
+      <c r="U8" s="113"/>
+      <c r="V8" s="113"/>
+      <c r="W8" s="113"/>
+      <c r="X8" s="113"/>
+      <c r="Y8" s="113"/>
+      <c r="Z8" s="113"/>
+      <c r="AA8" s="113"/>
+      <c r="AB8" s="113"/>
+      <c r="AC8" s="113"/>
+      <c r="AD8" s="113"/>
+      <c r="AE8" s="113"/>
+      <c r="AF8" s="113"/>
+      <c r="AG8" s="113"/>
+      <c r="AH8" s="113"/>
+      <c r="AI8" s="113"/>
+      <c r="AJ8" s="113"/>
+      <c r="AK8" s="113"/>
+      <c r="AL8" s="113"/>
+      <c r="AM8" s="113"/>
+      <c r="AN8" s="113"/>
+      <c r="AO8" s="113"/>
+      <c r="AP8" s="113"/>
+      <c r="AQ8" s="113"/>
+      <c r="AR8" s="113"/>
+      <c r="AS8" s="113"/>
+      <c r="AT8" s="113"/>
+      <c r="AU8" s="113"/>
+      <c r="AV8" s="113"/>
+      <c r="AW8" s="113"/>
+      <c r="AX8" s="113"/>
+      <c r="AY8" s="113"/>
+      <c r="AZ8" s="113"/>
+      <c r="BA8" s="113"/>
+      <c r="BB8" s="113"/>
+      <c r="BC8" s="113"/>
+      <c r="BD8" s="113"/>
+      <c r="BE8" s="113"/>
+      <c r="BF8" s="113"/>
+      <c r="BG8" s="113"/>
+      <c r="BH8" s="113"/>
+      <c r="BI8" s="113"/>
+      <c r="BJ8" s="113"/>
       <c r="BK8" s="3"/>
       <c r="BL8" s="3"/>
       <c r="BM8" s="3"/>
@@ -5052,68 +5077,68 @@
     <row r="9" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A9" s="3"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="90" t="s">
+      <c r="C9" s="111" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="91"/>
-      <c r="I9" s="93"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="93"/>
-      <c r="L9" s="93"/>
-      <c r="M9" s="93"/>
-      <c r="N9" s="93"/>
-      <c r="O9" s="93"/>
-      <c r="P9" s="93"/>
-      <c r="Q9" s="93"/>
-      <c r="R9" s="93"/>
-      <c r="S9" s="93"/>
-      <c r="T9" s="93"/>
-      <c r="U9" s="93"/>
-      <c r="V9" s="93"/>
-      <c r="W9" s="93"/>
-      <c r="X9" s="93"/>
-      <c r="Y9" s="93"/>
-      <c r="Z9" s="93"/>
-      <c r="AA9" s="93"/>
-      <c r="AB9" s="93"/>
-      <c r="AC9" s="93"/>
-      <c r="AD9" s="93"/>
-      <c r="AE9" s="93"/>
-      <c r="AF9" s="93"/>
-      <c r="AG9" s="93"/>
-      <c r="AH9" s="93"/>
-      <c r="AI9" s="93"/>
-      <c r="AJ9" s="93"/>
-      <c r="AK9" s="93"/>
-      <c r="AL9" s="93"/>
-      <c r="AM9" s="93"/>
-      <c r="AN9" s="93"/>
-      <c r="AO9" s="93"/>
-      <c r="AP9" s="93"/>
-      <c r="AQ9" s="93"/>
-      <c r="AR9" s="93"/>
-      <c r="AS9" s="93"/>
-      <c r="AT9" s="93"/>
-      <c r="AU9" s="93"/>
-      <c r="AV9" s="93"/>
-      <c r="AW9" s="93"/>
-      <c r="AX9" s="93"/>
-      <c r="AY9" s="93"/>
-      <c r="AZ9" s="93"/>
-      <c r="BA9" s="93"/>
-      <c r="BB9" s="93"/>
-      <c r="BC9" s="93"/>
-      <c r="BD9" s="93"/>
-      <c r="BE9" s="93"/>
-      <c r="BF9" s="93"/>
-      <c r="BG9" s="93"/>
-      <c r="BH9" s="93"/>
-      <c r="BI9" s="93"/>
-      <c r="BJ9" s="93"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="98"/>
+      <c r="J9" s="98"/>
+      <c r="K9" s="98"/>
+      <c r="L9" s="98"/>
+      <c r="M9" s="98"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="98"/>
+      <c r="P9" s="98"/>
+      <c r="Q9" s="98"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="98"/>
+      <c r="AB9" s="98"/>
+      <c r="AC9" s="98"/>
+      <c r="AD9" s="98"/>
+      <c r="AE9" s="98"/>
+      <c r="AF9" s="98"/>
+      <c r="AG9" s="98"/>
+      <c r="AH9" s="98"/>
+      <c r="AI9" s="98"/>
+      <c r="AJ9" s="98"/>
+      <c r="AK9" s="98"/>
+      <c r="AL9" s="98"/>
+      <c r="AM9" s="98"/>
+      <c r="AN9" s="98"/>
+      <c r="AO9" s="98"/>
+      <c r="AP9" s="98"/>
+      <c r="AQ9" s="98"/>
+      <c r="AR9" s="98"/>
+      <c r="AS9" s="98"/>
+      <c r="AT9" s="98"/>
+      <c r="AU9" s="98"/>
+      <c r="AV9" s="98"/>
+      <c r="AW9" s="98"/>
+      <c r="AX9" s="98"/>
+      <c r="AY9" s="98"/>
+      <c r="AZ9" s="98"/>
+      <c r="BA9" s="98"/>
+      <c r="BB9" s="98"/>
+      <c r="BC9" s="98"/>
+      <c r="BD9" s="98"/>
+      <c r="BE9" s="98"/>
+      <c r="BF9" s="98"/>
+      <c r="BG9" s="98"/>
+      <c r="BH9" s="98"/>
+      <c r="BI9" s="98"/>
+      <c r="BJ9" s="98"/>
       <c r="BK9" s="3"/>
       <c r="BL9" s="3"/>
       <c r="BM9" s="3"/>
@@ -5124,70 +5149,70 @@
     <row r="10" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A10" s="3"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="96" t="s">
+      <c r="C10" s="104" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="93" t="s">
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="97"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="97"/>
-      <c r="P10" s="97"/>
-      <c r="Q10" s="97"/>
-      <c r="R10" s="97"/>
-      <c r="S10" s="97"/>
-      <c r="T10" s="97"/>
-      <c r="U10" s="97"/>
-      <c r="V10" s="97"/>
-      <c r="W10" s="97"/>
-      <c r="X10" s="97"/>
-      <c r="Y10" s="97"/>
-      <c r="Z10" s="97"/>
-      <c r="AA10" s="97"/>
-      <c r="AB10" s="97"/>
-      <c r="AC10" s="97"/>
-      <c r="AD10" s="97"/>
-      <c r="AE10" s="97"/>
-      <c r="AF10" s="97"/>
-      <c r="AG10" s="97"/>
-      <c r="AH10" s="97"/>
-      <c r="AI10" s="97"/>
-      <c r="AJ10" s="97"/>
-      <c r="AK10" s="97"/>
-      <c r="AL10" s="97"/>
-      <c r="AM10" s="97"/>
-      <c r="AN10" s="97"/>
-      <c r="AO10" s="97"/>
-      <c r="AP10" s="97"/>
-      <c r="AQ10" s="97"/>
-      <c r="AR10" s="97"/>
-      <c r="AS10" s="97"/>
-      <c r="AT10" s="97"/>
-      <c r="AU10" s="97"/>
-      <c r="AV10" s="97"/>
-      <c r="AW10" s="97"/>
-      <c r="AX10" s="97"/>
-      <c r="AY10" s="97"/>
-      <c r="AZ10" s="97"/>
-      <c r="BA10" s="97"/>
-      <c r="BB10" s="97"/>
-      <c r="BC10" s="97"/>
-      <c r="BD10" s="97"/>
-      <c r="BE10" s="97"/>
-      <c r="BF10" s="97"/>
-      <c r="BG10" s="97"/>
-      <c r="BH10" s="97"/>
-      <c r="BI10" s="97"/>
-      <c r="BJ10" s="97"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="106"/>
+      <c r="L10" s="106"/>
+      <c r="M10" s="106"/>
+      <c r="N10" s="106"/>
+      <c r="O10" s="106"/>
+      <c r="P10" s="106"/>
+      <c r="Q10" s="106"/>
+      <c r="R10" s="106"/>
+      <c r="S10" s="106"/>
+      <c r="T10" s="106"/>
+      <c r="U10" s="106"/>
+      <c r="V10" s="106"/>
+      <c r="W10" s="106"/>
+      <c r="X10" s="106"/>
+      <c r="Y10" s="106"/>
+      <c r="Z10" s="106"/>
+      <c r="AA10" s="106"/>
+      <c r="AB10" s="106"/>
+      <c r="AC10" s="106"/>
+      <c r="AD10" s="106"/>
+      <c r="AE10" s="106"/>
+      <c r="AF10" s="106"/>
+      <c r="AG10" s="106"/>
+      <c r="AH10" s="106"/>
+      <c r="AI10" s="106"/>
+      <c r="AJ10" s="106"/>
+      <c r="AK10" s="106"/>
+      <c r="AL10" s="106"/>
+      <c r="AM10" s="106"/>
+      <c r="AN10" s="106"/>
+      <c r="AO10" s="106"/>
+      <c r="AP10" s="106"/>
+      <c r="AQ10" s="106"/>
+      <c r="AR10" s="106"/>
+      <c r="AS10" s="106"/>
+      <c r="AT10" s="106"/>
+      <c r="AU10" s="106"/>
+      <c r="AV10" s="106"/>
+      <c r="AW10" s="106"/>
+      <c r="AX10" s="106"/>
+      <c r="AY10" s="106"/>
+      <c r="AZ10" s="106"/>
+      <c r="BA10" s="106"/>
+      <c r="BB10" s="106"/>
+      <c r="BC10" s="106"/>
+      <c r="BD10" s="106"/>
+      <c r="BE10" s="106"/>
+      <c r="BF10" s="106"/>
+      <c r="BG10" s="106"/>
+      <c r="BH10" s="106"/>
+      <c r="BI10" s="106"/>
+      <c r="BJ10" s="106"/>
       <c r="BK10" s="3"/>
       <c r="BL10" s="3"/>
       <c r="BM10" s="3"/>
@@ -5480,158 +5505,158 @@
     </row>
     <row r="15" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A15" s="3"/>
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="95"/>
-      <c r="K15" s="95"/>
-      <c r="L15" s="95" t="s">
+      <c r="D15" s="97"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="97"/>
+      <c r="H15" s="97"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="97"/>
+      <c r="L15" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="M15" s="95"/>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="95"/>
-      <c r="V15" s="95"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="95"/>
-      <c r="Y15" s="95"/>
-      <c r="Z15" s="95"/>
-      <c r="AA15" s="95"/>
-      <c r="AB15" s="95"/>
-      <c r="AC15" s="95" t="s">
+      <c r="M15" s="97"/>
+      <c r="N15" s="97"/>
+      <c r="O15" s="97"/>
+      <c r="P15" s="97"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="97"/>
+      <c r="S15" s="97"/>
+      <c r="T15" s="97"/>
+      <c r="U15" s="97"/>
+      <c r="V15" s="97"/>
+      <c r="W15" s="97"/>
+      <c r="X15" s="97"/>
+      <c r="Y15" s="97"/>
+      <c r="Z15" s="97"/>
+      <c r="AA15" s="97"/>
+      <c r="AB15" s="97"/>
+      <c r="AC15" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="AD15" s="95"/>
-      <c r="AE15" s="95"/>
-      <c r="AF15" s="95"/>
-      <c r="AG15" s="95"/>
-      <c r="AH15" s="95"/>
-      <c r="AI15" s="95"/>
-      <c r="AJ15" s="95"/>
-      <c r="AK15" s="95"/>
-      <c r="AL15" s="95" t="s">
+      <c r="AD15" s="97"/>
+      <c r="AE15" s="97"/>
+      <c r="AF15" s="97"/>
+      <c r="AG15" s="97"/>
+      <c r="AH15" s="97"/>
+      <c r="AI15" s="97"/>
+      <c r="AJ15" s="97"/>
+      <c r="AK15" s="97"/>
+      <c r="AL15" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="AM15" s="95"/>
-      <c r="AN15" s="95"/>
-      <c r="AO15" s="95"/>
-      <c r="AP15" s="95"/>
-      <c r="AQ15" s="95"/>
-      <c r="AR15" s="95"/>
-      <c r="AS15" s="95"/>
-      <c r="AT15" s="95"/>
-      <c r="AU15" s="95"/>
-      <c r="AV15" s="95"/>
-      <c r="AW15" s="95"/>
-      <c r="AX15" s="95"/>
-      <c r="AY15" s="95"/>
-      <c r="AZ15" s="95"/>
-      <c r="BA15" s="95"/>
-      <c r="BB15" s="95"/>
-      <c r="BC15" s="95"/>
-      <c r="BD15" s="95"/>
-      <c r="BE15" s="95"/>
-      <c r="BF15" s="95"/>
-      <c r="BG15" s="95"/>
-      <c r="BH15" s="95"/>
-      <c r="BI15" s="95"/>
-      <c r="BJ15" s="95"/>
-      <c r="BK15" s="95"/>
-      <c r="BL15" s="95"/>
-      <c r="BM15" s="95"/>
-      <c r="BN15" s="95"/>
-      <c r="BO15" s="95"/>
+      <c r="AM15" s="97"/>
+      <c r="AN15" s="97"/>
+      <c r="AO15" s="97"/>
+      <c r="AP15" s="97"/>
+      <c r="AQ15" s="97"/>
+      <c r="AR15" s="97"/>
+      <c r="AS15" s="97"/>
+      <c r="AT15" s="97"/>
+      <c r="AU15" s="97"/>
+      <c r="AV15" s="97"/>
+      <c r="AW15" s="97"/>
+      <c r="AX15" s="97"/>
+      <c r="AY15" s="97"/>
+      <c r="AZ15" s="97"/>
+      <c r="BA15" s="97"/>
+      <c r="BB15" s="97"/>
+      <c r="BC15" s="97"/>
+      <c r="BD15" s="97"/>
+      <c r="BE15" s="97"/>
+      <c r="BF15" s="97"/>
+      <c r="BG15" s="97"/>
+      <c r="BH15" s="97"/>
+      <c r="BI15" s="97"/>
+      <c r="BJ15" s="97"/>
+      <c r="BK15" s="97"/>
+      <c r="BL15" s="97"/>
+      <c r="BM15" s="97"/>
+      <c r="BN15" s="97"/>
+      <c r="BO15" s="97"/>
       <c r="BP15" s="3"/>
     </row>
     <row r="16" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A16" s="3"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="95"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="95"/>
-      <c r="K16" s="95"/>
-      <c r="L16" s="95"/>
-      <c r="M16" s="95"/>
-      <c r="N16" s="95"/>
-      <c r="O16" s="95"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="95"/>
-      <c r="R16" s="95"/>
-      <c r="S16" s="95"/>
-      <c r="T16" s="95"/>
-      <c r="U16" s="95"/>
-      <c r="V16" s="95"/>
-      <c r="W16" s="95"/>
-      <c r="X16" s="95"/>
-      <c r="Y16" s="95"/>
-      <c r="Z16" s="95"/>
-      <c r="AA16" s="95"/>
-      <c r="AB16" s="95"/>
-      <c r="AC16" s="95"/>
-      <c r="AD16" s="95"/>
-      <c r="AE16" s="95"/>
-      <c r="AF16" s="95"/>
-      <c r="AG16" s="95"/>
-      <c r="AH16" s="95"/>
-      <c r="AI16" s="95"/>
-      <c r="AJ16" s="95"/>
-      <c r="AK16" s="95"/>
-      <c r="AL16" s="95" t="s">
+      <c r="B16" s="96"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="97"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="97"/>
+      <c r="O16" s="97"/>
+      <c r="P16" s="97"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="97"/>
+      <c r="S16" s="97"/>
+      <c r="T16" s="97"/>
+      <c r="U16" s="97"/>
+      <c r="V16" s="97"/>
+      <c r="W16" s="97"/>
+      <c r="X16" s="97"/>
+      <c r="Y16" s="97"/>
+      <c r="Z16" s="97"/>
+      <c r="AA16" s="97"/>
+      <c r="AB16" s="97"/>
+      <c r="AC16" s="97"/>
+      <c r="AD16" s="97"/>
+      <c r="AE16" s="97"/>
+      <c r="AF16" s="97"/>
+      <c r="AG16" s="97"/>
+      <c r="AH16" s="97"/>
+      <c r="AI16" s="97"/>
+      <c r="AJ16" s="97"/>
+      <c r="AK16" s="97"/>
+      <c r="AL16" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="AM16" s="95"/>
-      <c r="AN16" s="95"/>
-      <c r="AO16" s="95"/>
-      <c r="AP16" s="95"/>
-      <c r="AQ16" s="95"/>
-      <c r="AR16" s="95"/>
-      <c r="AS16" s="95"/>
-      <c r="AT16" s="95"/>
-      <c r="AU16" s="95" t="s">
+      <c r="AM16" s="97"/>
+      <c r="AN16" s="97"/>
+      <c r="AO16" s="97"/>
+      <c r="AP16" s="97"/>
+      <c r="AQ16" s="97"/>
+      <c r="AR16" s="97"/>
+      <c r="AS16" s="97"/>
+      <c r="AT16" s="97"/>
+      <c r="AU16" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="AV16" s="95"/>
-      <c r="AW16" s="95"/>
-      <c r="AX16" s="95"/>
-      <c r="AY16" s="95"/>
-      <c r="AZ16" s="95" t="s">
+      <c r="AV16" s="97"/>
+      <c r="AW16" s="97"/>
+      <c r="AX16" s="97"/>
+      <c r="AY16" s="97"/>
+      <c r="AZ16" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="BA16" s="95"/>
-      <c r="BB16" s="95"/>
-      <c r="BC16" s="95"/>
-      <c r="BD16" s="95"/>
-      <c r="BE16" s="95"/>
-      <c r="BF16" s="95"/>
-      <c r="BG16" s="95"/>
-      <c r="BH16" s="95"/>
-      <c r="BI16" s="95"/>
-      <c r="BJ16" s="95"/>
-      <c r="BK16" s="95"/>
-      <c r="BL16" s="95"/>
-      <c r="BM16" s="95"/>
-      <c r="BN16" s="95"/>
-      <c r="BO16" s="95"/>
+      <c r="BA16" s="97"/>
+      <c r="BB16" s="97"/>
+      <c r="BC16" s="97"/>
+      <c r="BD16" s="97"/>
+      <c r="BE16" s="97"/>
+      <c r="BF16" s="97"/>
+      <c r="BG16" s="97"/>
+      <c r="BH16" s="97"/>
+      <c r="BI16" s="97"/>
+      <c r="BJ16" s="97"/>
+      <c r="BK16" s="97"/>
+      <c r="BL16" s="97"/>
+      <c r="BM16" s="97"/>
+      <c r="BN16" s="97"/>
+      <c r="BO16" s="97"/>
       <c r="BP16" s="3"/>
     </row>
     <row r="17" spans="1:68" s="37" customFormat="1" ht="67.5" customHeight="1" outlineLevel="1">
@@ -5640,75 +5665,75 @@
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>1</v>
       </c>
-      <c r="C17" s="88" t="s">
-        <v>97</v>
+      <c r="C17" s="117" t="s">
+        <v>96</v>
       </c>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
-      <c r="K17" s="88"/>
-      <c r="L17" s="89" t="s">
-        <v>110</v>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="118" t="s">
+        <v>109</v>
       </c>
-      <c r="M17" s="89"/>
-      <c r="N17" s="89"/>
-      <c r="O17" s="89"/>
-      <c r="P17" s="89"/>
-      <c r="Q17" s="89"/>
-      <c r="R17" s="89"/>
-      <c r="S17" s="89"/>
-      <c r="T17" s="89"/>
-      <c r="U17" s="89"/>
-      <c r="V17" s="89"/>
-      <c r="W17" s="89"/>
-      <c r="X17" s="89"/>
-      <c r="Y17" s="89"/>
-      <c r="Z17" s="89"/>
-      <c r="AA17" s="89"/>
-      <c r="AB17" s="89"/>
-      <c r="AC17" s="72"/>
-      <c r="AD17" s="72"/>
-      <c r="AE17" s="72"/>
-      <c r="AF17" s="72"/>
-      <c r="AG17" s="72"/>
-      <c r="AH17" s="72"/>
-      <c r="AI17" s="72"/>
-      <c r="AJ17" s="72"/>
-      <c r="AK17" s="72"/>
-      <c r="AL17" s="70"/>
-      <c r="AM17" s="70"/>
-      <c r="AN17" s="70"/>
-      <c r="AO17" s="70"/>
-      <c r="AP17" s="70"/>
-      <c r="AQ17" s="70"/>
-      <c r="AR17" s="70"/>
-      <c r="AS17" s="70"/>
-      <c r="AT17" s="70"/>
-      <c r="AU17" s="70"/>
-      <c r="AV17" s="70"/>
-      <c r="AW17" s="70"/>
-      <c r="AX17" s="70"/>
-      <c r="AY17" s="70"/>
-      <c r="AZ17" s="70"/>
-      <c r="BA17" s="70"/>
-      <c r="BB17" s="70"/>
-      <c r="BC17" s="70"/>
-      <c r="BD17" s="70"/>
-      <c r="BE17" s="70"/>
-      <c r="BF17" s="70"/>
-      <c r="BG17" s="70"/>
-      <c r="BH17" s="70"/>
-      <c r="BI17" s="70"/>
-      <c r="BJ17" s="70"/>
-      <c r="BK17" s="70"/>
-      <c r="BL17" s="70"/>
-      <c r="BM17" s="70"/>
-      <c r="BN17" s="70"/>
-      <c r="BO17" s="70"/>
+      <c r="M17" s="118"/>
+      <c r="N17" s="118"/>
+      <c r="O17" s="118"/>
+      <c r="P17" s="118"/>
+      <c r="Q17" s="118"/>
+      <c r="R17" s="118"/>
+      <c r="S17" s="118"/>
+      <c r="T17" s="118"/>
+      <c r="U17" s="118"/>
+      <c r="V17" s="118"/>
+      <c r="W17" s="118"/>
+      <c r="X17" s="118"/>
+      <c r="Y17" s="118"/>
+      <c r="Z17" s="118"/>
+      <c r="AA17" s="118"/>
+      <c r="AB17" s="118"/>
+      <c r="AC17" s="100"/>
+      <c r="AD17" s="100"/>
+      <c r="AE17" s="100"/>
+      <c r="AF17" s="100"/>
+      <c r="AG17" s="100"/>
+      <c r="AH17" s="100"/>
+      <c r="AI17" s="100"/>
+      <c r="AJ17" s="100"/>
+      <c r="AK17" s="100"/>
+      <c r="AL17" s="99"/>
+      <c r="AM17" s="99"/>
+      <c r="AN17" s="99"/>
+      <c r="AO17" s="99"/>
+      <c r="AP17" s="99"/>
+      <c r="AQ17" s="99"/>
+      <c r="AR17" s="99"/>
+      <c r="AS17" s="99"/>
+      <c r="AT17" s="99"/>
+      <c r="AU17" s="99"/>
+      <c r="AV17" s="99"/>
+      <c r="AW17" s="99"/>
+      <c r="AX17" s="99"/>
+      <c r="AY17" s="99"/>
+      <c r="AZ17" s="99"/>
+      <c r="BA17" s="99"/>
+      <c r="BB17" s="99"/>
+      <c r="BC17" s="99"/>
+      <c r="BD17" s="99"/>
+      <c r="BE17" s="99"/>
+      <c r="BF17" s="99"/>
+      <c r="BG17" s="99"/>
+      <c r="BH17" s="99"/>
+      <c r="BI17" s="99"/>
+      <c r="BJ17" s="99"/>
+      <c r="BK17" s="99"/>
+      <c r="BL17" s="99"/>
+      <c r="BM17" s="99"/>
+      <c r="BN17" s="99"/>
+      <c r="BO17" s="99"/>
       <c r="BP17" s="3"/>
     </row>
     <row r="18" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
@@ -5717,75 +5742,75 @@
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>2</v>
       </c>
-      <c r="C18" s="72" t="s">
+      <c r="C18" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72" t="s">
-        <v>109</v>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="100" t="s">
+        <v>108</v>
       </c>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="72"/>
-      <c r="Y18" s="72"/>
-      <c r="Z18" s="72"/>
-      <c r="AA18" s="72"/>
-      <c r="AB18" s="72"/>
-      <c r="AC18" s="72"/>
-      <c r="AD18" s="72"/>
-      <c r="AE18" s="72"/>
-      <c r="AF18" s="72"/>
-      <c r="AG18" s="72"/>
-      <c r="AH18" s="72"/>
-      <c r="AI18" s="72"/>
-      <c r="AJ18" s="72"/>
-      <c r="AK18" s="72"/>
-      <c r="AL18" s="70"/>
-      <c r="AM18" s="70"/>
-      <c r="AN18" s="70"/>
-      <c r="AO18" s="70"/>
-      <c r="AP18" s="70"/>
-      <c r="AQ18" s="70"/>
-      <c r="AR18" s="70"/>
-      <c r="AS18" s="70"/>
-      <c r="AT18" s="70"/>
-      <c r="AU18" s="70"/>
-      <c r="AV18" s="70"/>
-      <c r="AW18" s="70"/>
-      <c r="AX18" s="70"/>
-      <c r="AY18" s="70"/>
-      <c r="AZ18" s="70"/>
-      <c r="BA18" s="70"/>
-      <c r="BB18" s="70"/>
-      <c r="BC18" s="70"/>
-      <c r="BD18" s="70"/>
-      <c r="BE18" s="70"/>
-      <c r="BF18" s="70"/>
-      <c r="BG18" s="70"/>
-      <c r="BH18" s="70"/>
-      <c r="BI18" s="70"/>
-      <c r="BJ18" s="70"/>
-      <c r="BK18" s="70"/>
-      <c r="BL18" s="70"/>
-      <c r="BM18" s="70"/>
-      <c r="BN18" s="70"/>
-      <c r="BO18" s="70"/>
+      <c r="M18" s="100"/>
+      <c r="N18" s="100"/>
+      <c r="O18" s="100"/>
+      <c r="P18" s="100"/>
+      <c r="Q18" s="100"/>
+      <c r="R18" s="100"/>
+      <c r="S18" s="100"/>
+      <c r="T18" s="100"/>
+      <c r="U18" s="100"/>
+      <c r="V18" s="100"/>
+      <c r="W18" s="100"/>
+      <c r="X18" s="100"/>
+      <c r="Y18" s="100"/>
+      <c r="Z18" s="100"/>
+      <c r="AA18" s="100"/>
+      <c r="AB18" s="100"/>
+      <c r="AC18" s="100"/>
+      <c r="AD18" s="100"/>
+      <c r="AE18" s="100"/>
+      <c r="AF18" s="100"/>
+      <c r="AG18" s="100"/>
+      <c r="AH18" s="100"/>
+      <c r="AI18" s="100"/>
+      <c r="AJ18" s="100"/>
+      <c r="AK18" s="100"/>
+      <c r="AL18" s="99"/>
+      <c r="AM18" s="99"/>
+      <c r="AN18" s="99"/>
+      <c r="AO18" s="99"/>
+      <c r="AP18" s="99"/>
+      <c r="AQ18" s="99"/>
+      <c r="AR18" s="99"/>
+      <c r="AS18" s="99"/>
+      <c r="AT18" s="99"/>
+      <c r="AU18" s="99"/>
+      <c r="AV18" s="99"/>
+      <c r="AW18" s="99"/>
+      <c r="AX18" s="99"/>
+      <c r="AY18" s="99"/>
+      <c r="AZ18" s="99"/>
+      <c r="BA18" s="99"/>
+      <c r="BB18" s="99"/>
+      <c r="BC18" s="99"/>
+      <c r="BD18" s="99"/>
+      <c r="BE18" s="99"/>
+      <c r="BF18" s="99"/>
+      <c r="BG18" s="99"/>
+      <c r="BH18" s="99"/>
+      <c r="BI18" s="99"/>
+      <c r="BJ18" s="99"/>
+      <c r="BK18" s="99"/>
+      <c r="BL18" s="99"/>
+      <c r="BM18" s="99"/>
+      <c r="BN18" s="99"/>
+      <c r="BO18" s="99"/>
       <c r="BP18" s="3"/>
     </row>
     <row r="19" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
@@ -5794,75 +5819,75 @@
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>3</v>
       </c>
-      <c r="C19" s="72" t="s">
-        <v>112</v>
+      <c r="C19" s="100" t="s">
+        <v>111</v>
       </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72" t="s">
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="100"/>
+      <c r="I19" s="100"/>
+      <c r="J19" s="100"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="72"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="72"/>
-      <c r="V19" s="72"/>
-      <c r="W19" s="72"/>
-      <c r="X19" s="72"/>
-      <c r="Y19" s="72"/>
-      <c r="Z19" s="72"/>
-      <c r="AA19" s="72"/>
-      <c r="AB19" s="72"/>
-      <c r="AC19" s="72"/>
-      <c r="AD19" s="72"/>
-      <c r="AE19" s="72"/>
-      <c r="AF19" s="72"/>
-      <c r="AG19" s="72"/>
-      <c r="AH19" s="72"/>
-      <c r="AI19" s="72"/>
-      <c r="AJ19" s="72"/>
-      <c r="AK19" s="72"/>
-      <c r="AL19" s="70"/>
-      <c r="AM19" s="70"/>
-      <c r="AN19" s="70"/>
-      <c r="AO19" s="70"/>
-      <c r="AP19" s="70"/>
-      <c r="AQ19" s="70"/>
-      <c r="AR19" s="70"/>
-      <c r="AS19" s="70"/>
-      <c r="AT19" s="70"/>
-      <c r="AU19" s="70"/>
-      <c r="AV19" s="70"/>
-      <c r="AW19" s="70"/>
-      <c r="AX19" s="70"/>
-      <c r="AY19" s="70"/>
-      <c r="AZ19" s="70"/>
-      <c r="BA19" s="70"/>
-      <c r="BB19" s="70"/>
-      <c r="BC19" s="70"/>
-      <c r="BD19" s="70"/>
-      <c r="BE19" s="70"/>
-      <c r="BF19" s="70"/>
-      <c r="BG19" s="70"/>
-      <c r="BH19" s="70"/>
-      <c r="BI19" s="70"/>
-      <c r="BJ19" s="70"/>
-      <c r="BK19" s="70"/>
-      <c r="BL19" s="70"/>
-      <c r="BM19" s="70"/>
-      <c r="BN19" s="70"/>
-      <c r="BO19" s="70"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="100"/>
+      <c r="O19" s="100"/>
+      <c r="P19" s="100"/>
+      <c r="Q19" s="100"/>
+      <c r="R19" s="100"/>
+      <c r="S19" s="100"/>
+      <c r="T19" s="100"/>
+      <c r="U19" s="100"/>
+      <c r="V19" s="100"/>
+      <c r="W19" s="100"/>
+      <c r="X19" s="100"/>
+      <c r="Y19" s="100"/>
+      <c r="Z19" s="100"/>
+      <c r="AA19" s="100"/>
+      <c r="AB19" s="100"/>
+      <c r="AC19" s="100"/>
+      <c r="AD19" s="100"/>
+      <c r="AE19" s="100"/>
+      <c r="AF19" s="100"/>
+      <c r="AG19" s="100"/>
+      <c r="AH19" s="100"/>
+      <c r="AI19" s="100"/>
+      <c r="AJ19" s="100"/>
+      <c r="AK19" s="100"/>
+      <c r="AL19" s="99"/>
+      <c r="AM19" s="99"/>
+      <c r="AN19" s="99"/>
+      <c r="AO19" s="99"/>
+      <c r="AP19" s="99"/>
+      <c r="AQ19" s="99"/>
+      <c r="AR19" s="99"/>
+      <c r="AS19" s="99"/>
+      <c r="AT19" s="99"/>
+      <c r="AU19" s="99"/>
+      <c r="AV19" s="99"/>
+      <c r="AW19" s="99"/>
+      <c r="AX19" s="99"/>
+      <c r="AY19" s="99"/>
+      <c r="AZ19" s="99"/>
+      <c r="BA19" s="99"/>
+      <c r="BB19" s="99"/>
+      <c r="BC19" s="99"/>
+      <c r="BD19" s="99"/>
+      <c r="BE19" s="99"/>
+      <c r="BF19" s="99"/>
+      <c r="BG19" s="99"/>
+      <c r="BH19" s="99"/>
+      <c r="BI19" s="99"/>
+      <c r="BJ19" s="99"/>
+      <c r="BK19" s="99"/>
+      <c r="BL19" s="99"/>
+      <c r="BM19" s="99"/>
+      <c r="BN19" s="99"/>
+      <c r="BO19" s="99"/>
       <c r="BP19" s="3"/>
     </row>
     <row r="20" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
@@ -5871,75 +5896,75 @@
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>4</v>
       </c>
-      <c r="C20" s="72" t="s">
+      <c r="C20" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="D20" s="72"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
-      <c r="L20" s="72" t="s">
-        <v>108</v>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="100"/>
+      <c r="I20" s="100"/>
+      <c r="J20" s="100"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="100" t="s">
+        <v>107</v>
       </c>
-      <c r="M20" s="72"/>
-      <c r="N20" s="72"/>
-      <c r="O20" s="72"/>
-      <c r="P20" s="72"/>
-      <c r="Q20" s="72"/>
-      <c r="R20" s="72"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="72"/>
-      <c r="X20" s="72"/>
-      <c r="Y20" s="72"/>
-      <c r="Z20" s="72"/>
-      <c r="AA20" s="72"/>
-      <c r="AB20" s="72"/>
-      <c r="AC20" s="72"/>
-      <c r="AD20" s="72"/>
-      <c r="AE20" s="72"/>
-      <c r="AF20" s="72"/>
-      <c r="AG20" s="72"/>
-      <c r="AH20" s="72"/>
-      <c r="AI20" s="72"/>
-      <c r="AJ20" s="72"/>
-      <c r="AK20" s="72"/>
-      <c r="AL20" s="70"/>
-      <c r="AM20" s="70"/>
-      <c r="AN20" s="70"/>
-      <c r="AO20" s="70"/>
-      <c r="AP20" s="70"/>
-      <c r="AQ20" s="70"/>
-      <c r="AR20" s="70"/>
-      <c r="AS20" s="70"/>
-      <c r="AT20" s="70"/>
-      <c r="AU20" s="70"/>
-      <c r="AV20" s="70"/>
-      <c r="AW20" s="70"/>
-      <c r="AX20" s="70"/>
-      <c r="AY20" s="70"/>
-      <c r="AZ20" s="70"/>
-      <c r="BA20" s="70"/>
-      <c r="BB20" s="70"/>
-      <c r="BC20" s="70"/>
-      <c r="BD20" s="70"/>
-      <c r="BE20" s="70"/>
-      <c r="BF20" s="70"/>
-      <c r="BG20" s="70"/>
-      <c r="BH20" s="70"/>
-      <c r="BI20" s="70"/>
-      <c r="BJ20" s="70"/>
-      <c r="BK20" s="70"/>
-      <c r="BL20" s="70"/>
-      <c r="BM20" s="70"/>
-      <c r="BN20" s="70"/>
-      <c r="BO20" s="70"/>
+      <c r="M20" s="100"/>
+      <c r="N20" s="100"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="100"/>
+      <c r="Q20" s="100"/>
+      <c r="R20" s="100"/>
+      <c r="S20" s="100"/>
+      <c r="T20" s="100"/>
+      <c r="U20" s="100"/>
+      <c r="V20" s="100"/>
+      <c r="W20" s="100"/>
+      <c r="X20" s="100"/>
+      <c r="Y20" s="100"/>
+      <c r="Z20" s="100"/>
+      <c r="AA20" s="100"/>
+      <c r="AB20" s="100"/>
+      <c r="AC20" s="100"/>
+      <c r="AD20" s="100"/>
+      <c r="AE20" s="100"/>
+      <c r="AF20" s="100"/>
+      <c r="AG20" s="100"/>
+      <c r="AH20" s="100"/>
+      <c r="AI20" s="100"/>
+      <c r="AJ20" s="100"/>
+      <c r="AK20" s="100"/>
+      <c r="AL20" s="99"/>
+      <c r="AM20" s="99"/>
+      <c r="AN20" s="99"/>
+      <c r="AO20" s="99"/>
+      <c r="AP20" s="99"/>
+      <c r="AQ20" s="99"/>
+      <c r="AR20" s="99"/>
+      <c r="AS20" s="99"/>
+      <c r="AT20" s="99"/>
+      <c r="AU20" s="99"/>
+      <c r="AV20" s="99"/>
+      <c r="AW20" s="99"/>
+      <c r="AX20" s="99"/>
+      <c r="AY20" s="99"/>
+      <c r="AZ20" s="99"/>
+      <c r="BA20" s="99"/>
+      <c r="BB20" s="99"/>
+      <c r="BC20" s="99"/>
+      <c r="BD20" s="99"/>
+      <c r="BE20" s="99"/>
+      <c r="BF20" s="99"/>
+      <c r="BG20" s="99"/>
+      <c r="BH20" s="99"/>
+      <c r="BI20" s="99"/>
+      <c r="BJ20" s="99"/>
+      <c r="BK20" s="99"/>
+      <c r="BL20" s="99"/>
+      <c r="BM20" s="99"/>
+      <c r="BN20" s="99"/>
+      <c r="BO20" s="99"/>
       <c r="BP20" s="3"/>
     </row>
     <row r="21" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
@@ -5949,7 +5974,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="22"/>
@@ -6024,74 +6049,74 @@
         <v>6</v>
       </c>
       <c r="C22" s="24"/>
-      <c r="D22" s="71" t="s">
+      <c r="D22" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="71"/>
-      <c r="H22" s="71"/>
-      <c r="I22" s="71"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="72" t="s">
-        <v>116</v>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="107"/>
+      <c r="I22" s="107"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="100" t="s">
+        <v>115</v>
       </c>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="72"/>
-      <c r="W22" s="72"/>
-      <c r="X22" s="72"/>
-      <c r="Y22" s="72"/>
-      <c r="Z22" s="72"/>
-      <c r="AA22" s="72"/>
-      <c r="AB22" s="72"/>
-      <c r="AC22" s="72"/>
-      <c r="AD22" s="72"/>
-      <c r="AE22" s="72"/>
-      <c r="AF22" s="72"/>
-      <c r="AG22" s="72"/>
-      <c r="AH22" s="72"/>
-      <c r="AI22" s="72"/>
-      <c r="AJ22" s="72"/>
-      <c r="AK22" s="72"/>
-      <c r="AL22" s="70"/>
-      <c r="AM22" s="70"/>
-      <c r="AN22" s="70"/>
-      <c r="AO22" s="70"/>
-      <c r="AP22" s="70"/>
-      <c r="AQ22" s="70"/>
-      <c r="AR22" s="70"/>
-      <c r="AS22" s="70"/>
-      <c r="AT22" s="70"/>
-      <c r="AU22" s="70"/>
-      <c r="AV22" s="70"/>
-      <c r="AW22" s="70"/>
-      <c r="AX22" s="70"/>
-      <c r="AY22" s="70"/>
-      <c r="AZ22" s="70"/>
-      <c r="BA22" s="70"/>
-      <c r="BB22" s="70"/>
-      <c r="BC22" s="70"/>
-      <c r="BD22" s="70"/>
-      <c r="BE22" s="70"/>
-      <c r="BF22" s="70"/>
-      <c r="BG22" s="70"/>
-      <c r="BH22" s="70"/>
-      <c r="BI22" s="70"/>
-      <c r="BJ22" s="70"/>
-      <c r="BK22" s="70"/>
-      <c r="BL22" s="70"/>
-      <c r="BM22" s="70"/>
-      <c r="BN22" s="70"/>
-      <c r="BO22" s="70"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="100"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="100"/>
+      <c r="Q22" s="100"/>
+      <c r="R22" s="100"/>
+      <c r="S22" s="100"/>
+      <c r="T22" s="100"/>
+      <c r="U22" s="100"/>
+      <c r="V22" s="100"/>
+      <c r="W22" s="100"/>
+      <c r="X22" s="100"/>
+      <c r="Y22" s="100"/>
+      <c r="Z22" s="100"/>
+      <c r="AA22" s="100"/>
+      <c r="AB22" s="100"/>
+      <c r="AC22" s="100"/>
+      <c r="AD22" s="100"/>
+      <c r="AE22" s="100"/>
+      <c r="AF22" s="100"/>
+      <c r="AG22" s="100"/>
+      <c r="AH22" s="100"/>
+      <c r="AI22" s="100"/>
+      <c r="AJ22" s="100"/>
+      <c r="AK22" s="100"/>
+      <c r="AL22" s="99"/>
+      <c r="AM22" s="99"/>
+      <c r="AN22" s="99"/>
+      <c r="AO22" s="99"/>
+      <c r="AP22" s="99"/>
+      <c r="AQ22" s="99"/>
+      <c r="AR22" s="99"/>
+      <c r="AS22" s="99"/>
+      <c r="AT22" s="99"/>
+      <c r="AU22" s="99"/>
+      <c r="AV22" s="99"/>
+      <c r="AW22" s="99"/>
+      <c r="AX22" s="99"/>
+      <c r="AY22" s="99"/>
+      <c r="AZ22" s="99"/>
+      <c r="BA22" s="99"/>
+      <c r="BB22" s="99"/>
+      <c r="BC22" s="99"/>
+      <c r="BD22" s="99"/>
+      <c r="BE22" s="99"/>
+      <c r="BF22" s="99"/>
+      <c r="BG22" s="99"/>
+      <c r="BH22" s="99"/>
+      <c r="BI22" s="99"/>
+      <c r="BJ22" s="99"/>
+      <c r="BK22" s="99"/>
+      <c r="BL22" s="99"/>
+      <c r="BM22" s="99"/>
+      <c r="BN22" s="99"/>
+      <c r="BO22" s="99"/>
       <c r="BP22" s="3"/>
     </row>
     <row r="23" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
@@ -6101,74 +6126,74 @@
         <v>7</v>
       </c>
       <c r="C23" s="24"/>
-      <c r="D23" s="71" t="s">
+      <c r="D23" s="107" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="107"/>
+      <c r="F23" s="107"/>
+      <c r="G23" s="107"/>
+      <c r="H23" s="107"/>
+      <c r="I23" s="107"/>
+      <c r="J23" s="107"/>
+      <c r="K23" s="107"/>
+      <c r="L23" s="100" t="s">
         <v>139</v>
       </c>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="71"/>
-      <c r="H23" s="71"/>
-      <c r="I23" s="71"/>
-      <c r="J23" s="71"/>
-      <c r="K23" s="71"/>
-      <c r="L23" s="72" t="s">
-        <v>140</v>
-      </c>
-      <c r="M23" s="72"/>
-      <c r="N23" s="72"/>
-      <c r="O23" s="72"/>
-      <c r="P23" s="72"/>
-      <c r="Q23" s="72"/>
-      <c r="R23" s="72"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="72"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="72"/>
-      <c r="W23" s="72"/>
-      <c r="X23" s="72"/>
-      <c r="Y23" s="72"/>
-      <c r="Z23" s="72"/>
-      <c r="AA23" s="72"/>
-      <c r="AB23" s="72"/>
-      <c r="AC23" s="72"/>
-      <c r="AD23" s="72"/>
-      <c r="AE23" s="72"/>
-      <c r="AF23" s="72"/>
-      <c r="AG23" s="72"/>
-      <c r="AH23" s="72"/>
-      <c r="AI23" s="72"/>
-      <c r="AJ23" s="72"/>
-      <c r="AK23" s="72"/>
-      <c r="AL23" s="70"/>
-      <c r="AM23" s="70"/>
-      <c r="AN23" s="70"/>
-      <c r="AO23" s="70"/>
-      <c r="AP23" s="70"/>
-      <c r="AQ23" s="70"/>
-      <c r="AR23" s="70"/>
-      <c r="AS23" s="70"/>
-      <c r="AT23" s="70"/>
-      <c r="AU23" s="70"/>
-      <c r="AV23" s="70"/>
-      <c r="AW23" s="70"/>
-      <c r="AX23" s="70"/>
-      <c r="AY23" s="70"/>
-      <c r="AZ23" s="70"/>
-      <c r="BA23" s="70"/>
-      <c r="BB23" s="70"/>
-      <c r="BC23" s="70"/>
-      <c r="BD23" s="70"/>
-      <c r="BE23" s="70"/>
-      <c r="BF23" s="70"/>
-      <c r="BG23" s="70"/>
-      <c r="BH23" s="70"/>
-      <c r="BI23" s="70"/>
-      <c r="BJ23" s="70"/>
-      <c r="BK23" s="70"/>
-      <c r="BL23" s="70"/>
-      <c r="BM23" s="70"/>
-      <c r="BN23" s="70"/>
-      <c r="BO23" s="70"/>
+      <c r="M23" s="100"/>
+      <c r="N23" s="100"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="100"/>
+      <c r="Q23" s="100"/>
+      <c r="R23" s="100"/>
+      <c r="S23" s="100"/>
+      <c r="T23" s="100"/>
+      <c r="U23" s="100"/>
+      <c r="V23" s="100"/>
+      <c r="W23" s="100"/>
+      <c r="X23" s="100"/>
+      <c r="Y23" s="100"/>
+      <c r="Z23" s="100"/>
+      <c r="AA23" s="100"/>
+      <c r="AB23" s="100"/>
+      <c r="AC23" s="100"/>
+      <c r="AD23" s="100"/>
+      <c r="AE23" s="100"/>
+      <c r="AF23" s="100"/>
+      <c r="AG23" s="100"/>
+      <c r="AH23" s="100"/>
+      <c r="AI23" s="100"/>
+      <c r="AJ23" s="100"/>
+      <c r="AK23" s="100"/>
+      <c r="AL23" s="99"/>
+      <c r="AM23" s="99"/>
+      <c r="AN23" s="99"/>
+      <c r="AO23" s="99"/>
+      <c r="AP23" s="99"/>
+      <c r="AQ23" s="99"/>
+      <c r="AR23" s="99"/>
+      <c r="AS23" s="99"/>
+      <c r="AT23" s="99"/>
+      <c r="AU23" s="99"/>
+      <c r="AV23" s="99"/>
+      <c r="AW23" s="99"/>
+      <c r="AX23" s="99"/>
+      <c r="AY23" s="99"/>
+      <c r="AZ23" s="99"/>
+      <c r="BA23" s="99"/>
+      <c r="BB23" s="99"/>
+      <c r="BC23" s="99"/>
+      <c r="BD23" s="99"/>
+      <c r="BE23" s="99"/>
+      <c r="BF23" s="99"/>
+      <c r="BG23" s="99"/>
+      <c r="BH23" s="99"/>
+      <c r="BI23" s="99"/>
+      <c r="BJ23" s="99"/>
+      <c r="BK23" s="99"/>
+      <c r="BL23" s="99"/>
+      <c r="BM23" s="99"/>
+      <c r="BN23" s="99"/>
+      <c r="BO23" s="99"/>
       <c r="BP23" s="3"/>
     </row>
     <row r="24" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
@@ -6178,7 +6203,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
@@ -6253,74 +6278,74 @@
         <v>9</v>
       </c>
       <c r="C25" s="29"/>
-      <c r="D25" s="73" t="s">
-        <v>138</v>
+      <c r="D25" s="109" t="s">
+        <v>137</v>
       </c>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="73"/>
-      <c r="L25" s="74" t="s">
-        <v>117</v>
+      <c r="E25" s="109"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="109"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="109"/>
+      <c r="K25" s="109"/>
+      <c r="L25" s="110" t="s">
+        <v>116</v>
       </c>
-      <c r="M25" s="74"/>
-      <c r="N25" s="74"/>
-      <c r="O25" s="74"/>
-      <c r="P25" s="74"/>
-      <c r="Q25" s="74"/>
-      <c r="R25" s="74"/>
-      <c r="S25" s="74"/>
-      <c r="T25" s="74"/>
-      <c r="U25" s="74"/>
-      <c r="V25" s="74"/>
-      <c r="W25" s="74"/>
-      <c r="X25" s="74"/>
-      <c r="Y25" s="74"/>
-      <c r="Z25" s="74"/>
-      <c r="AA25" s="74"/>
-      <c r="AB25" s="74"/>
-      <c r="AC25" s="74"/>
-      <c r="AD25" s="74"/>
-      <c r="AE25" s="74"/>
-      <c r="AF25" s="74"/>
-      <c r="AG25" s="74"/>
-      <c r="AH25" s="74"/>
-      <c r="AI25" s="74"/>
-      <c r="AJ25" s="74"/>
-      <c r="AK25" s="74"/>
-      <c r="AL25" s="75"/>
-      <c r="AM25" s="75"/>
-      <c r="AN25" s="75"/>
-      <c r="AO25" s="75"/>
-      <c r="AP25" s="75"/>
-      <c r="AQ25" s="75"/>
-      <c r="AR25" s="75"/>
-      <c r="AS25" s="75"/>
-      <c r="AT25" s="75"/>
-      <c r="AU25" s="75"/>
-      <c r="AV25" s="75"/>
-      <c r="AW25" s="75"/>
-      <c r="AX25" s="75"/>
-      <c r="AY25" s="75"/>
-      <c r="AZ25" s="75"/>
-      <c r="BA25" s="75"/>
-      <c r="BB25" s="75"/>
-      <c r="BC25" s="75"/>
-      <c r="BD25" s="75"/>
-      <c r="BE25" s="75"/>
-      <c r="BF25" s="75"/>
-      <c r="BG25" s="75"/>
-      <c r="BH25" s="75"/>
-      <c r="BI25" s="75"/>
-      <c r="BJ25" s="75"/>
-      <c r="BK25" s="75"/>
-      <c r="BL25" s="75"/>
-      <c r="BM25" s="75"/>
-      <c r="BN25" s="75"/>
-      <c r="BO25" s="75"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="110"/>
+      <c r="O25" s="110"/>
+      <c r="P25" s="110"/>
+      <c r="Q25" s="110"/>
+      <c r="R25" s="110"/>
+      <c r="S25" s="110"/>
+      <c r="T25" s="110"/>
+      <c r="U25" s="110"/>
+      <c r="V25" s="110"/>
+      <c r="W25" s="110"/>
+      <c r="X25" s="110"/>
+      <c r="Y25" s="110"/>
+      <c r="Z25" s="110"/>
+      <c r="AA25" s="110"/>
+      <c r="AB25" s="110"/>
+      <c r="AC25" s="110"/>
+      <c r="AD25" s="110"/>
+      <c r="AE25" s="110"/>
+      <c r="AF25" s="110"/>
+      <c r="AG25" s="110"/>
+      <c r="AH25" s="110"/>
+      <c r="AI25" s="110"/>
+      <c r="AJ25" s="110"/>
+      <c r="AK25" s="110"/>
+      <c r="AL25" s="108"/>
+      <c r="AM25" s="108"/>
+      <c r="AN25" s="108"/>
+      <c r="AO25" s="108"/>
+      <c r="AP25" s="108"/>
+      <c r="AQ25" s="108"/>
+      <c r="AR25" s="108"/>
+      <c r="AS25" s="108"/>
+      <c r="AT25" s="108"/>
+      <c r="AU25" s="108"/>
+      <c r="AV25" s="108"/>
+      <c r="AW25" s="108"/>
+      <c r="AX25" s="108"/>
+      <c r="AY25" s="108"/>
+      <c r="AZ25" s="108"/>
+      <c r="BA25" s="108"/>
+      <c r="BB25" s="108"/>
+      <c r="BC25" s="108"/>
+      <c r="BD25" s="108"/>
+      <c r="BE25" s="108"/>
+      <c r="BF25" s="108"/>
+      <c r="BG25" s="108"/>
+      <c r="BH25" s="108"/>
+      <c r="BI25" s="108"/>
+      <c r="BJ25" s="108"/>
+      <c r="BK25" s="108"/>
+      <c r="BL25" s="108"/>
+      <c r="BM25" s="108"/>
+      <c r="BN25" s="108"/>
+      <c r="BO25" s="108"/>
       <c r="BP25" s="3"/>
     </row>
     <row r="26" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
@@ -6330,74 +6355,74 @@
         <v>10</v>
       </c>
       <c r="C26" s="29"/>
-      <c r="D26" s="73" t="s">
+      <c r="D26" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="73"/>
-      <c r="K26" s="73"/>
-      <c r="L26" s="74" t="s">
-        <v>121</v>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="109"/>
+      <c r="H26" s="109"/>
+      <c r="I26" s="109"/>
+      <c r="J26" s="109"/>
+      <c r="K26" s="109"/>
+      <c r="L26" s="110" t="s">
+        <v>120</v>
       </c>
-      <c r="M26" s="74"/>
-      <c r="N26" s="74"/>
-      <c r="O26" s="74"/>
-      <c r="P26" s="74"/>
-      <c r="Q26" s="74"/>
-      <c r="R26" s="74"/>
-      <c r="S26" s="74"/>
-      <c r="T26" s="74"/>
-      <c r="U26" s="74"/>
-      <c r="V26" s="74"/>
-      <c r="W26" s="74"/>
-      <c r="X26" s="74"/>
-      <c r="Y26" s="74"/>
-      <c r="Z26" s="74"/>
-      <c r="AA26" s="74"/>
-      <c r="AB26" s="74"/>
-      <c r="AC26" s="74"/>
-      <c r="AD26" s="74"/>
-      <c r="AE26" s="74"/>
-      <c r="AF26" s="74"/>
-      <c r="AG26" s="74"/>
-      <c r="AH26" s="74"/>
-      <c r="AI26" s="74"/>
-      <c r="AJ26" s="74"/>
-      <c r="AK26" s="74"/>
-      <c r="AL26" s="75"/>
-      <c r="AM26" s="75"/>
-      <c r="AN26" s="75"/>
-      <c r="AO26" s="75"/>
-      <c r="AP26" s="75"/>
-      <c r="AQ26" s="75"/>
-      <c r="AR26" s="75"/>
-      <c r="AS26" s="75"/>
-      <c r="AT26" s="75"/>
-      <c r="AU26" s="75"/>
-      <c r="AV26" s="75"/>
-      <c r="AW26" s="75"/>
-      <c r="AX26" s="75"/>
-      <c r="AY26" s="75"/>
-      <c r="AZ26" s="75"/>
-      <c r="BA26" s="75"/>
-      <c r="BB26" s="75"/>
-      <c r="BC26" s="75"/>
-      <c r="BD26" s="75"/>
-      <c r="BE26" s="75"/>
-      <c r="BF26" s="75"/>
-      <c r="BG26" s="75"/>
-      <c r="BH26" s="75"/>
-      <c r="BI26" s="75"/>
-      <c r="BJ26" s="75"/>
-      <c r="BK26" s="75"/>
-      <c r="BL26" s="75"/>
-      <c r="BM26" s="75"/>
-      <c r="BN26" s="75"/>
-      <c r="BO26" s="75"/>
+      <c r="M26" s="110"/>
+      <c r="N26" s="110"/>
+      <c r="O26" s="110"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="110"/>
+      <c r="R26" s="110"/>
+      <c r="S26" s="110"/>
+      <c r="T26" s="110"/>
+      <c r="U26" s="110"/>
+      <c r="V26" s="110"/>
+      <c r="W26" s="110"/>
+      <c r="X26" s="110"/>
+      <c r="Y26" s="110"/>
+      <c r="Z26" s="110"/>
+      <c r="AA26" s="110"/>
+      <c r="AB26" s="110"/>
+      <c r="AC26" s="110"/>
+      <c r="AD26" s="110"/>
+      <c r="AE26" s="110"/>
+      <c r="AF26" s="110"/>
+      <c r="AG26" s="110"/>
+      <c r="AH26" s="110"/>
+      <c r="AI26" s="110"/>
+      <c r="AJ26" s="110"/>
+      <c r="AK26" s="110"/>
+      <c r="AL26" s="108"/>
+      <c r="AM26" s="108"/>
+      <c r="AN26" s="108"/>
+      <c r="AO26" s="108"/>
+      <c r="AP26" s="108"/>
+      <c r="AQ26" s="108"/>
+      <c r="AR26" s="108"/>
+      <c r="AS26" s="108"/>
+      <c r="AT26" s="108"/>
+      <c r="AU26" s="108"/>
+      <c r="AV26" s="108"/>
+      <c r="AW26" s="108"/>
+      <c r="AX26" s="108"/>
+      <c r="AY26" s="108"/>
+      <c r="AZ26" s="108"/>
+      <c r="BA26" s="108"/>
+      <c r="BB26" s="108"/>
+      <c r="BC26" s="108"/>
+      <c r="BD26" s="108"/>
+      <c r="BE26" s="108"/>
+      <c r="BF26" s="108"/>
+      <c r="BG26" s="108"/>
+      <c r="BH26" s="108"/>
+      <c r="BI26" s="108"/>
+      <c r="BJ26" s="108"/>
+      <c r="BK26" s="108"/>
+      <c r="BL26" s="108"/>
+      <c r="BM26" s="108"/>
+      <c r="BN26" s="108"/>
+      <c r="BO26" s="108"/>
       <c r="BP26" s="3"/>
     </row>
     <row r="27" spans="1:68" s="37" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
@@ -6407,74 +6432,74 @@
         <v>11</v>
       </c>
       <c r="C27" s="28"/>
-      <c r="D27" s="71" t="s">
-        <v>139</v>
+      <c r="D27" s="107" t="s">
+        <v>138</v>
       </c>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
-      <c r="L27" s="74" t="s">
-        <v>141</v>
+      <c r="E27" s="107"/>
+      <c r="F27" s="107"/>
+      <c r="G27" s="107"/>
+      <c r="H27" s="107"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="107"/>
+      <c r="L27" s="110" t="s">
+        <v>140</v>
       </c>
-      <c r="M27" s="74"/>
-      <c r="N27" s="74"/>
-      <c r="O27" s="74"/>
-      <c r="P27" s="74"/>
-      <c r="Q27" s="74"/>
-      <c r="R27" s="74"/>
-      <c r="S27" s="74"/>
-      <c r="T27" s="74"/>
-      <c r="U27" s="74"/>
-      <c r="V27" s="74"/>
-      <c r="W27" s="74"/>
-      <c r="X27" s="74"/>
-      <c r="Y27" s="74"/>
-      <c r="Z27" s="74"/>
-      <c r="AA27" s="74"/>
-      <c r="AB27" s="74"/>
-      <c r="AC27" s="74"/>
-      <c r="AD27" s="74"/>
-      <c r="AE27" s="74"/>
-      <c r="AF27" s="74"/>
-      <c r="AG27" s="74"/>
-      <c r="AH27" s="74"/>
-      <c r="AI27" s="74"/>
-      <c r="AJ27" s="74"/>
-      <c r="AK27" s="74"/>
-      <c r="AL27" s="75"/>
-      <c r="AM27" s="75"/>
-      <c r="AN27" s="75"/>
-      <c r="AO27" s="75"/>
-      <c r="AP27" s="75"/>
-      <c r="AQ27" s="75"/>
-      <c r="AR27" s="75"/>
-      <c r="AS27" s="75"/>
-      <c r="AT27" s="75"/>
-      <c r="AU27" s="75"/>
-      <c r="AV27" s="75"/>
-      <c r="AW27" s="75"/>
-      <c r="AX27" s="75"/>
-      <c r="AY27" s="75"/>
-      <c r="AZ27" s="75"/>
-      <c r="BA27" s="75"/>
-      <c r="BB27" s="75"/>
-      <c r="BC27" s="75"/>
-      <c r="BD27" s="75"/>
-      <c r="BE27" s="75"/>
-      <c r="BF27" s="75"/>
-      <c r="BG27" s="75"/>
-      <c r="BH27" s="75"/>
-      <c r="BI27" s="75"/>
-      <c r="BJ27" s="75"/>
-      <c r="BK27" s="75"/>
-      <c r="BL27" s="75"/>
-      <c r="BM27" s="75"/>
-      <c r="BN27" s="75"/>
-      <c r="BO27" s="75"/>
+      <c r="M27" s="110"/>
+      <c r="N27" s="110"/>
+      <c r="O27" s="110"/>
+      <c r="P27" s="110"/>
+      <c r="Q27" s="110"/>
+      <c r="R27" s="110"/>
+      <c r="S27" s="110"/>
+      <c r="T27" s="110"/>
+      <c r="U27" s="110"/>
+      <c r="V27" s="110"/>
+      <c r="W27" s="110"/>
+      <c r="X27" s="110"/>
+      <c r="Y27" s="110"/>
+      <c r="Z27" s="110"/>
+      <c r="AA27" s="110"/>
+      <c r="AB27" s="110"/>
+      <c r="AC27" s="110"/>
+      <c r="AD27" s="110"/>
+      <c r="AE27" s="110"/>
+      <c r="AF27" s="110"/>
+      <c r="AG27" s="110"/>
+      <c r="AH27" s="110"/>
+      <c r="AI27" s="110"/>
+      <c r="AJ27" s="110"/>
+      <c r="AK27" s="110"/>
+      <c r="AL27" s="108"/>
+      <c r="AM27" s="108"/>
+      <c r="AN27" s="108"/>
+      <c r="AO27" s="108"/>
+      <c r="AP27" s="108"/>
+      <c r="AQ27" s="108"/>
+      <c r="AR27" s="108"/>
+      <c r="AS27" s="108"/>
+      <c r="AT27" s="108"/>
+      <c r="AU27" s="108"/>
+      <c r="AV27" s="108"/>
+      <c r="AW27" s="108"/>
+      <c r="AX27" s="108"/>
+      <c r="AY27" s="108"/>
+      <c r="AZ27" s="108"/>
+      <c r="BA27" s="108"/>
+      <c r="BB27" s="108"/>
+      <c r="BC27" s="108"/>
+      <c r="BD27" s="108"/>
+      <c r="BE27" s="108"/>
+      <c r="BF27" s="108"/>
+      <c r="BG27" s="108"/>
+      <c r="BH27" s="108"/>
+      <c r="BI27" s="108"/>
+      <c r="BJ27" s="108"/>
+      <c r="BK27" s="108"/>
+      <c r="BL27" s="108"/>
+      <c r="BM27" s="108"/>
+      <c r="BN27" s="108"/>
+      <c r="BO27" s="108"/>
       <c r="BP27" s="3"/>
     </row>
     <row r="28" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
@@ -6483,75 +6508,75 @@
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>12</v>
       </c>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="72"/>
-      <c r="J28" s="72"/>
-      <c r="K28" s="72"/>
-      <c r="L28" s="72" t="s">
-        <v>109</v>
+      <c r="D28" s="100"/>
+      <c r="E28" s="100"/>
+      <c r="F28" s="100"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="100"/>
+      <c r="I28" s="100"/>
+      <c r="J28" s="100"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="100" t="s">
+        <v>108</v>
       </c>
-      <c r="M28" s="72"/>
-      <c r="N28" s="72"/>
-      <c r="O28" s="72"/>
-      <c r="P28" s="72"/>
-      <c r="Q28" s="72"/>
-      <c r="R28" s="72"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="72"/>
-      <c r="U28" s="72"/>
-      <c r="V28" s="72"/>
-      <c r="W28" s="72"/>
-      <c r="X28" s="72"/>
-      <c r="Y28" s="72"/>
-      <c r="Z28" s="72"/>
-      <c r="AA28" s="72"/>
-      <c r="AB28" s="72"/>
-      <c r="AC28" s="72"/>
-      <c r="AD28" s="72"/>
-      <c r="AE28" s="72"/>
-      <c r="AF28" s="72"/>
-      <c r="AG28" s="72"/>
-      <c r="AH28" s="72"/>
-      <c r="AI28" s="72"/>
-      <c r="AJ28" s="72"/>
-      <c r="AK28" s="72"/>
-      <c r="AL28" s="70"/>
-      <c r="AM28" s="70"/>
-      <c r="AN28" s="70"/>
-      <c r="AO28" s="70"/>
-      <c r="AP28" s="70"/>
-      <c r="AQ28" s="70"/>
-      <c r="AR28" s="70"/>
-      <c r="AS28" s="70"/>
-      <c r="AT28" s="70"/>
-      <c r="AU28" s="70"/>
-      <c r="AV28" s="70"/>
-      <c r="AW28" s="70"/>
-      <c r="AX28" s="70"/>
-      <c r="AY28" s="70"/>
-      <c r="AZ28" s="70"/>
-      <c r="BA28" s="70"/>
-      <c r="BB28" s="70"/>
-      <c r="BC28" s="70"/>
-      <c r="BD28" s="70"/>
-      <c r="BE28" s="70"/>
-      <c r="BF28" s="70"/>
-      <c r="BG28" s="70"/>
-      <c r="BH28" s="70"/>
-      <c r="BI28" s="70"/>
-      <c r="BJ28" s="70"/>
-      <c r="BK28" s="70"/>
-      <c r="BL28" s="70"/>
-      <c r="BM28" s="70"/>
-      <c r="BN28" s="70"/>
-      <c r="BO28" s="70"/>
+      <c r="M28" s="100"/>
+      <c r="N28" s="100"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="100"/>
+      <c r="Q28" s="100"/>
+      <c r="R28" s="100"/>
+      <c r="S28" s="100"/>
+      <c r="T28" s="100"/>
+      <c r="U28" s="100"/>
+      <c r="V28" s="100"/>
+      <c r="W28" s="100"/>
+      <c r="X28" s="100"/>
+      <c r="Y28" s="100"/>
+      <c r="Z28" s="100"/>
+      <c r="AA28" s="100"/>
+      <c r="AB28" s="100"/>
+      <c r="AC28" s="100"/>
+      <c r="AD28" s="100"/>
+      <c r="AE28" s="100"/>
+      <c r="AF28" s="100"/>
+      <c r="AG28" s="100"/>
+      <c r="AH28" s="100"/>
+      <c r="AI28" s="100"/>
+      <c r="AJ28" s="100"/>
+      <c r="AK28" s="100"/>
+      <c r="AL28" s="99"/>
+      <c r="AM28" s="99"/>
+      <c r="AN28" s="99"/>
+      <c r="AO28" s="99"/>
+      <c r="AP28" s="99"/>
+      <c r="AQ28" s="99"/>
+      <c r="AR28" s="99"/>
+      <c r="AS28" s="99"/>
+      <c r="AT28" s="99"/>
+      <c r="AU28" s="99"/>
+      <c r="AV28" s="99"/>
+      <c r="AW28" s="99"/>
+      <c r="AX28" s="99"/>
+      <c r="AY28" s="99"/>
+      <c r="AZ28" s="99"/>
+      <c r="BA28" s="99"/>
+      <c r="BB28" s="99"/>
+      <c r="BC28" s="99"/>
+      <c r="BD28" s="99"/>
+      <c r="BE28" s="99"/>
+      <c r="BF28" s="99"/>
+      <c r="BG28" s="99"/>
+      <c r="BH28" s="99"/>
+      <c r="BI28" s="99"/>
+      <c r="BJ28" s="99"/>
+      <c r="BK28" s="99"/>
+      <c r="BL28" s="99"/>
+      <c r="BM28" s="99"/>
+      <c r="BN28" s="99"/>
+      <c r="BO28" s="99"/>
       <c r="BP28" s="3"/>
     </row>
     <row r="29" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
@@ -6560,75 +6585,75 @@
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>13</v>
       </c>
-      <c r="C29" s="72" t="s">
-        <v>114</v>
+      <c r="C29" s="100" t="s">
+        <v>113</v>
       </c>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="72"/>
-      <c r="K29" s="72"/>
-      <c r="L29" s="72" t="s">
-        <v>126</v>
+      <c r="D29" s="100"/>
+      <c r="E29" s="100"/>
+      <c r="F29" s="100"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="100"/>
+      <c r="I29" s="100"/>
+      <c r="J29" s="100"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="100" t="s">
+        <v>125</v>
       </c>
-      <c r="M29" s="72"/>
-      <c r="N29" s="72"/>
-      <c r="O29" s="72"/>
-      <c r="P29" s="72"/>
-      <c r="Q29" s="72"/>
-      <c r="R29" s="72"/>
-      <c r="S29" s="72"/>
-      <c r="T29" s="72"/>
-      <c r="U29" s="72"/>
-      <c r="V29" s="72"/>
-      <c r="W29" s="72"/>
-      <c r="X29" s="72"/>
-      <c r="Y29" s="72"/>
-      <c r="Z29" s="72"/>
-      <c r="AA29" s="72"/>
-      <c r="AB29" s="72"/>
-      <c r="AC29" s="72"/>
-      <c r="AD29" s="72"/>
-      <c r="AE29" s="72"/>
-      <c r="AF29" s="72"/>
-      <c r="AG29" s="72"/>
-      <c r="AH29" s="72"/>
-      <c r="AI29" s="72"/>
-      <c r="AJ29" s="72"/>
-      <c r="AK29" s="72"/>
-      <c r="AL29" s="70"/>
-      <c r="AM29" s="70"/>
-      <c r="AN29" s="70"/>
-      <c r="AO29" s="70"/>
-      <c r="AP29" s="70"/>
-      <c r="AQ29" s="70"/>
-      <c r="AR29" s="70"/>
-      <c r="AS29" s="70"/>
-      <c r="AT29" s="70"/>
-      <c r="AU29" s="70"/>
-      <c r="AV29" s="70"/>
-      <c r="AW29" s="70"/>
-      <c r="AX29" s="70"/>
-      <c r="AY29" s="70"/>
-      <c r="AZ29" s="70"/>
-      <c r="BA29" s="70"/>
-      <c r="BB29" s="70"/>
-      <c r="BC29" s="70"/>
-      <c r="BD29" s="70"/>
-      <c r="BE29" s="70"/>
-      <c r="BF29" s="70"/>
-      <c r="BG29" s="70"/>
-      <c r="BH29" s="70"/>
-      <c r="BI29" s="70"/>
-      <c r="BJ29" s="70"/>
-      <c r="BK29" s="70"/>
-      <c r="BL29" s="70"/>
-      <c r="BM29" s="70"/>
-      <c r="BN29" s="70"/>
-      <c r="BO29" s="70"/>
+      <c r="M29" s="100"/>
+      <c r="N29" s="100"/>
+      <c r="O29" s="100"/>
+      <c r="P29" s="100"/>
+      <c r="Q29" s="100"/>
+      <c r="R29" s="100"/>
+      <c r="S29" s="100"/>
+      <c r="T29" s="100"/>
+      <c r="U29" s="100"/>
+      <c r="V29" s="100"/>
+      <c r="W29" s="100"/>
+      <c r="X29" s="100"/>
+      <c r="Y29" s="100"/>
+      <c r="Z29" s="100"/>
+      <c r="AA29" s="100"/>
+      <c r="AB29" s="100"/>
+      <c r="AC29" s="100"/>
+      <c r="AD29" s="100"/>
+      <c r="AE29" s="100"/>
+      <c r="AF29" s="100"/>
+      <c r="AG29" s="100"/>
+      <c r="AH29" s="100"/>
+      <c r="AI29" s="100"/>
+      <c r="AJ29" s="100"/>
+      <c r="AK29" s="100"/>
+      <c r="AL29" s="99"/>
+      <c r="AM29" s="99"/>
+      <c r="AN29" s="99"/>
+      <c r="AO29" s="99"/>
+      <c r="AP29" s="99"/>
+      <c r="AQ29" s="99"/>
+      <c r="AR29" s="99"/>
+      <c r="AS29" s="99"/>
+      <c r="AT29" s="99"/>
+      <c r="AU29" s="99"/>
+      <c r="AV29" s="99"/>
+      <c r="AW29" s="99"/>
+      <c r="AX29" s="99"/>
+      <c r="AY29" s="99"/>
+      <c r="AZ29" s="99"/>
+      <c r="BA29" s="99"/>
+      <c r="BB29" s="99"/>
+      <c r="BC29" s="99"/>
+      <c r="BD29" s="99"/>
+      <c r="BE29" s="99"/>
+      <c r="BF29" s="99"/>
+      <c r="BG29" s="99"/>
+      <c r="BH29" s="99"/>
+      <c r="BI29" s="99"/>
+      <c r="BJ29" s="99"/>
+      <c r="BK29" s="99"/>
+      <c r="BL29" s="99"/>
+      <c r="BM29" s="99"/>
+      <c r="BN29" s="99"/>
+      <c r="BO29" s="99"/>
       <c r="BP29" s="3"/>
     </row>
     <row r="30" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
@@ -6637,75 +6662,75 @@
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>14</v>
       </c>
-      <c r="C30" s="72" t="s">
+      <c r="C30" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
-      <c r="J30" s="72"/>
-      <c r="K30" s="72"/>
-      <c r="L30" s="72" t="s">
-        <v>108</v>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="100"/>
+      <c r="I30" s="100"/>
+      <c r="J30" s="100"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="100" t="s">
+        <v>107</v>
       </c>
-      <c r="M30" s="72"/>
-      <c r="N30" s="72"/>
-      <c r="O30" s="72"/>
-      <c r="P30" s="72"/>
-      <c r="Q30" s="72"/>
-      <c r="R30" s="72"/>
-      <c r="S30" s="72"/>
-      <c r="T30" s="72"/>
-      <c r="U30" s="72"/>
-      <c r="V30" s="72"/>
-      <c r="W30" s="72"/>
-      <c r="X30" s="72"/>
-      <c r="Y30" s="72"/>
-      <c r="Z30" s="72"/>
-      <c r="AA30" s="72"/>
-      <c r="AB30" s="72"/>
-      <c r="AC30" s="72"/>
-      <c r="AD30" s="72"/>
-      <c r="AE30" s="72"/>
-      <c r="AF30" s="72"/>
-      <c r="AG30" s="72"/>
-      <c r="AH30" s="72"/>
-      <c r="AI30" s="72"/>
-      <c r="AJ30" s="72"/>
-      <c r="AK30" s="72"/>
-      <c r="AL30" s="70"/>
-      <c r="AM30" s="70"/>
-      <c r="AN30" s="70"/>
-      <c r="AO30" s="70"/>
-      <c r="AP30" s="70"/>
-      <c r="AQ30" s="70"/>
-      <c r="AR30" s="70"/>
-      <c r="AS30" s="70"/>
-      <c r="AT30" s="70"/>
-      <c r="AU30" s="70"/>
-      <c r="AV30" s="70"/>
-      <c r="AW30" s="70"/>
-      <c r="AX30" s="70"/>
-      <c r="AY30" s="70"/>
-      <c r="AZ30" s="70"/>
-      <c r="BA30" s="70"/>
-      <c r="BB30" s="70"/>
-      <c r="BC30" s="70"/>
-      <c r="BD30" s="70"/>
-      <c r="BE30" s="70"/>
-      <c r="BF30" s="70"/>
-      <c r="BG30" s="70"/>
-      <c r="BH30" s="70"/>
-      <c r="BI30" s="70"/>
-      <c r="BJ30" s="70"/>
-      <c r="BK30" s="70"/>
-      <c r="BL30" s="70"/>
-      <c r="BM30" s="70"/>
-      <c r="BN30" s="70"/>
-      <c r="BO30" s="70"/>
+      <c r="M30" s="100"/>
+      <c r="N30" s="100"/>
+      <c r="O30" s="100"/>
+      <c r="P30" s="100"/>
+      <c r="Q30" s="100"/>
+      <c r="R30" s="100"/>
+      <c r="S30" s="100"/>
+      <c r="T30" s="100"/>
+      <c r="U30" s="100"/>
+      <c r="V30" s="100"/>
+      <c r="W30" s="100"/>
+      <c r="X30" s="100"/>
+      <c r="Y30" s="100"/>
+      <c r="Z30" s="100"/>
+      <c r="AA30" s="100"/>
+      <c r="AB30" s="100"/>
+      <c r="AC30" s="100"/>
+      <c r="AD30" s="100"/>
+      <c r="AE30" s="100"/>
+      <c r="AF30" s="100"/>
+      <c r="AG30" s="100"/>
+      <c r="AH30" s="100"/>
+      <c r="AI30" s="100"/>
+      <c r="AJ30" s="100"/>
+      <c r="AK30" s="100"/>
+      <c r="AL30" s="99"/>
+      <c r="AM30" s="99"/>
+      <c r="AN30" s="99"/>
+      <c r="AO30" s="99"/>
+      <c r="AP30" s="99"/>
+      <c r="AQ30" s="99"/>
+      <c r="AR30" s="99"/>
+      <c r="AS30" s="99"/>
+      <c r="AT30" s="99"/>
+      <c r="AU30" s="99"/>
+      <c r="AV30" s="99"/>
+      <c r="AW30" s="99"/>
+      <c r="AX30" s="99"/>
+      <c r="AY30" s="99"/>
+      <c r="AZ30" s="99"/>
+      <c r="BA30" s="99"/>
+      <c r="BB30" s="99"/>
+      <c r="BC30" s="99"/>
+      <c r="BD30" s="99"/>
+      <c r="BE30" s="99"/>
+      <c r="BF30" s="99"/>
+      <c r="BG30" s="99"/>
+      <c r="BH30" s="99"/>
+      <c r="BI30" s="99"/>
+      <c r="BJ30" s="99"/>
+      <c r="BK30" s="99"/>
+      <c r="BL30" s="99"/>
+      <c r="BM30" s="99"/>
+      <c r="BN30" s="99"/>
+      <c r="BO30" s="99"/>
       <c r="BP30" s="3"/>
     </row>
     <row r="31" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
@@ -6715,7 +6740,7 @@
         <v>15</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
@@ -6790,74 +6815,74 @@
         <v>16</v>
       </c>
       <c r="C32" s="24"/>
-      <c r="D32" s="71" t="s">
+      <c r="D32" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
-      <c r="L32" s="72" t="s">
-        <v>118</v>
+      <c r="E32" s="107"/>
+      <c r="F32" s="107"/>
+      <c r="G32" s="107"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="107"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="100" t="s">
+        <v>117</v>
       </c>
-      <c r="M32" s="72"/>
-      <c r="N32" s="72"/>
-      <c r="O32" s="72"/>
-      <c r="P32" s="72"/>
-      <c r="Q32" s="72"/>
-      <c r="R32" s="72"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="72"/>
-      <c r="W32" s="72"/>
-      <c r="X32" s="72"/>
-      <c r="Y32" s="72"/>
-      <c r="Z32" s="72"/>
-      <c r="AA32" s="72"/>
-      <c r="AB32" s="72"/>
-      <c r="AC32" s="72"/>
-      <c r="AD32" s="72"/>
-      <c r="AE32" s="72"/>
-      <c r="AF32" s="72"/>
-      <c r="AG32" s="72"/>
-      <c r="AH32" s="72"/>
-      <c r="AI32" s="72"/>
-      <c r="AJ32" s="72"/>
-      <c r="AK32" s="72"/>
-      <c r="AL32" s="70"/>
-      <c r="AM32" s="70"/>
-      <c r="AN32" s="70"/>
-      <c r="AO32" s="70"/>
-      <c r="AP32" s="70"/>
-      <c r="AQ32" s="70"/>
-      <c r="AR32" s="70"/>
-      <c r="AS32" s="70"/>
-      <c r="AT32" s="70"/>
-      <c r="AU32" s="70"/>
-      <c r="AV32" s="70"/>
-      <c r="AW32" s="70"/>
-      <c r="AX32" s="70"/>
-      <c r="AY32" s="70"/>
-      <c r="AZ32" s="70"/>
-      <c r="BA32" s="70"/>
-      <c r="BB32" s="70"/>
-      <c r="BC32" s="70"/>
-      <c r="BD32" s="70"/>
-      <c r="BE32" s="70"/>
-      <c r="BF32" s="70"/>
-      <c r="BG32" s="70"/>
-      <c r="BH32" s="70"/>
-      <c r="BI32" s="70"/>
-      <c r="BJ32" s="70"/>
-      <c r="BK32" s="70"/>
-      <c r="BL32" s="70"/>
-      <c r="BM32" s="70"/>
-      <c r="BN32" s="70"/>
-      <c r="BO32" s="70"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
+      <c r="P32" s="100"/>
+      <c r="Q32" s="100"/>
+      <c r="R32" s="100"/>
+      <c r="S32" s="100"/>
+      <c r="T32" s="100"/>
+      <c r="U32" s="100"/>
+      <c r="V32" s="100"/>
+      <c r="W32" s="100"/>
+      <c r="X32" s="100"/>
+      <c r="Y32" s="100"/>
+      <c r="Z32" s="100"/>
+      <c r="AA32" s="100"/>
+      <c r="AB32" s="100"/>
+      <c r="AC32" s="100"/>
+      <c r="AD32" s="100"/>
+      <c r="AE32" s="100"/>
+      <c r="AF32" s="100"/>
+      <c r="AG32" s="100"/>
+      <c r="AH32" s="100"/>
+      <c r="AI32" s="100"/>
+      <c r="AJ32" s="100"/>
+      <c r="AK32" s="100"/>
+      <c r="AL32" s="99"/>
+      <c r="AM32" s="99"/>
+      <c r="AN32" s="99"/>
+      <c r="AO32" s="99"/>
+      <c r="AP32" s="99"/>
+      <c r="AQ32" s="99"/>
+      <c r="AR32" s="99"/>
+      <c r="AS32" s="99"/>
+      <c r="AT32" s="99"/>
+      <c r="AU32" s="99"/>
+      <c r="AV32" s="99"/>
+      <c r="AW32" s="99"/>
+      <c r="AX32" s="99"/>
+      <c r="AY32" s="99"/>
+      <c r="AZ32" s="99"/>
+      <c r="BA32" s="99"/>
+      <c r="BB32" s="99"/>
+      <c r="BC32" s="99"/>
+      <c r="BD32" s="99"/>
+      <c r="BE32" s="99"/>
+      <c r="BF32" s="99"/>
+      <c r="BG32" s="99"/>
+      <c r="BH32" s="99"/>
+      <c r="BI32" s="99"/>
+      <c r="BJ32" s="99"/>
+      <c r="BK32" s="99"/>
+      <c r="BL32" s="99"/>
+      <c r="BM32" s="99"/>
+      <c r="BN32" s="99"/>
+      <c r="BO32" s="99"/>
       <c r="BP32" s="3"/>
     </row>
     <row r="33" spans="1:68" s="37" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
@@ -6867,74 +6892,74 @@
         <v>17</v>
       </c>
       <c r="C33" s="24"/>
-      <c r="D33" s="71" t="s">
-        <v>139</v>
+      <c r="D33" s="107" t="s">
+        <v>138</v>
       </c>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="72" t="s">
-        <v>142</v>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="107"/>
+      <c r="I33" s="107"/>
+      <c r="J33" s="107"/>
+      <c r="K33" s="107"/>
+      <c r="L33" s="100" t="s">
+        <v>141</v>
       </c>
-      <c r="M33" s="72"/>
-      <c r="N33" s="72"/>
-      <c r="O33" s="72"/>
-      <c r="P33" s="72"/>
-      <c r="Q33" s="72"/>
-      <c r="R33" s="72"/>
-      <c r="S33" s="72"/>
-      <c r="T33" s="72"/>
-      <c r="U33" s="72"/>
-      <c r="V33" s="72"/>
-      <c r="W33" s="72"/>
-      <c r="X33" s="72"/>
-      <c r="Y33" s="72"/>
-      <c r="Z33" s="72"/>
-      <c r="AA33" s="72"/>
-      <c r="AB33" s="72"/>
-      <c r="AC33" s="72"/>
-      <c r="AD33" s="72"/>
-      <c r="AE33" s="72"/>
-      <c r="AF33" s="72"/>
-      <c r="AG33" s="72"/>
-      <c r="AH33" s="72"/>
-      <c r="AI33" s="72"/>
-      <c r="AJ33" s="72"/>
-      <c r="AK33" s="72"/>
-      <c r="AL33" s="70"/>
-      <c r="AM33" s="70"/>
-      <c r="AN33" s="70"/>
-      <c r="AO33" s="70"/>
-      <c r="AP33" s="70"/>
-      <c r="AQ33" s="70"/>
-      <c r="AR33" s="70"/>
-      <c r="AS33" s="70"/>
-      <c r="AT33" s="70"/>
-      <c r="AU33" s="70"/>
-      <c r="AV33" s="70"/>
-      <c r="AW33" s="70"/>
-      <c r="AX33" s="70"/>
-      <c r="AY33" s="70"/>
-      <c r="AZ33" s="70"/>
-      <c r="BA33" s="70"/>
-      <c r="BB33" s="70"/>
-      <c r="BC33" s="70"/>
-      <c r="BD33" s="70"/>
-      <c r="BE33" s="70"/>
-      <c r="BF33" s="70"/>
-      <c r="BG33" s="70"/>
-      <c r="BH33" s="70"/>
-      <c r="BI33" s="70"/>
-      <c r="BJ33" s="70"/>
-      <c r="BK33" s="70"/>
-      <c r="BL33" s="70"/>
-      <c r="BM33" s="70"/>
-      <c r="BN33" s="70"/>
-      <c r="BO33" s="70"/>
+      <c r="M33" s="100"/>
+      <c r="N33" s="100"/>
+      <c r="O33" s="100"/>
+      <c r="P33" s="100"/>
+      <c r="Q33" s="100"/>
+      <c r="R33" s="100"/>
+      <c r="S33" s="100"/>
+      <c r="T33" s="100"/>
+      <c r="U33" s="100"/>
+      <c r="V33" s="100"/>
+      <c r="W33" s="100"/>
+      <c r="X33" s="100"/>
+      <c r="Y33" s="100"/>
+      <c r="Z33" s="100"/>
+      <c r="AA33" s="100"/>
+      <c r="AB33" s="100"/>
+      <c r="AC33" s="100"/>
+      <c r="AD33" s="100"/>
+      <c r="AE33" s="100"/>
+      <c r="AF33" s="100"/>
+      <c r="AG33" s="100"/>
+      <c r="AH33" s="100"/>
+      <c r="AI33" s="100"/>
+      <c r="AJ33" s="100"/>
+      <c r="AK33" s="100"/>
+      <c r="AL33" s="99"/>
+      <c r="AM33" s="99"/>
+      <c r="AN33" s="99"/>
+      <c r="AO33" s="99"/>
+      <c r="AP33" s="99"/>
+      <c r="AQ33" s="99"/>
+      <c r="AR33" s="99"/>
+      <c r="AS33" s="99"/>
+      <c r="AT33" s="99"/>
+      <c r="AU33" s="99"/>
+      <c r="AV33" s="99"/>
+      <c r="AW33" s="99"/>
+      <c r="AX33" s="99"/>
+      <c r="AY33" s="99"/>
+      <c r="AZ33" s="99"/>
+      <c r="BA33" s="99"/>
+      <c r="BB33" s="99"/>
+      <c r="BC33" s="99"/>
+      <c r="BD33" s="99"/>
+      <c r="BE33" s="99"/>
+      <c r="BF33" s="99"/>
+      <c r="BG33" s="99"/>
+      <c r="BH33" s="99"/>
+      <c r="BI33" s="99"/>
+      <c r="BJ33" s="99"/>
+      <c r="BK33" s="99"/>
+      <c r="BL33" s="99"/>
+      <c r="BM33" s="99"/>
+      <c r="BN33" s="99"/>
+      <c r="BO33" s="99"/>
       <c r="BP33" s="3"/>
     </row>
     <row r="34" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
@@ -6944,7 +6969,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D34" s="26"/>
       <c r="E34" s="26"/>
@@ -7019,74 +7044,74 @@
         <v>19</v>
       </c>
       <c r="C35" s="29"/>
-      <c r="D35" s="73" t="s">
-        <v>138</v>
+      <c r="D35" s="109" t="s">
+        <v>137</v>
       </c>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
-      <c r="H35" s="73"/>
-      <c r="I35" s="73"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="73"/>
-      <c r="L35" s="74" t="s">
-        <v>119</v>
+      <c r="E35" s="109"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="109"/>
+      <c r="H35" s="109"/>
+      <c r="I35" s="109"/>
+      <c r="J35" s="109"/>
+      <c r="K35" s="109"/>
+      <c r="L35" s="110" t="s">
+        <v>118</v>
       </c>
-      <c r="M35" s="74"/>
-      <c r="N35" s="74"/>
-      <c r="O35" s="74"/>
-      <c r="P35" s="74"/>
-      <c r="Q35" s="74"/>
-      <c r="R35" s="74"/>
-      <c r="S35" s="74"/>
-      <c r="T35" s="74"/>
-      <c r="U35" s="74"/>
-      <c r="V35" s="74"/>
-      <c r="W35" s="74"/>
-      <c r="X35" s="74"/>
-      <c r="Y35" s="74"/>
-      <c r="Z35" s="74"/>
-      <c r="AA35" s="74"/>
-      <c r="AB35" s="74"/>
-      <c r="AC35" s="74"/>
-      <c r="AD35" s="74"/>
-      <c r="AE35" s="74"/>
-      <c r="AF35" s="74"/>
-      <c r="AG35" s="74"/>
-      <c r="AH35" s="74"/>
-      <c r="AI35" s="74"/>
-      <c r="AJ35" s="74"/>
-      <c r="AK35" s="74"/>
-      <c r="AL35" s="75"/>
-      <c r="AM35" s="75"/>
-      <c r="AN35" s="75"/>
-      <c r="AO35" s="75"/>
-      <c r="AP35" s="75"/>
-      <c r="AQ35" s="75"/>
-      <c r="AR35" s="75"/>
-      <c r="AS35" s="75"/>
-      <c r="AT35" s="75"/>
-      <c r="AU35" s="75"/>
-      <c r="AV35" s="75"/>
-      <c r="AW35" s="75"/>
-      <c r="AX35" s="75"/>
-      <c r="AY35" s="75"/>
-      <c r="AZ35" s="75"/>
-      <c r="BA35" s="75"/>
-      <c r="BB35" s="75"/>
-      <c r="BC35" s="75"/>
-      <c r="BD35" s="75"/>
-      <c r="BE35" s="75"/>
-      <c r="BF35" s="75"/>
-      <c r="BG35" s="75"/>
-      <c r="BH35" s="75"/>
-      <c r="BI35" s="75"/>
-      <c r="BJ35" s="75"/>
-      <c r="BK35" s="75"/>
-      <c r="BL35" s="75"/>
-      <c r="BM35" s="75"/>
-      <c r="BN35" s="75"/>
-      <c r="BO35" s="75"/>
+      <c r="M35" s="110"/>
+      <c r="N35" s="110"/>
+      <c r="O35" s="110"/>
+      <c r="P35" s="110"/>
+      <c r="Q35" s="110"/>
+      <c r="R35" s="110"/>
+      <c r="S35" s="110"/>
+      <c r="T35" s="110"/>
+      <c r="U35" s="110"/>
+      <c r="V35" s="110"/>
+      <c r="W35" s="110"/>
+      <c r="X35" s="110"/>
+      <c r="Y35" s="110"/>
+      <c r="Z35" s="110"/>
+      <c r="AA35" s="110"/>
+      <c r="AB35" s="110"/>
+      <c r="AC35" s="110"/>
+      <c r="AD35" s="110"/>
+      <c r="AE35" s="110"/>
+      <c r="AF35" s="110"/>
+      <c r="AG35" s="110"/>
+      <c r="AH35" s="110"/>
+      <c r="AI35" s="110"/>
+      <c r="AJ35" s="110"/>
+      <c r="AK35" s="110"/>
+      <c r="AL35" s="108"/>
+      <c r="AM35" s="108"/>
+      <c r="AN35" s="108"/>
+      <c r="AO35" s="108"/>
+      <c r="AP35" s="108"/>
+      <c r="AQ35" s="108"/>
+      <c r="AR35" s="108"/>
+      <c r="AS35" s="108"/>
+      <c r="AT35" s="108"/>
+      <c r="AU35" s="108"/>
+      <c r="AV35" s="108"/>
+      <c r="AW35" s="108"/>
+      <c r="AX35" s="108"/>
+      <c r="AY35" s="108"/>
+      <c r="AZ35" s="108"/>
+      <c r="BA35" s="108"/>
+      <c r="BB35" s="108"/>
+      <c r="BC35" s="108"/>
+      <c r="BD35" s="108"/>
+      <c r="BE35" s="108"/>
+      <c r="BF35" s="108"/>
+      <c r="BG35" s="108"/>
+      <c r="BH35" s="108"/>
+      <c r="BI35" s="108"/>
+      <c r="BJ35" s="108"/>
+      <c r="BK35" s="108"/>
+      <c r="BL35" s="108"/>
+      <c r="BM35" s="108"/>
+      <c r="BN35" s="108"/>
+      <c r="BO35" s="108"/>
       <c r="BP35" s="3"/>
     </row>
     <row r="36" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
@@ -7096,74 +7121,74 @@
         <v>20</v>
       </c>
       <c r="C36" s="29"/>
-      <c r="D36" s="73" t="s">
+      <c r="D36" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="73"/>
-      <c r="F36" s="73"/>
-      <c r="G36" s="73"/>
-      <c r="H36" s="73"/>
-      <c r="I36" s="73"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="73"/>
-      <c r="L36" s="74" t="s">
-        <v>120</v>
+      <c r="E36" s="109"/>
+      <c r="F36" s="109"/>
+      <c r="G36" s="109"/>
+      <c r="H36" s="109"/>
+      <c r="I36" s="109"/>
+      <c r="J36" s="109"/>
+      <c r="K36" s="109"/>
+      <c r="L36" s="110" t="s">
+        <v>119</v>
       </c>
-      <c r="M36" s="74"/>
-      <c r="N36" s="74"/>
-      <c r="O36" s="74"/>
-      <c r="P36" s="74"/>
-      <c r="Q36" s="74"/>
-      <c r="R36" s="74"/>
-      <c r="S36" s="74"/>
-      <c r="T36" s="74"/>
-      <c r="U36" s="74"/>
-      <c r="V36" s="74"/>
-      <c r="W36" s="74"/>
-      <c r="X36" s="74"/>
-      <c r="Y36" s="74"/>
-      <c r="Z36" s="74"/>
-      <c r="AA36" s="74"/>
-      <c r="AB36" s="74"/>
-      <c r="AC36" s="74"/>
-      <c r="AD36" s="74"/>
-      <c r="AE36" s="74"/>
-      <c r="AF36" s="74"/>
-      <c r="AG36" s="74"/>
-      <c r="AH36" s="74"/>
-      <c r="AI36" s="74"/>
-      <c r="AJ36" s="74"/>
-      <c r="AK36" s="74"/>
-      <c r="AL36" s="75"/>
-      <c r="AM36" s="75"/>
-      <c r="AN36" s="75"/>
-      <c r="AO36" s="75"/>
-      <c r="AP36" s="75"/>
-      <c r="AQ36" s="75"/>
-      <c r="AR36" s="75"/>
-      <c r="AS36" s="75"/>
-      <c r="AT36" s="75"/>
-      <c r="AU36" s="75"/>
-      <c r="AV36" s="75"/>
-      <c r="AW36" s="75"/>
-      <c r="AX36" s="75"/>
-      <c r="AY36" s="75"/>
-      <c r="AZ36" s="75"/>
-      <c r="BA36" s="75"/>
-      <c r="BB36" s="75"/>
-      <c r="BC36" s="75"/>
-      <c r="BD36" s="75"/>
-      <c r="BE36" s="75"/>
-      <c r="BF36" s="75"/>
-      <c r="BG36" s="75"/>
-      <c r="BH36" s="75"/>
-      <c r="BI36" s="75"/>
-      <c r="BJ36" s="75"/>
-      <c r="BK36" s="75"/>
-      <c r="BL36" s="75"/>
-      <c r="BM36" s="75"/>
-      <c r="BN36" s="75"/>
-      <c r="BO36" s="75"/>
+      <c r="M36" s="110"/>
+      <c r="N36" s="110"/>
+      <c r="O36" s="110"/>
+      <c r="P36" s="110"/>
+      <c r="Q36" s="110"/>
+      <c r="R36" s="110"/>
+      <c r="S36" s="110"/>
+      <c r="T36" s="110"/>
+      <c r="U36" s="110"/>
+      <c r="V36" s="110"/>
+      <c r="W36" s="110"/>
+      <c r="X36" s="110"/>
+      <c r="Y36" s="110"/>
+      <c r="Z36" s="110"/>
+      <c r="AA36" s="110"/>
+      <c r="AB36" s="110"/>
+      <c r="AC36" s="110"/>
+      <c r="AD36" s="110"/>
+      <c r="AE36" s="110"/>
+      <c r="AF36" s="110"/>
+      <c r="AG36" s="110"/>
+      <c r="AH36" s="110"/>
+      <c r="AI36" s="110"/>
+      <c r="AJ36" s="110"/>
+      <c r="AK36" s="110"/>
+      <c r="AL36" s="108"/>
+      <c r="AM36" s="108"/>
+      <c r="AN36" s="108"/>
+      <c r="AO36" s="108"/>
+      <c r="AP36" s="108"/>
+      <c r="AQ36" s="108"/>
+      <c r="AR36" s="108"/>
+      <c r="AS36" s="108"/>
+      <c r="AT36" s="108"/>
+      <c r="AU36" s="108"/>
+      <c r="AV36" s="108"/>
+      <c r="AW36" s="108"/>
+      <c r="AX36" s="108"/>
+      <c r="AY36" s="108"/>
+      <c r="AZ36" s="108"/>
+      <c r="BA36" s="108"/>
+      <c r="BB36" s="108"/>
+      <c r="BC36" s="108"/>
+      <c r="BD36" s="108"/>
+      <c r="BE36" s="108"/>
+      <c r="BF36" s="108"/>
+      <c r="BG36" s="108"/>
+      <c r="BH36" s="108"/>
+      <c r="BI36" s="108"/>
+      <c r="BJ36" s="108"/>
+      <c r="BK36" s="108"/>
+      <c r="BL36" s="108"/>
+      <c r="BM36" s="108"/>
+      <c r="BN36" s="108"/>
+      <c r="BO36" s="108"/>
       <c r="BP36" s="3"/>
     </row>
     <row r="37" spans="1:68" s="37" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
@@ -7173,74 +7198,74 @@
         <v>21</v>
       </c>
       <c r="C37" s="28"/>
-      <c r="D37" s="71" t="s">
-        <v>139</v>
+      <c r="D37" s="107" t="s">
+        <v>138</v>
       </c>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="74" t="s">
-        <v>143</v>
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="107"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="107"/>
+      <c r="L37" s="110" t="s">
+        <v>142</v>
       </c>
-      <c r="M37" s="74"/>
-      <c r="N37" s="74"/>
-      <c r="O37" s="74"/>
-      <c r="P37" s="74"/>
-      <c r="Q37" s="74"/>
-      <c r="R37" s="74"/>
-      <c r="S37" s="74"/>
-      <c r="T37" s="74"/>
-      <c r="U37" s="74"/>
-      <c r="V37" s="74"/>
-      <c r="W37" s="74"/>
-      <c r="X37" s="74"/>
-      <c r="Y37" s="74"/>
-      <c r="Z37" s="74"/>
-      <c r="AA37" s="74"/>
-      <c r="AB37" s="74"/>
-      <c r="AC37" s="72"/>
-      <c r="AD37" s="72"/>
-      <c r="AE37" s="72"/>
-      <c r="AF37" s="72"/>
-      <c r="AG37" s="72"/>
-      <c r="AH37" s="72"/>
-      <c r="AI37" s="72"/>
-      <c r="AJ37" s="72"/>
-      <c r="AK37" s="72"/>
-      <c r="AL37" s="70"/>
-      <c r="AM37" s="70"/>
-      <c r="AN37" s="70"/>
-      <c r="AO37" s="70"/>
-      <c r="AP37" s="70"/>
-      <c r="AQ37" s="70"/>
-      <c r="AR37" s="70"/>
-      <c r="AS37" s="70"/>
-      <c r="AT37" s="70"/>
-      <c r="AU37" s="70"/>
-      <c r="AV37" s="70"/>
-      <c r="AW37" s="70"/>
-      <c r="AX37" s="70"/>
-      <c r="AY37" s="70"/>
-      <c r="AZ37" s="70"/>
-      <c r="BA37" s="70"/>
-      <c r="BB37" s="70"/>
-      <c r="BC37" s="70"/>
-      <c r="BD37" s="70"/>
-      <c r="BE37" s="70"/>
-      <c r="BF37" s="70"/>
-      <c r="BG37" s="70"/>
-      <c r="BH37" s="70"/>
-      <c r="BI37" s="70"/>
-      <c r="BJ37" s="70"/>
-      <c r="BK37" s="70"/>
-      <c r="BL37" s="70"/>
-      <c r="BM37" s="70"/>
-      <c r="BN37" s="70"/>
-      <c r="BO37" s="70"/>
+      <c r="M37" s="110"/>
+      <c r="N37" s="110"/>
+      <c r="O37" s="110"/>
+      <c r="P37" s="110"/>
+      <c r="Q37" s="110"/>
+      <c r="R37" s="110"/>
+      <c r="S37" s="110"/>
+      <c r="T37" s="110"/>
+      <c r="U37" s="110"/>
+      <c r="V37" s="110"/>
+      <c r="W37" s="110"/>
+      <c r="X37" s="110"/>
+      <c r="Y37" s="110"/>
+      <c r="Z37" s="110"/>
+      <c r="AA37" s="110"/>
+      <c r="AB37" s="110"/>
+      <c r="AC37" s="100"/>
+      <c r="AD37" s="100"/>
+      <c r="AE37" s="100"/>
+      <c r="AF37" s="100"/>
+      <c r="AG37" s="100"/>
+      <c r="AH37" s="100"/>
+      <c r="AI37" s="100"/>
+      <c r="AJ37" s="100"/>
+      <c r="AK37" s="100"/>
+      <c r="AL37" s="99"/>
+      <c r="AM37" s="99"/>
+      <c r="AN37" s="99"/>
+      <c r="AO37" s="99"/>
+      <c r="AP37" s="99"/>
+      <c r="AQ37" s="99"/>
+      <c r="AR37" s="99"/>
+      <c r="AS37" s="99"/>
+      <c r="AT37" s="99"/>
+      <c r="AU37" s="99"/>
+      <c r="AV37" s="99"/>
+      <c r="AW37" s="99"/>
+      <c r="AX37" s="99"/>
+      <c r="AY37" s="99"/>
+      <c r="AZ37" s="99"/>
+      <c r="BA37" s="99"/>
+      <c r="BB37" s="99"/>
+      <c r="BC37" s="99"/>
+      <c r="BD37" s="99"/>
+      <c r="BE37" s="99"/>
+      <c r="BF37" s="99"/>
+      <c r="BG37" s="99"/>
+      <c r="BH37" s="99"/>
+      <c r="BI37" s="99"/>
+      <c r="BJ37" s="99"/>
+      <c r="BK37" s="99"/>
+      <c r="BL37" s="99"/>
+      <c r="BM37" s="99"/>
+      <c r="BN37" s="99"/>
+      <c r="BO37" s="99"/>
       <c r="BP37" s="3"/>
     </row>
     <row r="38" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
@@ -7249,75 +7274,75 @@
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>22</v>
       </c>
-      <c r="C38" s="72" t="s">
+      <c r="C38" s="100" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="72"/>
-      <c r="E38" s="72"/>
-      <c r="F38" s="72"/>
-      <c r="G38" s="72"/>
-      <c r="H38" s="72"/>
-      <c r="I38" s="72"/>
-      <c r="J38" s="72"/>
-      <c r="K38" s="72"/>
-      <c r="L38" s="72" t="s">
-        <v>109</v>
+      <c r="D38" s="100"/>
+      <c r="E38" s="100"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="100"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="100" t="s">
+        <v>108</v>
       </c>
-      <c r="M38" s="72"/>
-      <c r="N38" s="72"/>
-      <c r="O38" s="72"/>
-      <c r="P38" s="72"/>
-      <c r="Q38" s="72"/>
-      <c r="R38" s="72"/>
-      <c r="S38" s="72"/>
-      <c r="T38" s="72"/>
-      <c r="U38" s="72"/>
-      <c r="V38" s="72"/>
-      <c r="W38" s="72"/>
-      <c r="X38" s="72"/>
-      <c r="Y38" s="72"/>
-      <c r="Z38" s="72"/>
-      <c r="AA38" s="72"/>
-      <c r="AB38" s="72"/>
-      <c r="AC38" s="72"/>
-      <c r="AD38" s="72"/>
-      <c r="AE38" s="72"/>
-      <c r="AF38" s="72"/>
-      <c r="AG38" s="72"/>
-      <c r="AH38" s="72"/>
-      <c r="AI38" s="72"/>
-      <c r="AJ38" s="72"/>
-      <c r="AK38" s="72"/>
-      <c r="AL38" s="70"/>
-      <c r="AM38" s="70"/>
-      <c r="AN38" s="70"/>
-      <c r="AO38" s="70"/>
-      <c r="AP38" s="70"/>
-      <c r="AQ38" s="70"/>
-      <c r="AR38" s="70"/>
-      <c r="AS38" s="70"/>
-      <c r="AT38" s="70"/>
-      <c r="AU38" s="70"/>
-      <c r="AV38" s="70"/>
-      <c r="AW38" s="70"/>
-      <c r="AX38" s="70"/>
-      <c r="AY38" s="70"/>
-      <c r="AZ38" s="70"/>
-      <c r="BA38" s="70"/>
-      <c r="BB38" s="70"/>
-      <c r="BC38" s="70"/>
-      <c r="BD38" s="70"/>
-      <c r="BE38" s="70"/>
-      <c r="BF38" s="70"/>
-      <c r="BG38" s="70"/>
-      <c r="BH38" s="70"/>
-      <c r="BI38" s="70"/>
-      <c r="BJ38" s="70"/>
-      <c r="BK38" s="70"/>
-      <c r="BL38" s="70"/>
-      <c r="BM38" s="70"/>
-      <c r="BN38" s="70"/>
-      <c r="BO38" s="70"/>
+      <c r="M38" s="100"/>
+      <c r="N38" s="100"/>
+      <c r="O38" s="100"/>
+      <c r="P38" s="100"/>
+      <c r="Q38" s="100"/>
+      <c r="R38" s="100"/>
+      <c r="S38" s="100"/>
+      <c r="T38" s="100"/>
+      <c r="U38" s="100"/>
+      <c r="V38" s="100"/>
+      <c r="W38" s="100"/>
+      <c r="X38" s="100"/>
+      <c r="Y38" s="100"/>
+      <c r="Z38" s="100"/>
+      <c r="AA38" s="100"/>
+      <c r="AB38" s="100"/>
+      <c r="AC38" s="100"/>
+      <c r="AD38" s="100"/>
+      <c r="AE38" s="100"/>
+      <c r="AF38" s="100"/>
+      <c r="AG38" s="100"/>
+      <c r="AH38" s="100"/>
+      <c r="AI38" s="100"/>
+      <c r="AJ38" s="100"/>
+      <c r="AK38" s="100"/>
+      <c r="AL38" s="99"/>
+      <c r="AM38" s="99"/>
+      <c r="AN38" s="99"/>
+      <c r="AO38" s="99"/>
+      <c r="AP38" s="99"/>
+      <c r="AQ38" s="99"/>
+      <c r="AR38" s="99"/>
+      <c r="AS38" s="99"/>
+      <c r="AT38" s="99"/>
+      <c r="AU38" s="99"/>
+      <c r="AV38" s="99"/>
+      <c r="AW38" s="99"/>
+      <c r="AX38" s="99"/>
+      <c r="AY38" s="99"/>
+      <c r="AZ38" s="99"/>
+      <c r="BA38" s="99"/>
+      <c r="BB38" s="99"/>
+      <c r="BC38" s="99"/>
+      <c r="BD38" s="99"/>
+      <c r="BE38" s="99"/>
+      <c r="BF38" s="99"/>
+      <c r="BG38" s="99"/>
+      <c r="BH38" s="99"/>
+      <c r="BI38" s="99"/>
+      <c r="BJ38" s="99"/>
+      <c r="BK38" s="99"/>
+      <c r="BL38" s="99"/>
+      <c r="BM38" s="99"/>
+      <c r="BN38" s="99"/>
+      <c r="BO38" s="99"/>
       <c r="BP38" s="3"/>
     </row>
     <row r="39" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
@@ -7326,75 +7351,75 @@
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>23</v>
       </c>
-      <c r="C39" s="72" t="s">
-        <v>115</v>
+      <c r="C39" s="100" t="s">
+        <v>114</v>
       </c>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
-      <c r="H39" s="72"/>
-      <c r="I39" s="72"/>
-      <c r="J39" s="72"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72" t="s">
-        <v>127</v>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="100"/>
+      <c r="K39" s="100"/>
+      <c r="L39" s="100" t="s">
+        <v>126</v>
       </c>
-      <c r="M39" s="72"/>
-      <c r="N39" s="72"/>
-      <c r="O39" s="72"/>
-      <c r="P39" s="72"/>
-      <c r="Q39" s="72"/>
-      <c r="R39" s="72"/>
-      <c r="S39" s="72"/>
-      <c r="T39" s="72"/>
-      <c r="U39" s="72"/>
-      <c r="V39" s="72"/>
-      <c r="W39" s="72"/>
-      <c r="X39" s="72"/>
-      <c r="Y39" s="72"/>
-      <c r="Z39" s="72"/>
-      <c r="AA39" s="72"/>
-      <c r="AB39" s="72"/>
-      <c r="AC39" s="72"/>
-      <c r="AD39" s="72"/>
-      <c r="AE39" s="72"/>
-      <c r="AF39" s="72"/>
-      <c r="AG39" s="72"/>
-      <c r="AH39" s="72"/>
-      <c r="AI39" s="72"/>
-      <c r="AJ39" s="72"/>
-      <c r="AK39" s="72"/>
-      <c r="AL39" s="70"/>
-      <c r="AM39" s="70"/>
-      <c r="AN39" s="70"/>
-      <c r="AO39" s="70"/>
-      <c r="AP39" s="70"/>
-      <c r="AQ39" s="70"/>
-      <c r="AR39" s="70"/>
-      <c r="AS39" s="70"/>
-      <c r="AT39" s="70"/>
-      <c r="AU39" s="70"/>
-      <c r="AV39" s="70"/>
-      <c r="AW39" s="70"/>
-      <c r="AX39" s="70"/>
-      <c r="AY39" s="70"/>
-      <c r="AZ39" s="70"/>
-      <c r="BA39" s="70"/>
-      <c r="BB39" s="70"/>
-      <c r="BC39" s="70"/>
-      <c r="BD39" s="70"/>
-      <c r="BE39" s="70"/>
-      <c r="BF39" s="70"/>
-      <c r="BG39" s="70"/>
-      <c r="BH39" s="70"/>
-      <c r="BI39" s="70"/>
-      <c r="BJ39" s="70"/>
-      <c r="BK39" s="70"/>
-      <c r="BL39" s="70"/>
-      <c r="BM39" s="70"/>
-      <c r="BN39" s="70"/>
-      <c r="BO39" s="70"/>
+      <c r="M39" s="100"/>
+      <c r="N39" s="100"/>
+      <c r="O39" s="100"/>
+      <c r="P39" s="100"/>
+      <c r="Q39" s="100"/>
+      <c r="R39" s="100"/>
+      <c r="S39" s="100"/>
+      <c r="T39" s="100"/>
+      <c r="U39" s="100"/>
+      <c r="V39" s="100"/>
+      <c r="W39" s="100"/>
+      <c r="X39" s="100"/>
+      <c r="Y39" s="100"/>
+      <c r="Z39" s="100"/>
+      <c r="AA39" s="100"/>
+      <c r="AB39" s="100"/>
+      <c r="AC39" s="100"/>
+      <c r="AD39" s="100"/>
+      <c r="AE39" s="100"/>
+      <c r="AF39" s="100"/>
+      <c r="AG39" s="100"/>
+      <c r="AH39" s="100"/>
+      <c r="AI39" s="100"/>
+      <c r="AJ39" s="100"/>
+      <c r="AK39" s="100"/>
+      <c r="AL39" s="99"/>
+      <c r="AM39" s="99"/>
+      <c r="AN39" s="99"/>
+      <c r="AO39" s="99"/>
+      <c r="AP39" s="99"/>
+      <c r="AQ39" s="99"/>
+      <c r="AR39" s="99"/>
+      <c r="AS39" s="99"/>
+      <c r="AT39" s="99"/>
+      <c r="AU39" s="99"/>
+      <c r="AV39" s="99"/>
+      <c r="AW39" s="99"/>
+      <c r="AX39" s="99"/>
+      <c r="AY39" s="99"/>
+      <c r="AZ39" s="99"/>
+      <c r="BA39" s="99"/>
+      <c r="BB39" s="99"/>
+      <c r="BC39" s="99"/>
+      <c r="BD39" s="99"/>
+      <c r="BE39" s="99"/>
+      <c r="BF39" s="99"/>
+      <c r="BG39" s="99"/>
+      <c r="BH39" s="99"/>
+      <c r="BI39" s="99"/>
+      <c r="BJ39" s="99"/>
+      <c r="BK39" s="99"/>
+      <c r="BL39" s="99"/>
+      <c r="BM39" s="99"/>
+      <c r="BN39" s="99"/>
+      <c r="BO39" s="99"/>
       <c r="BP39" s="3"/>
     </row>
     <row r="40" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
@@ -7403,75 +7428,75 @@
         <f ca="1">MAX(B$15:INDIRECT("B"&amp;ROW()-1))+1</f>
         <v>24</v>
       </c>
-      <c r="C40" s="72" t="s">
+      <c r="C40" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="D40" s="72"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="72"/>
-      <c r="G40" s="72"/>
-      <c r="H40" s="72"/>
-      <c r="I40" s="72"/>
-      <c r="J40" s="72"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72" t="s">
-        <v>108</v>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="100"/>
+      <c r="K40" s="100"/>
+      <c r="L40" s="100" t="s">
+        <v>107</v>
       </c>
-      <c r="M40" s="72"/>
-      <c r="N40" s="72"/>
-      <c r="O40" s="72"/>
-      <c r="P40" s="72"/>
-      <c r="Q40" s="72"/>
-      <c r="R40" s="72"/>
-      <c r="S40" s="72"/>
-      <c r="T40" s="72"/>
-      <c r="U40" s="72"/>
-      <c r="V40" s="72"/>
-      <c r="W40" s="72"/>
-      <c r="X40" s="72"/>
-      <c r="Y40" s="72"/>
-      <c r="Z40" s="72"/>
-      <c r="AA40" s="72"/>
-      <c r="AB40" s="72"/>
-      <c r="AC40" s="72"/>
-      <c r="AD40" s="72"/>
-      <c r="AE40" s="72"/>
-      <c r="AF40" s="72"/>
-      <c r="AG40" s="72"/>
-      <c r="AH40" s="72"/>
-      <c r="AI40" s="72"/>
-      <c r="AJ40" s="72"/>
-      <c r="AK40" s="72"/>
-      <c r="AL40" s="70"/>
-      <c r="AM40" s="70"/>
-      <c r="AN40" s="70"/>
-      <c r="AO40" s="70"/>
-      <c r="AP40" s="70"/>
-      <c r="AQ40" s="70"/>
-      <c r="AR40" s="70"/>
-      <c r="AS40" s="70"/>
-      <c r="AT40" s="70"/>
-      <c r="AU40" s="70"/>
-      <c r="AV40" s="70"/>
-      <c r="AW40" s="70"/>
-      <c r="AX40" s="70"/>
-      <c r="AY40" s="70"/>
-      <c r="AZ40" s="70"/>
-      <c r="BA40" s="70"/>
-      <c r="BB40" s="70"/>
-      <c r="BC40" s="70"/>
-      <c r="BD40" s="70"/>
-      <c r="BE40" s="70"/>
-      <c r="BF40" s="70"/>
-      <c r="BG40" s="70"/>
-      <c r="BH40" s="70"/>
-      <c r="BI40" s="70"/>
-      <c r="BJ40" s="70"/>
-      <c r="BK40" s="70"/>
-      <c r="BL40" s="70"/>
-      <c r="BM40" s="70"/>
-      <c r="BN40" s="70"/>
-      <c r="BO40" s="70"/>
+      <c r="M40" s="100"/>
+      <c r="N40" s="100"/>
+      <c r="O40" s="100"/>
+      <c r="P40" s="100"/>
+      <c r="Q40" s="100"/>
+      <c r="R40" s="100"/>
+      <c r="S40" s="100"/>
+      <c r="T40" s="100"/>
+      <c r="U40" s="100"/>
+      <c r="V40" s="100"/>
+      <c r="W40" s="100"/>
+      <c r="X40" s="100"/>
+      <c r="Y40" s="100"/>
+      <c r="Z40" s="100"/>
+      <c r="AA40" s="100"/>
+      <c r="AB40" s="100"/>
+      <c r="AC40" s="100"/>
+      <c r="AD40" s="100"/>
+      <c r="AE40" s="100"/>
+      <c r="AF40" s="100"/>
+      <c r="AG40" s="100"/>
+      <c r="AH40" s="100"/>
+      <c r="AI40" s="100"/>
+      <c r="AJ40" s="100"/>
+      <c r="AK40" s="100"/>
+      <c r="AL40" s="99"/>
+      <c r="AM40" s="99"/>
+      <c r="AN40" s="99"/>
+      <c r="AO40" s="99"/>
+      <c r="AP40" s="99"/>
+      <c r="AQ40" s="99"/>
+      <c r="AR40" s="99"/>
+      <c r="AS40" s="99"/>
+      <c r="AT40" s="99"/>
+      <c r="AU40" s="99"/>
+      <c r="AV40" s="99"/>
+      <c r="AW40" s="99"/>
+      <c r="AX40" s="99"/>
+      <c r="AY40" s="99"/>
+      <c r="AZ40" s="99"/>
+      <c r="BA40" s="99"/>
+      <c r="BB40" s="99"/>
+      <c r="BC40" s="99"/>
+      <c r="BD40" s="99"/>
+      <c r="BE40" s="99"/>
+      <c r="BF40" s="99"/>
+      <c r="BG40" s="99"/>
+      <c r="BH40" s="99"/>
+      <c r="BI40" s="99"/>
+      <c r="BJ40" s="99"/>
+      <c r="BK40" s="99"/>
+      <c r="BL40" s="99"/>
+      <c r="BM40" s="99"/>
+      <c r="BN40" s="99"/>
+      <c r="BO40" s="99"/>
       <c r="BP40" s="3"/>
     </row>
     <row r="41" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
@@ -7481,7 +7506,7 @@
         <v>25</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
@@ -7556,74 +7581,74 @@
         <v>26</v>
       </c>
       <c r="C42" s="24"/>
-      <c r="D42" s="71" t="s">
+      <c r="D42" s="107" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="72" t="s">
-        <v>128</v>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="107"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="107"/>
+      <c r="L42" s="100" t="s">
+        <v>127</v>
       </c>
-      <c r="M42" s="72"/>
-      <c r="N42" s="72"/>
-      <c r="O42" s="72"/>
-      <c r="P42" s="72"/>
-      <c r="Q42" s="72"/>
-      <c r="R42" s="72"/>
-      <c r="S42" s="72"/>
-      <c r="T42" s="72"/>
-      <c r="U42" s="72"/>
-      <c r="V42" s="72"/>
-      <c r="W42" s="72"/>
-      <c r="X42" s="72"/>
-      <c r="Y42" s="72"/>
-      <c r="Z42" s="72"/>
-      <c r="AA42" s="72"/>
-      <c r="AB42" s="72"/>
-      <c r="AC42" s="72"/>
-      <c r="AD42" s="72"/>
-      <c r="AE42" s="72"/>
-      <c r="AF42" s="72"/>
-      <c r="AG42" s="72"/>
-      <c r="AH42" s="72"/>
-      <c r="AI42" s="72"/>
-      <c r="AJ42" s="72"/>
-      <c r="AK42" s="72"/>
-      <c r="AL42" s="70"/>
-      <c r="AM42" s="70"/>
-      <c r="AN42" s="70"/>
-      <c r="AO42" s="70"/>
-      <c r="AP42" s="70"/>
-      <c r="AQ42" s="70"/>
-      <c r="AR42" s="70"/>
-      <c r="AS42" s="70"/>
-      <c r="AT42" s="70"/>
-      <c r="AU42" s="70"/>
-      <c r="AV42" s="70"/>
-      <c r="AW42" s="70"/>
-      <c r="AX42" s="70"/>
-      <c r="AY42" s="70"/>
-      <c r="AZ42" s="70"/>
-      <c r="BA42" s="70"/>
-      <c r="BB42" s="70"/>
-      <c r="BC42" s="70"/>
-      <c r="BD42" s="70"/>
-      <c r="BE42" s="70"/>
-      <c r="BF42" s="70"/>
-      <c r="BG42" s="70"/>
-      <c r="BH42" s="70"/>
-      <c r="BI42" s="70"/>
-      <c r="BJ42" s="70"/>
-      <c r="BK42" s="70"/>
-      <c r="BL42" s="70"/>
-      <c r="BM42" s="70"/>
-      <c r="BN42" s="70"/>
-      <c r="BO42" s="70"/>
+      <c r="M42" s="100"/>
+      <c r="N42" s="100"/>
+      <c r="O42" s="100"/>
+      <c r="P42" s="100"/>
+      <c r="Q42" s="100"/>
+      <c r="R42" s="100"/>
+      <c r="S42" s="100"/>
+      <c r="T42" s="100"/>
+      <c r="U42" s="100"/>
+      <c r="V42" s="100"/>
+      <c r="W42" s="100"/>
+      <c r="X42" s="100"/>
+      <c r="Y42" s="100"/>
+      <c r="Z42" s="100"/>
+      <c r="AA42" s="100"/>
+      <c r="AB42" s="100"/>
+      <c r="AC42" s="100"/>
+      <c r="AD42" s="100"/>
+      <c r="AE42" s="100"/>
+      <c r="AF42" s="100"/>
+      <c r="AG42" s="100"/>
+      <c r="AH42" s="100"/>
+      <c r="AI42" s="100"/>
+      <c r="AJ42" s="100"/>
+      <c r="AK42" s="100"/>
+      <c r="AL42" s="99"/>
+      <c r="AM42" s="99"/>
+      <c r="AN42" s="99"/>
+      <c r="AO42" s="99"/>
+      <c r="AP42" s="99"/>
+      <c r="AQ42" s="99"/>
+      <c r="AR42" s="99"/>
+      <c r="AS42" s="99"/>
+      <c r="AT42" s="99"/>
+      <c r="AU42" s="99"/>
+      <c r="AV42" s="99"/>
+      <c r="AW42" s="99"/>
+      <c r="AX42" s="99"/>
+      <c r="AY42" s="99"/>
+      <c r="AZ42" s="99"/>
+      <c r="BA42" s="99"/>
+      <c r="BB42" s="99"/>
+      <c r="BC42" s="99"/>
+      <c r="BD42" s="99"/>
+      <c r="BE42" s="99"/>
+      <c r="BF42" s="99"/>
+      <c r="BG42" s="99"/>
+      <c r="BH42" s="99"/>
+      <c r="BI42" s="99"/>
+      <c r="BJ42" s="99"/>
+      <c r="BK42" s="99"/>
+      <c r="BL42" s="99"/>
+      <c r="BM42" s="99"/>
+      <c r="BN42" s="99"/>
+      <c r="BO42" s="99"/>
       <c r="BP42" s="3"/>
     </row>
     <row r="43" spans="1:68" s="37" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
@@ -7633,74 +7658,74 @@
         <v>27</v>
       </c>
       <c r="C43" s="24"/>
-      <c r="D43" s="71" t="s">
-        <v>139</v>
+      <c r="D43" s="107" t="s">
+        <v>138</v>
       </c>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="72" t="s">
-        <v>144</v>
+      <c r="E43" s="107"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="107"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="107"/>
+      <c r="J43" s="107"/>
+      <c r="K43" s="107"/>
+      <c r="L43" s="100" t="s">
+        <v>143</v>
       </c>
-      <c r="M43" s="72"/>
-      <c r="N43" s="72"/>
-      <c r="O43" s="72"/>
-      <c r="P43" s="72"/>
-      <c r="Q43" s="72"/>
-      <c r="R43" s="72"/>
-      <c r="S43" s="72"/>
-      <c r="T43" s="72"/>
-      <c r="U43" s="72"/>
-      <c r="V43" s="72"/>
-      <c r="W43" s="72"/>
-      <c r="X43" s="72"/>
-      <c r="Y43" s="72"/>
-      <c r="Z43" s="72"/>
-      <c r="AA43" s="72"/>
-      <c r="AB43" s="72"/>
-      <c r="AC43" s="72"/>
-      <c r="AD43" s="72"/>
-      <c r="AE43" s="72"/>
-      <c r="AF43" s="72"/>
-      <c r="AG43" s="72"/>
-      <c r="AH43" s="72"/>
-      <c r="AI43" s="72"/>
-      <c r="AJ43" s="72"/>
-      <c r="AK43" s="72"/>
-      <c r="AL43" s="70"/>
-      <c r="AM43" s="70"/>
-      <c r="AN43" s="70"/>
-      <c r="AO43" s="70"/>
-      <c r="AP43" s="70"/>
-      <c r="AQ43" s="70"/>
-      <c r="AR43" s="70"/>
-      <c r="AS43" s="70"/>
-      <c r="AT43" s="70"/>
-      <c r="AU43" s="70"/>
-      <c r="AV43" s="70"/>
-      <c r="AW43" s="70"/>
-      <c r="AX43" s="70"/>
-      <c r="AY43" s="70"/>
-      <c r="AZ43" s="70"/>
-      <c r="BA43" s="70"/>
-      <c r="BB43" s="70"/>
-      <c r="BC43" s="70"/>
-      <c r="BD43" s="70"/>
-      <c r="BE43" s="70"/>
-      <c r="BF43" s="70"/>
-      <c r="BG43" s="70"/>
-      <c r="BH43" s="70"/>
-      <c r="BI43" s="70"/>
-      <c r="BJ43" s="70"/>
-      <c r="BK43" s="70"/>
-      <c r="BL43" s="70"/>
-      <c r="BM43" s="70"/>
-      <c r="BN43" s="70"/>
-      <c r="BO43" s="70"/>
+      <c r="M43" s="100"/>
+      <c r="N43" s="100"/>
+      <c r="O43" s="100"/>
+      <c r="P43" s="100"/>
+      <c r="Q43" s="100"/>
+      <c r="R43" s="100"/>
+      <c r="S43" s="100"/>
+      <c r="T43" s="100"/>
+      <c r="U43" s="100"/>
+      <c r="V43" s="100"/>
+      <c r="W43" s="100"/>
+      <c r="X43" s="100"/>
+      <c r="Y43" s="100"/>
+      <c r="Z43" s="100"/>
+      <c r="AA43" s="100"/>
+      <c r="AB43" s="100"/>
+      <c r="AC43" s="100"/>
+      <c r="AD43" s="100"/>
+      <c r="AE43" s="100"/>
+      <c r="AF43" s="100"/>
+      <c r="AG43" s="100"/>
+      <c r="AH43" s="100"/>
+      <c r="AI43" s="100"/>
+      <c r="AJ43" s="100"/>
+      <c r="AK43" s="100"/>
+      <c r="AL43" s="99"/>
+      <c r="AM43" s="99"/>
+      <c r="AN43" s="99"/>
+      <c r="AO43" s="99"/>
+      <c r="AP43" s="99"/>
+      <c r="AQ43" s="99"/>
+      <c r="AR43" s="99"/>
+      <c r="AS43" s="99"/>
+      <c r="AT43" s="99"/>
+      <c r="AU43" s="99"/>
+      <c r="AV43" s="99"/>
+      <c r="AW43" s="99"/>
+      <c r="AX43" s="99"/>
+      <c r="AY43" s="99"/>
+      <c r="AZ43" s="99"/>
+      <c r="BA43" s="99"/>
+      <c r="BB43" s="99"/>
+      <c r="BC43" s="99"/>
+      <c r="BD43" s="99"/>
+      <c r="BE43" s="99"/>
+      <c r="BF43" s="99"/>
+      <c r="BG43" s="99"/>
+      <c r="BH43" s="99"/>
+      <c r="BI43" s="99"/>
+      <c r="BJ43" s="99"/>
+      <c r="BK43" s="99"/>
+      <c r="BL43" s="99"/>
+      <c r="BM43" s="99"/>
+      <c r="BN43" s="99"/>
+      <c r="BO43" s="99"/>
       <c r="BP43" s="3"/>
     </row>
     <row r="44" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
@@ -7710,7 +7735,7 @@
         <v>28</v>
       </c>
       <c r="C44" s="25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D44" s="26"/>
       <c r="E44" s="26"/>
@@ -7785,74 +7810,74 @@
         <v>29</v>
       </c>
       <c r="C45" s="29"/>
-      <c r="D45" s="73" t="s">
-        <v>138</v>
+      <c r="D45" s="109" t="s">
+        <v>137</v>
       </c>
-      <c r="E45" s="73"/>
-      <c r="F45" s="73"/>
-      <c r="G45" s="73"/>
-      <c r="H45" s="73"/>
-      <c r="I45" s="73"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="73"/>
-      <c r="L45" s="74" t="s">
-        <v>129</v>
+      <c r="E45" s="109"/>
+      <c r="F45" s="109"/>
+      <c r="G45" s="109"/>
+      <c r="H45" s="109"/>
+      <c r="I45" s="109"/>
+      <c r="J45" s="109"/>
+      <c r="K45" s="109"/>
+      <c r="L45" s="110" t="s">
+        <v>128</v>
       </c>
-      <c r="M45" s="74"/>
-      <c r="N45" s="74"/>
-      <c r="O45" s="74"/>
-      <c r="P45" s="74"/>
-      <c r="Q45" s="74"/>
-      <c r="R45" s="74"/>
-      <c r="S45" s="74"/>
-      <c r="T45" s="74"/>
-      <c r="U45" s="74"/>
-      <c r="V45" s="74"/>
-      <c r="W45" s="74"/>
-      <c r="X45" s="74"/>
-      <c r="Y45" s="74"/>
-      <c r="Z45" s="74"/>
-      <c r="AA45" s="74"/>
-      <c r="AB45" s="74"/>
-      <c r="AC45" s="74"/>
-      <c r="AD45" s="74"/>
-      <c r="AE45" s="74"/>
-      <c r="AF45" s="74"/>
-      <c r="AG45" s="74"/>
-      <c r="AH45" s="74"/>
-      <c r="AI45" s="74"/>
-      <c r="AJ45" s="74"/>
-      <c r="AK45" s="74"/>
-      <c r="AL45" s="75"/>
-      <c r="AM45" s="75"/>
-      <c r="AN45" s="75"/>
-      <c r="AO45" s="75"/>
-      <c r="AP45" s="75"/>
-      <c r="AQ45" s="75"/>
-      <c r="AR45" s="75"/>
-      <c r="AS45" s="75"/>
-      <c r="AT45" s="75"/>
-      <c r="AU45" s="75"/>
-      <c r="AV45" s="75"/>
-      <c r="AW45" s="75"/>
-      <c r="AX45" s="75"/>
-      <c r="AY45" s="75"/>
-      <c r="AZ45" s="75"/>
-      <c r="BA45" s="75"/>
-      <c r="BB45" s="75"/>
-      <c r="BC45" s="75"/>
-      <c r="BD45" s="75"/>
-      <c r="BE45" s="75"/>
-      <c r="BF45" s="75"/>
-      <c r="BG45" s="75"/>
-      <c r="BH45" s="75"/>
-      <c r="BI45" s="75"/>
-      <c r="BJ45" s="75"/>
-      <c r="BK45" s="75"/>
-      <c r="BL45" s="75"/>
-      <c r="BM45" s="75"/>
-      <c r="BN45" s="75"/>
-      <c r="BO45" s="75"/>
+      <c r="M45" s="110"/>
+      <c r="N45" s="110"/>
+      <c r="O45" s="110"/>
+      <c r="P45" s="110"/>
+      <c r="Q45" s="110"/>
+      <c r="R45" s="110"/>
+      <c r="S45" s="110"/>
+      <c r="T45" s="110"/>
+      <c r="U45" s="110"/>
+      <c r="V45" s="110"/>
+      <c r="W45" s="110"/>
+      <c r="X45" s="110"/>
+      <c r="Y45" s="110"/>
+      <c r="Z45" s="110"/>
+      <c r="AA45" s="110"/>
+      <c r="AB45" s="110"/>
+      <c r="AC45" s="110"/>
+      <c r="AD45" s="110"/>
+      <c r="AE45" s="110"/>
+      <c r="AF45" s="110"/>
+      <c r="AG45" s="110"/>
+      <c r="AH45" s="110"/>
+      <c r="AI45" s="110"/>
+      <c r="AJ45" s="110"/>
+      <c r="AK45" s="110"/>
+      <c r="AL45" s="108"/>
+      <c r="AM45" s="108"/>
+      <c r="AN45" s="108"/>
+      <c r="AO45" s="108"/>
+      <c r="AP45" s="108"/>
+      <c r="AQ45" s="108"/>
+      <c r="AR45" s="108"/>
+      <c r="AS45" s="108"/>
+      <c r="AT45" s="108"/>
+      <c r="AU45" s="108"/>
+      <c r="AV45" s="108"/>
+      <c r="AW45" s="108"/>
+      <c r="AX45" s="108"/>
+      <c r="AY45" s="108"/>
+      <c r="AZ45" s="108"/>
+      <c r="BA45" s="108"/>
+      <c r="BB45" s="108"/>
+      <c r="BC45" s="108"/>
+      <c r="BD45" s="108"/>
+      <c r="BE45" s="108"/>
+      <c r="BF45" s="108"/>
+      <c r="BG45" s="108"/>
+      <c r="BH45" s="108"/>
+      <c r="BI45" s="108"/>
+      <c r="BJ45" s="108"/>
+      <c r="BK45" s="108"/>
+      <c r="BL45" s="108"/>
+      <c r="BM45" s="108"/>
+      <c r="BN45" s="108"/>
+      <c r="BO45" s="108"/>
       <c r="BP45" s="3"/>
     </row>
     <row r="46" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
@@ -7862,74 +7887,74 @@
         <v>30</v>
       </c>
       <c r="C46" s="29"/>
-      <c r="D46" s="73" t="s">
+      <c r="D46" s="109" t="s">
         <v>54</v>
       </c>
-      <c r="E46" s="73"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="73"/>
-      <c r="H46" s="73"/>
-      <c r="I46" s="73"/>
-      <c r="J46" s="73"/>
-      <c r="K46" s="73"/>
-      <c r="L46" s="74" t="s">
-        <v>122</v>
+      <c r="E46" s="109"/>
+      <c r="F46" s="109"/>
+      <c r="G46" s="109"/>
+      <c r="H46" s="109"/>
+      <c r="I46" s="109"/>
+      <c r="J46" s="109"/>
+      <c r="K46" s="109"/>
+      <c r="L46" s="110" t="s">
+        <v>121</v>
       </c>
-      <c r="M46" s="74"/>
-      <c r="N46" s="74"/>
-      <c r="O46" s="74"/>
-      <c r="P46" s="74"/>
-      <c r="Q46" s="74"/>
-      <c r="R46" s="74"/>
-      <c r="S46" s="74"/>
-      <c r="T46" s="74"/>
-      <c r="U46" s="74"/>
-      <c r="V46" s="74"/>
-      <c r="W46" s="74"/>
-      <c r="X46" s="74"/>
-      <c r="Y46" s="74"/>
-      <c r="Z46" s="74"/>
-      <c r="AA46" s="74"/>
-      <c r="AB46" s="74"/>
-      <c r="AC46" s="74"/>
-      <c r="AD46" s="74"/>
-      <c r="AE46" s="74"/>
-      <c r="AF46" s="74"/>
-      <c r="AG46" s="74"/>
-      <c r="AH46" s="74"/>
-      <c r="AI46" s="74"/>
-      <c r="AJ46" s="74"/>
-      <c r="AK46" s="74"/>
-      <c r="AL46" s="75"/>
-      <c r="AM46" s="75"/>
-      <c r="AN46" s="75"/>
-      <c r="AO46" s="75"/>
-      <c r="AP46" s="75"/>
-      <c r="AQ46" s="75"/>
-      <c r="AR46" s="75"/>
-      <c r="AS46" s="75"/>
-      <c r="AT46" s="75"/>
-      <c r="AU46" s="75"/>
-      <c r="AV46" s="75"/>
-      <c r="AW46" s="75"/>
-      <c r="AX46" s="75"/>
-      <c r="AY46" s="75"/>
-      <c r="AZ46" s="75"/>
-      <c r="BA46" s="75"/>
-      <c r="BB46" s="75"/>
-      <c r="BC46" s="75"/>
-      <c r="BD46" s="75"/>
-      <c r="BE46" s="75"/>
-      <c r="BF46" s="75"/>
-      <c r="BG46" s="75"/>
-      <c r="BH46" s="75"/>
-      <c r="BI46" s="75"/>
-      <c r="BJ46" s="75"/>
-      <c r="BK46" s="75"/>
-      <c r="BL46" s="75"/>
-      <c r="BM46" s="75"/>
-      <c r="BN46" s="75"/>
-      <c r="BO46" s="75"/>
+      <c r="M46" s="110"/>
+      <c r="N46" s="110"/>
+      <c r="O46" s="110"/>
+      <c r="P46" s="110"/>
+      <c r="Q46" s="110"/>
+      <c r="R46" s="110"/>
+      <c r="S46" s="110"/>
+      <c r="T46" s="110"/>
+      <c r="U46" s="110"/>
+      <c r="V46" s="110"/>
+      <c r="W46" s="110"/>
+      <c r="X46" s="110"/>
+      <c r="Y46" s="110"/>
+      <c r="Z46" s="110"/>
+      <c r="AA46" s="110"/>
+      <c r="AB46" s="110"/>
+      <c r="AC46" s="110"/>
+      <c r="AD46" s="110"/>
+      <c r="AE46" s="110"/>
+      <c r="AF46" s="110"/>
+      <c r="AG46" s="110"/>
+      <c r="AH46" s="110"/>
+      <c r="AI46" s="110"/>
+      <c r="AJ46" s="110"/>
+      <c r="AK46" s="110"/>
+      <c r="AL46" s="108"/>
+      <c r="AM46" s="108"/>
+      <c r="AN46" s="108"/>
+      <c r="AO46" s="108"/>
+      <c r="AP46" s="108"/>
+      <c r="AQ46" s="108"/>
+      <c r="AR46" s="108"/>
+      <c r="AS46" s="108"/>
+      <c r="AT46" s="108"/>
+      <c r="AU46" s="108"/>
+      <c r="AV46" s="108"/>
+      <c r="AW46" s="108"/>
+      <c r="AX46" s="108"/>
+      <c r="AY46" s="108"/>
+      <c r="AZ46" s="108"/>
+      <c r="BA46" s="108"/>
+      <c r="BB46" s="108"/>
+      <c r="BC46" s="108"/>
+      <c r="BD46" s="108"/>
+      <c r="BE46" s="108"/>
+      <c r="BF46" s="108"/>
+      <c r="BG46" s="108"/>
+      <c r="BH46" s="108"/>
+      <c r="BI46" s="108"/>
+      <c r="BJ46" s="108"/>
+      <c r="BK46" s="108"/>
+      <c r="BL46" s="108"/>
+      <c r="BM46" s="108"/>
+      <c r="BN46" s="108"/>
+      <c r="BO46" s="108"/>
       <c r="BP46" s="3"/>
     </row>
     <row r="47" spans="1:68" s="37" customFormat="1" ht="16.5" customHeight="1" outlineLevel="1">
@@ -7939,74 +7964,74 @@
         <v>31</v>
       </c>
       <c r="C47" s="28"/>
-      <c r="D47" s="73" t="s">
-        <v>139</v>
+      <c r="D47" s="109" t="s">
+        <v>138</v>
       </c>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="73"/>
-      <c r="H47" s="73"/>
-      <c r="I47" s="73"/>
-      <c r="J47" s="73"/>
-      <c r="K47" s="73"/>
-      <c r="L47" s="74" t="s">
-        <v>145</v>
+      <c r="E47" s="109"/>
+      <c r="F47" s="109"/>
+      <c r="G47" s="109"/>
+      <c r="H47" s="109"/>
+      <c r="I47" s="109"/>
+      <c r="J47" s="109"/>
+      <c r="K47" s="109"/>
+      <c r="L47" s="110" t="s">
+        <v>144</v>
       </c>
-      <c r="M47" s="74"/>
-      <c r="N47" s="74"/>
-      <c r="O47" s="74"/>
-      <c r="P47" s="74"/>
-      <c r="Q47" s="74"/>
-      <c r="R47" s="74"/>
-      <c r="S47" s="74"/>
-      <c r="T47" s="74"/>
-      <c r="U47" s="74"/>
-      <c r="V47" s="74"/>
-      <c r="W47" s="74"/>
-      <c r="X47" s="74"/>
-      <c r="Y47" s="74"/>
-      <c r="Z47" s="74"/>
-      <c r="AA47" s="74"/>
-      <c r="AB47" s="74"/>
-      <c r="AC47" s="74"/>
-      <c r="AD47" s="74"/>
-      <c r="AE47" s="74"/>
-      <c r="AF47" s="74"/>
-      <c r="AG47" s="74"/>
-      <c r="AH47" s="74"/>
-      <c r="AI47" s="74"/>
-      <c r="AJ47" s="74"/>
-      <c r="AK47" s="74"/>
-      <c r="AL47" s="75"/>
-      <c r="AM47" s="75"/>
-      <c r="AN47" s="75"/>
-      <c r="AO47" s="75"/>
-      <c r="AP47" s="75"/>
-      <c r="AQ47" s="75"/>
-      <c r="AR47" s="75"/>
-      <c r="AS47" s="75"/>
-      <c r="AT47" s="75"/>
-      <c r="AU47" s="75"/>
-      <c r="AV47" s="75"/>
-      <c r="AW47" s="75"/>
-      <c r="AX47" s="75"/>
-      <c r="AY47" s="75"/>
-      <c r="AZ47" s="75"/>
-      <c r="BA47" s="75"/>
-      <c r="BB47" s="75"/>
-      <c r="BC47" s="75"/>
-      <c r="BD47" s="75"/>
-      <c r="BE47" s="75"/>
-      <c r="BF47" s="75"/>
-      <c r="BG47" s="75"/>
-      <c r="BH47" s="75"/>
-      <c r="BI47" s="75"/>
-      <c r="BJ47" s="75"/>
-      <c r="BK47" s="75"/>
-      <c r="BL47" s="75"/>
-      <c r="BM47" s="75"/>
-      <c r="BN47" s="75"/>
-      <c r="BO47" s="75"/>
+      <c r="M47" s="110"/>
+      <c r="N47" s="110"/>
+      <c r="O47" s="110"/>
+      <c r="P47" s="110"/>
+      <c r="Q47" s="110"/>
+      <c r="R47" s="110"/>
+      <c r="S47" s="110"/>
+      <c r="T47" s="110"/>
+      <c r="U47" s="110"/>
+      <c r="V47" s="110"/>
+      <c r="W47" s="110"/>
+      <c r="X47" s="110"/>
+      <c r="Y47" s="110"/>
+      <c r="Z47" s="110"/>
+      <c r="AA47" s="110"/>
+      <c r="AB47" s="110"/>
+      <c r="AC47" s="110"/>
+      <c r="AD47" s="110"/>
+      <c r="AE47" s="110"/>
+      <c r="AF47" s="110"/>
+      <c r="AG47" s="110"/>
+      <c r="AH47" s="110"/>
+      <c r="AI47" s="110"/>
+      <c r="AJ47" s="110"/>
+      <c r="AK47" s="110"/>
+      <c r="AL47" s="108"/>
+      <c r="AM47" s="108"/>
+      <c r="AN47" s="108"/>
+      <c r="AO47" s="108"/>
+      <c r="AP47" s="108"/>
+      <c r="AQ47" s="108"/>
+      <c r="AR47" s="108"/>
+      <c r="AS47" s="108"/>
+      <c r="AT47" s="108"/>
+      <c r="AU47" s="108"/>
+      <c r="AV47" s="108"/>
+      <c r="AW47" s="108"/>
+      <c r="AX47" s="108"/>
+      <c r="AY47" s="108"/>
+      <c r="AZ47" s="108"/>
+      <c r="BA47" s="108"/>
+      <c r="BB47" s="108"/>
+      <c r="BC47" s="108"/>
+      <c r="BD47" s="108"/>
+      <c r="BE47" s="108"/>
+      <c r="BF47" s="108"/>
+      <c r="BG47" s="108"/>
+      <c r="BH47" s="108"/>
+      <c r="BI47" s="108"/>
+      <c r="BJ47" s="108"/>
+      <c r="BK47" s="108"/>
+      <c r="BL47" s="108"/>
+      <c r="BM47" s="108"/>
+      <c r="BN47" s="108"/>
+      <c r="BO47" s="108"/>
       <c r="BP47" s="3"/>
     </row>
     <row r="48" spans="1:68" ht="16.5">
@@ -8225,7 +8250,7 @@
     <row r="51" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A51" s="3"/>
       <c r="B51" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
@@ -8298,7 +8323,7 @@
       <c r="A52" s="3"/>
       <c r="B52" s="10"/>
       <c r="C52" s="53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D52" s="53"/>
       <c r="E52" s="53"/>
@@ -8371,7 +8396,7 @@
       <c r="B53" s="10"/>
       <c r="C53" s="53"/>
       <c r="D53" s="53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E53" s="53"/>
       <c r="F53" s="53"/>
@@ -8442,7 +8467,7 @@
       <c r="A54" s="3"/>
       <c r="B54" s="10"/>
       <c r="C54" s="53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D54" s="53"/>
       <c r="E54" s="53"/>
@@ -8515,7 +8540,7 @@
       <c r="B55" s="10"/>
       <c r="C55" s="53"/>
       <c r="D55" s="53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E55" s="53"/>
       <c r="F55" s="53"/>
@@ -8586,7 +8611,7 @@
       <c r="A56" s="3"/>
       <c r="B56" s="10"/>
       <c r="C56" s="53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D56" s="53"/>
       <c r="E56" s="53"/>
@@ -8659,7 +8684,7 @@
       <c r="B57" s="10"/>
       <c r="C57" s="53"/>
       <c r="D57" s="53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E57" s="53"/>
       <c r="F57" s="53"/>
@@ -8730,7 +8755,7 @@
       <c r="A58" s="3"/>
       <c r="B58" s="10"/>
       <c r="C58" s="53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D58" s="53"/>
       <c r="E58" s="53"/>
@@ -8871,7 +8896,7 @@
     <row r="60" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A60" s="3"/>
       <c r="B60" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -9023,42 +9048,42 @@
     <row r="62" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A62" s="3"/>
       <c r="B62" s="10"/>
-      <c r="C62" s="82"/>
-      <c r="D62" s="83"/>
-      <c r="E62" s="83"/>
-      <c r="F62" s="83"/>
-      <c r="G62" s="83"/>
-      <c r="H62" s="83"/>
-      <c r="I62" s="83"/>
-      <c r="J62" s="84"/>
-      <c r="K62" s="82"/>
-      <c r="L62" s="83"/>
-      <c r="M62" s="83"/>
-      <c r="N62" s="83"/>
-      <c r="O62" s="83"/>
-      <c r="P62" s="83"/>
-      <c r="Q62" s="83"/>
-      <c r="R62" s="101" t="s">
+      <c r="C62" s="73"/>
+      <c r="D62" s="74"/>
+      <c r="E62" s="74"/>
+      <c r="F62" s="74"/>
+      <c r="G62" s="74"/>
+      <c r="H62" s="74"/>
+      <c r="I62" s="74"/>
+      <c r="J62" s="78"/>
+      <c r="K62" s="73"/>
+      <c r="L62" s="74"/>
+      <c r="M62" s="74"/>
+      <c r="N62" s="74"/>
+      <c r="O62" s="74"/>
+      <c r="P62" s="74"/>
+      <c r="Q62" s="74"/>
+      <c r="R62" s="85" t="s">
         <v>74</v>
       </c>
-      <c r="S62" s="102"/>
-      <c r="T62" s="102"/>
-      <c r="U62" s="102"/>
-      <c r="V62" s="102"/>
-      <c r="W62" s="102"/>
-      <c r="X62" s="102"/>
-      <c r="Y62" s="102"/>
-      <c r="Z62" s="102"/>
-      <c r="AA62" s="102"/>
-      <c r="AB62" s="102"/>
-      <c r="AC62" s="102"/>
-      <c r="AD62" s="102"/>
-      <c r="AE62" s="102"/>
-      <c r="AF62" s="102"/>
-      <c r="AG62" s="102"/>
-      <c r="AH62" s="102"/>
-      <c r="AI62" s="102"/>
-      <c r="AJ62" s="103"/>
+      <c r="S62" s="86"/>
+      <c r="T62" s="86"/>
+      <c r="U62" s="86"/>
+      <c r="V62" s="86"/>
+      <c r="W62" s="86"/>
+      <c r="X62" s="86"/>
+      <c r="Y62" s="86"/>
+      <c r="Z62" s="86"/>
+      <c r="AA62" s="86"/>
+      <c r="AB62" s="86"/>
+      <c r="AC62" s="86"/>
+      <c r="AD62" s="86"/>
+      <c r="AE62" s="86"/>
+      <c r="AF62" s="86"/>
+      <c r="AG62" s="86"/>
+      <c r="AH62" s="86"/>
+      <c r="AI62" s="86"/>
+      <c r="AJ62" s="87"/>
       <c r="AK62" s="47" t="s">
         <v>75</v>
       </c>
@@ -9069,14 +9094,14 @@
       <c r="AP62" s="48"/>
       <c r="AQ62" s="48"/>
       <c r="AR62" s="49"/>
-      <c r="AS62" s="76" t="s">
+      <c r="AS62" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="AT62" s="77"/>
-      <c r="AU62" s="77"/>
-      <c r="AV62" s="77"/>
-      <c r="AW62" s="77"/>
-      <c r="AX62" s="77"/>
+      <c r="AT62" s="89"/>
+      <c r="AU62" s="89"/>
+      <c r="AV62" s="89"/>
+      <c r="AW62" s="89"/>
+      <c r="AX62" s="89"/>
       <c r="AY62" s="59"/>
       <c r="AZ62" s="3"/>
       <c r="BA62" s="3"/>
@@ -9099,42 +9124,42 @@
     <row r="63" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A63" s="3"/>
       <c r="B63" s="10"/>
-      <c r="C63" s="82"/>
-      <c r="D63" s="83"/>
-      <c r="E63" s="83"/>
-      <c r="F63" s="83"/>
-      <c r="G63" s="83"/>
-      <c r="H63" s="83"/>
-      <c r="I63" s="83"/>
-      <c r="J63" s="84"/>
-      <c r="K63" s="76"/>
-      <c r="L63" s="77"/>
-      <c r="M63" s="77"/>
-      <c r="N63" s="77"/>
-      <c r="O63" s="77"/>
-      <c r="P63" s="77"/>
-      <c r="Q63" s="77"/>
-      <c r="R63" s="85" t="s">
-        <v>111</v>
+      <c r="C63" s="73"/>
+      <c r="D63" s="74"/>
+      <c r="E63" s="74"/>
+      <c r="F63" s="74"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="74"/>
+      <c r="I63" s="74"/>
+      <c r="J63" s="78"/>
+      <c r="K63" s="88"/>
+      <c r="L63" s="89"/>
+      <c r="M63" s="89"/>
+      <c r="N63" s="89"/>
+      <c r="O63" s="89"/>
+      <c r="P63" s="89"/>
+      <c r="Q63" s="89"/>
+      <c r="R63" s="114" t="s">
+        <v>110</v>
       </c>
-      <c r="S63" s="86"/>
-      <c r="T63" s="86"/>
-      <c r="U63" s="86"/>
-      <c r="V63" s="86"/>
-      <c r="W63" s="86"/>
-      <c r="X63" s="86"/>
-      <c r="Y63" s="86"/>
-      <c r="Z63" s="86"/>
-      <c r="AA63" s="86"/>
-      <c r="AB63" s="86"/>
-      <c r="AC63" s="86"/>
-      <c r="AD63" s="86"/>
-      <c r="AE63" s="86"/>
-      <c r="AF63" s="86"/>
-      <c r="AG63" s="86"/>
-      <c r="AH63" s="86"/>
-      <c r="AI63" s="86"/>
-      <c r="AJ63" s="87"/>
+      <c r="S63" s="115"/>
+      <c r="T63" s="115"/>
+      <c r="U63" s="115"/>
+      <c r="V63" s="115"/>
+      <c r="W63" s="115"/>
+      <c r="X63" s="115"/>
+      <c r="Y63" s="115"/>
+      <c r="Z63" s="115"/>
+      <c r="AA63" s="115"/>
+      <c r="AB63" s="115"/>
+      <c r="AC63" s="115"/>
+      <c r="AD63" s="115"/>
+      <c r="AE63" s="115"/>
+      <c r="AF63" s="115"/>
+      <c r="AG63" s="115"/>
+      <c r="AH63" s="115"/>
+      <c r="AI63" s="115"/>
+      <c r="AJ63" s="116"/>
       <c r="AK63" s="47"/>
       <c r="AL63" s="48"/>
       <c r="AM63" s="48"/>
@@ -9143,14 +9168,14 @@
       <c r="AP63" s="48"/>
       <c r="AQ63" s="48"/>
       <c r="AR63" s="49"/>
-      <c r="AS63" s="76" t="s">
-        <v>96</v>
+      <c r="AS63" s="88" t="s">
+        <v>95</v>
       </c>
-      <c r="AT63" s="77"/>
-      <c r="AU63" s="77"/>
-      <c r="AV63" s="77"/>
-      <c r="AW63" s="77"/>
-      <c r="AX63" s="77"/>
+      <c r="AT63" s="89"/>
+      <c r="AU63" s="89"/>
+      <c r="AV63" s="89"/>
+      <c r="AW63" s="89"/>
+      <c r="AX63" s="89"/>
       <c r="AY63" s="59"/>
       <c r="AZ63" s="3"/>
       <c r="BA63" s="3"/>
@@ -9173,42 +9198,42 @@
     <row r="64" spans="1:68" s="37" customFormat="1" ht="48.75" customHeight="1" outlineLevel="1">
       <c r="A64" s="3"/>
       <c r="B64" s="10"/>
-      <c r="C64" s="82"/>
-      <c r="D64" s="83"/>
-      <c r="E64" s="83"/>
-      <c r="F64" s="83"/>
-      <c r="G64" s="83"/>
-      <c r="H64" s="83"/>
-      <c r="I64" s="83"/>
-      <c r="J64" s="84"/>
-      <c r="K64" s="76"/>
-      <c r="L64" s="77"/>
-      <c r="M64" s="77"/>
-      <c r="N64" s="77"/>
-      <c r="O64" s="77"/>
-      <c r="P64" s="77"/>
-      <c r="Q64" s="77"/>
-      <c r="R64" s="98" t="s">
-        <v>113</v>
+      <c r="C64" s="73"/>
+      <c r="D64" s="74"/>
+      <c r="E64" s="74"/>
+      <c r="F64" s="74"/>
+      <c r="G64" s="74"/>
+      <c r="H64" s="74"/>
+      <c r="I64" s="74"/>
+      <c r="J64" s="78"/>
+      <c r="K64" s="88"/>
+      <c r="L64" s="89"/>
+      <c r="M64" s="89"/>
+      <c r="N64" s="89"/>
+      <c r="O64" s="89"/>
+      <c r="P64" s="89"/>
+      <c r="Q64" s="89"/>
+      <c r="R64" s="75" t="s">
+        <v>112</v>
       </c>
-      <c r="S64" s="99"/>
-      <c r="T64" s="99"/>
-      <c r="U64" s="99"/>
-      <c r="V64" s="99"/>
-      <c r="W64" s="99"/>
-      <c r="X64" s="99"/>
-      <c r="Y64" s="99"/>
-      <c r="Z64" s="99"/>
-      <c r="AA64" s="99"/>
-      <c r="AB64" s="99"/>
-      <c r="AC64" s="99"/>
-      <c r="AD64" s="99"/>
-      <c r="AE64" s="99"/>
-      <c r="AF64" s="99"/>
-      <c r="AG64" s="99"/>
-      <c r="AH64" s="99"/>
-      <c r="AI64" s="99"/>
-      <c r="AJ64" s="100"/>
+      <c r="S64" s="76"/>
+      <c r="T64" s="76"/>
+      <c r="U64" s="76"/>
+      <c r="V64" s="76"/>
+      <c r="W64" s="76"/>
+      <c r="X64" s="76"/>
+      <c r="Y64" s="76"/>
+      <c r="Z64" s="76"/>
+      <c r="AA64" s="76"/>
+      <c r="AB64" s="76"/>
+      <c r="AC64" s="76"/>
+      <c r="AD64" s="76"/>
+      <c r="AE64" s="76"/>
+      <c r="AF64" s="76"/>
+      <c r="AG64" s="76"/>
+      <c r="AH64" s="76"/>
+      <c r="AI64" s="76"/>
+      <c r="AJ64" s="77"/>
       <c r="AK64" s="47"/>
       <c r="AL64" s="48"/>
       <c r="AM64" s="48"/>
@@ -9217,14 +9242,14 @@
       <c r="AP64" s="48"/>
       <c r="AQ64" s="48"/>
       <c r="AR64" s="49"/>
-      <c r="AS64" s="76" t="s">
+      <c r="AS64" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="AT64" s="77"/>
-      <c r="AU64" s="77"/>
-      <c r="AV64" s="77"/>
-      <c r="AW64" s="77"/>
-      <c r="AX64" s="77"/>
+      <c r="AT64" s="89"/>
+      <c r="AU64" s="89"/>
+      <c r="AV64" s="89"/>
+      <c r="AW64" s="89"/>
+      <c r="AX64" s="89"/>
       <c r="AY64" s="59"/>
       <c r="AZ64" s="3"/>
       <c r="BA64" s="3"/>
@@ -9247,42 +9272,42 @@
     <row r="65" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A65" s="3"/>
       <c r="B65" s="10"/>
-      <c r="C65" s="82"/>
-      <c r="D65" s="83"/>
-      <c r="E65" s="83"/>
-      <c r="F65" s="83"/>
-      <c r="G65" s="83"/>
-      <c r="H65" s="83"/>
-      <c r="I65" s="83"/>
-      <c r="J65" s="84"/>
-      <c r="K65" s="82"/>
-      <c r="L65" s="83"/>
-      <c r="M65" s="83"/>
-      <c r="N65" s="83"/>
-      <c r="O65" s="83"/>
-      <c r="P65" s="83"/>
-      <c r="Q65" s="83"/>
-      <c r="R65" s="98" t="s">
-        <v>78</v>
+      <c r="C65" s="73"/>
+      <c r="D65" s="74"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="74"/>
+      <c r="G65" s="74"/>
+      <c r="H65" s="74"/>
+      <c r="I65" s="74"/>
+      <c r="J65" s="78"/>
+      <c r="K65" s="73"/>
+      <c r="L65" s="74"/>
+      <c r="M65" s="74"/>
+      <c r="N65" s="74"/>
+      <c r="O65" s="74"/>
+      <c r="P65" s="74"/>
+      <c r="Q65" s="74"/>
+      <c r="R65" s="122" t="s">
+        <v>149</v>
       </c>
-      <c r="S65" s="99"/>
-      <c r="T65" s="99"/>
-      <c r="U65" s="99"/>
-      <c r="V65" s="99"/>
-      <c r="W65" s="99"/>
-      <c r="X65" s="99"/>
-      <c r="Y65" s="99"/>
-      <c r="Z65" s="99"/>
-      <c r="AA65" s="99"/>
-      <c r="AB65" s="99"/>
-      <c r="AC65" s="99"/>
-      <c r="AD65" s="99"/>
-      <c r="AE65" s="99"/>
-      <c r="AF65" s="99"/>
-      <c r="AG65" s="99"/>
-      <c r="AH65" s="99"/>
-      <c r="AI65" s="99"/>
-      <c r="AJ65" s="100"/>
+      <c r="S65" s="123"/>
+      <c r="T65" s="123"/>
+      <c r="U65" s="123"/>
+      <c r="V65" s="123"/>
+      <c r="W65" s="123"/>
+      <c r="X65" s="123"/>
+      <c r="Y65" s="123"/>
+      <c r="Z65" s="123"/>
+      <c r="AA65" s="123"/>
+      <c r="AB65" s="123"/>
+      <c r="AC65" s="123"/>
+      <c r="AD65" s="123"/>
+      <c r="AE65" s="123"/>
+      <c r="AF65" s="123"/>
+      <c r="AG65" s="123"/>
+      <c r="AH65" s="123"/>
+      <c r="AI65" s="123"/>
+      <c r="AJ65" s="124"/>
       <c r="AK65" s="47"/>
       <c r="AL65" s="48"/>
       <c r="AM65" s="48"/>
@@ -9291,15 +9316,15 @@
       <c r="AP65" s="48"/>
       <c r="AQ65" s="48"/>
       <c r="AR65" s="49"/>
-      <c r="AS65" s="82" t="s">
-        <v>79</v>
+      <c r="AS65" s="119" t="s">
+        <v>147</v>
       </c>
-      <c r="AT65" s="83"/>
-      <c r="AU65" s="83"/>
-      <c r="AV65" s="83"/>
-      <c r="AW65" s="83"/>
-      <c r="AX65" s="83"/>
-      <c r="AY65" s="84"/>
+      <c r="AT65" s="120"/>
+      <c r="AU65" s="120"/>
+      <c r="AV65" s="120"/>
+      <c r="AW65" s="120"/>
+      <c r="AX65" s="120"/>
+      <c r="AY65" s="121"/>
       <c r="AZ65" s="3"/>
       <c r="BA65" s="3"/>
       <c r="BB65" s="3"/>
@@ -9318,45 +9343,45 @@
       <c r="BO65" s="3"/>
       <c r="BP65" s="3"/>
     </row>
-    <row r="66" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
+    <row r="66" spans="1:68" s="37" customFormat="1" ht="49.5" customHeight="1" outlineLevel="1">
       <c r="A66" s="3"/>
       <c r="B66" s="10"/>
-      <c r="C66" s="82"/>
-      <c r="D66" s="83"/>
-      <c r="E66" s="83"/>
-      <c r="F66" s="83"/>
-      <c r="G66" s="83"/>
-      <c r="H66" s="83"/>
-      <c r="I66" s="83"/>
-      <c r="J66" s="84"/>
-      <c r="K66" s="82"/>
-      <c r="L66" s="83"/>
-      <c r="M66" s="83"/>
-      <c r="N66" s="83"/>
-      <c r="O66" s="83"/>
-      <c r="P66" s="83"/>
-      <c r="Q66" s="83"/>
-      <c r="R66" s="98" t="s">
-        <v>78</v>
+      <c r="C66" s="73"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="74"/>
+      <c r="G66" s="74"/>
+      <c r="H66" s="74"/>
+      <c r="I66" s="74"/>
+      <c r="J66" s="78"/>
+      <c r="K66" s="73"/>
+      <c r="L66" s="74"/>
+      <c r="M66" s="74"/>
+      <c r="N66" s="74"/>
+      <c r="O66" s="74"/>
+      <c r="P66" s="74"/>
+      <c r="Q66" s="74"/>
+      <c r="R66" s="122" t="s">
+        <v>150</v>
       </c>
-      <c r="S66" s="99"/>
-      <c r="T66" s="99"/>
-      <c r="U66" s="99"/>
-      <c r="V66" s="99"/>
-      <c r="W66" s="99"/>
-      <c r="X66" s="99"/>
-      <c r="Y66" s="99"/>
-      <c r="Z66" s="99"/>
-      <c r="AA66" s="99"/>
-      <c r="AB66" s="99"/>
-      <c r="AC66" s="99"/>
-      <c r="AD66" s="99"/>
-      <c r="AE66" s="99"/>
-      <c r="AF66" s="99"/>
-      <c r="AG66" s="99"/>
-      <c r="AH66" s="99"/>
-      <c r="AI66" s="99"/>
-      <c r="AJ66" s="100"/>
+      <c r="S66" s="123"/>
+      <c r="T66" s="123"/>
+      <c r="U66" s="123"/>
+      <c r="V66" s="123"/>
+      <c r="W66" s="123"/>
+      <c r="X66" s="123"/>
+      <c r="Y66" s="123"/>
+      <c r="Z66" s="123"/>
+      <c r="AA66" s="123"/>
+      <c r="AB66" s="123"/>
+      <c r="AC66" s="123"/>
+      <c r="AD66" s="123"/>
+      <c r="AE66" s="123"/>
+      <c r="AF66" s="123"/>
+      <c r="AG66" s="123"/>
+      <c r="AH66" s="123"/>
+      <c r="AI66" s="123"/>
+      <c r="AJ66" s="124"/>
       <c r="AK66" s="47"/>
       <c r="AL66" s="48"/>
       <c r="AM66" s="48"/>
@@ -9365,15 +9390,15 @@
       <c r="AP66" s="48"/>
       <c r="AQ66" s="48"/>
       <c r="AR66" s="49"/>
-      <c r="AS66" s="82" t="s">
-        <v>80</v>
+      <c r="AS66" s="119" t="s">
+        <v>148</v>
       </c>
-      <c r="AT66" s="83"/>
-      <c r="AU66" s="83"/>
-      <c r="AV66" s="83"/>
-      <c r="AW66" s="83"/>
-      <c r="AX66" s="83"/>
-      <c r="AY66" s="84"/>
+      <c r="AT66" s="120"/>
+      <c r="AU66" s="120"/>
+      <c r="AV66" s="120"/>
+      <c r="AW66" s="120"/>
+      <c r="AX66" s="120"/>
+      <c r="AY66" s="121"/>
       <c r="AZ66" s="3"/>
       <c r="BA66" s="3"/>
       <c r="BB66" s="3"/>
@@ -9395,59 +9420,59 @@
     <row r="67" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A67" s="3"/>
       <c r="B67" s="10"/>
-      <c r="C67" s="82"/>
-      <c r="D67" s="83"/>
-      <c r="E67" s="83"/>
-      <c r="F67" s="83"/>
-      <c r="G67" s="83"/>
-      <c r="H67" s="83"/>
-      <c r="I67" s="83"/>
-      <c r="J67" s="84"/>
-      <c r="K67" s="82"/>
-      <c r="L67" s="83"/>
-      <c r="M67" s="83"/>
-      <c r="N67" s="83"/>
-      <c r="O67" s="83"/>
-      <c r="P67" s="83"/>
-      <c r="Q67" s="83"/>
-      <c r="R67" s="110" t="s">
+      <c r="C67" s="73"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="74"/>
+      <c r="F67" s="74"/>
+      <c r="G67" s="74"/>
+      <c r="H67" s="74"/>
+      <c r="I67" s="74"/>
+      <c r="J67" s="78"/>
+      <c r="K67" s="73"/>
+      <c r="L67" s="74"/>
+      <c r="M67" s="74"/>
+      <c r="N67" s="74"/>
+      <c r="O67" s="74"/>
+      <c r="P67" s="74"/>
+      <c r="Q67" s="74"/>
+      <c r="R67" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="S67" s="111"/>
-      <c r="T67" s="111"/>
-      <c r="U67" s="111"/>
-      <c r="V67" s="111"/>
-      <c r="W67" s="111"/>
-      <c r="X67" s="111"/>
-      <c r="Y67" s="111"/>
-      <c r="Z67" s="111"/>
-      <c r="AA67" s="111"/>
-      <c r="AB67" s="111"/>
-      <c r="AC67" s="111"/>
-      <c r="AD67" s="111"/>
-      <c r="AE67" s="111"/>
-      <c r="AF67" s="111"/>
-      <c r="AG67" s="111"/>
-      <c r="AH67" s="111"/>
-      <c r="AI67" s="111"/>
-      <c r="AJ67" s="112"/>
-      <c r="AK67" s="50"/>
-      <c r="AL67" s="50"/>
-      <c r="AM67" s="50"/>
-      <c r="AN67" s="50"/>
-      <c r="AO67" s="50"/>
-      <c r="AP67" s="50"/>
-      <c r="AQ67" s="50"/>
-      <c r="AR67" s="51"/>
-      <c r="AS67" s="82" t="s">
-        <v>81</v>
+      <c r="S67" s="76"/>
+      <c r="T67" s="76"/>
+      <c r="U67" s="76"/>
+      <c r="V67" s="76"/>
+      <c r="W67" s="76"/>
+      <c r="X67" s="76"/>
+      <c r="Y67" s="76"/>
+      <c r="Z67" s="76"/>
+      <c r="AA67" s="76"/>
+      <c r="AB67" s="76"/>
+      <c r="AC67" s="76"/>
+      <c r="AD67" s="76"/>
+      <c r="AE67" s="76"/>
+      <c r="AF67" s="76"/>
+      <c r="AG67" s="76"/>
+      <c r="AH67" s="76"/>
+      <c r="AI67" s="76"/>
+      <c r="AJ67" s="77"/>
+      <c r="AK67" s="47"/>
+      <c r="AL67" s="48"/>
+      <c r="AM67" s="48"/>
+      <c r="AN67" s="48"/>
+      <c r="AO67" s="48"/>
+      <c r="AP67" s="48"/>
+      <c r="AQ67" s="48"/>
+      <c r="AR67" s="49"/>
+      <c r="AS67" s="73" t="s">
+        <v>79</v>
       </c>
-      <c r="AT67" s="83"/>
-      <c r="AU67" s="83"/>
-      <c r="AV67" s="83"/>
-      <c r="AW67" s="83"/>
-      <c r="AX67" s="83"/>
-      <c r="AY67" s="84"/>
+      <c r="AT67" s="74"/>
+      <c r="AU67" s="74"/>
+      <c r="AV67" s="74"/>
+      <c r="AW67" s="74"/>
+      <c r="AX67" s="74"/>
+      <c r="AY67" s="78"/>
       <c r="AZ67" s="3"/>
       <c r="BA67" s="3"/>
       <c r="BB67" s="3"/>
@@ -9469,55 +9494,59 @@
     <row r="68" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A68" s="3"/>
       <c r="B68" s="10"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
-      <c r="V68" s="3"/>
-      <c r="W68" s="3"/>
-      <c r="X68" s="3"/>
-      <c r="Y68" s="3"/>
-      <c r="Z68" s="3"/>
-      <c r="AA68" s="3"/>
-      <c r="AB68" s="3"/>
-      <c r="AC68" s="3"/>
-      <c r="AD68" s="3"/>
-      <c r="AE68" s="3"/>
-      <c r="AF68" s="3"/>
-      <c r="AG68" s="3"/>
-      <c r="AH68" s="3"/>
-      <c r="AI68" s="3"/>
-      <c r="AJ68" s="3"/>
-      <c r="AK68" s="3"/>
-      <c r="AL68" s="3"/>
-      <c r="AM68" s="3"/>
-      <c r="AN68" s="3"/>
-      <c r="AO68" s="3"/>
-      <c r="AP68" s="3"/>
-      <c r="AQ68" s="3"/>
-      <c r="AR68" s="3"/>
-      <c r="AS68" s="3"/>
-      <c r="AT68" s="3"/>
-      <c r="AU68" s="3"/>
-      <c r="AV68" s="3"/>
-      <c r="AW68" s="3"/>
-      <c r="AX68" s="3"/>
-      <c r="AY68" s="3"/>
+      <c r="C68" s="73"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="74"/>
+      <c r="F68" s="74"/>
+      <c r="G68" s="74"/>
+      <c r="H68" s="74"/>
+      <c r="I68" s="74"/>
+      <c r="J68" s="78"/>
+      <c r="K68" s="73"/>
+      <c r="L68" s="74"/>
+      <c r="M68" s="74"/>
+      <c r="N68" s="74"/>
+      <c r="O68" s="74"/>
+      <c r="P68" s="74"/>
+      <c r="Q68" s="74"/>
+      <c r="R68" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="S68" s="76"/>
+      <c r="T68" s="76"/>
+      <c r="U68" s="76"/>
+      <c r="V68" s="76"/>
+      <c r="W68" s="76"/>
+      <c r="X68" s="76"/>
+      <c r="Y68" s="76"/>
+      <c r="Z68" s="76"/>
+      <c r="AA68" s="76"/>
+      <c r="AB68" s="76"/>
+      <c r="AC68" s="76"/>
+      <c r="AD68" s="76"/>
+      <c r="AE68" s="76"/>
+      <c r="AF68" s="76"/>
+      <c r="AG68" s="76"/>
+      <c r="AH68" s="76"/>
+      <c r="AI68" s="76"/>
+      <c r="AJ68" s="77"/>
+      <c r="AK68" s="47"/>
+      <c r="AL68" s="48"/>
+      <c r="AM68" s="48"/>
+      <c r="AN68" s="48"/>
+      <c r="AO68" s="48"/>
+      <c r="AP68" s="48"/>
+      <c r="AQ68" s="48"/>
+      <c r="AR68" s="49"/>
+      <c r="AS68" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT68" s="74"/>
+      <c r="AU68" s="74"/>
+      <c r="AV68" s="74"/>
+      <c r="AW68" s="74"/>
+      <c r="AX68" s="74"/>
+      <c r="AY68" s="78"/>
       <c r="AZ68" s="3"/>
       <c r="BA68" s="3"/>
       <c r="BB68" s="3"/>
@@ -9538,58 +9567,60 @@
     </row>
     <row r="69" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A69" s="3"/>
-      <c r="B69" s="10" t="s">
-        <v>107</v>
+      <c r="B69" s="10"/>
+      <c r="C69" s="73"/>
+      <c r="D69" s="74"/>
+      <c r="E69" s="74"/>
+      <c r="F69" s="74"/>
+      <c r="G69" s="74"/>
+      <c r="H69" s="74"/>
+      <c r="I69" s="74"/>
+      <c r="J69" s="78"/>
+      <c r="K69" s="73"/>
+      <c r="L69" s="74"/>
+      <c r="M69" s="74"/>
+      <c r="N69" s="74"/>
+      <c r="O69" s="74"/>
+      <c r="P69" s="74"/>
+      <c r="Q69" s="74"/>
+      <c r="R69" s="93" t="s">
+        <v>78</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3"/>
-      <c r="R69" s="3"/>
-      <c r="S69" s="3"/>
-      <c r="T69" s="3"/>
-      <c r="U69" s="3"/>
-      <c r="V69" s="3"/>
-      <c r="W69" s="3"/>
-      <c r="X69" s="3"/>
-      <c r="Y69" s="3"/>
-      <c r="Z69" s="3"/>
-      <c r="AA69" s="3"/>
-      <c r="AB69" s="3"/>
-      <c r="AC69" s="3"/>
-      <c r="AD69" s="3"/>
-      <c r="AE69" s="3"/>
-      <c r="AF69" s="3"/>
-      <c r="AG69" s="3"/>
-      <c r="AH69" s="3"/>
-      <c r="AI69" s="3"/>
-      <c r="AJ69" s="3"/>
-      <c r="AK69" s="3"/>
-      <c r="AL69" s="3"/>
-      <c r="AM69" s="3"/>
-      <c r="AN69" s="3"/>
-      <c r="AO69" s="3"/>
-      <c r="AP69" s="3"/>
-      <c r="AQ69" s="3"/>
-      <c r="AR69" s="3"/>
-      <c r="AS69" s="3"/>
-      <c r="AT69" s="3"/>
-      <c r="AU69" s="3"/>
-      <c r="AV69" s="3"/>
-      <c r="AW69" s="3"/>
-      <c r="AX69" s="3"/>
-      <c r="AY69" s="3"/>
+      <c r="S69" s="94"/>
+      <c r="T69" s="94"/>
+      <c r="U69" s="94"/>
+      <c r="V69" s="94"/>
+      <c r="W69" s="94"/>
+      <c r="X69" s="94"/>
+      <c r="Y69" s="94"/>
+      <c r="Z69" s="94"/>
+      <c r="AA69" s="94"/>
+      <c r="AB69" s="94"/>
+      <c r="AC69" s="94"/>
+      <c r="AD69" s="94"/>
+      <c r="AE69" s="94"/>
+      <c r="AF69" s="94"/>
+      <c r="AG69" s="94"/>
+      <c r="AH69" s="94"/>
+      <c r="AI69" s="94"/>
+      <c r="AJ69" s="95"/>
+      <c r="AK69" s="50"/>
+      <c r="AL69" s="50"/>
+      <c r="AM69" s="50"/>
+      <c r="AN69" s="50"/>
+      <c r="AO69" s="50"/>
+      <c r="AP69" s="50"/>
+      <c r="AQ69" s="50"/>
+      <c r="AR69" s="51"/>
+      <c r="AS69" s="73" t="s">
+        <v>81</v>
+      </c>
+      <c r="AT69" s="74"/>
+      <c r="AU69" s="74"/>
+      <c r="AV69" s="74"/>
+      <c r="AW69" s="74"/>
+      <c r="AX69" s="74"/>
+      <c r="AY69" s="78"/>
       <c r="AZ69" s="3"/>
       <c r="BA69" s="3"/>
       <c r="BB69" s="3"/>
@@ -9611,65 +9642,55 @@
     <row r="70" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A70" s="3"/>
       <c r="B70" s="10"/>
-      <c r="C70" s="40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D70" s="41"/>
-      <c r="E70" s="41"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="41"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="41"/>
-      <c r="J70" s="42"/>
-      <c r="K70" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="L70" s="41"/>
-      <c r="M70" s="41"/>
-      <c r="N70" s="41"/>
-      <c r="O70" s="41"/>
-      <c r="P70" s="41"/>
-      <c r="Q70" s="42"/>
-      <c r="R70" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="S70" s="45"/>
-      <c r="T70" s="45"/>
-      <c r="U70" s="45"/>
-      <c r="V70" s="45"/>
-      <c r="W70" s="45"/>
-      <c r="X70" s="45"/>
-      <c r="Y70" s="45"/>
-      <c r="Z70" s="45"/>
-      <c r="AA70" s="45"/>
-      <c r="AB70" s="45"/>
-      <c r="AC70" s="45"/>
-      <c r="AD70" s="45"/>
-      <c r="AE70" s="45"/>
-      <c r="AF70" s="45"/>
-      <c r="AG70" s="45"/>
-      <c r="AH70" s="45"/>
-      <c r="AI70" s="45"/>
-      <c r="AJ70" s="46"/>
-      <c r="AK70" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL70" s="41"/>
-      <c r="AM70" s="41"/>
-      <c r="AN70" s="41"/>
-      <c r="AO70" s="41"/>
-      <c r="AP70" s="41"/>
-      <c r="AQ70" s="41"/>
-      <c r="AR70" s="42"/>
-      <c r="AS70" s="43" t="s">
-        <v>15</v>
-      </c>
-      <c r="AT70" s="41"/>
-      <c r="AU70" s="41"/>
-      <c r="AV70" s="41"/>
-      <c r="AW70" s="41"/>
-      <c r="AX70" s="41"/>
-      <c r="AY70" s="42"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+      <c r="R70" s="3"/>
+      <c r="S70" s="3"/>
+      <c r="T70" s="3"/>
+      <c r="U70" s="3"/>
+      <c r="V70" s="3"/>
+      <c r="W70" s="3"/>
+      <c r="X70" s="3"/>
+      <c r="Y70" s="3"/>
+      <c r="Z70" s="3"/>
+      <c r="AA70" s="3"/>
+      <c r="AB70" s="3"/>
+      <c r="AC70" s="3"/>
+      <c r="AD70" s="3"/>
+      <c r="AE70" s="3"/>
+      <c r="AF70" s="3"/>
+      <c r="AG70" s="3"/>
+      <c r="AH70" s="3"/>
+      <c r="AI70" s="3"/>
+      <c r="AJ70" s="3"/>
+      <c r="AK70" s="3"/>
+      <c r="AL70" s="3"/>
+      <c r="AM70" s="3"/>
+      <c r="AN70" s="3"/>
+      <c r="AO70" s="3"/>
+      <c r="AP70" s="3"/>
+      <c r="AQ70" s="3"/>
+      <c r="AR70" s="3"/>
+      <c r="AS70" s="3"/>
+      <c r="AT70" s="3"/>
+      <c r="AU70" s="3"/>
+      <c r="AV70" s="3"/>
+      <c r="AW70" s="3"/>
+      <c r="AX70" s="3"/>
+      <c r="AY70" s="3"/>
       <c r="AZ70" s="3"/>
       <c r="BA70" s="3"/>
       <c r="BB70" s="3"/>
@@ -9690,66 +9711,58 @@
     </row>
     <row r="71" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A71" s="3"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="104" t="s">
-        <v>82</v>
+      <c r="B71" s="10" t="s">
+        <v>106</v>
       </c>
-      <c r="D71" s="105"/>
-      <c r="E71" s="105"/>
-      <c r="F71" s="105"/>
-      <c r="G71" s="105"/>
-      <c r="H71" s="105"/>
-      <c r="I71" s="105"/>
-      <c r="J71" s="106"/>
-      <c r="K71" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="L71" s="83"/>
-      <c r="M71" s="83"/>
-      <c r="N71" s="83"/>
-      <c r="O71" s="83"/>
-      <c r="P71" s="83"/>
-      <c r="Q71" s="83"/>
-      <c r="R71" s="101" t="s">
-        <v>88</v>
-      </c>
-      <c r="S71" s="102"/>
-      <c r="T71" s="102"/>
-      <c r="U71" s="102"/>
-      <c r="V71" s="102"/>
-      <c r="W71" s="102"/>
-      <c r="X71" s="102"/>
-      <c r="Y71" s="102"/>
-      <c r="Z71" s="102"/>
-      <c r="AA71" s="102"/>
-      <c r="AB71" s="102"/>
-      <c r="AC71" s="102"/>
-      <c r="AD71" s="102"/>
-      <c r="AE71" s="102"/>
-      <c r="AF71" s="102"/>
-      <c r="AG71" s="102"/>
-      <c r="AH71" s="102"/>
-      <c r="AI71" s="102"/>
-      <c r="AJ71" s="103"/>
-      <c r="AK71" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL71" s="47"/>
-      <c r="AM71" s="47"/>
-      <c r="AN71" s="47"/>
-      <c r="AO71" s="48"/>
-      <c r="AP71" s="48"/>
-      <c r="AQ71" s="48"/>
-      <c r="AR71" s="49"/>
-      <c r="AS71" s="76" t="s">
-        <v>76</v>
-      </c>
-      <c r="AT71" s="77"/>
-      <c r="AU71" s="77"/>
-      <c r="AV71" s="77"/>
-      <c r="AW71" s="77"/>
-      <c r="AX71" s="77"/>
-      <c r="AY71" s="59"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+      <c r="R71" s="3"/>
+      <c r="S71" s="3"/>
+      <c r="T71" s="3"/>
+      <c r="U71" s="3"/>
+      <c r="V71" s="3"/>
+      <c r="W71" s="3"/>
+      <c r="X71" s="3"/>
+      <c r="Y71" s="3"/>
+      <c r="Z71" s="3"/>
+      <c r="AA71" s="3"/>
+      <c r="AB71" s="3"/>
+      <c r="AC71" s="3"/>
+      <c r="AD71" s="3"/>
+      <c r="AE71" s="3"/>
+      <c r="AF71" s="3"/>
+      <c r="AG71" s="3"/>
+      <c r="AH71" s="3"/>
+      <c r="AI71" s="3"/>
+      <c r="AJ71" s="3"/>
+      <c r="AK71" s="3"/>
+      <c r="AL71" s="3"/>
+      <c r="AM71" s="3"/>
+      <c r="AN71" s="3"/>
+      <c r="AO71" s="3"/>
+      <c r="AP71" s="3"/>
+      <c r="AQ71" s="3"/>
+      <c r="AR71" s="3"/>
+      <c r="AS71" s="3"/>
+      <c r="AT71" s="3"/>
+      <c r="AU71" s="3"/>
+      <c r="AV71" s="3"/>
+      <c r="AW71" s="3"/>
+      <c r="AX71" s="3"/>
+      <c r="AY71" s="3"/>
       <c r="AZ71" s="3"/>
       <c r="BA71" s="3"/>
       <c r="BB71" s="3"/>
@@ -9771,61 +9784,65 @@
     <row r="72" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A72" s="3"/>
       <c r="B72" s="10"/>
-      <c r="C72" s="107" t="s">
-        <v>83</v>
+      <c r="C72" s="40" t="s">
+        <v>22</v>
       </c>
-      <c r="D72" s="108"/>
-      <c r="E72" s="108"/>
-      <c r="F72" s="108"/>
-      <c r="G72" s="108"/>
-      <c r="H72" s="108"/>
-      <c r="I72" s="108"/>
-      <c r="J72" s="109"/>
-      <c r="K72" s="83" t="s">
-        <v>84</v>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="43" t="s">
+        <v>15</v>
       </c>
-      <c r="L72" s="83"/>
-      <c r="M72" s="83"/>
-      <c r="N72" s="83"/>
-      <c r="O72" s="83"/>
-      <c r="P72" s="83"/>
-      <c r="Q72" s="83"/>
-      <c r="R72" s="98"/>
-      <c r="S72" s="99"/>
-      <c r="T72" s="99"/>
-      <c r="U72" s="99"/>
-      <c r="V72" s="99"/>
-      <c r="W72" s="99"/>
-      <c r="X72" s="99"/>
-      <c r="Y72" s="99"/>
-      <c r="Z72" s="99"/>
-      <c r="AA72" s="99"/>
-      <c r="AB72" s="99"/>
-      <c r="AC72" s="99"/>
-      <c r="AD72" s="99"/>
-      <c r="AE72" s="99"/>
-      <c r="AF72" s="99"/>
-      <c r="AG72" s="99"/>
-      <c r="AH72" s="99"/>
-      <c r="AI72" s="99"/>
-      <c r="AJ72" s="100"/>
-      <c r="AK72" s="47"/>
-      <c r="AL72" s="48"/>
-      <c r="AM72" s="48"/>
-      <c r="AN72" s="48"/>
-      <c r="AO72" s="48"/>
-      <c r="AP72" s="48"/>
-      <c r="AQ72" s="48"/>
-      <c r="AR72" s="49"/>
-      <c r="AS72" s="82" t="s">
-        <v>84</v>
+      <c r="L72" s="41"/>
+      <c r="M72" s="41"/>
+      <c r="N72" s="41"/>
+      <c r="O72" s="41"/>
+      <c r="P72" s="41"/>
+      <c r="Q72" s="42"/>
+      <c r="R72" s="44" t="s">
+        <v>72</v>
       </c>
-      <c r="AT72" s="83"/>
-      <c r="AU72" s="83"/>
-      <c r="AV72" s="83"/>
-      <c r="AW72" s="83"/>
-      <c r="AX72" s="83"/>
-      <c r="AY72" s="84"/>
+      <c r="S72" s="45"/>
+      <c r="T72" s="45"/>
+      <c r="U72" s="45"/>
+      <c r="V72" s="45"/>
+      <c r="W72" s="45"/>
+      <c r="X72" s="45"/>
+      <c r="Y72" s="45"/>
+      <c r="Z72" s="45"/>
+      <c r="AA72" s="45"/>
+      <c r="AB72" s="45"/>
+      <c r="AC72" s="45"/>
+      <c r="AD72" s="45"/>
+      <c r="AE72" s="45"/>
+      <c r="AF72" s="45"/>
+      <c r="AG72" s="45"/>
+      <c r="AH72" s="45"/>
+      <c r="AI72" s="45"/>
+      <c r="AJ72" s="46"/>
+      <c r="AK72" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="AL72" s="41"/>
+      <c r="AM72" s="41"/>
+      <c r="AN72" s="41"/>
+      <c r="AO72" s="41"/>
+      <c r="AP72" s="41"/>
+      <c r="AQ72" s="41"/>
+      <c r="AR72" s="42"/>
+      <c r="AS72" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT72" s="41"/>
+      <c r="AU72" s="41"/>
+      <c r="AV72" s="41"/>
+      <c r="AW72" s="41"/>
+      <c r="AX72" s="41"/>
+      <c r="AY72" s="42"/>
       <c r="AZ72" s="3"/>
       <c r="BA72" s="3"/>
       <c r="BB72" s="3"/>
@@ -9847,59 +9864,65 @@
     <row r="73" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A73" s="3"/>
       <c r="B73" s="10"/>
-      <c r="C73" s="116"/>
-      <c r="D73" s="117"/>
-      <c r="E73" s="117"/>
-      <c r="F73" s="117"/>
-      <c r="G73" s="117"/>
-      <c r="H73" s="117"/>
-      <c r="I73" s="117"/>
-      <c r="J73" s="118"/>
-      <c r="K73" s="83" t="s">
-        <v>85</v>
+      <c r="C73" s="82" t="s">
+        <v>82</v>
       </c>
-      <c r="L73" s="83"/>
-      <c r="M73" s="83"/>
-      <c r="N73" s="83"/>
-      <c r="O73" s="83"/>
-      <c r="P73" s="83"/>
-      <c r="Q73" s="84"/>
-      <c r="R73" s="98"/>
-      <c r="S73" s="99"/>
-      <c r="T73" s="99"/>
-      <c r="U73" s="99"/>
-      <c r="V73" s="99"/>
-      <c r="W73" s="99"/>
-      <c r="X73" s="99"/>
-      <c r="Y73" s="99"/>
-      <c r="Z73" s="99"/>
-      <c r="AA73" s="99"/>
-      <c r="AB73" s="99"/>
-      <c r="AC73" s="99"/>
-      <c r="AD73" s="99"/>
-      <c r="AE73" s="99"/>
-      <c r="AF73" s="99"/>
-      <c r="AG73" s="99"/>
-      <c r="AH73" s="99"/>
-      <c r="AI73" s="99"/>
-      <c r="AJ73" s="100"/>
-      <c r="AK73" s="47"/>
-      <c r="AL73" s="48"/>
-      <c r="AM73" s="48"/>
-      <c r="AN73" s="48"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="83"/>
+      <c r="H73" s="83"/>
+      <c r="I73" s="83"/>
+      <c r="J73" s="84"/>
+      <c r="K73" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="L73" s="74"/>
+      <c r="M73" s="74"/>
+      <c r="N73" s="74"/>
+      <c r="O73" s="74"/>
+      <c r="P73" s="74"/>
+      <c r="Q73" s="74"/>
+      <c r="R73" s="85" t="s">
+        <v>87</v>
+      </c>
+      <c r="S73" s="86"/>
+      <c r="T73" s="86"/>
+      <c r="U73" s="86"/>
+      <c r="V73" s="86"/>
+      <c r="W73" s="86"/>
+      <c r="X73" s="86"/>
+      <c r="Y73" s="86"/>
+      <c r="Z73" s="86"/>
+      <c r="AA73" s="86"/>
+      <c r="AB73" s="86"/>
+      <c r="AC73" s="86"/>
+      <c r="AD73" s="86"/>
+      <c r="AE73" s="86"/>
+      <c r="AF73" s="86"/>
+      <c r="AG73" s="86"/>
+      <c r="AH73" s="86"/>
+      <c r="AI73" s="86"/>
+      <c r="AJ73" s="87"/>
+      <c r="AK73" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL73" s="47"/>
+      <c r="AM73" s="47"/>
+      <c r="AN73" s="47"/>
       <c r="AO73" s="48"/>
       <c r="AP73" s="48"/>
       <c r="AQ73" s="48"/>
       <c r="AR73" s="49"/>
-      <c r="AS73" s="82" t="s">
-        <v>85</v>
+      <c r="AS73" s="88" t="s">
+        <v>76</v>
       </c>
-      <c r="AT73" s="83"/>
-      <c r="AU73" s="83"/>
-      <c r="AV73" s="83"/>
-      <c r="AW73" s="83"/>
-      <c r="AX73" s="83"/>
-      <c r="AY73" s="84"/>
+      <c r="AT73" s="89"/>
+      <c r="AU73" s="89"/>
+      <c r="AV73" s="89"/>
+      <c r="AW73" s="89"/>
+      <c r="AX73" s="89"/>
+      <c r="AY73" s="59"/>
       <c r="AZ73" s="3"/>
       <c r="BA73" s="3"/>
       <c r="BB73" s="3"/>
@@ -9921,42 +9944,44 @@
     <row r="74" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A74" s="3"/>
       <c r="B74" s="10"/>
-      <c r="C74" s="119"/>
-      <c r="D74" s="120"/>
-      <c r="E74" s="120"/>
-      <c r="F74" s="120"/>
-      <c r="G74" s="120"/>
-      <c r="H74" s="120"/>
-      <c r="I74" s="120"/>
-      <c r="J74" s="121"/>
-      <c r="K74" s="83" t="s">
-        <v>86</v>
+      <c r="C74" s="90" t="s">
+        <v>83</v>
       </c>
-      <c r="L74" s="83"/>
-      <c r="M74" s="83"/>
-      <c r="N74" s="83"/>
-      <c r="O74" s="83"/>
-      <c r="P74" s="83"/>
-      <c r="Q74" s="84"/>
-      <c r="R74" s="98"/>
-      <c r="S74" s="99"/>
-      <c r="T74" s="99"/>
-      <c r="U74" s="99"/>
-      <c r="V74" s="99"/>
-      <c r="W74" s="99"/>
-      <c r="X74" s="99"/>
-      <c r="Y74" s="99"/>
-      <c r="Z74" s="99"/>
-      <c r="AA74" s="99"/>
-      <c r="AB74" s="99"/>
-      <c r="AC74" s="99"/>
-      <c r="AD74" s="99"/>
-      <c r="AE74" s="99"/>
-      <c r="AF74" s="99"/>
-      <c r="AG74" s="99"/>
-      <c r="AH74" s="99"/>
-      <c r="AI74" s="99"/>
-      <c r="AJ74" s="100"/>
+      <c r="D74" s="91"/>
+      <c r="E74" s="91"/>
+      <c r="F74" s="91"/>
+      <c r="G74" s="91"/>
+      <c r="H74" s="91"/>
+      <c r="I74" s="91"/>
+      <c r="J74" s="92"/>
+      <c r="K74" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="L74" s="74"/>
+      <c r="M74" s="74"/>
+      <c r="N74" s="74"/>
+      <c r="O74" s="74"/>
+      <c r="P74" s="74"/>
+      <c r="Q74" s="74"/>
+      <c r="R74" s="75"/>
+      <c r="S74" s="76"/>
+      <c r="T74" s="76"/>
+      <c r="U74" s="76"/>
+      <c r="V74" s="76"/>
+      <c r="W74" s="76"/>
+      <c r="X74" s="76"/>
+      <c r="Y74" s="76"/>
+      <c r="Z74" s="76"/>
+      <c r="AA74" s="76"/>
+      <c r="AB74" s="76"/>
+      <c r="AC74" s="76"/>
+      <c r="AD74" s="76"/>
+      <c r="AE74" s="76"/>
+      <c r="AF74" s="76"/>
+      <c r="AG74" s="76"/>
+      <c r="AH74" s="76"/>
+      <c r="AI74" s="76"/>
+      <c r="AJ74" s="77"/>
       <c r="AK74" s="47"/>
       <c r="AL74" s="48"/>
       <c r="AM74" s="48"/>
@@ -9965,15 +9990,15 @@
       <c r="AP74" s="48"/>
       <c r="AQ74" s="48"/>
       <c r="AR74" s="49"/>
-      <c r="AS74" s="82" t="s">
-        <v>86</v>
+      <c r="AS74" s="73" t="s">
+        <v>84</v>
       </c>
-      <c r="AT74" s="83"/>
-      <c r="AU74" s="83"/>
-      <c r="AV74" s="83"/>
-      <c r="AW74" s="83"/>
-      <c r="AX74" s="83"/>
-      <c r="AY74" s="84"/>
+      <c r="AT74" s="74"/>
+      <c r="AU74" s="74"/>
+      <c r="AV74" s="74"/>
+      <c r="AW74" s="74"/>
+      <c r="AX74" s="74"/>
+      <c r="AY74" s="78"/>
       <c r="AZ74" s="3"/>
       <c r="BA74" s="3"/>
       <c r="BB74" s="3"/>
@@ -9995,42 +10020,42 @@
     <row r="75" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A75" s="3"/>
       <c r="B75" s="10"/>
-      <c r="C75" s="113"/>
-      <c r="D75" s="114"/>
-      <c r="E75" s="114"/>
-      <c r="F75" s="114"/>
-      <c r="G75" s="114"/>
-      <c r="H75" s="114"/>
-      <c r="I75" s="114"/>
-      <c r="J75" s="115"/>
-      <c r="K75" s="82"/>
-      <c r="L75" s="83"/>
-      <c r="M75" s="83"/>
-      <c r="N75" s="83"/>
-      <c r="O75" s="83"/>
-      <c r="P75" s="83"/>
-      <c r="Q75" s="83"/>
-      <c r="R75" s="98" t="s">
-        <v>78</v>
+      <c r="C75" s="79"/>
+      <c r="D75" s="80"/>
+      <c r="E75" s="80"/>
+      <c r="F75" s="80"/>
+      <c r="G75" s="80"/>
+      <c r="H75" s="80"/>
+      <c r="I75" s="80"/>
+      <c r="J75" s="81"/>
+      <c r="K75" s="74" t="s">
+        <v>85</v>
       </c>
-      <c r="S75" s="99"/>
-      <c r="T75" s="99"/>
-      <c r="U75" s="99"/>
-      <c r="V75" s="99"/>
-      <c r="W75" s="99"/>
-      <c r="X75" s="99"/>
-      <c r="Y75" s="99"/>
-      <c r="Z75" s="99"/>
-      <c r="AA75" s="99"/>
-      <c r="AB75" s="99"/>
-      <c r="AC75" s="99"/>
-      <c r="AD75" s="99"/>
-      <c r="AE75" s="99"/>
-      <c r="AF75" s="99"/>
-      <c r="AG75" s="99"/>
-      <c r="AH75" s="99"/>
-      <c r="AI75" s="99"/>
-      <c r="AJ75" s="100"/>
+      <c r="L75" s="74"/>
+      <c r="M75" s="74"/>
+      <c r="N75" s="74"/>
+      <c r="O75" s="74"/>
+      <c r="P75" s="74"/>
+      <c r="Q75" s="78"/>
+      <c r="R75" s="75"/>
+      <c r="S75" s="76"/>
+      <c r="T75" s="76"/>
+      <c r="U75" s="76"/>
+      <c r="V75" s="76"/>
+      <c r="W75" s="76"/>
+      <c r="X75" s="76"/>
+      <c r="Y75" s="76"/>
+      <c r="Z75" s="76"/>
+      <c r="AA75" s="76"/>
+      <c r="AB75" s="76"/>
+      <c r="AC75" s="76"/>
+      <c r="AD75" s="76"/>
+      <c r="AE75" s="76"/>
+      <c r="AF75" s="76"/>
+      <c r="AG75" s="76"/>
+      <c r="AH75" s="76"/>
+      <c r="AI75" s="76"/>
+      <c r="AJ75" s="77"/>
       <c r="AK75" s="47"/>
       <c r="AL75" s="48"/>
       <c r="AM75" s="48"/>
@@ -10039,15 +10064,15 @@
       <c r="AP75" s="48"/>
       <c r="AQ75" s="48"/>
       <c r="AR75" s="49"/>
-      <c r="AS75" s="82" t="s">
-        <v>87</v>
+      <c r="AS75" s="73" t="s">
+        <v>85</v>
       </c>
-      <c r="AT75" s="83"/>
-      <c r="AU75" s="83"/>
-      <c r="AV75" s="83"/>
-      <c r="AW75" s="83"/>
-      <c r="AX75" s="83"/>
-      <c r="AY75" s="84"/>
+      <c r="AT75" s="74"/>
+      <c r="AU75" s="74"/>
+      <c r="AV75" s="74"/>
+      <c r="AW75" s="74"/>
+      <c r="AX75" s="74"/>
+      <c r="AY75" s="78"/>
       <c r="AZ75" s="3"/>
       <c r="BA75" s="3"/>
       <c r="BB75" s="3"/>
@@ -10069,59 +10094,59 @@
     <row r="76" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A76" s="3"/>
       <c r="B76" s="10"/>
-      <c r="C76" s="82"/>
-      <c r="D76" s="83"/>
-      <c r="E76" s="83"/>
-      <c r="F76" s="83"/>
-      <c r="G76" s="83"/>
-      <c r="H76" s="83"/>
-      <c r="I76" s="83"/>
-      <c r="J76" s="84"/>
-      <c r="K76" s="82"/>
-      <c r="L76" s="83"/>
-      <c r="M76" s="83"/>
-      <c r="N76" s="83"/>
-      <c r="O76" s="83"/>
-      <c r="P76" s="83"/>
-      <c r="Q76" s="83"/>
-      <c r="R76" s="98" t="s">
+      <c r="C76" s="70"/>
+      <c r="D76" s="71"/>
+      <c r="E76" s="71"/>
+      <c r="F76" s="71"/>
+      <c r="G76" s="71"/>
+      <c r="H76" s="71"/>
+      <c r="I76" s="71"/>
+      <c r="J76" s="72"/>
+      <c r="K76" s="73"/>
+      <c r="L76" s="74"/>
+      <c r="M76" s="74"/>
+      <c r="N76" s="74"/>
+      <c r="O76" s="74"/>
+      <c r="P76" s="74"/>
+      <c r="Q76" s="74"/>
+      <c r="R76" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="S76" s="99"/>
-      <c r="T76" s="99"/>
-      <c r="U76" s="99"/>
-      <c r="V76" s="99"/>
-      <c r="W76" s="99"/>
-      <c r="X76" s="99"/>
-      <c r="Y76" s="99"/>
-      <c r="Z76" s="99"/>
-      <c r="AA76" s="99"/>
-      <c r="AB76" s="99"/>
-      <c r="AC76" s="99"/>
-      <c r="AD76" s="99"/>
-      <c r="AE76" s="99"/>
-      <c r="AF76" s="99"/>
-      <c r="AG76" s="99"/>
-      <c r="AH76" s="99"/>
-      <c r="AI76" s="99"/>
-      <c r="AJ76" s="100"/>
-      <c r="AK76" s="50"/>
-      <c r="AL76" s="50"/>
-      <c r="AM76" s="50"/>
-      <c r="AN76" s="50"/>
-      <c r="AO76" s="50"/>
-      <c r="AP76" s="50"/>
-      <c r="AQ76" s="50"/>
-      <c r="AR76" s="51"/>
-      <c r="AS76" s="82" t="s">
-        <v>80</v>
+      <c r="S76" s="76"/>
+      <c r="T76" s="76"/>
+      <c r="U76" s="76"/>
+      <c r="V76" s="76"/>
+      <c r="W76" s="76"/>
+      <c r="X76" s="76"/>
+      <c r="Y76" s="76"/>
+      <c r="Z76" s="76"/>
+      <c r="AA76" s="76"/>
+      <c r="AB76" s="76"/>
+      <c r="AC76" s="76"/>
+      <c r="AD76" s="76"/>
+      <c r="AE76" s="76"/>
+      <c r="AF76" s="76"/>
+      <c r="AG76" s="76"/>
+      <c r="AH76" s="76"/>
+      <c r="AI76" s="76"/>
+      <c r="AJ76" s="77"/>
+      <c r="AK76" s="47"/>
+      <c r="AL76" s="48"/>
+      <c r="AM76" s="48"/>
+      <c r="AN76" s="48"/>
+      <c r="AO76" s="48"/>
+      <c r="AP76" s="48"/>
+      <c r="AQ76" s="48"/>
+      <c r="AR76" s="49"/>
+      <c r="AS76" s="73" t="s">
+        <v>86</v>
       </c>
-      <c r="AT76" s="83"/>
-      <c r="AU76" s="83"/>
-      <c r="AV76" s="83"/>
-      <c r="AW76" s="83"/>
-      <c r="AX76" s="83"/>
-      <c r="AY76" s="84"/>
+      <c r="AT76" s="74"/>
+      <c r="AU76" s="74"/>
+      <c r="AV76" s="74"/>
+      <c r="AW76" s="74"/>
+      <c r="AX76" s="74"/>
+      <c r="AY76" s="78"/>
       <c r="AZ76" s="3"/>
       <c r="BA76" s="3"/>
       <c r="BB76" s="3"/>
@@ -10140,58 +10165,62 @@
       <c r="BO76" s="3"/>
       <c r="BP76" s="3"/>
     </row>
-    <row r="77" spans="1:68" ht="16.5">
+    <row r="77" spans="1:68" s="37" customFormat="1" ht="16.5" outlineLevel="1">
       <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-      <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
-      <c r="U77" s="3"/>
-      <c r="V77" s="3"/>
-      <c r="W77" s="3"/>
-      <c r="X77" s="3"/>
-      <c r="Y77" s="3"/>
-      <c r="Z77" s="3"/>
-      <c r="AA77" s="3"/>
-      <c r="AB77" s="3"/>
-      <c r="AC77" s="3"/>
-      <c r="AD77" s="3"/>
-      <c r="AE77" s="3"/>
-      <c r="AF77" s="3"/>
-      <c r="AG77" s="3"/>
-      <c r="AH77" s="3"/>
-      <c r="AI77" s="3"/>
-      <c r="AJ77" s="3"/>
-      <c r="AK77" s="3"/>
-      <c r="AL77" s="3"/>
-      <c r="AM77" s="3"/>
-      <c r="AN77" s="3"/>
-      <c r="AO77" s="3"/>
-      <c r="AP77" s="3"/>
-      <c r="AQ77" s="3"/>
-      <c r="AR77" s="3"/>
-      <c r="AS77" s="3"/>
-      <c r="AT77" s="3"/>
-      <c r="AU77" s="3"/>
-      <c r="AV77" s="3"/>
-      <c r="AW77" s="3"/>
-      <c r="AX77" s="3"/>
-      <c r="AY77" s="3"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="73"/>
+      <c r="D77" s="74"/>
+      <c r="E77" s="74"/>
+      <c r="F77" s="74"/>
+      <c r="G77" s="74"/>
+      <c r="H77" s="74"/>
+      <c r="I77" s="74"/>
+      <c r="J77" s="78"/>
+      <c r="K77" s="73"/>
+      <c r="L77" s="74"/>
+      <c r="M77" s="74"/>
+      <c r="N77" s="74"/>
+      <c r="O77" s="74"/>
+      <c r="P77" s="74"/>
+      <c r="Q77" s="74"/>
+      <c r="R77" s="75" t="s">
+        <v>78</v>
+      </c>
+      <c r="S77" s="76"/>
+      <c r="T77" s="76"/>
+      <c r="U77" s="76"/>
+      <c r="V77" s="76"/>
+      <c r="W77" s="76"/>
+      <c r="X77" s="76"/>
+      <c r="Y77" s="76"/>
+      <c r="Z77" s="76"/>
+      <c r="AA77" s="76"/>
+      <c r="AB77" s="76"/>
+      <c r="AC77" s="76"/>
+      <c r="AD77" s="76"/>
+      <c r="AE77" s="76"/>
+      <c r="AF77" s="76"/>
+      <c r="AG77" s="76"/>
+      <c r="AH77" s="76"/>
+      <c r="AI77" s="76"/>
+      <c r="AJ77" s="77"/>
+      <c r="AK77" s="50"/>
+      <c r="AL77" s="50"/>
+      <c r="AM77" s="50"/>
+      <c r="AN77" s="50"/>
+      <c r="AO77" s="50"/>
+      <c r="AP77" s="50"/>
+      <c r="AQ77" s="50"/>
+      <c r="AR77" s="51"/>
+      <c r="AS77" s="73" t="s">
+        <v>80</v>
+      </c>
+      <c r="AT77" s="74"/>
+      <c r="AU77" s="74"/>
+      <c r="AV77" s="74"/>
+      <c r="AW77" s="74"/>
+      <c r="AX77" s="74"/>
+      <c r="AY77" s="78"/>
       <c r="AZ77" s="3"/>
       <c r="BA77" s="3"/>
       <c r="BB77" s="3"/>
@@ -10281,153 +10310,151 @@
       <c r="BP78" s="3"/>
     </row>
     <row r="79" spans="1:68" ht="16.5">
-      <c r="A79" s="55" t="str">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="3"/>
+      <c r="O79" s="3"/>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3"/>
+      <c r="R79" s="3"/>
+      <c r="S79" s="3"/>
+      <c r="T79" s="3"/>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3"/>
+      <c r="Z79" s="3"/>
+      <c r="AA79" s="3"/>
+      <c r="AB79" s="3"/>
+      <c r="AC79" s="3"/>
+      <c r="AD79" s="3"/>
+      <c r="AE79" s="3"/>
+      <c r="AF79" s="3"/>
+      <c r="AG79" s="3"/>
+      <c r="AH79" s="3"/>
+      <c r="AI79" s="3"/>
+      <c r="AJ79" s="3"/>
+      <c r="AK79" s="3"/>
+      <c r="AL79" s="3"/>
+      <c r="AM79" s="3"/>
+      <c r="AN79" s="3"/>
+      <c r="AO79" s="3"/>
+      <c r="AP79" s="3"/>
+      <c r="AQ79" s="3"/>
+      <c r="AR79" s="3"/>
+      <c r="AS79" s="3"/>
+      <c r="AT79" s="3"/>
+      <c r="AU79" s="3"/>
+      <c r="AV79" s="3"/>
+      <c r="AW79" s="3"/>
+      <c r="AX79" s="3"/>
+      <c r="AY79" s="3"/>
+      <c r="AZ79" s="3"/>
+      <c r="BA79" s="3"/>
+      <c r="BB79" s="3"/>
+      <c r="BC79" s="3"/>
+      <c r="BD79" s="3"/>
+      <c r="BE79" s="3"/>
+      <c r="BF79" s="3"/>
+      <c r="BG79" s="3"/>
+      <c r="BH79" s="3"/>
+      <c r="BI79" s="3"/>
+      <c r="BJ79" s="3"/>
+      <c r="BK79" s="3"/>
+      <c r="BL79" s="3"/>
+      <c r="BM79" s="3"/>
+      <c r="BN79" s="3"/>
+      <c r="BO79" s="3"/>
+      <c r="BP79" s="3"/>
+    </row>
+    <row r="80" spans="1:68" ht="16.5">
+      <c r="A80" s="55" t="str">
         <f ca="1">LEFT($A$1, 4)&amp;"4.備考"</f>
         <v>2.1.4.備考</v>
       </c>
-      <c r="B79" s="1"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="1"/>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-      <c r="K79" s="1"/>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="1"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1"/>
-      <c r="R79" s="1"/>
-      <c r="S79" s="1"/>
-      <c r="T79" s="1"/>
-      <c r="U79" s="1"/>
-      <c r="V79" s="1"/>
-      <c r="W79" s="1"/>
-      <c r="X79" s="1"/>
-      <c r="Y79" s="1"/>
-      <c r="Z79" s="1"/>
-      <c r="AA79" s="1"/>
-      <c r="AB79" s="1"/>
-      <c r="AC79" s="1"/>
-      <c r="AD79" s="1"/>
-      <c r="AE79" s="1"/>
-      <c r="AF79" s="1"/>
-      <c r="AG79" s="1"/>
-      <c r="AH79" s="1"/>
-      <c r="AI79" s="1"/>
-      <c r="AJ79" s="1"/>
-      <c r="AK79" s="1"/>
-      <c r="AL79" s="1"/>
-      <c r="AM79" s="1"/>
-      <c r="AN79" s="1"/>
-      <c r="AO79" s="1"/>
-      <c r="AP79" s="1"/>
-      <c r="AQ79" s="1"/>
-      <c r="AR79" s="1"/>
-      <c r="AS79" s="1"/>
-      <c r="AT79" s="1"/>
-      <c r="AU79" s="1"/>
-      <c r="AV79" s="1"/>
-      <c r="AW79" s="1"/>
-      <c r="AX79" s="1"/>
-      <c r="AY79" s="1"/>
-      <c r="AZ79" s="1"/>
-      <c r="BA79" s="1"/>
-      <c r="BB79" s="1"/>
-      <c r="BC79" s="1"/>
-      <c r="BD79" s="1"/>
-      <c r="BE79" s="1"/>
-      <c r="BF79" s="1"/>
-      <c r="BG79" s="1"/>
-      <c r="BH79" s="1"/>
-      <c r="BI79" s="1"/>
-      <c r="BJ79" s="1"/>
-      <c r="BK79" s="1"/>
-      <c r="BL79" s="1"/>
-      <c r="BM79" s="1"/>
-      <c r="BN79" s="1"/>
-      <c r="BO79" s="1"/>
-      <c r="BP79" s="1"/>
-    </row>
-    <row r="80" spans="1:68" ht="16.5">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
-      <c r="O80" s="3"/>
-      <c r="P80" s="3"/>
-      <c r="Q80" s="3"/>
-      <c r="R80" s="3"/>
-      <c r="S80" s="3"/>
-      <c r="T80" s="3"/>
-      <c r="U80" s="3"/>
-      <c r="V80" s="3"/>
-      <c r="W80" s="3"/>
-      <c r="X80" s="3"/>
-      <c r="Y80" s="3"/>
-      <c r="Z80" s="3"/>
-      <c r="AA80" s="3"/>
-      <c r="AB80" s="3"/>
-      <c r="AC80" s="3"/>
-      <c r="AD80" s="3"/>
-      <c r="AE80" s="3"/>
-      <c r="AF80" s="3"/>
-      <c r="AG80" s="3"/>
-      <c r="AH80" s="3"/>
-      <c r="AI80" s="3"/>
-      <c r="AJ80" s="3"/>
-      <c r="AK80" s="3"/>
-      <c r="AL80" s="3"/>
-      <c r="AM80" s="3"/>
-      <c r="AN80" s="3"/>
-      <c r="AO80" s="3"/>
-      <c r="AP80" s="3"/>
-      <c r="AQ80" s="3"/>
-      <c r="AR80" s="3"/>
-      <c r="AS80" s="3"/>
-      <c r="AT80" s="3"/>
-      <c r="AU80" s="3"/>
-      <c r="AV80" s="3"/>
-      <c r="AW80" s="3"/>
-      <c r="AX80" s="3"/>
-      <c r="AY80" s="3"/>
-      <c r="AZ80" s="3"/>
-      <c r="BA80" s="3"/>
-      <c r="BB80" s="3"/>
-      <c r="BC80" s="3"/>
-      <c r="BD80" s="3"/>
-      <c r="BE80" s="3"/>
-      <c r="BF80" s="3"/>
-      <c r="BG80" s="3"/>
-      <c r="BH80" s="3"/>
-      <c r="BI80" s="3"/>
-      <c r="BJ80" s="3"/>
-      <c r="BK80" s="3"/>
-      <c r="BL80" s="3"/>
-      <c r="BM80" s="3"/>
-      <c r="BN80" s="3"/>
-      <c r="BO80" s="3"/>
-      <c r="BP80" s="3"/>
-    </row>
-    <row r="81" spans="1:68" ht="16.5" outlineLevel="1">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+      <c r="Z80" s="1"/>
+      <c r="AA80" s="1"/>
+      <c r="AB80" s="1"/>
+      <c r="AC80" s="1"/>
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="1"/>
+      <c r="AF80" s="1"/>
+      <c r="AG80" s="1"/>
+      <c r="AH80" s="1"/>
+      <c r="AI80" s="1"/>
+      <c r="AJ80" s="1"/>
+      <c r="AK80" s="1"/>
+      <c r="AL80" s="1"/>
+      <c r="AM80" s="1"/>
+      <c r="AN80" s="1"/>
+      <c r="AO80" s="1"/>
+      <c r="AP80" s="1"/>
+      <c r="AQ80" s="1"/>
+      <c r="AR80" s="1"/>
+      <c r="AS80" s="1"/>
+      <c r="AT80" s="1"/>
+      <c r="AU80" s="1"/>
+      <c r="AV80" s="1"/>
+      <c r="AW80" s="1"/>
+      <c r="AX80" s="1"/>
+      <c r="AY80" s="1"/>
+      <c r="AZ80" s="1"/>
+      <c r="BA80" s="1"/>
+      <c r="BB80" s="1"/>
+      <c r="BC80" s="1"/>
+      <c r="BD80" s="1"/>
+      <c r="BE80" s="1"/>
+      <c r="BF80" s="1"/>
+      <c r="BG80" s="1"/>
+      <c r="BH80" s="1"/>
+      <c r="BI80" s="1"/>
+      <c r="BJ80" s="1"/>
+      <c r="BK80" s="1"/>
+      <c r="BL80" s="1"/>
+      <c r="BM80" s="1"/>
+      <c r="BN80" s="1"/>
+      <c r="BO80" s="1"/>
+      <c r="BP80" s="1"/>
+    </row>
+    <row r="81" spans="1:68" ht="16.5">
       <c r="A81" s="3"/>
-      <c r="B81" s="10" t="s">
-        <v>123</v>
-      </c>
+      <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -10497,10 +10524,10 @@
     </row>
     <row r="82" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3" t="s">
-        <v>14</v>
+      <c r="B82" s="10" t="s">
+        <v>122</v>
       </c>
+      <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -10570,43 +10597,41 @@
     <row r="83" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
-      <c r="C83" s="11" t="s">
-        <v>15</v>
+      <c r="C83" s="3" t="s">
+        <v>14</v>
       </c>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="12"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K83" s="12"/>
-      <c r="L83" s="12"/>
-      <c r="M83" s="12"/>
-      <c r="N83" s="12"/>
-      <c r="O83" s="12"/>
-      <c r="P83" s="12"/>
-      <c r="Q83" s="12"/>
-      <c r="R83" s="12"/>
-      <c r="S83" s="12"/>
-      <c r="T83" s="12"/>
-      <c r="U83" s="12"/>
-      <c r="V83" s="12"/>
-      <c r="W83" s="12"/>
-      <c r="X83" s="12"/>
-      <c r="Y83" s="12"/>
-      <c r="Z83" s="12"/>
-      <c r="AA83" s="12"/>
-      <c r="AB83" s="12"/>
-      <c r="AC83" s="12"/>
-      <c r="AD83" s="12"/>
-      <c r="AE83" s="12"/>
-      <c r="AF83" s="12"/>
-      <c r="AG83" s="12"/>
-      <c r="AH83" s="12"/>
-      <c r="AI83" s="13"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="3"/>
+      <c r="O83" s="3"/>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+      <c r="T83" s="3"/>
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
+      <c r="Z83" s="3"/>
+      <c r="AA83" s="3"/>
+      <c r="AB83" s="3"/>
+      <c r="AC83" s="3"/>
+      <c r="AD83" s="3"/>
+      <c r="AE83" s="3"/>
+      <c r="AF83" s="3"/>
+      <c r="AG83" s="3"/>
+      <c r="AH83" s="3"/>
+      <c r="AI83" s="3"/>
       <c r="AJ83" s="3"/>
       <c r="AK83" s="3"/>
       <c r="AL83" s="3"/>
@@ -10644,43 +10669,43 @@
     <row r="84" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
-      <c r="C84" s="76" t="s">
-        <v>17</v>
+      <c r="C84" s="11" t="s">
+        <v>15</v>
       </c>
-      <c r="D84" s="77"/>
-      <c r="E84" s="77"/>
-      <c r="F84" s="77"/>
-      <c r="G84" s="77"/>
-      <c r="H84" s="77"/>
-      <c r="I84" s="59"/>
-      <c r="J84" s="76" t="s">
-        <v>18</v>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="11" t="s">
+        <v>16</v>
       </c>
-      <c r="K84" s="77"/>
-      <c r="L84" s="77"/>
-      <c r="M84" s="77"/>
-      <c r="N84" s="77"/>
-      <c r="O84" s="77"/>
-      <c r="P84" s="77"/>
-      <c r="Q84" s="77"/>
-      <c r="R84" s="77"/>
-      <c r="S84" s="77"/>
-      <c r="T84" s="77"/>
-      <c r="U84" s="77"/>
-      <c r="V84" s="77"/>
-      <c r="W84" s="77"/>
-      <c r="X84" s="77"/>
-      <c r="Y84" s="77"/>
-      <c r="Z84" s="77"/>
-      <c r="AA84" s="77"/>
-      <c r="AB84" s="77"/>
-      <c r="AC84" s="77"/>
-      <c r="AD84" s="77"/>
-      <c r="AE84" s="77"/>
-      <c r="AF84" s="77"/>
-      <c r="AG84" s="77"/>
-      <c r="AH84" s="77"/>
-      <c r="AI84" s="59"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12"/>
+      <c r="S84" s="12"/>
+      <c r="T84" s="12"/>
+      <c r="U84" s="12"/>
+      <c r="V84" s="12"/>
+      <c r="W84" s="12"/>
+      <c r="X84" s="12"/>
+      <c r="Y84" s="12"/>
+      <c r="Z84" s="12"/>
+      <c r="AA84" s="12"/>
+      <c r="AB84" s="12"/>
+      <c r="AC84" s="12"/>
+      <c r="AD84" s="12"/>
+      <c r="AE84" s="12"/>
+      <c r="AF84" s="12"/>
+      <c r="AG84" s="12"/>
+      <c r="AH84" s="12"/>
+      <c r="AI84" s="13"/>
       <c r="AJ84" s="3"/>
       <c r="AK84" s="3"/>
       <c r="AL84" s="3"/>
@@ -10718,42 +10743,42 @@
     <row r="85" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
-      <c r="C85" s="76" t="s">
-        <v>19</v>
+      <c r="C85" s="88" t="s">
+        <v>17</v>
       </c>
-      <c r="D85" s="77"/>
-      <c r="E85" s="77"/>
-      <c r="F85" s="77"/>
-      <c r="G85" s="77"/>
-      <c r="H85" s="77"/>
+      <c r="D85" s="89"/>
+      <c r="E85" s="89"/>
+      <c r="F85" s="89"/>
+      <c r="G85" s="89"/>
+      <c r="H85" s="89"/>
       <c r="I85" s="59"/>
-      <c r="J85" s="76" t="s">
-        <v>20</v>
+      <c r="J85" s="88" t="s">
+        <v>18</v>
       </c>
-      <c r="K85" s="77"/>
-      <c r="L85" s="77"/>
-      <c r="M85" s="77"/>
-      <c r="N85" s="77"/>
-      <c r="O85" s="77"/>
-      <c r="P85" s="77"/>
-      <c r="Q85" s="77"/>
-      <c r="R85" s="77"/>
-      <c r="S85" s="77"/>
-      <c r="T85" s="77"/>
-      <c r="U85" s="77"/>
-      <c r="V85" s="77"/>
-      <c r="W85" s="77"/>
-      <c r="X85" s="77"/>
-      <c r="Y85" s="77"/>
-      <c r="Z85" s="77"/>
-      <c r="AA85" s="77"/>
-      <c r="AB85" s="77"/>
-      <c r="AC85" s="77"/>
-      <c r="AD85" s="77"/>
-      <c r="AE85" s="77"/>
-      <c r="AF85" s="77"/>
-      <c r="AG85" s="77"/>
-      <c r="AH85" s="77"/>
+      <c r="K85" s="89"/>
+      <c r="L85" s="89"/>
+      <c r="M85" s="89"/>
+      <c r="N85" s="89"/>
+      <c r="O85" s="89"/>
+      <c r="P85" s="89"/>
+      <c r="Q85" s="89"/>
+      <c r="R85" s="89"/>
+      <c r="S85" s="89"/>
+      <c r="T85" s="89"/>
+      <c r="U85" s="89"/>
+      <c r="V85" s="89"/>
+      <c r="W85" s="89"/>
+      <c r="X85" s="89"/>
+      <c r="Y85" s="89"/>
+      <c r="Z85" s="89"/>
+      <c r="AA85" s="89"/>
+      <c r="AB85" s="89"/>
+      <c r="AC85" s="89"/>
+      <c r="AD85" s="89"/>
+      <c r="AE85" s="89"/>
+      <c r="AF85" s="89"/>
+      <c r="AG85" s="89"/>
+      <c r="AH85" s="89"/>
       <c r="AI85" s="59"/>
       <c r="AJ85" s="3"/>
       <c r="AK85" s="3"/>
@@ -10789,46 +10814,46 @@
       <c r="BO85" s="3"/>
       <c r="BP85" s="3"/>
     </row>
-    <row r="86" spans="1:68" ht="31.5" customHeight="1" outlineLevel="1">
+    <row r="86" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
-      <c r="C86" s="76" t="s">
-        <v>21</v>
+      <c r="C86" s="88" t="s">
+        <v>19</v>
       </c>
-      <c r="D86" s="77"/>
-      <c r="E86" s="77"/>
-      <c r="F86" s="77"/>
-      <c r="G86" s="77"/>
-      <c r="H86" s="77"/>
+      <c r="D86" s="89"/>
+      <c r="E86" s="89"/>
+      <c r="F86" s="89"/>
+      <c r="G86" s="89"/>
+      <c r="H86" s="89"/>
       <c r="I86" s="59"/>
-      <c r="J86" s="78" t="s">
-        <v>47</v>
+      <c r="J86" s="88" t="s">
+        <v>20</v>
       </c>
-      <c r="K86" s="79"/>
-      <c r="L86" s="79"/>
-      <c r="M86" s="79"/>
-      <c r="N86" s="79"/>
-      <c r="O86" s="79"/>
-      <c r="P86" s="79"/>
-      <c r="Q86" s="79"/>
-      <c r="R86" s="79"/>
-      <c r="S86" s="79"/>
-      <c r="T86" s="79"/>
-      <c r="U86" s="79"/>
-      <c r="V86" s="79"/>
-      <c r="W86" s="79"/>
-      <c r="X86" s="79"/>
-      <c r="Y86" s="79"/>
-      <c r="Z86" s="79"/>
-      <c r="AA86" s="79"/>
-      <c r="AB86" s="79"/>
-      <c r="AC86" s="79"/>
-      <c r="AD86" s="79"/>
-      <c r="AE86" s="79"/>
-      <c r="AF86" s="79"/>
-      <c r="AG86" s="79"/>
-      <c r="AH86" s="79"/>
-      <c r="AI86" s="80"/>
+      <c r="K86" s="89"/>
+      <c r="L86" s="89"/>
+      <c r="M86" s="89"/>
+      <c r="N86" s="89"/>
+      <c r="O86" s="89"/>
+      <c r="P86" s="89"/>
+      <c r="Q86" s="89"/>
+      <c r="R86" s="89"/>
+      <c r="S86" s="89"/>
+      <c r="T86" s="89"/>
+      <c r="U86" s="89"/>
+      <c r="V86" s="89"/>
+      <c r="W86" s="89"/>
+      <c r="X86" s="89"/>
+      <c r="Y86" s="89"/>
+      <c r="Z86" s="89"/>
+      <c r="AA86" s="89"/>
+      <c r="AB86" s="89"/>
+      <c r="AC86" s="89"/>
+      <c r="AD86" s="89"/>
+      <c r="AE86" s="89"/>
+      <c r="AF86" s="89"/>
+      <c r="AG86" s="89"/>
+      <c r="AH86" s="89"/>
+      <c r="AI86" s="59"/>
       <c r="AJ86" s="3"/>
       <c r="AK86" s="3"/>
       <c r="AL86" s="3"/>
@@ -10863,42 +10888,46 @@
       <c r="BO86" s="3"/>
       <c r="BP86" s="3"/>
     </row>
-    <row r="87" spans="1:68" ht="16.5" outlineLevel="1">
+    <row r="87" spans="1:68" ht="31.5" customHeight="1" outlineLevel="1">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
-      <c r="C87" s="47"/>
-      <c r="D87" s="47"/>
-      <c r="E87" s="47"/>
-      <c r="F87" s="47"/>
-      <c r="G87" s="47"/>
-      <c r="H87" s="47"/>
-      <c r="I87" s="47"/>
-      <c r="J87" s="54"/>
-      <c r="K87" s="54"/>
-      <c r="L87" s="54"/>
-      <c r="M87" s="54"/>
-      <c r="N87" s="54"/>
-      <c r="O87" s="54"/>
-      <c r="P87" s="54"/>
-      <c r="Q87" s="54"/>
-      <c r="R87" s="54"/>
-      <c r="S87" s="54"/>
-      <c r="T87" s="54"/>
-      <c r="U87" s="54"/>
-      <c r="V87" s="54"/>
-      <c r="W87" s="54"/>
-      <c r="X87" s="54"/>
-      <c r="Y87" s="54"/>
-      <c r="Z87" s="54"/>
-      <c r="AA87" s="54"/>
-      <c r="AB87" s="54"/>
-      <c r="AC87" s="54"/>
-      <c r="AD87" s="54"/>
-      <c r="AE87" s="54"/>
-      <c r="AF87" s="54"/>
-      <c r="AG87" s="54"/>
-      <c r="AH87" s="54"/>
-      <c r="AI87" s="54"/>
+      <c r="C87" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="D87" s="89"/>
+      <c r="E87" s="89"/>
+      <c r="F87" s="89"/>
+      <c r="G87" s="89"/>
+      <c r="H87" s="89"/>
+      <c r="I87" s="59"/>
+      <c r="J87" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="K87" s="102"/>
+      <c r="L87" s="102"/>
+      <c r="M87" s="102"/>
+      <c r="N87" s="102"/>
+      <c r="O87" s="102"/>
+      <c r="P87" s="102"/>
+      <c r="Q87" s="102"/>
+      <c r="R87" s="102"/>
+      <c r="S87" s="102"/>
+      <c r="T87" s="102"/>
+      <c r="U87" s="102"/>
+      <c r="V87" s="102"/>
+      <c r="W87" s="102"/>
+      <c r="X87" s="102"/>
+      <c r="Y87" s="102"/>
+      <c r="Z87" s="102"/>
+      <c r="AA87" s="102"/>
+      <c r="AB87" s="102"/>
+      <c r="AC87" s="102"/>
+      <c r="AD87" s="102"/>
+      <c r="AE87" s="102"/>
+      <c r="AF87" s="102"/>
+      <c r="AG87" s="102"/>
+      <c r="AH87" s="102"/>
+      <c r="AI87" s="103"/>
       <c r="AJ87" s="3"/>
       <c r="AK87" s="3"/>
       <c r="AL87" s="3"/>
@@ -10935,42 +10964,40 @@
     </row>
     <row r="88" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A88" s="3"/>
-      <c r="B88" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
-      <c r="N88" s="3"/>
-      <c r="O88" s="3"/>
-      <c r="P88" s="3"/>
-      <c r="Q88" s="3"/>
-      <c r="R88" s="3"/>
-      <c r="S88" s="3"/>
-      <c r="T88" s="3"/>
-      <c r="U88" s="3"/>
-      <c r="V88" s="3"/>
-      <c r="W88" s="3"/>
-      <c r="X88" s="3"/>
-      <c r="Y88" s="3"/>
-      <c r="Z88" s="3"/>
-      <c r="AA88" s="3"/>
-      <c r="AB88" s="3"/>
-      <c r="AC88" s="3"/>
-      <c r="AD88" s="3"/>
-      <c r="AE88" s="3"/>
-      <c r="AF88" s="3"/>
-      <c r="AG88" s="3"/>
-      <c r="AH88" s="3"/>
-      <c r="AI88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="47"/>
+      <c r="D88" s="47"/>
+      <c r="E88" s="47"/>
+      <c r="F88" s="47"/>
+      <c r="G88" s="47"/>
+      <c r="H88" s="47"/>
+      <c r="I88" s="47"/>
+      <c r="J88" s="54"/>
+      <c r="K88" s="54"/>
+      <c r="L88" s="54"/>
+      <c r="M88" s="54"/>
+      <c r="N88" s="54"/>
+      <c r="O88" s="54"/>
+      <c r="P88" s="54"/>
+      <c r="Q88" s="54"/>
+      <c r="R88" s="54"/>
+      <c r="S88" s="54"/>
+      <c r="T88" s="54"/>
+      <c r="U88" s="54"/>
+      <c r="V88" s="54"/>
+      <c r="W88" s="54"/>
+      <c r="X88" s="54"/>
+      <c r="Y88" s="54"/>
+      <c r="Z88" s="54"/>
+      <c r="AA88" s="54"/>
+      <c r="AB88" s="54"/>
+      <c r="AC88" s="54"/>
+      <c r="AD88" s="54"/>
+      <c r="AE88" s="54"/>
+      <c r="AF88" s="54"/>
+      <c r="AG88" s="54"/>
+      <c r="AH88" s="54"/>
+      <c r="AI88" s="54"/>
       <c r="AJ88" s="3"/>
       <c r="AK88" s="3"/>
       <c r="AL88" s="3"/>
@@ -11007,10 +11034,10 @@
     </row>
     <row r="89" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3" t="s">
-        <v>14</v>
+      <c r="B89" s="10" t="s">
+        <v>123</v>
       </c>
+      <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
@@ -11080,43 +11107,41 @@
     <row r="90" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
-      <c r="C90" s="11" t="s">
-        <v>15</v>
+      <c r="C90" s="3" t="s">
+        <v>14</v>
       </c>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="12"/>
-      <c r="I90" s="13"/>
-      <c r="J90" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K90" s="12"/>
-      <c r="L90" s="12"/>
-      <c r="M90" s="12"/>
-      <c r="N90" s="12"/>
-      <c r="O90" s="12"/>
-      <c r="P90" s="12"/>
-      <c r="Q90" s="12"/>
-      <c r="R90" s="12"/>
-      <c r="S90" s="12"/>
-      <c r="T90" s="12"/>
-      <c r="U90" s="12"/>
-      <c r="V90" s="12"/>
-      <c r="W90" s="12"/>
-      <c r="X90" s="12"/>
-      <c r="Y90" s="12"/>
-      <c r="Z90" s="12"/>
-      <c r="AA90" s="12"/>
-      <c r="AB90" s="12"/>
-      <c r="AC90" s="12"/>
-      <c r="AD90" s="12"/>
-      <c r="AE90" s="12"/>
-      <c r="AF90" s="12"/>
-      <c r="AG90" s="12"/>
-      <c r="AH90" s="12"/>
-      <c r="AI90" s="13"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3"/>
+      <c r="F90" s="3"/>
+      <c r="G90" s="3"/>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+      <c r="AF90" s="3"/>
+      <c r="AG90" s="3"/>
+      <c r="AH90" s="3"/>
+      <c r="AI90" s="3"/>
       <c r="AJ90" s="3"/>
       <c r="AK90" s="3"/>
       <c r="AL90" s="3"/>
@@ -11154,43 +11179,43 @@
     <row r="91" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
-      <c r="C91" s="76" t="s">
-        <v>17</v>
+      <c r="C91" s="11" t="s">
+        <v>15</v>
       </c>
-      <c r="D91" s="77"/>
-      <c r="E91" s="77"/>
-      <c r="F91" s="77"/>
-      <c r="G91" s="77"/>
-      <c r="H91" s="77"/>
-      <c r="I91" s="59"/>
-      <c r="J91" s="76" t="s">
-        <v>18</v>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="13"/>
+      <c r="J91" s="11" t="s">
+        <v>16</v>
       </c>
-      <c r="K91" s="77"/>
-      <c r="L91" s="77"/>
-      <c r="M91" s="77"/>
-      <c r="N91" s="77"/>
-      <c r="O91" s="77"/>
-      <c r="P91" s="77"/>
-      <c r="Q91" s="77"/>
-      <c r="R91" s="77"/>
-      <c r="S91" s="77"/>
-      <c r="T91" s="77"/>
-      <c r="U91" s="77"/>
-      <c r="V91" s="77"/>
-      <c r="W91" s="77"/>
-      <c r="X91" s="77"/>
-      <c r="Y91" s="77"/>
-      <c r="Z91" s="77"/>
-      <c r="AA91" s="77"/>
-      <c r="AB91" s="77"/>
-      <c r="AC91" s="77"/>
-      <c r="AD91" s="77"/>
-      <c r="AE91" s="77"/>
-      <c r="AF91" s="77"/>
-      <c r="AG91" s="77"/>
-      <c r="AH91" s="77"/>
-      <c r="AI91" s="59"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="12"/>
+      <c r="P91" s="12"/>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="12"/>
+      <c r="S91" s="12"/>
+      <c r="T91" s="12"/>
+      <c r="U91" s="12"/>
+      <c r="V91" s="12"/>
+      <c r="W91" s="12"/>
+      <c r="X91" s="12"/>
+      <c r="Y91" s="12"/>
+      <c r="Z91" s="12"/>
+      <c r="AA91" s="12"/>
+      <c r="AB91" s="12"/>
+      <c r="AC91" s="12"/>
+      <c r="AD91" s="12"/>
+      <c r="AE91" s="12"/>
+      <c r="AF91" s="12"/>
+      <c r="AG91" s="12"/>
+      <c r="AH91" s="12"/>
+      <c r="AI91" s="13"/>
       <c r="AJ91" s="3"/>
       <c r="AK91" s="3"/>
       <c r="AL91" s="3"/>
@@ -11228,42 +11253,42 @@
     <row r="92" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
-      <c r="C92" s="76" t="s">
-        <v>19</v>
+      <c r="C92" s="88" t="s">
+        <v>17</v>
       </c>
-      <c r="D92" s="77"/>
-      <c r="E92" s="77"/>
-      <c r="F92" s="77"/>
-      <c r="G92" s="77"/>
-      <c r="H92" s="77"/>
+      <c r="D92" s="89"/>
+      <c r="E92" s="89"/>
+      <c r="F92" s="89"/>
+      <c r="G92" s="89"/>
+      <c r="H92" s="89"/>
       <c r="I92" s="59"/>
-      <c r="J92" s="76" t="s">
-        <v>131</v>
+      <c r="J92" s="88" t="s">
+        <v>18</v>
       </c>
-      <c r="K92" s="77"/>
-      <c r="L92" s="77"/>
-      <c r="M92" s="77"/>
-      <c r="N92" s="77"/>
-      <c r="O92" s="77"/>
-      <c r="P92" s="77"/>
-      <c r="Q92" s="77"/>
-      <c r="R92" s="77"/>
-      <c r="S92" s="77"/>
-      <c r="T92" s="77"/>
-      <c r="U92" s="77"/>
-      <c r="V92" s="77"/>
-      <c r="W92" s="77"/>
-      <c r="X92" s="77"/>
-      <c r="Y92" s="77"/>
-      <c r="Z92" s="77"/>
-      <c r="AA92" s="77"/>
-      <c r="AB92" s="77"/>
-      <c r="AC92" s="77"/>
-      <c r="AD92" s="77"/>
-      <c r="AE92" s="77"/>
-      <c r="AF92" s="77"/>
-      <c r="AG92" s="77"/>
-      <c r="AH92" s="77"/>
+      <c r="K92" s="89"/>
+      <c r="L92" s="89"/>
+      <c r="M92" s="89"/>
+      <c r="N92" s="89"/>
+      <c r="O92" s="89"/>
+      <c r="P92" s="89"/>
+      <c r="Q92" s="89"/>
+      <c r="R92" s="89"/>
+      <c r="S92" s="89"/>
+      <c r="T92" s="89"/>
+      <c r="U92" s="89"/>
+      <c r="V92" s="89"/>
+      <c r="W92" s="89"/>
+      <c r="X92" s="89"/>
+      <c r="Y92" s="89"/>
+      <c r="Z92" s="89"/>
+      <c r="AA92" s="89"/>
+      <c r="AB92" s="89"/>
+      <c r="AC92" s="89"/>
+      <c r="AD92" s="89"/>
+      <c r="AE92" s="89"/>
+      <c r="AF92" s="89"/>
+      <c r="AG92" s="89"/>
+      <c r="AH92" s="89"/>
       <c r="AI92" s="59"/>
       <c r="AJ92" s="3"/>
       <c r="AK92" s="3"/>
@@ -11299,46 +11324,46 @@
       <c r="BO92" s="3"/>
       <c r="BP92" s="3"/>
     </row>
-    <row r="93" spans="1:68" ht="31.5" customHeight="1" outlineLevel="1">
+    <row r="93" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
-      <c r="C93" s="76" t="s">
-        <v>21</v>
+      <c r="C93" s="88" t="s">
+        <v>19</v>
       </c>
-      <c r="D93" s="77"/>
-      <c r="E93" s="77"/>
-      <c r="F93" s="77"/>
-      <c r="G93" s="77"/>
-      <c r="H93" s="77"/>
+      <c r="D93" s="89"/>
+      <c r="E93" s="89"/>
+      <c r="F93" s="89"/>
+      <c r="G93" s="89"/>
+      <c r="H93" s="89"/>
       <c r="I93" s="59"/>
-      <c r="J93" s="78" t="s">
-        <v>47</v>
+      <c r="J93" s="88" t="s">
+        <v>130</v>
       </c>
-      <c r="K93" s="79"/>
-      <c r="L93" s="79"/>
-      <c r="M93" s="79"/>
-      <c r="N93" s="79"/>
-      <c r="O93" s="79"/>
-      <c r="P93" s="79"/>
-      <c r="Q93" s="79"/>
-      <c r="R93" s="79"/>
-      <c r="S93" s="79"/>
-      <c r="T93" s="79"/>
-      <c r="U93" s="79"/>
-      <c r="V93" s="79"/>
-      <c r="W93" s="79"/>
-      <c r="X93" s="79"/>
-      <c r="Y93" s="79"/>
-      <c r="Z93" s="79"/>
-      <c r="AA93" s="79"/>
-      <c r="AB93" s="79"/>
-      <c r="AC93" s="79"/>
-      <c r="AD93" s="79"/>
-      <c r="AE93" s="79"/>
-      <c r="AF93" s="79"/>
-      <c r="AG93" s="79"/>
-      <c r="AH93" s="79"/>
-      <c r="AI93" s="80"/>
+      <c r="K93" s="89"/>
+      <c r="L93" s="89"/>
+      <c r="M93" s="89"/>
+      <c r="N93" s="89"/>
+      <c r="O93" s="89"/>
+      <c r="P93" s="89"/>
+      <c r="Q93" s="89"/>
+      <c r="R93" s="89"/>
+      <c r="S93" s="89"/>
+      <c r="T93" s="89"/>
+      <c r="U93" s="89"/>
+      <c r="V93" s="89"/>
+      <c r="W93" s="89"/>
+      <c r="X93" s="89"/>
+      <c r="Y93" s="89"/>
+      <c r="Z93" s="89"/>
+      <c r="AA93" s="89"/>
+      <c r="AB93" s="89"/>
+      <c r="AC93" s="89"/>
+      <c r="AD93" s="89"/>
+      <c r="AE93" s="89"/>
+      <c r="AF93" s="89"/>
+      <c r="AG93" s="89"/>
+      <c r="AH93" s="89"/>
+      <c r="AI93" s="59"/>
       <c r="AJ93" s="3"/>
       <c r="AK93" s="3"/>
       <c r="AL93" s="3"/>
@@ -11373,42 +11398,46 @@
       <c r="BO93" s="3"/>
       <c r="BP93" s="3"/>
     </row>
-    <row r="94" spans="1:68" ht="16.5" outlineLevel="1">
+    <row r="94" spans="1:68" ht="31.5" customHeight="1" outlineLevel="1">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
-      <c r="C94" s="47"/>
-      <c r="D94" s="47"/>
-      <c r="E94" s="47"/>
-      <c r="F94" s="47"/>
-      <c r="G94" s="47"/>
-      <c r="H94" s="47"/>
-      <c r="I94" s="47"/>
-      <c r="J94" s="54"/>
-      <c r="K94" s="54"/>
-      <c r="L94" s="54"/>
-      <c r="M94" s="54"/>
-      <c r="N94" s="54"/>
-      <c r="O94" s="54"/>
-      <c r="P94" s="54"/>
-      <c r="Q94" s="54"/>
-      <c r="R94" s="54"/>
-      <c r="S94" s="54"/>
-      <c r="T94" s="54"/>
-      <c r="U94" s="54"/>
-      <c r="V94" s="54"/>
-      <c r="W94" s="54"/>
-      <c r="X94" s="54"/>
-      <c r="Y94" s="54"/>
-      <c r="Z94" s="54"/>
-      <c r="AA94" s="54"/>
-      <c r="AB94" s="54"/>
-      <c r="AC94" s="54"/>
-      <c r="AD94" s="54"/>
-      <c r="AE94" s="54"/>
-      <c r="AF94" s="54"/>
-      <c r="AG94" s="54"/>
-      <c r="AH94" s="54"/>
-      <c r="AI94" s="54"/>
+      <c r="C94" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="D94" s="89"/>
+      <c r="E94" s="89"/>
+      <c r="F94" s="89"/>
+      <c r="G94" s="89"/>
+      <c r="H94" s="89"/>
+      <c r="I94" s="59"/>
+      <c r="J94" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="K94" s="102"/>
+      <c r="L94" s="102"/>
+      <c r="M94" s="102"/>
+      <c r="N94" s="102"/>
+      <c r="O94" s="102"/>
+      <c r="P94" s="102"/>
+      <c r="Q94" s="102"/>
+      <c r="R94" s="102"/>
+      <c r="S94" s="102"/>
+      <c r="T94" s="102"/>
+      <c r="U94" s="102"/>
+      <c r="V94" s="102"/>
+      <c r="W94" s="102"/>
+      <c r="X94" s="102"/>
+      <c r="Y94" s="102"/>
+      <c r="Z94" s="102"/>
+      <c r="AA94" s="102"/>
+      <c r="AB94" s="102"/>
+      <c r="AC94" s="102"/>
+      <c r="AD94" s="102"/>
+      <c r="AE94" s="102"/>
+      <c r="AF94" s="102"/>
+      <c r="AG94" s="102"/>
+      <c r="AH94" s="102"/>
+      <c r="AI94" s="103"/>
       <c r="AJ94" s="3"/>
       <c r="AK94" s="3"/>
       <c r="AL94" s="3"/>
@@ -11445,42 +11474,40 @@
     </row>
     <row r="95" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A95" s="3"/>
-      <c r="B95" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="3"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
-      <c r="M95" s="3"/>
-      <c r="N95" s="3"/>
-      <c r="O95" s="3"/>
-      <c r="P95" s="3"/>
-      <c r="Q95" s="3"/>
-      <c r="R95" s="3"/>
-      <c r="S95" s="3"/>
-      <c r="T95" s="3"/>
-      <c r="U95" s="3"/>
-      <c r="V95" s="3"/>
-      <c r="W95" s="3"/>
-      <c r="X95" s="3"/>
-      <c r="Y95" s="3"/>
-      <c r="Z95" s="3"/>
-      <c r="AA95" s="3"/>
-      <c r="AB95" s="3"/>
-      <c r="AC95" s="3"/>
-      <c r="AD95" s="3"/>
-      <c r="AE95" s="3"/>
-      <c r="AF95" s="3"/>
-      <c r="AG95" s="3"/>
-      <c r="AH95" s="3"/>
-      <c r="AI95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="47"/>
+      <c r="D95" s="47"/>
+      <c r="E95" s="47"/>
+      <c r="F95" s="47"/>
+      <c r="G95" s="47"/>
+      <c r="H95" s="47"/>
+      <c r="I95" s="47"/>
+      <c r="J95" s="54"/>
+      <c r="K95" s="54"/>
+      <c r="L95" s="54"/>
+      <c r="M95" s="54"/>
+      <c r="N95" s="54"/>
+      <c r="O95" s="54"/>
+      <c r="P95" s="54"/>
+      <c r="Q95" s="54"/>
+      <c r="R95" s="54"/>
+      <c r="S95" s="54"/>
+      <c r="T95" s="54"/>
+      <c r="U95" s="54"/>
+      <c r="V95" s="54"/>
+      <c r="W95" s="54"/>
+      <c r="X95" s="54"/>
+      <c r="Y95" s="54"/>
+      <c r="Z95" s="54"/>
+      <c r="AA95" s="54"/>
+      <c r="AB95" s="54"/>
+      <c r="AC95" s="54"/>
+      <c r="AD95" s="54"/>
+      <c r="AE95" s="54"/>
+      <c r="AF95" s="54"/>
+      <c r="AG95" s="54"/>
+      <c r="AH95" s="54"/>
+      <c r="AI95" s="54"/>
       <c r="AJ95" s="3"/>
       <c r="AK95" s="3"/>
       <c r="AL95" s="3"/>
@@ -11517,10 +11544,10 @@
     </row>
     <row r="96" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3" t="s">
-        <v>14</v>
+      <c r="B96" s="10" t="s">
+        <v>124</v>
       </c>
+      <c r="C96" s="3"/>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
@@ -11590,43 +11617,41 @@
     <row r="97" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A97" s="3"/>
       <c r="B97" s="3"/>
-      <c r="C97" s="11" t="s">
-        <v>15</v>
+      <c r="C97" s="3" t="s">
+        <v>14</v>
       </c>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="13"/>
-      <c r="J97" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K97" s="12"/>
-      <c r="L97" s="12"/>
-      <c r="M97" s="12"/>
-      <c r="N97" s="12"/>
-      <c r="O97" s="12"/>
-      <c r="P97" s="12"/>
-      <c r="Q97" s="12"/>
-      <c r="R97" s="12"/>
-      <c r="S97" s="12"/>
-      <c r="T97" s="12"/>
-      <c r="U97" s="12"/>
-      <c r="V97" s="12"/>
-      <c r="W97" s="12"/>
-      <c r="X97" s="12"/>
-      <c r="Y97" s="12"/>
-      <c r="Z97" s="12"/>
-      <c r="AA97" s="12"/>
-      <c r="AB97" s="12"/>
-      <c r="AC97" s="12"/>
-      <c r="AD97" s="12"/>
-      <c r="AE97" s="12"/>
-      <c r="AF97" s="12"/>
-      <c r="AG97" s="12"/>
-      <c r="AH97" s="12"/>
-      <c r="AI97" s="13"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="3"/>
+      <c r="F97" s="3"/>
+      <c r="G97" s="3"/>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="3"/>
+      <c r="O97" s="3"/>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3"/>
+      <c r="R97" s="3"/>
+      <c r="S97" s="3"/>
+      <c r="T97" s="3"/>
+      <c r="U97" s="3"/>
+      <c r="V97" s="3"/>
+      <c r="W97" s="3"/>
+      <c r="X97" s="3"/>
+      <c r="Y97" s="3"/>
+      <c r="Z97" s="3"/>
+      <c r="AA97" s="3"/>
+      <c r="AB97" s="3"/>
+      <c r="AC97" s="3"/>
+      <c r="AD97" s="3"/>
+      <c r="AE97" s="3"/>
+      <c r="AF97" s="3"/>
+      <c r="AG97" s="3"/>
+      <c r="AH97" s="3"/>
+      <c r="AI97" s="3"/>
       <c r="AJ97" s="3"/>
       <c r="AK97" s="3"/>
       <c r="AL97" s="3"/>
@@ -11664,43 +11689,43 @@
     <row r="98" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
-      <c r="C98" s="76" t="s">
-        <v>17</v>
+      <c r="C98" s="11" t="s">
+        <v>15</v>
       </c>
-      <c r="D98" s="77"/>
-      <c r="E98" s="77"/>
-      <c r="F98" s="77"/>
-      <c r="G98" s="77"/>
-      <c r="H98" s="77"/>
-      <c r="I98" s="59"/>
-      <c r="J98" s="76" t="s">
-        <v>18</v>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="13"/>
+      <c r="J98" s="11" t="s">
+        <v>16</v>
       </c>
-      <c r="K98" s="77"/>
-      <c r="L98" s="77"/>
-      <c r="M98" s="77"/>
-      <c r="N98" s="77"/>
-      <c r="O98" s="77"/>
-      <c r="P98" s="77"/>
-      <c r="Q98" s="77"/>
-      <c r="R98" s="77"/>
-      <c r="S98" s="77"/>
-      <c r="T98" s="77"/>
-      <c r="U98" s="77"/>
-      <c r="V98" s="77"/>
-      <c r="W98" s="77"/>
-      <c r="X98" s="77"/>
-      <c r="Y98" s="77"/>
-      <c r="Z98" s="77"/>
-      <c r="AA98" s="77"/>
-      <c r="AB98" s="77"/>
-      <c r="AC98" s="77"/>
-      <c r="AD98" s="77"/>
-      <c r="AE98" s="77"/>
-      <c r="AF98" s="77"/>
-      <c r="AG98" s="77"/>
-      <c r="AH98" s="77"/>
-      <c r="AI98" s="59"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="12"/>
+      <c r="O98" s="12"/>
+      <c r="P98" s="12"/>
+      <c r="Q98" s="12"/>
+      <c r="R98" s="12"/>
+      <c r="S98" s="12"/>
+      <c r="T98" s="12"/>
+      <c r="U98" s="12"/>
+      <c r="V98" s="12"/>
+      <c r="W98" s="12"/>
+      <c r="X98" s="12"/>
+      <c r="Y98" s="12"/>
+      <c r="Z98" s="12"/>
+      <c r="AA98" s="12"/>
+      <c r="AB98" s="12"/>
+      <c r="AC98" s="12"/>
+      <c r="AD98" s="12"/>
+      <c r="AE98" s="12"/>
+      <c r="AF98" s="12"/>
+      <c r="AG98" s="12"/>
+      <c r="AH98" s="12"/>
+      <c r="AI98" s="13"/>
       <c r="AJ98" s="3"/>
       <c r="AK98" s="3"/>
       <c r="AL98" s="3"/>
@@ -11738,42 +11763,42 @@
     <row r="99" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
-      <c r="C99" s="76" t="s">
-        <v>19</v>
+      <c r="C99" s="88" t="s">
+        <v>17</v>
       </c>
-      <c r="D99" s="77"/>
-      <c r="E99" s="77"/>
-      <c r="F99" s="77"/>
-      <c r="G99" s="77"/>
-      <c r="H99" s="77"/>
+      <c r="D99" s="89"/>
+      <c r="E99" s="89"/>
+      <c r="F99" s="89"/>
+      <c r="G99" s="89"/>
+      <c r="H99" s="89"/>
       <c r="I99" s="59"/>
-      <c r="J99" s="76" t="s">
-        <v>130</v>
+      <c r="J99" s="88" t="s">
+        <v>18</v>
       </c>
-      <c r="K99" s="77"/>
-      <c r="L99" s="77"/>
-      <c r="M99" s="77"/>
-      <c r="N99" s="77"/>
-      <c r="O99" s="77"/>
-      <c r="P99" s="77"/>
-      <c r="Q99" s="77"/>
-      <c r="R99" s="77"/>
-      <c r="S99" s="77"/>
-      <c r="T99" s="77"/>
-      <c r="U99" s="77"/>
-      <c r="V99" s="77"/>
-      <c r="W99" s="77"/>
-      <c r="X99" s="77"/>
-      <c r="Y99" s="77"/>
-      <c r="Z99" s="77"/>
-      <c r="AA99" s="77"/>
-      <c r="AB99" s="77"/>
-      <c r="AC99" s="77"/>
-      <c r="AD99" s="77"/>
-      <c r="AE99" s="77"/>
-      <c r="AF99" s="77"/>
-      <c r="AG99" s="77"/>
-      <c r="AH99" s="77"/>
+      <c r="K99" s="89"/>
+      <c r="L99" s="89"/>
+      <c r="M99" s="89"/>
+      <c r="N99" s="89"/>
+      <c r="O99" s="89"/>
+      <c r="P99" s="89"/>
+      <c r="Q99" s="89"/>
+      <c r="R99" s="89"/>
+      <c r="S99" s="89"/>
+      <c r="T99" s="89"/>
+      <c r="U99" s="89"/>
+      <c r="V99" s="89"/>
+      <c r="W99" s="89"/>
+      <c r="X99" s="89"/>
+      <c r="Y99" s="89"/>
+      <c r="Z99" s="89"/>
+      <c r="AA99" s="89"/>
+      <c r="AB99" s="89"/>
+      <c r="AC99" s="89"/>
+      <c r="AD99" s="89"/>
+      <c r="AE99" s="89"/>
+      <c r="AF99" s="89"/>
+      <c r="AG99" s="89"/>
+      <c r="AH99" s="89"/>
       <c r="AI99" s="59"/>
       <c r="AJ99" s="3"/>
       <c r="AK99" s="3"/>
@@ -11809,46 +11834,46 @@
       <c r="BO99" s="3"/>
       <c r="BP99" s="3"/>
     </row>
-    <row r="100" spans="1:68" ht="31.5" customHeight="1" outlineLevel="1">
+    <row r="100" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
-      <c r="C100" s="76" t="s">
-        <v>21</v>
+      <c r="C100" s="88" t="s">
+        <v>19</v>
       </c>
-      <c r="D100" s="77"/>
-      <c r="E100" s="77"/>
-      <c r="F100" s="77"/>
-      <c r="G100" s="77"/>
-      <c r="H100" s="77"/>
+      <c r="D100" s="89"/>
+      <c r="E100" s="89"/>
+      <c r="F100" s="89"/>
+      <c r="G100" s="89"/>
+      <c r="H100" s="89"/>
       <c r="I100" s="59"/>
-      <c r="J100" s="78" t="s">
-        <v>47</v>
+      <c r="J100" s="88" t="s">
+        <v>129</v>
       </c>
-      <c r="K100" s="79"/>
-      <c r="L100" s="79"/>
-      <c r="M100" s="79"/>
-      <c r="N100" s="79"/>
-      <c r="O100" s="79"/>
-      <c r="P100" s="79"/>
-      <c r="Q100" s="79"/>
-      <c r="R100" s="79"/>
-      <c r="S100" s="79"/>
-      <c r="T100" s="79"/>
-      <c r="U100" s="79"/>
-      <c r="V100" s="79"/>
-      <c r="W100" s="79"/>
-      <c r="X100" s="79"/>
-      <c r="Y100" s="79"/>
-      <c r="Z100" s="79"/>
-      <c r="AA100" s="79"/>
-      <c r="AB100" s="79"/>
-      <c r="AC100" s="79"/>
-      <c r="AD100" s="79"/>
-      <c r="AE100" s="79"/>
-      <c r="AF100" s="79"/>
-      <c r="AG100" s="79"/>
-      <c r="AH100" s="79"/>
-      <c r="AI100" s="80"/>
+      <c r="K100" s="89"/>
+      <c r="L100" s="89"/>
+      <c r="M100" s="89"/>
+      <c r="N100" s="89"/>
+      <c r="O100" s="89"/>
+      <c r="P100" s="89"/>
+      <c r="Q100" s="89"/>
+      <c r="R100" s="89"/>
+      <c r="S100" s="89"/>
+      <c r="T100" s="89"/>
+      <c r="U100" s="89"/>
+      <c r="V100" s="89"/>
+      <c r="W100" s="89"/>
+      <c r="X100" s="89"/>
+      <c r="Y100" s="89"/>
+      <c r="Z100" s="89"/>
+      <c r="AA100" s="89"/>
+      <c r="AB100" s="89"/>
+      <c r="AC100" s="89"/>
+      <c r="AD100" s="89"/>
+      <c r="AE100" s="89"/>
+      <c r="AF100" s="89"/>
+      <c r="AG100" s="89"/>
+      <c r="AH100" s="89"/>
+      <c r="AI100" s="59"/>
       <c r="AJ100" s="3"/>
       <c r="AK100" s="3"/>
       <c r="AL100" s="3"/>
@@ -11883,42 +11908,46 @@
       <c r="BO100" s="3"/>
       <c r="BP100" s="3"/>
     </row>
-    <row r="101" spans="1:68" ht="16.5" outlineLevel="1">
+    <row r="101" spans="1:68" ht="31.5" customHeight="1" outlineLevel="1">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
-      <c r="G101" s="3"/>
-      <c r="H101" s="3"/>
-      <c r="I101" s="3"/>
-      <c r="J101" s="3"/>
-      <c r="K101" s="3"/>
-      <c r="L101" s="3"/>
-      <c r="M101" s="3"/>
-      <c r="N101" s="3"/>
-      <c r="O101" s="3"/>
-      <c r="P101" s="3"/>
-      <c r="Q101" s="3"/>
-      <c r="R101" s="3"/>
-      <c r="S101" s="3"/>
-      <c r="T101" s="3"/>
-      <c r="U101" s="3"/>
-      <c r="V101" s="3"/>
-      <c r="W101" s="3"/>
-      <c r="X101" s="3"/>
-      <c r="Y101" s="3"/>
-      <c r="Z101" s="3"/>
-      <c r="AA101" s="3"/>
-      <c r="AB101" s="3"/>
-      <c r="AC101" s="3"/>
-      <c r="AD101" s="3"/>
-      <c r="AE101" s="3"/>
-      <c r="AF101" s="3"/>
-      <c r="AG101" s="3"/>
-      <c r="AH101" s="3"/>
-      <c r="AI101" s="3"/>
+      <c r="C101" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="D101" s="89"/>
+      <c r="E101" s="89"/>
+      <c r="F101" s="89"/>
+      <c r="G101" s="89"/>
+      <c r="H101" s="89"/>
+      <c r="I101" s="59"/>
+      <c r="J101" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="K101" s="102"/>
+      <c r="L101" s="102"/>
+      <c r="M101" s="102"/>
+      <c r="N101" s="102"/>
+      <c r="O101" s="102"/>
+      <c r="P101" s="102"/>
+      <c r="Q101" s="102"/>
+      <c r="R101" s="102"/>
+      <c r="S101" s="102"/>
+      <c r="T101" s="102"/>
+      <c r="U101" s="102"/>
+      <c r="V101" s="102"/>
+      <c r="W101" s="102"/>
+      <c r="X101" s="102"/>
+      <c r="Y101" s="102"/>
+      <c r="Z101" s="102"/>
+      <c r="AA101" s="102"/>
+      <c r="AB101" s="102"/>
+      <c r="AC101" s="102"/>
+      <c r="AD101" s="102"/>
+      <c r="AE101" s="102"/>
+      <c r="AF101" s="102"/>
+      <c r="AG101" s="102"/>
+      <c r="AH101" s="102"/>
+      <c r="AI101" s="103"/>
       <c r="AJ101" s="3"/>
       <c r="AK101" s="3"/>
       <c r="AL101" s="3"/>
@@ -11953,7 +11982,7 @@
       <c r="BO101" s="3"/>
       <c r="BP101" s="3"/>
     </row>
-    <row r="102" spans="1:68" ht="16.5">
+    <row r="102" spans="1:68" ht="16.5" outlineLevel="1">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -12023,216 +12052,78 @@
       <c r="BO102" s="3"/>
       <c r="BP102" s="3"/>
     </row>
+    <row r="103" spans="1:68" ht="16.5">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="3"/>
+      <c r="P103" s="3"/>
+      <c r="Q103" s="3"/>
+      <c r="R103" s="3"/>
+      <c r="S103" s="3"/>
+      <c r="T103" s="3"/>
+      <c r="U103" s="3"/>
+      <c r="V103" s="3"/>
+      <c r="W103" s="3"/>
+      <c r="X103" s="3"/>
+      <c r="Y103" s="3"/>
+      <c r="Z103" s="3"/>
+      <c r="AA103" s="3"/>
+      <c r="AB103" s="3"/>
+      <c r="AC103" s="3"/>
+      <c r="AD103" s="3"/>
+      <c r="AE103" s="3"/>
+      <c r="AF103" s="3"/>
+      <c r="AG103" s="3"/>
+      <c r="AH103" s="3"/>
+      <c r="AI103" s="3"/>
+      <c r="AJ103" s="3"/>
+      <c r="AK103" s="3"/>
+      <c r="AL103" s="3"/>
+      <c r="AM103" s="3"/>
+      <c r="AN103" s="3"/>
+      <c r="AO103" s="3"/>
+      <c r="AP103" s="3"/>
+      <c r="AQ103" s="3"/>
+      <c r="AR103" s="3"/>
+      <c r="AS103" s="3"/>
+      <c r="AT103" s="3"/>
+      <c r="AU103" s="3"/>
+      <c r="AV103" s="3"/>
+      <c r="AW103" s="3"/>
+      <c r="AX103" s="3"/>
+      <c r="AY103" s="3"/>
+      <c r="AZ103" s="3"/>
+      <c r="BA103" s="3"/>
+      <c r="BB103" s="3"/>
+      <c r="BC103" s="3"/>
+      <c r="BD103" s="3"/>
+      <c r="BE103" s="3"/>
+      <c r="BF103" s="3"/>
+      <c r="BG103" s="3"/>
+      <c r="BH103" s="3"/>
+      <c r="BI103" s="3"/>
+      <c r="BJ103" s="3"/>
+      <c r="BK103" s="3"/>
+      <c r="BL103" s="3"/>
+      <c r="BM103" s="3"/>
+      <c r="BN103" s="3"/>
+      <c r="BO103" s="3"/>
+      <c r="BP103" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="232">
-    <mergeCell ref="C75:J75"/>
-    <mergeCell ref="K75:Q75"/>
-    <mergeCell ref="R75:AJ75"/>
-    <mergeCell ref="AS75:AY75"/>
-    <mergeCell ref="C76:J76"/>
-    <mergeCell ref="K76:Q76"/>
-    <mergeCell ref="R76:AJ76"/>
-    <mergeCell ref="AS76:AY76"/>
-    <mergeCell ref="C73:J73"/>
-    <mergeCell ref="K73:Q73"/>
-    <mergeCell ref="R73:AJ73"/>
-    <mergeCell ref="AS73:AY73"/>
-    <mergeCell ref="C74:J74"/>
-    <mergeCell ref="K74:Q74"/>
-    <mergeCell ref="R74:AJ74"/>
-    <mergeCell ref="AS74:AY74"/>
-    <mergeCell ref="C71:J71"/>
-    <mergeCell ref="K71:Q71"/>
-    <mergeCell ref="R71:AJ71"/>
-    <mergeCell ref="AS71:AY71"/>
-    <mergeCell ref="C72:J72"/>
-    <mergeCell ref="K72:Q72"/>
-    <mergeCell ref="R72:AJ72"/>
-    <mergeCell ref="AS72:AY72"/>
-    <mergeCell ref="C66:J66"/>
-    <mergeCell ref="K66:Q66"/>
-    <mergeCell ref="R66:AJ66"/>
-    <mergeCell ref="AS66:AY66"/>
-    <mergeCell ref="C67:J67"/>
-    <mergeCell ref="K67:Q67"/>
-    <mergeCell ref="R67:AJ67"/>
-    <mergeCell ref="AS67:AY67"/>
-    <mergeCell ref="C65:J65"/>
-    <mergeCell ref="K65:Q65"/>
-    <mergeCell ref="R65:AJ65"/>
-    <mergeCell ref="AS65:AY65"/>
-    <mergeCell ref="C62:J62"/>
-    <mergeCell ref="K62:Q62"/>
-    <mergeCell ref="R62:AJ62"/>
-    <mergeCell ref="AS62:AY62"/>
-    <mergeCell ref="C64:J64"/>
-    <mergeCell ref="K64:Q64"/>
-    <mergeCell ref="R64:AJ64"/>
-    <mergeCell ref="AS64:AY64"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:K16"/>
-    <mergeCell ref="C85:I85"/>
-    <mergeCell ref="C86:I86"/>
-    <mergeCell ref="I9:BJ9"/>
-    <mergeCell ref="L15:AB16"/>
-    <mergeCell ref="AC15:AK16"/>
-    <mergeCell ref="AL15:BO15"/>
-    <mergeCell ref="AL16:AT16"/>
-    <mergeCell ref="AU16:AY16"/>
-    <mergeCell ref="AZ16:BO16"/>
-    <mergeCell ref="AZ19:BO19"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="L19:AB19"/>
-    <mergeCell ref="AC19:AK19"/>
-    <mergeCell ref="AL19:AT19"/>
-    <mergeCell ref="J86:AI86"/>
-    <mergeCell ref="J85:AI85"/>
-    <mergeCell ref="J84:AI84"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="I10:BJ10"/>
-    <mergeCell ref="AU19:AY19"/>
-    <mergeCell ref="AZ22:BO22"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="L22:AB22"/>
-    <mergeCell ref="AC22:AK22"/>
-    <mergeCell ref="AL22:AT22"/>
-    <mergeCell ref="AU22:AY22"/>
-    <mergeCell ref="AZ25:BO25"/>
-    <mergeCell ref="AZ26:BO26"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="L26:AB26"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="I7:BJ7"/>
-    <mergeCell ref="AC18:AK18"/>
-    <mergeCell ref="AL18:AT18"/>
-    <mergeCell ref="AU18:AY18"/>
-    <mergeCell ref="AZ18:BO18"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="L20:AB20"/>
-    <mergeCell ref="AC20:AK20"/>
-    <mergeCell ref="AL20:AT20"/>
-    <mergeCell ref="AU20:AY20"/>
-    <mergeCell ref="AZ20:BO20"/>
-    <mergeCell ref="C84:I84"/>
-    <mergeCell ref="I8:BJ8"/>
-    <mergeCell ref="AC26:AK26"/>
-    <mergeCell ref="AL26:AT26"/>
-    <mergeCell ref="AU26:AY26"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="L25:AB25"/>
-    <mergeCell ref="AC25:AK25"/>
-    <mergeCell ref="AL25:AT25"/>
-    <mergeCell ref="AU25:AY25"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="L18:AB18"/>
-    <mergeCell ref="C63:J63"/>
-    <mergeCell ref="K63:Q63"/>
-    <mergeCell ref="R63:AJ63"/>
-    <mergeCell ref="AS63:AY63"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="L17:AB17"/>
-    <mergeCell ref="AC17:AK17"/>
-    <mergeCell ref="AL17:AT17"/>
-    <mergeCell ref="AU17:AY17"/>
-    <mergeCell ref="AZ17:BO17"/>
-    <mergeCell ref="C28:K28"/>
-    <mergeCell ref="L28:AB28"/>
-    <mergeCell ref="AC28:AK28"/>
-    <mergeCell ref="AL28:AT28"/>
-    <mergeCell ref="AU28:AY28"/>
-    <mergeCell ref="AZ28:BO28"/>
-    <mergeCell ref="C29:K29"/>
-    <mergeCell ref="L29:AB29"/>
-    <mergeCell ref="AC29:AK29"/>
-    <mergeCell ref="AL29:AT29"/>
-    <mergeCell ref="AU29:AY29"/>
-    <mergeCell ref="AZ29:BO29"/>
-    <mergeCell ref="C30:K30"/>
-    <mergeCell ref="L30:AB30"/>
-    <mergeCell ref="AC30:AK30"/>
-    <mergeCell ref="AL30:AT30"/>
-    <mergeCell ref="AU30:AY30"/>
-    <mergeCell ref="AZ30:BO30"/>
-    <mergeCell ref="D32:K32"/>
-    <mergeCell ref="L32:AB32"/>
-    <mergeCell ref="AC32:AK32"/>
-    <mergeCell ref="AL32:AT32"/>
-    <mergeCell ref="AU32:AY32"/>
-    <mergeCell ref="AZ32:BO32"/>
-    <mergeCell ref="D35:K35"/>
-    <mergeCell ref="L35:AB35"/>
-    <mergeCell ref="AC35:AK35"/>
-    <mergeCell ref="AL35:AT35"/>
-    <mergeCell ref="AU35:AY35"/>
-    <mergeCell ref="AZ35:BO35"/>
-    <mergeCell ref="D36:K36"/>
-    <mergeCell ref="L36:AB36"/>
-    <mergeCell ref="AC36:AK36"/>
-    <mergeCell ref="AL36:AT36"/>
-    <mergeCell ref="AU36:AY36"/>
-    <mergeCell ref="AZ36:BO36"/>
-    <mergeCell ref="C38:K38"/>
-    <mergeCell ref="L38:AB38"/>
-    <mergeCell ref="AC38:AK38"/>
-    <mergeCell ref="AL38:AT38"/>
-    <mergeCell ref="AU38:AY38"/>
-    <mergeCell ref="AZ38:BO38"/>
-    <mergeCell ref="C39:K39"/>
-    <mergeCell ref="L39:AB39"/>
-    <mergeCell ref="AC39:AK39"/>
-    <mergeCell ref="AL39:AT39"/>
-    <mergeCell ref="AU39:AY39"/>
-    <mergeCell ref="AZ39:BO39"/>
-    <mergeCell ref="AU46:AY46"/>
-    <mergeCell ref="AZ46:BO46"/>
-    <mergeCell ref="C40:K40"/>
-    <mergeCell ref="L40:AB40"/>
-    <mergeCell ref="AC40:AK40"/>
-    <mergeCell ref="AL40:AT40"/>
-    <mergeCell ref="AU40:AY40"/>
-    <mergeCell ref="AZ40:BO40"/>
-    <mergeCell ref="D42:K42"/>
-    <mergeCell ref="L42:AB42"/>
-    <mergeCell ref="AC42:AK42"/>
-    <mergeCell ref="AL42:AT42"/>
-    <mergeCell ref="AU42:AY42"/>
-    <mergeCell ref="AZ42:BO42"/>
-    <mergeCell ref="C91:I91"/>
-    <mergeCell ref="J91:AI91"/>
-    <mergeCell ref="C92:I92"/>
-    <mergeCell ref="J92:AI92"/>
-    <mergeCell ref="C93:I93"/>
-    <mergeCell ref="J93:AI93"/>
-    <mergeCell ref="C98:I98"/>
-    <mergeCell ref="J98:AI98"/>
-    <mergeCell ref="C99:I99"/>
-    <mergeCell ref="J99:AI99"/>
-    <mergeCell ref="C100:I100"/>
-    <mergeCell ref="J100:AI100"/>
-    <mergeCell ref="D23:K23"/>
-    <mergeCell ref="L23:AB23"/>
-    <mergeCell ref="AC23:AK23"/>
-    <mergeCell ref="AL23:AT23"/>
-    <mergeCell ref="AU23:AY23"/>
-    <mergeCell ref="AZ23:BO23"/>
-    <mergeCell ref="D33:K33"/>
-    <mergeCell ref="L33:AB33"/>
-    <mergeCell ref="AC33:AK33"/>
-    <mergeCell ref="AL33:AT33"/>
-    <mergeCell ref="AU33:AY33"/>
-    <mergeCell ref="AZ33:BO33"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="L27:AB27"/>
-    <mergeCell ref="AC27:AK27"/>
-    <mergeCell ref="AL27:AT27"/>
-    <mergeCell ref="AU27:AY27"/>
-    <mergeCell ref="AZ27:BO27"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="L37:AB37"/>
-    <mergeCell ref="AC37:AK37"/>
-    <mergeCell ref="AL37:AT37"/>
+  <mergeCells count="236">
     <mergeCell ref="AU37:AY37"/>
     <mergeCell ref="AZ37:BO37"/>
     <mergeCell ref="D43:K43"/>
@@ -12257,6 +12148,218 @@
     <mergeCell ref="L46:AB46"/>
     <mergeCell ref="AC46:AK46"/>
     <mergeCell ref="AL46:AT46"/>
+    <mergeCell ref="C101:I101"/>
+    <mergeCell ref="J101:AI101"/>
+    <mergeCell ref="D23:K23"/>
+    <mergeCell ref="L23:AB23"/>
+    <mergeCell ref="AC23:AK23"/>
+    <mergeCell ref="AL23:AT23"/>
+    <mergeCell ref="AU23:AY23"/>
+    <mergeCell ref="AZ23:BO23"/>
+    <mergeCell ref="D33:K33"/>
+    <mergeCell ref="L33:AB33"/>
+    <mergeCell ref="AC33:AK33"/>
+    <mergeCell ref="AL33:AT33"/>
+    <mergeCell ref="AU33:AY33"/>
+    <mergeCell ref="AZ33:BO33"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="L27:AB27"/>
+    <mergeCell ref="AC27:AK27"/>
+    <mergeCell ref="AL27:AT27"/>
+    <mergeCell ref="AU27:AY27"/>
+    <mergeCell ref="AZ27:BO27"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="L37:AB37"/>
+    <mergeCell ref="AC37:AK37"/>
+    <mergeCell ref="AL37:AT37"/>
+    <mergeCell ref="C92:I92"/>
+    <mergeCell ref="J92:AI92"/>
+    <mergeCell ref="C93:I93"/>
+    <mergeCell ref="J93:AI93"/>
+    <mergeCell ref="C94:I94"/>
+    <mergeCell ref="J94:AI94"/>
+    <mergeCell ref="C99:I99"/>
+    <mergeCell ref="J99:AI99"/>
+    <mergeCell ref="C100:I100"/>
+    <mergeCell ref="J100:AI100"/>
+    <mergeCell ref="AU46:AY46"/>
+    <mergeCell ref="AZ46:BO46"/>
+    <mergeCell ref="C40:K40"/>
+    <mergeCell ref="L40:AB40"/>
+    <mergeCell ref="AC40:AK40"/>
+    <mergeCell ref="AL40:AT40"/>
+    <mergeCell ref="AU40:AY40"/>
+    <mergeCell ref="AZ40:BO40"/>
+    <mergeCell ref="D42:K42"/>
+    <mergeCell ref="L42:AB42"/>
+    <mergeCell ref="AC42:AK42"/>
+    <mergeCell ref="AL42:AT42"/>
+    <mergeCell ref="AU42:AY42"/>
+    <mergeCell ref="AZ42:BO42"/>
+    <mergeCell ref="C38:K38"/>
+    <mergeCell ref="L38:AB38"/>
+    <mergeCell ref="AC38:AK38"/>
+    <mergeCell ref="AL38:AT38"/>
+    <mergeCell ref="AU38:AY38"/>
+    <mergeCell ref="AZ38:BO38"/>
+    <mergeCell ref="C39:K39"/>
+    <mergeCell ref="L39:AB39"/>
+    <mergeCell ref="AC39:AK39"/>
+    <mergeCell ref="AL39:AT39"/>
+    <mergeCell ref="AU39:AY39"/>
+    <mergeCell ref="AZ39:BO39"/>
+    <mergeCell ref="D35:K35"/>
+    <mergeCell ref="L35:AB35"/>
+    <mergeCell ref="AC35:AK35"/>
+    <mergeCell ref="AL35:AT35"/>
+    <mergeCell ref="AU35:AY35"/>
+    <mergeCell ref="AZ35:BO35"/>
+    <mergeCell ref="D36:K36"/>
+    <mergeCell ref="L36:AB36"/>
+    <mergeCell ref="AC36:AK36"/>
+    <mergeCell ref="AL36:AT36"/>
+    <mergeCell ref="AU36:AY36"/>
+    <mergeCell ref="AZ36:BO36"/>
+    <mergeCell ref="C30:K30"/>
+    <mergeCell ref="L30:AB30"/>
+    <mergeCell ref="AC30:AK30"/>
+    <mergeCell ref="AL30:AT30"/>
+    <mergeCell ref="AU30:AY30"/>
+    <mergeCell ref="AZ30:BO30"/>
+    <mergeCell ref="D32:K32"/>
+    <mergeCell ref="L32:AB32"/>
+    <mergeCell ref="AC32:AK32"/>
+    <mergeCell ref="AL32:AT32"/>
+    <mergeCell ref="AU32:AY32"/>
+    <mergeCell ref="AZ32:BO32"/>
+    <mergeCell ref="AC28:AK28"/>
+    <mergeCell ref="AL28:AT28"/>
+    <mergeCell ref="AU28:AY28"/>
+    <mergeCell ref="AZ28:BO28"/>
+    <mergeCell ref="C29:K29"/>
+    <mergeCell ref="L29:AB29"/>
+    <mergeCell ref="AC29:AK29"/>
+    <mergeCell ref="AL29:AT29"/>
+    <mergeCell ref="AU29:AY29"/>
+    <mergeCell ref="AZ29:BO29"/>
+    <mergeCell ref="C85:I85"/>
+    <mergeCell ref="I8:BJ8"/>
+    <mergeCell ref="AC26:AK26"/>
+    <mergeCell ref="AL26:AT26"/>
+    <mergeCell ref="AU26:AY26"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="L25:AB25"/>
+    <mergeCell ref="AC25:AK25"/>
+    <mergeCell ref="AL25:AT25"/>
+    <mergeCell ref="AU25:AY25"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="L18:AB18"/>
+    <mergeCell ref="C63:J63"/>
+    <mergeCell ref="K63:Q63"/>
+    <mergeCell ref="R63:AJ63"/>
+    <mergeCell ref="AS63:AY63"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="L17:AB17"/>
+    <mergeCell ref="AC17:AK17"/>
+    <mergeCell ref="AL17:AT17"/>
+    <mergeCell ref="AU17:AY17"/>
+    <mergeCell ref="AZ17:BO17"/>
+    <mergeCell ref="C28:K28"/>
+    <mergeCell ref="L28:AB28"/>
+    <mergeCell ref="L22:AB22"/>
+    <mergeCell ref="AC22:AK22"/>
+    <mergeCell ref="AL22:AT22"/>
+    <mergeCell ref="AU22:AY22"/>
+    <mergeCell ref="AZ25:BO25"/>
+    <mergeCell ref="AZ26:BO26"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="L26:AB26"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="I7:BJ7"/>
+    <mergeCell ref="AC18:AK18"/>
+    <mergeCell ref="AL18:AT18"/>
+    <mergeCell ref="AU18:AY18"/>
+    <mergeCell ref="AZ18:BO18"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="L20:AB20"/>
+    <mergeCell ref="AC20:AK20"/>
+    <mergeCell ref="AL20:AT20"/>
+    <mergeCell ref="AU20:AY20"/>
+    <mergeCell ref="AZ20:BO20"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:K16"/>
+    <mergeCell ref="C86:I86"/>
+    <mergeCell ref="C87:I87"/>
+    <mergeCell ref="I9:BJ9"/>
+    <mergeCell ref="L15:AB16"/>
+    <mergeCell ref="AC15:AK16"/>
+    <mergeCell ref="AL15:BO15"/>
+    <mergeCell ref="AL16:AT16"/>
+    <mergeCell ref="AU16:AY16"/>
+    <mergeCell ref="AZ16:BO16"/>
+    <mergeCell ref="AZ19:BO19"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="L19:AB19"/>
+    <mergeCell ref="AC19:AK19"/>
+    <mergeCell ref="AL19:AT19"/>
+    <mergeCell ref="J87:AI87"/>
+    <mergeCell ref="J86:AI86"/>
+    <mergeCell ref="J85:AI85"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="I10:BJ10"/>
+    <mergeCell ref="AU19:AY19"/>
+    <mergeCell ref="AZ22:BO22"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="C67:J67"/>
+    <mergeCell ref="K67:Q67"/>
+    <mergeCell ref="R67:AJ67"/>
+    <mergeCell ref="AS67:AY67"/>
+    <mergeCell ref="C62:J62"/>
+    <mergeCell ref="K62:Q62"/>
+    <mergeCell ref="R62:AJ62"/>
+    <mergeCell ref="AS62:AY62"/>
+    <mergeCell ref="C64:J64"/>
+    <mergeCell ref="K64:Q64"/>
+    <mergeCell ref="R64:AJ64"/>
+    <mergeCell ref="AS64:AY64"/>
+    <mergeCell ref="C65:J65"/>
+    <mergeCell ref="K65:Q65"/>
+    <mergeCell ref="R65:AJ65"/>
+    <mergeCell ref="AS65:AY65"/>
+    <mergeCell ref="C66:J66"/>
+    <mergeCell ref="K66:Q66"/>
+    <mergeCell ref="R66:AJ66"/>
+    <mergeCell ref="AS66:AY66"/>
+    <mergeCell ref="C73:J73"/>
+    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="R73:AJ73"/>
+    <mergeCell ref="AS73:AY73"/>
+    <mergeCell ref="C74:J74"/>
+    <mergeCell ref="K74:Q74"/>
+    <mergeCell ref="R74:AJ74"/>
+    <mergeCell ref="AS74:AY74"/>
+    <mergeCell ref="C68:J68"/>
+    <mergeCell ref="K68:Q68"/>
+    <mergeCell ref="R68:AJ68"/>
+    <mergeCell ref="AS68:AY68"/>
+    <mergeCell ref="C69:J69"/>
+    <mergeCell ref="K69:Q69"/>
+    <mergeCell ref="R69:AJ69"/>
+    <mergeCell ref="AS69:AY69"/>
+    <mergeCell ref="C76:J76"/>
+    <mergeCell ref="K76:Q76"/>
+    <mergeCell ref="R76:AJ76"/>
+    <mergeCell ref="AS76:AY76"/>
+    <mergeCell ref="C77:J77"/>
+    <mergeCell ref="K77:Q77"/>
+    <mergeCell ref="R77:AJ77"/>
+    <mergeCell ref="AS77:AY77"/>
+    <mergeCell ref="C75:J75"/>
+    <mergeCell ref="K75:Q75"/>
+    <mergeCell ref="R75:AJ75"/>
+    <mergeCell ref="AS75:AY75"/>
   </mergeCells>
   <phoneticPr fontId="6"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12265,7 +12368,7 @@
     <brk id="3" max="16383" man="1"/>
     <brk id="12" max="16383" man="1"/>
     <brk id="48" max="16383" man="1"/>
-    <brk id="78" max="16383" man="1"/>
+    <brk id="79" max="16383" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
